--- a/Data.xlsx
+++ b/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
   <si>
     <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAAB0CAYAAACrHWTsAAAgAElEQVR4Xu1dB5gV1dl+59a9d4sVNZoYowSNYjeWJHaBGE1ijL+KWGNBY4uKHVDsoGgisSBGQY0gClFiCUY0osaAiho7sbcYK7C7t8/M/3xnZvaWnXvnTLl39+5+48OzyJ7ynfec+d75yjlH0XVdRzM8lpRKMwjLMtYfAc3sIlT/rrgHRoARsEVAYQLhldGcCDCBNOe8sdQDCYHmIZAqqPc2TEixOH+VskET0DJ2BNKdotdhlFck5jCgEXAzjAAj4BGBQUsgHvHiapUIMIHwmmAEBi0C9SMQR8ViYi5bLqApou44jBIQmNwMI8AIDGoEBi+BNJi4BvUq48EzAozAgESgfgTSCy53vnDPaDsSgymHbsZJ2BzxDLVURcf5qGjFbXkpIbgQI8AI1AMBJhAmkHqsq2KbbgnBbfn6Ss+tMwKMQA0EGkYgZbEHTQdC1TS3ZalYUjtkVJU0zPGN5l/rtC1JUZjVm38meQSDAYG+IZCamt47gQyGCWv2McoShGy5ZseD5WcEmhkB3wTSrB6HZpW7mRebnOwNipXJCcOlGAFGoD+4sCwZaKMYqQgVao9Y5LCIIOx58xi1Se0ZLdM2whDCDu0xgfTX90IDNA3Iq4BaaY1SDnZJEkQ4BESiAP3khxFgBBqOgG8LxI3EBnloKCCPDLJC6RNtRBAT/0URkdpFbvRZ/FKl9lJIi3bpiSCKJBLiJz/Ng0CP2yqbBVatAuhnxXPt/j8z/yWEb+JxXLp4MRCPN88gWVJGoI4IVMYP633UoX8CcRG5tgjkwcV/xZlTzkA+moWihXDCYSdi3CHjEAcpAtmvSYNAqPs00vjl7w7AGx+8jpAewtB1vo9HbnnEbK+Os8VN10aALIh8DtBVgNKmyXqw0qfpDE8rWG79u/WzkMele++N1rzxQVD6nPnggh4CEcTR0THgCMQuicCvImi0YuFXo74IVEs08btO3Ertn0BKLAEZLiES+QbfYOcxO+IL7XOhVDZZcyie+ONTaEMboCtlWThlbVZ0QG3loeLf/3sJPzv5p8hGs2gpJPG7MafhjAPOQgsSNniwj93tIqldvgaeZEGsXAXk0uaHQfk5Zdfuv7/ZtPXvxs/uaBgTFj1huKcqn0Hiwgpa4QfdXrBriFuzQ6BWNmKjiaLaDAVGILppOdRMwNQNiyGlAGffMg5zHpuNQlhFIteCeZP/gp2HbguFMnxLAxRKydEjFQRSQAFZZDB59pX4w4I/QI2qaE23Y+GsR/CD5PAqFggTiOvXVdeMeASlX2uFovfQUuZWg5Z1Yf1/IY/L9toTrYU8jPVRTiBnPvigLYHYWRaDLSsrSIUfZFuu1w5XqIlAM5BErQEEQCBW886KmbwWydYfIBeKQIt3ArEM1ttuU4S1MI4YdSTGn3Y0IuTZMAmEtopQfLTatoAcsuhCF/YZuxfe7louvl5333gP3HXpn5FAq4iqBP64jL5XL+6Ml5DdaoD+LthZE/9UPK3Wvp3e/Ur2R11W7sUoFIx4BP3JZYFCMQHCYpNr9/9FL6i7o1FMWLQIiIZ7u7BKS1e6sAZxcLweCoUJJHAt4LrB/uJyci24Q4XACUQvcUFVKiIiEPqQLShAPgTsd9jxeGrxXwzfeDYB5BOI5BIIaWEhdgh5dHW/VjUqkg0Bi//zTxw97iikW1IIaxFM/u1VGL3naMQAhImMehSvPRKuv2yrMIJ1DHlp3hBlg1mPvWUmcfR8PQhETELePsvJDiZNFbGMiaP2RbKQQ4wskZ7HGPGZDz7cuybFKFbrgB6L8wGWHt5cmQ2VTq6MesRTPAxlUFSpB/n3d+ACJBDnoZInhDSJqgAFAFPvuh6/v38q8pEc4vk4pl18A/bfcj8kKNZK7i4FaGvdAqpuJPmK72+l+IWcj+Rx+iWn4d5H70UhkkUy1Iqn7/kb1owBIQ0gGgqFq1swtSS2VKQOHYr4zwzaV8RoDCPByC5Tzb/RVzlZCOGedGKDDv08RaKTsyRqEmPNLCcrLlGUNhdSkIrEcMnCR4AogWsQvHhKA+OlA6TpIksizGm2XuddRvnLkExp/06E41XWwVJvMJJErbl1RSAUcyC3kbGHw1KINrn6VXqkvRmUaUVf5tTGa1+/in1O2hOpeArRQhT77/ILTD91BpJICgVsWSzi5BNToxOBCKWtAJ0KMGSD9YAIZfoAyMehpFdDNN8CRVOghHLoTL1mkE6FN8hpwdOuEtqtEoYm5I0KEqExG+MuTUkuQMUXuS/w3EvP4b9ffgZVzWO19tXx/Y2GYvhGw01XWqgn3cDAIYqwSFs22iI8CN/S/Sz2MhYJhHLWYsTKxMbEykSZBExlLKKyoZpZTlZcoqRSJAzE4ka2UywGRJ1dgy49fU7TMWh/79f95EQwjSQUv2Np5CIYqC6noDGUJhAR/EY3fnDAMKTi3WVyiK9di09IgVV5ktlWvHn/ciTRKpQmxS9+Of7neO6DJdBDOlZT18Dzdy3DOlhHKG1FDxkhgFKPCenKkKEzFyx9CCdPPhmFSB4tuQRunHQj9t1qJOKmjiWdGlt9Y0OfRlRAoVrFZ5Ottxb+/sqvaDWchRZZBYTSiKsqXnj4X0Jma1+JYWvoIoD/wv+exzUzrsGzrzyLglIw9LeuCtlDuoK1OtbGiL1HIhqNYvY9d0NTNCRyCYFDQk+KjDNjH0s3tt1/G0GmZJH1fswgtBUg0hUMSenY4vMC1usCYoUorl38HFCIAlpEWHrFLKfy1mpmOdnNneDNiHF+mQhK+bOmgl7E/ak9J4XtJGulQvejdOthwdjJ70RCXjCxa9NLO6XyOmFbq6zTvA3W37siEFL4w369MbpbOmviRUpUU3Toiib+kNIM6yG0dbfjnfs+QDs6RH1SmjOevBmTbr4YmUgG8UILrjt5Gkb/5BBEEBcuILuHFC7t/Thpykl48KX7RfvfjX8PT9z2JDrQgZjYT2KQDCWQbr/Xz5GLZlEIFcrspk/+/W+j+dIgblgFQjkgnME6W26ORC6CFx96HklEEaNEpBIX3C3zZmDqHdciHUuhEM5BVcjdZVpLgqwKUIhqFA1qqCAw0UIFtGba8N49H6JNbxcEoiKLPFbhh/tugWx8FdRQ+QY6IqKQFhF7XMiVZrSnoT2nY8twK9ZMRZDMJgWJtuTjCKsxQWTFLKcKFAfo/on+8BI3Qsk5KWwLB1nyCVrmav27mZ96EEhl/7I4upF7sJUtEkjNU22NYG8GaWx74NbIxDI99/rputbr9FRSbqQw86GcsDJI4UXyEXyvdRM8O2MJWmm/BzRkkcXH+Bh7HLI7VkS/QVgLYa/NRmDmxJllX/yVk0L1PsEn2O3gXbEy/hUiahhjR/0WE466SLjIKGJCZgdZIFlo2GW/3QSBkEzClaXrCJmpXcK4UTRhMVBMpTvSjYyWQ0hLYOXSD4HuIVAyHYioMSi6Al3RDQshlsJ3thsGNaJCU1ShsDcbthm232I7rLF6GwqFVfjkf8vx0hvP4sMv30Y6lkYhnDcUf9ogEItIoWcBfQUO3mNbtOgrENWJ9ooP9b12eG3EVEoNgGgnHU3hqzYNL6srkQvHsXHLUCy45wnhxoOZhNDTQqVLy1WWU7WYS/HfXSciDOC3rB7KWJYIKmGVredX5npMZz0IhAkj+JmSIJDKI0O6kUNeuJiM35QqGCPFlCIlaWRwyu9/iydfeFK4clbX18DtU27HTzbYzdzgR0eaqMIKOeWaU7Fg2XxDuWY68Njdi7BJ7PtVd5JTndufmYmLrr8Q2VhGBOD/eu0j2H797UVkQcQqyP2lkCQUW8gjJ/5G0lUqRJKZnFK0pySL46cdj2eWLEU8tzpWL3wHd14xDzt8/1sitZhIohAGnn39Ixwz7mh8/NrzQD4C6FFApT9h8SekF9CW68LK7v8BoRRee38ZJt88Gf967QVkohpasq1Y/tflQNo8goPiGHoKp++3N+J6N8JIQ0EeSkgVZBfNRzFp/hOGaypUAKJp/Gn8WMx74xm8uVYU+cSauPPK2dh5w50R7YmtyAXbnZeUM4E4t8El7BCQcTGJ75uKPHYZReiljswsybQrS0il4/DbrpN7SgYzmfFzmXIEpF1YVM0K9lKAmVw1FaEJ0bKOAlLI4PK/XIIZ990CNaSLjYLXnnEdDtr5YEEKIngsFLKh4B988a84fvKxYic5kcF5vzkfp4w8VVgh5Y9BUF1I4aBJB+Cfbz0tXq4t1h+OR69eJHayGxGYYoCfwv1GwJuiFvYBf8sldvV9k3HTX24SRNGaXh1Txk3FQbscirgZxM+FyO2Wx+hzDsHS958TZLReeH3MveU+fK/9uyIkTv3HKISxMo8R6yTFyVwqJQRAQyd0fB5RoOgRHLH1PujIGHJmQgq64hFMeXQORP4xxaiVLKCYlghZEERO5F6LdWPa7VMwff5NSEWJhNsw6bwpOHjHQ9GCFiN2JAjURK7Gzs4yy8FtebN5p2pOvx+sL6QsedgRiHjPKHZX45FRyG6xl5VZtm9ZorHkdBqzVU5WTrfj5/K9EXBFIHYAlioIK0vrgefn49SrT0UukhWun7G/Hovx/zext4KjGAk0rMBK7HjsD/FZ9r/iS3+rDbbBI1MWmoRQJAPqi7KU3lr1FvY4YVekomnEC1GcdeTZOGPfs2wIx37KLcVpZVJlkMH85+/D2VeNQyaWFftQTvrVb3HBIeegleIpuYixAzucxavLn8LRZx4hgt1hPYKLx07Cr392tOE6IiuEnoKGSXvuj2QuAl1PQFVCKIQLWNVSwGdtwKqvOvH1S2+gwyS6NCL4BnGsQBzfROLIRgvo6nqjSIMUmFcA4qX7n12AsyePEy4xykwbe+BJOGf0OcbRkeZk9Ox9KXFLOi7+avtbHC54ciIIp987yjUAC3hRcLJKuZoSlVW+1eB2I7OMrG7Jo1KuauNxI+cAXFoNH5JvAun5OgDFG9J4/vOlOOKsw/GV9qXY2PezbX6OG8+9UewM73EvlQ1TQzdSOP/O83HnwzORi+SRzCewcNpj2GrIVuKLmnZUCL1sphFPWzANV82+XChlcnn9/e5HMTS2WYXLq8L1YqPJDOdWHss+W4bRZx+Cleo3iGgR7L3DCMwYdys6iDzSKpDJmSfDpvGvP03BbffeikJIxZDV1kZ7qkNYTWRVUJCbnq5IBBMffxKIJIyU2lgeN91xFW6892Z0tuQRzyfw1oLlQMZ0YZkZuFaWMMVuaP+LZu6kp7iLGslDi2SAWBoI57H+1sOx+8574oaJFwkLiZLMqHfydlCylPB61DpXxoVmL7NUKKeaGvd5aaCL7hv+UtS7QxkFWymDmzpuysqO1U2bMuTg1+Uk0weNzS9xyuIzWMv5IhAromDEPYBP8//FgacegA9WvCNSZjf/9uaYe/VcDMG6VcjDgJ2C809/8jTG/G40Ui1diBSiOOOXZ2LcoecUXV6gL/A8utGJX5y+P17+8mXxBU5B99snzkRrSZqt0WoJgVhnOankNys5yymcRy71Xxxy8sF4e9Vy4W4bvsHmuPMPdyOurAdkI0Ahhwmj9kVrPgc9nEFnYoVwtZGy3ni9oThp6mygUHGceEWWE8VsLp93KW687wZRlzKmRBBd7xABfENBFzfnle5/EZZHGPgsDYwZewQ++fIjkQr26bLlZTv3xT4ZRRWxk1VdbyLsoODp1xYX9Cx+s07N3fsBaf6Ammm699aNIi4dnJsva699yFofTsq/tB1ZBR6EzEwqjX8dahCIcxCW4gtEHJR0moKO48aPxdNvPSX89xsk2jH7hjswrG0YoubmQRE3sXGJWMSw/6k/wytfvyKU/6ZtP8Cj0/+OVpGWa7iGiGiWfL4EB598kCCacD6CP5x6Aw758cGij2ppv6CznDIlZzmp5llOSgZ/OvsYPPfqEnSstRqiWhSxXBzxfAsialTELrpicVxKO7AjMSCZxqhjfoT3V76HqBrBoSNGY/zJ1wBZinWYj80O7HICyZsE8n4xC6ty3s1DJ2kG6NiXTmRxxMVHYMnrzworZ92W9XDf9fdi4zU2FGeH9Rw+adJme9sw6Hoc0MMi7Zie0o2YnZ0vldchq8V0d0lbMG7X6mBljBKc/CpJ2fqy5WSmUEYpuw2G2/XrV2Y39Z3GJEt6MvgN9DK+CMQgDw1b7fNDdEWzSMfy0EIqIqqCOdfPxC4b7WAq9toej4I4lj2LaQv+iGtmTxbptslsArOmzsSe392jxzXVjS5MnDMRf54/HS1qFuvoa2DJ7KVQMMQ848Rm34g4E8W4l2LCqJFoLdDu8rxwlZE1kIl1Cysg91UBv586A9h8RyPbiRQe7cBusXZgx9EZSWGzw4dhRehrRAtxHPfL43DJIZchqbf2DNBOT5LcV8y7zLRAJAjEXHVZkTuWwUV/moiZf7/dcNlp7bht8m3YfcM9BS7FQxWNrAYaLlkWIsZKf68gEKLOjo5teu3sL7VgOrvftN2BU3qFh+2LYXm2fLq3BtpLV01huVVUMlaIG0VaiXMQitVr/17r0RhkcHGzpoLAwU1/zVy2OoFIfDFSTIIyru566m6M/+NEsUmONrNNOONSTLl4GsJqwthNruviitnicd4aljy5uAc3+tKmP+/nPsaow0cgF04hqmkYs89BuPr4q5BEXATbV2IFfnTiLkh98Q6Gf6HiNzvuhwPPuU64ckpTwqwd2GIhaDryYQVd1llOsQiQyGLeY7NwyfUXIx8qIJ6P4qpTrsaokYcCKgXMTXdSxQ7sTqWrjECO/cWxuPTQy6sE74sWXFUXlrmh0m4B0XhTSGHW07MwcdoEkZAQzUcw+ZRrMHq3w8z9LhSkJ/eXMU5doeNWSqConajT020pMZDUbclNoYvDWyK9CIgqkQVjPaUEJawXgs5/iKSZ36lesjspJNv5r5Jl5aRonX5fTeHSv9eyJCp/X22CZPoP0gIJmjxkFp7TfLr9MJDps7+WqU0gVb4kjdgHbQRM418f/xNHnXUMukIrBVkcu9/xOP+IidDRLk6PqvbstPtuCGmq2N0d0TXE1II4EDEV70IqnkY+rGHN9nXx5OynxcZDUmz/ePMJjLloDDry3dgzuwa+vTIq9lSQu8l6aNPi+XTPhKU86XM8HDbOcUoQeYTwxAdLcdj5hyKNblH3qF8cjYvHXIZkaRqsjeCdWIWdTtweH3R/JI6gP3SvQ3HdsX8wN0ZWVvBOIFZw/9kPnhVy0mbMqBbDMT//DS4ec4m9nBKE77gIJSwYaqO9fZsyAhEbM4ULLI/u1OuCQErdalS40hKylWUAWjBeFZyTkupZ7yVE46VOfyUCWSXslbAc3wUfBWrNg+y4fHTf0KpSQfTKbFDaB0L5S++l38WvTjsAn3V9KhTq7tvugT+ddxuSaDc3M9QeS4wazqaLd00gjfcfnYNzr78cn7VG8VUojpSyFnJKQqSxksuJCCamalinK472TBwvPLPMyHSydlv33FhHn1R0DLlp39BZTrEc3sy8iwNPORifpj4Ux4PsM3wkbhk/XchsnyVWHAO5on4+YV88J/aAADtuvBMWTHooUAKhBZZTcng7uxz/d7IhJ2V4jdhiJKYLOdsQQ6TcdWULs3MWmm01M/4ifidpwVjtUI+tyc2hUczLPKGgkjhWdhnWS+XhmPT/lgVTvm/OPAXZ7KTMZSfxqgTBqxLdVC1SDwUnSxRiCh32i9gJ7kdmr3W91PNSx89cBlHXae68zFcQcnltw5FAKl9AofORwwp8haPOPRJLP1wqjirZYp0tcPfv52A9fKv6XeSlN9vRnRRqAcjnMeGno9CaLyCkpMX+hq+TeXy0WgjLMxlsv+eBmHj2dcgghRFjRmKlulIEsE844CSMG3M6dtljt5702SIIhtIJ6xqWLX5aOM+I9MgFdvj5h+HFd18S52cN22Ao5k6dhyEYIjY32p28ReOl+vSHLJYL7jwHsx6ZiVxYRYfWhhf+/CLWxbeKG/h6hCgqPnJFXTb/Etx03w3IRwtIZBLlR5mYdawrelfgS4y+gORcJrDd9FubYf6187E21nMkuUoMejZVNkCT1jo92SIMsl6IVOwJJI/O0vtfSgzYHjosJTVJi8XNdhivL1LQiri0PVmlY6dQZeta/flVyl7ru63ntnyQ81rPttzOVz1lkWnbkUBKG7E23pFCPP2mU3H/k/dDC2kYklgX866dh01XG1ZyCKJxfpb1GFmmxs12Z48YgdWzWURVoCsawSULFwIRshA0IJrFhZPH4c/PzUc6CrQoa+PBOQux+NWnMP7SC1GgQxfzCTw0bSG2WndLse+6mqOMgvzb7bobslEV2WjG/GMcVBjLxRBTW8QejucXPWvuNCmO1mpTxNIBUJ4VnZn70BsP4qSLTkQ61o2oGsPlx12Go/c+FnG09BzPXhyzcUw7pR6Pv2cCZv71NnGOlXWYYs9ZWGYFykZLoxPjbjgL856aL8hjvfj6uHvaHPygfbOebDYqXhyzc7Zc+UKoUr4awbghnhrWS7WTC3oUl/haBpJtxv4XO4KhsqUWjL3F0sPG5ZkbbsYh8+Y4lPGj4JzqyhCF7Jesk8KiYcq2JdalzfWhMvWdxlyLUGXaD2BK+0UTTvPVaCxcEYh1B/n0R27CZbMuEy4lOpL85itvxojvjDTPuLLD2TiKPE6RjLKNeaTJzSynlrg4rYPOx/r764/iyEsON482acEFZ1+IJ55ehGeWPCUshy2/vQ3+Nrlyp3rvfmnnNh08340Cbn18BqZOnyrqtyCB6Vfcgl023kVYDjvts5PYrGgclGI8xbvZQ4howMv/eEYc00JxkBEnjMAHXe+JchtEv427p92NoR2bCddSKWFSLOMbfQWm3TUNtz50M9KxVdCV3gRSuiP+xoV/xJTbrkKGjnVBHLdedht238jIRLPuD6kcqTgB2KTSkHBv1XrqSCCiW5ftlwKmAwUzi6wagbR2GPEXw+WVQXfqTfsrj+1M53LmrZtC8KpEZQVyUiJulb6T4nfbnxsycOq711r3SFCy2DZ7ObfY+x1vLwKp9d7RPoyFb/8NYyecgO6IcaT7BSePx2E7H46E2OtRVKC9BQshgXD50SBCExTvmRDHwFOWj5lt9VH3B+R7wvc3HYa333sHeoFO9Y3iguMuxG9HnCzSZ6sublJGioY08li0fBGOm3Qs0uG0uEzk/NPOwxE7HYWoqWwNW8lQu6XqjxS2cRdiHDvtvjtUursjrArlnmrpFNYE7bany7AuPv0SjNp1FNaOdyBNx628/xYW/fMxzH34Hnyd/QK5aCe0cErcMdKWSeLdktN4jaB5Fo+/+Th+M+k36Ap1inGde9p5OHLHIxFDi5DEsOjKD68kmWn/C91VQvtlah2DXzYnjl/kLmMoju1JLFXLgpGNvUi6sCR6DqxIvcnDEtRJqbv5Eg1CZid5KknNqbyd/EHIGdhEc0MCAVcEQkHk7Y7ZBh8XPhb3X9DTrqyGcIGSdCmGIG6rMBs2lJ11vxRlaNGlRy/MWSZcMbUeijVc9JcJuO2BW8XucBEjF3dCKWhVO/DYHYvwXWzUK9ZSdtOfIBBKM+7CTw7/MT5Q30MuRse0R9AWahVuMDoGno4JMR6TQMz/pxOEI2pEpCUvfmAJhYd77BMa+QV/vBALHl8gYhqKpkPJKAhrUXEkvSAiugclpIo9LeIY93AaSpzOG6Gd6An8Z+57aEVClKV9MJTRttvhu+Ij9UNheZFsyXCbcLGFrSwzShCgQxbpml3FSI+mv1PZllwr/vXAPxFH0iQbhxXuqPD7gEAGwEvppBidhiir+Gv1I9uGLBl5kbkeONSjTaex8e9rI+DKhUXum40P3ggrkt+Ii++GbbWJ+CgWexEspggpEHeEmP9v/DB+Hyu0YM4ZcwSBWHeNG+IR7RRtAHE+FV7AkScebV5sbg5CBXbZbmfccNwNiIvjA+mrvKjokkhgTawF+kkPxRS6sApb/Wo4Via+MQiELmXSQyJrrIc7SjAqEh7d8hdHa6YdLz7wMlrQ0aOYqccMsrjq1itxx8OzxJHy4ipaMwOMLs8ipU+WyfCNtsTZ556LhUsex0133CLuKCEcVuteC4kcEWlI3JuSi2VFjCbXmhUbBkk2Q87iGVtaiM7BWgmEMsbpiuZD94QkU+14ecHLZTv3++fidxuz6Z+jqCZVo5RcfycQ8Ulm427qy9l0S6x9KWuz9O2KQGhD3GYHDENnoksoOfqyzkcpv6n3MenW5jRaQ1YmISnUHw7dARG1aIHQIqMrYC0Cob9rYbq0KSt2i1M/lDRMZ0XRlzYFvulyKjr0kBRsKYGQhTPn0tmmhUOnQmWFBbLtwdsgE0uL9mq9+KULjP4eV2Piy/7FuS+Je9rJSWTQIQXHjQuxnl/xHOY+PAdLX12Kz7/8TJxkOGSNIdhh+A7Yd9d9sceGexN94uoF12PG3FnIKwqiahyv3P1qjyVGbRFp7nzQTsirOUEeRBxGHMYYo0YWB91UmOiGZt5YKLDTFIFFMtOGFx9YJtJ8DVuwPAu3NC5CLZr7/fpgnTKB9AHoPV3KuobcyFhLMTuRiFVXxnfv1JaTzEwgTgi5/70rArEuXaJAtxX4rX7LRm9hKJpAri6nXH5q2659Uovk76f6dm2QQh8zfrRwAdGXPWUxGbcAFsRlVYa7qlKBlf+/ZUUYlgq5pQwrgDYcWoR1y0W3CHcWKX4VeXEZleFMMt13wiFGklJoPiysk6n/uA533DPT8JSpCl6Y/orI3DLsL2qHlHpY7LqnID9ZUYaFZVEBEaKOLUfuhEKYLDwDX4t4w4UIInpYWD5L/7G4LFpC5cRJvSapWFll5RGryo+A2vee251p5mb5OXrQzMZky1Xt23cDbkbV/8v6VcIyI/SiqGUIRKZvmfF5kU+m78FYxhWB9HeAUkjja3wlbjksvVTKkLt4r0jt/ze+3KunyWo4YdIJ0u2RRZWj+z2Sq8QeF8z9yqUAAAu7SURBVCIzspTW6FpbxFeMh07kNSyJeCGGmVfMQpxSWSuSEvJQkEIEdLN7qUVhyWv93PGnO9laIJS5RHswwhrw4qPP0EElNlNqHDtDbkb7nTEGPpSRRrRn/CyPehtET/RnEKgd2cvqddlyTCD95+2UUeJ+pPVLADLy+e3Dz/iaqW4JgVgb3wxF63wensd0zTqiY1hIZBGYp+3aqPlq3Zc6w4wve+Pxut+itD5lr13x4BW4+d6bxJlWyWwL/nPX++II+tKHXHUk/9EXHIVcJAdVKUA381nJ0iDlT66s0o14VF84ACmDKaSIn9bvrV3ggj5LdHw+pOD5V14zwiiWj7HH56ghlkvgnfveRdJ2a6VIjBOXFhfQJRKbyQqzHpKTrtUlC8r6Qxlizo8711a1RC3ndessCZdoPAJuLBAZAqj3CJhgTP2o9yARIIH0p7dY9hO2olyQBGIcpni5eRpv2jzO/WO0o624zkXWGG1VTIs/GbF7pRhfIsVsEJqToq3toiNrp4AIDr/yJBQUGzcV7ZPJJfDJU5+KbLFi6rBFsXS7Yha5aBqb/XATIz05RARiEBs95E5rzyZx+5WzhCOPbJByoiy61MIiQkSP07hKt3ZaVhDVLW+71tIry9Krt4bh9l0h4IZAXDXssXAjSGogkJBLF1b57nLpuSn3CRnVnBS70+8rOndZXFr0ni9rh6tdazVYeRovHWXy/tyPet0HYt05Txs2RVaXUKq1YxGuB2JCT1dPVfuKJ6Vfy4VFO/yJMrbeawfkwlrP4cWWLJQCTenSlAix4Y++iyzdomidVUb90/4NukVR15DMq4jQJV9VXYxmq2VnnRkuvxkXz+hFPNa990W3WdFNl0Qr1sZaaNETMia2F2i5jkcE+huBeBxGWbVGkFAtORtBUHUjkDLOGAAE4mdBeTnO3fmL3I9EteoWLYFqgXLrIjFS+7QnphoRpaBhk18PRS7eXUYgVoCGSGTZnGcQrXlqY7lNQQRB/xKBjrEiFlVuuVDiBD1GwkOpZQMks62Yf8U8JpB6LR0f7Q5EApGBw4lk/JCAU9t28rntz4FA6vMFLAOs7zL1NklcCOiNQFx0UKWoHQEEAYuVy2b9rCapYalQVIf+Vv6QeqdkgG1H/pgOB6j+6AqWLKSNnMZDmW4UUUkiJ0ik+tPbJcYuLP9rql4tDFYCccJThgTcKn2nPt383teNhG46anjZIDSlg9Cyqay0y3zynCmYPvcmsa+Fdpe/ef/yKhdR+Ueqllx+Yanedu0Yhl2/RCsp81rkWqPeeY/dhcvKeiKahleeWlzz4Jy+s+D8z99gbIEJxPus9+URLy5dWN4HOZhrUnYYRTXoxCtSs8bpWtUPRxwsWBGpkDvMLpm4FgZ9uxFysMwOj5MRcEaACcQZIy7BCDACjAAjYIMAEwgvC0aAEWAEGAFPCDCBeIKNKzECjAAjwAgwgfAaYAQYAUaAEfCEABOIJ9i4EiPACDACjAATCK8BRoARYAQYAU8IMIF4go0rMQKMACPACDCB8BpgBBgBRoAR8IQAE4gn2LgSI8AIMAKMABMIrwFGgBFgBBgBTwgwgXiCjSsxAowAI8AIMIHwGmAEGAFGgBHwhAATiCfYuBIjwAgwAowAEwivAUaAEWAEGAFPCDCBeIKNKzECjAAjwAgwgfAaYAQYAUaAEfCEABOIJ9i4EiPACDACjAATCK8BRoARYAQYAU8IMIF4go0rMQKMACPACDCB8BpgBBgBRoAR8IQAE4gn2LgSI8AIMAKMABMIrwFGgBFgBBgBTwgwgXiCjSsxAvVFQFGUsg50XffVYWl7ftvyJQhXHlAI9BmB8AsyoNYRDyZgBPj9CBhQbq4uCDCB1AVWbpQR8IdAkAQSZFv+RsW1BxoCfUYgBGRQZjW/IANtWfJ4Ktc0IeLV9cTvB6+neiHQbwgkqBfE60tWL4C5XUbAKwJBkEgQbXiVn+sNfAT6lEAqrRAvJMJfVwN/kQ7WEQah/Pn9GKyrpzHjZgJpDM7cCyPgCQG/BOC3viehq1TqT7IEOa7B3NaAIpC+dl/xCzKYXyVj7HZWgxtUKtewnzUla8EELXPleL20b/cue2mnVJa+1g9u1kGzlHVNIPWYRK/BdNmXqx4yl06wl/b5BWmWV8SdnF7WQi0lJ0sCdlL29fvhBwt+P9ytu74q7ZpA3Agqu/hlF3qtL5ugvi7cyOL0gpTKJNNurfaC/DJ1M4dc1h0CTmvCqTUZxSm71mXWXCOsJqcx2/1eBge37cri5rbdwVy+oQRSbQJlF3p/IRAv8nqpU2thBt3eYH4J+mrs9fzAqtf6kGlXlkT5A6uvVl5w/TaMQJzY360bS2Yhe4FJRg4vfXupI0sgTth6wYHr1BcBWfKoZiE4zXnQ682NHF769lKn2gy5wba+szzwW68bgcgo4lJ43S4gt+3LTKVsm25ltXv5nBQAk4fMjDVnGS8Kzu2ac1veCUk3Mnvp20sdO5ndyOk0Zv69MwJ1IRBZRdyfCMSNzG7KWmOs1wvih4iclweXqAcCXtaCmzpuysqOz02bbsoG+X4wecjOZnDl6kogbpWbrGL2skCdIJPtu9KakB1jEDK7kdFpvPz7vkHA6zpwoxy99iHrEqq15r327bVerY9Q+p3s+9k3q6H5ew2cQPwoOdlF5KePWmavzGKTlbGyH6/1qr0gMrI2//IcWCPwuwZk68uWk0HXDXFVfly5UeB+ZfZbXwYLLtMbgUAJJIhJlCEHmTKyk+22La9j9FrPzsRn8pCd3f5Rzk4Ju1Gu1dw8dm34XWdu+qr1MWb9Tnat+pHbLcn1j1UxMKQIhED8TL7bL/Wg+vLaTqPrVX7Vyb6QA2N5DoxRBEUgMl/4Xten03soS3he+w+qnqycA2Nl9f0oAieQIBRcLavA60Kr9YK4kdlr/0HUcyNn3y8tlsBO4ftVcLXWUZBf4kGsVzdjbXR/vDqDQcA3gbh1AcmIXa1Nr4uslqntVil7lcFvPbdyyuDMZeqPgNd5ryVZtTaDIhA/Mnut66Welzr1n/HB1UNgBBKkgpN5Qfz054f0vC5aL/WsOn7GOriWc/8arZc5lxmBzPvh5uu/tE+/Mnut77ae2/IyuHIZ9wj4IhA/itjvF5ZXpRqEzF7acLvgvfThfvq5Rr0QcDvfbuSwa9tvf3bWixcS8moFuZHfTVk3uHJZ9wh4JpB6K7jK9v0uGr/1/X6luem/3ti6XyZcww0CXpWobB/VlH1pfbcfWEHK7Gatk8xu+nZTVhZPLucdAU8E4naBeBGv1kvi9uWwW6Re2qhGIk5tuVn0jcDWy3xwHTkE3My1XIv2pZxIxGlN1vog8mJ5OLVX2aYX+RuFrZ95GWx1XRNIoyYxSAKpl8y1lD2/IIPtVTLG6zTvTqjIKv56vx9OcjpZO/XAoR5tuhknl+2NQCAE4gbYgfKCWGN2WtTWeGUsC6e2nHCWxdapHf69dwQaNYf9nUD8kqndWm4Utt5nf/DVdE0gzQhRf1h4MgQig22QikOmPy7jDoFGrbUg10E9ZXZqmz+w3K2v/lZ6UBBIfwA9KALpD2NhGQYWAk5K3mm0QVi+Qb0fQRKr07j59wATSINWQVAvSIPE5W4YgYYiwO9HQ+EOrDMmkMCgrN0QvyANApq7aUoE+P1oymljC6RR08YvSKOQ5n6aEQF+P5px1tiF1bBZ4xekYVBzR02IAL8fTThplLauBxEBa86xN1RqfkEaCjd31mQI8PvRZBNmissE0qB54xekQUBzN02JAL8fTTltbIE057Sx1IzAwEKACaQ555MtkOacN5aaEWAEGIE+R4AJpM+ngAVgBBgBRqA5EWACac55Y6kZAUaAEehzBJhA+nwKWABGgBFgBJoTASaQ5pw3lpoRYAQYgT5HgAmkz6eABWAEGAFGoDkRYAJpznljqRkBRoAR6HMEmED6fApYAEaAEWAEmhMBJpDmnDeWmhFgBBiBPkeACaTPp4AF6M8I0A5pPi6uP88Qy9aXCPw/RZDa0VKtJPMAAAAASUVORK5CYII=</t>
   </si>
@@ -478,6 +478,36 @@
   </si>
   <si>
     <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAAB0CAYAAACrHWTsAAAgAElEQVR4Xu1dCbQUxdX+Zua9xyaoKCqKRlAUQcUkikQMcQsqRo27UYxGEBAQJEZMcE3UiCtB2WQJv8YloriLJypGohxFEJVFNEaBRHBBARHk8d5M93+ql5meft3T1dVVPfN67pzjwZnXdever27dr25tndJ1XYfzY39LaUU/A2nX92R8zZsbsznlqjdmM5VXRzgqh5gqIAR8EUgRgZjYpGJ2Egp8cgAnHOXgSFIIAREEmhKInxS/nko9WAR3KlMWBFhWncxMuixwUqVVjwARSNW7QLUAYE/JEoFUS4uTneoR4CcQSbpUWsJSafpIgrl6xbgalNq3el2BLFePABGIhXHcayDqm7ZKa/BgDPYTtW+V+gOZrRSB2AlEqTUknBCwEXCxBmUi5BqEgHwEiEDkY0oSKwEBmsqqhFYgHRKOgBQCYUdJUqnqmCSQZSuNiNX0rAKufovmtJiuBnmSWo0ISCGQagBOFnE4Z1jY/1cH7cbnIV4EUtx2RCDxtQbVlHQEuAhEdvBMOqgy7SPsedEkYuBFip4jBGQhwEUgnpU5L0DxGEazC1I8Z7WKL06JbkfMQ/gmAd3PHi8A2G/pmBWOjnAzkeBNIETAzaT5SM1miYAYgbCg6Z7E54mLznLu8iLfWZ32f3HDb+urA9n6Bix99z18/dV6fPPNemzduhVt27bFTu13xn77dUWXrvsjXVdjahhBXwqGcTcy1ScTAa91UvdVfDLrI1nqERAikDcXvIX3315saKelgGGjRhSCYwmddWSxT7d9oKVzgJYzFt71lHkyOGUFZN0iIp7v7NkPP/g4z2Xq4SqsWWjIYs4zc/D8089hyZIlyDY0WvxgjoQLiUkamdoa9O7dG8edcAL6/+IU7NS6PUMuVr3jwKa51JFCGrXIII0a41/2XfbHGSzDBEnZm1HC1K0SA17Z5dSXV0d6roBAeALRgfF33I0Zk6aZQTAFfLDq4+CRtQ7Up7bh4lsvwrYWW/OLxyKJhz2QZ2UbM6YOcXwYqaXZ1By7USmfgZjBhxGpySAmgTj/bhCldemx/Zye0owyYXVncsaPHh+Huc2ijqb+Y/6SKrE9oQ51aIPWaI02aIU2qEOtVFvdJBAmKMomEKmGNRNhYfBuJiZVrJrhCUQDJlgEwmJmNq2FIpDd+nbA9y225gOsHVDtgFvqezqVwvb64kWHD15fHstI3px50nHHA7dh1oxHihu0FjikZw8ccNAB2G2XXaFpGr766iusW7cO7yxaguy2pgslw68ciivOGgFGN2GXhUaPH10126bD9hzdSl1THsxsE3ldtg5t6ltj6nX3J55A4g6mMglQVHeZOoT1vyQ9z4N/eALRgQm334kZk6cZ007ZNGcGAiCHLLZjO7LIhdq+ysb4bJrhrvG3Y+bU6daIX8cZ55yF224eVzII24mBnp+msKeYdM9RqrlMw542w7p5oJlNdgDX3jAWT85+3Azeego1repw8aBLcMllv8FOde2tZ4tdqBGNWLR4ER57+BG8/I+XWNJmSL1i9CgMHzISWsxTWbLPnxTwLbZbNw11TA9Vzi4p1VNYUTKQKAGo3GsMfoE7KBCJlouCFZWVg0CsBGIHZDOwFD6lF4c1QE/jH8+8gNFXjEINMkag7t6zBx59YjbSLQqL055y/CKmzwVJTc8RsHifxpyHH8NNY69DmtWv6+i4dyfM+L8Z2Ltr5/y0lWmRaz7dsdj+72Uf4Pprr8OyZcswYvQoDBs5Injqz6+dffQPcgvZBNJkM4WlQGwEIt2gIASD/14OAqlE8ggiDi8kRdeOgluFnlCBQErXc1YX5FxINDKQuzHTWAMJMYXFrb01UtUL+ny4YgUuPPN8NG5rMKS0a78znpr7DDrsuTvAuzXWPU9kB2CWTAQc6Nvw1Xqc0OdYZOvZQrmGnXbdBU/NfQ677NGhUH+JQGYQm02ZmoZ77r4bLVq0wPCRI/1PEhqpkGPbr988V5P1n8oZ6XM3eawPqsenEghEJHhHaQaZNtuy4rYhiv3VWpafQBwj6Ym33YEHJk5Hjc46YxZvfvof1yjcCsn5hWUOePMB2EUg32zAWaedjvX/+wK5VAb1LVtg+iMP4kdH9Qo+xu0Iutlt9Vi6dClW/WcVNm7ciNraWrTbeScccOCB6HHwQUA6U5BXlB4Bd90yDg9Mm2VQAFv8nvrXGehz/M9caZRlY9CCvqVTY0MDauvqCjICFkK2bvoWixcvxppP16CxcTvat98V3Q/pjgN79HDprT5AcrRmBT+iHh+ZwZQHSJn1icgSKcNjl8gzlMGIoCZehm8Ky1wYQPfOXY11j1ZZDe0aGtEm24Adsg3IaFnH1I1mHpbT2BZdDQ9/+olFLnZG4e7ALsKw38VubFHSMeHCAVi88G2ktBS+q63FRbfejDNHDDUtLhWsrYD8xerPMOm+iZj7/AtoqK83pqPcn9ZtWuK4E/rhrPPOwuFH9y7I1oHtW7ahT6/eaNhSb/x+6OGH4aEnHwuu312JpQ9bX2ky3WDhe1CXrkhbcAweNhSjrr4KH69YiSmTJuPVV+Yh19ho6p/SoGsppNI69j+gG268+UYc1vvwPB6lMyp7DcjaPi3uOwEl460n/JsG5ROJyOJt1FG2jKkrXr39dI2LQPzqCdI/KsbKukgCBIcmkIyWRstcFm0bGrF/h13QpnE76jTn8LnQMXMpIJdm22ydrxL1JpCUFdjNZ4F0LgW264r9znZoMT7ZVpPBxHcWAjWOQ3nuRmC6GIvcwEsPP4zbbxmH7dvqC9tqHc87+UfTdWiZFK4eOwa/HHyZ+ZQOLJ/3GoZcOsg4NcA+90ydgMP7nyxMIE2Iz9jeywgXOLpz17yev/r1AGSzWTz22GOApue3D9v7fu31HrbZiK0DTZ4+Bd2PcWVFng7qEziD5vFCO7tHPfbp/HQayGQA9m/kjygRiJbzVzgokEU2lUNAmGApqq+7jrhG/aL6Gl3Z2kbPASE9EgKBlGYh6z+YNxexWTA97KCDjRFyqiGLdGMjajQNGV1DXV2tdSiwuGYW9F9buZxvcKjlzMDPFNHSeGP2kxh79TVII23sVNqvRzfMmv0YLu/bBy1ybC3CO6OxiSjD9LTOYxjJDFONjdwtFZ322uc77HMZ7JmclSlkGB/pbOk8ZfympTSDFP3qt7ZZNfk7k2HuLC0OXClWOSMIVkIz61m37gtDS3NLs2Zg2/uIXujZsyda7dAWX375Jf71z9fw+dp1hkymU/tdd8G98+YBO7axLLTwsTO6fOZVIgP00M/PnqY+FpBhOturthbYoS3A/pX2cdlVhsV1kQAXJbB5jchFdJDWBGUWZGNJu7riawgOArGUsaZZWPy77467MX2KuYjOfl726UeF3UTufZ3mHlyOjx0AgOVLluKS8wagwVi0Btru3A6PP/sU9uy4G/D990Djdu8AbgSNNBrnv46BF1+Sr5Mtut887hbsfGK/QgB3BNTtb7xh2PPmm2/iipEj0XvUKFNndmjynHPx7uJ3DVndenTH2Bee4ZuS8yE4z4BsBbsBVgbSsWNHww5GWM7UyZnnMUKyCZJ1GPYsy95Y1ufM+Bi5GKh4TN0ZnKqbBzH9CE4FgXyfyWDa4sVATW1hB0PkDMiHQEyXANiNB2xqNV3D6Y8cLuvzSBxTOlHrCFveb2E7rBxxVNn4kiuQRKmiYspGGVjEaYT/FJbXCM76zbkLK5fSsKLUSXSfNvfbcvvtl+txxqln4Osv1puj8LSOmQ/MwpF9+5jBP8euQSmQTRFYTL8scMHxJ+CzVf81/tRih1aY88zTaGdst7V2NhlTXE0DzpKXXsLXGzeg3/nnm2J14KJj+2HNp6uNr/1OOQnXTb6XL6MK04pMb9cU1u6d9sRd4+/BD3r92D/gbdiMY3v1Rq6BrUEBPz3uGNw6a1o4/ezAHTmAhzA424ghRxyBVtmssaYWlcBMX8pYCljnTxwZ3/ZMjbF+9tDbC4HaFkDGPuWjhktUB9Wo8qOUZ2WdwS2KrBAeYzwqUpdImbB6qXi+HGQpQlrcBJKPL9Y2XnaVSaiT6EEoswoaNVx49nlY9u57xrCR/TRqzGgMGj6U77yEDrz+8j8xdNBgZFgAAXDNDX/AgEFWNlJEZhxTHjrQp+eR+G7jJkPWORecixtuuzlcgA6y2yIqRiDd990fNVa6NmjYUIy85qrSdjOCO+M8vP8Owwvo0HEPzHtrfpF+ZZjJ8bfYzmJZArl1K9DgzCStYu4M1vO7Na3KQLPuUiuam2RZF2MmI/vSgEyNOV1WV9vsCUTForlI4LAbOc4ALVKXSBmeLkvPmAjwLaI70RIgkNIHBa15MB246ZrrMefvs+3ZI5xw8okYP/Ve8wGea9CZjDHXYs7fnzBktGjZEq8veQst27YSaG8zSB3WuTu0LJvm0fGboQPx27FjzBGzgETfIlYG0qNzV4P42GfQsMFcBDL2yqvw/JPPGoTL7F300fveBBcXk7jrcX5n8ZzNSrL/WNLkk0gGQmtNL+YdxV2AQVjHiMOcAjVvQG7+U1iVRh6iWUFg+/o8IEIGImVE9avGcuEJRPQuLD90reA5+8FHcfMNN+Vjwr77dcETzz1pTEFxR2sNOOukX+KTFf825vQP73UEpj8+K3zGYKdbOeCYHx6NbzduNtYizj7/PFw77jp+fXg9ysLg0C7dwXa5GQQyfDCGj7EOGvqxlQaM/9PteHDmA4a9uZSO99esKE0gdkDl1S3scwEE0mPvQ5HJ1RjTIKrS9Gwmiw/WLc3joLIuL3hUBC0Z5KEi4Kuw1c/lROoSKRPW5WU+r6pPuHWMknU6ZYUnEIEMpCiBcQYOa0rjvYWLccmvfg2NrW8AaNV2Bzz+7Bzss9++4YJ1Duh78FH4fuM2ZLQanHvOebjqjt8Ft69z/t+1FnD+sedh9apVxgzJif1Pxp8m/zFYnsgTOnBEl175NfPLhg3FoKsvxaGdf5SXVjT/nNKMWRpGOMYWY52dMGG3E5v/GjvOjBPw9tqAiFJyy+QyWaz4XyGwy5XukGZkHPbNyDK2CofTVEXQkiVTlhwbEdnySiHtVVdcATecB4g/LSuwi2sQrqQggdyJGZNmhFsDsee/2bSFPQUBYOPaDTjztNOxaf1GU/N0CpOmTcZRP/9p+MwhB/x438OgN5i7jjS29TZtBVQXLu7FQM+RJFiATuXPYLBprEZzR7PxkTmyzejszEth01WO1ZMG3lv1TlPVHOsCM2+fiWlT7s9DunD12+bz7rWDcH6h5ml2fIft3I0lpss/58ELiuygKlNetQVcmdjxtn81PZfS2Qk6Z8AJst6+jZebQKwFzxzQbZ8eqM3WGtMt5hbUFNh5Dbt6pggL+PlzGx662Ld0Mwn5w3R5EzTj1EgmYxLHhZcMwO/+OCZ8wLKzEA24/YY/49EHHwKrL5VJ4633FqG2XctwmREHpmw9IHAKy71TSgMm33kfpk2aYh4aSafw3mrOczdBOqn6O/e2blUKqJcrGrTKEdyjjnhFbRVpBZG6RMqI6FatZWIgEGuRnM1OMbJgi6dWNnLrqFvw3LNsAdj86ehj++Luv95VOjiXGlmngJN+8nN8uf5z6Oks+p16Eu6Y9JdQBFKUVejAq3NfwhWXDwc7UMiOIU6Ych+OP0XgJHopD3MtorOvl/ksohf0M4n53nHsTM5Uaw1Ew4rVH4eyt1odX6XdsoKWrHUPp62ydLNlqtDRr21EdBcpo9I3kiabextv3nBNx4Q77jKmsNiHncr+4FMraAXdTeWYxnrk/odw55/H5c8B7NVlbzz13LOobVsrPrrXgIHn/xqLFr5tbALes/PemDv/leKAyrEbKR+kdWDLxs046se9gKxZsMcPD8GjTz/Bt62Y11tCEEiRSB1FBMIOEC6zCITDTF7trOfKNyVUUlGXofLtDgmT4HkFdy2qArOKgKpCphfqIvWIlAnf4tVbIjyB6MDEu+7B/ffenyeQ5R+tNN/LEbS31erdC+cvwJDfDIRmBeUWbVrj70/Nxn7dugbLCBjJT75rAqbcN9FYXGansp+Y+zQOZLftBp0vYHLd+luEN/aqMXjuiWeMu7nYjN+9U+7Dsf37eZJI4LqIhYGuaUixu6Ds9SANsLfxlspA/AjEsDdNBJJUAok61eSXMciQG1eQFqlHpEz10kF4y4UW0R+cNgN33nKnsfOHnRSfN/+f2GPfTsHBXwc+X/U/nP3LM7Fl07fGGgYL8n+ZMhE/P/nESFMv7AVGbG3lkw8/xmkn9ketljaWBY465mhMfWCmb8Zg7lQyL8tiSyn//e9q/KDzvgUk2W+frEb/409C2ro0cseddjLeR7LrXns0kesVwJwZDatn0oT7kMlkMHTEsAJmQQTiKbiQgbgJJLwrUAlZCEQNWqqyj+ZCIrb9pS5tZLbwkF/UtpDlE0mVI0Qg81+ZhxGXDsu/H2P4qJEYOvoKbwKxR/Wablynfu7pZ+OTj9g5DfMKi4FDBuPKP1xt4huUwXjmteaPGnLGQjdbFxhx6RD865XXjN9Z3GWvnL3qut+XlL/83aW46aabcOzxx+Rf9JRfs9aBv/z5bsycyl7ja1wchd332hPTZ03HvgfuX5DrlcE4dF7zn1W45cY/YsGCBRg5ajSGXkkEEnfHCswQJSkkGrhUk4fRzTzulAoTjL2eFZVZauqOCESSMyoUE0gg+Z1OjvjOsoe+R/wU2Xp2FQVQU5fB2BuuR/9fnILWO7eD1pDFv1d+iH8teAOD7WtINODKy0dg3tyX8zxxVJ8+mPrgX1F0VCFoqsn59/x+f5NCTMZI46u1X+D0k07F1m83mz+lNBzSsycuHTQQvXofiXYd2htrGl+sXWuslzw150ksemuRcavt8N9egWGjHG8KNKaxdLBU6bKLL8XC1xfkr5dnJ78vuGgABg8bjDbtd2xKgtbaxvuL38EjDz2MF56ba2Qx7GdWz9BR1ittLfVlTmEp9BkSzYEAT0Blz5S6V4p3lM2hTpNH/HZ8BQXtUjrxyvQcB3KQmggpi5QRwbNaywQSiA1M0QyKDtx+4y14aNbfrPsJzQMMxiXnNRnkcrl8hvEBW9RlgZ7d9dS5K2o08/0e7PZY4418GfsyPSv+WwTBMhQz+Ftx2eM7O7T93ofLrQygQCCsxNK3l2DIwCHY8u3mfKaUp5m0eeaCdRb7SIJ5ktuHQCwQ2Mulrrnyasx76WVzV5alm5ZOocch3XHwoYegfYddoWlZbFi/Aeu//ArvLFqMzZu3FN7nwTYeGPWMwjCbQCQsoiudwmJYsSa0N0EYDeM4z+O+WqTCvltJY366kd2KY6qo7jQ875bcIAKJGphKZRa8Orp1UCHTy84gMguTNeXjGL0XJKpLFZXnJpCiUix4bs9i+NDL8carrxnB2LmAYccWtr6xYrV11btjjp8RCGt8ned+qxLmGjcBr7EIyvmcRTbr1nyGG6+7Hgvmv46M8aaN4o/hgNbIh2UffY87BqPH/BYHdD+o2Fz79LwVQGdNnY6pEydj63ffeZ/0Zpf4WWdd3ATM7uU67awzMGjwQHTcu5PFkibByspAjJcWhnQT9xKL87uRgGlANmuRiOgdViF18nq8U6dhVrbJqN9+L0vpf/MEkt6GTHo9Pv/8eXYhL1JFLzqToJxLBE+ALieBMHV5dCzqWhwBOKxMHvLw0pUIpClyqrD36x2BBOI7Z2wF01dffAnPzHkKy5Ytw6YNG4zA2WG3XbD3DzqjR88eGP37q/M7jexXtnoeRLZe1ep+Zav93etfYwuxneF4eqE5Uv54+Uq8+MJcIxtg7xTftGkTampqsGP7ndGtWzcc+ZNeOOXUX2CXvXa30h0rrpvvempy6R/Tf+u3wCN/exYvvvAiVq5cyW6ltIjURVJIo2XLljjyqCPR76QTcWL/n6B1u0L2YjxtXEkCHNClL9iJdBYOLxs2BFddc4E5Meczomd6jB/3CO6fOtU4lMme/XDNfGNjgkHqnJmAneX5hlCGgwbsude50LS2gG4fJ+cL4LyBPug5Xc9h7Vpz91+YT4FAjJvcjZchxkEgPAG63ARi4xgUeHiCtbtNgmTyEoefjjw6xTmFJWJvGD/meZYHEx45vM8EEkigIHuoaj/oDlzOAOjtMflX0PIGvLwYe5gddP7EWa9bX1u/vJcWHmajbvYacvayRPeHZVH2RoAtm4Gl7wNff61h0zcbUF9fj5oWddh9993QuQtw4IGFt/CabxD0l5eH0Z4eSwGdOrF3wBePuNn7L4wpOEsP++/GFSjGPVn8I/TAwI16ZDJbsG7tbPMttObr6u3kzcx2QhAWdztzEmCQPL8prNBpWmBnoAf8EIiyPhKEaiUEbqMLcGRnQbY0t78LE0ip/fYGjpo1evciEK+AX8YAZF/PbqjgIJicDuzZcQA0rZ2rXQsjb53dYZVigdwM2EbgNl6da37XjPdVRBupf/bZ5PL6FRu1F43cC/eBhZ0qK68hVLtsBCoheFdj4JbdjqLyCgRSihFCSmcj99x2c9rDa7TNK85r5O0eicv4bo9Q8yNVS8F0ejPWff4QMu4oGXJk7J4ikj5idwMaUr+gEbx5s635ShZDd2INXhdW+hwFb6XwknAOBKQQiHudRM8Bu+/G5st3tQjEHoG7NdKMV5GyuW2bCOwRPfse18jbj0DYqLuGbRQrdXssJ/HmExu/92BwyuFoU3qkGSAgI/jTyLsZNHTCVRS6TNHAxG8Uam+3ZVkIe7OofVbDb+1BYOpK9ojej0DYLJQx6vawtcmupagvSJJMIJLFFXUDO3DJCIIJ719kHiGQaATUEEgMUxy+AVJl5HS4gvRqJAuULC7RnYCMIwQIATEEhBfReaqzk4ugZ7lGtK6IWG4CCbIp/9YpQTJVRQCq5LrxiFpP1PIFfSr0FuFAB6IHCIHKR0AZgcgLABaIFUwgnmdlPAAIcw9TEH5hZDndMEiuLJeNWk/U8kQgslqS5BAC/ggoIxACnRAgBAgBQiDZCBCBJLt9yTpCgBAgBJQhQASiDFoSTAgQAoRAshEgAkl2+5J1hAAhQAgoQ4AIRBm0JJgQIAQIgWQjQASS7PYl6wgBQoAQUIYAEYgyaEkwIUAIEALJRoAIJNntS9YRAoQAIaAMASIQZdCSYEKAECAEko0AEUiy25esIwQIAUJAGQJEIMqgJcGEACFACCQbASKQZLcvWUcIEAKEgDIEiECUQUuCCQFCgBBINgJEIMluX7KOECAECAFlCBCBKIOWBBMChAAhkGwEiECS3b5kHSFACBACyhAgAlEGLQkmBAgBQiDZCBCBJLt9yTpCgBAgBJQhQASiDFoSTAgQAoRAshEgAkl2+5J1hAAhQAgoQ4AIRBm0JJgQIAQIgWQjQASS7PYl6wgBQoAQUIYAEYgyaEkwIUAIOBFIpVJNANF1nUBqxggQgUhsPOogEsFs5qKcvhAmSHr5UBQowtQdpR6vsiK2lFNf2fZXgzxhAqEOAlAHqYYuEt5Gt1+ECYoiPlVKwzB1h7e0aQmZ+setuwz7q02GEIFE6SBRAK6EEb6IDn6dijpIFG+o3LJR+ofMAMwQitvHZOoft+6V61GVq1mzJpByOJho5mW7QNTyletKpJlXG8cZxEUGNzJbTXSgJFpOpu4kSwyBZksgzZE83AGmHDaIuQmVCoNAlAwkTD3OZyuRPET8mwZYoh5QnnLNhkDK7Vjlrr887kG1iiBQCQQiErxFbFWRddn4xW1DFPurtSwRCGfLE4FwAkWPNdlcoToQyiQsEVkiZVS5CfVTVch6y20WBCLTKUScXWb9UZu3knSJakvSyossIEclFxlTV7x6++kq0qdE2t6vHmfGIgMPEd2qtUwoAuF1NCeYMjuIqCxevXk6iKgOPA7G00GYnLg6LI/O9EwBAV4/k9U/ogZLWfrGNagJ0pf1Tb9nVPbbau4DoQhExXxnKfCjOmaY8qXmXcPIieJMPB3Ei0DYb9RBoiAvp2xQ+3nVEqXdogwkRHT18rMoOoRFPUhnG0sikbDIij/fLAhEpJPJCvrl7CA8dsuyU9yFqKQbgTh8JmodYcv7DbDCyoniLVEJhAZaUdD3LluxBBI1MEYtH3e2JTo1FWcHlu9+yZSouk2iyo9a3tlqMmUFeYNIXSJlgvSgvzumbXWeYa4LMdWNEjX4Ry1PHYS6SBQEVPYPr1F42C4sUz+ZsoIwF6lLpEyQHvT3CiYQGcFfhgzKQKibiCKgKmhVGnmIZs1x4qqqLURtSFq5iprCkhH4ZTuMbHmlHEikLpEySXPiSrNHRZvIIA8VAV+FrX7tKVKXSJlK86dK1qdiCEQGeVAHod1YldDZVAQtWTJlyaEMvRI8rfw6EIEEtIHsDkcZSPmdXrUGsn1GpjyZslQM2Kh/qPZOufIrgkBkZR8qHFp2h6MOIteBK1GaLJ/xmrZi9oZdNHdiJEs3ykAq0fPi16msBCLbmVUQiFtmlM4b1LwieIiUCdKD/h4NAVltImvdI04CiUpwNMCK5ntxl64YApEVmGV1XpWdzq+RRXQXKRO3k1VbfTLaRAV5xDHAIgKpLm8vG4HI6GQ8gVgFMcmS6dZfBBORMtXl4vFbK6NNZMjwslyFXBUyZekel27xe1ll1ChEIDKmdWSue5QKxLKCvUp9o8wnUwepjI4kM2NVlX1E8bMglGX6oS3L3XdF6hApE2Qr/b2AQFkIJO5gXGkkQh0k+V1QNHCpJg+vaSzeaSc/v40iM8zgTwRTkTLJ9055FkohEF4HVDUHK2sqq1QH8Rq9iRBTKfIUcXaRMvLchyTx+J79jNeI2vlbHOThl4WU0tFtI89rD5xlePoJj+0ivi5ShryaHwFhAuEhA9Z45eogvOm6iIOpKqNKLr870JOyEPAKiF6yg/pHVH1KBW9eHXkJxC8TEbWBprBEkYuvXCQC4XGYcnYQJ4xBnYVnlFQq3eZtsjAdmkcnEcD1qz0AAAFsSURBVNLh1ZWei4ZAkM8x6eXuHzw6ysgmwiLp5fsivi5SJqyu1fx8ZAKpZvB4CIqHBKJgSB0kCnrqywYF6HITiF+mHibr8EMxyPagjCxowMbTt6h/qPVxIhBJ+Pp1Fh4nl6QCiSEEKhaBcvUPIhC1LkEEohZfkk4IEAIAvas8oV5ABJLQhiWzCAFCgBBQjQARiGqEST4hQAgQAglFgAgkoQ1LZhEChAAhoBoBIhDVCJN8QoAQIAQSigARSEIblswiBAgBQkA1AkQgqhEm+YQAIUAIJBQBIpCENiyZRQgQAoSAagSIQFQjTPIJAUKAEEgoAkQgCW1YMosQIAQIAdUIEIGoRpjkEwKEACGQUASIQBLasGQWIUAIEAKqESACUY0wyScECAFCIKEIEIEktGHJLEKAECAEVCNABKIaYZJPCBAChEBCESACSWjDklmEACFACKhGgAhENcIkv1kjwF5IRC8Fa9ZNSMorROD/AZeU6JWsg6S7AAAAAElFTkSuQmCCver27dr25tndJ1XYfzY39LaUU/A2nX92R8zZsbsznlq</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Link (Copy full link and open in browser)</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dCbxVVdX/n3vf4z1EJofKNFMTsiwH1HBAMUtSc0JxKgcoAUc0LeehT0VN/cwh1MwBS/lMAlTMNM2yTBMFFIesUEGRxJEZHu/ee77f3vucd8+779xz1t5nnzuu668e8Paw1n+vvf57rT1cx3VdF0afgqzlIiN/OkZtcKWyCPijkhqwavzgjR+PBCPACDACugg4yQgkg9T9nK5GjVI+dWCZQBrFVFgPRqBaCCQgkDCRhVNSEQnADqpag8r9MgKMACNQCQQsEkgpYTCBVGIAuQ9GgBFgBKqFgEUCqZYKUf0GI6JalC9OdvH7YETn/7nedGF5GQFGoBERaGACqfcIKCyiYwJpxEnIOjEC9YpAFQnEd5DBVXa9wshyMwKMACPQfAjUCIEwiTSf6bHGjAAjUO8IaBGIuDLiOOUuJthOGdlur96HiuVnBBgBRqC2ECARSDRx+AqZOfzybZu1lxa8NAzS6p3bZQQYAUag9hAgEUgSsYuON5wQ7BFIbRFOEsy4LiPACDAC9YCABoEIBx228U09GRSsK6ApdfgZJFvl6xKIX97/WXzRxYULBw7UT1+/0p82h1fIkC/BJFv2mRHXzXupRFFPyF2KrZBVpBrFT+r42NSH22IEGIFmQIBEIMphCSeVCzirXkQnVXTsxXaCZNRCbCduOHQIxO9fON91WPz+e3jrzf9g6dJP8OmypVi3bi369umHAQMGYIutvoStthyElozQV8ha3rHHSRj+e0UeN//iZ7h78u0evlnMeXE+gNYyTYpxyOPleS9g+oz78fLLc/Dxxx9j9ZqVaG9bDxtt9Fl8fpMtcOstd3ptMImYjQ3XCiIQtv9p/JSeJrSlfVP7Lb9nC7lg5U8yBEgEIla4f3/2rzjt9HGA0yF7HL7Xvrjh+kkEBxV07Dl88ME7GHnYwVizZpVcHe+44264847JcF0HjiOcs+mHQiA+ceTxxr9fxf2/vQ+zZj2L/76/GI6r6ruSKNX63S04QMZBNtuKr391ewwbtjf2+da3seUXBwWIJKlzFv114uZJV+HuybcAjgu4rZjzwtsA2krAKEijz+XX4IorLsLMR6bDRQccUafrkwHcFtXG7Ne98RHEx5+0ETB1cqVy2Wonqb5Rzrdc22k5ZV1MKLKnJWtS3OupfgSBBB1yAS5yOOfcM/DkUw8Bwsm6vXDD9bdi+J7f8VbmcWorR/mjs8fi6b8+KQu3ZNvxwAO/xxabC4dciXRLDm8v/Ceuv+EqPPPMX6QegjhU6swnL+91YceBiJgEeQpjFAQnCcZ1sNOQoThy1PEYMeIgSxFJh0cgtwFOPoJAVOTx08vPx8yZv4XrdhZxczOS6PJ5IbMjx2fO7HkRBEIh3Lgx5d8HEdB1cmHo2Wgj6ahQnC+lD5sOWgcXqvw25aPg0YhlyAQiHOkHH72Lw0aNwKrVy6Tj2uSzW2DG9MfQ1tovMtfup67+/PRjOPvH471UWAvGjzsN48eeHUjVJF3NlxsilSZ68qlHcfGlP8HajuVeqigDx81g0003xQ7bD8GGG26Mvn37Ye3atVi2bBkWLlyAf/7zNaxc5ZcveBFCFij0trjCFxHIRNw9OZ5AXn39RRx3wig4WCeV/dxnN8cZZ5yF3XbdE/36DkS+kMPCBe/g1Vdfx8EHHx5BcEwgaUxoHUdXawRCdbxU3Gw6aB1cKak2tSjkFBZ1LMuVI6awRHUVQUz57Z249ror4Mj9kBaMHn0KJpz6k5hUVg4dHcsw8vD98f6SBZJsNt98MKY+8DBas+uXkI8piZRziIo8fjft17jyqksBRzleB23Y99sHYNzYU7HVVn4EJH6j+lcb6C4KyOHVV+fh948+jJkzZ2Dt2qUKS0kgr3pppvAUkbDPstdmuj3XHk4grtsrkJ4ScnVi4lXnYtr0KTJSacm24XdT/4jNN/tSQG6hm39XpxJRXRRpF/GMN1S7hJb6a/hlFKI4r7KTscRYKungypEHVYYkesfbhphH3e+flZOLWo7SJ5eJR0CDQERjORSwBt8/dhTeeOMl6dyyLevjgfsfwpZf3KbMpq8inhtuugK//o3Y1M3BcVpxx6/ux47b7xpYIcc5kNKTRqXOKay+Io/Zc5/DSScdh3xhjUSkz3oDce01N2HXoXsFiK8ccRU33Jet+BC33XYDpk6dikI+4xGI2Oim7zEUT1CpwVF7P7nQCKQngXRg1JH74q0F/5R1h+6yF26ddG/JXokpAccbi16JuPEsbU23fLQ01SIQuTghOrugBiZ19MYjurSt/oPtUMmHogdVPmo5Sp9cJh4Bp+CNcun9crH2lpOh2zFQ5Uxf++ccHH/84XIDV2wN7DRkD9xx2/0hUYgqP/+t13DMMQd7DrwFIw89Ehdf+DNZnvaNhsFTW0HXIDaMPYcZekE+h9VrP8WBB+2LpUvfl7K09uqHeyZPwTaDttfcCC9uwL/2+mu46KKLMGP6Q91SRPE39UUbpa5NyJ8nprA6sOfw7bBqzSditx9HHXkCzv3JFSGb7fED3yglwu20+trpOjLd8jY1TKNv2ykiqozUcjbxa+a2NAlEQKUiiquvuQgPTP0N3EwebiGDK/7nRhx4QGnOXaS5OjH6h8dg3rx/yE3pDQZ+Hg89+BjW77OxXLmXXykWV/4d69bg1ddewttvvyX3JlpbW9GvX38MGvRlbDP4K8hmyx0p7sSdk2/CLyb9b1fK7ZJLrsahBx1FOD0WZRZBQuueJupOIkXSWbbiU8ya9Q8sWfI+Ojo60L9/f2y99SB8bdsd0JIFbp50De6efGu3U1gqAhHMqCIpoANDdtna22h3MGb0eJx+6rkhkZ+QyfZx49qcJvVCICraDM+523J6Ju2knXrSsZoo+am6UcvpyMVlyyOgmcJSk8Bx8li5+mMcOnJ/fPLJItn6wAGb4OEH/4g+fTYMpHQ6MePB3+DyiRd1bZxfOfEm7DfikBgHpxzme++9hdt/NQlPPPko1nasVqeiMirUEJvf4tO7vQ+GD98Hhx56FL6x8x5FYnCBXH4l9v3OUCxb/qHcI9jmy9thyr0iahDHY4upHrMLjKUpl7AUWx4LFr6Bn9/wMzz77N+QL4hTU93LrdenP0aMGIFVK5fiiScfU79320qO8XZiyM6CODoUecg2RPSlLguKE2TdnJM4wht5jyR+SpS6utS+mj1elLotQXFmSR04deM7bfJKMkhUHYJ9lOqj24bN9FoS3eu9rjaBKIWVg3/sjw/hggsndJHDqMOPwQXnXek58QI+XfYBRo78Npav+ETW2n23vfGLm+6JOHXlO9dO/G7aFFx73UR05lZ77Xub254nU1cfPEcKcYu9FWeecS5OOG5cFzk8//yfcfJpx8HJ5OAWWjDx8uuw/35HRFzQSzKcQWJQ+Ex/8Le46qpLvdRdOOEUxJa346jjxPLIsLgHUkogHRiy8yDAWSsjFFFGTQCfRErkdtsx58X/JEptMYEksQVVl0IOFJIJk0TXYfptxDneSjpWUx3CojndtiqpZ3JLqt0WyhJIaWrJj76L+4MqlXXyqcfh+Vl/Vfcl0IZf/3oatv2K2F8o4JJLz8Ejj06V2vfq1Q/Tpz2CTT63JRyZXvE/wU1fdc/hzsm3YNKkawPEkcEXNtsK39hlV2y48Wek83xnwduYPWcWPvroA+9eSkYdCx4njgWL9sXt7mtxz+SbUHAKyGb64Omnn8d67Rt0S50h8oXhopT0KEXhMm36fbhi4sVwMiLqEPmLXvK01y47D8XAgRuiM5/D4sWL8MorL+PdRQvUsVzJisUIpJjC6sTQ3beTEUjnupVeFJJBxmlFtqW95xFqtxXPP+vfAQkan0+4tWCQerJUc1M8CVo20jKl/es6y2D9oOM0Ja8kePh1k+jABGJjBOy0QSaQ8O5yeHfRv3HEkQdiXedK6cgGD94BU+67Hy/NnY0Tx47xjs1mcMaEC73owM/Nh5266cRzs57CKaf+sOueQ7++G+Gnl07E3sP3LYkc1P7C87P+hrvuvgMvvPACxo87FePH/cgjkE6cOPZ7eGnu3yWBDB60Pe6f8jBctMCRm/feKtEOjl4rSqZ/z39FHjIQmIiJ0rfvQFz+P9dgz2HfKjmxpSKV+W+/gauv/inmzH2+TApLkRKwBkN22aa4BzJmLE4/RRyh9p+DkVPL07/0dJjdU07JYUtCICJaE0gXo75sRS6immldzlGbOnDdesHytUogcREBVWdqObOR5Fo9FjNu18iZOBjl2G771Y24/fYbulJZZ511Fh6eMR3z335LksqgQdvi/+57GBmn+96D7+7ET0e4A7cDIw/7Nt5dJNIvQHtbP9x33wxs+cXBIXsmvrzKlTz1lyex9NPlOGyk2CBXch162Ai88+6/5FHZ/UaMxFVX3gjXbfFunZvoG2dA6tDAqRNOxHPP/Sni1JffTjFld/Okq3tsond/ykSUFZvoXwKcTsDNepvo55VJyQU394PptfhjvpH3V+IgqMDvxasIncjL1xH8hy97oQ1O2HFqYR5e2lOmCKvwuCRltR3nQMut3HXr1QKBmDh5ah1quQqYaVN0EYhATByqWnF35lfjiCMOwLuL3kShIO55iGkqpmsWcNrwm3sewLZf2ansfQk1sYGn//YYfnTWidJBij2LH591Ib7/vbGRJ6ZUain4Iq1wkMrZ7r3Prli+YokksVGHnYALzr8s0FaYvurJFnGBMP7jv3gbvAOSw/y3XsWoIw9CxumQxDVu3Fk4edyZMae+qDfRBYFsGSCQk3D6qRfG7Ol037Svpdd5FcpKPhFN+GTgY9/9VeTiNr749+8etr98t8wVe0KFLB6f/pgkkB6pxhogELlAKnujVO9RP5sO0mZb8fOlWMKkX2odajkdeeuxbKVw0NhED98EVuDmMWv20xh/0g9k6snJqPelxIN+Rx/9A5xz9sU9HWhgYgv3IRz35VdchAcf+rV0J229+uOpP/0dvb09i/hBDMonIoEO7DL068gXVkpHfsJxp+DMM/zVesgqXMrTie99/2C8+dYbcDIRJOI9VviP5+aUnOjqxJ133YhJt14n00zZTDsef+xZbDBgk5i3vsII5M0ep8VUBKJLIKXRTnwEEo918hJ+CkosHvLyVQP1L4IcVETq4KDDD5IEIf/uerQuDxk4+MO0x7vduFcpLP+UYG2eGStHIrpRRBfBJnyKw8TJUKKpKPlM+gwj4Fo+VZZ8dtBasLUoofUWXiqWQHrea/AdUKnDzuP8i87E44/P6MrRf2bjzTB9+hNYr71/TwfabRNCpZyOPOYgzJ8vNn+BITvsgTt+JW5Z6930VmoqAtl19x2wrlO92zXykGNx8UUTy0cCkkA6cMRR++PNt8QrtqUrd+nFvD2KLOD2xpwXRTmRlvOjkE6MP/lovPDi32TZwVt/HfdP+X0IEZQORv0TiH8fI7gvEWZywShD/FmgfOBh+6uiXkThE8bMaTO7EYoyGfHETBYtaJX/r0gj4smYJLPDct2wCU8lDx0nShXbxJkzgVDRtVcu6cLDniQ9W4olEDnDxYIuclGnnO0nS9/DviN2hStOFLlZnHD8WJxxurgDom6cdzXRLfrwHX4n9tp7Z6xcpe5s9HT4Oik2tRcxYr9h+Ojjd+WexzeHH4Drrv2FIhARQYTq04kjjjoY8998XansOChI7+Qq7nBEzn2dyqPLo7KCQMQpqCKBfPegYfjv++IpduDA747CZT/9uSSQ6E37qBRWUO8kEYhlMwooJGhA/Jcv2ZdQ7l4N9sGHi5eLvXv4XhQhh8BtwSPTZyLb7WRevKwZb9M8LtZI57BEvHzlSpg4bb+tJHXD5DFpjwnEfOyjatZCNGGiWTyBhMzAHHJYg7UQP/2Piks6sOPe4r6CIJAWjBk9DhNGny8eEJG/FRTSiha0oJdcP4pUhAJORQxDdv4q4Ij3qjI49nvjcdaPLojZs+iucjFaUgQy5gfH4KV5z8k9ks2/8GU8OF1c1GuLIBB1jFjJE/yoyOPmSf+rNrql4wsjkA7ssefXsKZjqSTQY44ejZ+cfblHoKpauMOrPQLxSaGcUQXjUEUSBRxw2He7ogiRcpIweWTxyLSZRQLxvvFRWURGkocgBJ0NbioxUMuZTB6TOiZOu5YIRMcJhkVXpvpT61HLmYxd0jr1ShKRY148hUWHZwVWYgmWYAVWdOWthRsQTnvHI77R5SXHjD4Kpx/w4670VRta0Rd90QfrY330lTSiPopAvrHrdsjlRZsZHHnEiTjvnEvJT3J0dxQqJTbx6kswbdo9amPcbcefnnwGAwdsFvH4ob/aL01fidZz8l7J3feIKMYnEPGoYTCFJXT4MnKFVZJAjj9uLM6ccIl38itqrRwkEHHCqvQiobd0d8IikPO9qKpkbyNuaR4x3GpfQpxzEhFX8SOaPHDUgYoISwgi42Ywc/rvJRVEhaulCVAx1qqG4d6MJ6BMjYknuj1xE6hPnwgGJZM4uCR1w0StRnumfVLrUcsZDB2pSiOSRCoEcuqvTsWK3ivUJT7/aRFxvFREEI4gBJHm6QUU2uDKm9YZZPMtaO9ox1XjrkQ7ensrT1FbrPrXYd/D98JHH78n6+77rYNxzcU3diMQ/+ZA2M/uShbkKbDHn30I510wQcnj9sJ5516Mo/YfLSMi/6yWesrQRVYeJFZnlEp/+jfvb7pbEYiLPBx3Pcx9Wjzn3i5Pm/kR2PCDd8LyFR/JKOfoQ4/D5Wdejyx6xxhfOgQSHUX4mhZFC556Cp5yUoSpHol/eNrDary9WMqvI05AqThCIBlBBiUeXsfhh17mDGmgR4aUNPXtFtJJ9ZT2XKkN4qR7MqVyU5w3pUwSsjNtX3f0a3lfQleXJOUdVyb5ey4aoyZ2eApLrfqHDC+msEaPKaawhEsRa9q1WIMLbr8AHW1rsS4rjsyKE1sFderJ6ZQ3t9UJrl5yFS/3K6SzEpSg7ouIxa8gpODfi6/y+oQmCue7CG3GjKex6ef745EbnvDoIlDfWwF3tVfyd/+E0E2/vx5333N/14O6c6c+K+7YewkZpeHIn+yHBQvV0y37DxmGqefNRB93QMweEuEYr7fJTzmF5TtaEUGIGxOC8Lwv6e2yla5TTor9ZUTh7/kIbB+d/ofAKad4ExPUIchERaLJP+Vu/vv/HnVcN3nv6bVAcXBJyCep5Dqb+o1OIM0WTZjYjhGBhHcUuOgmv0+8H0afMAETTjul6zxTZwYQ99VXYhVEGqxT3q4upo0mPXoT7rrzlq4Y4L4pU/Hltq/KnZOen9IVdPdNdnFWx0EeP3/wGtz7m7tw6KHiAUfh5DxikhFSpiuCKiWgbr+TMopvIxSEpL6QShGb+O5x72a9JDRBgOJJEpEyA9pz6+P6Mb9AW5kIxF8pCwd/853iNd7bvQuVWbz0zPySJ0oEViswZO8t4WY6JIFKgj7+XGTRD23o02PdL9o/4NAj1fe8FxRBSDLxIsKZDz7QI+Uj6giNWlxZBR3okDteYZGZj7jY1WqHSFCGjZOGWYrO5XfTC3nD6onx8g91eH/2i+mEMhoi2S5KIZByfdqOGOTaIeJ+im3dw9qjEhYVN2o5XxYmiWSj7Lhu3pt6hjnoQP8uVmOnXbaGW+iDBW/3RiG/sczni+dDxCfvFJDP5JDL5pHPdgIZ4ZTF93eLiMMFMsK5iRdnxXtQooZw8sIpiZ/eSSdZTpQveUPLS6XJyMV3d/LfxP9Uikx8vrDFlvj5jZOwxy7ibkb4p1wK5KbbHsHdk3/ZRSBzn5/Ro4Epv3sW1153lRRxTWsn9j52BNa2iv6jPgIHIaegPfVMR5feEoY1QHYpkP0YyC4BWtZ49yLUbfP1Vm2GBY9m0GfNZt73uKv7ECIaePShy9UJsjIONvQIrAfx6jbgIyzBKrwn01LdI7Rik2JH63P4PPpCfLukB4/3s+xeREgqSzwoiVweyHUCwixL7zkIW8lmId+/Fz8z8TZba7xSbYdNdRdUxx5sj+K8a01/Ez2pGDZDOasE4l90EwSS6xyEE44/BxNO35t0r9sHe8IZd+Fvz/xZRg/i8/1jT8DZZ32n6JV8j+R5eeEc570CXH3NVRi2x944+aTdlGcLeK6ZjyzGJRefJy84vvveO4p8JDGJFJnvhMSz6OJ7kv3TQ+oypHSbnnOXeylin8d38KINSWzFrWF5zDeTh4NOrGxfhcLAj4H2NSpSUWeDgYJHnOoca5Ewxd+FE3UyQMEr7xNIZhk22mMw0PIRkFmteNFR0Y8gkHdmumhdvWm3+yuZQguy+VZkpb7dnjEm2fba9iU49tLhWNP+QXh58SowgL5r1setp05CixecycIq66jOZ4WwiH9PM/i7rDqrgJ02/zraCy5aCiJdWdxjy2Uy6Mhm8OKieVjdskZGR/4nKkJSZVQJf8Ne3SQR/8Xs2ZCQoheiONmo1kyjEL8e5WQUXRsuSUXAJlHFkbDNvuL0iz/GW9JCuRWd8tneKaEyKaw4YcTv//v+chx59CFYvfKjrldnt/3qdjju2B9il12+gQEb9JX+9/3FSzB79ouY+cgMzJ79gmx6/LjTMW78icWlsXfJLOsAP7/hFvWVuiIF5R0t3WGHnTF23GkYOnQnlbn30jbS3XgkJBzc4sUf4i9PPYH7f3sv3lssCEhETe2YO+cFFHxAfOUc4MKLLsNjf5iGzpYOrG3txFHHfR8/OkmkmnpJWszLKKOAT/Ep7rt3Mu65927k1nVITth8s83Ui02FNhRk5Kaik6zr4tF7H8Au+2wtvwmSksKS20ql8lEGwSuTLQCbbLAdMm62q51SHhJ/bxGHI9b1Rkte7X8oR9+Ctdms/JkPpklKBFKkrZ6nF3/O5PPyucuMW1BjEPiIsSg4Gazo81+Mumw3rF5/MS45VtwzUqe4wvawirkwRfKCy8Tpvz7oj75Yr+Q0oAY4hkWTEojUoUzaqdRx6JANtc1yaifti3pwIAr2sH2ztJ1pnDM3NBNr1VLXX/cYb3RKoPxFt+J3gUelHdRG/NyXZ+GMM8Zi5aqlxTNR/krf+0Ip4bnl92LIfRS1JzF+3ATvNd7uuXi5N4Ec7rr7Ftx6203IF8TKVZ21Eum1Puv1w5AddsKmm34B/QcOkBN01YqVePfdhfjXf97Af99f5J3RCuyzFHrL70QX9dVLXh4DoYBPli/BqMO/g2XLP/b+PYONNtgUe+w1HBt/5jOY+ehMLyAQHl6cWPP2VwDZp4NemPvcG979EXUFU5wbE1HNbkMGyx5FoDJm9Mn44ennqSioK+pKeoDVG2HxI9+KoZt+C5lcMTVFsWyfQOYtmIpcVqQuA7UsiLeqHfgQH2I13sNl9/1UEUPJoYrg3wVdd32FgFNAW2cb+qzti2tPuqYuCSSKROLGJ8qh2HaGafZFJZzUHWiCPaS0ZUtiJ9KbEZ7KIT/nTssldyeQH4w5Gaed4l8GLLpYfyXoG3sxD+/vWbhYtHgBrph4KWY9/0zRyQZ2VsW9A7EaVd6jFXvsvjdOP+0sDN562273PJTcwsWrvRBBTtdceyX+9cYrXrvq98VPKcEVSUPcaHcyvbDnsH0gvjxr9932RCdy/q6F3LZXSZ0cXp8/D+ed/+OuPuRKW2xkA1j87iK5opc6oAXD9twdGw7si5kzxbclqjfEZs8qfiFUVvxbrgDkO3Dg9oPR4grSzMiLmoecLp5z978b3j+A3NONfGvrraVBdD9q0LOcePpecWEGnZk2/H3BO2bvL3qb3SJCCUthxTm6qN/nM8XNfX/sxCkw2jFvdehaJLD8C63Gd1AMlLARgfjd6jp8ikNI6nSKczo+9NWVPwi3bQIxlYWKqYGp1EUVewQiV8DeV6/KRI333Php54Q49KhTrUFnnse//v0y/vjEI5g7dw4WLnwby1csRTbTigEDBmDw4G2w085Dsd93DsRnNxYXBP3vGik+rCf3HLq2RPwN9Rxmz3kOD0ydgjlzXsBHny6BK78qtvSj6vbvPxA77rAT9vnmCAwb/k1ssN5Ab/8EOPSQA+T3jQgyEKmmooMu4Je/vA0/u2ai3NORR5UlaYj0jCKPr2+7HcaMGY+h3/wm7rjxeky+5y61CeD2wjNz/uPt03h5uEIBu225OXq5Hci6oozaQJcvHnu3uUWUp7L8wV0ZtZJ4+i3xtD7hEyAQuVHd1gpkgy8Ox1GQnQcNy6ZKe3wBWLw8kg891ZMGQAQEI4vYJBAqkZg6OROnSkmjBUkmrg+/PQpucW1FDYwpRkntod7rFwnEygzzHbS/FvR2UjVvGRdzmcWIxF9plj75rVyl30/QdZYbmmCbokwBC997E28sfB1Ll3+IpcuXoVAooN/6/bHBBhth0OBtcPLJJ6ssk/jucXH3PF9A/448eq/L446Zj3l7In40pNpUDl5UcoEP38e8F2bhww8/xGWXXdEVfaiSyqV5lNe1Ws8UvNNnklJcrMs6+MeCBYoju+HpR0xyBz7yFngoIj32cAKGIGEVxBh/2inxRLBif4ml4AbKIBC1R2LrKGwSApCLBELKhQfYLgKWCURfuLCNL3IrwumU3htQC3PvdabuLUn3L8v7y1GxByK8ZCcOOWQEMk5nMYKQBOBIh/7wg+JF3eC9kzx2/uKWaMuJDeRWOIWWwDks1bbvcvNixZxx5aaw0PXPby8oOYJM0FY0JqIBEQm0ZOE6gYcpCdUji4QcAkjapFF9A+4z6ocrGSGgSxKmZMAkYDQ8VaukfQornVxAz9x9kFhCScYnj3weyOfUHoHIDYmFe6vY7RDb5v5rsOrpjTbkcez+I5B1C+qUUIs6JSSOi37w4qtoz6lb7uLjHxYq/t2LEZwCOjMZPLfwHcARm9d+BBQ1hha8tOzeiwZC8zC0VE55KZPWFy37kZd+IFSUS92DCcZlJAKsdm6qalPYbsemjr9UCiYCu+NSq63ZJRCxuhdnbKP2z3rcXADc9ekAABITSURBVIvKXXh3JGRePnDSX27Qemv8fA5DttwCvXMFeSprVYuDLbb7GjqyDjpFuifwhURt+TwWzZkjvrcOazNZvLJgIXLydWDxdeNio5rghYQsIhro1VayNxA/xKHHDP1gKL56TAlLBKCZbuwuVHIC8bf5mUASG0RXA6akwCRgbwwatSV9AolCQkQC6zqAXAiDRF1kcwrYZ6tBsuWgGxQ313MtHSj4jzN652zEZbJNd9wR6zLqJddsQWxi+8dys3j4oT90XRkLilsuhSWdldhDjz844l38c8rvDYTwoZyI3Tbzg1LFOH4ZaYlddwK51YSVUomMWq4mlKq6EKYkECY4E0PVh7NhBNAjEOHMZIQRPCklsPCSDoU8hm3+RbQUxN0F9elyE+IrScUFa/kWk/pXacjSMRbw1/nqS5jUMyaiPXETu4ATD94frnjiRNzZcPNyI3tN1sGUPzyBDghKUB7bP2ulXoVV78Kq75sw/5Q7ARLZYhoEkkQJc/UNa1KJgVrOUIwarWZKBNRjq77aTBI1agANJlYsgXTzh/kcdt30C2gXK/5uQKjV/7qMg2feWQhkyrzIKs+xiudAgqe1gIMPOSiEcDLyctiMhx8tvovln/T3Ulhin6P0o4gjeEy45AQR9bQPeduC6gip5cItzI9iqFxSqma3PWresE5tGscRhIlj193ATk05bpgRKEFAm0DCU1TeHkWLE7k3IKIPsUX63ZEHqDeOvO/Anvm7md3ucisCEP9l0Io2wy8bKuOw65VAvAMB1JiKCaR+5zrlzkP9aseSNxICsQTSTdmym+TekpZwb8DfJC1euSsPpzrfFLzE1kjQsy6MACPACNQ3AnoEUt+6svSMACPACDACFhFgArEIJjfFCDACjEAzIcAE0kyjzboyAowAI2ARASYQi2ByU4wAI8AINBMCTCDNNNqsKyPACDACFhFgArEIJjfFCDACjEAzIcAE0kyjzboyAowAI2ARASYQi2ByU4wAI8AINBMCTCDNNNqsKyPACDACFhFgArEIJjfFCDACjEAzIcAE0kyjzboyAowAI2ARASYQi2ByU4wAI8AINBMCTCDNNNqsKyPACDACFhFgArEIJjfFCDACjEAzIcAE0kyjzboyAowAI2ARASYQi2ByU4wAI8AINBMCTCDNNNqsKyPACDACFhFgArEIJjfFCDACjEAzIcAE0kyjzboyAowAI2ARASYQi2ByU4wAI8AINBMCTCDNNNqsKyPACDACFhFgArEIJjfFCDQyAo7j9FDPdd2KqFzaN7XfMJl9galtVETBOu2ECSQwcDxB6tSKa0jsoA2ZOigbbdiAJMr5lmvfVOc4eXUJhCJ7WrLG6dJIv9cmEBvGbaMNG4NAMbLSftIyuqQTpFQu0V5astrAvlHbSGrbunaQBo4m8yJMDpv2p4MLVX6b8qUxDvXQZsUJJOkEswGqiQxpRyemE4QngQ2LsNeGzjiG9Zq0fhJNqI6X2odN29TBhTJXeYFFHcXoctoEIpozccC+GH5dm8ZFhSKJ3KXyi7/b1MF0gtiUgYojlyuPAMV5lautYwO2x6AceVDtK4neFF2o2FDLUfrkMvEIGBGIKYnYcODxKoWXsN237RUM1fCp5Uxx4nrJETAZI5M6ySUttmCrf9vzLGzhFrV4s6WHTWwbua2KEUhahkUdnGr3Hycn1fCp5eL649+ni4DuOOmWtyl9Gn3zAsvmCNVuW8YEohuFVNOBV7Nv6tBTJzG1HLVfLpcOAjopHVtjatKOjpzpIEWLgqi6UculrUuztG+NQKhhJTWnGjYAJsZhUietwY+ShSontVxaOnC7dAQoY5XUgYfVD5Ow3LyjyEjX2KwkVYdg62GnDnV6T+KHdPpp9LKJCIQShSRd/VONizJBqmU0VB14gjTWdKOQg6kDN7GpsEWeaf82RspUB4oecfJVyxfEyVVvv09MIHEkYkogOvWiyuq0Y3vwdPqmTmRqOdu6cHtmCNiIOkt7tuV4q2lLSXRgAjGzxTRqpUogOg40qJxJPb9OcGVRKxOEstqhykotl4axcJtmCJQbM9Ox1K1Xbj7ptmOmfXgt3b6p5anlbOrSzG1ZIZByUUiYU6eAbUIgYe1W05h0daDKSi1HwZnLVAYBymqbssgonWdhK/FyGtXSAsvEhql1qOUqM/KN34s1Agkzbh8+6uSIS4fpDke1jEmXPHQcQ7V00sWey3dHIIpETOeHDoHU0gLLxIapdajl2D7tIJA6gehMDiaQ4qBSDgUkdSB2TIhboSJQjkSoc8S2czRpjxJNRS0cTfrkBRbVwipfziqB6Ax0JVZEJsbKE6TyRtgsPYbZFpU8ks4tW/ON50ezWCtNTyYQGk6yFIWQKGWSTGbT9jXU5KIpIpBk/JLUTWJzwbpMICkaRx02zQSiMWiUCUwpk2Qym7avoSYXTRGBJOOXpG4Sm6PCQZGPUiaJrKbtU3Xkct0RYALRsAiKcVLK8ATRAL3BipraBzUC1oEriSymNmzaJ7UetZwOTly2PAJMIBrWQTFOShnTyZeGE9FQn4taQMDUPtIY+6R7MqVwUHSjlOH5YcHQKtREQxOI7UlHMX5KGZ4gFbLuGuzG1D7CbFn8m84mfJzDt91emGym+lPrUcvVoGnUpUg1TSBJDZoJpC5tsqGFTuLgbEcM5UjJdN5RdKOU4QVW/UyBmiIQ2w7fHwZbE49i/JQyPEHqZ4LYltTUPpI6e79f6iu2JpENRbewuRhFWOXKh42LkJkig+0xbeb2ao5ATEmk3AQpRyJpTRDdVANPkOaafkkdnOliKGp+RNkgdZ5Q5Wo0AqHOXyqO9TYbapJASp0wBfw4AtF17EnzxVRHkXRCUbBJYpTNPkGSYJck0ozql2ozVKeeNLrRnVs25KqVCKTZ50fNEgglEqE66SgyoDpgk76CdahPk/iyUstT5bftCLk9MwRM7IhCRFRpouyF6gxroa9amR9UzBp1ntY0gZRLP5UasOngUAc/2J9uX3F9+O1RHQu1HHWSc7nKImBz/OJsy3Se6LZbLhqIQzZJP7VCIHE6NvrvrRNIvQIWlRagRBIUvaNCd5uOhSILl6kOAmmMc5wj1l30UBdupsQRrEeVnYobtVx1Rr/xemUC8caUmldOYgKiD9PJnKRfrssIJEWAF1hJEWzM+kwgFSSQxjQh1qoZEOAFVjOMsr6OTCD6mHENRqDpEKgEgTQdqA2gMBNIAwwiq8AIMAKMQDUQYAKpBurcJyPACDACDYAAE0gDDCKrwAgwAoxANRBgAqkG6twnI8AIMAINgAATSAMMIqvACDACjEA1EGACqQbq3CcjwAgwAg2AABNIAwwiq8AIMAKMQDUQYAKpBurcJyPACDACDYAAE0gDDCKrwAgwAoxANRBgAqkG6twnI8AIMAINgAATSAMMIqvACDACjEA1EGACqQbq3CcjwAgwAg2AABNIAwwiq8AIMAKMQDUQYAKpBurcJyPACDACDYAAE0gDDCKrkB4C/CVg6WHLLdc/Akwg9T+GrAEjwAgwAlVBgAmkKrBzp4wAI8AI1D8CTCD1P4asASPACDACVUGACaQqsHOnjAAjwAjUPwJMIPU/hqwBI8AIMAJVQYAJpCqwc6eMACPACNQ/Akwg9T+GrAEjwAgwAlVBgAmkKrBzp4wAI8AI1D8CTCD1P4asASPACDACVUGACaQqsHOnjAAjwAjUPwJMIPU/hqwBI8AIMAJVQYAJpCqwc6eMACPACNQ/Akwg3hiKR/PKfVzXTXWky/Ud12+UzL7AcW2kqhg33lAIhNlbpeyrtG9qv9Wc1w01+GWU0SIQGwZkow0bA0NxvpUiFF0C0ZGdOtFsYMptAMGxMcXeRhs2xkLHztJesOgSCEV20/GxgW2jtFFRAtF1lGmATDEsnX5tGKEOLrry25BPB49mL5vU+es6yjTw1rWxSiy0dHChys9zI7n1JCYQIQJ1IHQcZXLVurdANSrdfqm6R7WrgwslJE/qxHQx4PJFBHQcXRhuSesnGQvbc8TG3PD10cGFkuUQZWzKlwT3eq5rhUAoJKLjJG0DGjcx4gyJ4rSTyEzFhlouiSxcNxkCFOdVrgcdJ5lMyp61k9pWEr0pulCxoZaj9Mll4hHQIhDRnImhmdSJF51ewlb/aU0SqnzUcnRkuGQaCJg4MZM6NmW31X9a0S9VPmo5m9g1c1vaBGJCItV0fGn0bXuSUGWklmtmg64V3XUdmW55m3qm0bftFBFVRmo5m/g1c1tWCSQslWXL6Zm0U64OJeVm2yii5KfqRi1nW3ZuTx8BnWjVltMzaUdHTn0U9GpEyU/VjVpOTzIuXTbt6sZtAJSpSXFmSR14VP0wsUpVociYtmno6hCUx9fHtA3DoU0bkqZpn+LMkjpwqm2UswWKjGkPGFWHsLnh/5tuGzw37IyqUQQSlcYKru5NHbiuMZRCEed4K2E8SXWg4BhnApXQM06GZv49hRxMHbipfcUtsippM6Y66GQ6ytlfJfVs5DlgTCBRJCIGp1rk4RuXaf82BjvJxOAIxMYI1E4bNtIypdoksa+g4zQlLxvoJtGBCcTGCNhpIxGBxEUilDQTdXJQQ/BaJhAdHXQmCa+m7EyGtFqhOkvqOOo6/mD5WiWQON2pOlPLpTXWzdZuRQlE10j8wdCtlyQCSmoAJpEPtQ61XFIduL5dBCgEEmfjvkSmDtKvVwsEYqIDtQ61nN0Rbt7WEhMINQqhTBCbDtJmWzrmYdIvtQ61nI68XLYyCESRCGVuJCWQMC2r5WxN+qXWoZarzKg3fi9WCIRCInGTxLZzNGmPslIsNYmoFZ1pBFWunolOjW/C9aNh0vGz7RxN2tOZI2Fz3qTPMP9CTQfH+Z36sZ7alLQiBEIZxKSTqxRek/Z0JkeYkzfpM4p8407MUAmqNk2v+aQKsw/K3Egj+tBxysGR0pkjTCCNb+PWCETHEVLC6aTO0cSZ60wOJpDGnxxpaGi6Ajd1+FE6mMiiM0eYQNKwoNpqkwmEOB4UQqKUSUKepu0TVeRiFUDAxGnXUgSSlJBM9afWo5arwFA3RRdMIMRhpjhvShkmECLgDVosiYNLUpdidzrpNNP2THWg1qOWa1DzqrhaTUcgAmGTiUIhB0oZysQrl74zbb/iVsUdlkUgiYNLUpdqdyZzQydCMtWBWo9ajk3UDgI1TyC2Hb7t9vgUlh1DbJZWkji4pJvwpRin3R7vgTS+VTcsgYihi9vw01ltUVb/lDLUlWAY0Zm23/hmXD8a1hKBRM0RnbnBEUj92J9tSeuCQOKihnKTslYIRDclpTvIJpNdtw8ubwcB2wQSNzdKnXuaR8MpuukuguLmcNyo8NyIQyjZ72uGQOIihihDiDJcigHGGVlUG5QUVr0SCAW7oPnF4ZjMVBujNsXJRmlqmnby61HSSiZjSpWr0QiEOkcadW7UFIHEkUhwtUV16jptlpu4tvqirv50XWVaxkmdHOUIUlePZiiflEB00k5Up67Tps4cod4Wj4qidG2wVL605kZpZBdnu2nLEdd/Wr+vOQKhOPw4MHRXWXHtRf0+zb6ohJOWcepO3rTkSDI+tVbXBoEkmSM6kXxS7NLsi0pOadskdY6kLUfSsTKtX5MEktYESdJuGMBpTpCwVZlu+G9qFFwvPQRsEYiJLVOdGNUp6i6sSssn6adWCCQ9S6mPlmuWQNIOEdMwXpsThAmkPiaQrpQ2CYQ6R6jEYcN+dfsynYdMILqWl055qwSSjojpt6prxLqTxGS1GEYg6SPBPTAC4QhQ54jJ3KASYVCyJP3wGNtDgAnE8n2RckMTnIBs/PYMmFuqDAKVSJ+KPnhuVGY8bfXCBFIhArE1YNwOI1ANBCpBINXQi/tMhgATSDL8uDYjwAgwAk2LABNI0w49K84IMAKMQDIEmECS4ce1GQFGgBFoWgSYQJp26FlxRoARYASSIcAEkgw/rs0IMAKMQNMiwATStEPPijMCjAAjkAwBJpBk+HFtRoARYASaFgEmkKYdelacEWAEGIFkCDCBJMOPazMCjAAj0LQIMIE07dCz4owAI8AIJEOACSQZflybEWAEGIGmRYAJpGmHnhVnBBgBRiAZAkwgyfDj2owAI8AINC0CTCBNO/SseBwC/Lx4HEL8+2ZHwAHgChD4Hf5mNwXWvxQB/wlznhtsG4xAOAL/D8bl2G4mRXzBAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dCbgUxbX+Z7sXLou4QIzGXdS4s6nhCcYlajCrGiMoCBiNeQY31LjE3USTaFzAuACKigpuMS9qFBUXjDEKBncTE02MGyKC4OUuM9P9vlPdPdMzd3pqmZ6ZvjNn3scj2FWnTv1Vdf4651R1x2zbtlHFnyc8lvsfpRuTPM5XUi4Y0Cnl+pYrIB4gKOi5rF4VwW4E0arjU1QuqJqquEaAjvvACNQagVgtCCTm9YpWc+4fhV1VXujKBZlAaj2ZQmlPdXyZQEKBm4UwApUgUHUCqUS5grqqhqXCBmvUDFCzhioERLV6nfuj1zx5iUGepWqHuRwjwAgwgRTNAT1DVMEEqllDFeioU7XO/dFrnglEZ2i5LCMQhEDdCURv4ff+gWy2/vb+EeMeMAKMABNIROYAE0i9BoIPN9QLeW63cRGouwdSf2ira1gCCaPBmUS/e9Udh/rPM9aAEWg8BJhAUF3DxQSiumiqOw6qWnA5RoARUEegdgSivyV1emFaLxADNUMVerNB+tSsIfVJEUZJr1uerIDT25U3xRdAKseQJTAChgjUnUDoHmMsVsa8hGBgC9soTyC5e5WuTiqGzy9f2p/igQqhf4ZjX9VqTCBVhZeFMwKRQKDqBBK1EE5PfdQ8ksDRMrCUOoQWiVlSTyUalGDrCSm3zQiEhUBNCETs4slOkzGgP94dLnrg3+LTM68c1aFyxWUq6Lkw3F6DxYapmAioHU+3cm5IKQLx+unXlf6bJ8fDQMW9qaC/DVG1FIFkLSCbBuhvGYYC9ziQiAPxGECeZTzRENBwJxiBeiNQdQIRHbSAudfOwp233ImEFUc2nsHCl54GitdxFjhw+L6ijBWzMH7qBEw+6bjwLg2TMcn6iMxPEn4i8BNHjsQcT8W2Y07IrYdhcz0ZO+48s4Duz9qx7KWX8dmKT7FuXScGrj8Qm262Cb666y5AHzJkDqn4uaXeE6JW7es7Fj5PsbsLWPMF0N1ZpC4B6pS7+MCDxd9xWOhIJPF5aytmPv0k0NIKJJK16qZyO8Vh3KBX1KmWU244AgX9faryq/ki0NtoqFAqbWCCfc0IZN5Vt2D+LXcgbsWRSWTx8N+eAIrXcQYYt/sBSBKBxC0cOWU8jj7l2J5EYzoGFrD/iH0EQdHLHQVgtCslO24DiUQCLX36YsCAfthsi82x3Ve3w5j9xmKbXbYr9ISoSrHV9yyiBby59FXMveFmvLz0ZcQsx+fxHttxG8mWFA485CBM+tFkDNpkgzyJyHbTpv2OWj3LAtJZwM7kNdNhlHQa54zZB22Z7twZOkcQEYjj3p7/6OM5MkEyCSRbgD4tQGsKSEbvNSaqxKBaznTIy+YjSwg1MTpivZXLe7rtmMo27Xsj1ZPhGxa2IRCIb+ctZkaJYbCAAgKJW3h42eOlCWTY/khmE4JAfjh1PCaeXJ5AdOwOMsBBw/dFSzY4hOEBb7km34rZ2Gm3nXHSz07GZjtunQ+rFXeTYOgGbrpyJn4///dI2ERKMdjua4gtF5c4eTBEXjEg1b8vzrnkXIzab68iuRZAnkwQnr19pnelgbVrga4uIOabP97/Fh7EgS4ZeJ5HvtPtyQR+tfg5IFU0jsL7SznY+SbGQSNHoTueQDYRwzPL/hKeRxviOKgSg2o5U9VkhidIrqpB0pWvKte0v721ngxHHdwq8QDDI5ByL6fTJpAYrDhCJRCR/8jGMG7Y/mjJJEAGPZ6MIZ6kcJmzI8pkMuIP/W8y9I5nEodNhq01jgsuvxCj9h9d4I0IR8QNjV1yxgX4y+PPImERcQCpPi0YMWo4ttp2K7T2acOK5Z9gyV+XYPkHHwlPjEgykwCuuO5K7Py13fIhLTuLmBffi5JXYlsAeQ+W7eQfaP+fI7qehj5wcaazOGfMGPTtToM8MuE7kJyYBTsWE57h+QsXOrJF/4kQ3PAU/Zu8iP4DgZaeoaiRw0eL8uT5kSySuWTps3mPMcScWpjGR5UYVMuZ6iYzTOXkyoyWqWyZXNO+RrmeDCtTTMIKXXnYxSxXE5mdcvLCNi3NsriXPMZqAbdffQvuuvkOEZ4qDmHl6lAIS3gghQRi00azx3Ffg9NTOfkJQQoTphyF8SdNKdyRZoAVH36E115+FQ/e9yDefPl1QQjCjPVN4Po7ZmOToZsVhrSywN033Im5N8wRZbNxG1/bdzSmn3sm2jYcUJg8t4FFf1iIGZdfjUxHtyCatvUHYvaCmzFw40HhHxpQCBUoL6RsBqD8A3kQ5D1ksi57ukZeCHLG5aJvHOSGKZx/x2IJWJZDzutSSVz+zJ+BZKIQmx6KEHEkADtZmHMiLkkCI0eNLfBgbGSx9KU/ByfWfVNXy3NVBsi8oCoxqJYz1URHvo4xqlZZ037Wu161CMLfLx3MTfFQJhAK6VA0X0Y0+WA/xXBoB+jYFEEgt8wT4SlVAvFyIGRDCtotlfAWHCO5U1JEUCVzLLlkhZNwv2/WfMy5flaO1LYftROunHWNk5dxkxtrPlqNSd+ZgKxLCCNGj8JF113m5m7yeRYxSK638srTL+HsU89EIgPhbX134mE4bvpP8nJlI1ri1BgRfNmJKZL75EFkHQ+CPArpgPoUoTqZNE7fd3+0ZTJIkiyXMLzDBbZNpxSACx57rKgH+QQ3WluA/oMcT6LU6Tevpvts5Ii9856OYCMLthXD0pcWFxJQKe8ioH9MIKUnmA6BOBuDngCX2h3ryi0l23TXLVtKYT+XkYMwAyF+xy+ovTDbCMJII4Ql2fGXOroqZoFjNJ0cyDzErZ4EklOujIHPkUOPdnxE5dsBFwe6RahJhUD8xss19r844wI8/9ifxZPuRBbzH7wH639lo1zf7pp1J26f6XofCeDOB+Zj0BYbFargX2eu3b3mwt9g4e8fEV5dfEAL7n34fqQG9ZHH6P0Y+JP5svAMeRDkPXheRCaT38HnQpCWL/9APbaEkSCCyMTjWJdM4oon6QBEyjkaa/KLJYFEyumnp79HFiP3diT6QmMiBKVCdCplTPStQR1VA6tazlRlE/myOrLngcapiJxqYRBVcJMRRDX1VCVslX6EUcacQPxGzAI6P2/HkheWiCOr3d3dGDBgALbcZitsv/NOYld9xzXOKSzKF2QSduAprEOGH5DblR855SgcfbIbYqKNc2cGf1v6N3z04Yfo+KIdgwYNwnY77YAttvMlt4UR6fm9B2GnsnTKK5+kF/JPLQph+VGlWD9iePOvr+DM408T9dMJG2dfci7Gfmc/x6hlgenHnYy/v/i6yA1su9sOuPq26xxPwjOQHpEWkdPH//oAUw+dlAt7neXJLbbLHtYu8az65z/x7zfexBerPkdHRwf69++HIUOGYKttt0Fis02K7q+4XobnfWTSmL7f/uiXzqAlayGLrLuL9Bq1nPyDUN6f13DvUrS2Op5DSyvseEJ+mibIw7CBPdx8hchH2XTgFljy0jMugRTdw/HG1SUWqbcVxuqogoyghKWqkVUpF9SGSndU5JeSU65NU5li2fhIxMQwO5ufcm5uz97UkyD82kSNLEqOu9EnbX0GbcW7H+N3V83Ei8+9ACubBeVEPW+BDEPftjYccMAB6GrvwKKFj4vn3Uk6xvsk7ERRyKXIQxg/+SgcNW0KPn73A8ybdSsWP7UY6e5u0Q+S451s2nzbLXHqWadi+xE7B4aAyhNI6Q8MeRcPu1d34HtjvyWILZsEfnzyCfju1B84eGaBIw8+HO0frxb5jG8efghO/PmpPj0CPDciJyuGYw+ZiE/e/0jUPfj7h+CnF7p1i8gmu6Ybv59zG566+x5Yyz/GgHQXWrNOuMjNQws81ltvACjcSP87G7fEfRr6Qwa6OxFHeyKBK59a5HgQcTdJTQusbK7ExYcu5Hl1EhRXLOGBBHhHI4ePdXqUO2lFye3n5J5FL/YqvCGUGaRSC1P3HoisDVUjamrsy9UzlVlMIPTvcv2QYaBCoLI2VGXolusNZBEegbg74cfvfxi/vexq2JmsuByYTWSRob/jZLAKm/PbAXr0zAsv9DQeRUnuw8cfAStuY8GCBYhb+ZNRuYUp2sifkvrFb3+J3caMzIWA/DmRwhCWc0w474E4BjIwh9IJjBvlJPfJezrmx5Pxw/+dmCOQQ752IOIddIIIOHTyEZh6yvGlCcS7QS1yBwAySdxw6rl47slnxWmv7XffAefcej2QdO9HCGMcR9fb/8YZ06bj8w8/Qb9MGl9qa0OfbBopymW4P4EvHREG8Pnaz0Vk6ML5twPbbeEYbdq50/0HnwehdqHOR64qGzkbGDlitJP49hHGkiXPuv/2zQtZyE13FUasfCUGTZVAdLqsQiKmxr7eBGKCtQoeOviqlu2tZBEOgYhQCPDYgodw1WW/FeGX7lQGq9s+x9Ax22Ntn3Z0J9PiGOzGGw3Gay+/jg8/+KCAUFKZVrz+6FtoRWv+vSZuvsF/zJZOSpFRzsZscdxz5913xfY7bo+BAwfi008/xfOL/4JVH37qHKMF0G+jgZj3f3chObC19M7WJSg6xptJ+AmkzNDbwKr3V+KocUfkCOSUc6fjwCPG5Qjk8AO+h86VX4h/H3ToNzHt/OkugRR5NpR7WPsF0EU3qOMie/7yZVfhgXvuRww2Bn95MD7LrBWkSTkHuktClx6dPwmk43G0p5LIDuiHnf5nNNb/8sbi8uPKlSvx7tvv4O+vvYVsV1oQoZ2I4Za75qJ1+61IiJtr8L3SQ3gSwTmMHklm7xUz3k6gVM7C9S5EzkKQRxlcDT0LefLb4HSe6srXKGdi0Pziq0EgYo8hCedEjUDENArzJKEPZBkWGsMdWLSRyKJyAnHJ4/1//Ac/PfoEZDsdY5Ua3AfTfn0Sdtlzd6xFO9JIU1oYJ116onvrOyaO7ybITNo2ElYKN146G0m0+OxMHC2IYb899xFlaccsCCRh48BxB2Pyj6diky99BQm6KOYZs04bv/r5pVj8+FO55PyJZ03DIeO/V/o4bI5AyJOA/Ka7286j9z6MGZf8Fq0ZG0l04ebbbkC/nYa6J8wSOPuHR+ODv78n+rLNLkNxwW2zIeJdlDSJ+S67pbM4a8wYcYOaCISIoTWTdC8dEp9YOG3Rw0DcJR4rjjeumIl77lwgbHFHKoXJ55yB7Y/+IdC3b/6Gvhc2ak/jyYWLcPf8BfjnO//CzXfeis122FItKV9utQivwj0J5b/4J81ZhLEEC2X0ZgIpNljlDKMugeiU1wkDqRhZGenInvtHWEYWshNeOvqqlFWdwUF6h9mGqi61LBecRC+1Ut3Q1Xk//RmWLV7q6Nk3getuvR6b7bQlOkGvlsiKGDz9vP1tEgnMuf4m3Dn3dmE021s7sOn+W2Jt33aHQGIxcfErmY2LW+Ivv/A3WIhjyMaDcd6l52OXL+8q5PZFGzbCYPSx+zptU1J7ZTsOG/d92J2OtzJsn1G45Br3CK3vlVXiHol7kZBsO+3Qy74qxTPKa9KYcuRkfPrfFRjY3YHd1u+DM++b5xp5J8S07DdX4Q93kRcB9F9vgAjhdSXSwpPI/5wTTJcvXpy/QZ1N4qErf4cFty0QJJJtieG2F5/Kh7AySZx68GH47KPPRN/23G9vnHj1L4EUnBNQxXFBrzHyEB96FLuN2A1DNt24vCfgbdh94+3lK3IhvVhGnq/weyYF3kW9PYLat69jML0hkxnOsvweolcRhu4yI6/TF5k+sudBbZkk18uNVaMTRSCOgUn0AAL56O/vY/IPj0FrxrnsN+GESeIPnToiI1cyMuHeRF8w9w7EsnGsaVuD+UvuwyqsyekVRxxJxDH2O/+DUcNGiaRuJpZFOunkV+hHoa/bz5uHFqSEh+PcJ4vhxB//BG8te0MY8/U22RD3P3A/MuJ8kbOTJ8+mD8XkO1OYsPveSGUc7+bIqRMw7uTjnBAP/dycQ+5uwqq1+PWZP8crLy5D3E6i1erEJm1Ai91V8C5FIsWWTFK8umTtmjXYdLNNcezMq4GvkPH2TkHFgZYUMGAg0OpcjMuu7cYlZ5yPpc8tETmQRFsSv3/+4fwrXjLAt0YeiFjaEqR8+FFHYsqZpG/p8FBBDsezm+VCRV6+InfT20ly5/IVuRXj2w0Erv7SBxHyJ7kMj/xWvJ3qnQSi41H4IVIx3mF6IKbEp2pwZQQhe17p9Gn0EFTF+HgEIg8NODv+e2+aj5uvmy3CTHYLMP/R+9BviO+2dSmNcq8ycS4SdrZ248Flj2IdunKliRCIFvbfcx/EszERuho/ZSKOPeFHSLvmugtdmHTpRHQmO51XX9BG3IoLzyWVTWDp0qVItrXg8bufEOThEciGSGFIdj1gdQpn7bIH2jKOj0Q30YeedLx7MigOdHTiN+O+J4y584sLz8Djls9bY7joz08DLe5z7/RSNok5Z1+IJx95AgnLSR4PWK8/jpw4Hv+z3xjEyAtoaXES4qtX47V/vI2/PPOcCDd1f9GRa2/A4PVwx6J7XEKLg97dNWH/Q/HFijWCnDffditcd9csoI/kNfduqNEHriCskSPck1A5YnBf8yHLR/ieK82TEnPAtF6lE7zW9U0Nmmo9WTkVg65KICpkVIyvDvGp6lGOIGV46Iw/k4UOWk7ZXAir3ALP7WwzwNk/mo7XXnxZVN5yu20w454be74UsViPLDDvauciYcpKoiuRwcPLnsgbSq98j4t+R+HoU7x7IBaQWIO1WIEutIvXqtCZozhszJw7A/fecQ9GjRiBdNwWuQRxhNWV2zedwtzL5mLK2HEY0p4RBEIhMqdcFlnXcyIyWrd6DeJ0uCmWEGTQmk4JA0+3y7979ZXAl4Y49yC8nxvqSq/uxM+mTcdbr7zlvvqE7jVkhZdGx2hTqRTS6XSOmOiQAZETvRPL+22y9VdwwwM3w07Q3YyE2LxfedYv8eTDTyBmJ4SeO4zYGcccfwx222M3xxMRx8t8gLsXN4tzFrmb2/6x8U5ByQjEV8eUCEzr6U/p+tYwNWiq9VTLFQyzQhI68ASiBpwyr0KF3GTNqeSRZHoIw6d4g16mT7M/D8yBlFzwGWDquKOx4oOPBW4HfPsgnHzpGXIC8XkgPW6i+xvKAD0uEhKB0FacblBn1gH254Cd9r0fHfjrtb/D/FvvwsCBg5wXFJLppkQ0kUkM+LRvFhi9Lda02ujXHUOLSI47L+8jo0yeC10CpEmV+9aVFUef7r7YKrY1jh9/HL4+aYKbeyhxA9slEbsji5lXXIuH7v8j4tk4EpTb8V4b75yyFaRG78pKtiTwnW99F++9/Q5e/tsy0fYue+yOX866Io+nBdBlw+OOOhbZTlu8viMbp1NpQN9+fbDLLrtg6A7bY86cOc5FPNGfLKwE8AJdyFMhBpUyYrQLQ1TFJ3oLD2dZvqYLQ1eNTiQmBr6UQVPdyasYyyCDGZbxU9UhDD1MvKJS/dTROSycGlGOGoEII+i8CuTbo49GZl23MFaHTTgUx/9sgnjfXdlNTga4+6qbcN/s29GaJaOewby/LXZOKvl/2SQmDh+LeNZ52WEuR0EEksli+n77ihNMKfEm2Lg4GkyGSyTfMymsWbNGGOeLX3wOoLyJ2I1ngfUsfN6/C8sBfP3bo0V5kbhPJhBLxbDzrrsWHm9037fekmnBDZfcgAGgy3nkT+TeXuL6PmQoyQdy/iZTSSfNPnrvQzx57yK8vuQ1vP+f99HZ0YF4PI7+AwZg66FbY/geI8X3QPpu0B8nHnE8/vPPfwuiO+KYIzH5tKn50wduKOrNpW/h4nMuxscfUg+c3RORifMPC6lkq8i/DPnSYHx9//1w2FGHYtBX+ge/et5oJqsSiOP35XmJCUQFblXiKVdOdYdvEjoK6oOpIZbp6sk1xaUc5qY6q4xjs5WREIhjGOm+Gv0hAjnga+fC6so6Bn7SofjJ9L1AYX/va6ElXeFu4JErrsWDN87Bel1ppOw0LqS7AuK4qpfAjuOy/Q9CazYl7pCQ7aSXLnYnM+hMAuuSLbhyUdE7mMiLsIA/zrgRC+bMd2+5W5j/wrPEKvlbzykL3UnHzFOOReRv6IuHkydi6v8e7+ZK/EPvxIW60ImJF01CV6rD8R7EKze8v+OYcfYMQRtOQCxvKPuhH4ZgMFoydM+lxM+zru02vrXvOGS7bOFZXPjLizH64D2E4aeTUDH35ZDiY1cWcPZZZ2HRo4/h9VdfFSeEBYHaLpHa7keyYkCiLYHp552OMYfsK78RX68ZX7ErUvvkuApUqgavWJZKPVWjayLbq6Oih19+OZ3CMNR++X55MixkYxWGbrI2muF5GQLxdpJx8dLW9QeNQSwzCK2ZlEhckwHOxDuRTbVj+eqnHQ8kIByS6Ab+eMU8LJ5/D9br7kLS6kZ3whLHXMmToR+FYC545HGcO+pruQT5+ClHY8dpP3ZvUKcg7h3SH+8zEO4Ofe6MWbh39gIRLupKZrFwyZOl30WVBsYNd26UEyHQB6vKffFwHdqxEivxBdpzb4byE8ZPLv9JLnTkhZAoNEYY3X7eHe5Fyfw0opxNUhwVoPMIFv78l2fx89POFQQi3DgHCfH/e9zc9o4VE1zr0njz9bfw9hv/wD//8TZef+V1LP/gQ+GFOJ8MtpBtAa656VoMHbGjK7LY4Kob4MJNgXq9sguowQikUkOqYhCLN2eqRlCHFHTKygxkNTFR6bsMUxUZsj42+3PtENaPvn8aPnjXuTQ3cu+9ccmMUzBo8BhYdl/Y4oJCz1/SAvqnY+iTphKO1/HGykcLQywuGXxn1IkugViYMHkijpi2V54MyMbS3UPP1qoQiF8dN0lffA+kx+vi3TpZZEAnv+hIsJubLhm68kJY9Dd1qhtdOOaiqehKdbtvlXW8g5TVgpefekVI72zpQDaeFon0tlgbvj5sLG74xQ3og765k18lwfQnHzxSAfDJOx/g9tm3YtFDTyBhx8Tt/VFj98KFM3/hHLGWveq+2VdCSP0vZYBlhqxU02HmQHRIQadsJZCFiYmqHpw4V0VKvZwagXjyMsCvz7gUzz72lMiJDByyMe54ZJ6T2HXzJF5R//v5KPwya8Yr4nsgFHKhex2vvfsWskm/NbSQyMbQJ9Piejj05lsL6QTdA3G9oVgHVn22KJcjECEcC5gz4z4smHOXMPL0ttxFL94njCbplQ85ORfDDxx2OBJuwnn8lKMw+eTvo/gLt6RVUvaepuIssg/zdbE0VuIzfPXbO+a8CiIQytO8+chb+OlZ00RYLJPsFmEq55UlCdx4yY25Oy7iq3pF4+gnqnzOJSG8miTdc8kAZ005DW+8RCQVR9sG/TH/qfvlhxzU5wuXlCBgaoBNDKoq8ejopFO20skQZNCDsAjDY6hl/yrFpzfUV3+du7vbf3jeA5h5xQznFeQxYObtN2PrXTfPnTAq7rQw8lng1mv+kLuJTrmNhS/dJ95s6yccSlt8Y9ihwhjSu6+OnDyh0MBTKG2D/WC7N9G9+H/SiomLfPQjssl4x3PpoJUNrFj5kPibiGyfkWfmQnAUIjtu2q6CaHJ60JFeuvMnXhVV4nKcRxze7t+18iJnQcltOC+UTKe68Pzzz7s5HocAydTTrfxsVzeOnTgF7/37PyIUuPmOm2PGLddj6oVT0ZVMI510PBeRlHeP+V577oxcrsXLuZC0NrSBci70dzKTxNzf3IT75t0tiNpqAR5cstAlkNKhp+p5JoqhrqBQVsUhrvosP1MDpVpPVs6EiMrlFsIw2jQSurt/XU9OVU8ZfvWZNb23VT0CsYGO5Wtw2LhDQXkN+o34+h64kF6vUXw72jOwNrDyPx/jgunn471/visy0MVfJMzBV3APxMaRUyYU5CgoF5POOh/SE5OS7lHYwE0zl2HBLXeJMA3dXv/zi1c6XpFLIBsOPsQlECc/4eVw/B6OuDxIyXtBIF9g1apFSJTyQmxg2LBvIGbR/fakKE+/l5b8Qfwt/u25Du7fXvKd9P1iFXDO6efjrSVvIGHbsJJpzJh3FTbZ9UtYi7VYh3XohvuuLADHnj4FPzvzTFx34w3iiDKF/7wDWM49lVbMvugmtKIvWpHC2dPPxAuL/yp02XiLL2PePXeiuyAEJ86vIYGEuPufEufGzG6Jlyef5iSQUsZSxbipGjbVcn6TJKtTKekUmz9dspDVr/TUWC0IsvdSQGWaqxOIsI7ObfTfnPcLPPN/TwqjTInw70/4AY495QQnP+EZTzL2qztx7x134+5588X3vz2PwfkeCJ2oKorNCwLZ1/3sLd1En4CJJx9bkPOg0FjONJmGsKykCKMdOfUoTKUQlnu6Srz13NV/ow33xBZbboJ4bA0Q73KS5XYKNgbgX/9eAcvqD1itDuEIInOM8IfLH0Cixflvniz679k08PifVmH29bOwcvkn4igxyZ12+mQcPmkYvdkdGXSIF7D4X8Gy715jxSteRu61J34w/nCM3HOU+DI9hbPSyCKNLhz38+PQnegWXhvd4heeEF2kjAO/Pe9qIc/7PJTz+pcW4bGQ79IXfUXYLLRfseeQ+7czaqS7MLIBDfZSx6OgNzoGVDdcIyODUrDq1FEta0I6YvzLvLdLF4tislbNG/kxUiH30NZGAwrSJxAbaP90DaYcNgkdnzmvMLdjNtYbsgH22nsvbLjxELS3t4u7DcuWvIRsd1YkdcmgliKQAkxlBFI8AKpJdO8eiwV8c9iBuZNK9D2QY045RlizkcPzb5u17VbY1iAsXXqfc7rM+7IgySEyIBJz35DuqUThsbk3/x0/O/2MAgOZM4h0zNY9beaQCxn4NLLxtVix+pmSdzYo2b//iMNAITrh0MVs9BvUHzsP2wWbb7kFWtfvg9WxVXh35Tt49tVn8cGKD53xiFsY8pWNMfeG23D6pafniSzWjVisEynLEp7LTRfOFifFyBfx32cpzrV4hwNIf/JYynouTCDO+Cvc/i5nT1SNoYoBVCWFUnoH3ceQkcyRPg4AABbJSURBVIEKkanaUxPSUZEtC9+qYKvSTiOXkRJIjx2hG5p659W3cdoJpyCztlMcH3WIpBAqK2aLfMTo0aOx0cAN8OiDfxIk4g9hFch3Q1gpOopK90yKQlgF0r2KWWDuzFm4Z9Z8YQZ7HOP13BWXbA4ccbC4x0JeB30TJJ3KIB1PY+mSoq/j+RXzjmC5CtDHBOk/FXtCd8x5GHPp2+jux6kK9XWOPtNFx8223hwnn3Eqhu25ubicuOGGY5C1+gAx5/X2zs8SWNE7vsi7obCbdyCA5AzdZlvndS1xunlOobuMkE+/LbbZGpdfdSa+tGn+zfceD1Kk0cJn4nTZ8Rcej65UF9KJjGiDfB8KbdHR6uvPur4g50IMl0LSzbZUwXNpwFVWCYlEhUC8YQnDmOrgEeadj1JTS6U/5fRVqd+AU7pHl/QJRDCF82flf1dg5q+uwV+ffV5cVfd/WpWKbbfzDjj62EkYOXZP3D5zDubNnecYqngGC1962jle6qokuMcCDhq+nwjDkHGcMGUCJp90XOnvWfhyLDfPmIMFN98lJGXiNp54kd6z5QgWX8dz3zZL77hqtRJobWmBZds4avLROHbaJIcNyqYB/Mn0wtg+qeHpftfsebhlxmy0iDsd+YO/RKRUbugOQzHu+9/Cwd/7Vu6FiOL0Gn3vnTyaEie7OtqBJxZ+gif+tBCvLHsVWfezwW+//XZul1u8k3IOEtDlxPxFTfpAVTzeKU6xUbhsHV0nEW8VaxfHlIt/J/7ixB58ncjE0SfbitkXz0ZK/F/hjyD0rk7SN2Gy6PDd0K8859IbF6TMaAbt8GtFIKr6hYG9rC1TslKVq9IHVWJgcnHQjFkuYkEx6UDQfQZ8zSersPTFpfhsxafiC3kbDN4Iuw3bTYS1Cgyz3/YGJKhzH4vyngcdpyVZ/hNRFjB6xL7OBceYJYwr7aTF1/H8nSs6PSWeaXfej4pLLpQgX70Wr7z4Mj79eDnWretEIhFDv34DsMlmm2D7r26PvoPc14sI5J0/Xk5HeBclwPZImcJenR3AP954H/997z2sXrUGlmWhra0NGw7eAEOHDsWmW7rfSfHeu1XUL2pr/UGEUR/xEslMgj4/nBUhr0Im92EbA5YvXyyGkV48Q+9P/tHZl4pTZuS5eD/Ss62rH+Zf9nNRdhVWowMfiYS9d1pMJeeikgORhR5UDEU9ynhGR9VIha2jTm4m7Lb98nRCaiZ6VCLfhIyKx7OZyMWcQPwj6xnlglni/kPXOJfYhfeYRL4v5MVsMoD0vfQ4Xljqe4Gg5xpUTBCyKexjRT8OxZbQ06Pov8sNZv5VL0KTIHyKTn4Vay0iePQNEvqYVimmKtPNjTY6RDzNJNLo7NMOtHYALV/QB1rytaiBrn6Ir9kQ8VgHDjhhd3T1XS2SpslMCv26+uKWX85GGyXxi9qn8wTei/3FPVF6C03RvBEOIh1Y0J1PsuFr0OdRIYsGhbegWyakUwqXem0sKhkjaQirp/CAEE7OG6AEQc8vS+WdBec17LF8BsFpIsCoideSC8PpxphEnJ88i6KcRSkUCoxN0Ckg2XHT8s977IZFgqSElQvL8MkIpMxsEFUpXGY4Y5zv0zueCAW9/KqQTLqJQyEs8nT6D9kTGcrp0FRwv+mezCadV91bdFIskbsdv661HdbAlUKrz955FW35z8Q4L/GkT7m793PEp9zDwtIQhyhVMzm5FCX9m1UXU9KJGsmEQiDu5lA6F4RTULzl9oWhiCyKH4sQlCAQn3hpzqKUKtUhkOKW6hVeCWo3bH0C23GBoI2BTYcgMs5pNZXfulbgyLMvFUUfn7UIbV1OKI7CkfQmAjvRDjuxGiuXv44WcSQ5K442022WZvqxV9FMo13YVxXCqQe59CAQeUhFbRCdaA6d+ne3i55gsuMxYMSwMe73N/IX43L5Cjf/7H8dSo9We8T3ne95BP8q8zTUel2YOyhfR6JPbiD8CXyXS33vtVImiLAGNqBTBXq4x6ZVPZ1MHOLqJP3Ig/G+MEz/nZL9U86Zio4+a4BYGv26Urjl0pvDv7+iPMC1KchkURucG6GVSnI+lfa/qgRCygkucI+9jhw+GnQaiDpc8N1tf/zeO9JkeDvaD0ihcZURCNXsaay1AZYY6rxO5gSirZPYzru1Ihb+KadWN9LoQAforch0Q59+VbsAaQRquJX8hqAeu8lwe8PSmgGBEp+0VTG0FUBTQQy/glZrZj97egRVxrMSUMrUzQ2Tm9JR4R8Vb6iHZ1pWB+e2PX1jkv6PMmdhvIKlSpCxWEag6RCoOYHoGJAwR0PFAIbZXl5WuASiYqTD6EcxXpb7DfpKHZj6jUMYqLAMRoAR8CNgkERnABkBRoARYAQYAToUxcFWngeMACPACDACBggwgRiAxlUYAUaAEWAE2APhOcAIMAKMACNgiAB7IIbAcTVGgBFgBJodASaQZp8B3H9GgBFgBAwRYAIxBI6rMQKMACPQ7AgwgTT7DOD+MwKMACNgiAATiCFwXI0RYAQYgWZHgAmk2WcA958RYAQYAUMEmEAMgeNqjAAjwAg0OwJMIM0+A7j/jAAjwAgYIsAEYggcV2MEGAFGoNkRYAJp9hnA/WcEGAFGwBABJhBD4LgaI8AIMALNjgATSLPPAO4/I8AIMAKGCDCBGALH1RgBRoARaHYEmECafQZw/xkBRoARMESACcQQOK7GCDACjECzI8AE0uwzgPvPCDACjIAhAkwghsBxNUaAEWAEmh0BJpBmnwHcf0aAEWAEDBFgAjEEjqsxAmEiEIvFCsTZtl1SvGq5MHWrtix/n4L6XW0dWL4ZAjUjENWJr1rOrLv1qcULpD6496ZWVee9ajnTvhfLl8kxNfgq7ZjKlunMz8NDoOkIRGXi+uE1ncQq7ZjKDm/4WVJUEFAlBtVypv1SmbelZKvOZV35qnJN+8v1KkOg6Qmk3AQ18RxU6qiUqWxYuXZvQ0CVGFTLmfZf18DrbLZMZTOJmI5m9esxgQTEmj3odYy9TlmS75XnBVL9iR71FlSJQbWcaX915JciBNXcDekXRlnTfnK9cBBgApEQiN/Qq056VULQJZxwhpylRBEBVcOtWs60j7ryVUlEV27xuiu39kz7yvUqR4AJRIFAVEjElAxM61U+9CwhSgioGljVcqZ9M5EvqyN7HqSraT3TvnM9fQSYQEIgkEomOhOI/qTtzTWCxlt1DqmUq2ROqcgvhX+5Nk1lqmzcZHOB2laNCMhk8fOeCIROILxAgmO7ugtPZcLyAlFBqb5lSoV5ZBqp5ge8crI2VI2oqbEvV89Upm4YS4ZBMeaqmMjGqpmfh0IgugNXLp4ZNNlkbahOBtPJXK0ForPLkmHACyRaS1l3vPzaqxKITo9V1kjU1oeqPiZYq+Chg28zlq2IQGSDW25QdReISnmVCSHTWSUeW9yOqUyvLZWQg1dGp48qZZtx0teizyYGrdoEUm7jVmouqpRXqVft9WGKNa+PyleCMYGoGD2/eqqTqNRkkA20ji6qehRDK2tD9rzcUMnqyp4HhcZkuFU+fViCyobDKyPbeFRCICobrCA9TNapTh3TNVfsnQcRmu760NmM8Qwvj0DDEYhs12QymVXq6E5ilZ2bjofCEz06CKjMl3IblHJzuNINVhTWh0yHWpAT4cgbrMrXjBGBmBhL1UWlWk5nkgWVVZ1AKv010Vtlh2Uqt/KpwRJMETAZM9U6USMQVX1U+6dLrKZyTceW6xUiwAQimREq5FGJpyBbALLnPKGjhYDpeKnWUy1XrQ1WKcLwt1WtUJrXhiwMqLopjNas6b3aaBOIyQRW2WnrhHRKwa1q6GXlVHdUQUMukx/Uz6AFUowdL5BoL7Yorg8dnWQEUQ592dysRLYqgeiEx6I9k3qHdk1NICpDJFsUKkRSqkzQ+X2VHZypTir95TKVIaBjrE28hDDkl5s/JkZeZz6ayJd5OLoydfStbDY0fu2mJ5B6T6ZKPZZy5NT40zd6PQzDwJfbRZvI16lTK2Msa6eSDZZsVtR7zcv0603PI00gqgNdyQJRbaNag6pKILKwnWyXVi39WW4hAjpzsVYeiI5OOmVrMfaq60NGSMW61nvd1wK7WrTBBKL4LqxqDYbqAlFpP0xZKu1xmZ4ImBpg1XomY6wqm3qjU7ba41+pLjJSYRKpfASZQOpIIJUuEJlXwguk8gWiK8F0TFXrqZYz8W6iRCCljH+l87kaMnXnR6OVjzSBlIsFN9oCqXRxeHiYGJhGm9T17I8p/qr1VMs12vpQtQWysTfBTyazmZ9rE0jxLkXV8KkOnGq5RlogqhiqTFQT/FTkchk1BEzxV62nWq6R1kc58vDwUF1DJvipjXxzlmICqVMISzWWzQuk9y1MEyOlWke1XG8mEJ0+qq4j9tCrs46MCMTEC1GdFKrleIGUnhC6C6o606q5perE2oMSvSr3gVTDOjprSqes7iiTbJM7KKp1VDHz663quej2tVnKGxOIKonwAslPJRPjrlJHx2A1y8Sudz+D5r2qXqrGUMUA6pCCTlnVvgTt/lXrqxKIqjyvnAp2ujKbrXxFBFJMIqXAq/RCkMog60x6nbK6k0HVaKj0qZyHpaKXbhsqMrmMHgKq86Hcuil+ZjJ/derolNVDo+cR4XL1VeevKcaq8nX72GzlKyaQUoauXoOjmy+o1mBXcxGWIu164V0t/BpJrszA8Qar52jrzmcZxjoE3UhzrxZ9CZVAaqEwt8EI9FYE6r3BqXf73rjxBqu3zuCeejOBNM5Yck8YAUaAEagpAkwgNYWbG2MEGAFGoHEQYAJpnLHknjACjAAjUFMEmEBqCjc3xggwAoxA4yDABNI4Y8k9YQQYAUagpggwgdQUbm6MEWAEGIHGQYAJpHHGknvCCDACjEBNEWACqSnc3BgjwAgwAo2DABNI44wl94QRYAQYgZoiwARSU7i5MUaAEWAEGgcBJpDGGUvuCSPACDACNUWACaSmcHNjjAAjwAg0DgJMII0zltwTRoARYARqigATSE3h5sYYAUaAEWgcBJhAGmcsuSeMACPACNQUASaQmsLNjTECjAAj0DgIMIE0zlhyT6qAAH38SPcLeVVQg0UyApFEgAkkksPCSjECjAAjEH0EmECiP0asISPACDACkUSACSSSw8JKMQKMACMQfQSYQKI/RqwhI8AIMAKRRIAJJJLDwkoxAowAIxB9BJhAoj9GrCEjwAgwApFEgAkkksPCSjECjAAjEH0EmECiP0asISPACDACkUSACSSSw8JKMQKMACMQfQSYQKI/RqwhI8AIMAKRRIAJJJLDwkoxAowAIxB9BJhAoj9GrCEjwAgwApFEoCYEQi+kK/UrfkmdarlIIhmgVKk+8cv5etMI1kbX4nkSNEdUy9VG63Ba8feJ10Y4mNZKSlMRSBBBycDWndQ67ejKlunKz3snAqrEoFrOFAWduUttmM5flXZMZZv2nevpI8AEooGZbEKrLAoVT0xDJS7aIAioEoNqOVNYqj2HdeXL1pxpP7leOAgwgWjiqBpa0BRrvJPTbYfLRxMBVWJQLWfaS10D729HZuxNZcvkmvaV61WOABNIgBtebrKr5m5Kufg6cisfXpbQWxBQJQbVcqb91pGvk9+rVlnTfnK9cBBgAikTx1U19ibJf5M64Qw5S4kiAqqGW7WcaR915asSg65c0t+kjmm/uZ4ZAkwgkkSgzNDLngcNi2k9s2HmWlFHQNVYqpYz7a+JfFkd2XPVNcKhLNNRrV69UAkkaDeiaixVyqnueEpBpiJftZ43mU1lltphlQp5lRt6f9u8uKq3SMKUHDRmqkZWpVwl80JFvmyNyEK8OnO1kr54a0ynvTDHuhlkVUwg5cI8MgBlE01Wv/i5bKKYGvty9UxlBhFIEImY4izDRBdjLq+PgMnYhX1YQ3UehEEgxXPYVKZuGEsXZ1VM9Ee8eWoYE4juYJWCNGwCke3gTY19vQmkEqx5kdRvMVdj3Koh04+QqbEvV89Upg6BmODCa6PytWFEICaDVSsCKUciUSMQlTBWpVjzIql8kZhIqNa4VUuu10dTY18tAileI6XmsykmvDZMZnZhndAJRJYb8Dev64HolNeZaOUmkox0ZM/LDZFK3VJldPTlRVL5IjGRoDJu5QyfbghLp3zY80dGOrLnOmtEtq5V5runj0pZk7FvpjraBKJi9IoBVK1T7QWlqkc5l9575p98JnKDvA+/BxWGXF4ktV/OJgZTtY4KMcnWX60JRCcUpau7Km6l5PLaqHxtMIHU6R5INQmk8mnBEipBwMSoqdaJGoGo6qPav1oRSCXjy3XzCGgRSBg7YpMQls6OqZSHEBTf9e/2yxn04glTrVBase6mePMErx8C1TKUQXNYZReto5O/rCxcVArlaoXSgta1Tt/qNysat+WmJxDdodVZILqyVQmkmPhM2+F64SNgatBU66mW8/dMp065MLIMLRmZVSJblUB4bchGKdznvZ5AgjwHk91TOWhli0PHg5ENoUp+RUeGrCw/Dw8BHWNtYuTDkG/i0Ve6NoI8KF3kw1jXKmtZV69mLd/rCUQnzGO6A9KdcKbt6OyyZBNWV2eZPH6uhkAYBr7cLtpEvk4d3blrOs902wlaGybEZKqz2gxorlJMIBV8FKfSqWKagFRtlxeKKlLhldMx1rXyQHR00ikbHmrBkmQ5GRMCKUfQtehTI7UReQKRGcEwPBBZG9UYcB29S7WvuoOrR9+qgVdvkWlqgFXrqRpUE3KiOqp61GI8KtVFtkZ4bVQ+ipEnENluQccQ65StHFq1XVVxKdNJXW6xmMqsJgaNKtvU6KnWUy3X2wlE1TvXmUfVkKnTfiOWZQKpQwirWsY+KgTZiAtFtU8mBl5n528iX6eOTllVTEzKVcvYR6V/JphEsQ4TSIQIRHa/ROZJMIHUf4mZGijVeqrlGs0DkR2fl62NoFyJar36z6xoaqBFIKV2Sl63TI4GygxmmLJNdQ972HSMvO4uTEd22P1ieXkEqmnkqylbxxOq5njr9FE3J6Qju5p9bBTZoREIAaJKCEHEYGIAderolNUdYNlELhe2KoVdEOHpYhwkW7d/XF4dAR3i152TJgZQp45OWXVEnJIkO4yNZpB3JfNSSunLHojuKBaW1yaQcjt5XVVUjWFYk053ser0R0YQMllhXJDiBSJDuXbPqzEfTD0EHVLQKauLpikmJutfRTcmDxWUypcxIpCwSKTZCUQ2gU0XXJCHV/l0YQk6CFQyfqq7adkc0iWdqBCISr8qsUOq8nXGuxnLGhNIJYMXZOBMPASdOjpldSeDrrFQncC6cv16q7ah21cur46A6fg1M4HozlsTjHXbUB/x5ipZEYH4oarmzkVlSOrdvqdjNUmqHGnzglCZJfUt482Neo1VvdsPWiNh4xEVW1Df2Vab1kMjkNqoy60wAowAI8AIRAUBJpCojATrwQgwAoxAL0OACaSXDRirywgwAoxAVBBgAonKSLAejAAjwAj0MgSYQHrZgLG6jAAjwAhEBQEmkKiMBOvBCDACjEAvQ4AJpJcNGKvLCDACjEBUEGACicpIsB6MACPACPQyBJhAetmAsbqMACPACEQFASaQqIwE68EIMAKMQC9DgAmklw0Yq8sIMAKMQFQQYAKJykiwHowAI8AI9DIEmEB62YCxuowAI8AIRAUBJpCojATrwQgwAoxAL0OACaSXDRirywgwAoxAVBBgAonKSLAekUNA9g3vyCnMCjECNUYgBsCmNsP+qEuN+8HNMQKhIxCVDzCF3jEWyAiEhMD/AxvB+5s53YzaAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CbwcRbX+1zN3SyAhmyKoPBQXUHkoqLhLEAIYspAYcm8CSQggYkBAIMQAwS0CIquorEoQXHg8VpG4sAR4yHPhjz6QB/oXkBABDdlz15l+v1PVfadnbs90VXV1T8/MGX73F+6dWk59dep8dU5tjuu6LsI+/l+dii+r/X04WdH7v1xosaiaPyJfeGmZ+2upeXbbMwK2uP1gDTm77bQmFhfECDACiSPgMIHYxZgJxC6eXBojwAhkF4HqBFJTZpp1VvEwdB2W7GJjJFmkY6BYqq1yFKuLkSzbHkjj4BijCzgrI1AnBAwIRM9gtNoAttVeW+Ukr1d6+pC8POU1NA6OaSPD9TEC8REwIJD4lYoSgisv3jpLyJ8sVdZCxdTdYmabUICsy9dCuspNbXgEmEAavguzFjPMuoHOunzNppDcnmZGoAaBGA60us+Am7m7uG2xEWD9jA0hF8AI+AgwgbAutBYCTCCt1d/c2kQR0Aph0ZERx5ELFjQOXbjIofKgSMUiZiDPyJYURQn0KZVS7vnweJeouW7Bw15t91uiWmOhcO5XCyByEYxAnRFQIpAgcfjyBg1A2PdR7ZJ5JAWZEohJvVFyZff7CmKtSczZbUWY/mRfWpaQEWAEwhBQIhBV6GwY9FozUxvlq7bFNJ3qzNr4oH8VwcLKozsGPIfRtDmZzTesC8MND1+zU+2PzDaUBWMEMoyAAYHQQKUfl+IqIyyUizwKAArIeWEueeQwL36GvFBVcFjTt6WwTPlJbq8eDHkQ+kaCfvXztSsfakyqHypDe47Apwi4RQsWnIJ7JYz8m2f8UCK1SfzNcTxs/f4R33hyBPuJyiovMylcUik3jEA81Qxqi68xglBrR11TEZsrYQSaAYEKAok6YU7fDwLCoBNNjByiA+hEP/LoQ5tIQR8ijy4UxTcd4q+U36eVTgBtwggGjaJMM4jnnn0CD9x/L5595s/YvPE19Pf3oqOjC2PHTcCk178ZZy6/EACVkZUPEccQ4AwAoJ84axY+Rh0CRdd1KjCqbLPfP4Po27YRLzz3V7zyyj+wfdsWFAoFdHaOwsRJO2PPd++LUTtM8HomjnwxME/QNSDeLhSAQvBgEbXWAfJ5wKlTk2OgVTNr+bgpT1rtqrukZGnEckdMxhqxEXWSOUAgtbftSgNPxr8fR/UcgTwG4XiegesAjgsM5XLoz3XipQ0b0ZdvR8FpkwTiFtFWHMKuE8ajzR2C47rIuTRP78DNN92BImQ6/0MTxAJ6cf11V+KRNavhOP3Ik1FGEa5bRM5xZH53FG66eTWAUXWCb+RgpXUdwmhhz+Fw0A/XiyGJP2t+XEHCnbjpx//pkWQ5TrI43+MoAO4A1jywGg/e/yv87W9PC5zhyO9zLmFKyHagu2cRDps+D0CdvDfPQ/APkxYteATUvuFyXGDc+E/AdbvKEM87W7Fx46OJE0gtg66pAtK7rPJRqSerBKIiuypWum1UqVu3TFVZs5KuGga67dYMYZH30YuFPTOQRy8ch34vfUjVC04eBYf8BwfIyVAJLZQP5vJ4ef1G8W/ByQkSGHLbUHR3QFEYMi8UA+CBu1bjmpuvxIMPrEZOlCR9mRwRSM5BrlhAV8FFfqgdt/zwZ3Dq6oGEEe82LJp3sMCocpOAKww6Ea6cBtde82lHAaOw6sd3eiQpcSp9fPIYxF+f/j1u+P53sG7t84Ajd2wJ2+PV4+cpOjl0dy/GodOPTsVzC12bIQ9hyPMQFMlj4sQpNcceETRNZAS2Th82bnhoRKhKBO9SCGGpGKg4hkRnLVDXIMSRSyevTYxU26hTp2qZOm1OMq1O24K2Nq5MmgRCXkAfjl1wJHLoFca98lM+m5QhMTJa/fl2DOTa0OsAA0VJCC7acdN1P6P5cVkxh8w4AHlnu/BwpAHOifANchTGob+4aC8Ucd7y83Dghw+LGSYqVU01kYlWtGlexjAC6cVxC6Yh7/QOt41myPQpegSS8wy7j5f43pEeFlyKvwygIFaNRmPVj+4GsIMnXRAqGea7b/VtuHHVlcg75N2RIXXQ1jEa79rrPdj5DW/EmDFjMDAwgHXr1uGpp57CtOlz8OkZRCCVhFQqe3jiSzP7uFpWkZ/KHj/uk3A1iH/9+l+OkCK4BFdGIDmgPVe/UJXuYK4Fb5gh0yk/q4ZQpw1R6hfVRpO6osqMkinu97oy10teTQIJhEuGQyeVUJEZDjM5ZPYHccfPbsItP73Rmyp2YdWNvxCrI2LmiKII+3z/hiuw5j4ymkUgNwrfuvh7eN2kfwMt0EvikSswHz/8EBRyFCqTawNlIObk72RYfn3nvSJPFDHQSsOOIsgjP1EzverfS8MupYyqNYgfpR/EvXf8CLfecoP4ooAxuOFHd4V4IIRxPx74xa344Q3fg4NB8s8wZuzOmDlrHg781FSgLbA25FvbQgEbt2zFuHGvr0q8lLRIRFQEisRniqMhykvw+4682E0bH7a6QywYwkrL01CERStZpeFQIZBqxkPVCNXL+GgBE0isglGw7DAc6tFm1f7wbY8pPmnm0ySQENGUFkPJ2BWwbfPLOOO0RejbvgGOk8eHPzoFxy85xzOO/uJzH5af8Tm8su4ZYcD3es9HcebZKwF3FODIGbM0s2Q+5TK1v1gflC4o1kEzDi195XkAMrRTbtzbii4evnt12by82ntaKp2k79EMYtvmdTj9tOMxuH2D8CQ+9NHD8NklS0W4yXXz3iK6xOqFvz2L887+EuDKUOKbdtsDZy1fiTHjxonwVS3PoeYWX2+NYvzED8El3N3qnkoQhzAvwfcM/H8FkeeADuEhRG3aUEG5udKoGEeVNDqoNJph02m/TlodzCitDm6NRAo6OMQnkKjahMWgGXk/Vl13Odbcf7vwNJDbEZdefi3GTnxLIJRChnAbTlg8B0N9r4n4/YGHzMH8RUtkvN5tEzbf25wqiMP//1rzfH9brePNpV1vG6u/PiGUwdsb9tFph2GIprOBxedSE2kVRhIPeTVRn0qPpnZ66VHceN1FePD+uyVG+dH41mWrMH7ibmVbeQV9Fntx9rIV+Ntz2+EWx2DC+Ndh5YXLsMNYubs6jCBKHoL0x6p6UM4gHKcXG9Y/FnvNwPcMyha5aTeUD3oUiC30vaqxU02XBHSqRjOpGb5O23XSMiGYaUtKBNKPf657FmeduQQobgWcPA75dA/mHnWCt5Drh73Ip9iORfNmoN3tFWsnU6fPx6zuRV5gyacJ/1wEmaGcZy2JpPztwcGzJUPo3bYJTz35BDas/6cwmuMmTMJee+6NMeMniS3E/rkIyr0NRQzAxb/6XsUzzz6FTRs2olgsYvzYnbDXu/fBhK7Xg3ZHHSi8miBt+es4pXl/vpjDI3ff4wXeJNlVIzpqybpXXsCyM05FsTgEWiM5dOos9MxfWBYIk+dpgEcfXIOrv3s1fvGL36Ho7ih2pBXQLmSjUF9YPWEeQqjakIGnnXU5uQ9CbiQzu1wzKgxoprbNmUvV4Kmm00XJL1fV+NeSIymi0Wm7qgw+Tqrt1sW1mdPHJpDoCBYZnl5c+s1l+J8nHhOGqGv0eFxy2U3o2pEMOBleuT14Qc8MtDlbxHbUvOctFB0yiIFwk0teAJ0bGYVVP7ldnDCh/At7DhXbfeHmMX3GbMzqXoCXnn8Ot956I/74xB+AIgW75HZjYRXdNuz7gY/gmONOxugxr/PkGMJvH38It9/xUzz/3LNlazmS4tqw3wc+gsXHnowddthFGOtaH/KnPjr1aAxgLArujnDdjhGGnZQ2n9+CNfdcjguu+DYuv2AV4I6RNFH0V4I9QqSNBIUC2gr96CpuQSc24tOH/DvetfdeWHbO14bDVjon0EPT0n4Fv2H+zibbo8DbNBDvnIxtoepXnophjGMQq5UfVabKGkwlajqGOKr+oHFXTRvWizoy1U8LGq/mhAlEHmx7+snf4qKVZ4ptvzQ7nttzPA6ZtsDzPuT6iNweTDuXaPfVgNiySyEs8kLKP7QjK7C9VayNDGFxz2SxbZYIZ8ohn8bgUBt+ff99yBFx+OseoOCVP5OmHU+d2GniW/CNC76LbduLuOq7V+LZpx8XC9L+GZcS65AHQcTTgZ13fSu+uvIKdHbVXmcYzAGbAey8yyflGg4RzgiLTeG8jdj7/TsJdhsqvBmFwnhv3YFO9RdFrJV+6DwNbWG+5YfnY+nJ56LDWY+O/Is47YsnYt/9Dha72solkrcBVPv4O1o9P042tSJx1ATB3MMw82gab4ipSZw2gahJJVP5xlfHgOsYbJ1yVeSu1EkdWVTK5zQlBGITSG0w5bmRFctOwksvPC2S7jThTbjk0muBjp28tQ+fQAZw7II5yDnbUBjcOmzonVwnnHznsBciFmOFB9KJ63/4E4+E+rG451PIO9uGSYfSFJFHzunE3v++L96821vR3p7HK6++hMf/8BgGtm8Q3stQcSJ2f8sH8OLaPvT20crzoAjdvOfd+2C33f8NXV1dWLduLR7/w+/R308hNuCXv3oQRbdTHPKTXkjQ7JZMrusUUMj3Yv2GR4dhCgstkQE/9+zj8Pe//wVucQeMmbAbLrn0KrRVODj+2f/JU2eimOsHyOMiUhbrQnKhm87M0GHGopvDr+94sOZCOtVL6zSUk/ZryT1ulj5RzGOpmmYoRoU8RN9qXmwWNJy6edPEVcXAq2Kkg5NKvWni0Ih1JUggclH4N2t+hmuvunjY+1h8/FJ8bPLUirUPn0T8NZCZyIs9VjlMndGNWXOPBTBmxG4g2mZKtpvG1YLuacg5fd6UyYGT68ABk6dg1pyjMGYcXdtR+qxf/zK+fPbp2LxxE9ziaKz+1WMoFMfKcwnC66HldvIWPO/Hoe3FQ8iJs9yDOPjgg9HVNQ5XXXMucu3Vt7mKY5ReFEr8O0JDpIf26Jp7cN3VF4iyiRgXn3AKPnbArBEH/QoYohS47sdX4+e/vksc2Hzzbm/DBSsuwqbCJjz00Br8+ckn8OLaF7B1Sx/WrnvFIzivHa4Dl9jRCwPSaf4218WDd68WNGjjhg/iDSIicZ5GZe90I44ayzIHjaOKUdMxpr6o1Qgk7hbgWlCotEUVSh2MTMN11WSx2Q7V9jZKuoQIRJ4XKQ5sxhdPWYAtm/4h8HjDrm/DyouuA5xRgS2p9I0fziAC6MOinunCm6C1j6kzjsbsI0+VdxtRVMuPyYtT1vJ3+tPRPcuQc6WHMHHSLrjpx7fBRYfwQsouaxRkMIg8BkBXW+SdzZgy5RPYaacxWHLSF/Cuvd8dGvahOn65+l7cvOrbgkzo7Mryc7+BPd+1d+g2YpJDGGQvThS+eD6I4uAGnHbKsdi6cZ0w7G940zuw8pvfAZzqBwfP++pS/PXZP4jQ3Tv32ge7vHFXcX1J0aXF95LqyR1jAVpw2jD5wENx9ILPIZcbiwLaxLaDT4rzNESc0Wr7K2/3WbWkVD15M/I8TWmbbmUoTaGqaGGaIIUNMlAxcDY8kKh6TNqi0oW65cZta2U7dcqLwkilvY2UJiECkQfp7rr9p/jPn/5Ino5GG05bugLvfd+Hahpc8iaO6j5CnOImg0oEMmduD8aO/xhcdzRcRx4ODM7n6fBhu7MVOdcL57idePVfvxMz9LAP/fmF54Fzl5+CvPMq8rmtmP2ZmZgxZ64Ia5Gscq0kOCcfwkt/fxrnLjtWegpox9ELl2DyId2GV4JID+1nt/0At916gwg90drOKWd+Dfvs+4kq91TJmwCWnnoc1r/y/8WFjUSSjkPrQj4JUzwrhxwRAp0CFOs/tHojd6jRGtQeb98HZyxbiY5RE9AnqJRWncLP0xB+QUfiUzPp5L/nXXjgBmPOROh0nuaRu8iroXpLnWB66kP/PE1jDEFdw1jNmzBZh1IxdCby6XgKKr0UVwaVOsLSqOATalsUw4ym5Zu2J6l8CRHIIHo3r8XJS85Ab+94FNydsOee78U5Xz5a3JBKBmlS5d1GLr1tWEDO6RXhqxzF9l0HQw4tPhfx2obHBGcMm/TA5Xm05VSEsOjyQrTh8BndmNO9YARR+ddz5HPA9s2bceIJ85CjXV8oYtqMbszuXiwMtySQyk8RfVtfxeePnyl2exGBHDF7IabNPk6RQKSBLw32IrZt/ofw0Ib6Nwuj/4693oezVlzqHawMCyjJNaWTT5iP7VvWycsl0Y5RoyfgIx87EPu874PYffe3YscxOwG5NhQG+/HqK//AH373CH5+z3+gf9smeV0K8tj/I4fihJOWwkUXBoWpr33i3MdD5VQ6SfnxaYdiSNyFVvr4l24G/2Z6nqYZllhqGUedWa+vV7WMhA1DrGL0TOpJWm6/fN1wnUp7TQ2zav8mKYOp7MF8CRCI3La76tpv4f77/gv33vsMhtxJKLijxKWJ8pyCg9cq7zais3veDtv53cu9OXEOU2d2o2fevvIabppND69LBJuxTSyi0+E3mpFPndGD2XNPrHFLLx3E24hF86WnI0Jl0xdhdvcxngcS9lAv3euxBYvnHyLqgdsp12e6vUOOkb0RPBcuvY9V11yBhx64TYSiaFvyV1Zehje/dZ8ahCQPWh63cBbcwU2ixvfu+zGc9IWz4IhNCf6173RzMoXu/Ktn+vHaK8/jG18/GxvWvyjyUX+c95Vv4i3v+EDZnVjqhrn6LiryZrZ6twREwXLQDOnRjPyUztWE3RBA6UlfaO3G6uJ/lMCWvo8yILUMh4mRznKeapCayCz0osILUDXCpvksqURoMVF6EkWOScomsHZV0VWSRC6Gv/zSMzhn6WdFCKXgjsX7P3gQTj6VZrsVm0wD01mxu5UWmkUIa7bYkisX0XtwZM/8Uu2hYakSgRTddhw+c94IAgnOnCkEBWzx1lokgRw2fRHmCA+EIvjB2T9t9/UNcqmeEQSibnlFeO+f6/4XXzpzCVxX7hzbb/+D8flTz664soSaHTTUkkAWzZ+OvOuvEc3HbLHJgM7DhF054pNIAc//5f/hq+d9YTgEd9CUmZi36HRBhlpXdkXoAkFBkta6SkVJnbxE0qOhGwLoDyWgO4ouHrt79fDdZTpl1jttHGNlkjfLebJCIHHIJ2v6lBaxWCYQGaO/+Pyz8ec/PSrDJc4O+NYlV2HCznuEz6zLDK80kAvnTUOb2yfugpo6/SjM7iYDGbjKZMTjU1uxuOegmh6IGoEcI3ZBydm7/wka8BoEoqxB0vu49IKz8OQffyMwcpxRuOCS72PSznStS/mivyzWXz2Q+By/aDaKAxsF8R06fQGO7PbDaLX2UUnP8Lxln8Xav/9ZkOQub3w7vn7RD7x7xmo3QIsflbFQS1jNo9G7KkatrjRSmRjzoFwm+bOcJwxzE3n9cuqVNw3dyVodlgmkH0//6WFcdP453jpBGw48+EgcdcznAzP7WkYuQCDY7oWWFnoEQrPrwMGIMotmEMKimbx3cLEUwgrzQIJEsn2YqGjWfvjMHhwx12+bStfKbbtP/ekxXHz+WcNbmw88aDqOWnx6iPdTWaZcA/niSYuwSYSiHEyeMhtHHXPSyAenQi1+L2645kI8/MA9Imy2446vx+XX3OZdFV8fAlEhJv8Ny8r1l0ZdXI9j4ExnySZ1ppWHCUTFdmQzjRUCcV35gBHdY3Xu0uOxbi1dA0K3iY/FJZffiB3G7uK96eGHgsrBKC0slxMI3Zn16WkLtAmEQlizjvxc7TUQj0By2Cbu5pJrIHoEElwDUTGE8q6uPpyz7ESs+/v/ip1ebR3jcdkV12LU2DfVfJ9DIibzX/DVpfjL078Tf9n3gwdiyWnnyrWb4dt6R75UJXdS9eKWm76NX9x7q7jBN5cbjWtvonc2aMtwdgmEJFPDN6oV9f/exChXSm1SRpbz2GhfXA/NhvdSf+1KXwIrBOK/kf7IA3fj+msu9F4Q7MDM2Udh+me88JPSMTX/xcNpaHO2WvVAyg2Qt5ag5YFQ55iEsIIhsH48+uCduO7qSwQRwOnAjFnHYsZn6FqXCg8rVBfk9uibfnAlHvjlLSL8NWnnt+FCOtkvnvWttgZChdEBwu1Ydf2FWHM/veJYxNjxu+LS79yiRCDpq6atGrN1ZYqJIbdhYE3qTSuPjfYxgdgaL3rlaBFI9f3mgygMbMQXTzkOWzetFRKMHrMrLr3ierR1jleYWftCNw6B0Kn1w6er7sKSC9mF/k04/dSFwwcrdxizs/DQ2rrGlV3XXh1nuUnh9/99H7532QrxdC1dp3LxJddg4hveXmX3VnApuxdfX3Ei/vbXpwTg79xzP5y14vLMvCmvp7qqqbNDICYGOayVJuVkOY8t41+tHJ19QiY4qWpiM6bTIpBwAOSi8F23Xo87bruxdMhu0WmYPIWu46BZseolGbXWQCp3RwWlUVkDCdnNFMMD0SeQftx56yrcdTstWg+Jq9cXLjoJkw+eBThdVbYnl9pYOsxXxNDABpx64lz09m4Q4bePfPxgHPu55TXOj0ji2fCv5wWBwaVtyO2YM/dYHDaDrsoPvFzYoFpOp1vo0KL6Cfd0icWmYTIpK8t5kggfmbSX5DDN16DDJrbYSgQSNSPeuukfwjCJA3F0SPD1u+PCS74P5Ci2XnGdRk2Rm5VABrF100v44qnHodC/QcTzJ+68By66+GrxsJYgWXGSz5VXzYd8yEDSR55Q6cftP70Kd995swwXOm1Y8oUV2Hf/AyreTaEclE+Gvq741lfxxONr5MX07eNw2eXXY/S4N2p4iLH1LbEC9NdImECiOsPEmJrkyQqBxJE9Cstm/V6JQKo3Xr40+INrLsUja+4CXLqOoxMnn/olvG//KZreB9USRiBHl7bxDu/CqjxQKD0QOjtScCoPEoYZivhrIHoeiNz99NCD94grRcj7OOmUL+P9+3/KACPihAFs3/oqvnTm50HknSOCyI/GvKOPw+QpMwDH99ak59G3ZT1+cP2V+N1vHx6+MuWIOcdi2qyjInd+lTZIqHqRKQ8VzzULI5DwiU+6xJHErNbE0GU5TxIY6ZZZiY+YevlXV6Ss0o1UXUwCGcTLLz6F5cu+AMc7ELf7Hnvj3K9fJsIpdM2GekhBlUA8A1B2Ij19AlE7iS4N+LoXn8HZy45Hjs62IIfd93gPVnztuyNCTup3GsntwM898wS+8bWlcIt0GLIgrigZN3FX7LPPBzFhwiQMDvZj7YvP4cknH8fQwHbv9sk89vvgx7HktC8rbq0uGdxh+ejeLbpnq+jKGy6tHRnUHDq+1yYurAxomnhK0XtO0b8OebhoJhBV45gW6egaex0tCSMGlfxMHiooxT6J3ouLVp6Bp5/6rbyhttiBL513Kd6x135mM+tQD6TKOZCy9qmsgQQzaHggVc6bVCOQ8pmw3HZ70fnL8fT//EbsfKJF73NXfBN77EkY1VrXCTHcZW2WJPLnJ36Db195Pvq3vybfnhfEWvIW/Ae0iFyKbgcOPmQm5i84HsiNrnJosZriBAxvYQgY6Af6BwF6I4V+H66z0kCn8Dtxhz+hIDKjh1Q6OoHOdvlvvvbLkWpDxSyViRGOqsmkzGbLE4VR8HtdEmHyUEc3lgfyxz/+Ny65YLk8AV508N799sdpZ64sGcbKmSr9XtMlkS8TntZzROkqk+nzMblnkXwLZMTrhH5D+3FGt3zSlp6dnTbjSBww9wTACdvWSnlkPad3HyHvtRJ3Yc3HZHEOhC7d8t/PqADS6cfpPYeWLm2cPhcHdH+2Zj0vP/EbXHjhV9Dm9AmXeO/3fhgLzzrPwyhEPq33aAnPQeC1tfj5bTfj4Yfuw9CgvNK+fADl8c537o3Zn5mHce9+v3eq33v0XFVXgnKR1zE0iNMP/BRGDw2gXXghlW/Cp/O76702maNHkEXIoYi+tjZs7ujElWseaHoCUTV2QSOa5Tyq3pGq2vrpVEhEFRfVulXqVC0riXQ22huLQGTogmbz/gyUjAZdxeHN+CpnqkPe9eLCGPnXhQRnqDLkI2bSw499UJn0uJO4arHibiiClcqkK37p6Vp//p8Xb55LWUJmwCK9F3pxClg5ZYq4Sp2uMKHbguVnpAGUD0oF6nHzKDhB2Tx5vPziWV6vPfRElRgc4llcKVtwg+3I+ipVJkweKoGwHIIjyLl025jjzcilgaUzIBI/CqGJZ4Jr4VnRfhoIQWUbzOewva0DF99/H9DWDtD1xln6hIaw0g9dZQmSOLJk3RDGaVuSeW0Y6CTls1F2TAKRIrgiNEM/9F9R/B9tqOxCAfliP4454ACM6+tHZ5Hi9HKrXCW4IgoRaFESv+eKebQPdSAvXk4qkdGKX9Jp7CA5hRNIOeDl5j/+DDyaMGSKKiEhIgzh3QXWiIK/2/QQKETU2Ql01D9E5KMWDB3W3jWYMbIzeKrWxsDXKaMVDKEOHpy2hIAVAhnCEHrRhz70ow+9GMSAMFfyuu2CeJmOfuSMvPyBorDOKJ158Alq5KvjwUiYavpRGIW2wjhgkE5tBz/BEIxvhGmWXpEsNPxmcWYbVV/Y937jR4DgGUovxGNV6WsuUlutiQtjBBiBDCNglUCOOGEW+jp7MZgfEE+rVj6RGvxb8OnVMlPuGWn/e78MG7+T93HnlXejo+zKj8oNoOW/Rz+kpH8CIcyP8NnKPwpXyRU+RtHyyJTBdJX0mGF9tCKaA1oRoR/6L+xxMCvVaBfSCKEg9ja0u7WlM8QmEBl1p2NupRAW/b/9j5mhDsoxgEFMP3kaBtokwQlDniBh1Sq/Ep+ct2ZR9BeFE5ZvZP3ReJBxcXMy/HjLZT+R+HkFpbNkrlZfOzrQhVHoQidGYTTalG9CsK+1jVZiI5BcI2DaKkRshUCCM97KzlU/2xClFvFDRRRe24CN6EWvzRUBIbiuAR3Z2vISdMtLMr0rTphIpvV7Yf6pPXUl4GoTAFpl6yh2omugE7dfdYegkbbgMwBRasbfMwIWEGgEIrZBcrEJRBnr+Pem1yoAAA9rSURBVA6EclUi4XB9JeIpYAiDGBRL/eVBnloUGF2trRBR0G9LaqlXNQQ28gL1kR1IxKJz+1Q0kvopKtvjb49w0DYcxqKQFn8YAUbAPgKJEkiZ95EBApHwRQVd9EC21ayo9XM9qWqkVha48iCjnzFjxrjqElZ8j9Ua5lwQI9CkCCRKIE2KGTeLEWAEGAFGgOI4ro1AGEPJCDACjAAj0HIIMIG0XJdzgxkBRoARsIMAE4gdHLkURoARYARaDgEmkJbrcm4wI8AIMAJ2EGACsYMjl8IIMAKMQMshwATScl3ODWYEGAFGwA4CTCB2cORSGAFGgBFoOQSYQFquy7nBjAAjwAjYQYAJxA6OXAojwAgwAi2HABNIy3U5N5gRYAQYATsIMIHYwZFLYQQYAUag5RBgAmm5LucGMwKMACNgBwEmEDs4cimMACPACLQcAkwgLdfl3GBGgBFgBOwgwARiB0cuhRFgBBiBlkOACaTlupwbzAgwAoyAHQSYQOzgyKUwAowAI9ByCDCBtFyXc4MZAUaAEbCDABOIHRy5FEaAEWAEWg4BJpCW63JuMCPACDACdhBgArGDI5fCCDACjEDLIcAE0nJdzg1uNgQcx6naJNd1m6251tsTxI/x0oO3IQiEB4hep1am5gESDz/d3LX0VbesWgZNpZ6sGkQV2VWx0m2jSt26ZarK2mzpjAhEpQNUgeIBEo2UrjKr9I9umdFScgofARX8VdGq1k+qdWS1n1XlV8FJtY06daqWqSJfM6cxIpA4gFR2osoAqZWmGTtaFSP2NOJoYnJ5dQxVlBRh+q1TflbHh04bTDAK5jGpK6u4RWGR9veZJBBTA5o2eEnVp9t+DlEl1RPpl6vS9yppSHJK14yGULX9tTzCZsQlfW0F6kogKt4HgdJqna1LCH76VsOpHgMm6TpVjKNKmqTlrGf5Ou3XSVvPNjVq3UwgGew5HQLRSZvBprJIAQRUjZ1quqTBrYccOnXqpE0aq2YtP1UCUTV2Wen4esihU6cqns2qvM3WLtW+V02ni4+uJ5uUHLXk1qlTJ60uVpxeItBSBNKsA4RDV40/nFWMXWWaqFYH9aJa+VFlmiziJ6WPYbJyGDxKC5L9PjUCUZktRylzJRTNPECiBqEKnsmqDpduE4G0CURHdl8XdcZnlP7q1C9mulUOS6oQiG1ZdGVv5vSpE4hKZ6oMpspOsaFgWRkguhippG9mJW70tqnqu45+Eia1JlhpYGZTL1UxCiObagRoU7408MxiHakQiO5sWUdZfFDjEIhfRpRCmcil2uk6GKmGI6Laoyobp0sWAZ2+r2Uga0lpY3zoomBT/3QwUh0f1dpjU25dzBotfaoEotoxJoa6HnlU26OiFDrrMzxAVBBtjDT10NsgMiohoHpPsHQx0vXUKjXF5rhuDC00lzJxAtGZOVTzJlQ6VFfJbMzkVORS6RpdjOLOJm3JrdI2TlMdAROdtaG3leGtahKayKery1H6EVeGqPLZCzFFSOZLlEBMOr+VB4iqYbeBq2pd8dSLc+uElVT7xKT/s5zHNkZxJ1iqHhdrd4oEojo4GolAVGdyqgNEFSMTYxDm3anWxwPFPgJhRk61P0z6P8t5bHpApvYjTj772tE4JSbmgcRxZbOs7CayqQwQVeMRV9Hj9EvjqHX2JY2jRyZ5s5xHZXzoTNZM2ho2wdKpM/sal4yETCABXFWMeBzlrOxCU2MeR4Y4eZNRwdYrNW4fmOTPcp4wDTCR1wYJxKm39TQ5oRCWqWGMowAmHZ9WnqgBokJcwTJM5I6DbSsOjCTbHKf/TD1QkzrTyhM1PnQ9ARO5eXyYaXwiHggTSHRnxMGIB0g0vllNEafv4hg5k3rTylPLM9clD1OCjYNtVnUtDbmsE0gcwxinE9NSdpN6bIWuqnkhOh6MDfnTUMxmrcMG/iZlZDkPE0jjantiBKJj1GwoUCMOEFsY6ZRjglPjqne2JLeFvUk5Wc5jKzzLE6z09d0qgdjwPkxd0EYcIDqG35YXY6uP0lfVxq7RRD+rtdikrCzniRN5sImRqe1pbM2MJ701ArFpmLKs7CayhQ2QOOQRpzyb/RRP9Vordxy9aRUPvRExai0tHtlaJpAAJipGPY6SJ2G8/TJ1ZVdJ3+qDw1b74+hMmAwm5WU5T1Izf502V6YlmXiMRI8AKwRi2zDqdHwc9zeteioHiG3FVCER230UrVqcIo5u1kIvLb1Nq56kCCSsXFWttD1GVetttHSZJxDVjjQxkGnlSZpAVAeKKpaNpsRZl9dEz1qJQEyISqfPw7yLWvl5nKija4VA1KvLZkpSMFWlMTEGSQ8QJpBs6lWYB6KqZ6oEolpeXL1Nq56kQkcqJKLaxmxrW7rSMYGkizfXxgg0HAI8wWq4LktNYCaQ1KDmihgBRoARaC4EmECaqz+5NYwAI8AIpIYAE0hqUHNFjAAjwAg0FwJMIM3Vn9waRoARYARSQ4AJJDWouSJGgBFgBJoLASaQ5upPbg0jwAgwAqkhwASSGtRcESPACDACzYUAE0hz9Se3hhFgBBiB1BBgAkkNaq6IEWAEGIHmQoAJpLn6k1vDCDACjEBqCDCBpAY1V8QIMAKMQHMhwATSXP3JrWEEGAFGIDUEmEBSg5orYgQYAUaguRBgAmmu/uTWMAKMACOQGgJMIKlBzRUxAowAI9BcCDCBNFd/cmsYAUaAEUgNASaQ1KDmihoRAZ3HlBqxfSwzIxAHASaQOOhxXkaAEWAEWhgBJpAW7nxuOiPACDACcRBgAomDHudlBBgBRqCFEWACaeHO56YzAowAIxAHASaQOOhxXkaAEWAEWhgBJpAW7nxuOiPACDACcRBgAomDHudlBBgBRqCFEWACaeHO56YzAowAIxAHASaQOOhxXkaAEWAEWhgBJpAW7nxuOiPACDACcRBgAomDHudlBBgBRqCFEWACaeHO56YzAowAIxAHgcwTCF1mF/VxXTcqSct+H4Yf49Vc6lBrjHBfR/d1ED/GKxqvYAptAlEx6HoiAGGdplNP1jpdR3ZVrFTbqFO3apmqMnI6iYBOH0RhVquPVOrJah+ryB6Fjf+9bhtV6tYtU1XWZkuXSQJR6eBgR2Sts3XlV1GqqDaa1BlVpopcnGYkAiZ9UQ3Han2kWkdW+1hVfhX9Um2jTp2qZarI18xpMkcgOp1sOgNJukNN2hAlU1xDElY+D5Io1M2+t9n/zead+4gmjVFZmEUhDF7Z0zw21HRfm0DUig1PVU1pgp2lkqYyTNBMna3afpWB2Ey4xNG7Rspb2f8qBFJrctGMOqCCURSBNCMu9dDzhiWQeoCVRp06BKKTNg3ZuY74CKgYR5U08SXJbgk67ddJm90WZ1ey1AhE1dippksa0nrIoVOnTtqkseLy7SCgauxU09mRqnop9ZBDp06dtElj1azltwyB6CpTPQy0Tp06aZtVeZutXao6qppOFx+/XNXwTlJy1JJbp06dtLpYcXqJQCoEomLsqqWJ6ihSdtO8ftkqazCVcqgOsij5/e9rtaGyLhU8VevldNlAQMXY6eq5iV6r6HmUHLbHRq0xorq5JCmZsqE99ZOCCSQG9raUUndAhqW3JUsMODhrDASySiCmTbKtj7qTpmB627KYYtKM+RInENWOjzKi1cC34YHE6VgbyqmKkXAZNbck2pAvDj6cNxoBFfKI2/e6ehMtdXQKm7qnipEOTjbli0ajOVPUhUBqdZyOMVUJ/1Aa1RCQSRfbUEIdj8KWIbAhtwlenGckArqzZR1jGjVGVENAJv1mU8d0MIo7RmzKbYJbI+VJlEBskoEJ6fgdoUMgugMqrrLpYhR3cFTDpJGUtplktUEGKjpoQ8+i6jFpi0pf6pYbd4xEtVNF5lZJkxiB6Cqs6UyplstqQjq6eeIomwlGcQdHULHjyN4qAyTJduoaxmpjRKUfTeqKm0dFrih848oQVX61723Iblp3I+VjAqnoLV0CCQuRqSpAEgSi423FkV21jZyuOgImxjFswqRi7EzqSitPLR2xIUOU120yDlmvJQKJEEitWXKUspt0ZpbzVFM0E5lNva04+XigJIOAzrpXpQQ2jGrUOEyTqFTHiIrMpnLHyZeMhjRGqakSiIoCmBjWLOdRHRxRsyT/e5O22sjbGOrcOFKakEC1fjQZV1nKozpGVGSOSwRx+qVxtM+epNYJJI6BM50pm9SZVp6wrjKp2wYJxKnXnspxSXGNlEn+LOdRGSOq5MEEku74YgKpwDuNNZA4hrxeedNVy+auzcSYBxExyZ/lPEwgjavvVgkkjnGLM8M2qTetPJWqYVJvLeOhGvoy9e4aV7WzKbmJIY/SIZXZuUm9aeWx0b64BBsnPJhNTUtHKiaQlD0QJpB0FDurtZgYZRsG1qTetPLYaB8TSH003hqBxDWMreCBJImRySxUx3upj3o2V60mBtlWeMek7rTy2DL+1cpRGRvsgZiNNSsEYsswmoZZTOpPK08cYqzWpSaym2Jrplacy/asOq6RTYsMTOpJwnibymGar1U1ngkkpRCWqdFXmYGqeBI262/VwRKn3TYNk0lZWc6TFQIxwSiOTjRD3tgEYtswmZSX5TxJzfx12lwtLcmm4943g8LXow22DZNJeVnOEzZGbOilTpvDxogNGeqhb2nWyQSSggeiY+x1Or8WMaiUwwNEBaX4aXQMmUptJuVlOU9SBFJr8haFM4+NKITk94kQSBzwTYxts+VR6zqvAzXfB1EJd+nUz2mjEQjqZ5yxESfUk2UCMZEtGvVSCt2Jlo0+0pGvkdM2BIFEdaiJ+1nPPLZDRzoDJArLRlbmrMqeJIGo9qeJDPXIY3tsVCPdMF1RxTKrelYPuWITSD2EtlmnziCxRTq2BwkTiE2N4LIqESD9UjWuOuMpjkel20sqY0S1jbp1N3P6lieQZu5cbhsjwAgwAkkiwASSJLpcNiPACDACTYwAE0gTdy43jRFgBBiBJBFgAkkSXS6bEWAEGIEmRoAJpIk7l5vGCDACjECSCDCBJIkul80IMAKMQBMjwATSxJ3LTWMEGAFGIEkEmECSRJfLZgQYAUagiRFgAmnizuWmMQKMACOQJAJMIEmiy2UzAowAI9DECDCBNHHnctMYAUaAEUgSASaQJNHlshkBRoARaGIEmECauHO5aYwAI8AIJIkAE0iS6HLZjAAjwAg0MQJMIE3cudw0RoARYASSRIAJJEl0ueyGRkDnHYyGbigLzwgYIuAAcCkvP6ZiiCBna1oE/EeIeGw0bRdzw2Ii8H91T1JuPbF7ywAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>ycgdf</t>
+  </si>
+  <si>
+    <t>dhp9s</t>
+  </si>
+  <si>
+    <t>7fm76</t>
   </si>
 </sst>
 </file>
@@ -827,10 +857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,38 +869,35 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B2" s="4">
         <v>0.26571759259259259</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.26578703703703704</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -877,16 +905,16 @@
         <v>65</v>
       </c>
       <c r="B3" s="1">
-        <v>0.11048611111111112</v>
+        <v>0.26578703703703704</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -894,33 +922,33 @@
         <v>65</v>
       </c>
       <c r="B4" s="1">
-        <v>0.35369212962962965</v>
+        <v>0.11048611111111112</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
-        <v>0.26696759259259256</v>
+        <v>0.35369212962962965</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,16 +956,16 @@
         <v>72</v>
       </c>
       <c r="B6" s="1">
-        <v>0.14276620370370371</v>
+        <v>0.26696759259259256</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,50 +973,50 @@
         <v>72</v>
       </c>
       <c r="B7" s="1">
+        <v>0.14276620370370371</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.45340277777777777</v>
       </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>0.11565972222222222</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.11618055555555555</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,33 +1024,33 @@
         <v>76</v>
       </c>
       <c r="B10" s="1">
-        <v>0.38471064814814815</v>
+        <v>0.11618055555555555</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1">
-        <v>0.26093749999999999</v>
+        <v>0.38471064814814815</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,16 +1058,16 @@
         <v>80</v>
       </c>
       <c r="B12" s="1">
-        <v>0.12563657407407408</v>
+        <v>0.26093749999999999</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,33 +1075,33 @@
         <v>80</v>
       </c>
       <c r="B13" s="1">
-        <v>0.49082175925925925</v>
+        <v>0.12563657407407408</v>
       </c>
       <c r="C13" t="s">
         <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1">
-        <v>0.27274305555555556</v>
+        <v>0.49082175925925925</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,16 +1109,16 @@
         <v>84</v>
       </c>
       <c r="B15" s="1">
-        <v>0.46907407407407403</v>
+        <v>0.27274305555555556</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1098,67 +1126,67 @@
         <v>84</v>
       </c>
       <c r="B16" s="1">
-        <v>0.34063657407407405</v>
+        <v>0.46907407407407403</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.34063657407407405</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>0.25839120370370372</v>
       </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <v>0.48372685185185182</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.48383101851851856</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,16 +1194,16 @@
         <v>88</v>
       </c>
       <c r="B20" s="1">
-        <v>0.34871527777777778</v>
+        <v>0.48383101851851856</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1183,33 +1211,33 @@
         <v>88</v>
       </c>
       <c r="B21" s="1">
-        <v>0.49935185185185182</v>
+        <v>0.34871527777777778</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1">
-        <v>0.32112268518518516</v>
+        <v>0.49935185185185182</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1217,16 +1245,16 @@
         <v>94</v>
       </c>
       <c r="B23" s="1">
-        <v>0.13188657407407409</v>
+        <v>0.32112268518518516</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1234,33 +1262,33 @@
         <v>94</v>
       </c>
       <c r="B24" s="1">
-        <v>0.40090277777777777</v>
+        <v>0.13188657407407409</v>
       </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1">
-        <v>0.30084490740740738</v>
+        <v>0.40090277777777777</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,16 +1296,16 @@
         <v>98</v>
       </c>
       <c r="B26" s="1">
-        <v>0.52651620370370367</v>
+        <v>0.30084490740740738</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,16 +1313,16 @@
         <v>98</v>
       </c>
       <c r="B27" s="1">
-        <v>0.20957175925925928</v>
+        <v>0.52651620370370367</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,33 +1330,33 @@
         <v>98</v>
       </c>
       <c r="B28" s="1">
-        <v>0.48885416666666665</v>
+        <v>0.20957175925925928</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1">
-        <v>0.28694444444444445</v>
+        <v>0.48885416666666665</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,16 +1364,16 @@
         <v>103</v>
       </c>
       <c r="B30" s="1">
-        <v>0.13112268518518519</v>
+        <v>0.28694444444444445</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,33 +1381,33 @@
         <v>103</v>
       </c>
       <c r="B31" s="1">
-        <v>0.45321759259259259</v>
+        <v>0.13112268518518519</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1">
-        <v>0.27157407407407408</v>
+        <v>0.45321759259259259</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,16 +1415,16 @@
         <v>107</v>
       </c>
       <c r="B33" s="1">
-        <v>0.38576388888888885</v>
+        <v>0.27157407407407408</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1404,16 +1432,16 @@
         <v>107</v>
       </c>
       <c r="B34" s="1">
-        <v>0.13618055555555555</v>
+        <v>0.38576388888888885</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1421,33 +1449,33 @@
         <v>107</v>
       </c>
       <c r="B35" s="1">
-        <v>0.31902777777777774</v>
+        <v>0.13618055555555555</v>
       </c>
       <c r="C35" t="s">
         <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1">
-        <v>0.21615740740740741</v>
+        <v>0.31902777777777774</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1455,16 +1483,16 @@
         <v>112</v>
       </c>
       <c r="B37" s="1">
-        <v>0.46277777777777779</v>
+        <v>0.21615740740740741</v>
       </c>
       <c r="C37" t="s">
         <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,33 +1500,33 @@
         <v>112</v>
       </c>
       <c r="B38" s="1">
-        <v>0.1454398148148148</v>
+        <v>0.46277777777777779</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1">
-        <v>0.52089120370370368</v>
+        <v>0.1454398148148148</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1506,50 +1534,50 @@
         <v>116</v>
       </c>
       <c r="B40" s="1">
-        <v>0.21413194444444442</v>
+        <v>0.52089120370370368</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1">
-        <v>0.34798611111111111</v>
+        <v>0.21413194444444442</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1">
-        <v>0.25550925925925927</v>
+        <v>0.34798611111111111</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1557,16 +1585,16 @@
         <v>121</v>
       </c>
       <c r="B43" s="1">
-        <v>0.44896990740740739</v>
+        <v>0.25550925925925927</v>
       </c>
       <c r="C43" t="s">
         <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1574,33 +1602,33 @@
         <v>121</v>
       </c>
       <c r="B44" s="1">
-        <v>0.37550925925925926</v>
+        <v>0.44896990740740739</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1">
-        <v>0.31542824074074077</v>
+        <v>0.37550925925925926</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1608,33 +1636,33 @@
         <v>125</v>
       </c>
       <c r="B46" s="1">
-        <v>0.18841435185185185</v>
+        <v>0.31542824074074077</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1">
-        <v>4.2835648148148144E-2</v>
+        <v>0.18841435185185185</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,16 +1670,16 @@
         <v>128</v>
       </c>
       <c r="B48" s="1">
-        <v>0.34766203703703707</v>
+        <v>4.2835648148148144E-2</v>
       </c>
       <c r="C48" t="s">
         <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1659,16 +1687,16 @@
         <v>128</v>
       </c>
       <c r="B49" s="1">
-        <v>0.49761574074074072</v>
+        <v>0.34766203703703707</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1676,16 +1704,16 @@
         <v>128</v>
       </c>
       <c r="B50" s="1">
-        <v>0.11685185185185186</v>
+        <v>0.49761574074074072</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,33 +1721,33 @@
         <v>128</v>
       </c>
       <c r="B51" s="1">
-        <v>0.23510416666666667</v>
+        <v>0.11685185185185186</v>
       </c>
       <c r="C51" t="s">
         <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1">
-        <v>0.53518518518518521</v>
+        <v>0.23510416666666667</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1727,16 +1755,16 @@
         <v>134</v>
       </c>
       <c r="B53" s="1">
-        <v>0.34067129629629633</v>
+        <v>0.53518518518518521</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1744,16 +1772,16 @@
         <v>134</v>
       </c>
       <c r="B54" s="1">
-        <v>0.15145833333333333</v>
+        <v>0.34067129629629633</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1761,33 +1789,33 @@
         <v>134</v>
       </c>
       <c r="B55" s="1">
-        <v>0.46416666666666667</v>
+        <v>0.15145833333333333</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B56" s="1">
-        <v>9.2986111111111103E-2</v>
+        <v>0.46416666666666667</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1795,16 +1823,16 @@
         <v>139</v>
       </c>
       <c r="B57" s="1">
-        <v>0.43625000000000003</v>
+        <v>9.2986111111111103E-2</v>
       </c>
       <c r="C57" t="s">
         <v>66</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1812,33 +1840,33 @@
         <v>139</v>
       </c>
       <c r="B58" s="1">
-        <v>0.30247685185185186</v>
+        <v>0.43625000000000003</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B59" s="1">
-        <v>0.11120370370370369</v>
+        <v>0.30247685185185186</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,16 +1874,16 @@
         <v>143</v>
       </c>
       <c r="B60" s="1">
-        <v>0.49806712962962968</v>
+        <v>0.11120370370370369</v>
       </c>
       <c r="C60" t="s">
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,33 +1891,33 @@
         <v>143</v>
       </c>
       <c r="B61" s="1">
+        <v>0.49806712962962968</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="1">
         <v>0.20229166666666668</v>
       </c>
-      <c r="C61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
         <v>146</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>42015</v>
-      </c>
-      <c r="B62" s="1">
-        <v>7.7766203703703699E-2</v>
-      </c>
-      <c r="C62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1897,16 +1925,16 @@
         <v>42015</v>
       </c>
       <c r="B63" s="1">
-        <v>0.36773148148148144</v>
+        <v>7.7766203703703699E-2</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1914,33 +1942,33 @@
         <v>42015</v>
       </c>
       <c r="B64" s="1">
-        <v>0.1140625</v>
+        <v>0.36773148148148144</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>42046</v>
+        <v>42015</v>
       </c>
       <c r="B65" s="1">
-        <v>4.2905092592592592E-2</v>
+        <v>0.1140625</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1948,16 +1976,16 @@
         <v>42046</v>
       </c>
       <c r="B66" s="1">
-        <v>0.35423611111111114</v>
+        <v>4.2905092592592592E-2</v>
       </c>
       <c r="C66" t="s">
         <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1965,16 +1993,84 @@
         <v>42046</v>
       </c>
       <c r="B67" s="1">
+        <v>0.35423611111111114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>42046</v>
+      </c>
+      <c r="B68" s="1">
         <v>4.8032407407407406E-2</v>
       </c>
-      <c r="C67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" t="s">
         <v>152</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>42046</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.48920138888888887</v>
+      </c>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>42074</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.18280092592592592</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>42074</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.39785879629629628</v>
+      </c>
+      <c r="C71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="216">
   <si>
     <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAAB0CAYAAACrHWTsAAAgAElEQVR4Xu1dB5gV1dl+59a9d4sVNZoYowSNYjeWJHaBGE1ijL+KWGNBY4uKHVDsoGgisSBGQY0gClFiCUY0osaAiho7sbcYK7C7t8/M/3xnZvaWnXvnTLl39+5+48OzyJ7ynfec+d75yjlH0XVdRzM8lpRKMwjLMtYfAc3sIlT/rrgHRoARsEVAYQLhldGcCDCBNOe8sdQDCYHmIZAqqPc2TEixOH+VskET0DJ2BNKdotdhlFck5jCgEXAzjAAj4BGBQUsgHvHiapUIMIHwmmAEBi0C9SMQR8ViYi5bLqApou44jBIQmNwMI8AIDGoEBi+BNJi4BvUq48EzAozAgESgfgTSCy53vnDPaDsSgymHbsZJ2BzxDLVURcf5qGjFbXkpIbgQI8AI1AMBJhAmkHqsq2KbbgnBbfn6Ss+tMwKMQA0EGkYgZbEHTQdC1TS3ZalYUjtkVJU0zPGN5l/rtC1JUZjVm38meQSDAYG+IZCamt47gQyGCWv2McoShGy5ZseD5WcEmhkB3wTSrB6HZpW7mRebnOwNipXJCcOlGAFGoD+4sCwZaKMYqQgVao9Y5LCIIOx58xi1Se0ZLdM2whDCDu0xgfTX90IDNA3Iq4BaaY1SDnZJEkQ4BESiAP3khxFgBBqOgG8LxI3EBnloKCCPDLJC6RNtRBAT/0URkdpFbvRZ/FKl9lJIi3bpiSCKJBLiJz/Ng0CP2yqbBVatAuhnxXPt/j8z/yWEb+JxXLp4MRCPN88gWVJGoI4IVMYP633UoX8CcRG5tgjkwcV/xZlTzkA+moWihXDCYSdi3CHjEAcpAtmvSYNAqPs00vjl7w7AGx+8jpAewtB1vo9HbnnEbK+Os8VN10aALIh8DtBVgNKmyXqw0qfpDE8rWG79u/WzkMele++N1rzxQVD6nPnggh4CEcTR0THgCMQuicCvImi0YuFXo74IVEs08btO3Ertn0BKLAEZLiES+QbfYOcxO+IL7XOhVDZZcyie+ONTaEMboCtlWThlbVZ0QG3loeLf/3sJPzv5p8hGs2gpJPG7MafhjAPOQgsSNniwj93tIqldvgaeZEGsXAXk0uaHQfk5Zdfuv7/ZtPXvxs/uaBgTFj1huKcqn0Hiwgpa4QfdXrBriFuzQ6BWNmKjiaLaDAVGILppOdRMwNQNiyGlAGffMg5zHpuNQlhFIteCeZP/gp2HbguFMnxLAxRKydEjFQRSQAFZZDB59pX4w4I/QI2qaE23Y+GsR/CD5PAqFggTiOvXVdeMeASlX2uFovfQUuZWg5Z1Yf1/IY/L9toTrYU8jPVRTiBnPvigLYHYWRaDLSsrSIUfZFuu1w5XqIlAM5BErQEEQCBW886KmbwWydYfIBeKQIt3ArEM1ttuU4S1MI4YdSTGn3Y0IuTZMAmEtopQfLTatoAcsuhCF/YZuxfe7louvl5333gP3HXpn5FAq4iqBP64jL5XL+6Ml5DdaoD+LthZE/9UPK3Wvp3e/Ur2R11W7sUoFIx4BP3JZYFCMQHCYpNr9/9FL6i7o1FMWLQIiIZ7u7BKS1e6sAZxcLweCoUJJHAt4LrB/uJyci24Q4XACUQvcUFVKiIiEPqQLShAPgTsd9jxeGrxXwzfeDYB5BOI5BIIaWEhdgh5dHW/VjUqkg0Bi//zTxw97iikW1IIaxFM/u1VGL3naMQAhImMehSvPRKuv2yrMIJ1DHlp3hBlg1mPvWUmcfR8PQhETELePsvJDiZNFbGMiaP2RbKQQ4wskZ7HGPGZDz7cuybFKFbrgB6L8wGWHt5cmQ2VTq6MesRTPAxlUFSpB/n3d+ACJBDnoZInhDSJqgAFAFPvuh6/v38q8pEc4vk4pl18A/bfcj8kKNZK7i4FaGvdAqpuJPmK72+l+IWcj+Rx+iWn4d5H70UhkkUy1Iqn7/kb1owBIQ0gGgqFq1swtSS2VKQOHYr4zwzaV8RoDCPByC5Tzb/RVzlZCOGedGKDDv08RaKTsyRqEmPNLCcrLlGUNhdSkIrEcMnCR4AogWsQvHhKA+OlA6TpIksizGm2XuddRvnLkExp/06E41XWwVJvMJJErbl1RSAUcyC3kbGHw1KINrn6VXqkvRmUaUVf5tTGa1+/in1O2hOpeArRQhT77/ILTD91BpJICgVsWSzi5BNToxOBCKWtAJ0KMGSD9YAIZfoAyMehpFdDNN8CRVOghHLoTL1mkE6FN8hpwdOuEtqtEoYm5I0KEqExG+MuTUkuQMUXuS/w3EvP4b9ffgZVzWO19tXx/Y2GYvhGw01XWqgn3cDAIYqwSFs22iI8CN/S/Sz2MhYJhHLWYsTKxMbEykSZBExlLKKyoZpZTlZcoqRSJAzE4ka2UywGRJ1dgy49fU7TMWh/79f95EQwjSQUv2Np5CIYqC6noDGUJhAR/EY3fnDAMKTi3WVyiK9di09IgVV5ktlWvHn/ciTRKpQmxS9+Of7neO6DJdBDOlZT18Dzdy3DOlhHKG1FDxkhgFKPCenKkKEzFyx9CCdPPhmFSB4tuQRunHQj9t1qJOKmjiWdGlt9Y0OfRlRAoVrFZ5Ottxb+/sqvaDWchRZZBYTSiKsqXnj4X0Jma1+JYWvoIoD/wv+exzUzrsGzrzyLglIw9LeuCtlDuoK1OtbGiL1HIhqNYvY9d0NTNCRyCYFDQk+KjDNjH0s3tt1/G0GmZJH1fswgtBUg0hUMSenY4vMC1usCYoUorl38HFCIAlpEWHrFLKfy1mpmOdnNneDNiHF+mQhK+bOmgl7E/ak9J4XtJGulQvejdOthwdjJ70RCXjCxa9NLO6XyOmFbq6zTvA3W37siEFL4w369MbpbOmviRUpUU3Toiib+kNIM6yG0dbfjnfs+QDs6RH1SmjOevBmTbr4YmUgG8UILrjt5Gkb/5BBEEBcuILuHFC7t/Thpykl48KX7RfvfjX8PT9z2JDrQgZjYT2KQDCWQbr/Xz5GLZlEIFcrspk/+/W+j+dIgblgFQjkgnME6W26ORC6CFx96HklEEaNEpBIX3C3zZmDqHdciHUuhEM5BVcjdZVpLgqwKUIhqFA1qqCAw0UIFtGba8N49H6JNbxcEoiKLPFbhh/tugWx8FdRQ+QY6IqKQFhF7XMiVZrSnoT2nY8twK9ZMRZDMJgWJtuTjCKsxQWTFLKcKFAfo/on+8BI3Qsk5KWwLB1nyCVrmav27mZ96EEhl/7I4upF7sJUtEkjNU22NYG8GaWx74NbIxDI99/rputbr9FRSbqQw86GcsDJI4UXyEXyvdRM8O2MJWmm/BzRkkcXH+Bh7HLI7VkS/QVgLYa/NRmDmxJllX/yVk0L1PsEn2O3gXbEy/hUiahhjR/0WE466SLjIKGJCZgdZIFlo2GW/3QSBkEzClaXrCJmpXcK4UTRhMVBMpTvSjYyWQ0hLYOXSD4HuIVAyHYioMSi6Al3RDQshlsJ3thsGNaJCU1ShsDcbthm232I7rLF6GwqFVfjkf8vx0hvP4sMv30Y6lkYhnDcUf9ogEItIoWcBfQUO3mNbtOgrENWJ9ooP9b12eG3EVEoNgGgnHU3hqzYNL6srkQvHsXHLUCy45wnhxoOZhNDTQqVLy1WWU7WYS/HfXSciDOC3rB7KWJYIKmGVredX5npMZz0IhAkj+JmSIJDKI0O6kUNeuJiM35QqGCPFlCIlaWRwyu9/iydfeFK4clbX18DtU27HTzbYzdzgR0eaqMIKOeWaU7Fg2XxDuWY68Njdi7BJ7PtVd5JTndufmYmLrr8Q2VhGBOD/eu0j2H797UVkQcQqyP2lkCQUW8gjJ/5G0lUqRJKZnFK0pySL46cdj2eWLEU8tzpWL3wHd14xDzt8/1sitZhIohAGnn39Ixwz7mh8/NrzQD4C6FFApT9h8SekF9CW68LK7v8BoRRee38ZJt88Gf967QVkohpasq1Y/tflQNo8goPiGHoKp++3N+J6N8JIQ0EeSkgVZBfNRzFp/hOGaypUAKJp/Gn8WMx74xm8uVYU+cSauPPK2dh5w50R7YmtyAXbnZeUM4E4t8El7BCQcTGJ75uKPHYZReiljswsybQrS0il4/DbrpN7SgYzmfFzmXIEpF1YVM0K9lKAmVw1FaEJ0bKOAlLI4PK/XIIZ990CNaSLjYLXnnEdDtr5YEEKIngsFLKh4B988a84fvKxYic5kcF5vzkfp4w8VVgh5Y9BUF1I4aBJB+Cfbz0tXq4t1h+OR69eJHayGxGYYoCfwv1GwJuiFvYBf8sldvV9k3HTX24SRNGaXh1Txk3FQbscirgZxM+FyO2Wx+hzDsHS958TZLReeH3MveU+fK/9uyIkTv3HKISxMo8R6yTFyVwqJQRAQyd0fB5RoOgRHLH1PujIGHJmQgq64hFMeXQORP4xxaiVLKCYlghZEERO5F6LdWPa7VMwff5NSEWJhNsw6bwpOHjHQ9GCFiN2JAjURK7Gzs4yy8FtebN5p2pOvx+sL6QsedgRiHjPKHZX45FRyG6xl5VZtm9ZorHkdBqzVU5WTrfj5/K9EXBFIHYAlioIK0vrgefn49SrT0UukhWun7G/Hovx/zext4KjGAk0rMBK7HjsD/FZ9r/iS3+rDbbBI1MWmoRQJAPqi7KU3lr1FvY4YVekomnEC1GcdeTZOGPfs2wIx37KLcVpZVJlkMH85+/D2VeNQyaWFftQTvrVb3HBIeegleIpuYixAzucxavLn8LRZx4hgt1hPYKLx07Cr392tOE6IiuEnoKGSXvuj2QuAl1PQFVCKIQLWNVSwGdtwKqvOvH1S2+gwyS6NCL4BnGsQBzfROLIRgvo6nqjSIMUmFcA4qX7n12AsyePEy4xykwbe+BJOGf0OcbRkeZk9Ox9KXFLOi7+avtbHC54ciIIp987yjUAC3hRcLJKuZoSlVW+1eB2I7OMrG7Jo1KuauNxI+cAXFoNH5JvAun5OgDFG9J4/vOlOOKsw/GV9qXY2PezbX6OG8+9UewM73EvlQ1TQzdSOP/O83HnwzORi+SRzCewcNpj2GrIVuKLmnZUCL1sphFPWzANV82+XChlcnn9/e5HMTS2WYXLq8L1YqPJDOdWHss+W4bRZx+Cleo3iGgR7L3DCMwYdys6iDzSKpDJmSfDpvGvP03BbffeikJIxZDV1kZ7qkNYTWRVUJCbnq5IBBMffxKIJIyU2lgeN91xFW6892Z0tuQRzyfw1oLlQMZ0YZkZuFaWMMVuaP+LZu6kp7iLGslDi2SAWBoI57H+1sOx+8574oaJFwkLiZLMqHfydlCylPB61DpXxoVmL7NUKKeaGvd5aaCL7hv+UtS7QxkFWymDmzpuysqO1U2bMuTg1+Uk0weNzS9xyuIzWMv5IhAromDEPYBP8//FgacegA9WvCNSZjf/9uaYe/VcDMG6VcjDgJ2C809/8jTG/G40Ui1diBSiOOOXZ2LcoecUXV6gL/A8utGJX5y+P17+8mXxBU5B99snzkRrSZqt0WoJgVhnOankNys5yymcRy71Xxxy8sF4e9Vy4W4bvsHmuPMPdyOurAdkI0Ahhwmj9kVrPgc9nEFnYoVwtZGy3ni9oThp6mygUHGceEWWE8VsLp93KW687wZRlzKmRBBd7xABfENBFzfnle5/EZZHGPgsDYwZewQ++fIjkQr26bLlZTv3xT4ZRRWxk1VdbyLsoODp1xYX9Cx+s07N3fsBaf6Ammm699aNIi4dnJsva699yFofTsq/tB1ZBR6EzEwqjX8dahCIcxCW4gtEHJR0moKO48aPxdNvPSX89xsk2jH7hjswrG0YoubmQRE3sXGJWMSw/6k/wytfvyKU/6ZtP8Cj0/+OVpGWa7iGiGiWfL4EB598kCCacD6CP5x6Aw758cGij2ppv6CznDIlZzmp5llOSgZ/OvsYPPfqEnSstRqiWhSxXBzxfAsialTELrpicVxKO7AjMSCZxqhjfoT3V76HqBrBoSNGY/zJ1wBZinWYj80O7HICyZsE8n4xC6ty3s1DJ2kG6NiXTmRxxMVHYMnrzworZ92W9XDf9fdi4zU2FGeH9Rw+adJme9sw6Hoc0MMi7Zie0o2YnZ0vldchq8V0d0lbMG7X6mBljBKc/CpJ2fqy5WSmUEYpuw2G2/XrV2Y39Z3GJEt6MvgN9DK+CMQgDw1b7fNDdEWzSMfy0EIqIqqCOdfPxC4b7WAq9toej4I4lj2LaQv+iGtmTxbptslsArOmzsSe392jxzXVjS5MnDMRf54/HS1qFuvoa2DJ7KVQMMQ848Rm34g4E8W4l2LCqJFoLdDu8rxwlZE1kIl1Cysg91UBv586A9h8RyPbiRQe7cBusXZgx9EZSWGzw4dhRehrRAtxHPfL43DJIZchqbf2DNBOT5LcV8y7zLRAJAjEXHVZkTuWwUV/moiZf7/dcNlp7bht8m3YfcM9BS7FQxWNrAYaLlkWIsZKf68gEKLOjo5teu3sL7VgOrvftN2BU3qFh+2LYXm2fLq3BtpLV01huVVUMlaIG0VaiXMQitVr/17r0RhkcHGzpoLAwU1/zVy2OoFIfDFSTIIyru566m6M/+NEsUmONrNNOONSTLl4GsJqwthNruviitnicd4aljy5uAc3+tKmP+/nPsaow0cgF04hqmkYs89BuPr4q5BEXATbV2IFfnTiLkh98Q6Gf6HiNzvuhwPPuU64ckpTwqwd2GIhaDryYQVd1llOsQiQyGLeY7NwyfUXIx8qIJ6P4qpTrsaokYcCKgXMTXdSxQ7sTqWrjECO/cWxuPTQy6sE74sWXFUXlrmh0m4B0XhTSGHW07MwcdoEkZAQzUcw+ZRrMHq3w8z9LhSkJ/eXMU5doeNWSqConajT020pMZDUbclNoYvDWyK9CIgqkQVjPaUEJawXgs5/iKSZ36lesjspJNv5r5Jl5aRonX5fTeHSv9eyJCp/X22CZPoP0gIJmjxkFp7TfLr9MJDps7+WqU0gVb4kjdgHbQRM418f/xNHnXUMukIrBVkcu9/xOP+IidDRLk6PqvbstPtuCGmq2N0d0TXE1II4EDEV70IqnkY+rGHN9nXx5OynxcZDUmz/ePMJjLloDDry3dgzuwa+vTIq9lSQu8l6aNPi+XTPhKU86XM8HDbOcUoQeYTwxAdLcdj5hyKNblH3qF8cjYvHXIZkaRqsjeCdWIWdTtweH3R/JI6gP3SvQ3HdsX8wN0ZWVvBOIFZw/9kPnhVy0mbMqBbDMT//DS4ec4m9nBKE77gIJSwYaqO9fZsyAhEbM4ULLI/u1OuCQErdalS40hKylWUAWjBeFZyTkupZ7yVE46VOfyUCWSXslbAc3wUfBWrNg+y4fHTf0KpSQfTKbFDaB0L5S++l38WvTjsAn3V9KhTq7tvugT+ddxuSaDc3M9QeS4wazqaLd00gjfcfnYNzr78cn7VG8VUojpSyFnJKQqSxksuJCCamalinK472TBwvPLPMyHSydlv33FhHn1R0DLlp39BZTrEc3sy8iwNPORifpj4Ux4PsM3wkbhk/XchsnyVWHAO5on4+YV88J/aAADtuvBMWTHooUAKhBZZTcng7uxz/d7IhJ2V4jdhiJKYLOdsQQ6TcdWULs3MWmm01M/4ifidpwVjtUI+tyc2hUczLPKGgkjhWdhnWS+XhmPT/lgVTvm/OPAXZ7KTMZSfxqgTBqxLdVC1SDwUnSxRiCh32i9gJ7kdmr3W91PNSx89cBlHXae68zFcQcnltw5FAKl9AofORwwp8haPOPRJLP1wqjirZYp0tcPfv52A9fKv6XeSlN9vRnRRqAcjnMeGno9CaLyCkpMX+hq+TeXy0WgjLMxlsv+eBmHj2dcgghRFjRmKlulIEsE844CSMG3M6dtljt5702SIIhtIJ6xqWLX5aOM+I9MgFdvj5h+HFd18S52cN22Ao5k6dhyEYIjY32p28ReOl+vSHLJYL7jwHsx6ZiVxYRYfWhhf+/CLWxbeKG/h6hCgqPnJFXTb/Etx03w3IRwtIZBLlR5mYdawrelfgS4y+gORcJrDd9FubYf6187E21nMkuUoMejZVNkCT1jo92SIMsl6IVOwJJI/O0vtfSgzYHjosJTVJi8XNdhivL1LQiri0PVmlY6dQZeta/flVyl7ru63ntnyQ81rPttzOVz1lkWnbkUBKG7E23pFCPP2mU3H/k/dDC2kYklgX866dh01XG1ZyCKJxfpb1GFmmxs12Z48YgdWzWURVoCsawSULFwIRshA0IJrFhZPH4c/PzUc6CrQoa+PBOQux+NWnMP7SC1GgQxfzCTw0bSG2WndLse+6mqOMgvzb7bobslEV2WjG/GMcVBjLxRBTW8QejucXPWvuNCmO1mpTxNIBUJ4VnZn70BsP4qSLTkQ61o2oGsPlx12Go/c+FnG09BzPXhyzcUw7pR6Pv2cCZv71NnGOlXWYYs9ZWGYFykZLoxPjbjgL856aL8hjvfj6uHvaHPygfbOebDYqXhyzc7Zc+UKoUr4awbghnhrWS7WTC3oUl/haBpJtxv4XO4KhsqUWjL3F0sPG5ZkbbsYh8+Y4lPGj4JzqyhCF7Jesk8KiYcq2JdalzfWhMvWdxlyLUGXaD2BK+0UTTvPVaCxcEYh1B/n0R27CZbMuEy4lOpL85itvxojvjDTPuLLD2TiKPE6RjLKNeaTJzSynlrg4rYPOx/r764/iyEsON482acEFZ1+IJ55ehGeWPCUshy2/vQ3+Nrlyp3rvfmnnNh08340Cbn18BqZOnyrqtyCB6Vfcgl023kVYDjvts5PYrGgclGI8xbvZQ4howMv/eEYc00JxkBEnjMAHXe+JchtEv427p92NoR2bCddSKWFSLOMbfQWm3TUNtz50M9KxVdCV3gRSuiP+xoV/xJTbrkKGjnVBHLdedht238jIRLPuD6kcqTgB2KTSkHBv1XrqSCCiW5ftlwKmAwUzi6wagbR2GPEXw+WVQXfqTfsrj+1M53LmrZtC8KpEZQVyUiJulb6T4nfbnxsycOq711r3SFCy2DZ7ObfY+x1vLwKp9d7RPoyFb/8NYyecgO6IcaT7BSePx2E7H46E2OtRVKC9BQshgXD50SBCExTvmRDHwFOWj5lt9VH3B+R7wvc3HYa333sHeoFO9Y3iguMuxG9HnCzSZ6sublJGioY08li0fBGOm3Qs0uG0uEzk/NPOwxE7HYWoqWwNW8lQu6XqjxS2cRdiHDvtvjtUursjrArlnmrpFNYE7bany7AuPv0SjNp1FNaOdyBNx628/xYW/fMxzH34Hnyd/QK5aCe0cErcMdKWSeLdktN4jaB5Fo+/+Th+M+k36Ap1inGde9p5OHLHIxFDi5DEsOjKD68kmWn/C91VQvtlah2DXzYnjl/kLmMoju1JLFXLgpGNvUi6sCR6DqxIvcnDEtRJqbv5Eg1CZid5KknNqbyd/EHIGdhEc0MCAVcEQkHk7Y7ZBh8XPhb3X9DTrqyGcIGSdCmGIG6rMBs2lJ11vxRlaNGlRy/MWSZcMbUeijVc9JcJuO2BW8XucBEjF3dCKWhVO/DYHYvwXWzUK9ZSdtOfIBBKM+7CTw7/MT5Q30MuRse0R9AWahVuMDoGno4JMR6TQMz/pxOEI2pEpCUvfmAJhYd77BMa+QV/vBALHl8gYhqKpkPJKAhrUXEkvSAiugclpIo9LeIY93AaSpzOG6Gd6An8Z+57aEVClKV9MJTRttvhu+Ij9UNheZFsyXCbcLGFrSwzShCgQxbpml3FSI+mv1PZllwr/vXAPxFH0iQbhxXuqPD7gEAGwEvppBidhiir+Gv1I9uGLBl5kbkeONSjTaex8e9rI+DKhUXum40P3ggrkt+Ii++GbbWJ+CgWexEspggpEHeEmP9v/DB+Hyu0YM4ZcwSBWHeNG+IR7RRtAHE+FV7AkScebV5sbg5CBXbZbmfccNwNiIvjA+mrvKjokkhgTawF+kkPxRS6sApb/Wo4Via+MQiELmXSQyJrrIc7SjAqEh7d8hdHa6YdLz7wMlrQ0aOYqccMsrjq1itxx8OzxJHy4ipaMwOMLs8ipU+WyfCNtsTZ556LhUsex0133CLuKCEcVuteC4kcEWlI3JuSi2VFjCbXmhUbBkk2Q87iGVtaiM7BWgmEMsbpiuZD94QkU+14ecHLZTv3++fidxuz6Z+jqCZVo5RcfycQ8Ulm427qy9l0S6x9KWuz9O2KQGhD3GYHDENnoksoOfqyzkcpv6n3MenW5jRaQ1YmISnUHw7dARG1aIHQIqMrYC0Cob9rYbq0KSt2i1M/lDRMZ0XRlzYFvulyKjr0kBRsKYGQhTPn0tmmhUOnQmWFBbLtwdsgE0uL9mq9+KULjP4eV2Piy/7FuS+Je9rJSWTQIQXHjQuxnl/xHOY+PAdLX12Kz7/8TJxkOGSNIdhh+A7Yd9d9sceGexN94uoF12PG3FnIKwqiahyv3P1qjyVGbRFp7nzQTsirOUEeRBxGHMYYo0YWB91UmOiGZt5YKLDTFIFFMtOGFx9YJtJ8DVuwPAu3NC5CLZr7/fpgnTKB9AHoPV3KuobcyFhLMTuRiFVXxnfv1JaTzEwgTgi5/70rArEuXaJAtxX4rX7LRm9hKJpAri6nXH5q2659Uovk76f6dm2QQh8zfrRwAdGXPWUxGbcAFsRlVYa7qlKBlf+/ZUUYlgq5pQwrgDYcWoR1y0W3CHcWKX4VeXEZleFMMt13wiFGklJoPiysk6n/uA533DPT8JSpCl6Y/orI3DLsL2qHlHpY7LqnID9ZUYaFZVEBEaKOLUfuhEKYLDwDX4t4w4UIInpYWD5L/7G4LFpC5cRJvSapWFll5RGryo+A2vee251p5mb5OXrQzMZky1Xt23cDbkbV/8v6VcIyI/SiqGUIRKZvmfF5kU+m78FYxhWB9HeAUkjja3wlbjksvVTKkLt4r0jt/ze+3KunyWo4YdIJ0u2RRZWj+z2Sq8QeF8z9yqUAAAu7SURBVCIzspTW6FpbxFeMh07kNSyJeCGGmVfMQpxSWSuSEvJQkEIEdLN7qUVhyWv93PGnO9laIJS5RHswwhrw4qPP0EElNlNqHDtDbkb7nTEGPpSRRrRn/CyPehtET/RnEKgd2cvqddlyTCD95+2UUeJ+pPVLADLy+e3Dz/iaqW4JgVgb3wxF63wensd0zTqiY1hIZBGYp+3aqPlq3Zc6w4wve+Pxut+itD5lr13x4BW4+d6bxJlWyWwL/nPX++II+tKHXHUk/9EXHIVcJAdVKUA381nJ0iDlT66s0o14VF84ACmDKaSIn9bvrV3ggj5LdHw+pOD5V14zwiiWj7HH56ghlkvgnfveRdJ2a6VIjBOXFhfQJRKbyQqzHpKTrtUlC8r6Qxlizo8711a1RC3ndessCZdoPAJuLBAZAqj3CJhgTP2o9yARIIH0p7dY9hO2olyQBGIcpni5eRpv2jzO/WO0o624zkXWGG1VTIs/GbF7pRhfIsVsEJqToq3toiNrp4AIDr/yJBQUGzcV7ZPJJfDJU5+KbLFi6rBFsXS7Yha5aBqb/XATIz05RARiEBs95E5rzyZx+5WzhCOPbJByoiy61MIiQkSP07hKt3ZaVhDVLW+71tIry9Krt4bh9l0h4IZAXDXssXAjSGogkJBLF1b57nLpuSn3CRnVnBS70+8rOndZXFr0ni9rh6tdazVYeRovHWXy/tyPet0HYt05Txs2RVaXUKq1YxGuB2JCT1dPVfuKJ6Vfy4VFO/yJMrbeawfkwlrP4cWWLJQCTenSlAix4Y++iyzdomidVUb90/4NukVR15DMq4jQJV9VXYxmq2VnnRkuvxkXz+hFPNa990W3WdFNl0Qr1sZaaNETMia2F2i5jkcE+huBeBxGWbVGkFAtORtBUHUjkDLOGAAE4mdBeTnO3fmL3I9EteoWLYFqgXLrIjFS+7QnphoRpaBhk18PRS7eXUYgVoCGSGTZnGcQrXlqY7lNQQRB/xKBjrEiFlVuuVDiBD1GwkOpZQMks62Yf8U8JpB6LR0f7Q5EApGBw4lk/JCAU9t28rntz4FA6vMFLAOs7zL1NklcCOiNQFx0UKWoHQEEAYuVy2b9rCapYalQVIf+Vv6QeqdkgG1H/pgOB6j+6AqWLKSNnMZDmW4UUUkiJ0ik+tPbJcYuLP9rql4tDFYCccJThgTcKn2nPt383teNhG46anjZIDSlg9Cyqay0y3zynCmYPvcmsa+Fdpe/ef/yKhdR+Ueqllx+Yanedu0Yhl2/RCsp81rkWqPeeY/dhcvKeiKahleeWlzz4Jy+s+D8z99gbIEJxPus9+URLy5dWN4HOZhrUnYYRTXoxCtSs8bpWtUPRxwsWBGpkDvMLpm4FgZ9uxFysMwOj5MRcEaACcQZIy7BCDACjAAjYIMAEwgvC0aAEWAEGAFPCDCBeIKNKzECjAAjwAgwgfAaYAQYAUaAEfCEABOIJ9i4EiPACDACjAATCK8BRoARYAQYAU8IMIF4go0rMQKMACPACDCB8BpgBBgBRoAR8IQAE4gn2LgSI8AIMAKMABMIrwFGgBFgBBgBTwgwgXiCjSsxAowAI8AIMIHwGmAEGAFGgBHwhAATiCfYuBIjwAgwAowAEwivAUaAEWAEGAFPCDCBeIKNKzECjAAjwAgwgfAaYAQYAUaAEfCEABOIJ9i4EiPACDACjAATCK8BRoARYAQYAU8IMIF4go0rMQKMACPACDCB8BpgBBgBRoAR8IQAE4gn2LgSI8AIMAKMABMIrwFGgBFgBBgBTwgwgXiCjSsxAvVFQFGUsg50XffVYWl7ftvyJQhXHlAI9BmB8AsyoNYRDyZgBPj9CBhQbq4uCDCB1AVWbpQR8IdAkAQSZFv+RsW1BxoCfUYgBGRQZjW/IANtWfJ4Ktc0IeLV9cTvB6+neiHQbwgkqBfE60tWL4C5XUbAKwJBkEgQbXiVn+sNfAT6lEAqrRAvJMJfVwN/kQ7WEQah/Pn9GKyrpzHjZgJpDM7cCyPgCQG/BOC3viehq1TqT7IEOa7B3NaAIpC+dl/xCzKYXyVj7HZWgxtUKtewnzUla8EELXPleL20b/cue2mnVJa+1g9u1kGzlHVNIPWYRK/BdNmXqx4yl06wl/b5BWmWV8SdnF7WQi0lJ0sCdlL29fvhBwt+P9ytu74q7ZpA3Agqu/hlF3qtL5ugvi7cyOL0gpTKJNNurfaC/DJ1M4dc1h0CTmvCqTUZxSm71mXWXCOsJqcx2/1eBge37cri5rbdwVy+oQRSbQJlF3p/IRAv8nqpU2thBt3eYH4J+mrs9fzAqtf6kGlXlkT5A6uvVl5w/TaMQJzY360bS2Yhe4FJRg4vfXupI0sgTth6wYHr1BcBWfKoZiE4zXnQ682NHF769lKn2gy5wba+szzwW68bgcgo4lJ43S4gt+3LTKVsm25ltXv5nBQAk4fMjDVnGS8Kzu2ac1veCUk3Mnvp20sdO5ndyOk0Zv69MwJ1IRBZRdyfCMSNzG7KWmOs1wvih4iclweXqAcCXtaCmzpuysqOz02bbsoG+X4wecjOZnDl6kogbpWbrGL2skCdIJPtu9KakB1jEDK7kdFpvPz7vkHA6zpwoxy99iHrEqq15r327bVerY9Q+p3s+9k3q6H5ew2cQPwoOdlF5KePWmavzGKTlbGyH6/1qr0gMrI2//IcWCPwuwZk68uWk0HXDXFVfly5UeB+ZfZbXwYLLtMbgUAJJIhJlCEHmTKyk+22La9j9FrPzsRn8pCd3f5Rzk4Ju1Gu1dw8dm34XWdu+qr1MWb9Tnat+pHbLcn1j1UxMKQIhED8TL7bL/Wg+vLaTqPrVX7Vyb6QA2N5DoxRBEUgMl/4Xten03soS3he+w+qnqycA2Nl9f0oAieQIBRcLavA60Kr9YK4kdlr/0HUcyNn3y8tlsBO4ftVcLXWUZBf4kGsVzdjbXR/vDqDQcA3gbh1AcmIXa1Nr4uslqntVil7lcFvPbdyyuDMZeqPgNd5ryVZtTaDIhA/Mnut66Welzr1n/HB1UNgBBKkgpN5Qfz054f0vC5aL/WsOn7GOriWc/8arZc5lxmBzPvh5uu/tE+/Mnut77ae2/IyuHIZ9wj4IhA/itjvF5ZXpRqEzF7acLvgvfThfvq5Rr0QcDvfbuSwa9tvf3bWixcS8moFuZHfTVk3uHJZ9wh4JpB6K7jK9v0uGr/1/X6luem/3ti6XyZcww0CXpWobB/VlH1pfbcfWEHK7Gatk8xu+nZTVhZPLucdAU8E4naBeBGv1kvi9uWwW6Re2qhGIk5tuVn0jcDWy3xwHTkE3My1XIv2pZxIxGlN1vog8mJ5OLVX2aYX+RuFrZ95GWx1XRNIoyYxSAKpl8y1lD2/IIPtVTLG6zTvTqjIKv56vx9OcjpZO/XAoR5tuhknl+2NQCAE4gbYgfKCWGN2WtTWeGUsC6e2nHCWxdapHf69dwQaNYf9nUD8kqndWm4Utt5nf/DVdE0gzQhRf1h4MgQig22QikOmPy7jDoFGrbUg10E9ZXZqmz+w3K2v/lZ6UBBIfwA9KALpD2NhGQYWAk5K3mm0QVi+Qb0fQRKr07j59wATSINWQVAvSIPE5W4YgYYiwO9HQ+EOrDMmkMCgrN0QvyANApq7aUoE+P1oymljC6RR08YvSKOQ5n6aEQF+P5px1tiF1bBZ4xekYVBzR02IAL8fTThplLauBxEBa86xN1RqfkEaCjd31mQI8PvRZBNmissE0qB54xekQUBzN02JAL8fTTltbIE057Sx1IzAwEKACaQ555MtkOacN5aaEWAEGIE+R4AJpM+ngAVgBBgBRqA5EWACac55Y6kZAUaAEehzBJhA+nwKWABGgBFgBJoTASaQ5pw3lpoRYAQYgT5HgAmkz6eABWAEGAFGoDkRYAJpznljqRkBRoAR6HMEmED6fApYAEaAEWAEmhMBJpDmnDeWmhFgBBiBPkeACaTPp4AF6M8I0A5pPi6uP88Qy9aXCPw/RZDa0VKtJPMAAAAASUVORK5CYII=</t>
   </si>
@@ -508,12 +508,171 @@
   </si>
   <si>
     <t>7fm76</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dCbgcVZX+q7vfkgAvbFEERx0RBVkUGQFXVsMSkhAJj5cVBMIiOyQhJGQhhBBIgiAERLZBICDMoAMIwxoZYNRBBmVYBQbZZBAReAl5r18vNd+5VdVd3a+q696qW129nM4nz/f63nPP/e+557/nroZpFkyIT8r6wR9NCBRtObpw1S1PUzVjEmMbJYwg+aWEPvhICwoqiL9nBBiBagQMJpC4jEK3w9ctL65665Er7feZQPQAzlIYgRAIGKZpOl0wRHbOIo9AexGAPC7hUkoTTDjxnIsRYAQkEGgAAmkXx9ou9ZSwOg1JmEA0gMgiGIGICLgIxHFw1RJ1zeHLasqOVhap9khn2YNpr9GV10TYTtqj/bmWjYwAE0gjtw7rZiNQZAJhW2AEGhCBBpjCakBUhEpxjXDjktuoONbWy28qyn+Kqho/+l0mSi7nI9mBu7uaE07WmhGoKwJMIL5wx+Xo45JbV7vRVhgTiDYoWRAjUHcElAiENmwZRnnsVv173bWvKJAdc7L46ypdsh15FV0X4CyHEQiNgBSBNBZR+NVV0vGEhooz1gcByXaMQCC0cd01DqpPtbgURqAFEZAikKTrrUpgqum961eEJSctvlaR6aRVyZM0xo1Svu+UVlX0W62vKp+opm8UfFgPRqCREAhBIDRCdLZWFmGIBUxnWVL1pwMFyaD/lWVb3zh/V4Wslpx8lTC/MoJGwipyHFle+JA6NC0Ytq6q2DR2+rCOXTWfavrGRo21YwSSQUCRQMgRFgCQ86Sfzg6Y2j9NFGCARvLldCYM8Q/i7xn7J32fdRES/b0DpplSmHJwyMORQ8BSGR02wl5/p3JUPo6ehIFDAF0wzXTFGhHV18QQDIEVuaxqnJwyHf1U9VDRudnSBhG4WlTYbLVnfRmBZkBAmkCs6RhyhDn0TT0MMHI2kTiRQ5ifKcDswG23/Ktw8H/449NYfvEiIZvK2+1re2LOWYtsAqjcqumeHir/f4s83v/gLzjzrJOQHdoAmGnssP1XsGjBMrzy6itYuHg2iiaRSBFbbvFJrFyxGt2dm9gkNrzJhk9DFbFh4CPMmnMS/v7Be4BpYNSoLbDiotXo2WTzKgE5XHX1pXj0sQdgGCZMk/BzcCpHWBPGT8Lk3mM8CKgZTCguHf0JxEQRBRQFPReRDxzGUJScQQfS9nbfuKcW3RtNdKDjvm2oWnbYm4j85MQtvxoPWazC1lMH/izDHwFpArFEUOQxiL5pEwFj0CYRdeIgR5pKZWAWiUC6cdvNvwDQLUbpl1x2Hv7r948BRFZmGrPPXILddv2mJ4kMrxaR2hBWXLIUv//vx0Q0kE5thBUXXY6tt/pHIf+2O67DL//t5zANigxS2HfvsTjumNMAdPmcJ3A7Mqp/DldevQqPPvbvduzRhblnL8JXdyYdqyOILK766UorrSBfdwRiE4iZxoTxR2Dy4ce7oqR2Ntkq4vCYa8ojj6z9bwhZ5EWEa9gTqab4OXb6WBRNEykD6Mx34fFbH0eXaOP4IxdZpyjbyroJpBZJeOmu6rxVSEgWK1UdZLFt13QqbVQLoxAEksX0o/oAIwsY1esAw4siRUuNbxTESHwoN2AlNDuA4ka47eZf2g7cxN8/ehtnzfohBrJ/h2ka+MSWn8WqFVeiM9PjGyVYwsjx5PD7px/FilVLYaRItxQmTTwKkyZOteUXUTA/xrxzz8Drb75o5TG7MG/u+dhlx2/4OHDHoVEZZfkUJdEC+5j9DsXRR55oy68mkByuvvYSPP7Ew4DhWpcxTOTyHwtCM9CJ8Yc4BGI5uHb5UPxA/woikrD+pcR/qeWGHw506JeijyHk8L0jxqDQkUMhRYMNe3u5YTHOfT+7r0QonehCD3pKBBI3vrJOUVaPaucZtfMH5Q/6PkhvlfyyWDGBBKHu7Xv9cunCU5FAHCfozOe7nWtQBa11g1tuvxZ3/+pfbALpxF7fHocTjzvd5bxzuO+BO3HjzavtiCeDCeP6MPnwmXYav1PHeWRz/Thrzky897e/iOiDoo6Ll1+JTGojm3ysNZw33noZ55x7MgrFDcJVbbn5Nlh58U/Q3TnKh6SIaAr4eOB9nDF7JtatJ3Izhfzly65AZ4amwFKC8Co7hLNm5F7UJ/2z6JtxoBXBmR12/SgCCUEgPqvBstM0gSe+TQtvGtfLdvYgS3B0K5QiiZyIJyiyoDjC2mpgEcLB0w+yxZUjjJSZRibfiQduux+d6LA3clSW6o6L3VNYsrgE1SGu72UiAJk0fvrJOnfZdNXlhM0Xl5y42qlR5Nbqk7pIolZdFQnEQ5TUdhZr0f2J3z6Ey1cvt6e+Mvj853bAksUrbQdf3olVxADmLzgFr73+olg3yKRH4OILr8Y2n9p22G6l8tpMATffejXuue92QTwGurFowXJsv91uVZGFFancde8a3HLrtfa6Tgr77jXensqixfbqSMKaurr0x8vw298/LCKXlDECS5eswuc/u3OIqacs+qbvD6QGYyOQWo1esX5Ucs/VOWovYns5YooM8siJ9QmZiU0n/f59ByCfGULBoF19pggmDDuiuPemXw0jkDTSIppw/qWHtVejdG91PWQdsGw6twYqecKQlIr8IGR0ygoqq9G/T5ok4iUQH+llXrEc9p/ffA4LF5+Nodw6QQKbbPQJLF92GbbYbGuP9Y0cXv3zMzh34VliFxM5qx132B0L5y1zTRW5HVwOb7z9AubOOw1Fk6bHUthv74mYefTJFWsbZadHhJDFwiVz8KdXnransjrsqaxveRLO47+5H1dcuaJEfkdMOgYTx08JiIr8oHcIJAuYqaoIROZeJ5fcIAJ3fR9t9B28KyqLHPrxoYgmymsS5U3eB00/uIIgUmYK6VwHHv75A2KRmyIFN/GUIh87GnGmsOjvtCyetnNYW8mb/6PqNJs9fU3HVHXSsx6j6aQtyI8oGrnu0SOQmgRCI8oC+te/h3kLTsHf3n+nNHqff84y7Lj9P/ksjlsj/utvXI0HHqb1EZpC6sBJJ87Cd745BqaZqZpOITI4HS+/+qwgm55NtsCPVl6HjUbQriiv8xXW1NK7772B2XNPwFCO1iMgprJWrbgaXR203uI4pQI+7H8XZ805Dh9v+FD8/Ytf2BmLF65ECiM8pq1kzFCGQAiDMFOFTvkURYU7X+KOJMTUlZBTTSCWq3c7/CEUsO+UvTCUyYkIwpqKKkcUv7rp3oopKoocrCiiQ/w3UiQRRKQ2LNFIVKZtw6VRJQMqRSWPStowUUtY+X5o6ZYXrlX052rkaCJMbTUTiHuMaDnpIj7G0mUL8PyLTwmHYxQ7MG3qTIw96Iiq0bs7L1WliA2D7+OMs2bio3V/FXXr2Xg0Lr3kWozs3sy1HbaAh399D6657tLSzq1TTpqDb+05JiA6sCKjBx/5Ja674crSjrJ99zrENZVFpWZx4YpF+OP//FboNKJrc1x80WUYvflnQkxdOU00gL7pY4AURSDOGo97DcRaL+qbSrvd5DYrlBqfFpHNNFDswm230O42WlexpuRkb6GlCKIf/SKSKH+cO9BMHDzj4NKiNf3VNExQsR2FDjyyZq2IJoZPYZUXx8stTRFHKpZIYhif0B9Mm8wa7B6TMNNFTrvIOFqZNLKOXNhR1SOmUeTLlus1Co+6JhfXyL7VSKJmpKj3SdvyNlXr8OAQbrpxNR66/y6k6UBdMYVv77kffnDKbLH7iZzn8I8hOroY9BpD+MNvHsTlqy+2dnyZndh/3/GYfPRJpUXxwjoimRPw8Ya/CVFf2WV3nHr2khry3T4xL4jjsuUL8Mz//E58QWsn58xdjG132kMQxm/X/grXXHt5iWBOOO4sfH2vA6wdZLTAHOZipVQWx0ylRfQhmEUDh06YjPG9M0X9RMVpy68xgGOmTLAJxDmw6N2UFaNq2u0lCGQErvv5L5BHJ4bEQcryh3Y6WfGJiXQpsih/T4vb+x6+N/LpIUHURQNImRA/6XPvrfeWEltEQZFICh3owEiMAnIhNgMMq1qZsGoZcM3vBLt5mRhhTACk7P+FLiFyxijkIUsiUR18UH7397qcclCZoq9GHAhE0bWdSKKOBOIUZU1BPf7o/bjxypXoLgyhO29i223+EScsWQV00K4ocr7UkWu9zGA5+DXLFuDZZ/9QcvBLz78Yxue/KH7/95/8CP/xGG2TzaGzowuLV6wGRn/acqIVc+P2FExFmfbuqA/exdI5J2HDwDqYRWD0ltvgTJLT34/z5pyM7NA6sdV0969/E4edca5LdvWhQEl/YuQwb8pYO2IyMGH84dij72iXXKvei2bQdukh+wxJbdnUGfJ5e1u1mcaontE4+8ZrsS5TxEcVsYeJDIoYiTwmHn4ARubySJs01WhHKGYKmWIGd/xiLVCoxtBHB0Fa1J4pK0/RNTCwR/7iQEY9PjJhFhFHJg1kMkA6DaSSW0ORcZRBsNWSoUO+l7N2nK8u+dV1lCGluAmESSLI8mizSxQa9pRvTQ298tpzWLrobHTm1uO53z2JEfkudAjnUp5SEdnJ6YgzEl4f28HTdlea7hEHGclRZezrTYiAXCfiKaIxR8AAfW+dPyEjsH46Q1EvZ5EHUgOWLHGA0UARnSJfWsgnPTtRMDNIiyjBHTkFLy5X7HoiXeiMSmpdqSwReZgjXARSFN+ZZg5GqoCiUUAukxfnHcQMldilZP8UZygsqhQbl+gXIw2jmEZ/VwYjv7ot+rusXU3OmgQRxsh8Hm/96U8YmTORrhqldw9l0DOwCbpyXaXjFWHXDhzYnWMaAkqPixGDUQw2ZuHo7Lq4y6vOmTNSGMyk8firryZKIFEdoBwinIoRCIeADDVoJhC6XCKPj/r/inPmn4oPP/w/MbrNmJ2YP+t8bLfz7h7TVu6Rqdd8gzWVdd+dP8O/3HmLTSLAtGlHYe3atXj77deF+/zMp7+ERRf+CDC6gGJa8b7uIpDK4SeXLMOTT/3avkqFZjno8guqUzfmzrkAX9hl93JUUz3J7qO6Z9O5prDELqzxfa4pLDuHQ6oUEnVkMYj1GEC24qCdNXU0hAOnHYCUWUTRSCFVpEmpDFK00aDQjftvfxQGuqp2N9WewhJ3h+WJ1PzmgMIZZCK5vGbCKOpNeApL98jdS17cZbjbU8bZqLS/Tt05klBBXi2tZgLJo2BuwOIlc/Hyq89Yzt7swBG9R2LiuOn27qnK+Xg5dfPIF9dj9tkn4513/9deD7F2V4lrUYwuLF1yGbb93E6SV564ShXDcivS6V//V8w6e6bYNeYsOdOhtTHfm4Cjpp8hFqT9eMN3gsa9jbZ08noDeo8+EMX0AFLFDMZN6MXU8cejWLX47GiZQw77TNkPObEmIcbwdvBG17HksMmmI+yIxMD4g3sx5YAjxQbXToxADzaWOoEtuYlJrrnqkkouZmnEeulY9/CCuB6O0q+MpAlEJZrTrWtdzL1BC9FMIFn89PpL8Miv6fAXTTdl8PWv7YWzTp/nc9WHLCrWjq5nn38KSy+cbU9n2dNfyODAMRNw1DQ68+E+BCjnYMpTKuRqBnDXfTdjza03lKbVzGJaXKXy6a2+XDopHnY6p3zyej0mnnwgCh2DYmV6/PhJmLLfsTho+rhhB+mILKzdTY+is7QYbuHxv+++gMWLZmMwT0SUxle/9g3MPXmRTUQpQSLuSwRl0ZZLJ4+vt7yg/JXfNyIRyOFUmSou8nBKidvBx62/Xz2C+pwfKeiMZMK0d6vn0UQglkO7/6Ff4oYbf1zasURXfSxb+mP7ipCo711YW1svv+oCPPGbR0pRyOabboNLVq1Gd8cWVdFHkINyN205AqFzITQFJ6IScY1HCl/abhect2AVgBFW1FNxh1PwbbDOGkXp5PWUfZDv+BBFsa5DUVQHjMJGuPem+13bhsprFtZdTpuK8xLWQkZOREnnzD8d73/wlqjIP2zzRZx/3kp0d25a3rYb8AhTNONWwderpKD8rUcg9XC+cZcRN0GRpegqg8kjWg+Xya2JQHJ4/qUnsXTZ/NJJ8JGdm+OCpSvxqa3o+hHJ3TyBGmfx0fq/4PgTZ5RIatzYPkw94piIEY51Mn3lpdYtviatNRjWQrxBaxDIYMrk4zHu4F4R5dDtr0Oge2Ctf0G3wTpXc5RPXt+NaceOQxp0F5Y1hTVl/HHiYkX3h3Z+0WnrykjCmiZcumweXniJdqYVsfFGm2HZ+ZfjE1vS2ZSoRF3dCEGOPrDRXJNu1tJDxUd5TlCuvEZMVS+HFlc5QdNEKlNDQdNtUesQNX8j2k8j6hSRQKzIg97fmDv/JHHJoHNqfNaZ5+Gfdv2WvWhOi9o6qk87oj5G33TrfATdhjt+7DRM7j2qxnXs/uWWI4ksHnziblxznR09GUWcdOLpuOeee/D6m6+ISKQjszEuvOBSfHrLbcUJF7rzaf/J30M+be2O8rsNtnwQgfaGOSevCzjyyHHImHnQplpxG2/v8eIMyrBFlgr1re3R195wOR5ae5fAOp3qxoL5yzzu/HIyRiWAqPktPXynoNqEQOrp0OIoK4g8RBsHHDB0m3IQ2USpQ5S8OrxUO8mISCA5DOXXYdF5c/Da68+XyOP7h05F72FHhnLqtcHPwcQGTJ52qLXtFilMOGR6FYHIOzxakxjEIN4aeA2nzj8eGwp0VQmw5x7fxOlTzsbrG17HiT88xt5uS9uH0+KAYqrYhUyhEw/d+mDpDqdqvd0nRJzvrHPXdPI6iykzDoRBZzxM6zr3Kb3HVd7G62xHrbgFl07O34nrbrgCJm3pLaYx85jTsd/eh5RO3TtzxXRJuvXmY1xnHORxVupQuhY7/OTokq9QqbinlapVicOB+skMiiQUYKpIGrYO9cY6bP1aJV9IArHPZyCHy6+60FqTsBfNv7rLNzB31mKY9hUaWgKPEtoUgWTRN21caSGdCKSv9yixddV6solG6c6qg5Wx8rdy0xWQwyAGcODUfZDPfIyiiCSIJDrt8yrA0cdOxR13rhF3epHvmTSxD317z0AXNkEXusUOJ9qp5TtvaxdXiYP7KpPaBGJFblak99LLz2DJBbNRKA6Kya2DxhyKo6b90JOoKbqie6yIruL5MIHI4JqEQwvrfP3qIxN9qEQXYXALilgcmbrrLqNrO6dRJxCxiGtNpdx97+1Ys+ZacTCOzjJ/cvRnsGzZ5RjZtZk98q09+g3aWSHC4goHXCYQ0xgUTpsIpLd3BrJi5cJalygIKikfACAZ9EKd9Skf2Eghj4xZwOYbb4zOApApdmLOrPOw6w572us2dCFLFnPPOwNvvvECigbRVBfOX7IS2239FXGpOO1zUiPJIvLFdZh25CH2XVidOHT8ZPRNOrbGeyA5vP/hWzhn3unoX/++qMUuO+4pXkKkCx2HXz/fzibdOHVPgjyo9mGcqCxJyNxJJevsa7WUjjro0KNxrKkxNVEnEPvlv2ee+x0uvGghDHLdponOrh6xC+gz2+xAG08VnWrl6WT3bbCVsBWQwgB6j5mIFLIoGgYmHjIFvYfOEHHH/n0HWS/U0XsgBu1uonfI6ZCgIV6oKxMIjZ7zeO2Dl7D03HnoGAK6ciMw5rtjcdzRZ7pG9NbI//U3/yRuE6YHqGhhfZtPfR4XXbgaHemNy867SPd32QfUfNvaGrX//cO38MNTppYIZOrkY3HIQVOGLaJbkUcRucJ6LFw8S7yPQp+tt/osli651HWppDdRyxB0Y5pla2gVxgnqqLnO6SbZOsimk62fqjzV9LJ6cLraCCgSiOVQ6Rp0cqgfb6BFc+tp2jNOmY89dt8n8H0MmSlo6zbY9aDz1+UPOckCxs7YD2ZqCIaRQ9E0kDK7rTWJ/IjSmoR1ftyhC+s68koXSy/g9WPOOafhvXffEGcottr8c1i5/Ap7yzGdJ3F/srj9zutx5y/WlN4DOWjMYThy2gn+6zyeFbXwe/qZ/8RFK+eXDlqedso8fGP3/T1u97V2h11+1Qo88ZuHhEJ0RT3tbttqNL3xLrO7LaappgR7VjMQY1IOTeeahEoddEdbbnlBkYSKngmabUsWrUgg1rOx5y6chTfffrF0FmPcIZMwtZecKTlectWVkzrWmxLk7CxnRr9bb2HTLiTrCVPnQ7/Ryet9p+6DHK1JlD50Z1Ye9/7s39B36vdLC9sTxk/CtP2PRhdGuF6oC5r3z+Gn11+KR9beWyKEhfOX48tfotcLnXc03O1Nk2Lrcc68M/HGWy+JLwxzJBacu9TO4zhyql/lnSbW/VMOHhRbZXHBhQvx3Av/ZcvpxtU/+Rl6NtrK444tmia8DTevuUZME6ZSneLRq53EOyqkp4O1VYpzer78hoebNuNaTG/JfhGpUrqdqZcyvmtuHmd/ghywjHwZGbocuYoclbSRGpUzeyKgSCBZrLpsEZ586j/sdRBg5512wzmzFyLleneikkTcQ3HL0dHiNUUZ3+vbD9lMDrm0fYusrSKdvF5781p0iHMRzhI4OUgilCH0HX2YfUOtdZPtlAkzkBbTZvRKneMoqy9BKv/+1NP/iZWrzi/dcnvgAWNx5LQTgapzGO51FJry+vNbL2P+/DNQNGn3VAajt9waKy66Al2dNJXlOPAiLvvxJdh1192w/fbbY/ToT4r4Z2BwA1555UXcdfe/4tnn/htGqiimw7773QNx4kx6E77bIoXS1SoF0DTh8osX2GdrgB/8YCYO2OfQqsjD6/FYApJIjUhGJkrh3qELAZ3kETaa0OFUw8qQyUdpZE+OiwFn1fZgd1vJlKerbVnOcASUCMTEAA4/cgyK6Q0opqyr/DpSnUgZ5Ojt69ntMrLZHFLFFDqKdMEf/ZFOcFvvVOTTQDaTRbYjh2yH9Ra2++r1rlwnejaMQme+s+KacVOkGwTS9OKd/TiQuN3XIgdxM7xJDzDZV9VaoUKp1nQjLz2Ra12R7tyyS6e76eJA+knnVZz9szbhiDz2x6C1FfvWXofYxLsmtgxRHt1XRTnoRl3nNLuT31p7KetHhxW7cPut9PCT/RaISEpEmcMxx0/DhsH3REwmzqJ0jACKTpRXy5ypLTpw0z+vqZIbpQvITD5GkS+b1xkgNGZEJbsYLVtbTudPIFGxlomqGP/aCNQgkOFz53l8jInH7ods53pkUwUUMtZLdP396+1rP+h9HlM8kkSfrnwa23RuKX6KkUSxB3ff9UcUzZHicaJCyhQL4Rb5WA70ow+fF2NmCkrEmWr7IaPSTwPonXyadSutAUwc14vJk78jyMN5csIQu8TcH8f5ZbF85QL84Rnr8Si6hPH88y7Btp+je66GT71VQ0d7sorYYE9lvWATRCfOnr0Yu+5Mb6mTjBz6ptFLgi6SKgmynZ6Zxpe33w2nnnImNu3ZDL19ffaJd4fwiHzoavkhMXXlEIglxpIhTskL7KrbyX5QSuBJW5LtqS6/+809CNMqoEygifw+DHzLTmjd647b73QNOBqLSKI6tSCHJeP0oozKo+R1dA+SIYuRU1fZ9EHYtcv3MjaiCwtFAhnA9489CH/d8A6GMnnkU0VBIJuM6rEG7uTBi1ZkQFf5deTT6BnoQlfBdnqFHhQKW6NYHGXpL5xUCrfdenFp6aCn5+s+dbOnaoRjdc56WO90COlmFuvWv+D/bpEBPPjQr3HdDZdZTtkEvn/oZPROmuL9al2VFs5rfFTPN956XWypLVK0A2DUqM1xyYorsPFG9JZ6DtdcfwXe+b8/472/vYP16/sxODiI7u6R2GyzzbDdF3bAd769L3bawVlvIQnW4nr5DXQCM4/JU4+orKsnMl6L5NabKbfecodrXcVvs3HQUfCkvq+urD3QKF3V4qxztT6BuB1CFGca5FjinH5TqUOQnn5EpeoUZctRldtO6Y2ijaLMWQZ666MI2iZLI3HnjevyKoUzEVVetbBOSZTXJWiOv8PzlVHvP/o0RbWyFKUQkW28o5iysV67cByL42Dta9vF1JWtobgskUbpKfT3PynX7k7Z4j0JizNF9OPkNgv241XWscbhH+euKscheqVxnLbznVeaWuq6p3lkiUOu+kmmcjZjCHTseXG6zoY/cgjEST5yGnCqVkNAiUCsqMGGoPSKoOIIMI6pdFrysEnE+anaUD09ewjHrzQqMWgVKIv+9c9aqzC2r6bptjg/IthzypNhfpnIpVpnW27pz7He7FtWMMg8yt+33vbkOG0mqmwmn6gItmZ+pUX0CgiCZjbsxEEOoSyzyiHIZxTk4eyBckhO/C2Ec3WmqmRIwNm027PxTijSLjQR0ch+rLT9/dZ6jMqnFPU4T8qHqKdKed5p2YFHx7A9JDD5tG47Ny6BJIS5yghX7LWi6Mc6MO45YRVUDYp8KicBg3JQ9EG7wXLoX/es/5pPsJhwKeypO4uzKnfPhRMYPlczHCgMXzvOSQgw+TS2HYQnkLD1UogswhQRn3jvEbc1Hz/s/GAY1ZXyEHH1bLKTeIzKWvNR+0iv+bjEipiJznOm7LUftSI5NSNQVwSYfOKHu2EJJJgIajj0YWfhdQGZ7Ii7VAstaz4Bu93EKkvV4n3Vmo/KhF2kFnB2FIshaSRJnJkRkEKAyUcKJjqPV+OYp0tGsEOXKzD+VHJz83SZiuWPVN2gnPzY60kk4hQSsGjvtx6ksk4k1obsMjfZaEeYBj1+pYodrflYu91Uyq5e8xG7sUoHRNV1iL1tuIC2RqCdyIcJpFkJZNgBwnj7bGljsb3mU6CzjiGK9D/n4y+MDlKmjTzW+a35cIQSoiU4SyMi0GzkI00gjQg261R/BOq55uPsiHNHPta78ZmKyTUDQ0ilBrF+3UvWzjsXszVP5Fz/tuQSWwuBIPKRnGxSAoUJRAkuTlxvBKypRrrCxH4x2d6w4F6d8Z7isliECaTeLcbltRMCTCDt1NpNWlexSuc+6GNvIiid81GZwmJGaVIrYLUbEQEmkEZsFdYpPgSYQOLDllwYfqkAAA9BSURBVCW3HQJMIG3X5O1TYT5o2D5tzTVNBgEmkGRw51IZAUaAEWh6BJhAmr4JW6UCQedrgr6vjQPPXLWKnXA9GgkBJpBGao221iWIIIK+t16uc7YyVj9GxATS1sbFlY8JASaQmIBlsXVCgJmhTkBzMYzAcASYQNgqmhsBJpDmbj/WvqkRYAJp6uZj5RkBRoARSA4BJpDksOeSGQFGgBFoagSYQJq6+Vh5RoARYASSQ4AJJDnsuWRGgBFgBJoaASaQpm4+Vp4RYAQYgeQQYAJJDnsumRFgBBiBpkaACaSpm4+VZwQYAUYgOQSYQJLDnktmBBgBRqCpEWACaermY+UZAUaAEUgOASaQ5LDnkhkBRoARaGoEmECauvlYeUaAEWAEkkOACSQ57LlkRoARYASaGgEmkKZuPlaeEWAEGIHkEGACSQ57LrlFEXDeJNFVPedtE0eeW371d7Jl1pIRt3y3jrJYha2nLB6cLhwCoQhEttFlVeIOYj2GxJ/WQKDR+0e1frX6H7WIqm0GyWcCaQ07p1qEIpAo1ffqXLoJRGYEJZPGr55R8nqNIsN00ihtwHnjRaCeBBLGdoIcfND3Qeip5JfFSpXEgnTk7/UgkDiB+BlGFCdd/aypF1Rxyw9qHpVOFiSLv28dBFQHWE7NZR2srN3JpqtGPmy+uOS0jmU0Zk0SJZAgow/j5FXyqKT1ihyC9K/V5Lo6WmOaFWsVFgFZu5BNV2u6qJb9yhBZnE4/TP3CYs75wiOQGIHIOF9VB6+anmBTyaOSNqhJuIMEIdR+36vaRLOn5wFW89t4XQkkjANWySMzdVVr1BREamHk+5mIaudvflPjGuh2mCo2pJI2TNQSVj73j+buF3UjEBUi8HPysiF3EBGEIRGd5FEd+dDvqjo3t9mx9rWctIo9yDhumTSyjtxLtyjyZcv16h9e02wqlsV9TgUt77R1IZAo5CEzzRRVflAZOuRHIa2wzcwdJCxy9csXZq2hli3F4eCDCCLu/uFHqEwg9bNTX6I3Y/YyQcYnA0GQDB0GXEuGDvlMIDIt3X5pgmxbBpFaMnTIrxUx65LP/UOmpRsvTewRiK6pHz8nrtO5e8nSpX+YDiJrLn4jsZjHBrLqcTofBHREH17O3Rmx65LvV4ZXtXTZnAwxcQSSfNeKlUB0OnevaSbd8mt1FF0dw2lymQ4iax46ZcmWyemiIaC7zbzkxV2GG4Fm6h+O3rp1jmYRzZk7NgKJw7m7HTw1fhxl6By11TIJnZ07Dhya05ybQ+u4bKzWiFyXs6xXtKurf8SFdXNYWvxaxkIgcTq0uA0ibvm6I5A4sY7f/NqvhLjtK24HH7f+cfYPZ2qv/awuvhprJ5B6ODRdoxMvWJu1g+gaYcZnaiy5HrYVdxlxE5ROAonTT7A1WwhoJZB6kIfXOoVO59mMHURn/bljxIdAvRxaXOXUmiLTPbqPWoeo+eOzgtaSzATiak8vAoyLFKMaeFx6tZZ5N05tora3Sk3iKCuIPBqJQOKovwr+7ZRWG4HU06HFYSB+MuOqV5Q6xKVTOxl+Pesa97RSdV2i2JYfLjL9w8mrIyIOW4d6Y11PO2rEsrQQSL0dWljjqtUAjkyZKxMapYPo0KMRjbKVdErCoenuH7XqEFf9wtYhbL5Wsrl61iUygdSbPOJYA5Gpg0walYYLa+i1iE6lfE4bPwJxOdcgzcPalpdcGVkyaYJ01hFFxaGHqt7tlj4Sgeh2qrLg6zQU2TrIpgtTB9lIgslDFt3GSKfTTlVqpLNcWVmy6WTroSpPNb2sHpyuNgJMIIYhEJJx4jpJRFUWk0dzdeUkHZquslXk6I62VPqHip7NZUWNr21oAlFpYN0w6DKYMHUIkydoaiCIvHSVqbsdWJ43ArqdqSrOOvpHGBlh8gT1jaDBna4yVTHm9BYCoQgk6UbTUX5YGTqcuUrZKmnZqJNHQCd5hJWlw2bCypDJR2n8Bk2qdZYpL3mraF0NlAlEtYFrQRdWlg6jcWQEjf6DRkh+u7ZkOohM2Trq2rrm23g187JpnVrGbTN++suUK0ak9pSwu87VeVUxkulLYTCWrVMY2e2SRwuBRAVLtSGjONUoed31rBWJBHUQ2foGyQnCXbacIDn8vTwCUdssqCSZNo1i41HyOroHyZDFKKiusnL8MA2SH9QW/H3IKaxmBi7IuJu5bqx78ghEdWpeNVB1dFFsPEpeHmAlb3/11kA5Aqm3glweI8AI1A8BXQRSP425pCQRYAJJEn0umxFgBBiBJkaACaSJG49VZwQYAUYgSQSYQJJEn8tmBBgBRqCJEWACaeLGY9UZAUaAEUgSASaQJNHnshkBRoARaGIEmECauPFYdUaAEWAEkkSACSRJ9LlsRoARYASaGAEmkCZuPFadEWAEGIEkEWACSRJ9LpsRYAQYgSZGgAmkiRuPVWcEGAFGIEkEmECSRJ/LZgQYAUagiRFgAmnixmPVGQFGgBFIEgEmkCTR57IZAUaAEWhiBJhAmrjxWHVGgBFgBJJEgAkkSfS5bEaAEWAEmhgBJpAmbjxWnRFgBBiBJBFgAkkSfS674RGgB5ZUXwRs+EqxgoyAJgSYQDQByWIYAUaAEWg3BJhA2q3Fub6MACPACGhCgAlEE5AshhFgBBiBdkOACaTdWpzrywgwAoyAJgSYQDQByWIYAUaAEWg3BJhA2q3Fub6MACPACGhCgAlEE5AshhFgBBiBdkOACaTdWpzrywgwAoyAJgSYQDQByWIYAUaAEWg3BJhA2q3Fub6MACPACGhCgAlEE5AshhFgBBiBdkOACaTdWpzrywgwAoyAJgSYQDQByWIYAUaAEWg3BJQJhG4njePj3HjqJV/1NtRaMuKW78ZGFSvVesbRDiwzOgKq7R5UYrVduOWHtZlaMuKWH6aPhK1nELb8fTQEWo5A/DpvLYIiCGUNNEh+mM7h5JHVIVqTc+64EWh0AqnWrxZBqfQNB9cg+WH6CPeNuK02nPymIBAVIw5y8EHfB8Gokl/VkXAnCUK/Ob5XbfegWtXbwasQgJfuKvllseK+EWQlyXyvTCBR1KxlLEERggyJyDp32XTVdQ2bLy45UdqC8zYmAjJTrDJp/Gon69xl0wXZdljHH7b8xmzV1tWqIQgkaIQlM8Wj4txliCyoY8joJNuJo8hqXdNsz5rJOk7ZdLWmi2o59zAkFUYn2T4Sloja04rqV+u6EYiKg6fqN3v6Wk2oWrf6mQOXlCQCqg642dOr9BEmkCQt07/suhBIGIepkkclba0RmV8kEFa+7OiKI5DG7Bz11EqVDLwGWSoRhaxDltVLNp0sprrlyZbL6dQQiJ1AwkwXOVWQcdwyaVQdOaUPWpOR7YBeZcvoXAs3lSaOoqdKOZw2PAJhpov8+ohXe0dxxjK6RZEv2zdl6qXaAtw3VBEbnj5WAolCHrIkIuOMVULl6mhApgOpNoOMzkwgqqg2Z3od9hXkwIO+D0IuKL/7e11OOahMrwgsqB7V3+vSVbXcVkqfCIGoNFwtZyvjiGUaS9VZq+gvG4HIbiSQqY87TVRdVcvj9GoIyDjKIIm1ZOiQr+KsddmbDCmp9lsmkCBLUv8+NgLREX2oGG4Up6lqiFE7iQzxqerk1/RRdVU3Kc4hi4CO6EO1j4S1B1l7DCu/GjMZ4pPVifuGrEWqp4uFQGQcpIqqKoYS1oBlyggrO6hzON+HkR+kdxiZKm3DacMhIOMgVSQH2QHJimoLugaFMvXSiY9ufySjf7uk0U4gcRlZ0h1ERwd0jEqXQceFdbsYf1L11BV5yA5MGtF2g7DXRSBxYR2kf7t8r5VA4nZoQSTSLCOsuAkkKg7tYvxJ1DNuh6bLtvywiVt/v0FWWJvWRURJ2EozlKmNQOImj6C53rAG5m6kuAlKZwQSt6NoBuNtNh3r4XzjLqNedqfD8euQ0Ww2Vm99YycQHY5dxslHLSeIPKKsU8hONcjWoV6duN7G2Orl1cuhxVVOUB+RtV+Zdo5ah6j5ZXTkNIAWAqmnQ4ujrKCO4TYUHZ0kSh2i5GWDTw6Bejq0OMqS6SM6+oaOKaw46p+c5TR2yZEJpB5TV3FHIDKdo7oZo3SWsCRQb6wb23SbR7u4p5WCItwotho07erVCnGUJyuz3lg3jxXGo2kkAknCoYV1vn7whSEPkiVr0F7lhq1D2HzxmA5LlUEgCYemewSu2kei9I2oEYjuusu0cTunCU0gSZAHNZROJyojSyaNqgGFkRkmj6penF4vAkmQh1cfieLQZRyyTBpVZMPIDJNHVS9OX4mAdgKJYqwyjaPTkcrKkk0no38YEtRdvqyenC4aAkk5NJ3lysqSTSeLqKo81fSyenC62giEIpAkHZquslXk6I62VEamKnqysTcOAkk6NF1lq8hRsWmZVnLLCxqUqugpUzankUdAmUB0O1N5Va2UOhxqGBlh8njVTUWOSlpVHDl9fAjodqaqmupwqGFkhMkj00dqEYiuMlUx5vS2PzaD6N2FlE7yCCtLh1MNK0MmX62Rk2qdZcpjQ24sBHSSR1hZOpxqWBky+SiNn9tRrbNMeY1lIa2ljVIEUssB6oRFZcThlCvDg0H6B8mQIYCgMvxwqi47rJxq+UF10tluLMs/QtaFjUx7RnGqUQctMgSgatsqZKOCswyWKvLaMS0TiOKW3KAO1iidQ4VY29Hw46qzavur6iHj9HQSiEx51XUIKl8Wo6CyZeXIDtpU24LTK55Ej9pgtQAPMhYnb5ADr1VGlLxuubVGWbIYBdVXVk6QEQeVE5Sfv1dDQFe7uUtVbcMgB67SR1TL9uqnqtG1bJlRsZYtR80C2iu1UgTS7NDoIpBmx4H1ZwT8EIhCPoxq+yHQVgTSfs3LNWYEGAFGID4EmEDiw5YlMwKMACPQ0ggwgbR083LlGAFGgBGIDwEmkPiwZcmMACPACLQ0AkwgLd28XDlGgBFgBOJDgAkkPmxZMiPACDACLY0AE0hLNy9XjhFgBBiB+BBgAokPW5bMCDACjEBLI8AE0tLNy5VjBBgBRiA+BJhA4sOWJTMCjAAj0NIIMIG0dPNy5RgBRoARiA8BJpD4sGXJjAAjwAi0NAJMIC3dvFw5RoARYATiQ4AJJD5sWTIjwAgwAi2NABNISzcvV44RYAQYgfgQYAKJD1uW3OQI1Hq7u8mrxuozAloQMOhFV5LEr3NpwZOFtBACzuNK3DdaqFG5KloR+H+LYDNQsnvDxgAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CbgcxXXuP3Ov7oJ0tSCzGPz8wpJgA5KI82I7j80LXKzIIIKDJCTZQGRwwJBgtmBjVhthsxhZkAjQAg6SETJYAmTQYuUlfhi/mDzCYhKMhQE71oIFktBydZeZyVfVy/T07e46Vd090z1zhg+GuV116tRfp85fp7YuVCqVCgI/ZfuvxeDH/FdGgBFgBBiBlkagEE4gLY0LV54RYAQYAUZAgQATCJsII8AIMAKMgBECTCBGsHEmRoARYAQYASYQtgFGgBFgBBgBIwSYQIxg40yMACPACDAChUqlVAHi7LRKd7eWs0WskLG2yqpeGYOJ1WEEGIEmRoAJxLBxmUAMgeNsjAAj0DQIEKaw0okw2AE3jQ1xRRgBRqBFEUicQMS5xEJBPeFURgUF+Q9/GAFGgBFgBPKIQASBKCKPBoUQzUY8DYIxj7bKOjMCjEDGEDAnkAZUxHvnSiMjF3+UJfQS+jjfDjSqaCwr9WlAU3KRjAAj0AQIEKawamvpdYpBl2g5jj3kgq3EIJPl+D12YtKHCwoiDZHqvV3v4bWNG7F182a8t3s3ykND6OrqwoEHHohJkyZhTM/oQK2E6r2n9brPZkybjjlz5qRYAxbNCDQOAf+0dugVfB4VTfI0roatWbI2gQiYyhVALHOIDcC9p50FVIpyBD59unCCZ7tI9vaehUqhhAKGgEIJRVjTYuK/YuOwM0kmucCzdiIMJ8rARN51a9ZaKygNCEVKlTLWrFmD1U89hddeey3QcoSOghAEMQR9HAJxMDhn+nR88a+YQJqtG0Y5QcpaoSkeFAdtKpuSj1q3KD2ZQChINzYNnUA8o33xv4I8ymXg1FMvRQUjUKg4BPIxt0an9l6CYnEvUNyLtsIuoDAon1WE369Y396PasrHSSvybli7rq4RiFP2iy+/hO/efTfeeuutYfqLNEI3YfiFSqWWQHyLHeLnKaf1ujJmTmMCaWxXSKf0ViQQKnk4A8cw5JlA0rHJJKXSCcRTqnB+gjx6xhyLSmUkUBnhPnWJQYQpbWUU0I8TTvpTFCp9LoGUPcQxNDTkRh+CQDo6Omp+B1W2WAHWrH7YCAenbCHDDWCIUcwPV63E3y9YYJGgHTF1dnbKqapDDjkEY8aMwb59+/C73/4WL774ImbMmFGNQPJIIKUyUBoExHcWPm1FoG0EIL5z8NFxpElXpxERiEl9OQJJuuXrKy+cQBTbg+RjEYX49BWOuQSgzZ6iEm8b6Rn9xygWulGuDO/43ihEGqAgnojPjh3PyKeCqEw+Tnkif1H4ozZrOs75DK+2VcMfrnrcJQ/xW5DF52fNwpQpUzCivUqgUjcRoZVK2LFjB8aPH2eLrq27NwIRujhTWI3blRWw626gH3hvNzCwrxZq0aj+rdpO2xZsOWn87uwARo8COjqHNb0ubrrpTWyNmsfE8YbJbgRxSJsP2bofRx+OQKgW1Lh0ZAIx6XBOpCJfWVUGhG9pE/5F/CtYBsAPFv8zlq94xEXgsbXWCF8ukDve2PP7g+P+RI7+rVWX6jSYQyheggh77hJV2wDe2v2yxXZFoCR8vF2u4+5FxPLaa1twyaWXynLF7yMPOxxzb7kF48dbxOHWyakbkdymnfrnqBQLEKQ7Y9o5+Is5s6trOmK6rzBUnabzbvWql70MlfDVk05CT2kwck3KaggbMQKByDUwjfSO/B2dHbj9Zz9tOgKJak5dJ5okGclmDXvfnE9pXT0pJpyGTEq5OmmSxlun7KC01PaKW46T32gKS6dwJ1IRjrkgSGMAQP8Q0F8CSkN4dfEiPCwJxCKEm9autQnEDgsozCCN3HFgYnHF9zuMSdpG4iOHHoEdGIOdHZ3oE+GIZ43Gm81PTI5a4lxKd6mMsQP96D3uOIwdGEDXUEmOyEiNWbTSFdxQrIJKYTdGtG0DinvkxgPH4QrycjYiCIct88m5OD0HHpje36iVIvaOaMctP/kJ0G7hEvvjnSr0kqx/CjGMgHM2hRUbL1uA10mRbCqpgiMiiwSLyLWoerdH1sDSJpCowbVyKaE0BAz049JPfALj+gfROVRGuVC2F5ItAihUypIKCmizHDBhROt1iEKe9XFjCPe3tW5h1UCMgPuKo/HOiEOx4J8eATqA/uLwmZm16zfh9jvvsHUDbr/9dhw3sepQhd/vHLKIcdLYozEOg+hywisZ0Fgn7r0f79+qeBbstKLu/Vjz0osovfwc3n33HfT392PcuP0xcsIE4P0H24ShQbBeJqQQspO+sxPoaUfFO2Mkio2x+S0skjWJcLPWmZLSJ0+jWp0oIcl6tbrjTsrW4soZTiARPXlgaBCTp0wJLdPdiupMt/hTVsrW6rtY55ALs2WsXLwYjzzyiLsza/k6e3eVSc0KwDu/+hUWLVqEF154ASI68H96enrw6U9+CiNGjMAjjz2O/mI3BosdeHr9ymGpxYj/8ituwkuv/AKFcgUf+chH8O1vfU1OOTkfUYs2e4pOhgriX+IU1vTeKXJKTHzOmXYOzpozG2/++y/w0LJHsfC+R1GB5bmtXV0CurI716zDA0LGb7b/f6sg/0GdqN9tQKUdGLS5uCjS2iQr1o+UAwaTNrTz5JVQVE5S1/HpOGgq3Codg+SE6Z2Gfk75YbJN9Fdho9suKnmt8tyIQPzbb6Vf8iwEUw/4CSexeMliPOwhkB+vXWfsmB5+ZDkWP/CAJA5nN1jQt3d6ydlS/OO1a+xyq4vdm7ZsxufPPRcQnrNcwQ3XXYeTTjgx0jaojs+7iC4EnnZqL3bv3o1nn31W7mwrlQ4CyvsFliV2qt16y1xMnEjfjTR27AnGNu1urxZneQp92LHzBbmGTi9dr2jvLj2R00vYkZKcyChNZlNUReXcdB1Vkg5apVtU1SgEols3lVWkoW9YmXHK8stMGgcVTo18XijbtaX0ORGBnHHmme6oWGQVfxtGIJE1qk4xJUkgS7+/DEsefNBy9jahHXnkkZh47LHoGTMGpcFBbNqyBf/5yivYvHWrTONd1/ATl9Bt7dr1uO3O26TMEW3tWPnYY9ivq9ueWgtGzJmeUuHpJxBHZ/ldGIFjj/4THHHEH0FETNu3b8fPn3sOW7dudSOWUd37YfGiRXjf+zroDjampcngqgKMHXMcypVuoBJ/bcTZVRdTNZk9aFfdsM5t/0HVPqb6qByRrnNJikBUeqnqG6R3Urql5dR1sVZhQH0eF2tvOY2qA7muOgQina5vXt85DOccJLww5DT1sFkdMSVTABYtWSojECm7UsE/rVtdO0Vk9/SoUegLL/8SV159FUr2jhFxjcg1V1+NSROOCsThtY2/wb333osXX37ZcjwA1q990i3XGQHf8w+L8Pjjj8tZqSMOOwz33zsfO3b0Yd26dXKK7I233sSuXbsgzrKMHDlSngWZNGEient78cEPHuSW7dfdkX/qaafXbIMW02pTTz8dZ599Nt63/6ga3cXM35IHLaysKa0KTjzxRFz/9auNCSRoN26U4TgEInSRUIv9Cj6HrPztW7oZM/bTFuHbcpT5I8oTa0fv7XqmZm7NkStvPhA/7OlVMc5Ii0S8GMZ1snHzO7royqGkN51iojrFMEdMiYacelPLojrMeqdLkowcH5tkHbQX0WvY0XOaOpxAxISStXfoDw6bgHKlw3YXRekISyjZo+qidIQFlOX0k1jkFh2+Yi+KF9wzJMMXyWUkIXYlifQVcXWKIAVnR5WV3snvyHO2nYrfRXn+xHEnVfll+7CgSFMotNl3uFjPK3JLlMhTq4/Q3/+x1iuqi/qOvlKOv34h9X3jjX+Tvu+Gm+7GMz97VuIjtjIvXboUBx6QpElEyHJuD7DJwxlQaBGAf+1fl4B86WvssQKMHj0ZFbnqLxZphlDAINowIL/dtiruxZ5dzw87ypIGihRHHObk09CnWWU6RKGDd7NiEVUvKiFRibeuBCLXmn2hyMIlq+xtvBaBrF+3zCYQy6f7t8/6wXn5lc24/PLLJUmJz6WXXIyppx8faRtC5uJFT2D58uVygl34tPVrh59sP/e8q/C7zf9ly7J3iTkEYROa2EYrwbZ/uwQF4Oijj8bcW67DyJG1Bx8tAgF6e2e5BCLOgcyZc4Y7LHYXye0ze4cd9lGph3eXmSjXOQ9THU3bBFcp2Avu1i63KAK2Kjh815r19/BdbTrPnXMfFQevmjItSf5dcqViGYPFAQyOKKNUFFvdgPahNrRV2tExJK7P8epcRKU8EqXyAfLbSyBvvfH9mvUaylRXUs4lrkOLm1+Su++QH8U5UPJQnVEUllG6UHRg8o1vqRR7CCulDgRiOwevBjaJOFNYy1escM9MbPBMJVkO03ZvATubxLOFix/CihUrpJsT14o89sgKjOyKXt51yhW7v5yLHd0pLBGM2Lr+5bTZ2L5zp6v5mJ4efPLkT+DjH/84jjjiCIwdO1LOuw8MAJs2bZYL4Cse/QH27NnjyjjlU5/CNX/3FSsqso+oOH7v1NOmQGxaFtpat/HOdssKmrJzd2zNOh9vb9sm054cMY3lXYwmL0THt8doCdQzH2JndAHYhT3Yjd3yv6JdejDK/mckOn02IdvNM63mOhf7f1yrqONiu44TDAKuUfkp5SYxxeQMHJKsO0X3tM28VeTXjUCCABX9f+GS6jZeEZ5sWLeePDct8n/5by7Fq6/9Uoo/5phjMP/Ou6rz6SFvR4xevLdH8Chi8menuJsE/vfH/wzXfvWr6O7sirSN/9r0O1x9zTXY8ra1UC/qNG/ePEw4+piaelVQximf6XUjF+pVJkL3r133dfzrcz+X4v/HoR/Ag4uXWO8jCagvdVdYaKViCwCGMIQ+7JPf7sFIN7apkr2f9gdRwj704WsLr0VfRx/aKgXs1zcKd1x0O0ahBx2ovUImi502rjNrVH5KuZQ0cYghbflZtBcTnUxxMinLn6dQERP94mOwoujdSRS2BhLk1OyBoizWSyBChs42XlH+jFkzse3dd6Tz/PPPTMYVl1mj/aiPn0Ac4vLCIKbaeidPRhklKXvW9Bnk69b/49X/xCWX/a2MnsTI/8wzpuLSi7/sIxDrNl7nM2PaNFww54vKNhW6z7t7Pp780WqZVrxv5Ic/eFRZ53DBVcIMMoOw9nPlhRJM9U6sPYXd2Iyt2IVdco3LXse2px3LuHnZze4rAeQalj3l0lbqQPdAN+ZecAu60C0Jox1taJf/14ZCahuJlc1AThC3czcqP6VcSpowoCh5KWniEBS5ERucUDVVGGcKKm7VUieQMAUdvxOXQJwoQZDP5z73OVx04ZeUzjQsAvE6UJFmyhlTsW+gT1bhnLPDHbzfyYq8F1z819j4xq8lgfzBB/8nFt+/MJJA3AhE8U55Ifu+RQvlVJn4iO3FT/3oKfv0vok5RBOIkFgbQVTf5+IvzZkOtL6rayd96MNXllyJfR19FoHYazLSBgplXD/rencNxkswHejESPTY01aGEYfz8hrVqMIEOkIeUyfoiG5Ufkq5lDRMIAQjUVwZ00iCUGmfwBTWZ2yHUJYvlPJv4w3bHSEU805hWXu1CtoRiJdAzjrrLFz8pb+WdY7yF9FTWBZkIs05s2fh7W2/l7//4vQzcMmXL1GSk5P39u/ciTXrrHu9gqIEJ3oTnVBgRH2hlMh3z4J/wMrHV8l8o/YbiVUrV9USiDPEV7W+53nUTNUu7MbWYRFE7aL7zUu/aUcW9tU05eoifudgN+46fx460em+SMx5oVj1WheLcMSKkENEIsLQjjgCKqKMojRw0k0ax8lKOzZYAPfqaJqfko+ShgnEQiDLUYSuTdfYVyUGvVlOMJpAopTzOnJTAjl7xnS8u2O73Lklzl9cfcWVLoFETZ+pTsAL3b5y5RV4+ZVfSEd94vEn4MbrricTyIL778NjK38o87YX27D2qaeHRSCf7j3VNSwdAvn2Hbdj/fr1krgPOuBALH1oaSSBiPUWsZ4whAEMWRunhzly/zsivW+M7BcRxAOXY9+IfjeC8N6+K+p44+yb5ORUUd7oJQhc/J+1LVusVxyEQ9ADsTuq9lP19/7dXsMth0QECazZxOlQ/rxxnCwTSO0wkOqq4mJu0v7NShAqLBKIQKy36lXXQM63y1RfdEGJBJwKBPkF8TfvIvqHj/oQ7vnu/FonHzQiJV2hUsb8e+7G40/+SNbvA4cciu8teSCQQIKmsO6cdxeefvppmXf/sePwg+WPRC6i66yByDq/+qo8h/LHk47DHd++LZLYBjCI3XIFQuxm2oV+CCKoOngLoiJuXnqzPVwS95WJRhX/ltE1ICKI76AT3Z5XEdc6fIdwgr5FHNGNLrSjXWWPTfc8rjNrVH5KuZQ0zRSBRJEEldyazcBzTyDfveduPLH6Sdku8rqRR1div27P9bEeAnEcvXfqrHoXlv8OrjL++Sf/gm/ccqtLkA8uWSJ3Pak+Qv4lf/s30skL+ROPnYC77rgzNoGItYh3sR1Tp5+JgZL1Jsfzv3AuZk+d5aoU5MDd3UyLvop9HQMYbOuXZyicCMGKHNpw3WwRYTmL3NZzseIhViEOwvvlWkSV0O0DmjlYyFa1V5rP4zjZrEcgfv10nCgFF0qaoLZLKt+waJn4bpQ07SlrslMgkDmRdfQGBElEIM/+689x/fXXywN5Igq65OKLcebUMwNG5LWLxWIdYdWqVS45BO3+2jfQj2kzZmD33j2yTr2nnIq/u/Iq5frKlq1b8IXzzkNJ3j5ckO9Gnzl9mpThvbLDuwtL3Mb7xTlO9OaB0AOYiCDuf/5+3Lpwrrtl994FC3AEjnAXob+x9MaaRWpBCGI3U1d/F269cC660Ik2tNWsNdQuflcXyZ0YQ0QO3eiU6xHpXaGYta6RjD6mzswpPW5+UxKilktN50eTko+SRiVXPPcSG0cRydi1a5/x10D8U1j1IxBRCXErvNjK+85262Dd6FE9uGf+fBx6yKGuw3ZG2uJ7z94+fO+hh7By5Ur3uvew7cOS4B58AN9fbp1SF4v81117LU468SR5GdQwA7dRve7GG/Ds//uZ/NXV0Y2HHvwe9t9/rHw1lFiDcNYiPn3WKe5ByZlnn4M5M2oJxDsJKJz5b0u/wdx/vFXuZvKSkfxhn068YfbXh61B1O5mGmmfn1BPMdaa2vA1CtKaRLL2mjtpJk7QW8m4+U0IJMjJhkUXJvpR81DTReHlNxidKCl3xtYAhdOPQCIWNXUikChs1m/4Mb51223uXVhjx4zBFz5/nrxscPzYcdjbvw9vvfEGnnn2WaxevRq79uwe5vw3rBHvIRlOCjve24kvXnihXKgXHzFNduGFF+LMM85AsVDrhHe+txPz5s/HT575v5aDrwDnn3suZs+0ppj6MShXIqyz1btw8kWflFNEwqiP/tAxuOiii/Dhzg/j5mU3Vq9GgX0uolJE52AnXl77C4hdTe2FIr47bx6O+sBRNS+sCprCsnYziTMU4r/08xNRBCHaTiyXO1epNMB2c1GkiRNMm0Ac+X5najo6j0M4cuwTMjUUJle1YB1Wv1wYTM6UbAoCEc7s1tu+jQ0bNsiDf0Vxv4h9j4cwNsdAne9iexsOPvhgbNq0yW0uQSBBW3+F7Ff+4xVccdVVGBRvVBRRT3EIYz4wGsd99DgccMABGBgYwJtvvonnn38efQP9rsyTjj8BN1wuzjhYEz8D9snqaxZ+Df2d+zDUJuQ521etNzCKqThxJcvBB74f4r0fO3ftwEsvvYSNG3+Nkft6cPD2gzCqbxQumDMH06dNd8uq9zGHjG12ymy3ywKBBEUhuoCpRu5Up06JCExlUWTr1pvTRyOQPoFElJ9UBCKdeqWMBQsWYNUTT7iO2CraeVWu9evwww/HZZddhp/+9KdYLt/FbkUKUSfghZ7P/dtz+ObcuXI9ZE/Xbmwdtxm7u3Z5alc9F3H88ce7twE7r+QVi9ZtpXZ5svoW+2T15LMm19z1JQnEfp+JHzbRqcRFgvsNduPiv7oIZ3/uL9m2c4BAVghEh0SCIk8VgejIVzVb1NkxVV7nOUVfqixOF45AQwlEqLXIfiOho6LOVSZB1frlr17D6qeewosv/Tu2bdsm362+//7749hjj8XJJ5+Mj/2vP5VrEff+4/1Y+uhDGGwX18mXseGxdS7dBC0qi4dv9/0ey5YtwxP/8gQ+9Kmj3LUIP1FNnToVk3omWeTk2dUkLuBwTlaL78/KyxStQ0YzZ86Ur6xds2aNfIGU8/FGUOJ2X7FJ4Kg//CO26ZwgkCUC8dpUEHxRi81Uh0yNHijyqLK8daHIzYnp5EJNMoEEjQrkO9I/O9latK0UA0+iU1BwpkMshxv8UU+ZVBd5vfKGjeTttYh5K+Zh8ROLsat7Fwbb+7F+gUUgzjuHvuE/We1coSummPq7cO4p5+KdN96VL5Tq6OzE+8aPx8SJEzG2fWxNkd41Ce/JarETSuyFctYSCnbNy5UyNm7ciNdffx07d+6U03Hjx4/HhAkTcOABB4ZemkjBmdPUH4G4BFJ/ja0SVXo32rmr9GsUbq1WLplAgoB5Z/u7mHbONJdAzjvvPHz+nJmpYBhEIN47mvzvrfAvJnuVEjuh/v6Je7Dx7V9jb2cfykXxwiG705TFOgRww6wbq1dzBJ6sts5FqIktHhxpy4+nHedWIZBXR6ciCB7pq1q+NZ4bE4hwbC++9KJcXHYO44kXO0057TNE5NRXV6gEWXc0bZY7m/wvRBKj/ZuW3hx49Ub7UIfcyfTc/3nO2tFUalNOYXkJiXqymvrKWJPtsHRiiY9zzRSB/aPei/YqW8jq8ywTiIokatqdD9Fl1cQaqpcWgVjnKarvwfZeGCgWohcvXChvno36VJ2ldSaiD/32eyJqD7BFXY3hrFHIW17FHU3iXIQ4WS224dpvThJTauJkddArZ0egE8ufXIHV3/uR3NnUOThC6xJHf/2oRJFkSzOBJIlmOrKyQB5Jbc3liCMdG8m7VCWBCEd173334oQTTsAfHnUUOttHYMvv38aTTz4J8UY/J/o48vDDcd+Ce7Xw8EYQ/ruZnN9BJ6udMq1bXq07mqq3utpzuPZf/ApZe6WKeGDZg3j04ZUy+mgrF5UEQnXYyZ+PUEUQznOnproHBMOaTH3Nu1ZjN3Fi70YHp5o6ZyPiQKOKIkwdfxbILw4unLc+CJAIpPe0XvftDt7OIt5ZXS6WUBoxhFvvmIsJR05wtdaNILx3M3nfFxF0stqJhKxbXmvvaBoWHQRMuZhuH3bKjYywEp/iYQKpT1cwL0XlxIXkpBz58Og3astIcnUy1d9cA86ZBwS0CEQ6dvtgnpiyGmwfRH/PPnzp2gvxsQkfhbj11Zky8kYUNy39pjv1JabA5GE/tMmT1f5bXinE40xh1a5FqBxttTlEl1vywBJ8f/nyyLuwZA4Ka+ShpcN0pIZW7ls68lzZdHSPSyCm00zp1MaSyhFImug2j2wSgdz5nTvxq9dfx+ZtW/De3p0odAP7v388jvuz4/DZ6ZNx16J58p3V8mR1wb6l1b3tFfYtr1VfLN5PIQjGiiAOqrnl1RxazzZexVv9RBni/IkgEKejhJ4/CXGwJgvfJnXzl5N4uUwgJs1Sk0dFACqCyeLongkktlm0hACXQCh+RNzlJN4nceWCq7CnezfKhQq6Bjpw6wXfkusQ1m2t1sd6s9zwFxeZ7GZKqyUo50/SKpvlNi8C7Hybt225ZrUIkAhEjnpRwECh9sVEQpR1snokRmG0fcsrQ8wIMAKMACPQCggop7C822D9r0YVO5+sO17FJR30W15bAViuIyPACDACzY4AgUD0IUh8nl5fBc7BCDACjAAjkDICqRBIyjqzeEaAEWAEGIEMIEAmkLCowvt3jjwy0KKsAiPACDACdUJASSCU3VmBuhpnrFPNuRhGgBFgBBiBWAgwgcSCjzMzAowAI9C6CCgJJHlo6CfGky+bJTICjAAjwAgkhQATSFJIshxGgBFgBFoMgQYQSIshzNVlBBgBRqBJEWACadKG5WoxAowAI5A2AkwgaSPM8hkBRoARaFIEmECatGG5WowAI8AIpI0AE0jaCLN8RoARYASaFAEmkCZtWK4WI8AIMAJpI8AEkjbCLJ8RYAQYgSZFgAmkSRuWq8UIMAKMQNoIMIGkjTDLZwQYAUagSRFgAmnShuVqMQKMACOQNgJMIGkjzPIZAUaAEWhSBJhAmrRhuVqMACPACKSNABNI2gizfEaAEUChUKhBQbx8TvUxyaOSyc+TRYAJJCE8TYzdJE9C6rKYOiEQ1cb+Z0mqRHHQSZbnl0WtW5Se3D/SbKFkZMcmEO4g0Q3BHSQZQ82rlFbsH1TyEG3K/SOvlm3pHZtAKNXXMSiVvEaPrCRonnA8jj48wlK1dv6ftxKBmPRzJpB823hdCCQKojw50aSIw8EjT3XPt5lnW3sTxxtWozgDmjgohdUhjj7cP+K0SH3yNpxAkhzRpwlZGsachsw0MWDZ9UcgLzaShp5pyKx/CzZ3iUwgxPZ1jDnOiMpfFHcQIvgtnizpyFcHTlG2zjSTIzuJfhLWP1Q66dSP08ZDoOUJRGWMaTp57iDxjLcVcqdhf7pTZjoEkgRxqKZ4VX22FewiK3VsOIHkqYMk2Tn8U3fityOfO0hWuoe+HirnrGtDWegfXtusZxQdNcBStYwuzip5/DwYAW0CaeUOkrRRcgdpvm6Z5f6h0i2qNcJsP83ptTT0bT6La2yNtAkk6RFIkiMsHWOmlqsjU7cpwzpIIzqrru6cPmRE5jtx7U+lOwih2qmqPeI447AIJCndwnRPQ2cVTvxcD4GmIRBdY6akp6TRg7s2tS6B+Ke9dJ1RHF05rxkCcW0obn5Ha105lPSmETTVbnX7R1B6allmrcu5mpJAKEaTxQ6SlN5s1tlBgGJnUdrGze8fdDhlqWyNUm7cCCEssgkjPYruFL2zYx3516QpCMRkmoliaERKtSAAAAtCSURBVGmPgCg6BJmYSX3zb6r5rIFpG5tGDip7UTltnXLrTSAq0jMly3xaVja0ZgKx2yHIOE07P9XBJyGf6hCyYW6tp4VpG+s48jQiGIreSQywouyXokNShNl6lplMjXNPIGkamals/0iIsiiuQwRx9ErGbFgKFYG4bdWo/JRyKWniOPi05VPbkNOFI8AEkkIEwgTCXa7REUTc8inOm5ImzBIoeSlp4hAUW2l8BJhA6kAgYdEFd5D4Bpx1CaZtHJcA4uan6E1JwwSSdQuNpx8TCBNIPAvi3JEIxHGy/khWZ5qTCaTaLJTFdzZjMwSYQJhAzCyHc5EQYAIJhomCCyUNT2GRzDC1REwgEQTiHwHqjGQoxk9Jwx0kNduvi2DTNo4bQcTNT9GbkoansOpiZg0rJPcEYurkqcZP3ZLrb0GKfEoaJpCG9Y1ECjZt47gEEDc/VW/uH4mYSW6FMIHUIQLhbby57R+xFac64jgjdZWSJjpQ81DT1WuA5ddHlKszc6DCkp/XItB0BEI1GB3DNxllUfLo6BA0ouSOkf3ubNLG3lrFze+P0Cn9Q8cJm+hHzUNNF4UXpb7Zt6LsatgUBKI7jaXTQfyOm+K0KeRh0rF165lds2sdzUycYNoE4sj323JQvwhLa+q0dfpeWNooPb16Ufpq61hiOjVtGgKhOGTH8IRhmXRsCjHoyI3TQbhzpNMhkpaqYw9BZcfNHxS5mtRRZW9Up+4vW+dth7p6q3TWlcfphyPQVASi6ixegzLtmNSOQjFeqiweVeW365raWZgtU+wqDC2qvSUxwKK2WFoEEgcnqu6cDmg4gTSqEUw7tmmYr1tPU/10y+H06SIQtx3j5qdENUHTVKbl6pCUCnmqLB5gqZBM7zkTiI0tj1jSM7JWlmzqiBuNmanePMBqdMvVt3wmECaQ+lpci5Vm6ogbDVNe9W40bq1WfqIEkqdRPHeQVjP1xtQ3r3aWV70b08qtWyoTCEcgrWv9Kdc8z044z7qn3Kws3oNALAKhbGvNKtrcQbLaMvnTS9gS5UwFR+j5a1vWOBoBEoFQOkieOoeAhAmEu0ZSCFB2C3H/SAptlpMlBMgEEqa0s2ecO0iWmpV1qScCTCD1RJvLyhICJALxK5znqassgc+6NAcCqq2rQRF81mvOEXrWWygb+hkRSDZUZy0YgWwiwAOsbLYLa5U8AkwgyWPKEhkBRoARaAkEmEBaopm5kowAI8AIJI8AE0jymLJERoARYARaAgEmkJZoZq4kI8AIMALJI8AEkjymLJERYAQYgZZAgAmkJZqZK8kIMAKMQPIIMIEkjylLZAQYAUagJRBgAmmJZuZKMgKMACOQPAJMIMljyhKbCIE8niJvIvi5KhlHgAkk4w3E6jECjAAjkFUEmECy2jKsFyPACDACGUeACSTjDcTqMQKMACOQVQSYQLLaMqwXI8AIMAIZR4AJJOMNxOoxAowAI5BVBJhAstoyrBcjwAgwAhlHgAkk4w3E6jECjAAjkFUEmECy2jKsFyPACDACGUeACSTjDcTqMQKMACOQVQSYQLLaMqwXI8AIMAIZR4AJJOMNxOoxAowAI5BVBJhAstoyrBcjwAgwAhlHgAkkgQYSF+4FfSqVSqh0kzwJqMoiGIGGIOC396i+4ShokqchlWvhQmMRSJQTDHuWJNYUI0yyvDDDVpURpCcTiAq15nge5QTT7CON6hu6fURnkNXoOjWHRSZbCyYQTTxNOj0TiCbITZS8FQlEp48wgeTb2JlAiO2n0yn8IplAiCA3YbJWIhCTPsIEkm+jj0UglKqbGJVKbr1DWVUdTPThKSxVK7fOc5V96SBhYos68sPSpmHPvAaSRMukKyN1AolSPw2jSwOuNPRMQ2YadWeZjUUgL040DT3TkNnY1my+0htKIALOIEdar1GUt2ydaSbHDOLoSRl1xpHffKbaujVS2WmayKhe6ZvmQCiqj3DfSLPV6bIbSiBpGB/FMQfBo0MgSRgvRc8kyqGbAqfMIgJpjMIptufFolHrFEwgWbTIWp20CIRqeFTHlyUCEbD49U5DPwd+KpZRJkTFOftm2DwaqtpVt82yQCBBfSPMjnXrZzLFTbGWJPWglNeqaZqGQFQdl9LAFAJJyjDT0JdSR06TLgKqdtW1nyQJRKWbyWAlzem1NPRNt/VbT3pTEEgcQwsL1dOMPkSZaejceuabvRqr2rVRBKLSS4UkZYpXt26qMtPQWVUmP9dDQItA/KLjOtm4+VXTQWEGTSk3beNVyadEQ079k+64eibEqXWmYXTbKqkIRFcOJb3KhsNwoWJA6afeMoLSU8tiKzZDIPcEYrLQRjFM084R1AyU0Zs/n04e7iRmxl+PXBRHnCYBhUW7Kpuh6J1EH9FZoKcMmCh616PdW6WMpiWQuIaZROeIMngKiVEjPpFO5RBaxaCzVs+4Di1u/iACodgKpdwk+ohOPzXRm/tGuj0i1wRi4oTDRmR+Q1N1Dp0ppiAjTlP3dE2GpesgQHHEaUYgpuVT8unacNz0FAIxJUydNuW0VQSYQDzW4DVQXWN3xFDzUdNRoxBq52Ljry8CFEfcLARCtUEqJtR0qj5C1au+ltEcpTGBJEwgcSMclbGbEk9zmGv+amHqBMMGJCr7SMqZUvSmpAlrMUpeSpog+ab58mddjdeYCYQJpPFW2MQaxHVmjcpPKZeShgmkiY1bHEeo6A5pPHjEHQ03Kj+lXEoaaudw0tVziqy5zTY/tYvjZIOiWd3ualo+JR8lDbWPUHYdUuseR6/8WFY2NGUC4QgkG5bYpFrEdWaNyk8pl5KGCaRJDduuFhMIE0hzW3iDaxfHyXIEUqhpPY5AGmzMAcUzgYQQSFDnFX+jGDFl+ouSJshcTPNlz/RaQ6NmJhB/H6H0DafVKbhQ0lD6iI5erWGVydUy1wQS5uRVjp7qhKnp/M1ByUdJQ5Wrqm9y5sKSdBEwdYI6jlalk4kO1DzUdCpbTmoNJKhfMYGoLMT8ecsRSJjjDnLCSTp56sFDnZO53mbnTmLeCdLMaepgG0kgOk7YpH7UPNR03vbT0T3Ndm8V2U1LIE4DOo41ijj8aVUGGZY+CXLSNTwmDl3E6pvexAlG2Z9Je1MHQjr2q+ojYXrqOHhKn41qTROs6msd+S8t9wQimiCuoUURSBLyKeG5qSlxJzFFrj75skAgadmwikQoCJtG3HFlU/JzGjUCTUEgSXQQISMtY06LQJg81Abe6BRZIZC4fYRiayYDuXr2uUbbQjOW3zQE4jSOyoiFwVJDen+Dq2T703PnaMYuo1enLBGIqo9EHXSlEIgOSVHk6fY31SBQr+U4NQWBhhIIRcE00qRJIJSOoaqTqX4qufy8/gjEJZD6a2yVaKq36TqKbj1N9dMth9NHI8AE4sEnCefPBscIeBHIq6PLq95sffVFgAmECaS+FtdipeXVEedV7xYzr4ZX15hA8jzNkmfdG24xrAAZgTw74TzrTm4gThgbASWBeA2JcqYiD9NATCCx7YYFeBAQ9kQ5KJqHvuFUiwmETZyCgBaBqATmpYMwgahakp/rIEDZLZSXvsEEotPynJYJhNdAuBfERIAJJCaAnD23CDCBMIHk1nizojgTSFZagvWoNwJKAvErFNRZ8hae1xtkLq+1EAhaN2wtBLi2rYKANoG0CjBcT0aAEWAEGIFoBJhA2EIYAUaAEWAEjBBgAjGCjTMxAowAI8AIMIGwDTACjAAjwAgYIcAEYgQbZ2IEGAFGgBFgAmEbYAQYAUaAETBCgAnECDbOxAgwAowAI8AEwjbACIQgEHTHFYPFCDACVQQK4k2u4icfBmSzYARqEXAOBHLfYMtgBIIR+G9ecQpu4pceIQAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CbwcVZX3v7vfkgSSABIQ+ARxnJEhLGGHYREwRJFlIEBYEhKykIWEBAjIfMoi4PohSxKIggEEA2JY1DGyuSESZ5QABgyLo8AAIhEkMXlZ3uuuqu93763qrq5XVXepqn7V3af5heS9vsu5/3vu+d9z7lZwHMdBHj+eVAVF4XTTKxYrTaZcr+0WVZQWSQkIAUKAEGgGBApEIAm7iQgkIYCUnRAgBJoVgeQEomxA04ao2Wb09fIOGGxpdwOVRwgQAm2LABFIw7qeCKRhUFNFhAAh0BAEkhNIQ8SsVSKduUsTNFZgVXFU0zVWeqqNECAECIFoBIhAMtYOVWJQTZexuFQ8IUAIEALKCKRIIPFrEpEGkn3h7rTy/ROQWFS5wQ2XR55PGbtECc3laLa1n0QwUWZCgBDIMQJEIAPUOUQgAwQ8VUsIEAKpIZAigajJZG44RfmOY6FQYC5L//MU3pEW8X0+P1Htrx7GcRy3feHyszbmuX35RJ2kIgQIgSwQSJVAPCPoBVnCBPbMvt/ERxlF/+9r/27uEI6fQOra54KVX+rLQv2oTEKAEGhmBFIlEAvAJ/beE05ReAirV71Yhw37bQeAUgRidUSi4arozcoFATmuB0MGu5nVt/lk93uPeb0EovlQJYkHCoHUCYSRiOcj7LXvSBQcG8VqfKaIl15cLW0rJxiblWK7C+zF2t8q5OOl4fW65VTz1cqqW7SXShWVwBZVOLZY+GcuVoH9z6vHl892gAJLFPDRnJDrTTxmY3+z74npjHsorxnDQpFEKnntLZIrDIFUCUTwhA0LDkoooMAMpW0J48oMarGIT+yzDypFYWCF5+Bg9ap6UumEjVKF5asImZlBLpVqhjnQEj7o3HWPOjvL6rXKbv1uOaws5iF5Rj6RXjDSsHH3ogV4cMkSzh29xRIeW/ksUOp06/BVEJTHT2p1HpfbHk9WXjKRSKKuapLMrUgqwTYRSTaJMiqImSqBsPr4IjebitsOnn/yF/jCpfNRcCzYKOKsKVMwYe48lHkgq/YZue9I8YPDAksOui0LOwwahA7bhlNwYBUK+OqCW3DIEUfx0JN//u6Fw4L2lxW35rU/47zTT0HRKqPI6KxQRF+phJ8+8yxQ9AhJAaXIJIygLNy76Gb8YMltKDo2NnV0Y/nK54AORiD17YRdwZgDRqHLLlcdCt5i3u4SXxzv7u5E16BubD9iR+yy227Y75BDcPTo49C5zXaCkPgfDy5aUE/Se3nIq2JcVTZNmBrlRhCWShu9vlBpa7DfTNueh/5vdhlSJxAenrEtvP38SsyfNROVzRu5gWQkcNbU6Th73iWoFDqqBtQL3jBSKKHC8x5z8EHo6VkvOKUIsLBYudiBVX94BRVOMSIXs6NdtWMkbl+4oSTbwq3XXYufPrQMXcwLAlApFrC51IVHV64Eit3cI0r2qRHIw3fchpLtI5BSSPlWGSftvxcGV8rVahmpsU8tzOeSQ5H5bw4cFNA1ZCuMmzgZY2fMBIqdKcidrNWUOx0ETI13lJHVNaRplSNDI2sC8erXbb9MbvpejkDKBMLIw8YHr/0JF02eiC0fvI+SY/OZfwUFnDntfIybNx92sYPTQJUhOBuIcBAqZYw55EAeCmMGlIWmLE4iJazbtAW9pRInIBbSYSb2lVWrOZEIUyum5oyIetaswVknn4TS5o3otC102jasAuI9BDlegRTqBMLDdXYFY0ftiUFWWbS+oxNOZyfsQqFKIJW+MidcQZAO92oYflaxA/sdfgSuWrAY6GS02Y85taWnDAOHQBLjrTNLjzOqSWTQQa5RBMJkIhLR6ZnkaQuOXbVWyUpjNs+poPLeGsyadC4++MubPARVNYCFIsZNnYZxc+eL9YGwD1vzqJRxwkH7o9OuoMiMbkcJFdeD2P/wo3D1rbfBKZR4SIxVuce+I10qqvkyL696EXctXoR777oDHY6FIXAwaMsWbqRjQ0yhMrm/DF3EZoRZxr2LFuDhJbfXeyBhISyrzAmk2yrDKnTwkN7YuRcDRV+oywGcnvX439dex9M//ymWL7ufe3FM9r5SAadOnIZJF1+SUggurMH+AGHNQ9PYFJdMj9ogdxwBqBhAnfxRXo5OGUm7JAmB5IEAk7a/lfOnRCDuTqRNGzB/yiS8/rJYFD/qyCPwX7/6Ff83Wzg/cwojkEuBUmBtwEPYJZATDxyFIRULJaeCT44Zg188+UtOLH3FTiy+7wHsPHIvvhZggf2p39PEVkhG7b0HBlUq3PthC/pdDjBiUBc3wls6u/H478QiN8sf/PBNVP5fVi1n2M4p5jXJCMTdQMDKrBKIhXKxiHFTpmPcvEvq8fDqY96YbeGDP76Mi6dPw5a178Ni4a6thuKBx3+GwrBtMwll1Q5qMoGJQNIe/DLvIW0CCZM/DRl0cMmKQDwZdMrXkZvSyhFIJ4TFDP+WXlx70WysWrECTgHYfe9RuGHxN3H6EYdyQ14lkHmXwinW1kDqRAwQCKOGs6ZMwztr3sVTP1kOq1jEoccdj8uu/wZfC3Dc9YPa0UKbL9j/59K78e0bvoGibeHYE/8d2314Ryy+5RYeCisXS+gtdXAyemHV6qqJFGsw4pxKPxJh6zreNl0mMGcYlooZeYcvovdbA4n1QASBnDllOs4IEkiVTL2twRZ+9eAyLLruau7NMbk//7Wv4+DPnAyUkq7hxCgIuRzy0aOZIszQmRi/pAQgy19VwZQeK9Vpo05aP/z+fCokrNl1lDwCgWQE4p2zsCzceuXn8dOf/JDP8nfcdVcsvPs+dA4fhrH778PXIGoEMh9OsTP8WEOAQOwC+Cz9U2OOw/SzxvE1gb6ODix96IcYtvvH60I/fI2B+SPlXkw9+USsfftNFAslLFn2IJY/8Tjuvvs7VQJ56nfPog+d2GPU3twoi48wxiz8xYiEBcm8T8+6tXj+mWfw3t/eRW9vL4YPH45/2f2f8PE99+RG/P5bFuDBO5bId2EFPJBYAmGVu/huXvNXTBh9NA/HMQI8/+JLcfx5U+tDX770guxcBnAPdfKy2DoTb1b1YI5gQ//ZFT+BVcmSxk9SBKIMo4nBlBGRzIAGja2qbFxzYkglyojrtFEnbRSByORM2peUv4ZAwXEsz9LU4aI0AeXnGixuQJfdcRufjW81Ygfc+p17MGzXj/IQzNj99qonEIU1EC+ExQjktGnTcfYFs/G1C2fjmRUruIxjTjkVM675stiR5I832RX87sc/xFeu/L/8HMphRx6FS29egKWLF+OBO27nh/g2l7rxxDPPhYawvDUVZmW7LLZ+43CPZttthgFlsZOLeVedlo0h5T5sO2QIjjluDLb0bMCvnnicm+XYNRbfGgjbVeYPYQVP01d/ZoX2bsTYg0ZVcTxnxmycdsGFIQQi1mTGHHgAum12/kWsO507ey73lj54/TU8+vDDeOa3K/DuW3/Blr5eDBm2LSbNmoVPn31O/23HNFJSQSDOKJoYTBmByAyoKoGENV7Ve4kDTpWEZO0wJRCd/qjOp1LyxlJRqBwVYkYgnudhW3jyge/jxi9fi07HQceQIbhxyV3YZeQ+Ij7PCGTUntzwsfi96iK6IJAyD1mNnToD42fPwZvPPIO5M87ns/BCdxeWLv8punfcyXcuQpDZ/DNOwRt//CMqxQ4svvNO7DJqFO679VY8tORb7iJ3J5av/H3/cxrusfQKO8QIG4/+4AHc+LWvwrYsbOjp4TN1vnBfAN8cMGLwYOG9sAOMDtvlJbYqb+7oqiOoumtbrF6MHcUItczli1sT8t/9Vf77+zjz6MPRYVVQKXVg1mX/geMmTOpPIOz0vt2LEw8Qa0jsc8bUaTjjnAlYtHABnnjkJyhZbG3J5t4c99kKRZw78wKcNmt2//JypKjNLEpceCUtAuHOou8S0SgjHZYmDRl0+iePBCIjRplXp9P+VkpbsF1ktG7KcBd4f//kz3Dd/Pl8gdvq7MaXb1qAkUd8srYobItdR1oEYjEDuH89gcyZy6Mul02eiNdWPcvxP2n8eTjvssvFbiQ+93fw0oqnceXMGfz6lH85+FB85fYl3EO595aFvjWKCALhpYptyE88tAwLv3QNJytmZJmx3+WfPo5RBx2K4dttiz7Lxk23LOTRIGaM2WI/OwMydOhQvs346d8+izI6uVR151SsXpyy3158F1aQQMLv8xJrL6t//RSumj0dHY6DLcUO3LzkTux+4CEhHojYxVbbhGBjj333xetvvon169eDeXTiIGYRHV3dKJfZbjBg8ozpGDdzNnkgGYxsmVFPw3hXt30HbqEOM3ppEIjM2MpgzJpAZMbeRH5ZmbI2t+r3BgQidge99cIqXDR9GrBpI19bmHfFF3HMaeNEWIlPh2q7jqoEErbryI8sWwMJI5ALL+KpnvvFz/ClS+aK8xGDh2LZI4+i8KHtxfqFZeHqC2Zg9Ypf88X1axd/EyMPP5KTwr2LagSysdSFnzz7fPhJcaeCd19+BRdMGo/Slk0o2BYGbfMhXH7NtRj5yWPdXU/sGhQHlSLbxQW89dqruPn6r+OlZ36Lnp4eTiAsPFUuMAIp4pUXXqxG2UpOGSe4IT2rUOIeyIS5F/MtvXwFxruqvbpeIbD+0pzZ+P3TT/K2DNnh/+Cexx4HOkIOKobsYmNls/4pdg7CZ085BWNOOAm7sLWbji6gUsHaNe/wMzojdvtY/6tXWlXrG9QuGXkEvQbVkI1qCCZo9NJYozCROc5gx8mYBh5hXa0jT4NUpWmrqS2iRy56+BeZxYx43euvYe6kCdi0bh3KhQImzZiFsWwGy70B351NbsyfhWzsQhfOYNt4A7uO6q8g8c+gfSEsRiCFEjemc8aegL++/hpfjDjn/Jk4bc48Tlbvrn4BM8aPR4ddwcf22APX3/8wUCqo75LidxyW8eXZs/Dc079CicU8B3fj5ruWYuc99xL3Z3l7ttyZPDPobI3k7kU3VxfR/SEsdmqenVMRR22K6GJnUiqbsc1WW3HP5pwp0zD5grl8O3HtlmL3JD338sp4YOECfI+dZ+EbEUqY8fmr8Okzz3bJLLALK0AgLOjGFt33PuRQzL/iGgz7yEdEyK3ugkZvm3HUXVsR1+crLZI17bhILLiqZ6Gazi+QKoEEDXAaBJK1vEHgZTP/MDLIIk9ihWjRAtQJhN0p4lTQ+/4aXHjeZKx98w1+UvzYU8Zi9hevDb880Bfzt9CJcVPZSfT6cw/RBGLxmTNfA5nrEohj4+mHluEb112NDtvBoKHDsfTxnwFDhmDh5ZfhySce5eGZK77yVRx4wsnCyLp3VcVus3XXdN794yuYefqp/K4qthIyYeZMnHLBXHGRY8iZER7yiimfz/5951TYJZHHHLQP+tZv4OEkdrqebSl2CgWs/oM4O2P3lbHm3b9i9arfY/mDy/Cn3z/Pw2Tsc9gxx+E/blwQLU/INuhDR38Gl3zjBrd/OuqeD/YcxXjdJgLRHfs6RlYnrSeHLI8sTJVk1i+rW2XGrxPC8sqTyRyVLqk8un3fbunVtvHyJQYb2LgRl02diNde+gM3qAcceRQ+v2Ah0Nkdflusn0AK9buOQoF2DeBJB47C4IpLINOmY/yFFwsPhBns3s2YdOJnsfHdv/Iiplx8KUaPHo0JJ5+ISqWC7Xf7GG7/4Y/cEA8Lo4nLDuMJRKx9sNPk9y66iXsfla4uLHvkMXTsuHP04rLrtUSV77iXKXomWISw9qleZVLo6ECxVEJfsQPvrP8H3+rMiIVthWa3vg/degiXhVXz6RNOwuVfuAqFrkFwnEL4q4Qh26D5LrYL57k71jI8N9JuIyeivboGVje9SggprMw0FvJNZFWRN8670lErmeehSsA6dbZ7WkUCEQb2qjkXYPWvf8ln/7uPHImvLbkT2HqYCO/wNytY+MX3t92L0/bbG922hb5CCWdNnobT57GrO/zbb32hk0gCYWEqd23FtrD8nrtw1w3Xc+M6dMQOOPKow/HIQz/glyXO/sIX8alxZ9Z2Z6kSiGXhypnT8PJ/i63Cu/7rSNz4vWV1lxf2W+gOJZCYRXo3pOfdhcXuuOK7dEslbOroQplFl9wIE9vh1dOziS9yW6UO9BZKYOsmq198OVJn+dkVq4zj2S6sch/vlzoPzj142e5Kn1X7TQxsFnlki8Sy2bzKDi6GYRYGWya7rO9UZDLBXFZvu36vRiB8e2gZJxywPwZbvfjIzrvgpu98B/jQCHfdg8Hnnsz2/22XcfoB7PxChS8Unz15Ck5ls2HvKhP+3oXvWvXADJqFsE6bNhPnsHUOb32FGckN/8CET49B+R9reRiNvSnC6t96hx1w5yNPAIOH1IgsikC823jZeoDbvmknnoB1b7/BB8bR/z4WF177pfDQXFVb6kNYbPfXllInlj/Lzpl0V3c1CeJxgEofxjJCtdiaUJFvoRWXQ7LtwcI7YOGqolPh24LZJYv/9qnj8Lnrr+flMQw/EXL3l/eeCiuhE3049sD9sW3vFr7UoUsgtLRhbgpUFs2DpZsYM5U8UYZYtjMrjhhU6k0aMjIhEH+bVNZETNthrhmtm1ONQJhhL1vgoSWrjFKpAKurCxZY/D4aHHZeorCFXQQobpRlt8/anV38Nl1GDhOnno/Tz59e2z4aQiDcALJFdP8CvVXBAwtvwv133M6vamdhn0qhhMnzLsaJU6b77pYSu5juXRgSwvITCN/9ZeGMIw5DYYPY7nrChImYzLYJszAUrzvso0YgIqfwDtg5EPbeCSMPQai+A4HMeq/7ANMnjscHb78tri4plXDudHZOYw5f++gLvIfCAlx77bsXJ1CWnq3fDLL6sFNXNycQFsI6b848Tkbsma/gJ/gbIhDzwW5i/GS1mRr8ViEQlfbLvCFZv6h4LbJ+atfvQwgkZNE0SCBOhROC9y5HFHj86B0/tOZdnsFm3eAHBNkC8rmzZuG0mXNqawwyAvFCMOzW37+twZknfJZf1879n222xf2PPAYMG+47zyAIZKn74FPdex3+u6p4vRZOPewgdG7exN90P3niFJx7yaX9T7vXWdiwRfSYEBb3QEZyAhF3YU3DGew2Xr5I74Jk22CL+RdNOhf2pg3814xErvj6DThwzPE8bdglkNx7cUlq9MEHYOOGDdX3T9hOLIb5HwIvP7I8bPVK6wxQu44UhXbLDJVCEf2SqBjQpCEn1Rm5arpgI3TyqaZVTReGuQ65mvRZO+VRIxAW4rEsHH/QfnzGzw7Oeawf5TKy37M5L/NCWFiGkQ0nDx7LL/Ltv+fNnIUz+PZf93beKALxdmFVCUQQw7e+ch0efeD7XJYzpk7HBHbgsO6lQT0CYfdN9b3/HvdAxow7B9O/cGW6BFLd1uw/mc8ulxSvEYqPwPrZR5fjus9/jpMNX2rZamssuvMe7MS2FPOFkprvUF2bcfHz3lNhxDFuyvk4/4ILOensue/evj1hRb5Q7z+nEqf4/S+YbKdhotZWIpBwnHSMfVZp/ZJF1aES/lLThPZJpRjCcndh8Vtp/RfxSYCy+nDaAfvye6UYafR7/4IZQvd9dMFI9Sepg9t4+ZNR/OoQYWjXvvMXPLj0Hv67sydPw1bbb++bTnu35YoQVvSTs+5Nu5aFC8aeivf//EdOIPsedQyuXHiL1hqI8HDki+h1J/MvnC8ONXofb8ebY+G7C27Ej+66AyW+hlTE8J12wuJ7l6F7xIjwN90D76mwPDyENXsuJym2xdn/8e7+4gTlkjM7PPnSCy9VkzH6Yncn186piK8iQ13aMbCgxyt+9r86GV+hJ2rEduOcj2Udg+k1RSePl1Zn62xSjyYIuYm81eGgeHmjSvok+NWNGx0bmHP9SyqeGoGY1uKbcZu8B9LvHIh/F5F3H5d3my7/zt0BxuV1CUT6ZrlLILaDGy6/DP/12HIU2KWQO+2M7zz2hFgMj3r61r3S5d5bbsLDt9+GEhxs7ujEj8Pu2mIiBd8D4Q9sBd5HqfKz2LjADzaueIp7cowQdh91AK7/9h1A95C699GlBOyuIfmvvWBnVLxzKn7z671Rz9KycB7bVvyq+/Kjn+fYv/3hr6qX4t4rpqI2/Xa2ubcgE4FEo6djkFX6QLU81XSNIhCuf4HrW/jkQ2LgTdsRRUAqdar0QzOmyZxATtmPvcDnv85d/T2QWALxpsFs6zD/d9hJ6viDfnyBnH/ENuVH71uKJV/7Mr8Dq6/UhW/esxQf3mdUzDkQYeTvX8iuc7+dr/ckJpA6C12Bve4DzDp3PP7+xuvVd1WOOfFkzPnS1/uf/Pd5cIPLFdgl3zbeIqM39gxw7SNuEBOXKsZ9WLpP7L0X3zAhdrwJgl696sW6bGIXGK2p6BgCE2NmkidOJtXyVNM1kkBMSMS0HToYtgup5J5A+DZetvWXxfy1zzEoEogtTu7xdzc+cxxK5S38JPpBnzwal7MwFvNAfGsOgrBEOG/9G3/G1Z+bj3defhVOwebXxf+YbeNVeFBK3E4c80KjS2zv/c+ruHDieNg967mpZ2sbk+deipOmTJFug65u4w0hEFVDxyijHHj5keUd6a6peF4Ek817o15WdtS+Nlm+VvvexJiZ5NExfmmEu/z16cirkzaujjgDblqHru6ZeEe6dQx0+swIhEcxVEI2VQS8tYhy9TpyqQciRa9GINFrIL5CrDJuueJy/GL5f6KDZS0Cp5wzCededBHQ2VUjMEYea9figaXfxQ/uuweVTRv5OkGFhbASEEj/cA6TTbTh+Z8/gWsum4+uSoV7Aewyx2tvvBkjjxntvkworprx38Zbhx8jEN8JduWlCvZGO1vxKLA9dfEf7qmwu7/4afraG/XeORUvNyOauluKpf3YuglMjJlJnqwIRMdQezKkTVBVvVK4jTjMY5GFvNLUvlYjlRwRiLuIbnkE4rtMke3Cqh4k1OnO/gQSZeA54TkVlP+2BpNOH4vedX9HyWZvuRcwfMSHcciRR2LEDjti06ZN+POf/gcvrFwJu6+Xh7vE4T+xRqHyoFTdC41+D8QB+PNegX0KJb7KDXz/W/dh6W2L0WHZsItFdA4djpvv/i52+eftOCg8umQBYw48GoMtttXaOwcykUf4/ATgnd+pRqR0YI1Iy3bZVdj1Y4Gbw0budSzPUfVUCr149cUV7qkUcZkjb7LT/8FEvq4StW+jIO7LbOZ9yCZkYJInLQIJM8C6qtMoAokit7Tx021/MH0zk0pmBMJBivJA2LbdsLB73QxaEMip02Zggv8goW+BVr5W6xIIW+Recjt/syNIIPUzcbEW8ubqF3DZjOmorP+HuJWX229X4ILD1wLYugHb1XTI4UfgQ8OH4efLf8Rv3d3cOQjLV8aHsEIJhM30HaCPnWm0xX1YvF5xezwYiXTZwBUXP4TfPPVLbnQZYW2/66749j2XYCt2/MVNc/jBF6PLEgcs2Zvy58/eh2+hZnKz37GPv/y4nz0ZarNHsYs4LD9/b4TVAWDnD48XpMEOMDq1E0OcLkprsf1O/0CxuE600RkMx94Of3vPgmVvC8fp5m1h5ME8Qf5v16Ox3TUvfl9YaR0+eO8n/aKL/Qe0d+Ow/5t87NoyMWYmedIkkKQkkhWBRMllenVLUmLQwTyrurL2rlIlEAs2Kiijwv9j9+/aOP7gQzC4rxuwh2L8pBk4d+5EHhoK+/CZtgWMPvhYdLMZNIDTp03H1DkTqobJn48v6rIbQkrAJgDidErtI942B769ZAEeXHIHP8PdW+zCr3+zEr0o9kvvcRpbCF773ltY9P++iv9++tcoshP1fJYsjA77/ydG7o1JU6bisCOOwbduuxX33/Vt/h27XfepFc/xE+NBedihvdGHiatd2K60sydPxeTp89DnTqJZ83fY9UiOVf1HGMCCbfO8gtRsfv0JewVRXIXCSLmAol12H7kSDNTHtu8y7626ySBqOm+owh5ogWLffvsRhQI/cPfKDYaNwfjXg0fDsrfjBMI+XZVOvPHcneisCMJielPpEF4OW5NhH9ZXRYhy2Mc7tCr6S7wjKbYJsFNJ4vsivz6f/dfJ/5RCb1pWED+FJCZkYJInTlTT8sJmznXj05186ZQvSyurM4UuaUgRJoY9j55KagTCBmcferEBPejBBqxHDwroxDbYBVtjawzpA0psdu0d43C7yT8jZmTgvbrByYQt3rqzWjb6w65NYfl7BgE7jjwQGLK+vvOrW315IF/84dNnlizq/Qt3gZxzhRs7CtpcbjRdk8Xjriz24s5o+YK724qgl8WSOJZYgGcbAnj4hW0O8GTbhN88swoFiNP1tY+Nbzx8I4oFB0WbXUji8PUMtsWWS+jbXMCf2fVFdcT3Qt5k1FFb0wiOMI/IlUdeoQyUNgKFMn89kl+x4nTBYefiHXZeReyOG7p5GJbf8CiGbRnOIdpS6sP6Ietx+pwz0DN4Pfo6e1AobEQJZe6pMJJhGDFPsOCI54cFgbCJRu3nrko3hm8ejqvGX42h2Brd/Dx+a39a3fC2SvvypIUqJJcBgWzENUuvxvrBPbDRja17dsW3vvg9DO75KLr6hmmHUJjxYzNudhiRGQi200nE0r19PDbWD+nBhK+ew+v0Pl7cPBjrZyEV8ak3p9HpReqo78M6vJ7oXIPuhmBEiIc9k1vs54mVCuvQ0fk6isUPuMHjtxu7n/knzw9U5c2wXV70OMgzmK7HVM9h4myMmIn7Z+iyn8X239qMvpa+trISJBjxc9WAV/PXrrURDfIIr788Q7A1dnAnIKz+XpSxHhuw65iPwBm8Sbgf7uc3D64UfBzTPpaUeaGMMIZhGLbG0AEhEDJ26ZtJFWOXfq35LLGRnkpqBMKgFCEsyw1hsSADCxYMQScLGTDvQraNJ6I/Shaw/87iEkLv1lp/0kqpD5u7NqNSsvgOJaFMqm9f+OLjThGv/u9r6lpRv4Cinq9Ywnp0oDeQQ/gtjAT7ArBAL4cAABMbSURBVEtE4as94UQQJJT+Ynmlqf3tJ6ravWa1+83im10jnnq5grnC0pXQhW4M4sEm1puefvWhj+sZ0zRvKrDH4Xu7u7/YxZ1izeTFFas5YYgeFiTYAVvoIw9fiTDWQIaw1JVGgnPIgbq0yvaXQ4Y6C1SzLzMrUkmVQDKDwaoAfb38edpqIFvN+mmkF3P1Iz66mwh9uCGzsL+j2inL533fVyrgd2+94z6TK0PNlKVk5ab4PWc+5jGpknbMVSiR4Io348XTwrWPG2TkVBIM0XnnVETq+ru//GsmKSLR8kU1ynsiospeldIgleYgEH5liPtWePa4Zl+D7eDgj+zM3/zwExRfDSiwObP4ffATJChxRWUhlvBWvP5G/DZXfz1R7oLs9+w24a5O3zX6fsmz3+3kLZPXag3bdSUIhr1RL3aFFfDKC8xDaepdwNnr6gDVQEQ1MMD7cVch8cQEEn74rb7xKmkGBq4BqpV7VGV+o3CsRxUUT2bIQ74/YrePxr7Z4icqVQ8qmC7eo3J3RsQ9HNOvnRE7JpS6K1Aff7RMeCD8NmjfWoz30n1wr4NSNZSoJRAgokrWjYkJJFn15rmVSSmPEaA28ahUCUloQW1zA9soUd01FQglVj2qqBAmC3PyJ5YZZ7AdGB3ipH6pVF0/8/snRB7mY5ByqiPQqkTVtASi3HV5JBBl4ePuTdcpJOO0YR6V35DLPKcAgfDdFt65lQBReB5V3BpV9XxQscDP5Tz/1pvi0S6NNZqMEaPiCYFMEDAhKpVQVZSwrU8gmXQTFVqHQNoelccOacDsC2E185UnaUBBZRACaSNABJI2olQeIUAIEAJtggARSJt0NDWTECAECIG0ESACSRtRKo8QIAQIgTZBgAikTTqamkkIEAKEQNoIEIGkjSiVRwgQAoRAmyBABNImHU3NJAQIAUIgbQSIQNJGlMojBAgBQqBNECACaZOOpmYSAoQAIZA2AkQgaSNK5REChAAh0CYIEIG0SUdTMwkBQoAQSBsBIpC0EaXyCAFCgBBoEwSIQNqko6mZhAAhQAikjQARSNqIUnmEACFACLQJAkQgbdLR1ExCgBAgBNJGgAgkbUSpPEKAECAE2gQBIpA26WhqJiFACBACaSNABJI2olQeIUAIEAJtggARSJt0NDWTECAECIG0ESACSRtRKo8QIAQIgTZBgAikTTqamkkIEAKEQNoIEIGkjSiVRwgQAoRAmyBABNImHU3NJAQGCoFCoVBXteM4AyUK1ZsyAkQgKQBKAyQFENu0CBPdCeZh0Jka5TTLiupCnTaGySNTDdO2y8ql7+UIZE4gOsrjiZumUqdZFg0QuUJRCnUETHUzysjqGtK0ypG1WMcGmBCIV79u+2Vy0/dyBDIlEBog/TsgyWCiASJX6GZJkcR4xxlZHR1JIoMOzkl0XqeeJJ6Ybj2UXiCQGYEkUc52GiAqA96Ph0p6Uu58I5BUv5Pm5wM/sC7hRyxtHUtCIHGyJLEx+daQ5pEuEwLxOpZ1vo7yxIWwdN3UVhggfjUiEmmeQRUnqSxEo2K8k+p2GjLo9IaODdBJG2UvVDDUkZ/SRiOQOoH4ySNspqPSuWFKFCxXdZCakpiO0ugovU5aIhCdXsh/2ji91pkgJSWApPl1kdbReZ20ND50eyL99KkSSJiRN1EI2UCTkVBwtm4igw7UOuXrpKUBotML+U4b1e8m+pDX8RHlJeu0USdt1Phgv5fZiHxrS/NIlxqBRHkIJgohG2wy5UjDCwrrQhogzaPYeZI0bgykNT50ykljgiXzYuLw11nXkI11kzCWTn/oeIZ50rlGyZIKgcSFl3QUW6YMUQY8CFYaBJLnASIbVDRAGjV81OqJ09tGj48wWdKQQQ0JkSqPBCIb77Ixp9P+VkqbGoFEAZyGcvrLjiMr1jFh3yeVQaY8OuXrpDUNYcWFOGRtaSXlzkNbZJMeE32Qeehxs+Y0CERmbGW4Z00gMh03kV9WpqzNrfp9YgJRNeg6rqDqDDqsU9MgENmgj/J4VNpoYjD8xCibwQXTqsjUqso90O1S0SMTfTAdH1Hy6MqQZXrdssP0XWbs4whElnegdSpv9SciEBl5mHSuSp6oemW/VzWmKgM/yjuQGfikA0RFwU3qyJtiNrs8qn2gmk5V30zIRUcGnbSezDp5dNKaTpbCCERlXDW7TmYhvzGBqJCHChmENUqmRLKZVFAZZOVFDU5VpTItX0Y2up6HyYDNQqnavcws9UFlTIWNj7hJ0UDLG0eOUZO+KC9CZczqtLfddVnWfiMCUSUPFWVPi0CyGCAqyqjbRlXFTzJLogEiU/vsvtfFXje9ir6FlZnG+DCRVUVeFQJR6bEsxqtKve2cRptAdMhDV3l0ZtDBAREnl6riq6YLKoxOvigCiVNC1YGhg187K31WbdfRgyR9JatHpmOmHrqs3ihcdfLJZE9jnOjIk5WutEq5WgQSN4tJQ3l0BpXqTF6HxEwVSyefSlqVNHEKmDR/qyh3o9tB4yMccR19NCEQmmA1WtNr9TUtgWRBDDqKHud2p7FN0cQY6RDwwKlc69ZsYvxkaMTtNPTyqqTRSZvmlnydcaqaNgxnHRIxHeeyvmrH740JJC2wVJQ/qUKrKoxqujRDWKpkQwMkLY3Lrpw8EYiqMc4iXSPGh+lY1WlvdprSOiVrEYhJs006WiePl1bVELM2JCWkRgyQoKITgZhoX2PzEIGkH8JKY1wnGa+N1aDmq63pCUQFclVCUk2XRCF16zAJZenWoYIhpckGAZO+0snTLhOsuBBdkvGaTa+3TqlEIL6+1BmYfhXQyaeT1qtDl0RM6mgdlW6ulpj0lUmeOFRUy1NNl8Rg69Zhsh6iW0dzaVRjpSUCCeCta6x1Y6qmyqsjl2kdjVU9qk1Xd8ImFOx3OuHNMNRV9UU1XSMJJAxDGSam7SCN7Y8AEUiTEEhwoGQRG6YB0ngETIyZSZ40PJBGEJ5p23Q8EdM6Gq8d+a+RCCSkj3Rm+7qDKonyquZVTZd/9Wx9CU36yiRPVgQSN9sPM+pZegequKima33tS95CIpAIDFVIpNEDRNULoQGSfGA0qgSTvjLJkxaBRIWMdPDKyntW9ULSxk+n7a2WlggkpkejCMLL4g0EHYXUSRsmmkp+lTStpsjN2h6TvjLJkyaBJCWRrAgkSi7Tq1vyplOqBNlIuTMnkEY2Jqou0wHXDAQSFhIwbe9A91UeB0jWmJj0lUmetAlEhUTyMMGi8ZGtBhOBNJkHkq06UOmtioBsMqTabv9sXlYmEYgqqmrp8jjBahkCkSmzWhcl3xKpWg+lIwQaiUAW40NW5kAQSCMxpbqAliEQ6kxCgBCIRkBm7FWxS3rmRLUeStccCBCBNEc/kZSEACFACOQOASKQ3HUJCUQIEAKEQHMgQATSHP1EUhIChAAhkDsEiEBy1yUkECFACBACzYEAEUhz9BNJSQgQAoRA7hAgAsldl5BAhAAhQAg0BwJEIM3RTyQlIUAIEAK5Q4AIJHddQgIRAoQAIdAcCBCBNEc/kZSEACFACOQOASKQ3HUJCUQIEAKEQHMgQATSHP1EUhIChAAhkDsEiEBy1yUkECFACBACzYEAEUhz9BNJSQgQAoRA7hAgAsldl5BAhAAhQAg0BwJEIM3RTyTlACHArkGnK8wHCHyqNvcIEIHkvotIQEKAECAE8okAEUg++4WkIgQIAUIg9wgQgeS+i0hAQoAQIATyiQARSD77haQiBAgBQiD3CBCB5L6LSEBCgBAgBPKJABFIPvuFpCIECAFCIPcIEIHkvotIQEKAECAE8okAEUg++4WkIgQIAUIg9wgQgeS+i0hAQoAQIATyiQARSD77haQiBAgBQiD3CBCB5L6LSEBCgBAgBPKJABFIPvuFpCIECAFCIPcIEIEk7CJ22V7Yhy7gSwgsZW8ZBIJjhMZGy3QtMiUQE+MalYdBrqt4aZYV1eU6bYyTR6ZSum2XlUff5wMBE+Mapkem+pFmWapjJE5WkzFi2vZ8aEBzS5EZgZgab5kCqSpLWuXIurdRBOLJodp+mdz0/cAjYGq8dXQurpVplSNDUockZeM2ri4aG7KeSP/7TAhEpgRJZyAqipJEBh2YdQahTCbVelXar1oWpRsYBHT0Jiih6eRMtZy09atRBGISpRiY3m+dWlMnEBUjmTWBJJVBp3t1DEEaackT0emdfKZNSgBJ8zNU0ihDFd0kBGJiK9ImQNV2tmO6VAlExXDLZgkqZZgoVbBz01KyNEjBpD1pyd+OSj+QbZbpt0q/JjX+acigg2FWBOLJoFO+jtyUVo5AagQiU0q/KCYGU5UAVOVQGahy+KJncmHl65CNv27TWLmK/JSmcQio6KaKXsrKkZWRNL8uYjoGXidt1BiRtV9XfkofjUAqBCJTSFXjL3OtVUhIVRZdJYsy4jqkoJNWRiAyT46UPl8IpKmXsrJkup00fxSy/nL9MuiQgk7auDEiwyBf2tG80iQmkDijaGIwZcotIxHV/Gl4QXHdnrUHEkUgJv3htYMGXTYDOc4omhhMFR1Pot8qeqAiQxSaOrKpyBI28TStw8RmZaM1zVFqJgTidZ5JZ+goZlBJkuRVmfHrdGneCERFdtXBqlIWpakhEDUz1zV8Xokqeh7Vl0nypjVGTI17nE7pELEKBjpRk3bW9UQEEhXWkSm6jgLJOifOVdb1EMIGtKx+nVmWCaFGyZTEQOjIbNp+yicQiCOPLAmEla0zifH3l2wiYWKAVcvXIYIoQstCflmZ7arvxgQiI484Y2xCICxPXJ1R3+ka7SzT65ZtgqHK4KbB0JjhLiOPtAgkahIV56GbrlGYyKxDCjppoyaqMv2OGyOyvI3RnOapxYhAVA2hajoV1ziKQLyZVhoEkra8QTXQLd9E0U3yNI+6No+kqoZQNV3cGFElgyhC05FBJ62JgdctX2UiqzIOiTjMxpY2gegYQZ20Ucrm/V62rhJsviy9jntv6jGpKG6Yay/zItKSx0xlKJcMAR0jqJNW1SDr6o+ODDppVeVVnUCapAvrK5M2yPq8Xb/XIhBdQtBNrxKykQ0OVcJRXYCXzUx02qgqe5wypilPuyp9lu3WNU666cPGiKouB8eGroE3kVVFXhViUOkz2djQba9Kne2eRplAdAylqjehMjtQJYSkHohJ+1QIL63BETX4g+02bUe7D4Q02m9iYLPII5uoyAhHdYNGFgZbJnuSyRURSBpaXl9GIgKRKZCJMVPJI1MylZ1ZskGUhcGWyZ3F4FBtR/qq1X4l+vtXNjaSGDMV0lEZR7oyqNSrMik0CcGmMTZ029t+Gqzf4kQEol9deA5dgy8zxLrl6XoSKl6F6RpLXNtUjJKO4Uir/6gcgYBML01wUtEjlTRxEwlVYlBNJ/OKdQhEtW0qY4MIxEQD4/M0JYHoGHxVg6qaTjY4dAZqVFpTWXRwSV+VqMQ8EUiYLiQNTeWFQHTaltQjIq0mAglFIE8hLNVZFmuIbKaVhHxosCRDgAgkHD8d4skqbVzUQDamkmlFa+dW9kBMYDAxZjp5VJRNtTzVdI3wQGThEJ0QQJxHZNKnlCddBFR0WKZzKvqgkkamKyay6noLOnWEjVkVMtCpI93ebr3SmppAVLpDlRhU08kGcxohLK8Mk/UQ03aoYElp0kfAxJiZ5ImTXLU81XSyMZIGmcWNERmJmLYj/d5v/hKJQNw+NDW8Ovl00pqSiEkdza/GzdsCE2NmkqdVCSTKW0+TpJpXu7KXnAjEh7GJ8dXJo5PW3/U6nohpHdmrGtUQhoAJGZjkSYNAdMNRUZOgLIy7TjgrbfzaWbOJQBQIhCVRXXRPM4SlQiKqcsnc+nYeBAPZdhNjZpInKwIJGxsy7zkLAtEht7TxG0j9Gei6iUACPRA329fprDR3VkW56WFkRR6ITi8NfFoTY2aSJy0CkemiCqKNIpAocksbP5U2t2oaIpCQnk2DRNImENnA9eprVgLRCdO10mA0MWYmedIkEJkuyvonKwKJkkvmpTeLd64TppP1QVrfE4FEIJmURIhA9FSUCETgpWLM8kAgSUiECERvbMSFBFX0xaw2tVyZEoiaCMlTJTX2QQlYpyQtkwhEr1/blUD0UDJPnVSfvZr9em1aJhGIWT+2nQdiBpN+LlNFjqoprwSijwzlIAQEAmmNkbwTCPV3YxEgDyQE74F2CxurAlRbOyCQBYG0A27UxngEWoJAqJMJAUKAECAEGo8AEUjjMacaCQFCgBBoCQSIQFqiG6kRhAAhQAg0HgEikMZjTjUSAoQAIdASCBCBtEQ3UiMIAUKAEGg8AkQgjcecaiQECAFCoCUQIAJpiW6kRhAChAAh0HgEiEAajznVSAgQAoRASyBABNIS3UiNIAQIAUKg8QgQgTQec6qRECAECIGWQIAIpCW6kRpBCBAChEDjESACaTzmVCMhQAgQAi2BABFIS3QjNYIQIAQIgcYjQATSeMypxiZBgN1gSzczN0lnkZgDgkCBPYLGaqaBMiD4U6U5RsC7Ap3GRo47iUQbUAT+P3eKPMjNvdEkAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CZwcVbX+19tMZrKRPAj4gvKeK4hGUX4QQEXJEwwESMISIBtJIIQ1BEF2CTvKviQhAQIhLEEIsoiA8GTxDyg8RIGIgjzhIQgGQ/ZZevv/zq2q7pqaqrpLVfV095zWMJnUveee+51zz3fPXapTpXK5DAAp+g8A8UvI770K2OVj++FVoCK4ZP8tHVtTfSEosHuqykQWoNqQv0PUunlNbZWLN0s/lDvMBRmBBBBIMYEkgGqIyMiBK7IAzf562qt185raKhdvln4od5gLMgIJIJAq2xlIArJ9M5rEMxhZRxokcjSImjK06+c5A1o/tmBNmgaBxAmEkKKx6yyRMYGo+Q7HOzWclEsxoMpQcUFGQBUBKYHIxl3g8x6sIVdH1o5cgn+JpORWWkuogbjFlmHtIaVQp3tIiS+VNccemuk44HqMQBIIRCaQXhmGo6VmBNQsroxFUnKTJhDlDioWZAJhAlF0FS7GCCgjICWQQElRM4zEI3vfZCSybsmeV5b4rHSBPxUEmADYGRiBekMgGoFoBLlegVMaSesNKjV9ZN2SPe9BIBr4qmnXyKWYQBrZeqx7cyJgTiCKeEgDpqKc/lqMDsmlUj6pSM33DHQDuLe8bn2ZxcPlBeImE8vPGQFGQBkBKYGYDkSnniqBeNsJatdUnwoiqgopQ1j7ggIDZ33L5pb4uxWVAKLWl+EaNyHJ2uPnjAAj4EVASiDeCvEHKruFAMGJtReTL5RgBfMktysik6ZOX2sMeOS+1VhfHSi5LCPQ7AjoEYgzWL2DVjd6euW41/rdsvzKOZv3VE6l3bh0DvKEGOX3yCyCMPa25+Bh+tONoQqeNRgR1JUiSvbB42qD3i46T6yDyWnhDvT3OulGDZDiJhiBvkVAnUBo9NKqQalk/bTGLJBN649YklWw5ZEwkpPxyKEoQO0UXe1Rm1Q3Y5eXXWlwgq2QQ3XLQDpltRdHpLEinaWTwKQMZFKWftQW7V3oRDOSU8HZhbFbV2EDu5woXwJS6eptTRFlS0DZxrMXsVB5qpeuYpCy9XaWw1z7LpEzBGX/rjpVASVsRgmFKrDCYFSC/mv9rBqf1G5BClmkxR+Cv3ph1bPU5eDhveCqrCcXZAQYAQcBLQL566urcNLMo5ArlkExZ/g2I7D0ZyuAIe1CXpmWc/w2fJ3WRHAso7R+E446bAo++Wg1iihi4JbDcMs9d6N9+BYVywhZpRTG7TwaLUWI9mi5iOaZrUMHYflDP0dm2GCrfFCQtgPyshsWYeXS5UJGdwZ49HfPA9kYpqpl4LlHn8BF55yH1qIVsw6dNQ2Tj5tjkYgCefQI0DaxnnDEVLz35tsop4AttxuJpfffawV7+hSAsbvuLjBJlwiPsiiXKqdRSAOFTEH8pN+tf4frZ8niDlu1Ysqq89Tvnhd8Tlzo/pANCG/T5Ea9nhPkrVkJZR9jJuyDosgy7WflNErE/eQHqRLSzu9EJ6UUWotpPPnQr/qcQLz+b/qmIFU5QeNNp13VtkzDZtzyZfJCY5BBJ3SwNBBvVMWkj0n0Q4lArCBXFhHmnutvxM9uuR0tdmKw10H745hzz6wE5HI5ZZGIdwmGYLIzioXnXoBnHn5MANeVBS6+9krs+J09qkHSgbQAHLTTaLQVegZCIoEDj5yCI04+IZwI7Nn8ndcvwoM3WwTSmQUefMkmEFkGIzMt9WdzBw7bez+U120Wpbf49DZY/ND9ll5CPoX44LcdV5soCXzX/PltHH3YVIEvBfdDjz0ah8yZZWcNRCAlHLjL7hiQB3KUTLgIYnNLCesGFEE/BYHY7fb6maLnFHfTglCffeZ5dIvA7RjJ0tv6b3XG72QAex/0gx4BXPy7K6Cb/G7hQG2WkCul8d8/f1yQQU9Cq8LgJkKnJt2yjyOxlJk97LnfwNYduLIA6W4/LJCotqvTngk2ccuXyTMJrmH9UsXRkRF3+3666epkYjeVOkoEQoLoJjMFHXQUcNq0WXj/T2+J2SARwCXXX40vfHtXa9btDHo3gVCQoxWdAvDKM2/gvHk/woCCNTPee9JEHH3mDFFXzDhdnwwRyDf2xsB8F5AqIpMqgoATM+22Vix/aCVyn9rSbtenu/YS04rrFuHBm25HBil0ZIGV/2MTiNC3umpEfXRWh7zS3AHLCchiJa1UxLUXXoqn7v+F6HlXBrj65hvxhW+MQnclKAabotrlEloA3H71Aqxcdidy5RS602Usfeh+DPv0v4vgLtorlzBu9z1FxpMu0YpZCsUyZQrUdhn5Ya3CJr30p9W7MpAtWVkI/T2fpjppUb6QTgv8rRm+96drxl8Gfnn/Y3ao9ycYZ4nJu+QU9rubsIg42pHpRSAqDl0PZWQBTqajTv3+RiAq2NQigMdJODJ/qOfn6gTiHB0tAav/8jbmHjEDmU5arS5ii5FbY8H99wCD26wpoocIaJk+nwc2/guYechl2PSvtciU0hj52e2w6I5jgHaLTOiP+zOgCIzbeQYGltYgk1qPMd/dFc8++yxKpRKKaWDMxP0xa/7ZwctFNoFQ1vTgTbeJ4NiRTfciEArO1BP6042yWELxpkPW3LhnwCR1Myhh1apXcOrs45Gxs4Z9D5mAk04+3SaQnmvw+0z8vr3MV53hU58pY8gWgfZCSSxPURAnotycs35aFGERCPWD8LPqFVFOWW+4IhlPPvy4mIeLJUDv6bBiCfdcfQN+dvudSBNBZYBvjx+HU+efU1nCsojS2pAWkwbXkpf6kpR/phBW37G7sxFeXQEMTxOdeYq7vvX3vj3mqxLo/AKDbj1ZsFSZqeq2aRLQVNuQ9cekbXcdGR5xZJBRdWyk+soEUumUHZQfu3k5ll23CLlSSQS47x10II7+cXUpyw1CkfZLttwLxXI7iqlOlDNlESDzYkptx2pn09ldsVDE0K4ujPqPLZFNr8b06ROwpvMT3P/ASlEqn0tj8X0rsPXwz/hiLvb4ASy9bRHuX7pMZFBd2TSeeup5dNn7+FSxiBRo/j9m8n4opLLIlFrR1j0Q2YKdovRYCipV9hysAE5LLhAZFREIfSgw08yeqpdda/j07PEHVvRaWrKICFj12h/wozmzkSkXBaannH0G9hl7gAjufpvIPQmN+mrN3DP2MmKPU11F4H8efRyXn3EeWoiAU2n8547b4+LbbgLacr7E37eObIFJS6IC51RKZJ+9ApFHSXdGZz2Kuk5phoJuIEoqcMoCpoOtSpBNSkeVtp0yqkRkZjXLz3T0MW2nWeppEUhlABMjFFM4Z8ZsvPP7V8WMmPYWLllwDT7/rdG9lpRoRv+LXz+KF/73ZawesgZr27rEsgkFWiISZ1OUQKW/i2FfTqO1exCGbdgad150Ob6w07YotKzBJ4PWojOXt4ILaA3fCujVQNEzeyDSEPRQSIsAVMqURfZSokriRFYZKAxAqjAM5ZfeBYpbAJu2wnt/fB2DqRnbn3puRlt7D84nWwJuXfA6Vtx6u3BAOj10/pU/xeg9e2dWfnKIPAaUgWsvugnPPHAHMqkO5NtasfLxR5AbOghWbz0HrVy/O4cLxGE2yh7cmy5UsQisXvVnzJt5DFIbuwReuS2HYeGdt6Ft5NbxnEhrlhERYz90glEtgnOMXRNjSeejS6h+snXw1NGtVuRkolO919EikEpn7M3pDe++j+MOOQLYZAWlwf8+AotWrgCGWqeynKi3bs0HmDTtALxffA8fDFuLwqdasSlbRpGOvHpm6O7fB3QNwdD1n0F7dw6d6/+O/Sb/F1YPWY/OXBcoaGfLGbHgRG3nU9apIyIgZwmGHC5Vsk6M0bKQiKVpa/mLyhB5UYaQKrYhlx+GbPdwtHYNx7CNW+H2H92J9q6B6Mrl0Z0poJjJV7OJqseJpSL6P2VipBNlI0Rh3bkMuqlh966uM+jcs5xyGuliAUPyXfj2Dtsjt2YNyujG18d+C2ddeQY2kSxFL/Ie+nKG+OaOjTh+8jSs++CfQsdyJovLFl2Hr359lJAsMiCBp2JDUYvRSWefpU6HJB2dojZTD/VVg16jEUg9YKtLYmE6q9qpHvpdTzqYEYgz0ovAsyvuww2XXSECNAXm700Yh9nnnWXdDxHLXSVceOJcvPLC8+jKdKNrqxwW/OxW/NvQbcXSjN9hLWf9vh05jNttDNryKZTSRUycOQlHzDkK67AO0/afiPzajSI+j9p1Z1xyxQ1iWarngVD3EhadwiqJzMdawkrbS0NWuEqjFQPQgrG77YlBXa3I5QfikJmHY+K8yTjv1gvQ2bIB+WyXyFhEJmafOqIsivptbVADrXRvhZbH6IRTqoxCNiWe070LUY8Kuj7kuG0dg7DVuq2x5JxlGLphaxRTLfhwyAaUBq0H6E/WyUGcHQm3gCpR9xDsXRJ03x9xNhoKrUDnILz35ksYXARanWYS9lC6ttKSta6v+H107p5Uy/btnkeU4BQleAXV1ZEZtWyzk1+cRJXw0Kq5eHMCIVVpzBZKuPiEk/H6cy+KWSwF6EtvuAaf32O06Mzz9z2Aay66TBAMnfo56fyzsMf4cZWLg34EUkEhD0z6+mhx4oiOnE6YOR0HzTtGPH7slmViD4Y2nimIX7jkBnxx9M6eGb+1fEOnsB66eZnQjzalV9Ix3ly69+mtPHA4tVegFbo0Dpx9KMYcPQ4XLL0IP39mJboznZUltgwyyKfKmDJ7FqaOmSV0evD3K7HoJ5cLncqpNH547lnYa9Q45MWGtrOfUqU4J2MYiCG44sIFeP2Rv6F903ZoG741bn3mXJy99D5saFuPrmzePvVUJRBnU5+W4SxCq/oOncyi+zYZsdle/XciskIqJTIvou7WfCuGdAzCzfMXorVjCLLFHAqZPPKZAkqZvHXMK46Pm8zKtMTWhc3vPy2yNfpYell3S/3uozgqWHgVkBZThbxYmqRu07JdVvwvhxbk6u5Ls2QB2v1cN1g1AoE4fYqyjOXXz2YmLl0/iGOYmsjQJpAey+v2Ulbnh6tx7MGHi4yAPlt8agRuuHcFOtauxZzDJqO4sUMEidF77Ym5V/3ESgvoI7tolwcO22k3QSC00T1h1lQcdPKxFkls7MLs8Ydg8z/+KUSNHPVl/GT5Utf9Czu90SQQIqz2vBXUth/1Zfzl/bfxcccadOeKKGTowEAZ6VwWpXxREMjUOUdh2uRZgks7u9ZhyvfHIdNlbXvvuOs3ceF1VmZkheyeH2fzvNjZhanfPQhZYrfiQOx/+CQcefZ0bLKDKq2+uaHyu1filkxU1QrgiUcew1UXXlQ5Hbbtlz6H65bdWtkvonJkCvGHtoJSAFnw/NsvwPr2dWL5zlKcbibqkklwRjBw06ew7NTHMXjT1kJ8V64LXW0bgPb1wICNQEu3de7b+QgCIqN3AJl1eOF3byCDtXQoWyxFtqIVgzAIQzAUQzAILaL3FrnUyzcwxhHo/QZ4GDnJiKtCzBobxyZB2x0MVXXy9tW0XlhQNCU0EwxMgrNpnVqST3QCoV4WgZcffhQ/Ped85ArWzegx4w/ABx98gD+/9LLAYeA2W2LxPXcA/7ZF8L0NL2KeDGTiUdMwca59y7sI/GblQ1h4wSVixk+nq87+6cX42t7fqx7rdd0DUc1AHAKhPtC9CLH81JLFvuPH4/v7jcXW238eyNHZ2hLWr/4I3Wlgy8+MtDQvAtfO/RFe+vWz4s4J3Qm59bEH0TZyhPXcb5OiCDxz7wNYfOFlItB35oAFd9yKEV/ZoSdO3lTNu1FeCbaWHh/8YRVOmX0csh0WfWWHDcbC5UvR/h+fDsS/C13YgI3YKBYJ1yGPbkEudFQ5ax8k9tKCH004p8Oo3VLlQqKlID0bhG0xovQZtNIGD20h5YD1bcD5i+7G+vYN6GzpEhmgdVPeeoWJoIJUJ1LptchmPkE69QlSKZtACq0Y1DEI8484v24JRPQg7C0N4sSZ/iaULLCqZDcyGe5hGdYHFf112gpqV6UdleBrqouK7CTKyPxH1mZcuPWwS8mWKksGQpWjU1mlFK489Uy8/MRT1kYtDQj7VRr5bArzF1yD7fegy4b2u5gqAv0Wwu2TVN4lLCcDcVaDuss4ecKh+Phv7wlpIz63Ha66726g1SXTvj1P90CsJay0vYRln511d8xujzIQ0p2W47bfZWeccu6ZGPzpkb2PujobwQ54BWDVE0/hglPPFFkTHcWd8sPjse+Rk4F09V1fldhP3SyWcO6sOfjbS68KTbb84mdwzb0rrD0kpROorpm2AB3o/uhfOPGI6djw0ceiz925FM6/wcE/OPOj03IF5FEQ/6NlsyLa0IWseF1IN0B21vyM+Zq9Ue9eYiu2o61zS6SLbWLviA42iFewZKwDC6TvpkwGv33tDXTQSTu7zfAlrJxYxApawqryr015lFX5kbpm/3SKRw2+fm3JgqDsuR+xhQUa01l7GAnJAptKH3TsoNtnXdk65aOQggw3HT1My6ZiIRA7cJVWr8WxEw9D18drK6/YoCOt+x5+MI44+zT7tSPepZCQKBlEIM4SWAF49bEncfHp54g9Frp3cfx5Z+NbE/evzrJ7LWHJCYRenUL7BLuO2RPH05Jbzg66Pixrdd0+90Vd6+jG9L33Q+lfGwQJbb3D53DliuU9CKFCIEWg492/Y+r4Q9DWXRb6H37SMTjgqOk9CKdiXLqRSZv0NFMVQjxHBujXrgIuOPoYvPuHVYLIKYuadtxsfGf2zGpmpno7ULRXwL47fhkDaE+l5OQT4e7mHKSmn/e+ahGj1iedBbIZINti/aQXbUb81AOB+AUup1umwUAluMqyEBUZjp46ZYNMpitDt7zMVZKWJ2vf/dzU7jptJFlWewnL99gUaUgjNA/8+uZluO26RZVXYtAsfMk9d2DQDp8XAUwce6XjtSq98iOQucdaAZ0+YhMfOH3qTLz/6p8EabWP3AqLH7wPaGux7nn47oH81pLhvMrEuaBmt0cEQksnB8+YivHzjq2+50vy3kaxkV0Ell56BZ68+77KkhT1f9iX7P7byxTCiQvAI0uW4o4FS8QyHGVqSx+9H+0jt/F/k2+hAHR0AoWAg70l4PGLLsXjDzxcOba8+5jv4oCfXCL6Osk+tusO8NUb9s5N++rPfDotLkQ+8voqIJO1SE0lCXETVI/R4jG6l8gqUUqs91j7Hq7MzddlQk9hqDhZbcvEMYN3a6wSDGVlZM9125MhWuv2wvQXocs9JmXK+zxvdBIw6HKlSjwE4spA6F7Ipn+uqbwCg/YQvviNUZi/dEllgzto+b5XR1wEQgH9oJn2JrqTgdib+H957kXMP/akyomsWScfj71nTLUIwiYQsYTV411Y/qewepz6oiUz2nPJWW+kpY91gMmbCdgPbX3W/P41nDbjaJEBEIESEY2de3z18IAjrFjCORMPx4dvvyvI7yu7fhNzlyzoecjAAUvILmD89jsgV6STSNUP1RX3YsQxYsoUKM6nREZDezTiwmYauIeyAZ0NcQre2ZydBdg/nWZNA7esnuy510l0y0cZLTHUDVqyMA1CqsE4rJyqDOH/GhvuYXCpylEtV5l7SPaZwnQytUEMbtGwIvQJxK+rNKXNA1eeegZe/u+nkaHXvWcz4p1VFNwokE2bdyLGTp/sms1XtkaDwZMRiAjmVhZy8VHHYdVLvxc32Fu2GIxbHlmJ1NBB4rlzjNd6F5bzMsWeBCLe+1QAJn1t9+qxYWfPJWvv6ThLVWGZgJ2FXDdhEj545//EPsbQfx+BMx950Lq+nkph0qhR4oQsHThoK6aQK5WRT6fEq12sFxtakNBLEulIrpMxdGWyeODPb1jZgBM4afZUSmHNiy/jtDknIl2wbuanhwzCDctuQcvntqvupYgZv/OO96BX9Xr+PSAT8N7V6BXHIwR2R7bOfZBGGIGy9W6TAKYaYBuJQGQ4mZKAKlaN4Ev1omN0ArED5gsrH8bVF16K1pK4G44zz/8x7r77bvzfG2+JvpYGtIrTRcO+9Fl7hq1wzFJGIGJWbmUDG1/5E06cNkO8Br07nQad2Nr/+Dmi7YdvWIQHblkmgnZHtow7XnrB2pMQX/zkpBWULgAzvm4RCGU8h8yYin3o2LD37bZFKxNoLVrHdb0fygRoI56WpUQWkiljczYlyIHi9z1/fFVkRs9fdS0euOseaxelrRWXP/EYMHBA8PFm2hNoGwBkbYXsjKfj/Y9w0uTp6LD3nmgT+twrf4qv7PVt5e8lieqQcRJIVF3qtb53LyKOgKYjI6hsHDK8mMdFArL9G1Vb6/RRVSaXozmxM+0xmTHaS1cb3nkfJ0yahuLGTeLY6x7f3wsn/OQSrH7rTcydMhOZLnrHbRrbffmLuJjuarTRNWQH/pCDoTICoQ3lAm0edAOdeTx46ul44dfPWK8jH9SGy+ili1tsgd8ttL5QijIQWs65ir5QKgMc/LWvVmb4NE2nW+SDu+hORBnFlJUROG/DrThLmV5/nrYyAdrsdX+cC3PUpfc+xLQDD0Jbvig2sveaeCCOoJdNOqTVVcLc/cZh80drBKnsNu4HmHXRfItxRKbg842CtKcjvrnRTlGonU2dOGPGbPF6fbo8SP2bdPSRmHjCHOt6fMi3IqrM8Ckzo4/xfQoTv4phZPZRs4GaxxG8/YTrBEbVLCTqngDpqZJNyXSXPVd1k7j3nVTb7Q/lohEIxZbuEs6adTTeeWWViFdtI4bjpnvvsu57lIGHFt2EuxcuwaBCSazDHzznKIw99igrSIpXfHgDpuv3QgkzdtpdZBUUhA+aOR1jaROd4rYgLyv72H/HHdGeL2BAoSTeipumrITuEGSs2++0JyC+P8MmEOttucDdr7tOCFHALpVw2jd3rxDIYUdOxTdOsi8uOt5A5XLZaiZgR6rKtzHapErZzPzZx+Ovv3vZWrkaPgS3/+oRoD0ndqn/9/+9iDNOOBmtBTrCCpy38Fps/y37mLNoK+TkkRMdC8DCs36M3/zyVyLbIfIeteduOOO6Ky2i8RGhQho9OJEJJHIcUA3cFRfTuA+iEmRNswE/EogrIxCTEsl+ShxtMXlEdt9QAeZLWPbSFRHEnTfeIl5LQcH6x9dfhR2/s7s107aPlZ41eSo2/fE1tBXy6GrJ4OqlNwF0Uc51FIv2Bbyng3JFYHB32T6OWs0IaGOYYqM4JZTO4pFVr1nZQBm4a/4leOKBX4h9mExrDovv+xkef+DnuG/pcnHstTObxvIX6QulPEtYYi/FIizKRKwlrOnWElb1re4WmN5MQPyjK5Oyl5aeWfkQFs+/ROjSnU3hx1dcih2//z1ReslZ8/H0Lx4TpDZ4my2x6NGHrPsrKsfT7H2fR5fdiduuvl6cuKIsZvh2I3HdXcuALQZV7qz4Li3ZbVRW72wX8SOXepvJJzsc4pcuC5IqgdSvjI6mspvgKjo67emUVdExiCTiaIfJQ8UC0cqYEYhNHn//42s4dcYxyBYK4tbwf01wfcGTazln3ao3cOLeYzEoT7dCrE11ygCIcCgrCbwvUARO23m3CoFMmj4F35x7XHVm7ZwSooyACCSVQeff/4EjJxyK3GbrNRzf2fcH2HqbrcTX8NLLoToyzhdK+Z3CKmGS2AMpoZTKVl+d4vMNf71h9xAIJUifbMSUMWOR7qA3+QK7jNkTJ9G9ku5uTP/ePihtsF7xcuC0wzHp1Lm991r8bGtj/9fnXsTZJ56CXL5gZThD2nDNrUswfPsv9CC8IAJRJQbVctHcsHlrqwZCWZYQtCRkMks3bUuV7HSsmdTSXhK66vSrv5Q1IBD7feXrO3Hi4VPxyTvvo5xOYfC2n8KN9KqSIe09l05KdNW4jMcWLMGKG29CS4nerAvsf8RhOPCHc+3vaQ34sgvKCL5RfbnhwTOnYx/nHogzfXafEiKrFYE7rrwOv1x2l/WG4EwKo0ePxkvPvSBONwWdwrKYLQqBeFzGDvQLf3QOnn/0SSvID8jh9icewcsvvICrzpyPdLEsXl2yeMXySuAPDdi2zPXv/h3zpsxA19oNQi4tyZ1x+UXYae+9Ki+plDlwj3acX8Sok9Xk56oIqJJHUIYRxz6Cn66NRiAqOHj7qYO9qj25XG8E9AhEBBrrtNIt51+KJ3/+sNhfoAtwly5ZiM/uspMgD+9X0zrfpf7DKTPw4V/+KvYt8rksLl98A7ajOtXvL+2poedi38QZUzDxlOOCZ+p2ICx9vA4z95uA0vrNQp7YS6bvAM/YBOL3Nl6qS+3t5Hr7r+sYr5HzFIC3nnkO55z0Qwwg4iyXcdK5Z+Dpp5/Gq7/5rcBpxJc/h6voprq9ZxFKIJTkbOzEvGkz8PGb74ilMbE3dORkjJ/n3DPx2Xz3u3nu7pCbNOg7Uny++c+o//24kkkAq1WdIMJyzKXzKhOT4B4W7H2XUTX2hKKQcT92V+OuaxCI/YKrEvDqr3+Di08+vbLvceCUSTjitHm9iEA4l3PrvAR8uOpNnDz5SOS6rbsKQ7fdBgtow30IfZc63U/w9MNFIPlUCgfPmoYJzs3wXl12veOoCDxy4624Y+FN4ouenFea9yIQ95c9kTzZq1N8YK44vF/kt/eAjhp7ALr++YkI+P/5pS/g7bffFvc16Fjv1FPnYt+ph1nfsCSb/ReAq085HS89+Yy4Q5JKlTFq111wyvXXWF+wUTmUYN8YD3xlib3b5LzLi+p5sfBJqDhBUR9nJmTgF/xkATqudtw960sC8UNYhkGPuZDPRUKd+uoW5pLCXyvHeKV40IknoLj6Exx96GR0r14ramz1+e1w9d23A+2trqUrZzvcdc2CCheABxcuwYrFSyunhr5z0AGYQ19AZWchPWYgngyEbqIHE4irA/T+8w2dmLX/RHR9vAa0GS/4wZuBxEAglVZdBNKDVIolLL/iWjx6+z3ie0bEPT77+707W9NiSatlxDBLjAKBHGq/bt75LoxSa4tYpqM9KCvzs4/d0hdYiVZIZHcAABQdSURBVDuD1e9w9/5OS3pd6TIefu7ZygXPIDfgvRDpAKkUMA3qfgRC/5ZUQA9aykqqvSAEw5bUdIO/bHlO3YrVkro6mLTRqHXUCMR1bPTyE+bhld+8YH3HRC6NK5bfgpFf3UE6gxUAUWzrLOCUKTPwzzfeEstKdKfigmuvwPbftU9uuZE0JRBxCqqEJ++6F7dcdrUI3BRwBYHQJnrIF0r1epWJ30VCVWvT/k+qjH+sehOnTDoSA5yv17BfFf+VPXbB6YuvU7rsJ7Z8CgARyEDXq7Csr+e1Pm5yImydL/etXD53LqHbP+kwQwfdaaFTafRusOjvLFRFpmnLRSEPBxQdGTplvaDXC4EEEaeMPP2ciAmktkNLi0AevWclbrzs8sqL+g6fZV9YC9rD8PbFPt76jzfexIlTjhTLODRzbh8xHEvuvRNtw4dWJ/S0Dl9MYfw3R1tv2kUKh86chsNoE917rNavHWKrzgKOm3gYPn7vA3HJjmbqtGz0CwqYfvckCqi0R3rRTXSl9kJtZu0ZzTt4Mj5462+VQF9Kp3DGxfOx8777yPvjnDGw9SNCjONDhxnoZYkPiWPNTCBRMY3z2KgqMaiW05n91zoDCSIQk5k/E0hUL9arnyrTzq6woKSiM821l4MqdSRr573e3uuWUzlJFbAGb586qrxuxLl8SBu9trqBanvbcfpYWff33oC3ozRdQqRHdNvb1Z4erJ7S7n5Uppk25jL83KL85ERRzAHP0UHmA15dVPwmin5clxFgBOoaAXUC8YmJSvHDE+mlgV8RruhyfAhEtB3074qKNVoxUyBN6zUaPqwvI8AIBCKgtoQVBqCTRbjfS9gngOsFfo5/fWIkbpQRYASaCAEmkCYyJneFEWAEGIFaIhBIILHP0E0FmtbTRLFGzWhqlVxx4/4aV0yuLyyZEWAE+gaB0AzEtToVXTvTwGNaT1PjGjWjqVVyxY37a1wxub6wZEaAEegbBFLlctEJCZYGzvdQePTpQSbiF709h5p1r1eAq5Ge2oHVXy9tMUkDW3cKJd1hls8IMAKqCPgTCNX2HOlkApFAqh1omUBUnZTLMQKMQH0iEH0TvT77xVoxAowAI8AIJIwAE0jCALN4RoARYASaFQEmkGa1LPeLEWAEGIGEEWACSRhgFs8IMAKMQLMiwATSrJblfjECjAAjkDACTCAJA8ziGQFGgBFoVgSYQJrVstwvRoARYAQSRoAJJGGAWTwjwAgwAs2KABNIs1qW+8UIMAKMQMIIMIEkDDCLZwQYAUagWRFgAmlWy3K/GAFGgBFIGAEmkIQBZvGMACPACDQrAkwgzWpZ7hcjwAgwAgkjwASSMMAsnhFgBBiBZkWACaRZLcv9YgQYAUYgYQSYQBIGmMUzAowAI9CsCDCBNKtluV+MACPACCSMABNIwgCzeEaAEWAEmhUBJpBmtSz3ixFgBBiBhBFgAkkYYBbPCDACjECzIsAE0qyW5X4xAowAI5AwAkwgCQPM4hkBRoARaFYEmECa1bLcL0aAEWAEEkaACSRhgFl8/0MglUpVOl0ul40AUJXhLuduSKddrwyduiqdi1u+DJsgTFR09SsTNx6metRjPSMCkRlQpaOqMniA9A5APEBUPKzvykQNmDr1w3xBNfDptGeCatzyZbGDx4eJlczqGBEINSUzYpg6OnUbYYBExcOLlQyfKJj41VUNNGYu1v9qRQ2YOvWj+IJjGZ32TKwZp3wVWUwgJlYyq8MEYoZbr1qyoK/ajMoAUZXlVy5p+VF0a6a6pjjr1pMFS5XJgW6bJnaKqw0VOVFIlSdYetY1JhDTWbeKA7i70J8HiMrg1zN3tMxRt63+XF43EMn83BRLFR9SHZNRJkm6eAT1V1VXU7ySlm+qV73Wi0QgOiTCA0TNBaIMUpUWHPkqgUVFHpcJRkAnGCU1PhztwuytqmcU34yDQFT1NPXJpOWb6lXP9SITiJtEVJ1UJ3gFGVXH2CZldXT0EqnKoO2L5aUoAaCenbiedVP1vUYjELePy3SnsRRURnWcxUFAYX6iaqd69rW+0C1WAqEOBDmE6cy3rwhEd4BEJZGkHThp+X3hvI3Spgx72XOTwKcjM2rZRiWQML1Via1RfDApPWMhENlSVpSZb5hzq8qtxQBxDKTTltuopvV0gksYwSflYCy3576Tnw1U/Vgna9Xxp6hlVQikHidYTCDRR2dsBBK2lGWaffg5nXdmoCI7rgGiMivRaSuIQFTaUTG9qS4qsrmMHgJxZNI6BKIydkwmPTKy8NPR7c+mPmlar5kmWElgoOfFvUsnQiDuWZZKgNcxchCBhM2udYD3GyC6Ad1kRmlSR2b8JGTK2ozyXMdOUdrpq7qy4KvrZyokoeIDOrhHnbXrtMUTrJ6eaopdkv4eK4EEpalhwV3WORXQZCSlIsNkNhaku8qg9dY1qaOKnUlgksnm5/oIRA2+uhmICsGolgkaHyZjW2c86uqnahVdHVTlJlmuHnWuCYFECWAqoMmCr4qMpAhEZYDJ9DdxyiRkmujBdcJnkc5T0zGi4tsyX1CRUS/jQ2U8yXxOp78yWf39eVMQiHuW4jcQdRxGp2yY88gGrbuuTlkVh42rDyptcRk9BPyyEFPyUJ2dy/xB9jzIV02Dea3bC9PftA96Vm/e0k1HIH4O0RcOq0oKOrqpuKFquyqyuEz8CAQtY5mSiKr/hJVTlaFKWCqoqbapWs6kzajZn0qbzV4mMQLxXh5KeoB4ndv05EdcDqsqJ86AH6esZnf8vuhfEHlECWQmfuadZKnKaDYCMY1JfeE79dpmrATiF8CiBjVT5zY5rRXnAAkjtKCUOqpDR8W6Xp20WfTy2kfHt4Mw0JERVDYOGbo2Ul3Ki8undfqo25f+XD4RAgma/ZsESB3Dq6bpSbxyxc+JVHR3yphgkxQR9ecBkVTf4wjepj7m1It7fHgzGV3sZOND9ly1PVWyUpXH5aoIxEYgYYEwyixC14mC2lLVQbWcqhOFyYurrbjkqPaJy+khoBq4TZaydMZHUCA1lRHnpMePjOLwayYPPV/VLR0LgagYWqWMbIal6rDetvpqgMiWsUwx4cxD1837rryK76mUiWMJy+uPTtDWaV+nrArqKhM+00yHyUPFAtHKRCYQ1SCoWs7bHZN6cRGIqeOqBHiTfsWBTTR34dq6CKgGXNNgZ+JHfm25+6W6xBv3+HDLU8UtzB5xyNC1d38rHxuBqGQHJgY1GSB+M62+GiBBWYhpv1TIqb85cb32V8ff4yAQ1YDeaASiElvCJlequNSrH9WzXpEIxCQI6tbRGYRBwdVrgFrOsJIiEF0c69kJm1E3E7+tVZ16n2CZ4CAb+yYk1Ix+GXefjAnENIDp1oviTEEzrb4mEF0MeHYVt9snL8/Ub3Xr6ZZ3eh6WhfTl+PCzjE7wN83kkveI5mwhMoHoGNfPeWX1TQdI2Cyr1gPEVBc/l+MBUv8DMW6fTcpf63GCpbNaoDo+onqMLEZFld/I9Y0IJOoMOmhZR8UhdI2pG3CjDP4wR9DVI0iWbP3axBl1MTVpoz/ViTo+dHxQp6wsk3WeJ0VYuuODyuv6Jo+P2o40IwKprYrcGiPQWAhEJRCeYFn21iWPsEw/igeZ6BGlvUaqywTSSNZiXRkBRoARqCMEmEDqyBisCiPACDACjYQAE0gjWYt1ZQQYAUagjhBgAqkjY7AqjAAjwAg0EgJMII1kLdaVEWAEGIE6QoAJpI6MwaowAowAI9BICDCBNJK1WFdGgBFgBOoIASaQOjIGq8IIMAKMQCMhwATSSNZiXRkBRoARqCMEmEDqyBisCiPACDACjYQAE0gjWYt1ZQQYAUagjhBgAqkjY7AqjAAjwAg0EgJMII1kLdaVEWAEGIE6QoAJpI6MwaowAowAI9BICDCBNJK1WFdGgBFgBOoIASaQOjIGq8IIMAKMQCMhwATSSNZiXRkBRoARqCMEmEDqyBisSv0hQN8uyN9IV392YY3qAwEmkPqwA2vBCDACjEDDIcAE0nAmY4UZAUaAEagPBJhA6sMOrAUjwAgwAg2HABNIw5mMFWYEGAFGoD4QYAKpDzuwFowAI8AINBwCTCANZzJWmBFgBBiB+kCACaQ+7MBaMAKMACPQcAgwgTScyVhhRoARYATqAwEmkPqwA2vBCDACjEDDIcAE0nAmY4UZAUaAEagPBJhA6sMOrAUjwAgwAg2HABNIw5mMFWYEGAFGoD4QYAKpDzuwFowAI8AINBwC2gRCbyf1fnTfVqoqw6+cu22VdoNkqNRVsWbc8mXYyDBR0dmvTFx4mLbfTPXcNjLFVVVGHP7nlWGqc5AN45YvwybuMRI3Hk3l62VNdKI6rE59FUeQqa/Tnolh45bPBGJihfqqEzVg6tQPGyOyseGgptOeCdJxy2cCMbFCMnViyUBINVNndbrlV7+/EYgKGalgYuIqqvYzkd3f6kQNmDr1+xuBqGAT9xjhsRE8grUJhESpBDq/JnXrqTpCmIF12zQJdnG1oSJHBZMgPOIINib49Mc6KoFOZYzIgpfMH2T1/cazSh1dm5ri4W1HRU4UP5etAOj2u9nLx0ogQZmIzMmjghwHgURxnCgO6+67CoFEwSpp+VF0a7a6uv6U1BhRIQOVoOwlGhW5Mt/WlVELslPFotn81bQ/RgSim4UkNTi8ndZZBvOW1R3wssERtjSnMvPUrS9zACYPGULxP9cJRkmPEZ1JlkoGqxv8o4wvxzI6eJpYM2n5JjrVex1jAtEhkaQHR1iwVQ2cSeooG2xxZTBBzqaKQb07ayPqpxqUkvS/oJUB3cCchI6ysRGko6xPur6iaidduc1ePhKBqJBIlOCl67BRMpCwvkR1AtkgSYJAVLCT6RW131zfQkAWnGTPw3BUsbMs2Oq0r9qequ1VfTCODMarUxLjTrXfzVKuTwgkitOEAd9sBKKKkx8mKgM9ivxmGQC16IcsQLuf69pExc7NSCC6OOmOkTjk18K3+rqNyARiMnNXNU5Y9qKa2aiWM+mH23jUJ5223HVN65nOTFXxr6VzJoFBLfWXtRVHoFcJgm7byojLkadaznSMmOgkyxbi8OEkshqZH0R5rmOnKO3o1I2FQHQcS8fwsqCi4gAyGSqB3EsUQQDrtCVrVwcnlcDilIkqV8e5dMqaYqfTRl+XlZGIiW1kQUUlu5HJkPmqjm/ptBXUrglOKmMkLrlJ+ZkpdknpI+K+7k103eCpGnxVDOx1VJWgo1ImaCZmortOe2HEG8WZdXVI0sFUZTeizqp9i9O/vG3KgorsuZ8P6pzYovq6vqqiUxhp6banElvikKnrD7rldXHTlW9SPjYCCQuGOjMUldlOWErsdWidwKRTVpdIgxw0jjZ1MTNxFK4TDwJJ21u2Dyh7LiOEOIKYrgzd8jJLxS1P1l4zP68ZgZgwvMpgk5WRPY87+Na6PRX9ZUGhmR283vqmsuyqo7NKMJSVkT2POxuodXuyMWISm3Rs1Mxla0YgJkFMNRiHlVOVEZZB6TqYapuq5VQcMEiWafan0iaX0UcgTpv7+axqpmu6sa0T/MPQUZWjWk7FEnFjr9Jms5eJjUBkAcwkkKkanAnE/P1kze7g9dQ/2RjRnagwgehZN04y0mu5eUs3BYGEZQ9BplNZCzYhPZkuOvs3qm6nSrSq8rhcMgj0JYHI/NLdY51NdBPSC9JFNiZN29Ih2mQs37xSYyEQ2cDwwqfqCDqBUTcLkTmr6oAKcg2Z7rLnqi4Xhr0qzqptcTlzBFTHiK7NdGbVYWXdz2pBICpBXadvYZbxw14XZ3PLN3fNyASiG7h1ZvU6QVZ1gIa1H6ejyXSPoy0mj8YYnKqBW2dsOGV1gqzqGFElkKhBWKa7KqkxefTdOIhEILIgGZY2qzifinw3dKoDhOoknYGEpem6/fJzDyaPvhs0Oi3LgqTKTFwnQMrGlcoYUSWQoHFkio/pxr7OKoAMHx3duWzEi4SqgdA02JnM0lUGSF8SSJjT6Ti3Kvbs5H2LgAqBhE02ZNqbzNJlY6SvCCSusWGSnclw5uf+CBhnIDoBLE4Ckc16ZINDdwlL1p7O7DCuAaKDPTt+3yGgSh5xEYiqr8rGSL0RiM7Eismjtv5uRCAmAaxWdYIGoxfWWixhqeqiOvBl8kwGWm3drf+0pkMeUYKeSTtR/Mi0vSgTLV2/Nlm56D+eGW9Pa0YgYU6revkpLHtwwyKbYQUFbBOSk5lDRRdVAjHN5GQ68vP4ETANtLr1dMsHkZUbgVpmIDIyUx0bYf3SJaD4vaF5JWoTSJQgqxsAk2qr3ghE1cFVycjEXVV1MJHd3+qYBvWgYJpUQDcZX1H6FuQHunEhSjZj4os8NoJRi4VAdADWcVqdst4uyoJtrZaw4pxhyfpkMjhUs7oosvtbXbeddMZG0Cy62QnEZHXChIxM/dDEhqZtNVq9mhOIziwrCoHIAne9EIiOczKBNMbwikogXt9NikB0xqIJuelYK659iyTGiM4Y1elzM5TVJpBm6DT3gRFgBBgBRiA6Akwg0TFkCYwAI8AI9EsEmED6pdm504wAI8AIREeACSQ6hiyBEWAEGIF+iQATSL80O3eaEWAEGIHoCDCBRMeQJTACjAAj0C8RYALpl2bnTjMCjAAjEB0BJpDoGLIERoARYAT6JQJMIP3S7NxpRoARYASiI8AEEh1DlsAIMAKMQL9EgAmkX5qdO80IMAKMQHQEmECiY8gSGAFGgBHolwgwgfRLs3OnGQFGgBGIjgATSHQMWQIjwAgwAv0SASaQfml27jQjwAgwAtERYAKJjiFLYAQYAUagXyLABNIvzc6dVkGAvpyIv0xIBSku018RSAEoU+d5oPRXF+B+ByHgfLsdjw32EUbAH4H/DzPOn4yBNhsBAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CbgUxdX227Pcy3JBcEETAVGjoESDJDEi7hC//K4QjSFRg/miJE/cosbdGMXdqCgoIoTPxCWGfC7RuCQBFVAxaqLE4BL9RAFBjRv7XWbp/znV0zM9c7unq6q7Z3rmnvFBuHdqOfWeqvPWObUZpmmaqOHHrszwq7OYMF9ImfDLUfheNb1ksbFLFqydJqz8BmRxjR0ALBAjwAjUGQGDCaTOGtCunglEGzrOyAgwAqEgUHMCCS51MMNp1y/tCQUXmEtgBBgBRqApEWACaUq1cqMYAUaAEYgegRAIJByPILSmNrhr0eDih6ZGLogRYATijwATSMx0xAQSM4WwOIwAI+CJQAgEUlE2W8BIuxvDGym8XDgjwAgoIMAEogBWHJIygcRBCywDI8AIEAIhEkhhLcQsnCvwPejhrgAvA1n6fczWXOrVjwIyScDs9Wo118sIMAIxQiB2BJKHCUP8V/6RJRA6F2kYmuwVI8X4ihKQAQJm9xWPEzACjEDzIxAigaiDpWvs7Xwy+T09mgYnGpm2q2uEczACjAAjII9AXQnET0zrug0KieULF2/Y4Ssrp+WpWN6G15UclQRiX+HhV7fs97W+CiRM+WstuyymnI4RYAQaA4HaEQhZ8kJkyfHP7igVviRDmRO0YWLlhyvx2hvL8PHHH2Pt+s+RSqXQr29/fGmnXbDnyD3R1qsNCSTKSKQ85GWty9DvcsgU6SioiqjOJJI1u0/KwoRQKSdSaod9o1XlClH3lJSWsCL6KMcsKB6cv34IuIVta3zNXf0azzXXDYHaEkjBiAu/wu0KRwOg5YuOrk14dMGf8Zf5j+PZJc/g8/XrCjkB0yhcAmgmkDANpNNpHHzgITjnjJ9j9113LxrFSgKhwZQ3TAwdPgSmkQ0FcMNMYOW/VyGJVCjlVSvEkj9XkL87LRA3S9+KmSfySGLFWyuYRCLXXDQVqK7zyZKJarl+rZOt168c2e/DlL/Wssu2MU7pIiMQt7UHuve3T98RyJu9BIFs2LAU+YJXIgiFptFJ4Ic/PgHzF/9VkEU+kQcEWVTOscthJGN+8XkX46c/PNXTKOaQxfa7bY9cMlMksLL6KVjmlKfKz1R7MpfC6jfWREIgbvhZ8n8RuWRWWn6S026TjVgin0Aql8aKf6+sqQcVp44fV1mcBtDLgAUxkn5GMUjZbpj61Re2HsKUv9ayh41FLcqrOYHk8kDetDyQ/v33Qq4wbyaCMNGB9R2v48T/PhmLlzyNrJETGLSmWrHXV0Zj+PDh2GqrrcSayPur38OSvy3Gmg9WIWdkxM6rZD6B66feiOOPPb4QokmWYUgGeOc9d0Q+kROkBPJmfP42kBSBI/oYCRPtXe0wyVMyE3UhED/5zcKakXMfmk1GOSOHzkyH8D7S2TTee3Ml0kjXLARXiw7dTHV4haWCGslqhjFo2ZX419oIhyl/rWVvxL5rmPnCeyB+O1+19306ovJmIcziEWuhlH36jUBeGDXa0Fv6bFz/mvhBhL8KoS5aU7n7D7/BpVMvRBc6LVLqNQAvv7gUbck2incVt/SKzmDQKoK1rmItyFh/mxU/028qvyfyuWbaVbht7kwhB5HVcRMmYdrV05HUeVOjiKeFj2X4i8tErn3Jkr67/M720CZo+rmSQEj+6b+ejutvvk6U3ZJrwYo3KPwWzhqOyvsi7jvIvFZvvN4r6ZnngbwMpIq3EpVhbPR1mEr5o8KpEYnCS+ZICcS5Y0hmxw/ZePJQrrjyPuw/diwOOmhocbl4i7ZRFoEYFOnKwUAG6ze/KX6+6dZbceNtNxQMewp33HoHjvjmuGKYRxhTH4L0PsBoGe2HnngAp519OsxEVngte40chQd//zB6J/u6Fi2/zVaeQKp1vGr10bL7R2s/wAGH7Id1XetAIaxjjjgWM66/NbQ1EBUCcW8HE4isYbENndPAVTPetTDstahDFh/ddEwg6siFGMKyDWFJiNJuIdrvQzt+fD62h+JM5nBD7LcTaaGdamtr21V4K0QiuaQVDNtmq21w0bkX4qdTDiOHA4lEucdSzZGqNMIUuiLv5NV/v4qJkyZgU2ajIKWB/bfG/IcXYPCgwWVejlvrimdWXHZOCV/B4SX5weP1fTXyoPZmkcH5l/0c9/7hXrGm1Jrsjef+8hyGbjdUInwV7Uzfl2i9mb1sVx8K53p8y9MFuQHzVQvnhD27bnTj2+jy16t7KhNIKYxiiUzEIDyDQmhl7cZ1WPrii/jPW28j39mOLbfcGnvssQcGjxhprZALb4DWH5JAkv4ml8KXWsrxIaIxLRIx80BHFth55P7i50//84kILyXyKSSQF57Khk1vlra5ViySlxVciGqRePShtn687mMcNvFbWPXhKsv4Gr1wz533YP+vHeC7eG4HzEjSz9Z/hhdeeAGr1qxCJpPBgH4DsMsuu2D0qNFIJUq7uIiwdLfYVhpPy/bm8cZ7/8Y3jzhEhPmSZhKnnHQKLjt3KhJmUuLUfrQE4tvxHdFEWnuiWQJNGGj5SkwkPLqOHfhS7Fm+4oSRoB7GKkoyCas9YZWjo6N61q0jb1zyKBGIfQ5hh+FDkUvkxDban045DeedfR6WvfUv3DpzBuY/tQB9N23CQVtvh4EdXYJili9fjhE774bLL78C2PsbQLIFaGkFWtJAaxpIamyDJRIpeCJvv7cKB37rQOSNPJL5FGbNmIUjDx0P2sBF5q9f3xEwkQbMpNjKS52FDBDtAnN+BJclLcNEbc0ii+MmH4slLy0R5EGhn0vPvxw/nvxjse5RLSxnE+2yd17DjdOux5MLn0I2by325/OFrciGgf5tW2DixIliO/LcuXMtUjYNrHpztS9BuTlq5Wsf1lmayT8+EQuemQ8zaWJgr4FY/NSzGNRvkIT34d1N5ZfEqhOQrMdA2xioTtqAUbmEJogFwNChXxVeJ4wckmYWq1YtExOHWpOIlzHyW+AN2yso79vlKPiFv8QEynb5q1irMEJXfri4VS8jm6yR7SnkEUU7lQkkgwyGjRiKTCoj9DP5eyfBzObxu3n3WYYxYWJAJosd1m7GgE4rzU47DYNhGmIrrmGmkDWS2JxMY/rCxUCq4IkUt+k61Z6zrDmZgGTS8lQoJlVwESwjncM1067GjDkzRIffZsA2WLL4b+if7i92SglPpeCx2LNXy0gD/fpZ6yrFj5HBxk2vierIKP3iiqvwP/fOFcRE6Y88fAJm3niz8KOqGSabPGb/djamXnd5cTcZsRZ5AJWdnxRLO6TEoKU0uRTWvP5hYAKhhfNFLy7G9ydPQo4I0AQuPudinPqj05FAKpBhVSOQ0kFOpw7cDUNB5RVfUn2Dh+4Jk9B36Sukr5Ur/1EgECBJeybEeln9CUTWkFWmC8tI6hoOP3Lw+96v3TrEYZcZFTayxOnXtnp874dnWJiVmUxToVQyjE4CEYf68oYwimJbKxL4xtf3wdf32AOD0n3w6Yer8dTCBVj94erCAcCEMPBPz18EtPbFWQeMQ59sFulcXhhsW3lTn3zSIWPe8lBaCx4LeS7JVOGceh5/mv8IzjjnDHRlO4UMt1w/HcceeWxhZ1RCTFeLM1Y7HCIq6q5ia11lN+TQIlqaT5owEzlsvc022P1Lu+ORh+agV4tlmNL2TrBuhs4itRlzb8G1N14rDDd9iBR223UE9tl7jNiK3N7ejhUrVuBvLz6PTz7/tHjmRZdASmKU1qLo1Pr4iePw2tvLhNHdftAX8dz8JeiT6uPifUQbqrJDjrYn4TbAyIMokXlpcwHtyDOQw/srX5UmPSIOqlM1OhrGwPcbyH512ENSdceVW7lBjXxlmWGFwsLCyA9Lv+91ydWv3Ci+98NMwZSHJp6WB7LD8CHIprPC6JHRptDOsUcfi7N/di522JYWZi02oHh+h7kZZ55zBh79y59EvJrWJ6678HJM/s5koDMLdHYCWQpol9p06bhxjth8Hl3JBDanUrhl0dMiJtXx+WdY+s9X8IeH5mH+wvlCDqKviy+4BN/94U9EqAq0rkCWXqyzeG0FLceRDE7GBF5e+hm+c/x3xJkPUtqnH30mQmOirbDOq2ze+Eb3zbuFkNqLS1/Fsccfg6zZIbyXrQcOwPQbbsbBYw4SFTrxoZ+XvPwcrrr+Kry87B/aHoiTQESoB3nc9+B9OOeSs0T4jXD/1VU34vsTT/TYduwTarIrKKxBKPdAExgydE/k6VyNx8YB8iBKBGL9y+Z88vqoi9TDo1Btq6rhVzXysuWrlqvSzqDGTFW2KAy9qgwq+OikDYqpTp1B82gRiDOENWTboZh+43TsM2oM6NCdvahurT7QJ49PNnyC0fvthY5cuwhjfXO/8bhn1t1ANgFQ2ItWwr0+ZNXNPFYsXIDrLr0IfXNZpAprCJaZNLHtNoNw9tkXAKO/bsWebI8l3SrWWMykXLiGZscffPYpDjv6cHzwyYdCopSZxl1z78LBY8dYu7oKi/dtfUcCprUDjD721SzrNi3FxGPPwj/+9Q+Y6ETfvgYee+R/sesOQ8SivmUUrYVy+0OewtU3X4nbZt9WXGuxQ1jyoaISgOQpbsxtxP4Hj8UHn64WX4zYcTcsePRppNAiPYt3cEbx9EnlGoTtORI2Q3fYyzW8RKE78hlXrPynct22DHFeFK/sujrGTiePX73O78OcncoY3mokp9NWnTx+xjGKMqvV2YgE4YthkBAWeR6nTzkDF/zswqoH0igWf9QJR+LFpS8IebbfZjD+8fTL8jH+fAbLnvwLTj/hu+jf1YnWnLVeQJ+xY8fgwzUfljwE00BXIoXNqTRuWbTQWmOhdZOqmk0UNojlcMTxE/DSv162Zu1mEuedeT7OmHJmWftEOIYOsztm44JYDKDvFiOF15FPEElYZLd5w3Jr9uxxgDKXAK6edi1um30L8gnrmpUgBEJ4T5t1E26Yfn3RS7zz9rtw6IHfcly76Nc1yr/3WoMoEgjyWLnyFfcLuYjTA69JRBtiU0PDpztVvEcjY7zDMGZ+BqpSahm5ZEhKpRwZ8nFDNwx8nOXqytHTCMJvXATyQIhATj35DFx0dncCce6uIYN22vk/xf2P3S/k6ZtuwzuvLJcnEOTxt+cWYsqPfoBUNoNcptO6AkXwQlaEmbb/wlD88pLLMGbcYUDWALI5nHngQeiTzaCl6LFYcFy+YEE5LqkE0CuFa6dehNsf+V9sTkOE5Q775mGYc8vc7uTocaKeiODKG27A7b+eKUikV6oNLz+7DMO+OBy5HJ2uTxU9lk3rrR1gRDr059ppszBzznUwU5uQMPP+i+gergl5Hx99/hH2HT8GGzrXw8gZGPO1MXjw7j+SPyUuZfHaXDNkyGj3bb0UqqxYg7DJ0GsbbWXHi8qD0PHQ/AZF0O91jJ1OHhnj7kzjtnnDra1Rnmp3a6eMMQ8Dn2oEIkOCfgQtU0bQvhW3/IEJ5LRTzsRFZ11Y9UQzEcgvr/8F5vxmDvKJrDijseb1D+hGJik87F1NFPqheShdyb5y9Sq8+PcX8Ju778Sy1/8lyqE1iqkXX4Epx58EdOQB2gXW1Qnkym/f/eX48cV6ydBnksCGlgRefX+5+DtjGNh1x13x0EOPAb37dw/L0JqKfULRsSuM2nnkpMPx0rKXRPlf/fIYPPr7x5DMFSJ1josNnSfrzUQncqnN2HrbNuQT7YIXV7+5HMnKyJ7j3IOXASeCOO+SC3DvA/fCJC8ql8TD9z+Cr33Z2nE2eMgoayeTy6dsDaJstLl4EDGx3G5i2E8BWJuY7etfnA2iPWh0ToiCrnLhTamOWkikY+x08vjJJLtWokpEdnodgynbziiNdTUZqtWr014/HTX69yEQyOm48KyLu52LcA5sMqxX3ngFZs6lGH85gcjaocqHlCzbar2Pcea5Z+CBR+8X5xxa0AtPPz4fuw4eTs4JkKf/ObZiVR4KMPJ454Vn8aPvH4MR238RfbJ5tGatxX7DTIpw0uULnirXs1hjSQMVayzUzq8ePBqrP35fpJ909Pdx81W3ivCNaGe1ENYNM3HZldfANNMwzBaksq1I5g2s22h5KiJERpvKqkTjKJy0/Y57Imfkxe4xWg9K0eJ/ntpBNxrn8P6qpVrrEJXV1vpshYBP5hVJug7HyKIDnehEB9rRgSxyZe+l0P1ffdAbrYX/iEzC/MgayTKO1gh7ycqsI48KqagYVl1ZdMlQpR12H5PFldPRpF1B+5XbeCnMc9op7gTiBJcM69XTrsKtc2YIAqGF6fdfo2vQ00WbKmOQ3AwIybS2cy2+NvarWNe+VswpJ3/3RFx76Q1IOWfaBeMtFrALg5Xmp6s/WYWJh/8Xcv9Zg/4dndiqA7hrxiz0G39o0Vo7PRZqV1eCdoW5rLEkcvj6njtjUxddeZLAlB9OwRnnTxWhI8tjsdZjchWNJdGuvmEWZtwxF6bZG0a+Favemi8W7fv126cEpdGFgVu1WluiTfLeLMNnnVNJIJ/M4YBxB2DRMwvF71NJA0//ZT52Htpb/Cy2Hwc8F+F5s0gV4255BBbd0/FMtwex3AdjJW25b0Kw8tLuOGtzgokcutCFw086HF2pjDiHQ1dGWljRluok+nT1xhN3PyEopNkJxNK990FCP0Pol1fFuPuV5SWLVz4/T8WvbQrmz6+ohvveDzsZbJQJhGb8Q0cMFgcJbQK56KyLXUJYpUXPcgKxtpSu9g1hVcZvHIfRKowg3fV0ypk/wqNPPirM1E6Dd8GSPz9f9aoOMmqbs5tx1KSj8NrrS8U6CXke5005G6eceU71qT6tqbissdDp/FyiC2+/967wGE7+75Nx6AWXAYkWy2NpaQNaUuissIvkOVx141zcPms2MlnaGp1CkryGXOmqEVJmwujC6lXPi47at89XBNmIWVNhO/UjTzyME390Akw6bW8amHz8d3DV1ClI2TvFJMhDapbvMlSqeZJ0op/8AfqvHe3dPALL/FsftysVJ0yZ4Hj/xEohDqXSAUzHcwB2bgpltmTTeOw3j4ldZzZ5lMR2hrDCf5VRx0jq5FGxWLrly6xPyBp9t3QyRsqNAL3q9DtDU5lPtn4VrGud1o8I/LAKIm90BCI28NNgp7tznR6ITSB+J63dCcStsVT+pdddgtl3zxYmqK1Xf/zf39/xXGOxY+Snn3sqHnzsgeLW2XEHjMPds+6tup5TbJY4w9IFdGVLayyGiZ/svSf6bUmn4MnIpZDKpdCVSGNdaxp3LHwOewwbjrxBfkCpfXS9Si5hnatJtaSRMw28tfwNcfCB9gM4PZYW+z6oil1gREJ9tthNeCHCwOYoUJND+/q3fC+bF6ExsbZEm6LpyV/ZFxtLTGjfu+XmSZKRz6ILh00+THgEdEDTa0dapX4p78NzHnYQTIFAinewWTmcBESeZ++KEJUuMeoMLh1jrZNHRTad8oOQhw6pqOhIx/BH0R4VHfilrScR+MnmqU87hOV1Hbfz924hrNMLIaxq72vLEUjp5LGYcbhIXOxgzrUEMrDI4sIrz8edv79TGOY+LW1Y/vK7rgRiL8jPvPM2XPWrK4onxb+0/Zfw+B8fx4DeW3reEWUd0LPWMoSdtqxuaW0jAewybJeyZ3eJQGjROptIoHe2E4cM3hL9Mh1lLbzyyfl4+ldXY9ac25AzTXQmW/CnlR8Cqd5ASwK5Qoi+eIiuYk2Fdn/97sEHce5FP0feoNcKUzj71HNwzmmnoq3PCBhmryKaFMKhO8Cci/D5JJAxUPAR1gp/ofLjNNBHn3K0mNWTPszCUe/KRX3nz+RxVvcIdLuvkzro3yVyIR/DWiQP38PwkzYMY61jIKvJpSpTVMZWx0i6eRWq+Hi1J4p26rRRmBWJu8f8+l6tvy96ILUgkBmzp4uFbgp9db/rqXQFB80nPddEKsiDQKdF0+9N+R4WLrEWu3cavLNrCMsmgEXPL8aJJ/8AGRGPN9HWux8e+cMjGLHTrh77k0pq8ToPQZ2GYu3HHX8c5j1wn3i8qq1PG/719+eJA4RH0kp3S25cD3RtKDuPccmhByOb7ERXKis8kVwyiXazN+YuorvC6ER9YdeUsOIJZImQBEKGWEVqz67D/uP3w/ufrUEmkcCWAwdhydMvoB8GOZaPrTaQ/AO2GCEW1q1bi2ntpBPZ9Abse9jX0dmyUchSTuFWSEzkNrL446/vFysOTi/KRsgtBOXmERQRLca+CjntXQK+i2KWdxvHj6qxFhOmAGsUMhiolB/UqKoYUBmjqbLGIuv5VKtXRX63+mTaJKOzRkjjG8Ly80BoEd19DaTUfPGa381XgwjEvtXW/bLA0iuEMg9QWQYxj9WfrcaYQ8agPbtZGMVJx0zCzVfcLNYSnExEzsLy1WtwxIQJ+HT9Jpi0HTcPzLz1dhxx6H5F8thhiONOJqcWxXmIDN5fuczdQwJw/6N/xJk/P0O8T2LkE5g17XYc/a0jRHrhteQy1s4w571cqQ5cP+0XuOWu29BJlxObwEevvIJj/mscenVlkKYFagCdyRTWtaTxwBPPYD1axXx7ADrxne8fDtPIivMrG1p7oSORRiqXhEk7sNBqvXYorj83xEF98op6dbXiiXtpEdmqj8JkvfsPQ15cLW9v98pj7bq3BAK2PS9dJ0IXZRIjVv9YzaSLZohGSh6B9ANUDpyckPnVW8/vVYy1LadOHpU2qpTvRyB+BlbVOMsYXDf5ZYnFT14vHGXOzcjIrqKnRktbMwIp7cKyrkV3OwdCRuW+B+5DLpfDpOMmibWI0tUo1uy7cqZLZuzkn5yMvy7+K/K02yaXxO9+ex8O/MZYYRidB902dmZxxLcnYNmbbyBvpMSdWdb2VtqyS0bTMpMrV7xSjE7ZESrbgJIE5ANYryKWrxXQLqBN2ITRY0dj3ea1wusYtt0wPPzgwxjUZzvXvtGFLGb/bhaunn4ldtpzJ7E5oTWXxVabgQHtWWyR7UIrLawXCaRVrKesb2kVu6/6ZdqRXfc5WvI5vP3uWmy709Z4/JGn0IqWAl4WKZdP6NNIoS8S6C1WCwwzXby1WNwsQ7fYFjyDvv2t8yPiZ1qcR2fZ+yrFgt22KBcuUrYJyBnjZgIp7w6yBt5Op2K4/AihbI5U4QlFMcOWbasXuQY1sirY+dWlgq1fWY34vS+BOBvltY23mgdiBTpKi+h0Oy15CRaB2BejUy1k6PL41cwbcPP0aRgyZAgmHfc9fHvCMdh+m+0LYlgHD2nmTeW++94GXDL1Eix8dpF17gHAQfsdjIULFoszFIIUxC4lK1cumREH9VKtdMV7J/Yfux/u+fU9Yhun08DSYnJGrAhY/+9CaRuoOPlefMHc+eaiLVceR/3kSLFd2d5eS68OWkE5kscZ5Cn9O5Uz8NrS14Xn0JpN4aN/rkKLnZ4aS39Ec+g0OVEY7UDK4fzLfoZH5t2DgR0ZjBo8FG2dJnpnrZCX8DhME7+qPHmfSFvrK2n60wrQz4Vr78VbKIXHmgR2hStIisRNW4vbSu+rEKlQHRs3vGrpxnE3mPN9FZnBUbaIKntASKbgGqdRNZC2rsrGmkc8XLVs3dm3LUuYxjZMQpCVS6b9smXJdqOeRCo1JpDbkDVoB05KbON17kUi20gUcOPMabhpxk3CzNLDSmSRhg0bhq/sNQrbbLcterf1w7U3TCs8DmWdgaBdTNQJxIKpmcCqf79ddmurHa3f8ctfgplsBxLtIhTVkiIKo4N7lm02CwaXSI4IYOeRuyBD6xIidFUcUoV/0Psm1ul38S5jweCRAX1o9oM46aLJWLR4cffdAE4OsY1kHtiy9wB0ft6BdLZFLDj73YVFZPv6/72O8UeNQzrfiYEdORw4fCSm3/sQQG6ZwwBb51gssiJ5M+J24zSmLSzcFUY3Flf72C9IihuOC/sGCqRmE0b/vl+xHstyEIiJLmza/Lr/SgVdjS+EcwhBtzYSA/muhcgO69qlUzXyQQhEp1VeBlPG2OrUV5lHZbeVV32yRl9GF7KhsCBtr0UdQeTTzRuYQCp3YblNHEtrIEQgKSDXC6vefEeEmMpmXQYwfda9uOb6a0qHto08cgkTnakuZNLtQHozkM4CiYx4eU5YbtPEHnvtjdtnzMR2+IKIuTtvBT5qylFiZ5Rp5JBPZWGaFH4q3ybsJAAKabXkUnjt5TeQprMYjuPf9qye5KYr3lf9c1XBkyq1hJpFJ6HPvehssU3YTJC5N2EkLKITBiNP6wJJ8T7KL37xS7z55uu4Y9Ys8V3vZB+8t3Rl8a6wygFnvwx5wsnH4+klT4m29M4k8NDd8zBq9L5ua9vlQOescyxnHWTdFeZ8j4XI9DLyWGzDTeLSQr54QdL6Q7fli48zNuYSwiKE6X2VvNkKI28d4HTbBUYbuezXjXU7smq+KB0cGaNVKa9sniBGvh7EoboeIqtHGQKRxdSrzloY/Ub3VpQJhMImzidtT5tyGi48+8LC1ld7b4718JR12TqtFuRxzW3X4tbZs2AihWzGQCpLsXdrf6ptIIWnYOQxb948PP7nx7D42WewYsW7gkBod9Luo4cjl9wkvAiKxQsCER+LMAwRtir8LF4jNEV5D895SNi6Hffd0X9GS4YzD7Rk0mjNtApvgIjC+tg7f6y/KUxWenq2fP+RvV34+Veew7z75+HFl17ARx9/LErZcsAA7L7bSIw7eDyOm/hdpFNpXH3Tlbj917eLTQbbbjkI/1y8zPOySSr7yWeexOSTfyCeFqYPnWH57R13Vb0VuThQ6G4wuics02n9nc2WEcZl48cXH/giPIseC91uTC9Dyngs4o4w66YBcoicBE0vQZYRttGJjW7vq3SzstYvunkrslbHkS7uBKLRJO0sbttktQuryKhj6J1FeMnmV26UhjlqYolS9rD0apejRCDC2FdcTmed/7CMtv2h2fd6rEc7ugRh7PjVnQGDnvIjI5vFyNFfETfO2rNSZ6OsEIjTUFunjtPZNLwHeIYAABSGSURBVCb+vwnIb85iYFt/bLftIIwaNUq87W3VbElRiniUn20uTZDdVntLElg1l3YLUVisfDpe2M5aeNGjdP6lcgOrhZX1Zon3h67eoBQXTD0Pd//+bkEgu++yG556aJErgZSk735JYLWzOGUS0CIHrZZTmMjvPRbKWPBYzjjoAPTL5hzvsVildrvduHhXWF/x7n21+7tsbdvvq9DBQXsAOd+stxbxC8/U2q9BuoS3St5ad32EPXjCKi+IV1FNBj8jG5b8tSgnqDdRDxntOsPQQ1xJRZlAvBThDLPQwvPBJx2C9rRFIDlxWoE2jJINyOBPc+aJv+mBJbdzA046ou/JiPdynCxOO05ryG73DasDec9cXQjEDlcV1la8DAVdxfLtEybghVesa0omHfM93DT1lqoEEv3SgKM95LHQrcZdGesFSSIUx8ftrrAOlTUW9C6Gw3LJ0sl755v1FoFQ6DFTvgvMKUgBFNtDEaFK+wxNWB0gpHKqkUYYBickMWNTTCMQiBdYUXksUZWronRfApHebumo1boyL1O4GsNaZKZlaNrmaoXP6Sdrdi7zsWfWtGbgdbI47JBEpZ8S3GC7z4gJ3/c+eg9jD9kXGaMLiZyBadfdgu8eNUnhvRQXFD0A0cLJ9liIOAovRFbVG3k1GWuNRbwgmc0VQ2KUr7vH0gKk6Z4wWmOxXiT2/JhAX8cuMHvRXryvIuGhFMvVAkKmt3KaKBBoZAKJA7FENSmJhEBkOlBYOzHsjhW2PdAhkNJaTh5vv/s2dt5x5yIUYpeXuC22ZB3J/9rctRk/OOUHWPLSs2KBeeu2LfHikpfRluwj9h9rhzfCJBAZhTrTVFtjAeDpsfitsdANxLRuRm0rRBZtj0W8r0IeirEJmzYuFxu4qu7gCrvDqGLE6aURaEbyqNb4KDwLZ5lhkomRN3NiKEUeChLbPmm/rP5cXoZ0wrILQcqhXWdjDtlH3Et1yMHj8I2998Yeu4/CF77wBbQmW0G3065ZswbPPLcYd/zPHXhn5XLRn2it57Lzp2LK5CmFCx2lx1gpYRDBy3f/alReyFK5xkLOl1j/8qig4LGcedBBaMtmvNdYClumkSRPhe4JoxuOHR5LRQjL2YBusATESR8czinsjcTVLVEY0kZGP454hEIgMoZd6eGPAFoOyy4EKYcIZJ9xe2PlBytFS4RdEyfeDSSTSXHSns6uiG2tFOgTJ78TOPJbR+KOm+4AXQSoTbNBBA+LQKrpz02+So+lyguSVDRdTFk8x0IL9unCu/c0OXG8EMkEEmAgRZxV17MOc/YccRNrVnw9icU3hBUYBT+DVthdY09O/Q1nsN01fuJUtrd7ev/6bQ+ECITOn9DOqsoPXeciPnkD/fv2w6k/Ph2nTTm9+xqPqsCBFeZegM5amLvDUbndmQg2by3MK+4Ks8+x5IwE1ramMWvRM9a7K0Qqnrj56y8iCLlYBwI6BMLkodaFZLw8tRK7p2YC8UFQh0DI2P791b/j2ReeEe+1L1/xLj744ANs3LwBZo4O17Vh4MCB+PJuI7HvPmNx9JETMKD3APd3SGJEILSGQ8cfVT5++Gk1z/ZYaGcYnWOhWYfjiWEmEBUN1S+tLIkwcdRPR341R08gfhI06feV52Ws2bj15Go3b6R4kiWe15PHTkXONRbyXMQ1Y/RksHcIK3ZtYIEYgSZAgAmkCZTITWAEGAFGoB4IMIHUA3WukxFgBBiBJkCACaQJlMhNYAQYAUagHggwgdQDda6TEWAEGIEmQIAJpAmUyE1gBBgBRqAeCDCB1AN1rpMRYAQYgSZAgAmkCZTITWAEGAFGoB4IMIHUA3WukxFgBBiBJkCACaQJlMhNYAQYAUagHggwgdQDda6TEWAEGIEmQIAJpAmUyE1gBBgBRqAeCDCB1AN1rpMRYAQYgSZAgAmkCZTITWAEGAFGoB4IMIHUA3WukxFgBBiBJkCACaQJlMhNYAQYAUagHggwgdQDda6TEWAEGIEmQIAJpAmUyE1gBBgBRqAeCDCB1AN1rpMRYAQYgSZAgAmkCZTITWAEGAFGoB4IMIHUA3WukxFgBBiBJkCACaQJlMhNYAQYAUagHggwgdQDda6TEQgZAcMwupVommbItXBxjEA5Ag1DIDxAuOsyAiUE3MZDNXxkyUS1XD+dyNbrV47s92HKX2vZZdsYp3SxJRDVjiCrbNVy/ZQlW69fObLfhyl/rWWXbSOnq45AkD7gp/MgZbtJ7Vdf2LoOU/5ayx42FrUoL5YEouJtVKaNUukqctVCeap11BIrVdk4vTwCQY1ktTEStOzKVkQ5Ht0QC1P+Wssu3wPikzLWBCKrwFoZxlrVE1X3aHT5o8Kl0cpVmciopA2KQy3rCiqrDPnI2p8oZGmUMmNJIKrg1cowOutpxM7V6PKr9otmTW/rUbYP1sKw16KOqPVZKzsSdTtqWX5TEAgBFrXym8H4NkMbajk4mqWuWhj3qMdf1LpodPmjxserfCYQSeQb3fg2uvySamqIZPUwVlHWGVbZYZWj0wnqWbeOvHHJEwmB1EMZURrIsMquBy52RwurDXHpuHGWw0vPbp6Asx2yISmdtkfV98LwbvxwcWtvmFhFhY2OnhotjxaBxH2ARNW5dMuN0wDRbUOjdex6yquj7yiJJCoDGZQ8guAUVj8O2oZ69rM41B0KgdgN8VJqVB046tl1ULlV8qukVek4UZWrIkNPSxvEMBJWYRlHt7XBsMoPanjjghGPj2CjMxQCkenwUYVQ7HJlZFCBKmjHUm1v0Po8F7kcV1yEjZEKnj0prZdxlJ1gxcXIV9NZFASicj4ljL4ctA09qU972hdTQxM6xk4nj5+CVI20X3nO74OWrZo/anzCMkoqGPbUtDq61MlTiW+1Wb3GMPdUX1DDq9NWnTx+/S+KMv3qbLbv6+KB6BqzegwQnYGnSh5uoQadeqsZlDDKa7bOH1V7dAyTTh4VAtEdczJ1qPQtXfIJAx+vCaL9e5V2RNV3Gq3chiIQv84cRgfQMf7VOqasTFEOEFkZGq3zxlVeHV3q5PEbD5XfB+0HusY/7uMjLHKNa3+MUq6GJhAbmLDWQaIYxLKDNoy6wwzBRdnpmr1sHV3q5PHDUXUtplp5YZBHEE87THzCLMtPB83+fVMQSGXHlDXaURhc3c6pm8+tgwb1opq900fdPh1d6uSRbUcYZTcLgYTVDlnsmz0dE0hBw2EZXd3BqpvPL4yhQ6bN3umjbp+OLnXyqLQjSPlB8obVP8OQgclDpcfIpW1KAlGNaYZFHvV20XmAyHX6qFPpGDudPCrt0C0/7D4Vlhw6E6Ow26KCf7Om7fEEEiZ5BCGQsMNwqiTarB28Hu3SMZI6eVTaplN+FAZXR46g48rGKYr2qOigGdP2aAIJmzyCdvSg8gTN34wdvB5t0jGSOnlU2qZaflTGVlUOZxuD9O+o2qOig2ZM22MJJEhHrtYRgpQb5gDRcfGbsYPXo006fUAnj0rbVMqP0tiqyOFFHjretW69Khj3xLQ9kkCiHCC6oaigHTwI+fTEjh9lm3V0qZNHpQ0q5Uc5PnTLVpG/EhfdOlXw7alpezyBRDFT1+nsOnm8YrtRtKmnDhCdduvoUjaPnU5FxyoG1C2tzow/TC9dRX4mD50eq58ndgQSxgCp9aVsbvCreARhDhAVw6LfbThnmAay0mutZrBlicZrcmH/3q2fBOmHKj3Ci6RUypDt57Vqk4rszZQ2tgRSraN7xUb9OlWtO1OQgeLXFjcDIZunmTpwHNuiauSDEIhO+1VuBdYp35knqrpk+7qOLoK2uSfljz2BqCjDr1MFMehecvjV6WYc3AaYbkdX8XRUsOS0+gjo6FI2T5A+7NdXg5StMz6C1OfXFp5g6fdflZxaBKJSgZcrHcbMRLYT6chb6zyyBqTWcnF96gjo6FI2T5RGN0jZOgTiZRt4gqXe5+qVoy4E0kyGPyzFyRqQsOrjcuKFgKz+VYx8M40zWXzipdXml6ZmBNL8UAZrIQ+QYPg1em4ORVbXII+PePZwJpCY6IUNSEwUwWLEEgEmkFiqBUwgMdELE0hMFMFixA4BJo/YqaQoEBNIDHTD5BEDJbAINUVAhhS81nuaaW2npqBHUBkTSASgUpE6A4QHRkTK4GJjh4DKZgCn8DxG4qVKJpAI9SE7SHhQRKgELjqWCMiODSaPWKqPQ1jxVgtLxwg0PwKyJMITrPj2BfZA4qsblowRYAQYgVgjwAQSa/WwcIwAI8AIxBcBJpD46oYlYwQYAUYg1ggwgcRaPSwcI8AIMALxRYAJJL66YckYAUaAEYg1AkwgsVYPC8cIMAKMQHwRYAKJr25YMkaAEWAEYo0AE0is1cPCMQKMACMQXwSYQOKrG5aMEWAEGIFYI8AEEmv1sHD1RoBOS/NJ6HprgeuPKwJMIHHVDMvFCDACjEDMEWACibmCWDxGgBFgBOKKABNIXDXDcjECjAAjEHMEmEBiriAWjxFgBBiBuCLABBJXzbBcjAAjwAjEHAEmkJgriMVjBBgBRiCuCDCBxFUzLBcjwAgwAjFHgAkk5gpi8RgBRoARiCsCTCBx1QzLxQgwAoxAzBFgAom5glg8RoARYATiigATSFw1w3IxAowAIxBzBJhAYq4gFo8RYAQYgbgi0BAEQhfaeX34oru4di2Wq5YIuI0RHhu11EDPrCuWBFKNMKqpyW/A6Jbr1zX86vXLL/t9FPLXSnbZNnI6OQRU+4KsnlXL9ZNWtl6/cmS/D1P+Wssu28Y4pYsdgYTRAbwUH0bZbsqrVUeLQv5ayR6nTt/osgTpB376DlJ2PceGXXeY8vth1ej9KAz5m5JACBg35YfZuZzg16qjRSF/rWQPo7NyGRYCQftBNZ0HLbtSR7XuX2HKX2vZG7F/NxSBVCq0lmsjtawrio7kJT8PkijQjrZMlfUOlbRBpa5lXUFldctfKT+PDX+UY08gfkqshWGvRR3+qgqWggkkGH5xym3r0m9sVAvryOaVbXejk4ebZxc2RrJYNlK62BGIKni1MO6NbnwbXX7VPsHpyxGohXFv9Nl7o8tfrz4fOoHUw1hFWWdYZYdVjk5HqWfdOvI2e556GKso6wyr7LDK0ek/9axbR9645FEmkKCLVFG4hVEZyDC8myB4hYFVVNjEpQPHUQ5dnYehby88ojKQYXg3OniFiVVU2MSxb4YtU80JxG5AWB0gKgMZlDx0BkWlcoNiFLQNYXe2nlJeUN0H1XslzlEZyKDkEQSnsDAK2oae0qc9JyamoiaCKN0phGK1rvJHZSCDlhsXjKIi154+aPzaH1T/YYyNqBfQgxreuGAUFbn69ZFm+T50D6RWW22DGvlqCgxatmr+KAy9qgzN0qHj0A5VfQY1xrJhK0oXFjkFlVk1fxSGXlWGOPStuMkQGoHoHE5S6cwyMxaV8lQGnUrYTdV4UNk6efw6UhRl+tXJ31sI6Bg7nTx+oaqwPf6wvBqdturk8euPUZTpV2ezfd9UBBJ0hhV01q6bP2xjrytHs3XuerVHxzDp5FEhkKBjIyrykJUrDHyceLH3Ec7oYAIp4BiG0dUlAt18ql5UGB5aON2uuUvRMXY6eWpNIGEYXd126uaTHSM8NvTGZMMQSJSDJQzyCBKKCpNAwixLr0txLh1jp5PHD+kw+0IY5KEb3guSzw2jKLD200Wzft+wBFLNpZZ1i/3KCKscv9lNWAM9LCJs1s5eq3bpGCidPLLtCaPsZiGQsNohi32zp2t4Agky8w+aV9YrqgWBMHnEZ6jqGGydPCotDlJ+kLx+Y8RvbHhN8mTzOetn8lDpMXJpezSBhG10dT0J3Xx+g8P+XmewyXUfThVWiCRMIx2WTF4TrCD9Sbeduvn8xkiQtnDvB3osgYRNHkG8GSaQ5hqKOsZOJ48KajrlRzFj15HDbWzpGP4o2qOig2ZM2yMJJAryCEIgQWd6UbWnGTt8LdqkYyR18qi0RbX8qIytqhxeHoQqgUTVHhUdNGPaHkcgURpbXU9CN59XfJhDV/UdqjpGUiePSitVyo/S2KrIUS38FJRAVPOrYN2T0jKBOLQdtFPpklMQAtGtsyd18lq3VcdI6uRRaZdK+bUkEGqDzLhTkb8Slyjbo6KDZkwbKwLR6SQqBrRaWtmO7NcJVMlARX6ZgcHeh5+Gov8+jH7sZVTtsmWMbjUP1a/8SpRU6vNDWBWfIAQQJK9fO/j7mC2ih2l8KwkhiKFW6Sh+JKVSlt+grVWbVGTmtNHehRWG8fWaLNXK2IYxRvzGhg55ct9VRyDWHoh6c0o5VG4FDlKP22AMY4DIeESqhBu0nZxfDgFVI0+lyuYJo2+peh9yrXZPFVVdugQimy9Im3tS3qYjkKg6bLVO4VZnlAOdZ1fxHqKyZOBshWyeIP3Kz3gGKdtLIzq3dMto168tbmNENo9M/ZzGQoAJJISeUK9BUquQQwgQ9agiZMmgpxNItYmQX4eRJQOnLmTz+NXN35cQUCYQHfBkQy06M6Bm6BSy+Ohgz3kaAwFZ0lEZI80wNrxIppna1hg91F3KuhEIdwAHixuGq3YYo0YeWmqy80y5Ol6yBKuGOqcOikBNCCSokM2enz2QZtcwty8oAkwgQRGMJj8TSDS4SpfK5CENFSfsoQgwecRX8UwgEehGhhT8YtkcvopAMVxkbBCQIQWZcRSbBvVQQZhAIlC8Hzn4Vcnk4YcQf9/oCOiOER4b8dI8E0gE+tAdHCQKD5AIFMJFxg4BnTHCYyN2alQ/BxK/JsRTItUBwoMjnnpkqaJDQHaM8NiITgdBS2YPJCiCnJ8RYAQYgR6KABNID1U8N5sRYAQYgaAIMIEERZDzMwKMACPQQxFgAumhiudmMwKMACMQFAEmkKAIcn5GgBFgBHooAkwgPVTx3GxGgBFgBIIiwAQSFEHOzwgwAoxAD0WACaSHKp6bzQgwAoxAUASYQIIiyPmbFgE66MaH2JpWvdywEBCghyhMKocHSghochFNhYB9UprHRlOplRsTIgL/Hw2GGYzUmWWIAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>zyxjz</t>
+  </si>
+  <si>
+    <t>jtq6b</t>
+  </si>
+  <si>
+    <t>4drr</t>
+  </si>
+  <si>
+    <t>wrvz</t>
+  </si>
+  <si>
+    <t>n3zg7</t>
+  </si>
+  <si>
+    <t>htjtr</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dC7AkVXn+umfuvbsuCyiIIKWVQqREo6IhiUYeKrAswgLLsu979wHiAjGWMZYmRE1pTFGp8hHLRBZjucAuy2OFjWGFRZAISwy+yrcGY4okJeL7ASx3752Z7tR/untuT0/P9OnT3dPTM99s7ePunP+c/3z/f/6v//Nqy3VdF1k+gbSVpRKRdSIV2LEVdjXX/o9A3pfLTa+oGpF2snab8kSACBCBiiJgkUDSWo4EkhYxlicCRGA0EchOIKOJC3tFBIgAESACCQiQQOgiRIAIEAEiYISAOYEUtcZQVL1G8FCICBABIkAEeiFAAqFvEAEiQASIgBEC5gRi1FwKoWgmYpyZcNE7BeosSgSIABHQRoAEog0VCxIBIkAEiEAYgaEgEDmKYlneQZLwv4fJVHJaxldxmNSiLkSACBCB0hAYCgIpuvdpSClN2aL1Zv1EgAgQgWFGIDuBGK9NDDMsMbp19FPWVeJPylesV1SXCBABImCMQHoCCQJplDiyXGUSvkxF/p1Ul06ZAJJoXboXt/SSS9LN2BQUJAJEgAhUC4EQgcTvVurgCfnBBc458wLUnBpcy8G6jaux9cpNyUG/Fy5+nR1XYUmQjhKUqCf/H/5O6gwCetyuLUkSAhm1wBKqN+huVD5ILMJyYd2jBERCqZbHD0DbYD0vaCrrdXMDUJlNEAEjBNITiAOce+YK2K0pFY3XbFqJrdumOwO1rip+QD/7jPNQd+uelG15C+l+oHaDAO14C+2uTB1ZDixXIr3T/bNfXuRbtov7HtrXQTIfufZjuPfu+2D5FQf1S3n5t+s6WD+9ticpfutr38F3vv09r33bxcYta83JUxcnlqsUAnkTSLS+PMGIkptuW/1IMVwHyTNPaw1fXYkE0qGyBPUIgaybWYXNV24wJ5CgPqcOKFKI/yjyUBcHBylIr78X5B27iXsPfFZVa4niro2P/t0/4t577oMl7cV9rCbWTa/F5qv8PkWyjx3bd+HWXXsUgbiq/rtIIMPn16VqNM4EknffSzUkG09EwIhAlp0hU1iLVAaSmUBc4PxzLlFTYl6k9+eWfDJx0YKNGlpNwGk0YVk1uG4Lk4un1BRa1xNOSF4C/F1fuAOOJXmLpBg2/uHv/wkP3PsAEGQ8PkStQy31Lym7buZSbL5qfTcxuMCN192CW3d+BrZroWW3sP/hvVxP7+tmYs9gvlB3ASrJb+XhQR42hnMjQ95BVDcrSEIt7vu8M5C8+27SJ8oMDoF0i+gxGUjyFFbCSfDoonxc3x3gputvwy27bleBW4L8PQfuSI4fcesY4XWQoC0XOO+0Ve269Qik5hNIgh5Zd6llle/pSwWf0FfJorQhxNz0/46+8yU2pLUXtmY2bujaTyEPDQ7quHnXnXBRT9xvMbihtNBSGUG06DZ169ctV4ZdRq3Nfg8Wg5o6zIdArpxWtnGxcCCwl7GMzlkU+OQfxLnlp62E5db8rEonA1kgENfq7HfQx/ZajpxANF1sz51Agowgh2yg63Rl3NY1BzMb1/i7F7oJpJ8/7Lx5d4wbSR11uJA1uAljWIsMJmUE0aLb1K1ft1yR+FetbtMMc1Ak0Q/PXAmkYzSn3K3UGScXzlmoAF8ggXjzVkASgeSmR0ZCyCZukhFIBuFNGU1vWN++MaCXU4UpRG14gIWdN9/uTzeZ7qmOtuZvpoBNAvGhKTpw69avW65qQV5H3yoTgU7/4srkQCCrsHXbBq9uC2g84+Ib3/gGfv7TX+DgwYM44ogjcNJLXowTTnphe6E9YM6O3RrBQAgiuj+/nVvg7oGQlyVYiQSitgA7wI3bb8OtaiqtBsdq9Z5KC2JldJtwmAHC51naazfhczBJawed4bq7i3HfO9i4cY23JtT1GuEYkEJrSvEZQT/XEwKRrE42LMjf+axZdGR4Q3i/jE4QzXunkk6bpkFCDe0Izr2efnXLZdGlaNlxJAJTTDMTiFpEf8sG/OSxX2Dnzl3494cewfx8s70NV01tWQ5+70UvwJ+9/a142atP6txI5U9u9J3hKTsDcYFlp10A251SZGO3d4s5aj3G2wocmp6RxX2rhXsf3OftC5DvZbfZGReoaTLBY/30Gmx5y4yy2+P/8zjuufsOfO3rX8YTj/8Ec415HHbYYdhy+RZccPGKvoFe1gn0PzZaLrB79x7zYN532qpX2ukteHfcedbxwKDfgyqU7BVEkwJTlimJogN3Uv1JfYuzW9ICfvj7XvUnYZaHXlXwubJ0zEggwMpLV8CqAXd+Zi9cx/LPZ4S7s/AIbk8C77/2vTj1tae0MxZFMOqhu8+iriyiX3cLbtlV0O6nuCmsK2UXVsMnuwksP/1NqLUm+ttJLfBKZ1pwrSb2P/R5wJYFZBtwbCw/YzksZ0LNya2bvhSXrl6J7dd9Evfdfy+OO/Y5ISr1ArHsIpMsRwin1yddVhDsXJJ+5JcRmDivnOCx1C/DT7a5PMNG9cRMglZQc1JA7KVBUoDX07x3qaT6TfqsQyAm9YZ7YYpnVrzGRT4TgciTuGu76vCdBDnLdvGyl78UL37JSVi6dCl+88tf4ZH/+Cp+8bNf+wf3XBxx9BLcuOvTmFpa15vR8HdNCYHctuszqh7ZPntPr+2zJoFFsoPXXQxbTbX4W5PVOZBZAA1FABedfSFsp4aG00Kr5coZQvWpT02qDEF+diwHz3nukX7AD7IT79CjTHnJ2RNvoV4+jre4AwcW6vjx478CrDrqdRvNppAOsOmyGWzcutHfwaSYKeSXJovggXx3RmDs8CZ4GzdWDcEygl5SgM+KXFL9Wftsqh8JwhS5fOQyE4gETbvm4o3LXo+ZLdM45vhnd8Q5dw649oMfwoEHHkENFlpWE1e/bRtWrF2uvzNJMpDtu3DbrtvUWQ7HbuCeh+/2MoQ8Pq6fYTiyruFi7cZV2HLVDGamV6ngLWFXZR+uEIC3oCzkKX2XqSp1VsWWKZoWdty6M2bKyQbcGpafeU6bQBQBCXYTFt50/oVYtuxinHDiibAmAbcJ/Pznv4LjNnHcC57XB6chuNSRBNLlgWmnW+LKpw2MSQE+6zCJq9+ENHRPsEf1TYtH1v5SXg+BTAQiTTz3eUfhmve+Cy951Yu6753ydXj6N4ew/qLNcJsOWnDwh3/yKnzgQ+9R5bXijxDIJ2/ALbtuBqymPz20P/Rk3r+zSesEkhXUm1OKFFpybsGWa1Ac3HTLLn8BWC3kKAK5YfuNuHXnHtRQgyOZ0AG5KiWYYpKsQnSJZAeSdbg2zj39XNiuZCzeNNcpf/D7+PN3vR3HHP/83h1or6/kswCt5xYDLJXoAAWfVymgqybB3EQmrHoWeRMiUF6ubobo/OStB4mjAAfNscqMBOJi/fSl2HTVehVwm2gogpBQNxU+5OVO4B3b3olHv/uoWiM4+nlHYuedOxMyiPD2JQs3bt+BLz7woForkfWFVm1OPf3rfJLXCWo47/Tl7axi/cb12LTtCp8MvLUCtQAMS51El7WYmhM5id4vEMp3LWD5mStgOd4dYqed+cf46w++y1uK6LsQUL0AqmOTdpkkAvEzNb35zlQtF1bYJIiayPQjkDSd0wnSuvrplovTL4tsmv6ybH4IZCYQtQvr6g14BrM45P8pS7RHYjEm1ZqCfGx8+G8/jPs//4D66djnH4NWbb6DAMR5wtszFwKGrCHUUGstxk8f/zVsZ1KR1f4DxU1hrZteg83bZtRliR2By98NJgRSd200ZaH8wF6PBLo+ocDvn90LE8i6mZXYLJdQBjcGJ9p0xIkksf/VKWASCE2zgF6o6JBCGkR1+6RbjgSSBv3hLZsDgazEpqunMYtZnLfpXMxOHsKka+HY1rMx1ayrbMG1bHV7r+1ModaawhNPPIF7H/o8XKuBBubVnbrykSf8mrr5Sq6okKgs38ypP//50zdg9817VB0ty8X9D9wNBw3UMKGOk3kyhh9/F5bcxxW+C6vrZH3cdmIdAolkILLpYO3mS7DVP8GvpzgJxNC6AxfrFUTTkERaAsgSuHUA0q1ftxwJRAf14S+TmUDUXVhXTqNlyfpGA7KRVQK5ZB/y7znM4sINq4HWYXhw/1cwNfccWEIs9SaemZzFqRedirmJOfWwX3PqWDS/CHffshNT/vs/5uVwIuZw3e0fxc5bb4KNCUUo9995jyKbqfavxaiHD6r1nBqJCcSO3IW1Uu2yUovo06uw5eoNatmjg5QiBKLWQB7e69/228fYEQKRcyGrZy7uSSBG1734zSfNCA2/S1Zfw7RBNA2xCDp5rz3oIK7bJ91yJBAd1Ie/TG4E4qcQHYfFmmhiDnNooY5P3XAb9ty4zyMQZwL3P/RxPDMJHH7sccDkIW+RulUHGlPqd70xpdY7GpNP47TzXoPGxCxa9rx3jbrsfrIbsB0bU40p7Nu1T/ZFdZxzDi57XzCBd42Hhfkuq9iYxLI3nN9eA1k7sxqXX7ZJEaCXEckvW7Udvo03PYFc5J0DCd6jEpOBZCEPFVz83hlnY8Pvs0OvoUkQzSNrKXI6S7dPuuVIIEPvxloK5k4g4VZdeLuu5CqLHdfvxq033YG6s1htf73vwG40a1Dh3D/qoQggWFOu+ZFQlsmXHH4iHHcKcCe8l0pZLhxrTknajgWn3sCpK16L+bosrPthVDZEqSPgMhHVQM2eB+yDsKxZ7P3k7RG6qeGclW9qk9O66dV486qtKvtYjEV+jrNIvfQqIBAhFHUe5cCdyeu77QwkmUC0rDYQouCUma4touVMgqiJTNBu2gwmqV9ZMpw8+5F2Gi+pX/w+fwSMCGT5GSsw2ZQJoyY2bLwEa7Zt9rayBq8RjOrp1nDHdTepO6RkQVwC7x2y/dVO2EXlytkL71jFrdd9Qa2BSLQWAtr34PaF+aVJwDrmKGByvut9Imr7k9KrgV888UtFJpdsWdG+jkSdpHAlu5hQ14PP1Sw0ZT7N8q5jqTXruPumfahjApOwccOnduAzO3ej7shU3TzuOSDbiYPzKLINWFq01UTeQgiW9ZkJnH3WOX4G4mDtzCpccdllakJOqdeSsyL5G9i8xgETSPjVkElKy4NBTe6IGc6tzSZB1EQmDFOSvA7JxN1Rl2SK6JRakh796ssiq6Mny+SPgBGBnH/6BThs3sHiVgOb11+EN1wh70QPzkCElAzuTXJsPHz9DbhFbmV1Lbh2C594cP/CNR89c2//6g1nAg9dL28CvA2OJVNYLVz/xft8eWGAFlBrAHavKz8kOE/gxMOOggs5hxF9G6E3/TVrTeGE152OlVs24c2XL1NvsZDf50/PoFmTBfs5LGk9jWe1DmJJ8yAmLNkAICW8dpu2jdmJOnbv3IdnUENTEYk6dqiW+d+46pw2ca3beCneuuoKHCnn3x0bmK15jelcONh1H1UcgD4WaiFHzrD4wbbrWpSCiSLvOTXp+8QEMLUIbj3Dxon8x1K7xnAgTPMUbSoXl4mkadckk9G5p6rnsI45PyJlSSAFOmVBVWcgEODJn/wfpuS6D2dWXWPi9Jh4l7WKmjMBS94C6BNIy56DvHI2OWA6sJ066i1PXk5jyBSWnAORTGThEF8fhETOXQTXXQzIFBq8O63EYS1faVnfOFSbwDd+9ivMTkiW00SjPofmRAOYmAUm5ryrTVqzOOH452JJcxZ1t9FxT1XD8gjkhS99KQ7WJtC0JQuRczFyct17Za+6ykSdXp/DlNvE4XNN/PS7j+LwQxam9I61aLuC9KmmsK/DcmreFJ2sA/k3q6rpQDdotJin+eDKF4E5y/pO+Ol4tl7H53/035UgEG1jsSARyBEBkwcIk+a1CUSd55IW5EBcMIXlOtgwfXHyFJZTwx3bDaawgh615RfuwrpDzoHYmleZqKdwyULkUsPuK6W+/6Xv4z3vfp9a7J+rA9e8/xqccdYr1KxSyz8tH4TZO2+/G1dt/VNYTY+EXNu7B0w+8mdTnWK38dsnf9TRlGB31hs2e+9it+axYeZCvPny1XDwJC6eORstyaAgFyd6nQ5mA+N+3rtjb3t3WPQBP/yzLP0vUudxpoDWFKDeO68ieTJvm3hTn0RIJ7HqFO+TGXEKqwvpop/edbMjnakyNW5SnGLXrTMAZVDBM68hUuV6jAjk3DMugh3eTSQH4qLvvwijkvU2XRe46ROGt/EmrSs0gHe/47349te/72k80cSef7kNhz17Uew70R95+Ie45t3Xwm4tUXu0ZrZsxJbL/qgr+1q69NUqO1JHESXTaUkG4GUCKgOpHcRvZr+DWRtqp5r8kpP8CydiPHVkC4AiFB9g+XnlFfL2RP+VsbKZQO7U8vsZZIHys2xLnmhNYt+Of0Udk2ovWXyQNnNhb+eb/PJ3qUWubI+rVT8L6SYQfVmz/uQlZRLMTWTC+maV79f3tHXrlNchBVMi0Kk73F/TdvLylyrX0yaQ7qnqmCdAf0E7TCBynuEydWq7z5UcPoHIbbryBCyL6Pt73aYbG3UiBFJrYP+BzyY/Rfvbuz74vmvx2te+Di9/+StxzHFHKLm5px384AePYs/uPfj6176lriaRMyBnX3Am/uKat8VfL+ICB590sebiDWhJquIA9ck6rnrrNrz+ja/BkiOA1jzw2GO/xJe/9hVsnH6Tp6OP2zlnroOtNgbYWD2zDm975zvUuomcoXHUwn2wbiH/tvC73/2w77Zc71pHWa6XW4O7PzJR1sQ8Lth6IRq1eXV3V/Tj2t4NAGEC2nv93nbCEPWC8M911DAV3qUWXluKEnfSvuK810pKHJU6ATSqnolMXgQStK2TFaiHmh5rGIE+cQE8KuNNn3Y6SVmBv6x2S3TR3JruQyAxbcQQSHCQ0H9MjlesB4FE3yXes1fRDMQnkET5QN8zvRc5KeeXrcK1GlqtlloTkN/B5/gXHouPbf8Ilhw51ft+Kge47mOfwmf3fK4tqwZCrQW7bsFpetNQQkb3fVF2mvm1h+7Ckle9rpmexmVvuVDt2gqmqdoK+iJLD39l91tSwoWtBp55+nsLJBUcfvH/bqjsJpzhyJpTZ6RWp+3VOs28ohv5aeW2lW1CidqkO8OpY98O2aUmGc4CS4RXVALS8dqKZxIpH90C4WU3stvPu6HASj8PlttASVORCRmYyORNIDp9TCIPqUM3ICcRSFJbOu0k1aHT5ySyT6qjCB2S2hzU94lTWB3TBpoE0jXV4BPIbnWLrXd+wiQDSS0fJhC1iO+FtbB+sqgs0fKUV78C17z3L3H40Us6bxWOsYQzB/zNX30AX/3y1701jWB6yRJqkHDcUgcd5Y2EcQQiVa6ZWY2t29Z6NxL7yxL+sZXO6/C9ZGThE3pok4C7dMnJ3s4ytc7jdvwtJCYbFX739PfaazlxjiXVW2rz8aFUfreQ4VyARq2pMpwwwcRVJt9/9vq9HV95O9WCj/dSLo86JkI3Dcj1nNHdc6nUHVhhEzIwkRk0gaQJhCbBPSsGsb6t8crjNP0ycSIdLML1Fq2PSR96ySQSSIegPyW07PUrYLe8t2qvm16FrVdu8or1mqZwgB3X++/zkHlyy8G9B+5S8/ta4JrK+/p+/MPb8eP/fVy9p/13v30Ks7OzWPysKRx99NE4+WUvwVnL3ohXnHpyZ+Dup5tf75e++FXct/9+PPqf/4Unf/uUiuFHPedIHHf8sTjp5Bfj8qtke7OPoNv5Stu106tx2bbQ9125Rvh5PH6HlCQ+TsvPKYJdDjF/SyYTRzBtwrHn8MxTP4jNZNqL+YF9Q/V3ZziS78jRUCEj7xM3BbbqLSt9yvA3H1j+vZVS3p/Gk7M5soZTb07gczfc1ZXhSN1y/5mQjDyUDNPHJBCayAyKQLIEtH7jO2sGkpfNdWJQFgzS6qmjz7AQTjoCEa2DJ+Bec9a9SMQPum2iaZfTPIfQUz7BPOFp1rgF9bC+SfP0HVYL/dBvvj98K32AX78NBwt805eT1ZeScARq+IG9jWYfQlGkFvo+nMl4L8zyJpuiGc1TT3+zU06m6mRjm9xC4/ep35pMp6XiJrk6S4QznPl6Q93CHHxkzWZyfhH+7YYHVJbCDxEoEgGdoD5Ikun38DBIcklPIFErpV0sjbVy5yRGkY5QlbpN15RN5MKZTL+MQzuTiRBx4rnHCKEp7pIt0ZZ3l9ocDqmXBTTVipH3kSkuIY4jcDgJpCpOPeJ6DjPJFAV9N4GYRKAs2mm31z9T6a5GM7PR1F1bTc360haLtp+rPjGZTDhDCWcsrpzdDHaW+UmKnwyp6aqlS14GV3aa9fk89dQ3O7+NEIhMW9vqUjTvLrXgT291ZIFCZOpqGKew0tqW5ccHgVEjmfIJRNt30hKIdsVaBXMN2FotdhYqlEBCTaU+axFSrJ3JxE0VhtpYuvQU76fQov8CMQl7+Gsykak+9WOaaUYDnClCBMpGoEokEzOFlfDk3jOSVu2J39NX9k31i0uJgduQWeLqbcfGYH1Cx5MN29epurOMhn2DTCaBQNr1xkxdSebTXpORG5iVcWTq6mk8c/Axb0caSSS9+SgxUgjonLUZRIdLJ5Be8a/4uEgCUQQq73rX2OoY3U+lL5fejbsyGf8+SNv/mwSSHlNKEIEiELBct+XH6oStkEVnHnkxRl71dB/hKwL/4akzN9w6u7RQrUYGE4hGM5ngfrDge2Ygw+M31GSsESCB9DR/ioA3Ci40TASiiWeRWZCmCixGBMYagezbeMcaPnaeCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCBABIjC+CJBAxtf27DkRIAJEIBMCJJBM8FGYCHQjYFlWx3+6rkuYiMBIImBEIBwgI+kL7FROCOQ9PqL15aSmqiZKbrpt9SPFcB0kzzytNXx1DQWB6DqtCXwcICaoUSYLAuNMIHn3PYsdKFs8AkNBIDrdLNoxdevXLafTJ5YZTQTy9pEqPWDl3ffR9JDR6RUJxLelruPrlhsdF2FP0iJQho8U3aZu/brl0mLK8sOJAAmEBDKcnllhrcoIokW3qVu/brkKm5eqhxAggZBAOCByRqCMIFp0m7r165bLGXJWVxICJBASSEmuN7rN6gTRvHcq6bSZBXHd+nXLZdGFssODQGEEwgEyPEamJoNFoFcQTVoMz7LltejAnVR/Ut/iLJC0QzL8fa/6s2A2WK8YzdZyJZAkJ8pi7CQHzmqepPqT+sYBktUCoyNv4itB703HSJL/ZkU3qX6TPusQSFK9pnhlxYPyHgK5EEiS8+eRjSQ5cFaDJtWf5MhJGCiwY04oB//HgZDVgsMjr+srvTQ28YUk/82KTlL9Jn1OIhAdnU2w0qmXZfQQyIVAdIyYlUSSHFivu71L6davWy6upbhBpoNd1r5RfrAIpJ1uycMvsvilDjpJ9esSiO4J9qhOHCc6Vhp8mVIIRLqZ1iGSHDgrdLr165bTIZC0GGTtI+UHg4CJj5jIhHuTVT4JGd36dcvpjA+TOJHUD36fLwIkEB9PXcfXLaczQEgg+TrzsNRm4iMmMqNOIBwfw+LRfWZuXAMrmTi7iQwHyPA7EDXsRsDE101kOD7ofWUjwAyEGUjZPjhy7ZuQgYkMCWTkXKdyHSKBkEAq57TDrrAJGZjIkECG3RNGXz8SCAlk9L18wD00IQMTGRLIgA3L5roQIIGQQDgsckbAhAxMZEggORuO1aVGIDOBpFmDDw+SNHJBr7LK90NHdwDrlotrK4tsastSoDQETOxsIlMUgeic6eg1frP0I4tsacYe84bHkkA4QMbc6wvuvumDjqlc3g9YeY6POKiLIJ+CTcrqeyAwlgSSlB2YnpYN6uUAGe/xZvIkbSJThQyEBDLaYyEzgQg8OtNRwzRAshCIyJr2xVRutF1w9HpnYmcTmaIIJMv4yDN70Ykro+c91eoRCcS3V5rpA9PBbipXLZeitiZ2NpEZFIGk1U2nvJRJukyRBDL8Y4kEEskodJyWA2T4HbtMDXX8I6qfiUxeBBK0Hef7cRlF0hjRkSGBlOmh+bU9FgSiO0CSBkaaAcsBkp+TVq0mEzIwkUnjj/0w1Jl2Slrf66dLr7aZgVTNs7v1HSsC0XXkNGbtN/g4QNIgOTplTcjARGbQBJLlASvOuhwf1fd5IwKpfrfZAyJQHAImZGAiMygCSUMcSVNz4e9JIMX54KBqJoEMCmm2QwSIABEYMQRIICNmUHaHCBABIjAoBEggg0Ka7RABIkAERgwBEsiIGZTdIQJEgAgMCgESyKCQZjtEgAgQgRFDgAQyYgZld4gAESACg0KABDIopNkOESACRGDEECCBjJhB2R0iQASIwKAQIIEMCmm2QwSIABEYMQRIICNmUHaHCBABIjAoBEggg0Ka7RABIkAERgwBEsiIGZTdIQJEgAgMCgESyKCQZjtEgAgQgRFDgAQyYgZld4gAESACg0KABDIopNkOESACRGDEECCBjJhB2R0iQASIwKAQIIEMCmm2QwSIABEYMQRIICNmUHYnXwTi3m2fbwusjQhUFwESSHVtR82JABEgAqUiQAIpFX42TgSIABGoLgIkkOrajpoTASJABEpFgARSKvxsnAgQASJQXQRIINW1HTUnAkSACJSKAAmkVPjZOBEgAkSgugiQQKprO2pOBIgAESgVARJIqfCzcSJABIhAdfl/HQsAAAWmSURBVBEggVTXdtScCBABIlAqAiSQUuFn40SACBCB6iJAAqmu7ag5ESACRKBUBEggpcLPxokAESAC1UUgNYHI5XJxH9d1q4sCNScCOSIQHSMcGzmCy6qGCoHSCaQXIeWJUjCA07YVN/Dj6mCAyNNa1a8rbwJJ67dpEIz6rm5b/Xw+XAfHRhprVK8sCaSPzXQHFwdJ9Ry/SI3HmUDy7nuRdmLd2REggZBAsnsRa+hAIO8gqpsVmJhB9yEpWnevh6a8+27SJ8oMDoHSCUSnq0Wvu+jWr1tOp08sM7oIlBFEi25Tt37dcqNr/fHqGQkEgC4x6JYbLxdib6MIlBFEi25Tt37dcvSa0UCABEICGQ1PHqJelBFEi25Tt37dckNkLqqSAYFCCCTvnUpFP/nr1q9bLoM9KDoCCOgE0bx3Kum0mQVa3fp1y2XRhbLDg0BuBKLbJZMdS0UH7qT6syxiJm0hlu+T6jfBTNceLJc/Akn27NViFjsXHbiT6jfpc9ICfvj7pDGavxVZow4CAycQUSrtQCnaeZLqNxkcAfhJBKJjpLR46dTJMsUhkIe/pNUuKcCnrS/tuo5Jn5MIREdnjg0dlIorUwqBpCWRpACfFZ6k+k0GBwkkq1WqK5/FX9KOjQAlEkh1/aXKmudOIGmeKnSfHpICfFYDJNWfNiDonmCP6q2LR9b+Ur5YBJL8Kenp3oREqkIguifYOTaK9dG8as+NQEwcQzdgph2QacHRrV+3XFz7/UhIF4e0/WL5chAwCeYmMuHeZZVPQkq3ft1yumOEYyPJMuV+TwIZ0DbeLORTrouw9bQImARRE5lRJxCSR1rPG3x5EggJZPBeN+ItmpCBiQwJZMQdqQLdI4GQQCrgptVS0YQMTGRIINXyi1HUlgRCAhlFvy61TyZkYCJDAinVzGxcYqebcqLRZC7fRKbf4Ai+S6l6T4Pr6qdbTneBUMrl1Qd68/AgYEIGJjIkkOGx+bhqQgJhBjKuvl9Yv03IwESGBFKYCVmxJgJjRyBpznTonmnRySKyZC+atmSxIUHAhAxMZIoiEJ0xUsT7QLJiMCTmHys1ciEQ0wCqIxdYI86p08j3q6eXxXUJJE5eV9akD2PloRXsbNhX09jXVC7Ot9O0G4U4TwLRGRu9xmaWPlTQbSqpci4EkjSXn/XpO6t8vye1flbTJQGdQZJnHyrpaWOktMmTtIlMFTIQnbFBAqnu4Bg7AokzlW52o/NkFtSvSz58yqru4OmluQkZmMgURSBJY8Tk1olwnUVMf42eF1WjR2NPIGkzA53ycVMROnLVcBlqmYSACRmYyAyKQNLqplNeyiQ9ZPHhKsnTyv9+5AmknzP3yyh0n5LinqxIIOU7dpka6ATQqH4mMnkRSNC27iWgSYFdJ6MngZTpofm1PXYEogNd1hQ9iVR00nkdPVlmOBEwIQMTmbwJRAfNJPKQOnSnepmB6CA+3GVIIBH75DlApOqgPk5hDfdAyFM7EzIwkRk0geiMjUAnHRIhgeTpdeXURQLxcU8zOEwGCQmkHAcvo1UTMjCRGRSBmIwNnTFCAinDO/NtMzWB5Ns8ayMCRIAIEIGqIkACqarlqDcRIAJEoGQESCAlG4DNEwEiQASqigAJpKqWo95EgAgQgZIRIIGUbAA2TwSIABGoKgIkkKpajnoTASJABEpGgARSsgHYPBEgAkSgqgiQQKpqOepNBIgAESgZARJIyQZg80SACBCBqiJAAqmq5ag3ESACRKBkBEggJRuAzRMBIkAEqooACaSqlqPeRIAIEIGSESCBlGwANk8EiAARqCoCJJCqWo56EwEiQARKRoAEUrIB2DwRIAJEoKoIkECqajnqTQSIABEoGQESSMkGYPPDi0Dce7uHV1tqRgQGj4Alb12VZrO8dWzwarNFIlA8AsFbAjk2iseaLVQTgf8HFlZEMlyq7KEAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>vxtp7</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dB7xUxfX+7pb3KAoawW40Rk2MvUAMGqOgSSxYEBFUUEAUMRZCFMXeIraIiggqWLCAIhoVjZ1YEEWjYiyxxuhfjSUqCLz3ttz/78y99+3dfbfMzL1b3u7Z/PwR2Dlnznwzc745Z8oapmmaEJ+89QcS9p/2H/a3MIr/2fdvTnmngKycpPoOxVTtcxT4yenq07W/bHI+/anZrWUzkxUzAoxAp0XAqAsC0SEpJhAxaHWg67SjnQ1nBBiBWBFwEYilN9oCnFa9JRGMprnydhRW2iSj6xB16tNsmreYvAGxVsvKGAFGgBHQRaBuCMS0iYsJRHcosBwjwAgwAmoIdCAQf/HSnHpwjt13T0XNPoXSYfaUqlItH7e8QtO4KCPACDACNYgAE4h2yi0qAdXgaGCTGAFGgBFQQMCfQNpz8rXmKCXtkd5TKNYnLaYAMhdlBBgBRqAeEZCIQCQddsXQkbRHmgmYQCrWdVwRI8AI1BUCEgRSrvaq7qmo7UHQ9RbD8NpS9ycgf5lyYRCsV88eSYKtTpO4VkaAEagjBHwJRHoBrw1GeQnE3yw5B6vnvLXBiFFQrn0xVsiqGAFGoEERkIpA4nCmceigPtLVIy9XYQdcfqbWxqxB5wQ3mxFgBCQRkCIQSxc51lLnGuXSoKPLS6errvbbgSnJJrmLeekhm73sduxw5KO0TcFUXwJx4VP6PIyfeudVmtLUncjk+bVbwVYuyggwAoyAC4ECgficurL8dx4wcwCygJEDTAMwmgAk/W+eB66sSR85SFunMIgIIgkYCfu7jF0XGUD1NLvqInnbwQfeHMwCyFj1iIaQnrRdl4OC7ajJHsNhq2o721J8ZBnEZ2wLQiH8dEiY5wsjwAgwAt4IhBKIJZbFkw8/gEkTJyCZyCIPAyNHj8NxJ03wJ5FAArEc+5GDD8KH770l9G2w0Wa496FHhb633ngNxxw1DMiuEk597XU3wN3zH0FT956FVgQSiBV5tPzwLYYcvB++/vJzUceP1loPc+Y9hB4/6u1CI49XXnoBS19eLOrKGUkcM/YPweRYxtFkpdqI8HL45fZbIYlWGIJsSz9Ecu5/L/27VZ4OEmSRwuLX37PJs4zGN7BqrwMb7e+UauJSqtOtL+g7lepk9bjLRW2Xin1BZb0Pyehpr5U26VlfPangeyDtq/sszJYfsPce/dC28hvhuHqvtynu/dtTgKGzss3g03ffwGGDByKJNphIYdTxEzDy+JNtx53DjVdfhltmThMOlGKg/QYdiYnn/dkVQVjO06RoyHaUBRgtgrr4rNPw6AN3C3uzRhdcc91N2HnXAdZKnMTyJpDIYtqUS3HXrOtFuYyRxuLX3hbtMs2kz0mucnaYE5m1ot92WyKJFiRE9OdOqVEZ6+8W4RBbl37vRqMrnn/9Q7uvyml7Y+uWdcayKKkQiDMWZHV3nDPWWPL6xN0uFRuZQOJCqzx6JC4SUsWUUslg8nkT8cj8O5BADlmjGTfeehd+vsOu6ivbfAtunHIxbr95utCVTzRh3oJn0HvDTW1HmAfaVmDk4YPwwb/+IZx4Hs24dsbN2H6XAXYqygGkdK+CnGsGi59+BKeefDwSyMCEgYOHjsL4M84rEJDgHavs9Ksn466bpoqUWRZd8fzStwGzG2BUK+VDBNiK3fvsIAg0gSwMO+IqDey8/p4gQsm2IZdtEyBRXz3z+n+KCET+UEF5Bl49ao3T0crokimj4oCZQOpxVJa3TUbeHjXBjxBaOfl/vrwI40YfiqSZQR5JHHTYcIw/8xKfla3faSbS1YrBe+2Cb778BHkjga23/yWuu22ea5/DWoV/8t6bGHHYfshTKgsJrL3uxpgz/29Idl/T2ivpsBlupa5WffclDjtwL3z/7ZeCPDbaZAvcfvcCGF16WHsn7Y0tJhATWeSMbjVAIM7mP9GD+/CC5GAwM5h7wxRMnzrFSmERgbz2kdVPFTj1FWSlbPWFchU+FScJsV+xqE7d0SurR7Zcqb0qciplI8JXMfF6bFPFwHNVJEkgzmq9FYN/vyu++uzfQsVqPXpjwcKXgVR3H2dOpUpSK2YeS5c8ixNHD0USGWSQwqRzLsY+hx5dEslYUc/cWVNx3dWTkTRzyJkJDDxkOE6lVJZInZVGH1bq6qwJJ+DZxx4Uexpmqgtuuf1ebLrlTkURRSH1Y0cgM6+1UlhmFyx6450YIxBnk96kDYkYnrsPcqjWd8u//hRD9u+PlhXfib2f3+43CGdecg0TSAVmWFyOSVaPzt6LrG5VMqsAvLFVoYpBbBXXmaLQY7zFqY5WzLzmEtx603WWQzeSuPTqm/GrPX8HmOniH+PwXGpaDn7yuWfgkftuR8LMI9HcE48uXIxU97U6poxMOkGVxfEjhuCt118Q5bNGGlNvuA3b7dK/mHBEfRk89fBcnHvGBDt1lcSYE8/A8DEn+myKuyIQm0BkU1hyK2Q7ehAnvAz79Jqzd2F02F9xsO6QXnKnpoNCRYFXHpdfOAkP3XObdaos1R33PfQYfrQ+pQfpBFpn+XSuyCNOZ6vq3FTKV4Jwan2EqeBV622ptn2hBFJsYAaff/Q2hhz4O6TMVpF++s1eB+CCK64Fss4xXHuDWmxSe1wfyecwoP+uaFv+jfh6j70H4uIr/yKq8drCIzX//c8nOPLQ/mhrpQ38BHqttxHmzn8MKUplOVGImcfyr/4PQwf9Fj8s+0bo2nq7vph2y71Aoqlk38Rx7LQ5ncFN11yO2TOvRYI229GMZ2kTnWTEMWX3h5w/OeGEdSrY3kOx9ogoNeaKiMw8Viz7Fq++8hK+/OJztLS0YK21emObbbfD+ptsZpcNOAbtVFsKSmCuMYPPPnwLQw8ZCCO3UqTvDhsxFif8aZLH8eVqD72w+jsngVCrojooHXlZGdly7t7RkQnrXT/9lTgNVe72qLS9s5cVKax2n9R+ac+nWWKF24ZjjxyM95a+KApRBPHkE8/iiL67I5XvguXJHnj5wy+xPLUGmrJJrJ1dhdWQEdsOK5HAtPvm48QzThURTN4Arrz6Buy650biWogwpMRBJmgRbQAPzLsDV1zyR7H/QpHPfoMOx8TzJhdW1WYr/nT8aCxZ9ISwq7n7j3DnPQ+il9iYL6y8C8dkM/YpJzom24aUuJOSFyfCiBjJ+ZamyLJGExa9/r69V0O10EmpzZA025BHCiNGHYPjTp6Afy55GbfMnI6XX1qEfI5OkTkfi3h+/ottMfGsi7DZVtsDhkVI0T9Wym/iCSOw+Lknhbpuq62J+Y8sRNeea1ftWLJ3uwqnyKK3u/Y0eDko2SOnpdGnrEOViSxUHaesze4eKLXXr84w3bLtVu19VQxU9TdaeTUCsVfc9995K66aPEmcDsqhGZPPuhj9fnsgkO8KJFez7qvRfzngkK0GYfUMEQ+wMg0s/uR9rExbdxZMOsSboI3dJqRyQNLMI5XPi0ig6JNowWcr3sT4cWPw0gsLkSQvbDZhxvRZ2LLvL0Xo8vd59+DiC88S+yr0Ofv8y9Bv0GARRDhXRhydgqNMYJfttkaa7lkQwYlCeZgURRhEeG3iT8u5Ww6PopPi47CrsPu2m4iTUjnTwMCDBuH7Za14+umnkaRLl7QDUZR+MkUaThBUshsuueIa7Dpgvxicu3XI4fWXnsGJY4aJ9hC2J5wyEYeNovRdXCQVx/TovJGFbOtVnFSYI5Wt0+tUXZAzl3HQOraFEYhse8QU9TlWrKKjtKxK30Spp1FkFVNYhVNO+/XvAzOzSkQRfXbeDVfMuBMwu1j7GORzyUuT87T8qPX5YTn677ULMrlWcYpryBEjcfLE060L6Rlg0A790D3ThqY8/UPhszzdDc99/B1WpLoggVY0ZbNYPWuiiwl0Ee4xJ5JK1vq+4KCWoRmv//A2Wml7xhXZUFRDyaNd+gwWhGOSPVlLlgikubkNyeTXMIwfigiEIp9nlrzpimhsAsmvBBJJEPVZViRhJLti+x12xOY/3xI9e/bEV1/8F4ufX4gvPv8YCcMipESqK267ewE2+ukvfE6VeQxDv70lsxVHDzkAH/3rdSG0Zu8f476HH4fR3FNEVbo/9Vu5iVBfxKLrqILkdBx6WP8FOWmd+uIkkLhJRLdPwjBs5O8VCYSgslIlZ50yGs8+/Texos4lmvDAYy9gjXU2trH0upuRw0N3z8blF05sv0dy21334ydb7QjkkkAmB2TagGwrkCtJ/Kd6As0psc3y6IJ3cOHpp2K1thasaSTRPZdDmi5umybypoG8eGLFqn9FOo1nPv0ELakUumSzIsIRH5Poi5JUWSTFMycZcvmibRQdwGjFh8vo3gRFIA4TOiktV9sSwO47/kyUt/ZFEmju2g2HDhuBI0eMRvc1aY/G9cnmMX3qlZh98w2iXrJ12513x7SZN1jVyHh5TwLJ4PH77sQF554msKWWnX7eFdh30OEiuiG7ZFRXdyIwgcTh4HScvk6/y0YHfvbI3jmJi0RkUnw6ODS6jAaBEGQZLHryQUwcfzxS9p7E8ePPxrCRx7nSMW4SyQonPe6ow/D2q4sE5htsthVun/+wfbQ0BeTt958obBUbIs5bV3SCKQ0kEtYTXAAmjZ+AFx57AGmTDgGbMOhGOSW+jCZcdd1t+Pmuu1j9Sioo1MgBQ7fui+52Kg2GlVoi8qPLgwnTJhKRVktg2kv/xO7rboocuhYRiOW7LaKw9nTy+DYJrEoT9dC/p7D0rTex/gaFOKj0ABWl306bcBUWPvGY0JUxkpj/17vxk80penPvDcg61Dzyq77H4P33xP++/j9BpD/edEvMnv83IEH2x7G/UjxNAi8hyl70CJl5Mmpq/TKkKiGolveDMIhEVBy3n/4ouMsQT1w4uO0vh85GJw9qvyaBZMVN8X3698PKZf8VOG6yxba49R66e+H1yGIGX3/6PgbtNwDJfItIXx170iQcMabjm1PBN62tFNqKbz/H4QftjeX/+6I9ZUXOe/CwkThh0kUlDy8S32WAlausP4s+pC+L56dcgdk3T7eCE4pF0r2RyW2InNnD2tj3+BABtSXz+BYtaBUX1hMYMfI4nH3uRWKTv/BxHLhFCAbVQJv2JqXd6OIixQwZ/Gc5PTViS7mCHYFHAAdQ0VkzZmHmdZeLo8uE7ZXXTMcue+zpearNNsKqSjIsUXIYMp5fYubFpEaipvIVUXVaquWDLFdd+YehUKnIJoi0wmyUJVQZEtOtq9HkPAik48q3owOx0lhXXXIO7p8zs/1+xpz5D2ODzbaFaaZcRxmtuxZ33HAVZky90jp9lWjC/Y8uwprrbiLesrIGp/yKm04/zZt5Na6bcplIQ9G+BZ2CmjNvAdbbnE420SVD14eimxylqlyb88JD0d9zuGvKZbh9Fh3jNcWt7Ude+xcA+9Z60IjIAaO33QLdxJ5OAlkzhVyii4hE2j8iqiBmSojoYNbLLwJmFufv/1t8+ol1IfNXu/4es+79G0ysJpw+beuvQBesMNJY3pRCW4JeKbbjH9uz0t4TRVAffvACDtx/GDIrl4m/b7NzH9w06wLRMrGr40ESCQNIkkpJAqnFSdEZCEaFEFTKyvRHnCmbKLapEo/j3FXlgogniv0yWDdyGSkC6QiQlW7619KXMGb4wdbTJkYCw0eOwzGnnGk/ROj8pCy5slUYfsBe+Pijd2AYSWzftx+m3HQn2kR+Pvhjiox+wdPR/1v+wxcYcfA+WP7VF0gJT0npqwS22WEXTL3lHvtobMg7VuLIsn2RcMpluGsm3dSmx0yaradMRPoq5J5G2woM33wD9KDDBEhh+Khj0e+U0wBQFGZ/XARC/3JM377iAclmtMDI229VoQdac5sgl19DRDwZw0BLqgn3vjLPOs1GEYgPUD9ecyskTUoR5mDQ2S8jbR1Fdt1hEak/ygzaMGYTbfhy5RsdTqcF9QRlFrUJx049ykY8Ks6g1ievrPOSLSfb3jgjkCi2uWVlVv4qxBG3Pje2Mrpl+6Key2mmsJzVeyuO2H8PfPYxPRUO9FpvY9zz6CLXMyNWyumDt1/F0UP2s4gm0YSJl1yE82+8BitSuXan5hx3fWKedYfBoYzSlSYlfE4/90S8+Ojj6J410CXbhGTOimAodTRu/JkYKvZiSp868YpwSgnE9ZiiIJDim9sdrsnkVuH3W/8YzXmKQIhAxmLIKZNsAisZNu49HTODW/48CffOodvieXTr3htzn6OoxyY9+/TaYTv2QddcDkl6cddFACSTzNMjJTlBRvRnW1sbBuz1Owy98lrrJFzelfdynwMgs1JprLPu9lieWq09sgka5DSpnQn13XfPK88HinhSzsm8Thz1KDdc4VKhrOOUcWxhumR0uNsaF4GQTtm6ZeoMa6dXf+nWL9v3svpl9dV6uQgEQk3L4PYZV+CG6/5iP22SxrRZd2PrnemFXvphKFq2ZnHtZRdg3u0zhJNPdVkTC557Bq1NTVhF6SdnoW7/2f9Qem7d5dcSlvMSm97IiRvwdFekOZfH919+j8nnX4o7b5uN9/71piiXaO6B2XPuwyY//kXRKtyrI+gmOTnfadMohTVVnNKijfOXXyFClCAQFO6B5M00ho86HseccrY3gRQtb1ox48oLcOdtM8Q+CN0JWfjqB3adlFXLA9kM0JYBMq3FP/sh9FiHEm4ddwwWP/938S+p5u7IoUlEIDkziaRPuECU2ZLogdv/8WohsiklmIBRu/4aO/l+m00k0JpMIZMo3rRJoAXLl70SuudipeXkpkz7Hk6NE5KOI4z7aG0poqpOTqYNfr2mK6srF0R8ciPLKqWKkaNbh9Si1KfSpnKU1SIQC1xKLGXx7RcfYuA+e4jNcTqdtN+g4a7f7SBnuAoH7PVrfP/Np8L+/vseinMn/0VcD6H/Sj+lkYcgE/FfDp998T6GH7ofVrYsQ1vSwOrr9kJLwkAukRfRjXMBMWfQvXK6HZK2I5wEnrrHimyKCcvaKZh62+W4Y9Y0pPIJJLOrY+mid5HG6jAC3o6yEFiFX2+zMVJGG7wIxHfz2WzFNX8+E/Pm3Cz2Lbqv0QsLnltaIBA6VeacRhMnzEouVpoZfPTckzhp3Ggk0AZq70FDRuKYM88v/Kpj0GjJAkdu2xfNOQqA7NNt7ginRHbmSy8Fjz0nTZdKA90S4lk094ea0LNHH+TN5sCIR2Dq5NnskLQ04hEEQykxIhs6cS17/Lkcs0dSZ5gzDPteshpRrBwOLIp9urK6ckEEokIKKjiq6JUlWtk+j6Nu2bq8ymkRSEGR9TT7H0YOw9J/PCfehuqyWm/xOCLSqwtn8doLT+LE40aKC4B0wumq6+/ATv36+1+c89odpRx/vhXHjRiCd954EXkjj+Z118bsh+5HKt2DblTgxrlTceP0a5HKtwnSOGbsiTh26EkWiSCBvQZbkU2xf6Jju5R8yqDJXAUjZyBpdsNTf12EBOiFYes0ld/DG9SmfjtvKsiL2nbkqLEYe8Ik5G3icfZvDHHsNyHumiTo/5sZnPfHMXj6yYcFgWz4k59h9l8XSv7gk4X5qMH74KN3/2lFdV1Xx/yHn8Xqvda3N0xCju6KU2krgDa6bV/63lfHYUL7NsVnyQoHw3LiB60MGGZO3LeZ/frrQKpk/ynfXFgtOHnADvlA72G8Xs8dYRpJUHRD/9GpNSTpNN0KLFv2Zt0RSBSHEOR0wzbVy+UwdYlAV84ZRVHlVZxqubCTsSGo7ihjSaZusWAxI9VinWJacO8duPR8632rnJHGZX+5HrsMGCg2di89ZwIWPDBXkMuPem2A+55YLO4nFE5fhZlqnfi67forcdP0q0QkkjeSuOy6Weiz254iTUUkYKIVw484BB+/86ooYyabcfPsu7H5z/r6prJKU1h0J6QlZaDb2uugNZlEJlnsiEsjCiKOH77+j1UfDAwfeSzGHXWGIBP3J4kUmpFGGs3iT7r9PuR39Cz+f8Sdyb33PRhnX0o/aFVyeswVMgkyEqvyHB6efycmn3da+7tgo8eejKPGnWrt2cj8Vrz7VJp7byasK8K+z2YxfLsdxL6NEzXR6TRBxHmKBlMA7VcliHCAm5a4Ihu/Y1UU3dAptHSq/efsTYJXcmO+Fk5rqTh23eko4zBlyniuMrVPT3TUJts+XVv9ojDZesOGeNTvq0k2UW0vQwRirc/bln+FffbcGfnWFeI01J4D9sV5V06H2daC3+6+A9palgunevhRx2Ls+LOBBD1AIvPJA/ks3v3nKzjuqEOQz1GaLIkDDh6GP51/qbVRLl7BtU6FffzuUhw97EDksyvESnzDTX5m/5DUaoUN6qJqrU30G6+9ErffcBXMRCtWNCWwcMnLyKA7vYbV4fBTIaogt5jBvoN/JY7lEoHkE81oBR3jLSYQemcrlU3j2fufRgoJfPj+Gzh66EBxeorST2ecfREGHjjCk+jcKT0ivLbsMgw6YG8s++oT8ZO8a6yxPh5Y8BSau9DvvNu5I8nVfcce8Iu1ZPqq9L5N6aGFjocYxvTpA9N2Tn4RDkWbWYP2VtK465VXrN34kj0WSeusqJfOL+vKS1fUsaCfQ4ziKN21yOqRLaejOyr5uJ28jp3ViD4iDIlQURWyEWvNMrwdFmZkxAjEVp9vwYWnn4DHH7lfxAOppq545OkleObZhTjvjJNE9JFHV9w170FsuMU2wtEV+Tg/h2dmkV/1LQ4/dCA+/+RdQQr0W+xz711g/yphyrWpYUUqt067AjNnXNO+Oh98xBicNPFsj1NZFvnRin7urTMw7YrzkTAyaEukMG/BY+i9wRbioZPSj9uhp9CKXTqksM5qT2E5q3BKsdGzk3sctBvyyVVIGK3iMiF9skiLG/Qm/Uk3UewKvPZsaI9nxpwpuGn6VEFeRj6NM/90EY44YAxS6AaKdNqjJHvpbUUu/jvN8it0iXs6XvdtwkZg2PdkIN3fyeYxbKed0JzLIpWnpKT1ySEn2pewIymxq2WamLlkSUfNtEfTvSuQrvzvong5xChOUtfBh6WyZEhAxVGptFHFYfrZoNO+sCHYWb6PAz/VtsZDIMjgH888ilP+MFo8bUJz/oxz/ownn34ai597XDj+n2y+HW6Z91D7HY1SAuno6CxCuPz8U/Hg/LtEmohuuV83cy623rlf4Y6G2wPSXkl2JY4eehA+eo82pWnPowuuv2k2tuqzm8e9DuuY8Qt/fxQTTzxaOGXaDB899kSMGDfBvlXvgrT9vXm6hUf/7jqFRc+5H30cRtMxXvFbIoUPpdgyaEUGKzD1jssx/cZrRQqHCOqIo4/FySMntl83d5pDezZikoh0j5UISog3u6zfSLca1wXId8NT9y8SSTLaX7E+dLrMLlJkScmvQ7aXLr7sXrxn4zzEKEEgJaPP9xCByigVZwjsU2m0d0PvpbnfSiu5Z+OopuiGJlRhj8bEinQT7nzzjaoQCNkVNsFVHLPTThUHXWkZrzaHtVGWAMKwLJp/VViZqwzxapT1wy+sf0ptjYdAxEW2VThgwK/Fz6nS0d2fbr4lPvzwQ+ulWzONEyacjyFHjwm/nNd+wS+HxQsfw2knjbL3GJI47IhROOG08zr8hkbBUVmprH+/sxRHDRsoNt7p03u9TTBn/iOuH6AqdqQrl32Fgf37wswsg5k3YKSbMeG0c7DX7/dFc881xRMoH7z7Dp5f9BJG0K8bUi5ffCwCSZmrxG14I9mM3XYfgP5774tttt8Ba623gUiXtCz/Dq+9+jJm33EjXn6F7lEQXSax8aZbYtZd9yOd6hE4hiiCo3NlF100EQ/fPwemWHc34eIrp+DXv9kHvz5wL2STOeQSdCvfUuXcqyn9u/uejfvErHOSl8jH2rPp2r5rkyz6HXnJ4S4f2oQrdEhEvJFmv5UWLlVcgnRQ6qpKKaxaIpByOXZySqUOSJYQ/PBRcWh+dTHZqE4W+fLxEIj9Qu+1l1+AebPppdlW63c17A/dc3jw8cVYvdeG4Y/7CceTxQ9ff4ahg/fH8m8/E1o23GRL3HH3A0Azne4KuGUu5J1U1pT238bY9+AjcPr5l/j8Ml8GUyefjbvvnGlFOvabWOIZ9GQauRy9W0V3RNJYtJTuazgpEOsYbxot7Y8s0mVG8diikRS/EZJMJpHLZ+yXgCkysHZR1llnE1x3461Ye+MtgtsjrMng03ffxOGH7m+9JWYAW2zVBzfeNQetAu082tCKrMe9mrB7Nm6Csf4/PTSZsvdsnhUPwSfth/Llh1XHi6DCQZSeRlN46FGej3wiJXkFKs1UKhv3iRmd6MMxWMWxy5Bf+1wvWe2rOO9SMFXIQ4cUvTpPxV5V+5QGSycpHCOBWCv/EYftI1wapV2cN6r69tsTl19/u/wxVbRi4rhReOG5J4RDN5JdcNPs+7DZVnSJzfrJ3MD0CP1yYnYljho6CP9+73UYeev9rauuvQE7/eb3Hj+wlIWZWYlTTxmHF599UjxK6Fxoa39LyjSQNbrYPyhVIBArAqEjygmss/4G+O9X/0M2m0fCKH57iwamuN6BJvzqNwNw1jkXo0ev9dqPM/v7N3KIrfjTccOx5IWF1vP5RhLTZs0TqTwiIzoDRvsslCqL41PYs/kNssmMuGdTiGjsRyHtPQevPRuiSOcBeXe7KLJJo0n8zzqN1nEhEIwDtS7+14XjwExWR2ypg5J9LR1npkpAMs5VJgKRwUq1PaptkbEhrIwMHn7EGqa7s3wfE4FYK1fasxhxyD746P037V/RsB45vHDyFei/7yCxURx+cTiP+XPvwBUXn2ntSRjAqDHjMPoEemOKLqLJQGttjn/0zhs4athBIo1GjqdHr/Ux975HsFrPXiWOyNoLoWPHzz2+AA8/OB/vvLUU3337jTjltVbvXthoo42xxVY7Yuwfz3A9Flm8B3LUyGMw9MiReOjBBXhx8fP46IP38N3/vkWqKY111lkP2+/cB/vsfzB+sSy27P4AABP/SURBVGPfDpFQkON88fmnMP74UdaPX5kmdt19AC6dOsvz53Dj2HegB11ox4b2behP+nthT8UmENuRu/dsROTmSqE5ezhidSiez08hlUti4f1/F/RR2LNx+tQih8JZMD9CNNCMJhHRdLZPHASiGj0EYaTjeFUiKZnDA277VInDL6LS1VOu8VSvZBMjgThTn1JAziav85sezg9zyE54iwDaX88V6bCQhw079HyBFKxjvnTc16Wn3WOX3vK2bqdbbqzkWGsH+VXYfTvrJ23FW1gjx+KYU86wNt/dL/+2j3JnBU1eVmyLdxyvnkxCeLpy/1p4yE8NimTofxTZWHdswiMb96a932Fg0kmn0XY7cHeYqTzyyVx7zrzorS/XHo7X22gUxfTAaiKO4U9tI6BDULXdovJb15nIJmYCKYDr+MFw11P+DimtwXnXzzpLrJkzFw10EYiZxhGjxuLY8edIRlo+7S4hkBpI3QenC9tj9MILmH6nsr0imyJu7fDUDEBvo9Fqsj0lZgDpbBOW3LcETQFPzVR+VHGNXggwgZR3XMQR0UaxsCwE4qzf6U+KR9wOpRYcIq2WaReDTjc5UYCeXcGPKUZLJ6kfmxUDwacheu0L2mtSt680sqEYx3mq3/vYsXtBUnjW30AKTfbDMF6DXw53dfujTLRGlWUCqe+eLwuBiM1iA/jpZtsgn0hZR1xtD1Z6rLQa8NIG/wfv0ZMn0T5J5NFvW0ph0S8BUgrreIw9ZZJ4raNan9Ib3dWyQ7XeKHa3R5RKlVafQFRSFUpNi6FwXHsITCAxdEYNq4iRQIonZC2nsMi2n26+Q9FRY50+orew0lgh3gCjex10N6OV9j/sY8biXLxzjMtOldUCgXqu2kvuj3iVee/dV5RhCot8wr6XqbAQUVqlRQTiLA+qSOYyttdqmVomt1rFLC7SrdX2edlVNgJRA8G97Vr+lSGl1ZzUmpqdxaVpW7/P9tu2E8jwUcdh3MknBP7KYhwOM4rNfrIydm22+Y5Ft6m9Lo6163eO+SbsU1vOD1y17znZzt4hLp/v3fb6paboIPO/332tOKKUaVA5gGSdRQg0UgRSy6RbLnKLkUAqPXNKt+dLTjSF7AWQtVE3+D1TWOMn2VcRi/GIkqIJQrZceivdm1HqKz4UEaKJiSUK1MqyjUQgyuDUgUDDEkg8mY1W9NtuM/GqLu2BjBh5LI4bf3qHn8K18ir2aImn4sLQU9brd8jWUSkXASpX207Xske5FWeXrEGy5RSr5+LeCDCB1PfI6MQEUgsdQ8424yIHnfsqtdAOtoERYAQYAXUEmEDUMWMJRoARYAQYgei/SMgYMgKMACPACDQqAhyBNGrPc7sZAUaAEYiIABNIRABZnBFgBBiBRkWACaRRe57bzQgwAoxARASYQCICyOKMACPACDQqAkwgjdrz3G5GgBFgBCIiwAQSEUAWZwQYAUagURFgAmnUnud2MwKMACMQEQEmkIgAsjgjwAgwAo2KABNIo/Y8t5sRYAQYgYgIMIFEBJDFGQFGgBFoVASYQBq157ndjAAjwAhERIAJJCKALM4IMAKMQKMiwATSqD3P7WYEGAFGICICTCARAWRxRoARYAQaFQEmkEbteW43I8AIMAIREWACiQggizMCjAAj0KgIMIE0as9zuxkBRoARiIgAE0hEAFmcEWAEGIFGRYAJpFF7ntvNCDACjEBEBJhAIgLI4owAI8AINCoCTCCN2vPc7tgRMAyjSKdpmpHqcOvz0hX2vUzlsjpky8nUGVeZUryj6I3aV1Hq7syySgTCE6SyXc0TpLJ4R62tmvODbFd1grL2ypaLip+qPM8PVcTiL69EIFR9nCsRGV0yZfxgkZWt1QkSpbvrsU1R8KiEbJyYy+iSKRPUbll52XKVwNhdBxNIpRHvWF/VCER2UMqSgBeUjmzYykzWlup3l7wF9dgm+dZXr2RcuMvqkS1XioiKnErZ6iGvVnM9tkkNgXhKRyIQnbDZMVuFGFTKRtUfpU3xdEk8WnQwi6fmxtYSl2OS1eO1Co97wSRrS2fq+XpsUzXwVyaQuNJYqg5OpbxK2dL2MIFUYxjWT51xOCZVHSrlK0E4td6bKnjVeluqbV9VCETVwauQVlTd9UAgOhhUeyDWU/1RHZSOvKyMbDl3f+jIqPRnpcdruduj0vbOXjYygeg4XN0BIyPnlAkL4xtlgqjg0NkHc63YH9VByYzz0rbKRBaqdnnpDMO4dLz51Rmmu1zjVhWDsPY2+vdaBKISEXgBrDNBZFJNqnrDBrGX7Z1pgpRrEjb6pAlrfxQnVU7ZWpgfYdi5vy/H+I2Cr4rtjVK24gSiOoiDVlpBzlxm8AURiIy8F6k59vrJR21/2MAst/6w+vl7CwFdR6UrFzQWZRZCYQs92X4NW2DJ6gmbR6p6ovSJTl2NIqNNILpRSBwOLg7Hr+P8ZSaZDPHEgUGYLTJ2NMogr0Y7dYhARyZogRXUbpnxEcc889Mhs8CKk0RkUnzVGCedvc6KEkgcE8QBXHVghnWUrlPXaZOOTLnsD9PL3+sjoNrPquX9LIvD8dfKAovskCG7sF6KC9uwehrt+9gIRKajdZ102Go7jpWKrm26A1O3PhmnEceEa7SJUI72qo4N1fJBNtfTAkvGt6hgwfMjvtEeiUBKVylhHROn04w7JNW1LQ45niDxDeha0qRCCCplZdoY5/yIYpuurK6czGIzzE/J4MtlLAQqRiBxDgi/8Fp3YESxrdYIRBcDnhDlQUB2bMmWk7Uyzggkim3Vnh9xEqks9o1ULlYCCVpJ6w4kmZSNu4yOA62nCaLT/kYa8JVuq+zYki0nY3/QHohOtBvFNl1ZXTk3PkweMqMlWpnIBCKbxoqTQHiC2OFjzL8/EW0osbRu+iQOZ+nUHTY3mECi/UYLj/JiBCpCIOUiD/dqO0odUSawrqyunN8KiyOP2p3aYX0d9r1Ky2QIxNEnO2ai2KcrqysXFIHItlcF70YvGzuBeK1wojj30g5ydHkNBt1BpytXGn2prO6i1Om12uTJUbtTOayv45ofQfVESeeE2R+EvK6srpxfJMbzozzzIxYCCUtjlWOCyFxEkh00UQarrqyuHJNHeSZCObWqOHbZMeu3sAqKLnTHnK5ctRZYUciynOOgHnWXnUAqSR5hRObXgZ19gug6nXoc0LXaJr8xFmXs6aRrdOrTkYkaCVSjzlodO7VsV2wE4ue84yYQGWepU6eOTFwrLJk26TiLWh54jWabl0OM4iR1x4PO6jyKnaqyXvZFSQ2ryDbamIyjvWUlENXBIxMhyDpbVUJQLa+7woqKSVT5OAYN69BDwM85BqWdwmrSGQ+VktFZYOkQnN9cjIJrGO78vYVA2QikFGBZx18qF4djl6lbZ1JFnSAydumuNHmA1x4CtUIgUcetn2Om9sm8xiuzf6nj/KOQT+2Nls5hUawE4jUwdQaCl9NUdbaltsjIh5FInBNExp64yLRzDMX6tzKIQKKOB0JPRYeqsw0jvyBS0e1ZlfbokKKuXSxXQKCmCUQ3+vBbtcsOSJWJLpPbdtsja4PXII0DDx781UUgao4/6tiOEtHKkIhMBCLTAzrzhOeHDLLxlomdQOI1r/a1hUUttd8CtrCSCNQSgehE6UFZBq8oiBdYlRxdla+LCSQi5kwgEQFk8bpGgOdHXXdvvJvo9Q2Vd+t4gjRir3ObZRHg+SGLVOcsxxFIxH7jCRIRQBavawR4ftR193IEErV7eYJERZDl6xkBnh/13Lsx3wOpb6g4hdWI/cttjoYAE0g0/GpdmlNYEXuIJ0hEAFm8rhHg+VHX3csprKjdyxMkKoIsX88I8Pyo597lFFZ99y63jhGoMgJMIFXugDJXzymsMgPM6hkBRoARqFcEmEDqtWe5XYwAI8AIlBkBJpAyA8zqGQFGgBGoVwSYQOq1Z7ldjAAjwAiUGQEmkDIDzOoZAUaAEahXBJhA6rVnuV2MACPACJQZASaQMgPM6hkBRoARqFcEmEDqtWe5XYwAI8AIlBkBJpAyA8zqGQFGgBGoVwSYQOq1Z7ldsSBAN6l1fl41lspZCSNQ4wgwgdR4B7F5jAAjwAjUKgJMILXaM2wXI8AIMAI1jgATSI13EJvHCDACjECtIsAEUqs9w3YxAowAI1DjCDCB1HgHsXmMACPACNQqAkwgtdozbBcjwAgwAjWOABNIjXcQm8cIMAKMQK0iwARSqz3DdjECjAAjUOMIMIHUeAexeYwAI8AI1CoCTCC12jNsFyPACDACNY4AE0iNdxCbxwgwAoxArSLABFKrPcN2MQKMACNQ4wgwgdR4B7F5jAAjwAjUKgLSBEKvknp9dF8q9dLn1hX2vQygsjpky8nUGVcZP7yj6Nftqyh1NpJsaZ9Fxdutz0tX2Pcy2MvqkC0nU2dcZeKcI1H7Kq42dTY9nYpACFzZjpYlPNlyle7YOCeHY7ssdpVua73UV00CUZkbDt6y9sqWq3Q/xjlHeG7o9V5VCETGacuUCWqyrLxsOT149aXinBxMIPr9oCIZp6OV0SVTRmWO+DnRqPWoYKhSNs45wgSignyhrDSBkEhczlZWj2y50qaryKmU1YO48lL12KbKo6hXY1zOVlaPbLmwORLkQHXr0EOwMlL12KbKIFdcS6ckkKBwXdV5qpavRiep1lmPbVLFoFrl43JMsnq8+jpsNS2rWzXVVS3MdepVxUCnjkaQqTiBqDo3lfJBIa1seN7Z0z0qeDXCAK90G+NwTKo6VMpXgnAqjblqfSp4qeputPJKBBJHGkvHwcnKyJZzd7KOjMog0ZmwKvrDUhOdnRCjYFEt2agOSkdeVka2XNAcCYtwVHF32xS3bi9bdDBQbVOjlK8JAgkbNDKRhSoRBOkM63zH3ig6gtJwYfX7fa+KgW49LBeMQFQHpeNQZRYqqnbpjO/Suayjoxxzw+kxVQx4rIeMdTPMe5fIR3FS5ZSVmUAykYfMgImLQOKeKFHwlWk3l5FDIIqTKqesKjHpOP+4CCTuucEEIjd2VUspRyBUga6j0pULqjOowSonS1SAi5NA4pooUbBVaTuXlUNAlwh05VTniMy6sdoEEtfcYPKQG7M6pSpGIHE4ONUBHZVAwiZZmD0qq7GwuoI6VybFpzM4WEYfAR0i0JEptTBsTDrlZcZbHONKdd6rZhJke6hcemXrr9dyWgSiE4WoDiQ/wGUmSNTJIbvy0WmTjkzY4CuHzrA6+ftwBFQJQbW8zhyRmRt+K3YV8omy6o8LBzc+5dAZPgLqv0SnIxCZUF1lkvjpk9Gh47jjWNUFTQydSV7/w7w6LVR1WqrldaJSmXHtpVd1/yROApFd0MkSqi4G1RlFtV1rRQhEx9HqTA6dgRbFNl1ZXbmwie3+nidJ9SeeCiGolJVpWZwpmyi26crqysnMEZ4bMiNIrow2gQRFArK5f92ODEtjqeiN4sx1J2mUOmWiDx0ilRsuXEoVAVlHKFtOtv64xpjXPNedX7pyUcaz7hyVxbnRy3U6AgkjD9UUTpSJpiurK8fk0fmmqywxyJaTQSBsjqg48jgJRIUI4sCDyUNmtEQrU3YCicNZOk0Mmxg6KZwo9unK6soxgUQb7NWQlnGEMmVkbZeZI0wgsmhyuTAEIhGITBorDmepQyCykUgU+3RldeVkCETVOYQNEP4+OgJhBBH2vYoFMgQiOzf85p3KGNNtm65c0BxRsVsF80YuWxUC0enIIKcbNGnC6orizHVldeXCiDSsrY080KvZ9jBn6P4+Sh8G1RMlnRNmfxC2urK6cnGQXjXHSmeru6wEEtVRqjhM3bp05WSiL7/BUI46qa4ozqezDdzOZK+KY9ftQxmHK1PGC1ddOa85Itu+OOvkuVG+2RKZQIIcqZ/ZsoNIhUB0HXo5nHlY+6pRZ/mGEGuWQUA2tRQ2dmQXJX56dByzjkzUSKAadcr0I5cpRqDiBKI6QVScrU4qS0V/6eBRlQ1zImHY6LSPB3xtIBDW91FWySrOVieVpaI/bI7ojvEwuaDFpqxsbYyUzmVFLASiEoWodKaqg650FKJqXxQCCHNAKrh2riFaP9aWow91nHulZHRSWDoEp5qpqJ8RVf2W1B2B6JCIjGN3l3GctYxc2OCWXXmq1FX9YcUWeCFQKwRSLsdO7ZO5RCybXpOdGxx9VG++VZRAVFbJqqt7N4SqzjZsYpd2jwyByHapLCZR8JC1hcuVFwHVcRlmjU4koetsZeeIDIGEtcv5XnZu+LVJVV7WLi5XQCA2ApFJY6l0aJRQNu4opFwEUkk8eNDXBgJxLgS8omKVVqoSkAyJxEUgKnPDi0B05FWw47IWAnVLIH4kEjawVCaJTFmvgRZmg5dMVELlAV8bCNQSgZTOEdlxqRJJqc4RWRvC5kgUPbUxUjqHFbESSOdocnxWxukM4rOKNTECtYOAapRTO5azJTIIMIHIoORThgkkAngs2hAIMIHUdzczgUToXyaQCOCxaEMgwARS393MBBKhf5lAIoDHog2BABNIfXczE0iE/mUCiQAeizYEAkwg9d3NTCAR+pcJJAJ4LNoQCDCB1Hc3M4FE6F8mkAjgsWhDIMAEUt/dzAQSoX+ZQCKAx6INgQATSH13MxNIffcvt44RYAQYgbIhwARSNmhZMSPACDAC9Y0AE0h99y+3jhFgBBiBsiHABFI2aFkxI8AIMAL1jQATSH33L7eOEWAEGIGyIcAEUjZoWTEjwAgwAvWNABNIffcvt44RYAQYgbIhwARSNmhZMSPACDAC9Y0AE0h99y+3LgICdAmOf5goAoAsWvcIGABMaiVPlLrva26gIgLOLWqeG4rAcfGGQeD/AWzuV30fSjRwAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>cpcmk</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dB7xUxdX/3y3vATZUsKCCWFFUNLGBBStREcHyWWIBC6IIiBAVNJrYW2ygBrsSK2psUbEkmk+NXWP8UuyCXVGMorz3dvfe73fm3rt7d9+9d2Zu2Vf2LD998HbmzMz/zJz/nDPNsCzLQmf4uLUwZJUxnQQZWUL+nhCQ4Rr4fUScZeWlpBUL1fWVdqOU6sFiGYFGQsDoVASiNOojGrZG0qq3rTKDLvteF7ek5SmWzwSiCBQnYwQSRKDzEEi5UaaYNBuo9jBi26XYAuKhHlS8arVU08WrZYTcda+YPYGwnP6hNOeI0CzOwggwAnIEOh2BuDNJJpBq5dXdTsv7jp2i7hVjAlFVDadjBNJGoNMRSPQGd+7QlrKdVU4YhFTaOKQtP3oP4JyMACNQXwSYQOqEtzIvKCdkAqmT6rgYRoARCECgDgQSNGOl31fWOWy7abZb+0hLc7HttKRi7eWnO3OXticggSxf3O/bweQrsLoveCNjbv7KWkdYf6LUvDsvrTHDchmBWgSYQFLqE/UmENfoBi4qhzCBvWkh2kdGMEwg0XDlXIxAV0AgPoEoW5CYM/ByOTHldDKt0DEcw4hqvp1F7JrsdLKn/Ksg0R7WiF0HD6ZlWcr9Ql8h1fUNWlSv7Seyf+vXg3MwAo2OQBckEDvU1VlCFUkaX+FFBBBKYDlR9wenaODFoEpQPu3Moz8l2H8jTswhj6wIV7UnEBsrtwJuSIsJpNGNHbc/eQTiE0jNCeDgKtYMYEUDo5hMGZmk5bkGTJvQqCLkKmT0vI+kCStJQ6+shJCEfu0roYhW8acg/p9FDstjWTSjWVpk8vqWFskJGIGGQSBhAjGdmaf70xvbMAEK1bjhGotmhhRryYYH4C2HeFxL4FWNQeVkKvnJFnv+7WeMkjcoLjE6s24RGvLUS/CDz8JuWEXEdx4MXY5xZPmTSA3mNViE9mi3zq7n4Ia33PJirJGElVvrWZB34foU3p8lmCiigF0O3B3FXBtyxSb8bd5zTCANY6a4oSoIeEPh9bqhKgECcZtGBswEzBLw00/41+uv4Zuvvsa33yzCTz/9hGWWXQ69V14J66y/AdZcb12guZdNJpkMLMvwXwdw5dHPWoPrGlnDMc70UxCUSygk14LhrgaUJ/pprKFQu6mOlo2BVQKQtRkllxMBF61VapJRKtmyXAKin+StiPbWEpKLvVO+4CwiZiet1Mlx8lP9qR3uh/K7crxrJh5CieMR1XoWRRRFc6moPQ/dw7mRAMhYGWQLeTx9z1MidJUTf9wQVvXQsqyS05cSvslAZQRHSNMRgz5CNTlLJ0PAb920XqRRNYePdRdWeaZsAsUiHrn7TjzywB/x91dfQam1gEw5vGUXSfNLizijKY9ttt0OO40YgT1HjUGPPiv7GzuriM3X7Ic8GQUrU+YQkkWGJps10KNXTyy7fG+svc5AbLTppthtr72wweZbOqEhj7GVGtEYPcQhuiED1kLOLIl2UwieEJgz9w/YZtfdAMOfRKoMsIPnp++9i3122hFZ077WpWQYKGZy+MeCBR5iqPHuzBI2o/Itmq8bOGrSZEyZMTOAcGraahWBlqWYOO4IvPjcc+LLopHF/xx2BM644EJbRgCB+KFW61lUwnzVqWs9i5Jhr29QUfNvn19OTHRB4apm5MX/KYTlOkuCtx3ntkJ8DsUS3zqdJXnPU7+/RNksITMKujJl8vRbpZ4jSaMXRVZtHl0sopSpjk5wyo4qV6Xu8TwQx3A+++AfcfkF5+KLjxci4wk1uYQhxjCF+x3DKv5hGKB5eq5HT+wxel8cOfkkrL7uerAZxrH2pQK2XnM1NJsF+/fux7CECGFEnF/TP02DjI+BzbbcGjPPPg9rD9nCY3DTWnh3LFixhK36r4m81Yasc8ExGf7BWw7F9Q88CGTywtsK/Qg8TZx/ynQ8fPtcQQbUwJKRQWs2j9cWfuwvh6yoWcDP+6+J5lIRpQwwbtJUHD/zdKfMkHKpzGIBM8cfhWfmPwqDwkVGDnsecDDOuvJKef7aBllEeNVrFuRpuJ89Dt2j/PesmUGu1IQ/z3tSeBR0fU1lWbyy+E2/pT9ZJ4V9zY2JkpmhqqNkVnwyoWXbsUXW+Y+SdzSB6Br6drAGXJodVa6u8VQxJrI0QXXVrUtUOXEIpF5GvF7lyHSl+n00AnE9D7OE2Wediduun4Mmk7wEMuIGkMtj8JDNsdHGm2DFPiuLUNKiL7/C5599gtdffgmtLT8hI8JL9qctk8WE6TNx1PRp1TPmUgHb9uuLnmbRvjwvn4WRz4u/C0NXLKJYIjmmIC6D6MMyYdKMuccyuOTq32PoXnt7DHcah8xcAilgazLgZgE5qq9lwczkUchkcfM992PQdtsDGXvmHPgxTSz9/FPsvt1QGEu/R84JJxUzGbRmmvHywoVAtrk9EZEHQQS21uroYZYEqR42ZRqOIwIRIb2gNRg75HjutBPx6F13ImuZgqx22XsUzp1zvdCjMM1lkq7shiIvo3IDbnWLSsihFXnssv/eKGaLsDIVApl/1xNiJ5VLCrQM3gSghwVka5aTxMQjBC6yqX1X2R+muVw5qGcZFLT8CZnMt/jqyycFibhfepwo1fERO11UA+9XsJ+hjSNf13DHBSOq4a8tN6qcqASSllFPS64Xr7D+kYT+5QTiN3VzYvQXTJ+Kh+6+A1mK12cMZHv1wqHHTMC44yagqXcfe/i7FkDIsYC2Nrzx0t8wb+6teHr+o8iXiigaBo791UwcOe1X1TPeUgFD11gFzaWSCOMcfcJkjDuNZtUeQ1xsw1cff4I3X30J8277A/756stlD8DosSzufOxxrDFosGNE0iAQahYZcC+BmMhksyiYFkwL2HbXEfjd7XfZ9Q6ziGYRN5x3Nm66+krRhibDgFkqQZVAtu7fT3gg7QmEsPe03TMBmHXmabjzxhsEWRF5bL3b7rjipluBfHN5Pck1vN41C9oPVRCehd1B9jh0z0q/La4CtAzCEw9ejZxDDFXdwPFIRa3IMzVt8lhj9XGVPX1ikwVNSGxW8duMaxg/4Kuv7vPlR+HEekJYcY1flPxRDZ0gTp+zQSoEEmQU4tQlStv98iRhzOLIiEIgqnqQYZSEnCiThSRIIqxtagRiWcIoiQaI7adFPDL3Zpw98xQ0UfwAQN8Ba2PO3LlYZYONnRBUkLGsLLYvePMNnDNzJt586x+YMP1UHHPStGACyWYw9oQpOOa0M2Flsp4B5kxbabZeasPds2bjykvOR46Mt2Fg42HDcd0999GCif9MvBYd744k9zux/hJy4E+UTQRiG3Ay/nvsvTcee3w+rGJReCF3Pv5nrL3Z5lUz+qqiiZSXfI/dtxyClu8WI5PNYeSee+HRhx4SISkVD0RGICLMR+EeWjOwgN9fejOuv+xS5IgAAfxs2Pa45g83INPLVjOVS//Rhwx8yQDaDGDnfUejNd8KM1MsG/wn7qI1Czu0ZCCHtdbaHU2tKyFfzCNvegjfyghSoIVx2q3m3dLw+ee3eAjEQceoPvXjTU+OVRN1M9qv0Mk+SRiMWiKJQyAuPEnVKwrccYx/WP3Lw1TyNp4ugUTFSiVfZySDSDrVWkR3Zq5LPv8Uew3dBlbLEhGjX67vqrhn/pNYZo01FHf+OLuqnPj7Vb/7HbI9e+H4qSdVG1jhgfQRHkgxk8W4SScKAkHWLxTkEFOphJnHHo1nH3lYGMnWbBOeeP4F9F57HYU1CDHnrWyhLXsL3t1MzsE1786xGgKhUNpRJ0zBZ599hsceuFesy+wwagwuuPYG/0VwKrNk4p7r5+Dy354uCGjkfgditdVWw01XzxJ6bck6IaxMkyDD6sV3O4TlJZDDT5yOCTNOqwphEdfTmgEtPt1+4wKcf9aZyIsJgIkhP9sKN981Fdll7LUk+hQywK6jzsUbb76JnoVmGGYOJSKNDJGzCYsIwEkrCEF8TGSNH7Hoiz+JpW5vWEqng5Jn4soOzGcAWcfT0JFNadNeE9E1VmH1d2UlQSC1pCSwqNOjpDKjKatH0vnDylMhAT8sVfuhrK2qcjo6ndwDqaqhvcg766wzMG/ONWIdg2bXc269DUN2/0X7nUbuKPVuw62VR0OZ0rUVgKamyrZVsaW0iO3X6Iu8OIWcFTuLxp32G9sIt5NDK6VkDC3857m/YvwB+wkDVshmcd5lV2L4gYf45HOFULssoKUF//77G/jg/XexePFi5PN5rLBib2yw4UZYZ/CmQJ7WBNzAvDckZHsgQwfQIjZZaOCoSVMwatQo7PuLEeLfbbk8Hn36f9F7vfWdszCekw4OkY7Zblt8u/AjZA0DDzz1Zzx4//24ebZNILSI/reFn9jkaeQdT9Bz9sQEtuq/CfLOetHYyVNw3IzjbDxdIjSB1VcZA8vqCWRaaa+VWD8iz8Gy8rCMPCwrKyYFRAiFbAmt+RZ8/vl9aC5UvBDyRt3NC2WPwNE1GX1ad6DlE7H+ENVSR82nOKLSFJ8keciaE7Usbz5dY5ZEmS5x6dSjNq1uPVTSy0jKTx+6+Ml02pW+DyaQdiPMmeF//z2G/3wIzB/+K9o5aCvaZfSQ/+4gETMpYthgMmyGWKR1P+WYuBPjpm26tDPLqwwyhj1LrWI3EsXnS5kcfsxkhaGr+pQP7tnbZyl9r6K9G4rWTtoyORQyeRSdxWQycu5usb/84x9oWfAR5sy6AvMfeghtrUthEJk4H3cW3LPXstj5F7/AfgcejHW336E9gZkl7Oxs46UvjzlhCg469RScc8Rh+N9nnoFpZDHmoIMw+dJLnW2xdghHHHw0S3j1/j/i5KmTBUa77bYbZtx4M+6+6GLccPUsERiijQZPL6BdWGTgewpHacNVd0TJXAkwm0U+ajv9tAgrw94yXd4JZ1rIZX7AnXPPw4Sph2DlIf1EGEp4DGYWzYWeeORPTxCn2E6Yu/BRu/hA3O04ZBTS8v04u6DS3Dkdd5B1JgKJYrTitl81vzseVeuoM6v3Pegb4g3pEohqnb1YhJ1ramSiCOovegRChu7xxzD5yLHImyWxxnDhdTdh+1Gj/bd70qFC4UnQ3k4ySp5tNio92Cpi17X6lQlk/MRJOIgW0Z1zABU2ck9+O/LbWrHbwAFlApk47VfY76Rf1ayB2IS456abImOZyJsUu3fvVcrBtJoBmpXTHiGalYvzGBkUjbxY1La3DNsfykeL0Hky0lZRfFcw8uInkZhr3M2MTQSUn4jDQBEZoxU5LEWPUgsyaBM7yKgc+kkrL80i5mSJEF4hk7PzoyeKVm8U0Fv8LKFZtMHdjUZ57bplBDnQmkdTKYNmfINe2bdR6PkFFvVqwZLmgkjnEkhzIY98sRn5UiVE6B1Q1J5SNotn//Fm5dCmnx5dYuyIO8sIWwXmqheBpG10VGbVviqqWaTXXXxXGb6NmiZtnXcmXPVCWGYB1/zmDNx+7TXI00G5bA7Pvf0ejBV6h1zX4a53RGi2WcD2a66GvLMLS4SwZvqtgbhnPOyp85KFC7DnNj8XxEOex5kXXIQRhx9ZCWGJXWRF3H3VLFx10QXCwIuVgEwG/dZZB1sN3R19+gxGobgCPnh/MV5+8S0s+uJLQQhk3CedNA0nnDRELCoTP1IcnmzmoAFjUVy6RDS0kGmyvQDLQg6W2NpLn7YsEUROkK9hLEWT8Q0evHsWJh2+BwzjRwwZtgOumnePwPOGi87HrVdeLuRTCOuFBU4IK2uIxWzyH1qdCwZzMLHe4P7YaIMNhedBhxgNNCFf7IHnHvwTPnzxbUw46CC0/vQpCtkWLDewP+b+8V6s1m8tsUZDC9/CtRDM6Lgd4lpfjzUWoUgLO2y2KXK0EO/x1MiQia3LInllkbwsS1H9YTPAMBFUbFsmg2f/9U8ndhaUOq3zQM5kQtEwK8IhTZYmgUSZwbsVVlmvkTbOSVDbJ4K8IpnhDmpPVHmBs/I4t2urghIxnQwjXbF6BFIqYOKYvfHWyy+IcMm6mwzBzU/+BVYmJ72SvNYWKVXU2cbrejvjTpiGY077jR318RxYdGWJsyAWcP/tj+H8k6cjQzcoGU2455FHsO7mA8SOIjL0ZB5ffvr/MP7wQ9Aszq+YWGGllXHWRRdj6F7b2eIsYLXVRsKwlgFK+XL4jQwkzfALRlYQTqlMEKY4C7NcE4WOMjjqhBMxbcaWgpieml/ESeOPFl5CrlcvPPvStei1or1ZLWcAxx86CW8+dy+KmZ8w6447sO0uO4tdX5f97lzMnX2FaBOtofzrg4/RhjzIJ/HeDUXundj9ZRbxwdvvC6/iqEkTcMqxv0YPNOPT99/HhFEHo3XRd+KW2hVWXR1z73sQK6+7rt5BQa9HKQ4v+mjRIRD7TjLHM1RStpPICWnqEo/ITd5HLssEIsFblXRk6eIQjBhiTrhKpxyvAdTJ5weJjiydLtxIabUJ5KAdtsFn778nMNpl5D446/qbgWxlTaLdDDJOrKCGQMaecCrGzzgNbc52VJdE3DC92HX1AzBqjzPx1UcfijquOqA/nn7uPPTpd4Qw+PY6QVHs7KJwk334MSPCQ3QeRWxbNQqwjCX46stHbO/CvV+DyODxV/Htt9/if345orxLKCv2vAJD+m8qDj2WYGDs5KmYNPNYO5xiAfsPH4OP331HGPdjp5yI8TMmiPotfOsd7L/XLshbrVhnyHq49YnH8CPoxEULLr7uHNw8+1ohY91B64nwFdWT7tmiCwX/4pzgJvSbUMBGA+2T6OSBjJ00FdNOnoFvFnyMQ0fviyWffyWCbb1WXhW33Hcv+m1I262992op3BHmnh8RW7lDholnTUqNCPyYKODMjmwmohjCSmuQy4xa0uVGKc8vTxQyCPMyVDwQVQMetNAuq3NtHYKwioJh0nrsqvK0CWTE4PXR8u0iYXT3O+wITLv4ioBttZUdQmItPczgBKCXLQE/X3NjNJFRNnI4aiKdrj4GfVcdCWB5sT5hoWSfQhfEQKEi015zcK42ac3mhLfw2RdzRSn0+2efsHDCUUeILaa0HnHKmb/F4eMHgtYovFdh0Hq12EnkngFxDag93fUckmy/jbZ8ElyUWMJjd83F6adOFeGd5hV748mX30DPHstgxpQJeOzBB4XEi6++EsP3HoPhB44Qu6SyVpsgOprJ//Odj/D2mx+igBwM506o8t1QgsDoKpV+6FG0CYS2PB8+9gj8cv998dWChQKbYsbA3Acewjpbb2tveqg6oa5AII5nVgYypNfrzxtqScQmkKghrY4akPU2RmmQgZ9hTiL0EYaNjnGXhaKCdK+CVRLt7Ki+1xHltiOQoIEvNuWUChg2YFXk2mixN4vDj52ICb89J5BAxPp5yb6rSFzrVH7+p3KyeNXVj6qKmXvNGJ1S70W7sOhSQRE6KsHK/oiPvnzSNt4twJIfWvDhu+/g5eeex92334b/fvuNwJFIY7tddsXs22ZVDsM5FTjnlPPx8O232Yfeei2H5994Bbnl7YNy7ifwJDMxobj112PcnKtE/M9h5GAZdGb7vxg6fAt8tugTFLPA1F+fjpEjR4oLDMlU0uWFRJK0o+qpe55ED+Rw1SXn45bZl4vVDCLCf39IIawmWrKvvhtKbAMuYasBNoHQOZT9D/4lXnvtNXz43tuCKMXVL5kMhu+1N8697kZ7ny2Vp/0JJxp94qitgCKRade7PhmSJhDZLNuvVSqzfzefStqkjKoMGxUD704qxGRQc71JFcuk2lufHtexpWgTSMUDyWK/Q8di2u8uC77jiWxBARjYZydki72RMds/APTO53cHI2ACw/ofWCYQw2iBYXyDXHaxuOsok2lx7/hFpkgH2GzzRVtXt9t5V8ycMwdYvrcdqhFhF/vSwckjRmDhv94Ss9tNhw3Deff80WdGrqAYsvxi7ZksdCWERB7Q8cdNxjGnzrCvdRf3dbRgzMidkEELTMPeVUWf9/+9UJDjGef/BoceMA5AHjCbgNY87j3vQnsNBCZaM02YT+dA/C5lJHYuFbHngLXQVCzY6zWZrFifcW9EJlIRt/oaORxy9HgcdvZ5lbdYfMNCdJW735oCE0hYz9A1an6G0CtfZsxUjaIq0UQxzAojRSSRYSNri2pIKqg+Mvk6uKu2ubun0w5hHUxrIO+9J3bu7Lz3aJx9w032IrpfuIE2HrWaOHHnPbFCC9DsXHtCoLrnMConmatPHtNBNroavdm0PRC7B5KhbnXCO0UYGRNmed+4vbWWjCRddVKiW2zpKg5nS6tBh+Oc3VC02P3+f94VnLLvwQdgx4svcUjQs9jhnpSrvfbX+2/iw2UA9LLQgiLWGDJQ3P20fCswvH9f9KLDkeLepxyaillccvf9mPqzYVj63+rLhVdapScu/NsrQHMP+wuKpZUyeOuC83HTNdfa50AAzF7wYeU+LW/9nFt8Jw8YSPTjvkQiwnE77jgMYw7YDydP+VXZAyS1TDt9JtY+bqInDOe4X9729egBLL8s0CR/+U95oMR3UcKLCnOhhTLc7Ol4OjIj6Vd5HcOmjHNCCWUEplOMrJ1h4UqVbcayuoaFvqLoTaft3TWtNoEct89e+OerL4lF40FbbonrH3m8ahG9CqhiEWhrBVoLQGureDOk3T3svgbavXOrhKn9B1ROfdCyQ94+J0EElM1m0dyrF/r07Yv1NtgQ2w7bHiuNHg0su0zFQlfJt0+3T1l7IDZZf6DYLdUqzmXQQUOiF5tA7HCZiVKGQmd0u617Wrv6re2f8ga+7pXBNz0sfNcDKORK4iT48q0FrLa0DcsU7K27WTOH5kIzlmnLY7lWoEcRyNAtwmLRPiMWx8nDEORHV9VTHstEU6kobvelXWK0LZi8FtqqSu0nQqQPpRdpTTqLYpdPXgeFw+xzKyQT4m4wSkc7wehjt5muirfT2atGtjyb9Az8mM/h7GeeqZzAT2IUJEEgYvsaXekSdMuwzzW+7crtPAQSB1aZUY4yq9aRGafu3SGvjLS6QxvD2hBIIL7j3CziipmnYN6tN9qXFeab8Nf/ewfZFYPOgdh3PInDEuKn5kHCUgEj11zNWUTPiNt4R592RvWdVuKWR08Tve+J1LbceTdj7/UGIvPTT2If7QFHjccR55xXfUdVpgTQKe1MG0poRUmcgrQ/e+xXec+CDhhaVjOefIBeystg0Nr90cOkEBIqISzxGBMRYs4+TPnFF9hn6FAYP/4o5DWvuBLmvfQKsJwTahO/ta9WufcCZxuvN4QlrjJx7hIpPw9sh7D2cN4DoeLW3XRzXH7vfcByKzjW1MJ9F16Am2ZfLvAkb81o6olrb7sDq2433PPaocewFgo4c6edsAwdZvQQlkswtYRT+bdRM0+ga/bbE1RwfpvAar8nw0ZXyH/X3IwLnnsBVjO9ISL5JEFYsjI839d7JptGeXFkhi3Aq8pNOp2rHpncKJsHOivZ1ovYtAnkhT89iGnHHiNOotOungvn3IgdR49Re/lOd1eN5zp3KktcpjjzDOedivBR7e8OFwGzFbtuuwUWf75QhLh23mc/XDp7DorIindG7KOI1W9wu1eKk8zH73jcvpkXhngZj17I60U/TQNbrdkfPeguLCODQyef1P49DucBrotPm4H7br1FNOBIcWeVc+lh+Y4vm3jnXHgebpt1mVgUL9/GKxa/vdtv3evk7csUaRGdImCHT56KCTN/7RyedO7dMku44KQpeHjeHfYEwAKaV+qLP9x3H/ptvEnNZZN0bL4V+P5723tUCenZzGITVpXhpvvOfEJk5fSel8HCQoZu+uZmQbidkUBEFT2Lu2kPZJlR1OC+clJVmboGN6pclfCVmGwkcBuvbpui4Nud8uiFsOiajm++xbAtNkGejAqA9X++FW56+BE7jFW+QqM9RO1miiozQyKQ1fui2aIdRA6BkAdCV7OLCwCd/bvCZMnf+rBQQAk/4qAj98ELLz8rCGTVgWvizw89j91+uZc4HU7VytL6i+ecRa3sSkn2s0j0IBKF57Zey35QiujF90EnZxvwoo8/xh+uv04YmqMmTsTyq65S8266jEBo5d7jKdAusEIJWzu7sGwCmYYJ7ouE7pO04gR+AScdcRhe/vOTyNLTToaBlfqtidsffhTLeW9TpjaR10iE6Fm7qtKs7ExGWiNFPDXo3taYViHR5aoayuglVHKmUZafzCQMq05d3bRhpKAjr5bYwwgnibYmoduuIEOTQOwX7M46cRKevOcuMTOm7aeXXXcDho4c7cSkq98uL7uPtWi4BOKGtcTD1rRjyUM1tG243yrihLcfgYhO4BhSel/bfiPP/uNHJ3SnL4Wk9jhguDi4Z2XpwB7tTMri4bufQkF4IeKYnjjBXfsGd9XRa3HS2mmUzzbewBcBy4fx3I0BrhxvjUMIpPwiYQ2BOA9auR5IGIHhxx9x9P5j8PbfXxUL7hRZW2ujTXD7/Q8i05vCkZKHr7pCz+7AOuoatjhVTaOstAxo0nXVlaeTPi0M4ui6M+YtE4ja5hX7Xqsv3/039h2+A3KlNrEQ3bN3H9z7+FNYvn9/54yEzws/tQV4ttVed/nlMHLNGH/iieVX8ARYfiEs5z0Qb4iqiCLa0CreyGsRaxZEC/an9g1uulTwhkuuxEE7j0CvkiV2aw3daRdcM/cutDlhLPJu3De4s+JBbefshzOD/2zhJ+g3cN3KQTwikJqDfKFPyoooj0MA7r1TVS6aCoG43an6Sd1QArEZV1yE0vr11zhk9Ch8/f675UOGWwzbEbPp5cSePYMfvuqMvbgT1knHWMmqHzYbj1tOkKGMK9evTUnL1JUXN32Y1yLTYXf9XpNACAYybiVcd+5ZuOX3s8sv/628Jr1IeBtWHzTI8SICdsiIay5sQ/b5u2/jgjNOx/PPP4/jp59sv0hIh9tcYype+esLw2pBgV4knDwZE0/5NejNbe+HvA/v3VAlw91TBMy/nV7Ksz95sVundK8AABfQSURBVGaRx7LI4OQjjsZL8ymMQzuSDBxy7ERM/s1vK2cj3Eyirjb7/ee1V3HuWWdgp112wzHTaFus8zKiLoF414L8dysEr4G0exO95k123ydta3Vh5/nmww9x+KiR+GHRF86pfAO7jjkAZ10zx8Gh/c22Xe1keEcN3KRmsLL1FB2jqFMnnbRejNMku1pd6rSd8uqm98vDJFKtBb0QVtmomkChgEm/PAivP/vX8kE/uijwoLFH4piJJyC3ch9nhl6O8zjkU8Q7r7yCebfNxaMPPICMab/1cez0mThyeg2BoBWD114RxdxSLGkGxk05FpMnnC4el6p4FhYyVvXdULRm4b8iQt9kxVnu7xZ8jP1H/AJtixeVQ3GDt9gC48ZPwFbDhqGpTx/xeNZ3nyzEqy++iIfuvRcvvfg34WEdP206xk07tXKA0hPCknoAHvz9jLH9O3vXmu8iejsCcRfRnTfZ2xGINxzlvYnWfhzso7+/jrEH7i/ed6HtwqVsDocecxwm0g0DYlFf7Xr0jjLUnblcPyOsaoBUDXiQUVTNH4afqoyo6WSL3jLd6hKCbnq3fNX2yerbHb/XJhBnj40wPtYP3+O0Eyfhr489IoiA1mrJuNOVGYOHbI6NN9sMK6/cFyXLxLeLvsair77E6y+/hB++/xaGiLzTjiFTXNMx4eQZmDBpOt1sJb6x9xm1YtD6q2DDjQagJW+iJZfB0mweJSPr8SzID8iKFQv3D61hhH/sqz/eefUlTBx7OFq++1ZsHqKNQuLhKjpnIa5bN2DS+Qran0V3sohr2jM4bvrJOHLaKf4EUiqIhWmxiE1vlxAoVXdOqXQjnRBW9S6sqkX8GadXDh6KYmuvMre9ydeefgInjh0Lo9gmcKBXJk8+6zzsd8z4gCd4VdrAaYJmsFGRUbl2pDzHS+iZ2iASlLVBpa5dhUDYEwnWdnQCcdcwrBLuuOYqXD/7CrR8/504AyH2Mln2AbZ2bqd4HKmIpfkiljYVgN7N2PPg/XHEcROx+rJrY8She5Qfw2suWVixpYiFb72NfCmP8RNPwgmnnCG23LaXS7Rhr12o7MgSZ1IojPPRh/jtaTPw8jPP2AftnEV5ez+WuEbRvnVX3FWVwba77IKpM07DwMGbVa+BOG+S0zZeFQIJ34RWTSD0dHD5TfRAD8TZxuuUL9ZgBIF433P3XKIrPB3abmtvjHhq3p04fdqJYsMCfej1x0uvuRZDR++rd+W7zLI04PdRjbAXKtfYymTFNcp+6pGVWZsnqW23sq6i61HopveWz16IvzYiEYhgZNu62rNaqwTzv4tx96234PGHH8Y79KiPuHSwcnCQTo6XMhbaskUYy+aw+Q7b4INFn6IlZ6Ita5+MppPYtGbhGtceALYYtC6WbaWT3Hkcd/xUHCdm9TIPQ9b13O+d9QPTwsdvvYnHH34Ir730IhZ89AG+X/wdcrkcVlhxZWyw8SBsPXR77Dl6NJZdY63yoTvLsr0UYYRLJWw+YA1xe664Tn3yVJwwY2aV8fWGrKQEYpm45sILccusK0VoqTWbxd8XfGpvYa71aJzF/c0HrFVd/syZtltFu9s8ZF72IsvTVZtEbrvqCsy68EJx9xadiTF69sJ1d87DkG228X8wTBVmTicQ0DXEfrDFvQ8qjipk9ZeRVxwDrkJsaZfPJOLjEFjtUNe84sHdUSRm9PaCc3HJErz1xutY9OUXWLx4MVpaWtCjuRnLr7Eizrv1IrTmSsiV8njy3r8gBzpNTCcSKqsWdg1M4Wc0uR4FHW4Qt+DWHKKLMyKccmxXo1L/apHuATiXNWu23bpMIIjUkSGshSed9Li0XyOcB5vENmf3BuBqb8Kut7Ojq1x/R1b5XQz3dUGf6z3KBOJMBJwT8OXaEN5Vb4bEBpsFeBCIa5AZTEagoxHw8UA0CcR3muQxSOXzHhmUsq1YjCW08uGsV+TFzyxd81FjZN3zHUrhqBgoqpxnDBWvtv85Rg0lWcvlV69vtKtW7Iam1wSWzAgwAl0TgfYEEmBoyhNtp53SSbX3rIOYKdNTrybaQCe17ZMWWbFaEb5mUS8iqZv6EjPkakSfWHF1A4gLYgQYga6CQHoEkhAC3ZJApOyrAh4TiApKnIYRYATSQyByCMs7s411uKzLT5HDTpSHK87r1UXnlOjli9p1efzTGxwsmRFgBMIRYAKJ3UOiGXDXs3If92UCia0IFsAIMAJ1RkB7G2+d61cuLnCinNoMWi1EFIRHcLXiyQ3EPzUc7BJTFt9R3YrLZQQYgRgIMIEEghfP0DOBxOiVnJURYAS6BAJdhkC6BJpcSUaAEWAEGggBJpAGUjY3lRFgBBiBJBFgAkkSTZbFCDACjEADIcAE0kDK5qYyAowAI5AkAkwgSaLJshgBRoARaCAEmEAaSNncVEaAEWAEkkSACSRJNFkWI8AIMAINhAATSAMpm5vKCDACjECSCDCBJIkmy2IEGAFGoIEQYAJpIGVzUxkBRoARSBIBJpAk0WRZjAAjwAg0EAJMIA2kbG4qI8AIMAJJIsAEkiSaLIsRYAQYgQZCgAmkgZTNTWUEGAFGIEkEmECSRJNlMQKMACPQQAgwgTSQsrmpjAAjwAgkiQATSJJosixGgBFgBBoIASaQBlI2N5URYAQYgSQRYAJJEk2WxQgwAoxAAyHABNJAyuamMgKMACOQJAJMIEmiybIYAUaAEWggBJhAGkjZ3FRGgBFgBJJEgAkkSTRZFiOgiYBhGOUclmVp5ubkjEDHIpA6gfAA6VgFc+mdBwHvWFCtlYxUdGXK5KnWK0o6v7pGrU8UWbV5dMtmW9Ze64kSiG5npurIlKgrUyYvSsdXzROlUwfJjiKLB4iqpuqfTrcf19YwqF9HldsR4ySorrp1iSonzviIk7f+va1+JSZGILrsrKqQpNOlCW3Ujl1bp6hyVLHyw0BXf2ni2J1kRzXwfhj4Gdo48nUNd1y9RO3XHT0+okzm4mLVVfLHJpC4hkeWX9coyuSlqZjuMEDqbVTS1EdHy47TH1SNlur4iFOXpHAMIzvVfhdHhipW3vaq6iEpjLqanFgEkpSxduWozLBUOlpS9dJVZpzO7ZYVR0bcAaKCrS4mjZo+KcMj68u6Ok+qXlH0Gqdvd8T46EisouDbEXkiE4isYyfVGN0B4tfR6mUY/eoaRo5hoSSqs27b006flE4bQY6uLsIwSXOCReV21PiobbOsHmEEpNIOHZ0weaiNUiYQNZyUUoURiG4HT5tAeIAoqTRSIh1DFakAT6aoZcWZACZRpjsedOpRm1a3Hqrpg4hKRnBxddkV80ciEB2lxwVFVem15cSpYxJl8gCJq/mumz9q/4nS4qhl6eaTzf7duocZWdkESzbJSppAautM8v0mbipti6K77pCnIQhE1jHp+840QNxBmNQg98rzDhCeUaUzhONMXnRrpNtHXPmq+VTHhUo4SoVAgsaqSl5Zf5Z5FrK2yuTr6q47pG8IAlGdFdWmC+tQOgv+KoPVTeOVq5LP2wll6etp2LrD4IjSBpkOosgMyxO1PJV8MoMaVi/V8eFXhixvmhMsb5uYMOS9VZtAVDqevFj1FFHLUzGWUWT7GXqVWZ2sPvUkEB4Y6v1PN2WUPqVbhs6kwU+2ah1l6eo1wQoaO7L61bY9LL2urDg66055uyWBqHYGmVHXVbRqBw3zdNLyQMKIT7ednD4YAdW+lxSGUcqT5QkiBpWJRxITrNowVtoEIsMjKV11RzndnkBk7nBQzDWKsmUdUWUgpEEgSRNlFGwaJY+sDySNg2p5Ot6CX1oV8pC1TXWC5R2TUfIE1cNPlip+srY16vfdhkB0On1anUYm18+Qhxl3mTwVF11XRqMOhKTaXW+8Vfu9jleRVhtkcnUNvEyebHwE6TwJskyqP3V2OV2OQII8BtWBRPnTmpGrdOjassNcft26hhmJtNrc2Tt4veun0geSrFOYZyErJ8hQptUGmVxZW2SbXGSGXybfi5dMlgzbRvm+SxJI3JlDWsZUNkBqCUGlw+rUVZVAkgzbNcpAUW2nSh9QlaWSTsco1spTIZAkDakKNjqeUloTLB4fKj3PTtPlCCSJDq1jlNWhbH+WRGWAyjqrTl1lA1RHlk67OW0FAZkOksZKh0BUx05abVCRq0MgKvK8eOtMsNx8qpglrdeuIk+bQHRZPy4Qup1Epbw0ZPp5F3EJRLeeKulV0qhgyGn8Eag3vmmUl4bMrjA+/AiGCSR8pDOBJHiZnM7Ac9OqHnKUeSpRBygPkOSpsJ6enk6fU21pGjKj9s+wfq9bT5X0TCKqvSRiCIs9kGCAVTqojnp05emkr6eR02lzd0iro4e47U2jrDRk6hCIN21HT7A4lJWCB1JPEqlHZ05qFp50XXXlxUmfFAZxDWJ3yK+rhzhtTqOstGbhSddVV55O+rQwiKPrzpg3UgiruxGISnhIRXk6HTQNeVHKZ09ERRP6aaLoIqiUsHBnkuV4y09DbtIydeXFTZ+UndDvTZ03R2QCSZJEOmKAJFl/V726HVTWLXTl6ab3qzd7IjKtqH2f1AxWRvBRdS5rRdT613Ms67ZdN71f2I1JpLrnxCKQJIxwRw2QqMazuw2QqDjIDBB/H/xEgApJqxrwKEZRVTdR6xBkZJOuq6483fRBE0MmkUoPik0gfiwdZYDE3fKqOij80iVFYlE7qCx04X4vwzVO+XHyxsG+u+f1M8JR21zPe93CjKdK/etRV90+q5ve205VMlXBpjulSYRA4na2MEaPo3RdRckGe5oGXEZsKrOeuFjFza+Ld6Okl/UrFRw6ywSrM9VVt7/qpmcCkWs7UQKpLU42cGQGWV59TsEIdB0EZOMhrCUdSSCqE0TZeI5jwHmC1Tn7eaoE0jmbzLViBDoHAjJCkRnkztEKrkUjI8AE0sja57YzAowAIxADASaQGOBxVkaAEWAEGhkBJpBG1j63nRFgBBiBGAgwgcQAj7MyAowAI9DICDCBNLL2ue2MACPACMRAgAkkBniclRFgBBiBRkaACaSRtc9tZwQYAUYgBgJMIDHA46yMACPACDQyAkwgjax9bjsjwAgwAjEQYAKJAR5nZQQYAUagkRFgAmlk7XPbGQFGgBGIgQATSAzwOCsjwAgwAo2MABNII2uf284IMAKMQAwEmEBigMdZGQFGgBFoZASYQBpZ+9x2RoARYARiIMAEEgM8zsoIMAKMQCMjwATSyNrntksRoEef+GEnKUycoEERYAJpUMVzsxkBRoARiIsAE0hcBDk/I8AIMAINigATSIMqnpvNCDACjEBcBJhA4iLI+RkBRoARaFAEmEAaVPHcbEaAEWAE4iLABBIXQc7PCDACjECDIsAE0qCK52YzAowAIxAXASaQuAhyfkaAEWAEGhQBJpAGVTw3mxFgBBiBuAgwgcRFkPMzAowAI9CgCDCBNKjiudmMACPACMRFgAkkLoKcnxFgBBiBBkUgVQKhi+hqP3wxXYP2NG62LwLeMcJjgztJV0MgMQLxIwtVMIIGTlSZHTEQw+qqW58osoLyqJbNZK/aW6Oni9KfZfrTlSmTF7118pxJ9rEosmrz6GLBZN9ex4kQiG4nDupqtQqNK1e3g8iHQHAKWV1V6xJVThwCiZM3DmaNlFemVxkW3XmSpTo2XIyi9tc4BBInr0y3Xfn7WAQSd1D4AeftTEnI1+2cUZUpq6tqPaLKSWpQeduvWueomDVCPpk+dTDw00cc+fXWb9Q+WotRVDlRSSCKt6Oj166cNjKByDpuWOdUDdGodpQ4dUlKebI6UDmyARtHhipW3vaq6iEpjBpNThSdhM2yVQhE11OR9ckkdZZEf4sjIwqBMHmE94BIBBJHiTIDpuKB6A4SFeMdd6DEMf4y11zFK9A1VknpMC5u3TV/UobHKycOgegSUxp6SaLPxZGhSyBJ6TANLDuLzEQJJMpsJkypukaRQI2SJwllqBBIGJGllV/F6KgQVBIYNZIMXWMVho0rS0WXKmMwybrp6FTWx2V1Tzq/bpREVj8dLLpLWm0CqaeBjlpWnJlDkmX6dZIo3pOKgVetd9xB2F06fprtqKeBjlqWzLNRITQ3japhjdv3ks6vOxZV25lm3+psshuGQJKY/YcNGFnnlpGAan7dTq/b4XiQ6CLWPn1Uox6l5Khl6eaL2z/DogOysREWflPNq1p+mA54bPj0dUsTlTize90BojqrrpWrmk91UATVW2W9Jum8TCC6vaj+6ePM7nVrq0sEQcY46X6lEm5TGRuq5BE2QdSRwQSi1wO1PBBVw6xXheDUUctTyReXPGo7rK68qORTj4GelP4aUU5Ugx4Vq6jlqeTT7dMyb0BVXlTykc2FVct32yGTF1Vn3SlftyMQFfIIc2fdTqPS2aKSgJd8gjw61XbIZldUR11Z3amD17stKoY5yTpFKU81jyxd2BiJSgJ+nkSQRyernywyETZ+mTzUemnDEYiMGHR2ZqgQiMyAp00gOmECtS7DqcIQ0DVqcdGMUp4sT5wJh5tXhUBUDXhaBMJjI27vA7oFgchIQTbjT8JlDRt0KvWrdf91B7FOGTy7ij9wgiTIjHPSJauWp+MtBE1q4tY9rK6q/VeVdPzqqlIGjw09LXdJAql1c2UdQ9VT0IOuOrXM4MvqWE8C8QsTxGk7560goGrQk8JM1djL+qe3Pmm1QSZXZYykTSA8NvR6ZpclENVm1s4odAaSahmUTiZXZXCoeEpJLqLzbEtHw2ppZUZSTYp6KtV+5SdRtS8l1U9k2MjaIhvLsnrK5NdO4tS10LgpmUAU7qhS6R4yAgkjGVe+bICEzY50BkdQeSrt5DThCMiMZNL4RdG7TP9emTKjrNMeFWxUxlGQtySrqw5WMlk67e7OabsdgcgUr9tBVZWvIlfWgeOE2mSyw9ohw0wVA07X3hNNG1sdvavWRcXQR9G1ilyVceSWrSIviGxU66+Kmaq87pauSxJIHKXqdFAdZavKTTpd0GCqnWWGGZo4eOpg1AhpdY1aXEzSKC8NmX4eeNwQmm49Zen9xgiPDYnH3R1Pooc1WdWA6w5sVblJp1MlEL8B7G0jDxRdjQenTysE5FeizChGaVUaMrsCgQSNER4bIX09CQIh8WmArGpsdQZJGjLDjLPufngdQlBxz1XWVWq9FR08OW17BNIywI1CIN7xFGZXdHFWTc+eiPqo1gph6RpK9Wr4p0zD2KcVykm6rrrydNKnhUFcfXeX/KqGKon2plFWWgY06brqytNJnxYGSei8M8nQJpCkSSRMqTpGUQfUNOQmLVNXXlLp0/ImdfTTHdLqGCtZe11ZUb1Zmfyu6tnoYhw3PY8NH29bN4QVRiC6AMtYXtcoqg6UqDPwepKdbtt10yepR1XcGymdrG+rYuGV05EEojq260l2cQlBJeyelB5V9d3V0kXyQGTGR9bZVA14FKOoqoC4dahtY9J11ZWnm97FSRUHVVw5XQWBqDoJGl/1JJA4dQga/7oGX9aXdOXppg8bIyrkI6t/d/g+MoGokEgUgOKchdAtL8x4qshKs666xkc3vbd9TCIq2o6WJm4f85ZabwKJM8brUVddQtBNLxsjTCKalyn6DaE0B0gco6g63KPWX3V3U9ROptt23fSyweF+H7X+qvg3QrqofUxGHn4GPg196dY/7vkO1T6hSwi66WVjJA2sVdveWdLF8kBkAOs2Mm2jHFYf1UGiOjjiGmBdQtBNX4tF3Py6um7E9Kp9zA8b1X6XplGT1V9WdhwDrjJ5Tbv8pOvfHcZAYgSiapBq08mU3h1A5jYwAioGkMcG95OuhkBqBNLVgOD6MgKMACPACOghwASihxenZgQYAUaAEXAQYALhrsAIMAKMACMQCQEmkEiwcSZGgBFgBBgBJhDuA4wAI8AIMAKREGACiQQbZ2IEGAFGgBFgAuE+wAgwAowAIxAJASaQSLBxJkaAEWAEGAEmEO4DjAAjwAgwApEQYAKJBBtnYgQYAUaAEWAC4T7ACDACjAAjEAkBJpBIsHEmRoARYAQYASYQ7gOMACPACDACkRBgAokEG2diBBgBRoARYALhPsAIMAKMACMQCQEmkEiwcaZGQIAeEOL3ahpB09zGqAgYACzKzAMlKoScr7si4L5Ax2Oju2qY2xUXgf8HnX92uQyPqzIAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>vkddm</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19B9wU1dX+M7NvAd4XQcUWW6ImFkyMJiGKvURRk9hFqQooitixazTE3rBRVKJUxfZZo4jlM/ETrDEa/SdqirEhYIkCb9vd2f/v3Jl5d3bfmb33Tlm2nM0vP4S598y5zz33PPecW8bI5XI5VMXPcrQ0C7V1tTcCnsfWNle+K7BIj9jeU6GCunGuUP1YLUaAESg7Akb1EEgANkwg5TEaJpDy4MxvYQSqCIGyE8ga80Nr7MUxWUO16x8TDCyGEWAEKgcBJpDK6QvWhBFgBBiBqkKg7ASii07xxDtoIl71E3TdBuiW1wUeSa8paSvEFRgBRqDCEGACqZQOkRBCj8dMIJXSc6wHI1C3CCRAIPbMNQd7l5IRCG3RDDdmhxizuHwrEhNctzbIDWcEGIEqRYAJRLfjmEB0EePyjAAjUKMIRCaQyP5UdZEjRAfQERfDcF9Qm+c2wuJP9XIiTiyOEXntI4SpcRVGoC4RqGkCsXs0Xodok5LtdL3/HZf16Mr0EoFqXXF21GlDzxRjvHjFhQvLYQQYgcpDIDKByJuk65D0yqs6TT8iUa/rtpJ0K28kEzbCkPcLl2AEGAFGIBoC8RCIZQHZLJCzKC9ir5zTn6YJpFKOz1VxvBZyyIr/G0gJQYZw2Cp17WgjJyKO/O0sJKGwvqosL7AkNw0gI6SbIvHTCKAhGvpOhETttWVbMIXMVHe7CwnEbh/9324X/dz/Kq1LT7IsxIrSWYS1Ht4xNJ9FMAKMQNUiEA+BpNPA6nYgkwasLGAaQM4EmlJAnxagsTHv0507q/x2aZGTttCJHDKOI0vBRDMMRUdN9ag+kHZ4jFw9OfrGSI4xh05Mu/sGzF1wB3JGBobVjCWL3gFyvbrTWeEswCam6XfdhDkLbkfOsGBYvfHSM6/BRK8e7ab2ZdEBoMuhDiLDBpiCcJo1iZawzjjEaEd9Bpp83xuubVyrnhBw07pum+O8Yi9J2fXUR0m0NTYCGfHDHdCaScPIWcgZAK1ddzSkcPebbwKpotmxIJGiSMDKAakMDt57R1gmRTMGRh47FsPGnQ7knPrdEQ3V9aa67MilM7cK55x/Kl57c4kdJ1hNOOTgo3HumRdFJJB23Db7Ksy973bASMPI9sbihe8hhdZIfUKEQGRH5DT7gakiCjGyffHS068jhb5OlJN/BRHZzvvtAKS6BL7k8s1cA6696ibs+tP9epQPUo5I6z9L38exo48Cycy5Gw2yTXj52bccMorUNK5chECxEwzraKM6Uz894nD2UfUqZTA6suNsX5yyanVAxEMgQSmsbBrH77gjemUKb7IlgskTiP1sxpJXgVQHTtl7J2SRFs5w5LDjMHjcGYDVZBNGU2M+ovH0CDnEDFbjgsln4sXFi5AzLZjZZgzZ9zBceu7VjmMNk7qyX5JDnkAMMwNkeq0RAsliNQYfMBC51Gqn9SZyOQM7bDsId954Lwz0LiBm/zUeIttOXHHLhXjsqfsBg0jMgmUAKUGMf0MKLbVq7xXXriBiKVbUdfLe8rqOP0mHqOPkdTtBR3ZSRB2W8HXbWm3l4yEQ31ZbAKW22lYDaYooaMJs2uskYo3EdP60/37yzwcjm2pHtuEb5Mw0DKsBptWMVLYVhkMg3RFNQ4Mjj8jHAsw0brv2Yjyx6GHAoBSPib13Pxjn/eYaINcC5JwUmrs2Q39app1qa6A/S5OLSyDzKM1kUpRABPJ+ZEerG4FksQqDh2yDbMOqbgKh/0hlemPaDfOx08BdnbWjoPbY6x4rvvkYR4zcF+3Zb+xQ0YnmzGwLljwVPbKqtkFQDfrqEk1xm5IkDxELO7v6knC0OrKZQMprzQkSCPmlgMV1ryP3LrqnVmPIfgNhmZ0wcymMOOZEjBh7HpCl/D6AbEZENM3ZrPB75MwtIy0IBwatC9ipMSKcO158HUg12UQlQp4UQKmz7veZ9tpMS2+gkRbsg0mkFIGE2SXVPXM0aPE8n8Iy6O+ZVpHCMtEKExR55X9eAjFzJlKpFNJWVhDtrjv9AtdfPq3kGoa9RpTG7bNuxKz7b0PWaENTqknIIOzMdB8seZqIMZ+aC9M+J2yzFQ++iqC8ll4jb5M506hEExYmmV5h5eqSU6n2q0ZscciI0t5qqpssgeQ3Q8kxMYC8g2xDKtuMkceeiFNGne+kZsjXuhFNp00GRhqvzLkVs2b9Xsgn0vnpjwbj+Ktvxsl77OuQgrsm4103sdXJRzQlIhAiILMT8+66BvMW3AHLsB32wmf/Bli96TBI95kKQUIU1ZA4o6HIedLsv/Cf7B1j6msgGazErkO2RbahDWbOwN577Ys//elPyGYNkbKbded92HqzncSake+ME2mszn6JQ486AN92fI5UQw577bkPnnv+GVhGTkQyFFmZuT75sy5Oz2nzQGjmkZtKPZcI46j96sRNNGH0Uu1HHdlxOP84ZKi2rdrLJUcg9gm3/Fq3i5TribwOhv6NCMRwUzRtaLB6YfjQcZg4+oI8gXRHNF3CqT/1yBzceNuVMExy6k0YuM1PcMP1M4HGfoURhRvxFPdWd0STFmsAQllnl5gp9KNoxrQjnVQbUr1yIuIxc02Y/vzbgNXLriNIhLYrG0Bjkx3RNDYDqTxpEVkQhZhOuoi2KdsQ2AQy58FpyOVogT54Ed0l2ExqNVK5JowYNhLLPv8Czz77jHD4e+2+P6668FYYAWsYFEnNf+wO3DrtOtE5vzhgf6y3/rqYP38uLDPdTSC0BqJ/RiZoKBR9yZEIWSkyKT4PVPj3euWnqM5UdRbePVyLUlOqDk/3PaXkRm2zV7ZMLxmxyuqr4lMr5TQIxN7pFHRegQApcDo5YKMNvy/WMsQzETFkxTZY4T/EuoR7xsPC0s/fE456l/23FSksej7qmHGYcPx5Yr3Ca8ck68lnHsbl110Ky2gXznDrrX6IW2+8E2s1r2+n9YM8jPff6WhH2yog0wms/Apf/Pk1rFixDF1dXejfrx8233wLYNsfASkLS2bejJlzZiAn0mtNMNP9YFq9PLvOTGRMA20pA/Nffw1oSAEp52Urv8Ibb7yB5V+Q7E6stdZa2OK7W2Hz7bYDUgbmzbwJ8+6bDsugxf8WLPzfN4BMH4BSWJ6Ihgh2lwN+AKuxA6lsI4YPOw6/2OcgHDdmNHKpdqHXfbOewmYbbF20FmI73zRW4YjR++LzFZ8I3WfPnotFzzyBuffcDcvIiEX0lxb+HQ0Rd5f1HBweEmEC6YZH5qz8HJ+qM016zcPPAaq2J8gJu/WLn6u2WfgVn7UY77/JCKC4rM67a4UUdNqRJ5CSUzqbPC649Cy8sOQPwtH3buqHxx5ciNam9cT5Ad8Uh+vIaRkCnTj+5OH4+z/fEsTxwx8Mwh1TZ8MQaxTAdzbcGjkji2zTt8gaXTCtBnHeImW1AFajIAXK3+fMrFjzIEfuRgtEUkaWzjDQmgcRlomln71bONP1u3MrB3z54VLMmHojXn5tMSzLPl+R/5lo6d0X++y7O1a1r8CzLz4GK7VaRDv5FJbn4CRFSJksRgzaEU3ZdjQYXaJNrp4kl0iCfrSG0b/fOthnn/2wuu0bPPfHhfa/W82Y+sIrQLY3YDYWRDTZVBsGD9ka2YZ2QSAjjh2Hk0edgUmXTMLiNxaJ+ofsfyzOP+N3Redn6LxHFgv/+DAuu+pssUttz0EH4srLrsb0OTdj3oKZ3QRib0/27MIqTkPq5rJUQwUVwleybL2bDJREKhaK6mxK1Vd1zoqqisme6i/Mu0vJDyPPj0xVSMwvkpYRmCtXp64qlrVWTolA7Fx9Fkv+8hzOPH8scmaXWKg+87QLcdRBY2Cid/BaqUj8d+Ldf7+GMScPQ85sB6wULj1vCg7a+3B7iy2RCL3CAAbvO1ikU4hARhw7BiePO8E582AXe+3NNzDpvDOQyXYBuRQ23WBLTLv1Tqy7Tq/8AjmIkAbag4Rm8CLisbvO3kKcEUREC+/2IjxFRQEeLGciR0SQ6sJWW28i2kLR0ZJFf4Phnk8R0ZfDE3SYMt2Ofz56L26+4Upks7TQT8RAC/XOzyERinRylgFD5MucFZJcEwyrEabViKzRhHaKUF6nDQGUFuvEgfv+UJAnlRk+bAxGjDsDH7z1Z4yfNEa0owW98NC9j6K5/2b2SXkhNiNSfhNPGIp/fPgXZIwG3DLtfmy9zQ6YOuc6Z23HjkCYQKIN8SgkolI3qTLRWt2ztgpBRSUSr6PvHloBu8FUohC/Mip4x41dNcnrmcIq8qP5eQrl8Ntw1Nhf4JOl/xBt/MEWP8bs2x5GCpRuKb2L6ZppF+Ghx+eJ23H7990Qjy34E3oZnrUK2lVlFKawRg4di1PGnC+iFEpbvfP+6zj1nHFo7/hW7KraeL3vYdqUWdhwwCYFmBesa/v0Bsn6nyfn4tqbLhcL8fZaRzO22Oz7+MmOg7B2/wFIp9P4fPlSvPPuW/j4s/8IKR988IF98jvbBw3pfqKOTUg2QZnIIIVOmOi0/6QtyyQ7lxKESyfqaWCJg3tGBnvtvRs+/exDO70nrhJpAKwGPPHCYptQbd7GiJ8ORu9MBg25LLIpOmlviQhGMG6uAZ0NwMrmDBp75dCa+RYjDj8ce55yHpCjiIy2OWfQ8fqLOPvcUwVhbvWTnXH2nQuQNVOYOoc2B9weHIFUkzUr65rcnWZhHY5qPVk52XNViOJy7qrv0yknS3HJZKlEIH7nbsQEVCNyk+lRC8+VCcReh27HnIenY+qd18EyupDK9sJdUx/Adlv+TOTc6VBbT8Oz0Jb9GgcftQtWd3wtZu3Djh6L046n0+F08C3/o0XiXQ/cFmKR2NmFdfKoc8X9UB988leccvo4fNO+VFQY0G9jTLv5bmy+/jZFBwVLpTDsVNwHH72NsROHojPzjXDwffusjUsvuAq7/mRv534rukJFHK8TV33865MPMOWWKXiTTtXnmgWBLH7OcfLeTQEm8P6H/8aJJx+HrnSbcO5rtQzAJRdMxq4771gQIRHxbPSd74r1HjqBb9+1ZcLINos0FpFTcxZoSafRN51Ga1cGTVa6kEByFNU0oMs0sLKZIrRObLdJP7HN2RQ7xJyox8iK97jrT6sbWnDPX95DrtHEbXcTgdzZfUXL4kV/Q8oTWSVi5LppsNiVqE0CiYs8xIRI81yHTnnVsmuSxJhA1AaddBHdG5CQk/u641McctT+6Mx+LRzeYUNG4tzTLgs4f2A74CefewiTrztHpL5SVivun/84Nln3+z1OiBdv4x1OEchxk/DJ8k9x0ukj8eU3RB4W1m5dH9OmzMaWGw+0z3eIu7LyxBG0g8g+B9GBSRdPwEt/fkbUaU71wx23zcIPNt/BOXfhpLy6k1qUwOvEtNnXY969d4lowcz2zqewPKlkSiGdcfE4vPL6H8VMpbmhH+64dT622WJ7EUmIPJ/HeRKJ0LrOjLtuxBy6JoUuSbRa8NIzdA6kt7104t4NKXxeOw7cZ3vkUpTCasDIY8dh2NhzbAxSaYwdOQwvLHoWKboby6L6zgYG07JTh/R6qxlZNKPTbEYmZSGbWiXk0SI6kWOjE1mJczYGsHSps5bkt4YkBDqGpvLcab97hlTNROMrFd/OstI6qTpIV4pO+aCyOjJkiIaRpVpHtZxXR5065VxH4oiEMi8aMZl7WeHka8/DUy88ILxbn6YBeOzBZ9C3YQOfu5hoZt2B8WeOxF/eWyxsYued9sOUy293FnnposPCCMQ+ad0m1gBoDeTIw4ZhwoST8NkX/xBOjlI302+ZhZ222hNGQepMvnhKC/kffPI2Ro49yrkOpAHjhp+GscNPK1h0LnY03qtMKPVUcBJdrDHYnv6Dj97B8BMOFndVEamNGTEB44dNCrzoMPxJdPuczIhjTnC2OTeKyOrxhY/i6muvEe/u26cfHnrwUfTu1Ru/nfxbPPu/tEhvYPJF12O/vQc7tyUD02bejnkL7uomkCXPLbab4yzJbLQRkbTlWUNyPlXsWVNqsCw7xUb3mXX/fPZOG3RlSgZ/X/qRXcpZC+rh0MSdZxp3Q8o8YoE30ikcrqyOw9Od7fvJ1n2frFVh5KnWUS1XDgJRiTJk+iYRJWm4ZFlXJv5ci0Ds69KzeOvvizH+jGHIpjrEdtBzzvwNjtx/VGFKylk8/+fSdzHs+EPtGXCuCddNnoE9fjbEZ5upWXCQkBadf/nLX+Odd/4fPvzwX7aDc6bF++w2BFdeMF2svehcP05E8Pv7b8Gds25FzmhHo9GKRxe8gHVbNyl5BYicQOwU1N0LZuD22deKdFAj1sIjDyzCgBaS7ZykL+pOe3OCfdOv9zLFF59+HY3dlynmibE4QssTiC0/jdU47NghWPHVUhg5AyeffAr222t/HHXMUHGL78YbboEHZv0BKeeEO0VTsaSw0sDIgT9Ca9a+V8v+edfEnJQRkf8rr+DADTcV60JBv5WNTVjWpw9WNTYVrDGJGZ9nzcn9u4iSiiMgZ1NGQYTk3uzv5baE0mkyxxPkIGXOQ9VhyeQEYa+jt66TT1K2q4vsHTIClq2vxIVrEP5JRMlhdVZhHzmBuDNNWuQVeVELWbRh5IRD8I8P34ZlmNhuyx/j7lv+BynvZX4iBdKOm37/O9z70N2i3kbrfQ//M/tZmN2O31XRdjDFJ63FU+fcAH0hxP48LS0gN+GoXx+Ps0660IkcgtZfCiHIYTUmXDAab7z1R/Fg6y1+hDm3PVoUyfSETY1AOnDqeSfgtbefFzr+YIufYdbUBc4ONYoQ7J1azqYw8RJC0kCXNoHkUm0iFZUnEHstifSc9+jtuG36dWKRfp111sFuu+2Bxx59QqS5zj37Yhz+i9HdhJZFO6Y5twzb50D87viSR3bihgC6zp/+zDnX+XcTiFPfWfQfP2hXGAZt0aZrWvy9d0eqAXe/+bIdhXh/9u31Njd5toh/5zvbA0704xJM8UAUpmNk8Nmy9/LfqyHZa5hAZA6v2BpVCUTYQ4gFX119VB23gFpzXUVHtmpZGX5JEYiKM/bDqBTRxC0zjM0EEkip7fvkqB5YOAs33HR595be2TMewdbf/bFnMZ0SNCtx0NDd8N+VnwuHMX7cGTj+yIk9Fs9dIAovCzTFdR1U7+eDdsPBQ36NSydfLCKZLLLC2U0YfzZGHDbeIRHJh6cEoa3GocftjaUr/ikWuA/c71BcdtaNBSe3ffd+e27j7ZHCEr6Mvq3RjiNGHShSbfT75b7H4KKzrxBrQ+T1/PyUfwqrBS89/efu69y9/eDi40cgdrk0VqWX4dCjD8TKzs/FwU3xwSmrCeuttQkevO9JNKO/830UWpYpJJAG+haJuExR8zZecf7Fsp24ODDqY9pOSsyeEDjfiwkaAdksjv/xTuhFHynzRDQrGxsx769v0eddwv8SIgyZo1fZ+aMygGUOsFgPXRJJ0sknKVuVQEo5aT+swuoc3kDVagbZgW5/q70tuJQSgfRcE7Ad1a+PPACr08uRy6Vw5EHH4dxTL+nO91Oq65n/exSXXHGqndLJ9cdjDz6NdVo27V4rKZbbg0CsRuyw7c646fqpaDZa8ciTD+C6W34rdhtRXYp4Lrvgevxij192r2EE5TVpxkoEsvdhP8aqrq/EdzSOOmQUJo2fHEhoLmwlI5BuAlmN/Q7ZFavTX4gp8tBfjcUZJ18g9HIJxNaNIilbcvwEQimkTsyYfTNmLbhV3G5MutB6ycQxF2LEUeMEebj6EIFMnXOVZxtvPLcM222zfz39tWZE402JdV9+WYpBbPl+HyyLOlh068ucj+y53/v8HEegzTsCdJxKGJ38nHKczlhHJ5WyOs5XRZ6uXdRS+W4C6TngAwa6s2hMTvXaW3+Hh56aLQ7mtTZtgMcfehZ9Uus62YVOnH7hCXj1L5TSMXHA7kdg8gXXOAST/8BULpcVoa19S1T+LiyKPuicyfQb56K1cV0hw0IXZsyZgjn32FeKkJE2pVpxwzW34+cD95J+CIm+p7H7rwaiy1opCGTYkeNw+piLBYGUyj2qEsieBw1CF+ytwSMOPwmnjKMtyPQ1RP/PzdIOLAMZnw9KUQTS0mNTQqkIxDZKezH/i5Wf4rDhe6OTrmsH0Lf3BnjknufRt2mAk/+x1ydcArF3gAWlsGIy9+L19WKxXgN07zyjP72/gg+KxaRXgmJkzkf2XIVAZCkXQaYaqawwOlUbgajqq1MuQTOqaNEhCYTalMb7H72NkSce4pyMbsZF5/wOv9p3mGjwx1+8j6NH/BqWSfn6BsyYci9+vO0uPovV+RljAYFYKYwcehImjr7QdvBCqp0qunzKxXjy6YdE+kw4yD7rYcaUedhq0x+WXAwnAhlyzCB8vfJzQSCHHTwM559ypUYEcqc4vV78PRA3hXXQUXvh69WfCidNEdnZEy+W7O6yv7Pe84uEpQmEdqkV7sLynqexPxh11W0X49EnaKccxG62iaPP8zl3Y0cgZScQMTLz40KQt/sPZUoxlWtUlnLI3meqTl7FwZeKUmTtVpEfhtiiOGMdnVTLxl1OhmutPpcvoge2nJaA2zH+rGPx9t9fERukttt6J9x104PCgU6fdy1mzb9DLFxuuflAzJv+uL3IXuIyPe8uI9rGO3Lo+MLbeJ1dYLSj6OxLxuPl1/6IXKpDyNxg7S1w5/S52GCtzQO/QEgEcsyJB+A/n7wnWjX4Z/tiym9/H3B7redciVgDuUZ80tagb49kmgs+KOWeLxk+9hD8a+k7IqLaZacDcMPvpnrOx1hOlONdGbZ3b013vs/h/aStgb5O9JLvgOBdWC7BuuvDGXz+1Ue47/75NoEMPw7r9N3Q+T58Xl4GbZg25+qCFNbLC9+HQR/hisuRl1pMq9VR5WlXkKNSdWDFEKnWC0siqvLD6JWkbFcfnXe4ZUuRt468OjDnHk2MQCD2BYlPvnAfJl99oXNLbTPm3vEIvrvpd3HoiP2x4qtPxZ1NZ59xEY4cMlrsvnKT43TDhjdBQVE2nXsbvN/Pxc2yVG/UMSdiwpjxPY4LEAe1Zdow8cwR+Ps/XwFMIpEmbLXZQMy4ZbZI1Yg7toquV6FU1IVXTcRzLz4hdnQNWHsTPDbvTz2uYrHTWa7nMz2ftL1TXORoFhGIuFsLnbj4inPw7OJHxLXs6639PTw6f5EnFeWXErTrTZ91k/jAU1wEYm+3dg9z2NN9v+3OBYvo4jr3Pnh54XtMIDF6gjVFIH4zfvo3WaQT1mGq1FMpEza6CUMgKt0cVmcV2bVQRnqVSXEji0+md+C/OOzoA/DVKkrdAEf+eiQGDRqEcy8+Vfy9pXEAHn3o6YKDhrTTc90BB8Oy1im4nZau29hi4PrO/VT0RcIxmDDupzCLUuHEC/S9pm9XZzD+9CH4ZNlf7cNuRiN22n4wplwzXew2sknE+YlF9E7c9/hMTJl6Zffusd9PewADt7CvYnEJp3A9hJwxRSBXY+59d/T4boYt3T4fc99jd+PGGXTFPN0m3Bszp83HD7+3c4lzIPbJ+GmzbsTc+6fapOV8kTDVfQ6kdAQyYTQt1PtdZukDWtHitk0gV3a3i65osT9pq7kLq5JHQgVEQH5OSJa+Clro7TEeJesbupFIWIepUk+lDBNIJQ+mnrpFJBBygJ2YOvN6zH1oukjv9O2zDrbddlu8+sZLIio44sDRmHTqJYVrAVkgnbG/eEs/2qxJ7ps+U77eJvvbn6il6ziy9E30FhhZ+sKem/qhLwx2wDQ78PmKP+DT5V/hpInD8dW3y4QsM9eIffc8GL+95DeCeNxAgi68JfnLv/kWhw89CF1oE4ftdvvZEFx75RUFZSl9Y38mnS4uzOA/y/+Biyafjvf+/Vch0P1yX97R5r81fuiwfZDJ0TfLGzB40F644TI6dU9rFN4rUuzzLLSI/vHyD3DhZZPEmRoxa1T4oJR3G28wgfgbYuG2YFoDudK+jZciKyaQREavjAxkUYFXKZksb9lSu7PiTtuokoNquVJtjlv3Up0eRt9EjKhChSqksGSXE1r4ePl7OHr0EJF6cjuXatH14PNnPo4tN6HFbc85DYoGilJYhA8dTqYUliVOrTdi9LHjcfLxJ/ZMYTmfW99gg4PEvU50eIyuTMmlaJGdFmTpLii6lLARhtVLHOCj+6E+XzYXWROYfOVTePq5x+0bcK1mDD1iBCae9FM00N1Uhn1zeqoRWNn+b9zz4Gzc9+BcdKS/hUVXwNNBxmwLljxF3w73ztRpTagTv73+LCx8/hH7yvhcCsccfhwmnnA2GgSJ0CWNRBxZfNPxJe59YDbuf2gu2rts2eLK90wrFi96o/sciNduindhjRp6AiYc5/lio4aR2RTm2cbrpLB6XOfuieBshstHdAV/13h3PRYNcvw65CHg1ziMp0M2Yvw50YxO1KLbriRl6+KjYoc6eKvIq7UyEQmE4LAX08+4aAxeefN5x8na37/40XY74/brFxSeUHe/XOiz60a+TdWGX6yXZIGsc3aNzq+9/Cpw/kWTRGRhxzQmTjtlEoYevqUgIIpANtxwuNCPvu8hbqcV3wTJiF1idAOum8IyzG8xatReePOvzyGd7YRldsFCRny3gz4Ilcq0YPGzryBFr/H8aG3mi5WrMPz4I/HflcudyxGbsf66G2GXQXti/QED0NbxFf714Tt4863/Q9pa6fkuSU5gphKBuLuw4icQ+5voviks2WWJtTYyYm6PrqMNen1Yh6byfl3CKQWRTpSgC7WObF2CLtYlLN66barW8oblIBx20409k+3EC6/+ARf+5jQRhYiZQLY3Lr3oGhy4+5HS8xkueH4E4puioQhGMImzEE9/N4EnF/0Rl193rnOAjkijF3538Q3Yb4/d8xcEOrejvPvBxzj9rPFY1blCfDWwe82cnlv98f47HUC2vx0WiUsAnS8hGnRjbiMa0v0F6dA5lmXL7hFNEN9VN4B3PwBOP3sS2jpW5dY2U1sAABfBSURBVP8xR2m41TAbVsBIrUCq4Uv6ni52+fluWKt/CxY++4hoBBFI4V1YedMifHY5cBv7++wFlykWXouvaoz2OZB8Cqtnak5VEpeTIaDiwGUyos6wdXWIi1BUDhWqtN0twwSig1ayZWMhEDqfkcFqHD7sl1j+5SdC47XX2gCPPbAQjWj1uaXXv1G0WL3L/tuLNRD3uvIJx58NoFm6q5R2HVFKZvaD03D7zJttEss1oLe5Nm66fhp2GPgzsS4hjI++j4EsPvviX7jx1iuw5FW6fp2uPLdvnc1lNkC2c3tsu9U+GDV8DHbbDZhxx18x/545zo3ADXjxheu6F/cpsvH+aD2BDjp2XwDpPqTUnPktttlmA2y/3eYYNfJY7LbzHrh95p2Ys2CmKEWL7y8+/wJ9hr2A1OhZVqT4BgvZqWyT+KTthLFjnY9Z2eRl3xPo3lsWgDNBIK6S78D0u6+33y0isWYsWfSO9FxMsiZZu9LjmM1GlaGTQvIjLL/e8TuE63XyUYhIJrtYn6j4JC2v1qxbIYWl0mR7F5K9MEzXaVAyyL71zru7SS7JPhdBUkxnzcRvO66/HFcHWti3c0v0dvvaDneHlXtDLJUVLllso13x3+V48y9vYMWXy5EyTKy99sbYYXtKOdFXB+23iUv6yEG7qRzvyWofhdzjLsu/7MKbb76BL75cAdNoxtrrbIZhwyYAVity2SaxOcD+IqFnrSnXgJT4BK6Jz5bNtdtC0ZZ7hZRzm6zQxbmgURzSJv1MewNAwW45sS3ZjjELM1H291ryfUaI2VedVMuvAjZZVQtUkfSM2zF7lYlKMJEaxpUjIRATgUTSIabKxdtWXbF0y28G7ehABvbJ9Z4/mrO7V5E737sQTjRsYs8hHcdlk4O2F8/pwF9/QW+u4wvW2pbxnU0O9goLWMTuBMw2LPtosa/GbivcG86pZfQR4oaiNZygjsikaD9aJ+ggZvK/PMnb7yr+e6EGshtSvKVpUtKARjSI/zWKLQ38q24EdMgn6npIdSOVjPaxE4jynVrJtMdX6kqswmf4FPSn/8914+Tk6dBd98UaJb5qpHApoHhZXrZIoYnLFRvpW4gxzvTpuvgW7DJoK4BOkecaPSf+LXvXAUVhbjjV3orl776Ovu3OEo0T4QhtHbahiMf9e1svYAVWYDXoQ1A9233dw9eVsTf9X0WOpJSDoGe9sk1obWvB5NFXoC9a0RzwnZY13hhWIBEE1hTZ6Lw3kYZrCtUh2lAEkkEa7ej0ndFXYkqhDe246L6L0N7U4QtlD+fj/VKem4sqrtmd25LPYktd1KjZt77Fc7lesKz+4mBmlv7M9RZfbhQ/r57Of7e2t2LBhQvQt32tgoOcNmHYBOHWp7+v7rMMI6/eB6ta7O/R0y9n0a3CNtuccyR9Vlf/Z6IThohq6NxP9J97Y3y3jmJLdz6KbBaf6WpFK/oxgRTBXW1OLrq1lE+CjkMun1bxvCkUgazEtzjz3rOwsve3+ZluVH2KHVdUeW59w0Lvrt644ugr0UecxSj+lU6RFJeOups1f804rT8UOriwTc6JdBtFNfb6RU9HWpiMo1LiKyWKKay0AbRuvB+yZnNeEIUqRCDdBOVobwCffPKHHoknv8SUvUJFsdFXgU1XwUg1jVXOFFa1OeRadnJhx5VOPZ3+riWsQxNIPiUkn4HLOyK/EmBLoxWDuH6WmG1uhE2xFloVhJZOTSkTSHfBwksU5RGaampMoSlUpMQLVSMjOm+TTds3B/iluESPeVJetCvNG8HYz+2e9UY4hrkKK5Y/LBb+o/4KPnVLNwmQQIfj7LRbDC+JqiTXZwR8DoOWAqXSycbIWe7xU/9m+DkZO4XVDvqTRqnqDFBuPXL3KpeRL+FKoyXTXugjlk/1l8VjduiSBsSGQGyCHA7KFl5+6dcMsUNaA2AqP2C9w2HlWjwE1DOF5iUg7640m5BsTbwERp8NdnelmbT0o6GTjn1xWUYgaQR0IhsxX9T49kscuksJJPglujNrmbr+l//JauWf+zv64t22+r6ECcTbB+6EotS1F6p9RpFNJmPfKOAlgGJC8P59/Y3sMzd+EU33ZMdIwzBXYtmyP4itzd2zBm9k4kQoqrpyOUagGhDQIZw4yCZUCqsagGQdKx8BcYuB99b5CCpTgsqlelfu+usfBBN9kc2mkDNTMNAG0/waXyx/HhyZRACbq9YEAro3E/g1mgmkJkyBG+HdXtx9VxrdKpB17k6j6INTW2wojECsCDCBxAonC6sIBHzuShN6cQqrIrqHlagdBJhAaqcvuSWMACPACJQVASaQssLNL4sbAdWtyHG/l+UxAowA3Q0Yx1I8I8kIrGEEdIlEt/wabh6/nhGoSASYQCqyW1ipJBFg8kgSXZZdTwgwgdRTb9d4W5kYaryDuXkVhwATSMV1CSvECDACjEB1IMAEUh39xFoyAowAI1BxCDCBVFyXsEKMACPACFQHAkwg1dFPrCUjwAgwAhWHABNIxXUJK8QIMAKMQHUgwARSHf3EWjICjAAjUHEIMIFUXJewQowAI8AIVAcCTCDV0U+sJSPACDACFYcAE0jFdQkrxAgwAoxAdSDABFId/cRaMgKMACNQcQgwgVRcl7BCjAAjwAhUBwJMINXRT6wlI8AIMAIVhwATSMV1CSvECDACjEB1IMAEUh39xFoyAowAI1BxCDCBVFyXsEKMQPUhYBhGgdJxfqcuSdnVh3RlacwEotgfSRpxkrIVm8fFqgQBr62EcdJR6wfBlKQN68guLkv6hsGJ6sUpq0rMS1vNiiOQqAYetT4PkJy2EXGF8iEQxb51HLFuiypFtp/TD0MiccnRxbHaytcUgUQZXLKO4wEiQ4iflwOBsHaY9Gw6rF4qmOnIjsvxxyVHpX3VXKaiCURn5pAkefiFs2HDYj9j4QFSzUOovLrr2IqrWdLkUQ3jI6wvKe7dOMd9eS0nmbfVBIEkTR48QJIxPpaqj0AcBJKEEwyjl2rrdWQHRQ5MIKpo65WrKQJJYmB44UyKqKIMEGqzW1+1/d7yOu/WMy0unQQCOv1VjsgjKMpRtUUVjKK22fsOmV6lCEiHhFTaVQtlqppAdAwrjs6qdAJRMfDiNpQbwzj6oVZlqPSFShm/iFnFNqLiGnV8BE2EVNsclCnQ0YvHh54VlJVAVAxBpUyxochmFXqQBJfWMUQ/KUkNEC8eMiyKdVDFOy4Ma11OFBtR6YswZVzMZbYR1DeyWblfPZV3hZErI0I/fFQwUyEf2btr3bZ9fVpOpac9NeMaIEGvVensKDqUcuw6BqACW7kGiCqh+uGmgrcOLvVeNgqeKnXjKiPrp7C2q0NWYd9RauwF4aPiM3h8yKyi53PtCETFgFVmMnEQiIoTV9FFZWYRpt1BEYerU9AA4gGib8iVUiOMnQTNflUmO8W2Evb9xe8K69xVCKScsl18mECSGSHaBKI62y1lkGEcZLHTjUIeYdqgMzBVjNWLT1jZxcSnQ1h+A0uFSJMxw9qRqtOXYWyglPyw7w5DVDLCiTLGk55gFZOcH6Hx+FAbk1VFIDIHqdZku1S5nLwK0ekM/DAOJEwdHSy5bCECOv2pE32UKqv7zlJ9FkaWah3VcmHIVYalSnpLRi4q47mexkMoAtF1wDrOWqWTo3aijj5BsyGVFJyqnjqDSlbWr22l2iuTV0+DIa626mKqU96vrE59lTaGkadaR7XcmiQQ77gNo68KxrVSpioIJO5OZALJm2/c2NbKwIjaDh1cdeyxWG6QnqqTlyipKF0nr4OJrmzViZ6MgJNaU4pqT5VaPxYCocap5jxlhs0DRB3LINyLHZL7dz/sww7qSjXoStFLFVfVckEOslR7ZWPNr66uPqqOW5ZeiiulJtNf5l+YQPRGUGgCUU1j6cyu/IzM6yRlxqHS9LAyVOqplIk6aFXeETRImEBULCSeMir9FMapyhxgsfa6JKKqd5jIJUnZUYjMrcvjQ9/2K55A4p4RJGnEScrWGSA6jimszvqmVn81ZNjKnqtMNkpNsEo5xqDeCKOTqr0lKVtnfPAEK76xGIlAZFGIbvSRtCGqylcZuHHOVnQGlmrZuMvFZ3L1I0nWB7LnYezQzznqRCFhdFIdV0nK1iEQVX11ytWPVRe2tCoJREZcpTozSSNOUrbuAPFipLo+5Z3N1uuAiLvdpWyiXBMsnX5N0oaTlK07PlR1US0Xt91Ui7xYCaTYUJMaIH7GojrLCmsQKvVUyoSZVXrrhH1H3CmLajHwNa1nUH+F7UfVemEjEVX5xbiq1FMpU87x4erDE6zwoyQygQRFA2HII0zIqPueJI04Sdm6MyxVkwirs6r8ei+3pgjEbyypRCJh7UGlnkqZchKIim2G1VlFdi2UqXoCCSKwUp2jSzo6xJakbB09VI2TB4gqUuHL+WEcxk7C9L9uJBLWHlTqqZRhAglvZ2uiZiwE4ufEVcLDqMYSdlYeZvCqGn+SssM4EJlRqbZLJoefByPg58S9pVXTr2H7vxwkompHquW8+OjU0SmrYrNxy1N5ZzWVSYRAwg6OsANEt14Yo9Cpo0siYWVTu3WcT1yEXU0GXim6BpGIbv/p2ErQBEs2PnUIR7ddScrW9QMqthEGbxW5tVKmZgjEz3hkDlbF0esOEL9Bq3JvlmxQh422ZIbKA0SGUDzPw9pR8dvD9pfO+2URkwoiOgvTKvJ4fOiiVJ7ysRFIXOwfdoCEdbAqg4UGg65eKnJdgtORrVNWxYTilqfyznoso+PAS+ETpb90Zv9BEzLVvpNFVqrjw+99OuQk00PWnih4y2TXwvNYCaSaAUnSUEoNljDkVM0417PucdhYVBm69VUcfRgbVpHLE6zKHy1MIJXfR6whI7DGEdAlHh2FeYKlg1ZllWUCqaz+YG0YAUaAEagaBJhAqqarWFFGgBFgBCoLASaQyuoP1oYRYAQYgapBgAmkarqKFWUEGAFGoLIQYAKprP5gbRgBRoARqBoEmECqpqtYUUaAEWAEKgsBJpDK6g/WhhFgBBiBqkGACaRquooVZQQYAUagshBgAqms/mBtGAFGgBGoGgSYQKqmq1hRRoARYAQqCwEmkMrqD9aGEWAEGIGqQYAJpGq6ihVlBBgBRqCyEGACqaz+YG0YAUaAEagaBJhAqqarWFFGgBFgBCoLASaQyuoP1oYRYAQYgapBgAmkarqKFWUEGAFGoLIQYAKprP5gbSoMAfrYUdTPolZYk1gdRiA2BJhAYoOSBTECjAAjUF8IMIHUV39zaxkBRoARiA0BJpDYoGRBjAAjwAjUFwJMIPXV39xaRoARYARiQ4AJJDYoWRAjwAgwAvWFABNIffU3t5YRYAQYgdgQYAKJDUoWxAgwAoxAfSHABFJf/c2tZQQYAUYgNgSYQGKDkgUxAowAI1BfCDCB1Fd/c2sZAUaAEYgNASaQ2KBkQYwAI8AI1BcCTCD11d/cWkaAEWAEYkOACUQBSrpQz+8XxyV7ScpWaBoXYQRiQaDYjuMYG65iScqOpfF1LKSiCMTPmeoYYtT6QXaQpJPXkR1UlvTWwYnKxymrjsdP2Zvu7TfdPi/u9zD1VcfImpIdpw+IU1bZDaVML6wZAtFxxLrYVorsUk5fh0TikqOLI5ePjkAUAklyJl8psuMaq3HJid7jlS2h4glExTEmPZtO0ph0ZMfl+OOSU9mmXZvahXXUSc+mw+ql0ks6snXGU6l3xyVHpX3VXKbqCSRp8iiV7okjTNcxVJnjj0q2riHH0a5qHhSVrLuOMw1aQ1CxE10Mwuil+g4d2XH4gzhkqLat2svVLIHE6QR1nLyuQejIZgLRRbf2yus40yACiXNslOMdOm2Ow/nHIaP2LM+/RVVLIOXsZB0nr2s4OrJVCKTU7DJqfd22cfn4EYjqTJMgD78oPc73RG2ztxdkesnGiKx+/D1e2RLLRiAqjlKlTKmUUhKheVxpgKBBoNpmWbtVBolscHAKa80OVhVHqVImyFaSdn5e3cK8y61fXFe1zSpjRKaXbIzI6q9ZCyr/27UIxA9cVUBVHGWUMmGdn8xgSnVJqbZHkRtEhDoyZYMwbLvKb6LV9cYoTlTFUYYpE3ZslJo8yXpFxS/o2LPKBEmFQKJG6CrtkmFTS88jE4jqrD8KOXg7TUWOrIPCGm6xXCYQGdL191zFwQeholI3rjKynok6RlQcbdh3RB13QfVV9FFplwzbWnpeFgJRdfqycrLnqh2jYigqsvyMqVJkcwSi0oPxl1Fx8H5vVa0nKyd7rtriqHYc1cmHjZBV9GYCUbUCebmqIZC4yKNUmKtrWDoEouvQdWTLu1mvBM+y9PDylg7rwFXrlSqnKkOldbqydMqrlg0z5lUIRKX9QWV4bBQio0Uga8r5xtmZcRqlKimEmY3pEAiVjXPg8CCJ4mJ6XhMjw1PVoZYafzrpVVnrdPRxZanWUS0XlpR1CFaGg99zWV+GkVnNdaqWQMJ2JBOIba6lSCcsttU8EOLUXddJ6pRXmShE7T8dfWqRQEqtuUbFNk47qwRZ2gSiG4X4GbxuqiiuCCQMeai2N0nZQYPU/XcXTxXn4pKHarsqwUirUQcdJ+wtK3NQun2si52O3rpRQpKyVYlMhp8sqyDrH128q718ogSi61RlnRs1pNTVR9VxR3HGOjrJyqriJyMcHiTRh7Wqs1QtJ7PFqGND1QEHIaPSDpUyfvJ16snKysYIE4ie7Vc9gXhn1LKmyxyw6uAonvlXCoGU0iNOnWU483P1dRCZwyvGUuYAi8vrTgZ09dEhniRlR9HDb2zoyKtnew9FICoOM4yz1h0c3o5TGShhdFJpq2oZldmVjjHrkIJOWRUs63nQqLZd5jBlz3XspZROOv0ZRic/+1fZBKKql45OKmV1/ICKPFV7qMVyVUEgspSLahSiYzjezlapp1JGxyGoDMAgslHVRbVcLRp+Odokcz6y5yr2Iku5qI6NqDNulbaolAnT5lJjVXW9NWq5cthTJb4jNIHIZt1+zkk241BxaKWilDjkqxhwnLN5lTYHDW4mkEocUoU6lXKa3mcy29Vx8GHGno58lTGiMgGKs826+quSmWq5yrfEZDRMhECCVJUZjKozDUsiqvKL9Vepp1JGZeAFkYKMsGU6qwzoUu9OxvxqX6pqWlY2NqI6SNVIJKzDVKmnUkZljJTCSucdbtm45NW+NfdsYVUSSClnWmqgJOnkk5StG4GoGnJYnVXlc7nS35734hM3gQSNEdl7dBywV3+VeiplykkgKvYZVmcV2bVQJhKByBy57gDRdWi6kYiufB3HnaRsHT10jDKszjrv4LJyEpE5dV1HXaq8LBIJ6zBV6qmUYQKprhFT1QQiI7C40jaqjla1nGyABw3yMPJLmWPc8qrL9MunrSyNlSSBhIlEwjh61Tqq5cKSZhj5OmNEp6/KZ2Fr7k2RCUTmxGUznrDOVDYrD4p+dKIW3YGfpOxSOIc1aiaQ8g28uLAO4yB17FKXcHTb5VdedQeU21vlXLMIg3f5rGrNv6nqCUSXwGSkoNMlOhGOjlyOQHTRqvzyuo42qEVhHZrO++MYIzpOXrf3dGSHnVwFTVCjytNta6WXrwkCkZFIUo5ed+akYww6Ooc1ah2noqM7l+2JQFxYhyUQ3chCNqZkfSyzySgkxQQiQ798z2MhkLjSK1EHmW79KEZcKjUXVS5HIOUbAOV8UxTnH9eMWFeHsLbMBFJOy1pz74qNQNZcE6K/WZd4dN6Y1ADU0YHLMgJREdAlHp336Y4RGTnpvJvLRkOACSQaflybEWAEGIG6RYAJpG67nhvOCDACjEA0BJhAouHHtRkBRoARqFsEmEDqtuu54YwAI8AIREOACSQaflybEWAEGIG6RYAJpG67nhvOCDACjEA0BJhAouHHtRkBRoARqFsEmEDqtuu54YwAI8AIREOACSQaflybEWAEGIG6RYAJpG67nhvOCDACjEA0BJhAouHHtRkBRoARqFsEmEDqtuu54YwAI8AIREOACSQaflybEWAEGIG6RYAJpG67nhvOCDACjEA0BJhAouHHtRkBRoARqFsEmEDqtuu54TIE6DsV/O0JGUr8vJ4RMADkCAAeKPVsBtx2PwTcDx3x2GD7YAT8Efj/oApK1/HN61kAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>jtgsy</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dCbgUxbX+p2fmXq6AGFyi4L5vUSGKiMZ9jxpX3NDgHo1Go++p0bhFojFqDCDuCu6KCe6KT315RtRoXIKiRo0LICjRgCyXe+9Md8/7qrr7Ts/cXqq6umd6Zk774YXbVaeq/jrn/FWnls6USqUSFB4ncyaqDGEBpl2Cxn8KZwupV1xyojaf8hEChAAh0KgIZFqdQBwyikyAjdrzVG9CgBAgBBQRqD+BKDYgLLvvDIO9qCNr0MzHu+fiw6VyxhqmJ/SeECAE5BFobQJheNWJROJzlPKdnuYc8eFCBJLmfqa6NQcCygTS+DAoOpr4PF7jQ0ktIAQIgZZCgAgERCAtpfHUWEKAEIgNgeQJJLYRetguLEUiiA1SElRLBGJTr1pWmsoiBJoEASKQJulIagYhQAgQArVGIDYCiToSrM7HjqVkMkEr285Mw4HKPhdSlS9cjpXfL12fetnF1WnNvdZ6kZryoupVahpAFSEEmhiB1BFIONZuArHII4knLQQiSoRJYFArmewoq2lah0MzJaCUKf+sroP7ffU7d74+ckwgw9QlA2hMPstMo4FadTGV06QIxEYg8eETdS3DzleySaXXOfjLi+ac/cqRRSBqO2XLqU96cWxNGKaGYgEwmJNXJJC11zy7goAyMK1bC8wMMtlu5HLfYN6XjyJnkwmRSH30g0qtDwLB0R2rTjKXk6gRCLNM90UozGk7jtv9rjrqFIYdkxF0wYqn8Vc5dqcMpx7VdXWPQJ1623UvISiM1jwEwkf+zGGX+jruakee1L+5bzeBoWucCKM0sA+ByJTLqGLe3AlVBFKe2UADslkgq8EiEKZkbDpCDyGQcgREHL9IE2TIQUSeGoEwX1q0nT2zQ2aUOZtEdOYZ7D9Kt215NIOVk7fL82qlQxYGAANYPKcL//roc3y3cCkWLVqEYlFH//4rYPAq38N6G6yLoRt/D2iz5WXt+veSiVVAM7oZNuIvFgHDUCOQNdc+O7Lj59hqS/HV/LugaWr1CAphMSLinUghLF+/UO2k4nY2Ig6pGdPE4fzT2hdqBKIDw9feCTmjHWbGwIlnHo8zLjrRMtQisPV62yNvdCBrMm/v/TihDo2NhgW9dDHXhbfnzLDIyv0wJ8FIwwS+mPU1Hpz8EN545U18PXcBUNKQYR6Gs5zjqExrtJoHthy2OX602w7Yc//dscZGK1vJbDKJ7dYTNtpn1bMJrmLyVhW6kRl5hzlOv/dGiY38x8IoDYpMAKyes+eO53BFqQfrCzYjyOet2UH0J50hwSCnHIdjCbKrMCyjlJ9WRxbW1qjvo2BUXVYzY6ZGIEVg+6F7oa3YAUPTccKZx+KUS461nG8B2HbdXdFWXIETDHuqo11uoBmBsMchkaB/97Qtw+vznrdmIc7D8uvAvz9cguvHjceMF15D1mQMk0WJDz9NmJlyLE3jhMLdly2hBBMGzIyO4aO2xhEnHoJdDtq+PKPyI0D799Xc57V7iIWK2GifjfzZT/c9yLKE0SfWH4GANG0p5n0V78ifzzolZhKczFkWlkdwABHkDNK2ayuNBNIKTjGONnKfpXZZeVTeaph8ygQyaoN9kNfbUcqaGPuzo3HiBTaBFIEdNt0DuWI/ZI1yvKlkO3HmMLmDL2gw9QyfHZjQke0P6JkiNNuxl9Pb23UzJgr5Lrz66XNlAmFOSwdeffpNXHL2b9GzRO/Nb2gmhq61LrYeviMGr7YGBg4ciO7ubixetBizP5uND977CMsWd9rpWRkm9GwR3fnFeHfOVJRygBHgEKt72iECz9+zCZIBrLnmsTBLA1Aq9etNJksgX84ZLzXi96qPlo1j5J8uXScCsfrDz/HF5ViTdK5x1JEcf23sMmPaSDP3bT3+W2Mrdta41xlc8WXXgN5aA/FaaHemIwYwZdw03DXpXuTMdhSzy/Hyl09UziyctO7RKfu7s9Zizzyevusl/Paia+zZTglmvoA9DtoNp519IoZstDJKuuW8Kxb52dbREjDrHeDJPy/Ak9OewvJlXTCzBvRsDz78/HzoLgLxivX36SYWn+ILs+7dBFbIDJkCNG0J5s27n4+43QsrsgQim96LQFhX8y2tSiP/cL1RU+Vo8sN3gUWTq9YW+dxxrUv4OWVRR+uVvzpvHI4/SWKSR59yhCHgIpCwpOWRDVcU5ijZTy/n4xHr9xqZ54rAzeNewpSJ9/F1kkKuC2/Onwy9LWQx1S6a1ShrAP94tROnjT4LWg9bCS+hY1Abrr/1WgzbtR+PUOkZYI0h1i4fLVPio7MS29bJDwZYM6Gs0Y6smUWGzYoyJgzNgKEVYGaL/O+s/nO+HG+HvTywYrzh+jV3T85CvH2uwb0LiMX7M3w2JkjYYt3jm6o3fNh74DIuBxqXHL+qJyU/KbmKHVWVPSkCScL5i5JRvAiRtHoiIBXCCh/VOSTTN9bvSSA6MPHqRbhz0hRkzTYY2R7MnHsuisyHu2L61SN/BzDm8LNGBw+h5fUO/mu2wM5CUNz5awZMTYemfYd5X03p3eXjBXjW8SdsRvLucpx/3vl45n9uRCnbN4RVnZ+t13AuYH9cW4LZojJb03EWl9k75sjZorH7IJt7kT4I40D8q2M3ArEct7xSyUAmk+37pccqOQJifU/3qyi6SLmWfB9iEBegUs3Y84oQSBwjf1nnz8qUzRM7OCSw7ghIEQj3Lmx7rs+Zil6HyczYAIa6Yv1sjcNypKVeh8pG/e1skV1no3+LQLo6FqOQ7ebXmTgKOneuNfLvdcQ2bDkDmDzBwIRrbkKmpEHP9OCyP5yLQ46udNxazo71Bx5cZ/EsVwIW7uLTE489vNaafG+Ibu7H3+Cf7/0Ti/+zGF1dXRi4Yn+suvpq2HjTjbDqeoPKpOKs1zP2cMJ77jMyvbu+Qq5zcfCvJi33+Rhph2nNhjiZ8faZ1h/+2BTXuxfWoTzn9xYrVv1W6t/WYZSMPWljuwzsBnBCZopjyXceC8ISNGR6y7Gqah9p5/9gTG2ztTQeydtmHI6fNzlgoVck9JR8S1kXVoYqiHxqgXryZcgRyHJgxHq7AcU1sLBrCAqllcAXuTNsOywL+xSh53pgZjuhZZZVxPq9YvZZ3T+EVd30agLhu7SWA3sPPwfLvunmTm7DYevi3um/Al+zd20rFYr1i47gWToDMBcCk29+GI8+8DgWfbMEbFdX9cN2fQ1aeSB22WtHHHDkfthi1AZlQjKA8065GDOefgOamYXWH3jp79ORW8UrqmW5SnbAkTlMTj5F4Nh9T8Vn782GqZnYYuSGuGvazRWEJzpjdJxQr5GzbWI9PfaiEXvrhNp8fuYyQL8cjIzGA3KVqazVNVb7ECm97zMlHaPWXhu5kokeLYfNttsWXbkcdDvkaFNDhTw2MGHzpxWKJma9/TZMU8Nbn35m7Q3mC061eWRIQcSJqjpe1fwqqKlioVp31fwqbU86rwy2fnUR0b+wdsgRSCcwcu29kdGHogvroWh+j4/82cO28Z50xlicdfEgGLnyiV8r1u9TjSJw55VTMWXiA8jpeb676pWvn0KJLWXYj2dWewT+zl/ex5lHXMBDWGz2Mu7GK7DL6B/2XYR3Fe/rVN0EwkaxzIlWj6F5uRoWzJqNnx9/DhZ+uQx5I48M26rVGzpx3JtDYiaK2R4U852Y9txUrLrl2la8y9DwyUuzcProX4IBVmgr4NwrzsbBpx8E5NiKP5tyuaYnvWvyGmBmMfuNjzHmkJ/y0B0j72tuuRIjfrILoOlAxpk+OSCyI9hspM7pJ2RmoAGGjh3XWRsdehEmd9qmTZB9KYCF6HqyOay3wwh0ZT0IhO2uy7CSQ2molxDaDR0rdncjjxK6M1nc+ug0IJuDAS+CKsvlVKWzmZPdB6zuKSMQWaNVdYLu/LJlhzmPoPdRHJxX/VTan2Tbo7RPBc+gvLXs1+p6SBFIqQsYtenuyBgrwiz1R8bsADqzyJSyfPbx0zOPxRmX7GrNAHxO/FYM9H0IhJ8KD0TMCqXdetXduO+Pf+blm+09mPHeM8Bge4dWaG8FLKLqOlBwRuAu18diaP9ehrH7HYolX3Uix5jOzGC11VfFqB+NxJA1h/Cp+rff/geffPAvzJw5E0aRzcx0vqvr0WenQttyPUBjh0AyQLEd5+5yOL74/CsszwMrbzIE97/6KKB18RF4P8PgydhjnVlhzp9tebYW/rUSw97Z3swW/XV+1qWk2aEdO1zYo2Wx/siR6MrmhBw5k99m6tB4OIiFgAJ+8rM7Gu575FEBgjKRccJkfYjMCYHZcTmfEFYQAVoA2SEsXm9+zL2m1wiEORZZY4/LgXJoanSmIWzHV9h7t+n6tT8M51Dzr3GCWmFf42axJQkJrbJDJ71rIDqw81oH83MeLHQ19qxjcNIlR1lbo5zj1r1j3j7cxVa8cf+4uzH5xvuQM9gurB787/wXgTZ2P4qPq2AelY34C8C5o8/EezM+4YaxwTZr4dbpdwJ5E9BY/qoxL/fELNzGFhrcCw8ekJsmfrTuemg32cHC8gicLdpb6zX9oBlMjoaSpqOUsZy3Ab1iZ5d1WFHjMwS+NTij85kSS8veMXn5Yn+g1I5iph0bjxyOxf2WA9pyrFjoQrtZLBOIfcLSkpmzT/dbu8VKGTbrYAcl+S1enG14yI91rZZBd0bDTU88ASNTPrrvoOOncOIzBmtWkuGLRUGhosbY9RS3AaoQAB84KKwdqOQNw6HRHHhYe2TcYJisVnovTCC9O4UcP8B+6sCOQw7gJ9EZgRz/i2Nwyq+PAphDc4/g+Qi2GlYWKsnj6atuwV2TpkCzF9Gnzf07kO/Cnhtu4hn0YA5ZK2W4I88ZHbxsNuou5rtRyHfykb6uFfgIn/t+e+U9wxxwlYPlo7KqET77XVHL4uUvPrcOSbhH4GYePzv4BGhGjhu2s+bDCIE1kJ1kZzuZyjOGTG/ohzt37uStNSMml5EBI86s0R/5wop46x/vYZcf74zf3fobQGPpii7cNKuyRg5Tx9+Hm6+5wxpwdxTw4mvPIrv6QIs4bcKrXHEuh7CcXnDo2U/Zw0Nd5VCYJaMW6wxu4vcpL2WL5apOPK0jcD+HWwtiCXP2qpi3EgGotlWKQLhjdJdYAEYN3Q+5YjuKuW6MPetYnHbxcdzxWTF0FlJxRvBWxvJVJdYIPKf3t51oG/RsAV3tS2Bki/jfjz52nTNxdkjZMXjm1PV2HDdsByxd2I2SZuKIMQdjzFUX47yjD7EW9h0vznZ/2TF8a9RvrVlkzLIDYvmdEBHL1p3TsLBfloeVLKdvxfAZaX389zlAwVrzGHPy0fjlFT/n6w5s7F+9QmDNB5xy+r5naLL3V55/DZ6653lki20sdoT/eXU6Bqyt8S3EFXizArqBA0cewy+IZFe07Hn4jrhs0n9bBysZx3AqK4ewHGPy86vVvK50plBVG0PzRycQmQ0FodWQSJAUAYQ5Ub/ZSy0cvBsekXqGwSlLCLLpw8qn9/4ICBOII6J6DWPEmnsgyxaB850Ye9YYnPWrnwGZHjsW7Yqdu+pw/OjRfATO4vjten9oRp7/YYf2utoX85F9xVMVg2dEwBbOrcN/ee5IrfMfBUx+ZKrr1q0ql27kcfreJ+HzD+f32TXVu8aQYfxQxPK2brz6yV/5gjwjEe5Yixr23eowLF3Qw/Ovv/lauPu5SQA7gsInCFY6jpHHlxWrt7nyNpY0fP7elzhm95P4griJIk4970Qcf+FhfTcD6MDrT87CL08+n8+8irkeTH5qEjbefh1rAuDh/SuJw8GDU7kNcS1mDvImKDuRkE0vX6NoOaI4sySdfJhDlyk77kXvIIRlcExy8TyaFjRvrlgIZNuttuM7qHralqKQX8YP8vnF0BmUUx+aavm7Uh438hDWPdDMHMxsAW/P/RsPQWWh+W7/5PF2XcOITUfB6GTpDBwy5kBces1F5TMXXn1WBMbsfjpmz5oHDTmYpglN0/hagcZnJNaahZEtoKdtCV6fzdZjXPctFoErT/8jnvvTi8gb/fhMaYuRG+D0807BVjttWnlmhDlzt1P3G9ozz1cEzjzoQsx87UPe7kFDB+Dxt+4F2FVZ7htRisAvR1+GN1+aye8O22Sb9XH7c9dbdfSR7+9YG49AdOjoQje/M638WHpSva7l1j8nLZvt5ZBFDm3II+uaHSZn4DIOuXeQ5lqWlHGc1a2IklemviIEYo2l+sSvpQEXbYtoOukKUAZPBKQJpEIKC2GtsS/yZgeKWhcPYZ366+NQypVH4s4X4ZzdN2VjZmsoGm4bdy/umngf8mY7enLL8cb8F1DKu/P33XbKbzfUgX23OwxL5nVxBWU35/7utst7QznuevaGL3TgqD3H4tMP5vRetuik42cxzDbkim0oZQ3wG3+/eN5yzs7aswl8/cF3OHL/Y1Fa0sZnXkbWWkRfYWA/bDX8B9jsB5tgky03wWY/2AiD11/BIpXqb4xUz06KwMt/egsX/vwSPgthM4ur77gUOx80wn1ZMBZ8tBiH7XQMNIOF+4oYd8Ol2P3oERUzldhDNS4Gcsu2z/2Fm5Vr8cz6a/QZz1IswwIswDIsDSzXKsc5ZlhOymhjIAaiPwZgAAZyGkn6UXVoKvmj5FUlEIZnmIyohCIys4jS5qR1oJnlKxPIjqvvj7Zif+i5IsaedZS1C6vCLitHur2nh5kT1TOe50BCt/Hau8FOPeRc/PPVz3n/rL7JYEx96c7yh6G8es1e+O89Bd475LMGsFOunoYpE+/nB/OKueV4ba59469DIMwz6cD7r36Ki864FAvnL7W30ZanCdaaic6vUVllyMrY64DdMeaUYzB4TZtMnKtO3PVj9VoO7L/daCz7yvpC19a7bY6JD13FsWQ3CrM9XuOu+j2m3fIkX8MZsPoKePH1Z2Fq3dBROePzVljHcVfvQPP7fZja++dzB8ocKaYrZFZJIeLld6EHZ99xDnrauqIRiJ7HwK6BuPbn1xGBhHWvx3sZ5xxGItUDPJHqhJUf9l6kjEZPI4O7X1tlCN5FIBFCGgVgx9WtXVjFbAEn/OJoDwIJ6JKKcyDtfB2FHSQMJRA77HPdhZPwxF3P85PcPW2deOnt6WgbEnAOxD6AyGvk9qPs9yZw+1UP4r4JU/mtGp4EwvLZJ9FLy4DHH34Gzzz+At59axY0PcfJJGtau6v4GJjfg1VCrn8Jl157IXY7bIc+MyQ+qmfxJx24/Xf3454/PIKsYbXnyf+bhlU2XQHLc12Yg3nY9scj0LPIqvhJZ43FWUefDgM9NoFY91j5L4KHOeqw98Dl91xesXbiN9vh9ej9Nn3IlukQi3WX0VHowA0n/xEdfNHJX271ZganiMoQVr4mX5lUdWoq+VXyenWLrDwZZybitMLKD3ufNDnItDepuojgGGfZAQQiQCguArFmIOwcyOjAk+AVlS8Ad45zTqL3JRDvmDeTwGLZeTz/3Eu4+JTLeeiJbd+9YNx5OOK4A6Gjxxcjr1ZleGQ8j4nX34J7xz/MnR9z4O9/+g560MkXtisfdu6BfbGExdPb0dVZwHszP+T3YX086xO89867mDtnvrXbi58D0aF3dGHy1NuwxTaboFQRw7faw/4s+mYpfjzyMGQKOX4Z5FEnHob/vuwXWI5OXDDxYhSz7EQ4e6fzEBtrM7sski/es3KCCCTMoYe9B3D58ZUE4juCsUNVTihJVWGt3WwZHn5aHaujP/qriqxZflWnppLfy6GpOBiVujDAwxysSN386hAmuxYdLlL/WtSjlmXEEMJyzoGwk+hH4+RLjxQjEDsc5HWViTMDCYp5s0stemBi1z32hrGMHfgrYfX1V8XTDzzGR+VBzo0rc0UCRgZ5THhwIr9Whe2M0nNd+ODlWSiiC5fcfXGv8jNF5YvujsO1T4OXv3DofOlQ4wcs2/QOvmWYHThkByXZRgO2+F79sE0EbEdZe4HtSmsHO7di5op8U8IKPStg/nOLMO+dr/nHtvY4cFdcO2kcrxv/0mLVsclaKpBXWUnVJ8fpuh/Yz0Z54na6sk5KtXw3zml23tX6IItTo+hT2uoZC4G06yvwEJYzA2GL4EV+Lpv9Z9gnJKrH/iby6MCka+/g6w5sFsG/df7FDBTRyXHqQhfOvuNc35h3Xs8jXxzIPyLFnHVJM9DDDhPmuvgJ7d5DezbqXKnsk70VBMK2BRt5Lqe9MLCXQNhidiG7HJedcElvv7GRMPvPiel77XJyZgJ5tGPs2adi5uvvc8rqv3I/zHj6BRTQ4xE+sWY0r89+C6eMOQ05+3r6K6+5FMOHbIsLf3QZVuxcie92u+uRm7Hpzuv0/SZ82rSL6qN0ktxr1F7tGBt95C1LcCLtJfKoneEFEIh3CKvCYXqFsH49GoW2It8pc95N/4XO9k4U8t4zgl4C0Dv4oUJd60Z3x2K+C4ndtttebMcNJ09AB6xvqvcZtSOPZUu6sM9OB8H4TuNbcUttOiZM/gO23+WHdiiLLdsb1jqDz+kHFsJiIbGJ192Ceyb0DWEZKNi0wUJX1g6BEoqcGMsoOX+31hLY/xlBThh3K+679SFkSm0w27vxxqcvowD2Cd3y48iwNpj2w/57HYx/f7wIGSPPd3NtvM6m+MvDL/MT+GtttRoeeP5Wa5YXfUNT7TSsxUsKcpAizjAMPhFnGVcoS9bZh9VdhCC9ZIThJoKJSN0oTTgC8RPIJaNRyFsEwkJQnViKQp81BKtieeQx/v5bceekeziBsHui3n3l7yiih/vG/jzm/X2+7dLzscNgzz/0Mi4752r7c7aAmS/iomv+C/uP2bV8LsRxtu5zFQ4b2ruz7rrqIUyZ+DAvSmffXZ8z3XLUrm28R+5zHK684rfY+Idr99meW3Fmw17ov2jM1Xj1+Tf4gvr3N1gFj/ztdpSYzKqtvNbCs7XLa9rtz+CGi2/hsxC+vsFemFk++/jV9efggON29/5OSXh/U4oaI6DqdFXzezlpBwJZRytSFyfEKwqziMxqWUQgougmny6WEJZ1F1Z5Eb0cwirAgOGK0rvnAMwvd+AmVwhLz3bhndkz+MI1e9wx797dONUxI9tR3/Kb+3DPzQ9Y4axSFoVsAdtsuwVOP/cUbLnz+n2dvbMjywSWzC7ipWdn4MHJU/HV59/ysx3Vu7C4gy8CI4bsiTazAzvsNgLHnHAkhu26cfn77G5yMoCn7voLrvn1eOTMHP9I1olnH4eTLgpZI2I7wP4D7LP1oSgtcS4otOYo/VbV8Ow/HgYGBm63Sl5rqARhBKI4SLdw1fyOLD+nK0oiorMYd7ow2aIyZWYhYWUKdxwlFEIgEQKpOAcSdMeE13XuX9nbeINObvNhlat99rmQByc8jpuuvQ0osvuurEtF2PUmHYPaMXz7bTB0rSFYafAgnrFz6XLM+WIuPvngE3w1dwE0M8+vVmEP2wHV07Ycb37xf5XnSorADuzgJJ8ZlHi6AYP7YdiIYVhvg3UxcNAAFLp7MP/LBfj7q2/h319+i5zRxmcRq20wGFOfnYIsu27e+TKhXxcVgT+cexseu/dZZA12ktHkC+/H/uwwnHblcWKbFIS6nxIljYAqAajmDyIj1baLnkQXLUfG+asSomidKF0wArESyAm/OBYnXnIEv21d6FI+F4HkjTZ+Et06B+J1FC2gIfY5DvalwA9f/wy/u/x6fDzzU+682bdCrMf6lK77XIFz/xVbJWFhIn6rbpuOH+05CoeMOQgj9xheGSoqArttfiAK/zH4J3jZmoR1OaQlu8JY+Sd8LZJhd2ZNmHw9Bq87QCz0pAPz/7EIh+9zLD9jw55Ceyemv/IEVly/jRbPG8iqVQlANb/M6F0GVj9nHxZe8itDhjwcGUlgI4MBpeWfKFe4qMZrEf3S0T4E4rEozz4K9dt7+V1Y1jdFuvDGl3+xvulRtUIcekWHM9NhH+MzgPdnfI6p9/4Zb//tH1j47++4PP4ZXHs/OpNnOX/rs7PDttsGu++zM3beewfkV7ZnCe67rBySWgRMf2wGpj82HW+9MROm7trSa2uUI3edDdbE4ccdjENP2hd8H4DX99W9tJBd9dQDHDzip1g0ZylKWRPb7zcM1065jBbPG8xqVZ2cav4guKI4exF3IStXRKYIEUaV02AqlarqRiYQ7tCXZzBqzR+DbeOtvMpEcAZhn+ru/UAVc+g5+xMeUWFyrW04chd8sRifffQpFi36DksWLuGzkAErDcDKKw/GhptthNXWWbE8ZXJIw+vKEYdEWPNKgLEM+HDWx/jis9n47tvFXG7HwA6sttqq2GTLTfH9dQdZcqvuwgptWhH41ytf46eHnsxvHWa70iY+9HsM323z8nqLfUmdrLGGlk0JYkUgSQKItaKKH6+SIaq4HL3MekvcWJE8ezAeNgPxHfmbwNL5Pfx6c+eDUmdccDKOPu8gzxmEKOBBSyaiMirSOQId589eOgc1nBtz+bQkgnSHrNw/RW/hrSquYpNAEbh47DX467Ov8bWcoRuuhgdfuTXw1t0ItacsNUCgkQikBnDEVgThGhuUSoKEZiB9SMR2xu/99ROcceh5/LscbJR82XUXYu/jRlXeDmtXT94/C1ylItD0Pru3HEJxk4ZX5USZzC3PXR/5Bjtfg8LCz5bjJyOPgqa38bMxF4w7Fwedsjstngv0d9qSkKNLpkcI12RwlZUaTiCOH7fDNr1fTDKA3583CU/d/wL/lge7omPa8w9jjR8MimmRNx4CKQPikudFItXIiRKILOJB6e3zKOMvuQ1/uu0ZZMws2r5n4IU3HwNWCrgkMs46kKzYECAnFxuUFYII12RwjSI1Y9oBSc8Bs33G4oYrJ2HfvQ7AZlutw8Moy74s4U93P4o7b7oHOT3Pz02sM2wN3Dv9JslFXo/F8sgzlijN75vH+vCsO6JlnUAU5RP3bC104d9dvL0eZC4E9hjxE36ynu3iOvyU/XD2uNM8v563CNQAABBaSURBVHMST4tJiioCXofnVM44qNan2fMTgaSnh4MJxD5fMXy9nfhiLptp8M4zgZzRj1+jzr6dYbYXcMvD47HlThv23Wnk63kFrkpJAKcwInAIpHxSXI5AIlfZJuupNz6D8eNu4ndz6bkCHp3xIFbdeMWKrxtKEVPkClFGUQRENjLEtXAsWqdmTUfkka6eDQ5h2QTyw3V3Rr+eAcia1p1UrBMzZgnFrIFMRwFXXH8Z9nC+dREl9h8jJmEEIVJUkIPuI1+ywHLyKgJlL7qBQ0ecgG/nsm3HJWy3+zBc/5C9dbfOuIrg1qppiEBq1/NEILXDWqSkYAKxR8Xjzr8On82cgwVzv8HSxcvQ1i+PIWsOwcjdtseYU4/EikPtw20pcHJB/jyOkXuSBPLi43/Fr067gp+JYV80vPHOP2K7/baIaU1JRB0oTRQEggiEZh5REPXOQ+QRH5ZxSRJbRHcW0Kt3HEU54xBXzZtRDsOZHYR0bzMWPXzYjHhQmwgBQiDVCIQTSKqrT5UjBAgBQoAQqBcCRCD1Qp7KJQQIAUKgwREgAmnwDqTqEwKEACFQLwSIQOqFPJVLCBAChECDI0AE0uAdSNUnBAgBQqBeCBCB1At5KpcQIAQIgQZHgAikwTuQqk8IEAKEQL0QIAKpF/JULiFACBACDY4AEUiDdyBVnxAgBAiBeiFABFIv5KlcQoAQIAQaHAEikAbvQKo+IUAIEAL1QoAIpF7IU7mEACFACDQ4AkQgDd6BVH1CgBAgBOqFABFIvZCncgkBQoAQaHAEiEAavAOp+oQAIUAI1AsBIpB6IU/lEgKEACHQ4AgQgTR4B1L1CQFCgBCoFwJEIPVCnsolBAgBQqDBESACafAOpOoTAoQAIVAvBIhA6oU8lUsIEAKEQIMjQATS4B1I1ScECAFCoF4IEIHUC3kqlxBIGQKZTKaiRqVSKWU1pOqkDYGWIhAykLSpX/PXJ0jnqt/FiYaI849SvojcONtBstKNgDKBkIGku4OpdvVFII32EYU4qlEkIqmvXqWldGUCUW1IErMCt0xRRU+iHqrYUP7GRyBtBBIHeTi9Impbjd+L1AI/BJqOQBwDkVVuL8OSlUFqRgjEjUBcAxs/4hDVcbKPuHu2OeQ1DYHEZWhOtzJ5osbVHKpArUgjAnHptaocIpA0akf969SUBEKOv/6KRTWIB4EkHD+rmaqN0AArnv5tdCkNTyCqBtboHUj1b24EVPU7LTMH1XY0dy83buuaikBUR1Uq3UgGooJe8+QNW6SW1VFVvVLNr9IzYVi4ZfvhEmVDjDsMTQv+Kj0YnleaQMKUop4GIlt2ODzBKfyMU2bURwai2gvpyk/2YfVHGA5eveZlvyoEqGJb6dKq9NZGmkCqm6LSwV6KJksC9VKSIJKQ2fGigl+92p5eda5/zcIcp4p+y65dqOiWCpJh+h/23l12lDbIDOBU2kl5gYYmkCjKFUenhxlA2Pu4DUTWKcWBAckQQ0BVR1Xyq+QVa13fVEEE6uipin2IkCgRSNTek89HBCKJWRJGKStTNr1kEyl5jAio9pVK/ih5w2ZQDjQiaxbVMNaLQGiAFaNCV4lqOQKJ20DiUk6ZcJRM2uRUhySLIBDFiavOUJ38UcoWtQ+/mUCUMsNwlJUpmz6sfHrvjwARSIB2xL2oF6SIMqQgk5aUv74IqDozlfxR8qaRQFgPyrSF7KN2Ok8EIkkg1coc1wxERi4ZSO0MRLUkGcfnVZZK/ih54yYQv5mKLK6ibRFNJ1s+pfdGoOUIRHQWEKb4SThxEZkiaUjZ04OAqkNTyR8lryqBeM0Wqnsj6qBLRPejtDk92tJ4NSECcfWZrPL5GVutDCRqOY2npo1bY1mdqm6pSn6VvKqzoTiISBaLuNvbuFpXu5oTgSgQSJiCO+9lHH3QKIsMpHaGEVdJqn2mkl8lryqBiMxE3GWI2EhYe8Lex9WnJKeMQEMTSLWSiihhXCEsEQOTNZCw9ohM4Um504WAqlNTye81C1CxEZW6iBCKSN386hB3W9OlRemtTVMRCINZRAn9ukPVQMJIRaRuIgYiIie9KtdaNVPVqXrnd/dW3HXx0oQw3RYNjYXJaS0tTK61DU8gYaN2GehUDSSMQEQJLsxIyDhkerW+aVV1Ku78DhpRdEi1LnHYR5htiNpYfbWieUpvOgJpdAOJa6rfPCra2C1Rdbqq+f30qVEJhOwjXfbQFATipVSNbCBBRhKlXelSudaqjSoBqOaPU5dE6sLSyOioiMxqjQmbhciU31raGH9rm4ZA4iAREWVWMRAZxfYzEhkZ8asLSZRFQESngmSq5ndkq+qT6CK1O12YrorKFAl9qUQeZPuU0pcRaCoC8TKWMCX2MzCRy+LCZMsYk4iRhJVHip0+BFQJQDW/G5GwkbsseiJX/cjIlNFvVUKUqRel9UegKQkkbNQVpBAiSixriCIyiUCa00xVCUA1v4heRUFeZIAlIzeKjSSBjUydKW0KvgdSy05ISuFqITeKgdUSWyrLGwFV3VDNLxMeE+lDET2kAZYIks2Rpu4zkOaAMZlWqIbAkqkVSZVBIEkCkKmHSNqk6loLuSLEJoIBpZFDgAhEDq+apiYCqSnciRSWlPNMpLINJJRwTUdnxUogNAqIr1OJPOLDsp6SyNElgz7hmgyuslKJQGQRq1F6IpAaAZ1gMeTkkgGXcE0G1yhSlQiEnFwUyMPzEK7hGKUpBeuv6tm3yhmHNLUtjXUhAklPrwgRiIiBUPgqvk4lAokPy1pIEtl1RPYRT08QecSDY1xShAnEr0AyjLi6wpJD5BEvnrWQRgRSC5T72gf7Dfmf2mHvVZIQgdS3ilQ6IZBuBIIIhBxcvH1HA6x48VSVRgSiiiDlJwQIAUKgRREgAmnRjqdmEwKEACGgigARiCqClJ8QIAQIgRZFgAikRTuemk0IEAKEgCoCRCCqCFJ+QoAQIARaFAEikBbteGo2IUAIEAKqCBCBqCJI+QkBQoAQaFEEiEBatOOp2YQAIUAIqCJABKKKIOUnBAgBQqBFESACadGOp2aLIeB1D5xYTkpFCDQ/AkQgzd/H1EJCgBAgBBJBgAgkEVhJKCFACBACzY8AEUjz9zG1kBAgBAiBRBAgAkkEVhJKCBAChEDzI0AE0vx9TC0kBAgBQiARBIhAEoGVhBIChAAh0PwIEIE0fx9TCwkBQoAQSAQBIpBEYCWhhAAhQAg0PwJEIM3fx9RCQoAQIAQSQYAIJBFYSSghQAgQAs2PABFI8/cxtZAQIAQIgUQQIAJJBFYSSggQAoRA8yPQMgTCLsXzekqlUvP3MrWQEBBAoNpGyDYEQGvxJEoEEuSU/d7FiXeQgquUT4YTZy+1tqwgp6yio2GoiuhwlPJF5IbVjd43DwJNRyBRjMKvO8lYmkfR69WSNBJIHDZCtlEvjUpXuU1FIHEYRnX3kKGkS2EbrTZpI5A4bYRso9G0Mf76KhGIanXiWpcIM4owRQ/KH5ZXFQPKTwgEIRDXuoSqrXnlJ9sg3W1qAhFVcCIQMoS0IpAUgYjahoMLEUhaNaS+9WpoAlGdefhB75Yra2j17U4qvdkQUCUQ1ZlHkI2QbTSbtsm3p2kJpJbKnZSRyncn5Wg2BJIgkFraht8Mph51aDbdSEN7pAgkbMTvNEhUOVQdr2p+lQ4QxcJdRjUuKmEBlbwq7aa8wQiE6YWobcTleFUJSKW/w7AIsg2v9qtgJ5tXpd2tlLfpCKQWiiJjGNXK5K6fCgESgaTTTMN0Q1Y/VQmgXuHYMBy8es8LG5X216vt6dTMZGrVsASi4nxVoIxiGH4jrShtoAV/ld5LPm+YftSSQFScrwpSYRj4yY6LQGhwpdJ7cnmlCKRadBQH6Jahkl8lrxxE5dRRDUOWQFh6P0dDBBK19+qTT9WJq+RXyRsVLRUbESGQINvwC/uJ5Ina3lbP11IEIqvcImsWsgokEsKKQiCyI1vZelP6aAioOnGV/FHyitpIlAFOGIJJEQjZRhjy0d8TgYRgJ+LwVRRUdiYlmz66alDOOBCI4sSDZukyuhalbFEC8RvkRCkzDGdZmbLpw8qn9/4IEIHUmUBY8TKkQPHdxjJnVWemkj9K3jQSiJeNBBGpuw0yhNtYmpWO2hKBxEAgqjFWUQIRTZcO1aJayDo+L8SikIAjJ0reuAlE1TZk2xKlzaSp0REgApEgkKDZQrUY2ZGPyMyCCCS6otcrp6pDU8kfJa8qgYjYiKxteJGI6BpM1LLqpS+NVm5LEUhQ58g4Zxkjc8oMU+Sw8sPeN5ritUp9ozhxNzYq+VXyqs6GZGwkzDZEZyFxt7dVdFSlnUQgNnqyDlrGQERIJKz8sPcqSkB5k0NA1amp5FfJq0ogIjMRdxkiJBLWnrD3yfVy60puOgKJGnNVddCihCK6+CeqkiKGJyqL0sWPgKpTU8kvEhaVabFKXUQIRUSXRe0sqh+QwYPSAg1LIEEKKaKI1Z1fKwIJUmwZ4yADaQzzjdvpyuq2avlxhdNECEREp0VtRBanxtCm9NWyKQlEJGQUN4GITPnD6iVqHCKGlj5Va80aqTrwuPOH6WBQL6nWRcRGwhy/iI2EyWhNTUym1Q1NIGGjGhlFUp2BiBiHiPGKGAgRSDLGkIRUVaermt/PRmRsw8EljrqEDdxE6hVmIyIykujrVpTZ1AQi42hFCMSdRkRJRWSGGZSfUoqU34oKnbY2qzpd1fxBgyxZHRKpC0sjI1dEpqyNyJSfNn1ptPo0PIGEzUJESCRoRBN2lYnofnS3YoQpOI2wGs2M/OsbxUG6panm95s9iMyGg+rhZ1cygyyVRf4og7Pm0ar0tKQpCESERKJCHkYgsnLDyEOkLSIyZOtF6ZNBQJUAVPOHkYBKq730MGzwE1SejF4Tgaj0XHx5m4ZAwkZaUSCrVmgV4xCZCYkYu4yRRWkz5YkXAVUCUM3v1RpVPQ7S5aiyo+h1EtjE2/vNL63pCCQOIon7rIYseQTNQqIYWvOrcXpbqOrkVPMHIRPF2Yvon6xcEZkiRBhVTnq1J/01qyuB1BKepKa8tZRLBlJLjYmnrCQJIJ4alqUkVddayCXbiFsbxOS1DIGIwZGOVEmRUjpa11q1SMp5thaKfVtLuKZDA4hA0tEPFbUgAklhp0SsEjm6iMCFZCNck8FVVmpkAiEnJwu1WHrCVQynRkhFTi6ZXiJck8E1itRQAvHa1x20SEaxyCjd4B+Hdt4Qrmq4Jpmb2YPIjj3qw3h6gQgkHhzjkCJFIGEFkoGEIRT8nmYfavjVK7fIriOyjXh6h8gjHhzjkkIEEheSMcghAokBxDqIIAKpHehEILXDWqSkWAiERlciUIen8XJEhG04bvVOQSHd2vWAV0i9dqVTSdUIhBIIQUYIEAKEACFACHghQARCekEIEAKEACEQCQEikEiwUSZCgBAgBAgBIhDSAUKAECAECIFICBCBRIKNMhEChAAhQAgQgZAOEAKEACFACERCgAgkEmyUiRAgBAgBQoAIhHSAECAECAFCIBICRCCRYKNMrYCA1x1XrdBuaiMhIIpABkCJJaYTz6KQUbpWQcA59Uy20So9Tu2UReD/AYBKE33t/XR3AAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>tv49k</t>
+  </si>
+  <si>
+    <t>tgxtp</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dB7gV1bX+55R7L6CiQeOzYUFRFASSqCHqs2NHfDwVu2JB0aixG/MSfT5NgjUaG2BvgDGIUaNGY0nsBRsKNoyJxi6icrmnzLxv7Zk5d87cmTN775nT1/EjN/eeXdb+99rr32uvXQzLsizIfPypDJlM8dO41Zaq6/OH+HWolFDn6lVE5bSMACPACFQVAYMJRA1fJhA1vDg1I8AItC4C8gRSZwwSN9yyBcqmqzM+XD0jwAgwArVGgAkkaimOCaTWOsn1MQKMQJMg0DQEUm08dXlCNV9oetWCqg0Il88IMAKMQAQCTCAOQLr2WzUfEwiPSUaAEWgVBJhAYhJItRRBlZiqJQeXywgwAoxAGAJMIEwgPDoYAUaAEdBCQJpAvDNiOjpiGOHR56jvtSStcqakZY70IEIS1Om4TZXR5eIZAUagFRGQJpBmbXzSxCCLAxOILFKcjhFgBJoVgXACibSAyTQ5rBrZmXiNxCxrbC1JqR7tS6ZnuRRGgBFodQQiCcSCBQMGQJbMa9XpBhR3GYtWs+g796cfNf/33t/dlTDfilgsAvHLGlJHZOe6QniFobL8q3emBwu3UIIsYqlPJBWyOuCVrRMG1EPpddsS2VhOwAgwAoyAGgJyS1gmgKIJFEMKF4SQcgiEEtMn5fw0nb97vnfTUxL6R7+7P51cUsY3SByXPAoewqOyMyEGuRJeVBaV4zaJ5KRy3Ka5BEA/vWlkjTyVT/ncf5UIpFSmBaQNG7OoQ5BqusCpGQFGgBFQQkCOQIrA1hsMQycZU8+nkDbRk82jkHKtZ++XhmMMrQpGrmgAhVQKr8yfj6Jj4dNIwSiz0ErtETP6BS+/iiP3PRCZvCls7CprrIZZ982FscIAOcPrkJD59bfYd7dx+OLfnwhHYblVB+GO++di+UEr2UI56eY99Qxef+5FIXk+DRx2/JQ+hBjYCoegfrLRJugsAmkHRsKM8KOfmVQanf26sNzAFTB47bWx4YhNsO3OO2LdkZvadfiIVxEtTp4QApU2lcStQva+U5V6/PLq1iFbjjedal2q2KqWr4Ibpy1HQIJATDELH7veJujKO3bTWZr5rqsHy41eBUu7cjBoGYcm0w5hpCzg3XffLfvd/30xBfSkU3jtqQVIoxMd6BT/ZQSZeD9kWb3T/grdSGIUgZsv+h1uvmoaOoq2TLtNnIATLvjfvh5EUFFUXQG45PSf46E/zBU7zpalLVw24xqM3H5rWxTXWygCMy68BLOvuk6Q1bIM8PjC+Qr1mNhm6MbonweyDnheAnGJxBXTShkowMImPxyFU391NlYbORxIs1rXGwFVI6cibzUMYpC8qvXokIeYd0leAO5ipIutaj0qfcJpbQTkCKQI7DxsNPoV7NUWd3npu84efDpwCZZ29CBtplAs5GAU7Fk/2cJ11x+CopGCZbgEUP6T/p5L0fcGDLMD99/yZ0Ee6dKalqAcp6/kCMRdrcoUCjjsv/bD+68vELN508jg99fPwIittwKoTortBG1Fdgjo5Qf/ijOO+akgIPKUxh26P4459xe9S2EeArlx6qW488oZINJcmrbwyDtv2OmiDDs1LWdihw03wYAckCavI5sGsulSq4vFIuifcDQsiDpcIja7sjj38kuw+S47sidS5xGta+RUxE7aIMoSQJiMsvll08nWU0/MVOpuh7QSBOLMtin+4Y9spwuwUkWYKICWnq6++GLMvGqGMHQ9GeDpBfNhpVKgFLaFK/9pgv4zxPc5FLDrIbsin86haJhIUUxFhFbsQIHh/u54OFTH3Ovn9gkEEDEQAZHt/uCTt3HI3vsgvdREV64Ta6y6Dubc8yDSA1YIXspylqSKny/GgWN3x9LPvkIRFlYbsg5m3Hc3sFynQ7uOajhkYxPINGHcuzPAw2+TB5KSJpDth26M5fKGWLLa/7jJOOCUk8oJIV/AVx99hFeffwn3zJyF+S++jEzRJsBi/w7cPGc2Vt54Q7u+Ptu21Ag49q6vUgFq9WoPNuX22nJZllHxLJO2PBUy1tqQyhCOrkwq+VTSBsGnkj8Jz6oafd+qZcoRSFTrHUN609RLMbtkSFOOIY2eiRdQQA960C3+twcWivbOL3uol2/+cv5K346bNE4Y3UCls4CsZaAjb6F/3sCAng68//YH2Ou/98Mvzj1fxMb9ewLI/nYAOOvEE/HkfQ8hYwJmNo0b7pqJwcOHI+eriNLTv2kXX4q7rrge2WIKPWkDjy58U4lAXA+kYFjY9/jJOOz0n9kF90Jg10wCF03MufJazLj4chEzofYP+/EPMXX2reWEVcJFzZC3BoGkyic7ZTqihkeU6qt8r2IIVcpNeuYeRTyq7VBN72+Pan4mkSS0R66M+hGIZ6Zq848pZvuWMO3lm6Ys8Z1tE+zhL7ucZaETBg49aCLemPciBm+wFr7rzGFp1hIeUkEEoQ2YpikC4GSQO/MWOi0L2SLwzrvvYvLJJ+CwAyajAPKkyif49uYxC9On/w53X3abIKmU2YnH31wgCIS8pxIRCiPmi+U4S1iuB0IxoX2OO7ovgdg86vKpiM/85pgT8eQDD5W8vTufeBgrrLOGnSax3VkKsacwfZNgJJkddzJpSiK4ikI/A3b4yQ2N5FOpGsLkJQiZbFW4VUJGhqQJJy6BiCHga1OUjDLt5DR9EWgIAhFi0RKVCLAAuS++wsvPvYBPPvo3crmc2IG07gbrYuiokUCWfASyxRQQ8G5ndX73ttFZkvrsH4swYfyu+C7/NZZ1dGPg2v+BWXPnIoMBJS+EJvxLcp+JXVdLFy8WMZy1hg4RQf5c2p7pCzGdHVJENuShZEwTncUUBi7rwgcLFgFWB55/8w2RzvZw3KW78h279PcMTOHxbL7hJiKITgQyccqROObkU/p4SPZmqxQ6kIVRSGHR357DcQcdjqxpip1fZ1zyW2wzYVyCsZCEZuoSBCI1MP3Lp5UyWcDoEWOcFAXMe/15+5hSYsQqJXGfREkbtTg7m3SNdBKxHlVjrotbkvjo9Xjj5koKm/oRiN/QF4FP33xbLAc99dgTQKEoZtf2HJ9Gv4n+KyyP3cbtiWw2i1tvvEkEt2l31N8X0ozfmW36l26ICSwL9992O357zjlIWSbMlIldJ+6DM8//X7EsRX4PeSonH3EUXnzs77bZHzgAd9w7ByuvvlbZURD6jqoiw7/ZRsPQSbEIy0Q+U8DqG62DZdkcerJ21McmnV4CIY/H9XwopnPf9fcgC2DUFhvZW6RTBg449kgcN+mUkrfjtb+0Q20FrIDOYifw+RKM/dEYdBVMmGkDR5x1KvaePKl86UtFf/0GOiljG0IgsrziOhElQFy5HH4bPcomitK2cXI5DAvzXnu64Q5d6hpCbzfqGHAZgy2z7KMqv46sZWbB2a2lWq9bhm4+lWHT6GnD+kBGJ2TaVl8C8exk+tN1N+PyC6aio1BExrIDyrSk5S5XpUVkxCp5ACI+YThB67fmA9lU+Ozb2Zb788OOwiuP/10Eu3PpFC6/fho23G5L4fU8dscf8Ouzf4WOool8Cjhz6gXYdt+9gw2yU952QzdBv4I4ZYnujh7QrrRvu5ahJ9MbXbH5iwL7aeTSJp5/Zj5oNzR5E+MP3RMdFKcpmoJAqM1Ls7ZstFVXLK85a1e0xJYpZvHwTX9BF9LoKJj48SYjxNZq8lwOPvmnmDRlCvL2/jLnf+VZwD5SkkKWPBz3UKiMBkWlCWMKZY9ii7KNFIaz5fml159yXEOPIM7ZGOEtRslXw+/jGLQ4xljWWETJpzpr1ZHZK2vS+WVxqKFKJFZVtYkiTND6E0gB+OM1M3Dt1ItLZzbIeK6zyTCM2vxHGDRoELq7u/Hh+x9g3vMvYMnnX9pLR3S+I0UEYuJhl0DCts06S1ndH30qdlflF38r8Bi05hq48f65YsnqoN3GIf/tUmGMt9xlR5x99RW95EEzIVoucz9UXgHYfsRodJHnkMvBsAoopkwsS+eBfh1CNvKQeu94SSFvWHjqlZeRc2IhZUtYBUuknzjlqMAlLCqpgDx2PHQHWKk8OgspdBZNgQPJvDRLAXybhNxlNsoz9/p77Bm6I7vfngd6OHB2m5VNB30qFMcy+2MULkwARo/0eRRO7Gjea8+qsYFPPlmPJ7ERHVBQlIEOHaQx195UDGeYjDqyxyUAHU9CtU4VbKqpG7Jl14soGpNAisD7z87D5AMPRUePfUqRTnufM/XX2HAb58CeK7mY6Fv4x3Mv4orfXoS35r0mgtI0Y48kENdAFYFn/ngvzjn5NEFWZGh32WcCPvzwQ7z21DN2/autgtvvuwfG91fsjdXT+QzvuRHXAIpdUcDMCy/F7VdPE0aajPgDC+YDaccjsjxXubiHVDy3vLjnQJYr0PYBo08Q3Rs8ph1qS7AEFrpxz59n49e/PFcs3RTSwI1334X1V9vYORxviU0B9NnziHE2gTgW1I3lBP3uejgZsbBW/vFvW/DePWB7L3R+h/7r3QFFdeVREF6Uvb2aPJwMrUZi9Ajbo+iVxxSe2rzXn7Mr9lt8VwA3FuWI18sTlWM29hyiFxfZAZtkOh0jLPpOMSCsmt7fxigjrGp0k5ZHpn7ZOqPa6sdGpu4kdKbRiKLxCMSZxZ88YSIWvviKWFbKLN8f191zF743ZB3n1JzPWjh3Rt069VLMumqaMIrSBEII2KtNOG/KiXjm/odKhwSFd2FayGcMXHjjdAzfZsvoWIKHRG658FLMvGqa2MW1LAs8JE6iO+dA3EV89yc1ybuO7zlISJ4EbeM99LSTAuun3WgmmeTuJTh4t73x6T/+JQzwoMGr465HH0F3TM3NCw9nJxQy+T4XQbqEQ2RAyu3+Th4OUUcXBqAf+qGTlsCc7WrFDLD2mCHoyfYIyTrznVhh6UB0FrKI61EIjvFc6NnXIUpoE0BMTL3ZZY1aPfJUqtP7nY4B1Wl3vTEINZiK3mAUXs1CFI1FIM6S0lvPvogT9jnINuQp4NgzT8Eexx5pR6ndj3cmSv+/CJQO7sFEdzol54G4s1oLKH76FQ4euwe6P/2ydOcULR+NP/QATDrvf+QvXvTLo3mQ0D0HYu/COhoHn/azvvEcBwfzi8U44/iT8MZTzwrCoh1iZ15wLrY9YN9y3DQMH3k4X2MJlmGZiIfYkNk/vQbancmTSHsetieyZhZdPV34+J1P0JXrh7SZEd4FEcdKG69UIpBMsQMP3/YQMmJjRF7QofqHtlzTf1QKHRi1/R8mkF4k4xrsIK+nNBwVryEJKivKqPp1QrU9qunVdVA+R6N6OPItqJyyPjEQx/De8NtLcOfV0+11/P5Z3Pf0E8CgFcNPcHsM9mxnxi9OfkfFQFzycLEoAA9cOR3XTL1U3OFF8Vj6RxclLjd8aLAhDlpEd+QpO0CZpZiM3kFCEo92YU089WeA4dxe3P0dCt9+i0VvvYcXnn0Od98xE99+uViQBy1djd7uP3H+9dfa96CIOI3MzDv4fId9p0BenMmhxSb7Usu+BDJi9Kg+Bpvkef2Vl0ueiYDcs4RFv+eQw46H7IhCOmcvXRnkU4Wf6rFvG7BjOL0fU3g8ncLbCbs7LanhkWw5qoZNNb0rrW4+b2uDDJ+q4U9KHtn2NMpsPo4czUY49SOQAnDCPgfg3efnieWrIZuNxGV33m4v/dAyetBbGgEEQktYjxCBRF0d4hIAxQw++wqH7Lwnvv3kC7HFlzqNCGTY5j/A1Nm3oRQCKJ922+PB/7cioE0gtNSTN7HjUPscCBVNZzrIG6I7xOwPGXOytSlhnDO0km/ZAffNtt0K511xGTBwgB00qEQgirueqLjRm24Bw0jbfeGJocx79ene92G8S3IRNwOTh7MYXwsicT8VCQTAHpP29MUAaONAGp35fnjwtgdDLt9M1vAnVZqsIYxreFXrCWpfHCPoLy+uPKpG1Vu/LunJ9HmSGMnUp9JPYgKn4S2qylEfAnG2wU7cent8989/C+O90z7/hZMuPN/2PsIOmgcsGUkTiG2Lxe6p86Ycj2f+/IjYzUW32woDaVooZAwcfdZpGC97nkJlCSto+xPJQwSy4TD0z6WEEyG2/Tq96L2mRfzdIZYBKw3EAZOPwH8ffURvrMTJF7o5yjmkWVIQjzyjNx3TJ8hOYM171dn5JLnjSoR5KqT1ejiqiupN7wbt7Yv/6Z+9/U7qtHodt2OpGlLV9HGJJyy/v69UDZNuO2TlCdMlVTnDymkEoogzXqqZt/oEQht6grbw5IHdN/0hUt8sFUZzwlGHY9LZp1eOP/gMNi2biCC6zOWFTt7Hbp/tnPewjfV5F/4GN9xwA/7x+kIxgy/068RNd9+JVTZaXy6Q7o3JVIqBSBKI/zbedDaDrq4uDFplZaw9ZD1stuWW2HaPXQF62yTqtl9Xc5yY06gRmwuPgj6BHoX4wqNuDinpRCoSV1oPfsLR8Xo+tNOt4LnZjL4U39MyoLMU6MXC387EhQ0uUNWQqqavBoEEkbKqYdZthw6BqMrm7SkmCvWBUBMC6XMuTcy8gV2Hj0bmu2WaBDJDxAGWUswhikCcHVNfL/onDtt9PArfLBVLRNvuvjNOv+IifLxgIY4avx+MZXkxy19nxDBcMWc20M+J5octZal4IEF941vCoropiH4gxUD8y0FeGbzfOeRgT8FtAkjMo7CAPB1wrAKD+LcTq6gucSDdem+Ih8xSQKEA9PQARYdEUrQDLm3/y2TE9f29H5kYkYo08mlVDalq+iQIJKxOXVkEVytuQ/YjGjd/VHmluUUNlnzktaU5UlaHQMwOfJPtj8cWPi3iCbS7SNg35+lw8fJeHthrzHgs++RLYbTH7j8Bp15wophVu+n9EIp8Jj3gdDNmX2lfG78sa+Hxt/4mPJeyfJ4Zq1vfMRN/indeeFkQz3KrrozZ989BehXb8M68dBZm/O5KZCxLXLJ48IlTcOhJ+wv75C3X+x6HV56ZV00vbeMNlCdAH1y5ttlwa3TmLJiplCCQI087yI4DuaRBE2rvjNstywQ2HbETYHaWBa9fefXe8tqcvOKQoXPtWJB6uuPHHe9EHIO+tzMsq6v8iWKR2XuYRf53miHSHizDsuzXgS26ut++rr/8IS3njIhZFI+glL6nq/2Nr/DRYrqqxHnhzDSx/brrocO0r5ChVy570mk8+d57NokwgUhZo0qGOk5QPS4BxMkfR24Z0OLEZ2TK103j98SqhUMyBOIY9psvvAyzfn8tLHNFfJUajKcXzhI7hewT2b0fWuunnVcHjL8Yi+YvEF+MGLMZrr3laHGNiP+Kdpd4iDAo71UXPYvbrp4hGCmfNvDiwunC6HsNveeIgMhz3eUvY9rlV+Krjz8V6exLEuleLDrTYCFTTIntxF1FMmZ2MJu2yNILg7b8fQ0m3YFFZdN9WP3y9r27Oee+qzy9gyKykMGjOIt3h5SNBeWlW3+7igayRXtz7NJMB3Kp3kCQcCrSi7H2mnkYqcWwnOA6yVi0lsMHH6bET4OOvtNHPN7lYQnD9ODpdJQEAZC8qVQ3vvjyQbEKpPPx9kFZ/zuxKHG/lft2veM9uV6U+3OnDTYRHiq9D2OKd2KojYTFd6UL+fPpFB59b1EvUVRawtJpSEJ5VA2hanpXTJ18jWoIE4K+asXEWTJLQijZfquWnIkSiLsbiQhk4eddWJIeiELG3jHkNcD2vU6WuAeqX87e4UMnuMlo02WD4QYb6DBN29A777N7DTaRFRl1+2PvWkpbdvqOgiXu2FrpP76PcftOwNnn79LH01n0BnD43sfC6CmIgOzg9dfDLff8HKn+zkXBPiJ0Ce2ay57Hrb+fLgiN5Hnu1emw+vUSmog3uAbSozXi8GQRGD3sWEEkRA6FbIe4C8vFyyWQ+fOnly9rOWXSVVzFiB1WYYY8SoGJOLIZO4xgkxJVRjsPVLZ0BdRC5ZgmthmyPjJWsfQWfJA8D731VpSYQCYNdHTay1UN/JEd7I3QhDCDkwQ5qRozGdxUy2wEjKNkaIZ2J0Mg/vMQQUtY3iAoLWVZwF/nPI0LTjyjtGx0/u8uxhbjNoeV7n1bvc/MNQ/cdOHNuP3q6eIrOvntLhmRF+IGh8kdSNMM9xvg4D0PwqfvfyAuY1xx8BqYed9MpJcHTF8QOl0AbrnkDtx4xVXIOpc1Tph0CCb/4qi+S2Ri+cWe8N854x5c+38Xlg723f3wAxg4ZIC9JOPf/eQ0aOSmewgPhHaCUV02gZg44KhDMPnUiXJLWM6yoEqIwrsEJ2jW6RfvW/b0dzHr9wer/bGGCiNg7NCh9rd+j4j8BgpbGGk8/u47QIoYKmooRXxPHgeRrq6rFLN62eyqxlc1vSuHaj6V9DpLISrlh7XBi3ErkEUzkIOMXleHQMRupAovErpk8m0PJvx4a+S//EYY25XXWh3T/zgbmVUHeW7/cwInlCdXAN3aO+2yK2AsXSbylJ6QzdIDTo7NErNle3nk92f+EvfPvEt4InRVyRW334wNxvwo+OZessTdORw7fh/8a/5btmeUTePq227EepTHv+vJ8QJeevgJnHXEceigk+Ep4PATjsXEk6aINmxGZymsVOn1wELKEB7WvFefKj0QstWGm4llLMso4MDjD8OkU04Qdbn3b3mv7CgNMF/vBm3yEvZbYJGQ5yBiDesKLzCKtEqeQwCBiJiEG+DuE6OQUdvmTJOEIY0ynqoGvhYyCT0MCaSHGVJvO3VkrJeGyBCDGJJxvfh6NdBXb+IEQjEQepPcTyB9tt87XssD19+KS8/7NToL9lr9oDVXw1EnHIefbLstjJUHAT3d+OTd9/Dko4/j7jtm44t/fyKMMc3eyePwEkgpTOGUPe/Bv+KsyceJGT7FJPY5/GAc8asze4nAP/N1dmt9+NqbOHqv/ZDOFYVXMGitNXHjA3c7B/YccnIbRGc3FpvYdcx/ivT0njvNsE2D1uyBx15/GnRh4scL3sITTz+JfY93zm5QRziXMW43dAT6FexZ/8Qpk4JfJIyjMOQ55HrKt7oGlFfyGkLqyqfSeHTRe76gtKZg4jGwgG22msW52aTOggQ9HR+zXpnsOoZQlhAqGa5KxkpHpkqEEIaDLFEEyaoro0yfqKSRIYdWIQZZXBInkLA30e3Juuc2VDcuUAB+ceQxeOGvjwtDL+yquAo9JQLcllW0L9RwSIO+X3HA8li65BtBIKWDhO57IA4JFD7+AvvvQbu8Phdlrjp0CGb86Y/AgI6+51L8S/oFYNYl1+CGy68Wngvt6hm739445Tfn2NtkR24m1r9chaJlqH55IJUvih1FRG72riETRraAgpkvLW899s58WGn79LuYxud6T6LTm+j0pO3hZ5zsLP1QvMFZp+pzBD5o3SckNmGa2G7d9ZClHU0hB+5I8f/y9tuV9UYz1iBr1GWVNol0fSY0SRQaUYauIZQxXJWqTjKe4dZTidjiyFsvApGRud3IQWZI1IxA+grjsIV41COHi876JR6a8yfxRKvY3urcpUQnxekGWCKUlVZZGaeedQbeeXOhuD6dPJbCgA78+fV59oNSrk0tAOccfjSef/RvoqxiRxrX3DUTa40eHnxJoRun8O4E6gG2GTkGnWRz6ZR6CmIJrDtr4oX5z9oCem/VXWbi9GN/ihcffRydpuGQiB3XoN1DRJ3dWeDRd+jaFQcNH4GU3kQ/7USAjL1ZsM82iPMNtEPAu3Bkr9eNHbp+YD9794z12aXkz+GPsodF3aViDcHnLOxbr+yHtGr6qQdThDRQl0AEbpK3wMoe/IsjSyUScScoQRDItCFpApGps5LMNdXVJqwsUQK57iLnXQyKHWRS+Bu9iyE2+wch4zE0NMjzFt577iXc/4e78OKzz+HLz78QmVZYcSA2GLYRttp+e2w/fi+gqxM3X3QJZl09XQSAu1ZfGXc+9bh9FxYZdAu457bZuPQX5wlDTgp52HGTsf8px5dfkugx/uLOJwqgWHQnFt09ZYiy75w5C4dM2K+09LPi97+HWffPQf9B/freiSViLibeuPcBPHjXXCx49XUs+cp+W51Oka85eDA2GDUc+5x5cu8SmhOn2WVDetnQ3n22/5Qjsf8pPxPbf7dZfz1kTEt4Qf5NxC6oD71lb4Ou+An0HCQP1AXsHqtcGRNIGD7VNNpeIxhVj+yymAxRRNWlSiQqBCJDDuw1RBmHeN8nQyBCe+2Zeu8LQZ43yqN22bizRO+OpaCZo1PHVb86D/fdcoe4v2r1EcMw7d45vVegOEtYpTe07Wmv+PeDUWPs4JU4+0Ff2HGXwDuf3CU276oQlRN2YaAggwLQ7cQa/KtJ7kFAJ/9OG2yAtGGUluZSxB4pAzmjCDOTwbIU8Pg7dBDOdxVHqb9dUEOWrbx6IeU5RCuSMpdEF1m9FA3keVSvkcEl6xh1MUxCvJx6GGEmh1prjV59yRGIXv1yuVxj7pyDO3H/w/H2My+I2f3YfSfgZIpNuGfv6LW7TTeDYdnrRN4rM16iW2T9drfkiYi1Kjl5wlJRrGG9dZGlsxIRn77nGzw+RgPuUmo6e9x0AkdpjPz3UQRST6KQIQavNyXfak5ZDwSqQCC+JQw3COx9U9zbUs+01o4U9LorYj2Xfne9ChP45l9fY/cdxqIjTzukgGX9sshRsJ3elnBOXYvX7lzPQ2baTAZf3KXkXI0R0hPeXUpBa80VdylFOgyeBGImSJ6SuPBJ8ZyE5NJUbG2rVT2xBS0voA2IJcpIV8ujiKqXiSFhXW6A4qpAINQqMi7uBVhOK4O2zDqexQfvfYDB6w22EwatyFjAmOFb2NeNWAbSxSIypr1d9sGXngf6eepwl4oM944Mz3di73XAepqzSylTLJTc+CCCiDwVrblLqYxPg95BUVKUWhn2WtWj1PjoxC1KINX2KpgcolWrHVMkSiAlj8Gd/Ych6otT7LXDXmLX0nbbbIs/zJ4pvBD77ij7wE0aFiEbNYIAABGxSURBVM45+0zcev0N+Nf7iwR50N6sM844FT85/ADf0pNjIUR2E+Q1RG0jFbuUFjl3KZURWBDrVVCToFiDP4biZg8xZLrXjoRL1aSGPunR2MTEIWu8o5augiCVKZs9h6SVsXXKS45A3DhFpYA5paFQgwVsNfwHSJuGuMrD/UdBccu0L8yjIHcqk0axWBSXHRpGDmnLffPBxNhddsLd980Vjg4tXdkeT9/YQ6TXQH1JnkNnJ6x0JvJWDTqXYg86ye2oQcF0r6cVtcEgtq4xgZR5tlXHO3aHiQJkDXvc2qq1nBVXLs7fHAgkQyCuRxGw/DR65Bh7QFhAv0IBA3M96CzmMee1l+wrNkzg5B12wmf//Mh5utUGLp/PO7fYWk58g14PtECH7cQtuek0/iKu67afwO27r1ahAxLapSRVY9lM2LPUJ5W5iRJFzvirQ2yR1TYYhDJLT7pkwuTQYJ3dguLEJxDH8xg1fHPxtKj7pgMtM9H5hadfed6GzSGZndajG1jp4aYCYBTFbbTupYLuAUJK3r9/f5imif7LL4eBK62IocM2wg9+vDlGj9sDGLhC+F1K0hakOgYsUkcc+SwoejKRBTdYgsh+qA7+kdXWCSYZoojreTBh1Klz27haBQLpnS2LdXoAI0dsBsM0hKcgzlKQJ1CKb5jYasgQdBYL4nQ5eSC5VAaPLHrXPvQnlptK1jQ4eO7tGDc4bo+y8CdL27gzuemNhYCXNGQOyIl5VotcstdYPcHSVAsBBQLxiOBO89y4B33lPWBH3EBbYulgHV3DYTqzTbp5tbPx322oFthcLiPACDACrYSAHoG4S1J+D8H9XRALXQTovQzQ8Rya4N2GVupgbgsjwAgwAtVCQJlAwrbEev8etW22Wo3hchkBRoARYARqh4AUgagSgvR5kNq1k2tiBBgBRoARSBgBKQIJr7PCNlSZK0QSbgwXxwgwAowAI1A7BGISiJygzCVyOHEqRoARYASaCYGqE0ij7stvpk5iWRkBRoARaEQEqk4glZe/6FvJK0EaET2WiRFgBBiBNkaACaSNO5+bzggwAoxAHATqSCBxxOa8jAAjwAgwAvVGgAmk3j3A9TMCjAAj0KQIMIE0acex2IwAI8AI1BsBJpB69wDXzwgwAoxAkyLABNKkHcdiMwKMACNQbwSYQOrdA1w/I8AIMAJNigATSJN2HIvNCDACjEC9EWACqXcPcP2MACPACDQpAkwgTdpxLDYjwAgwAvVGgAmk3j3A9TMCjAAj0KQIMIE0acex2IwAI8AI1BsBJpB69wDXzwgwAoxAkyLABNKkHcdiMwKMACNQbwSYQOrdA1x/SyBgGEbV2kFPRFfj45VZtw7ZMmTTBbVTFVvdtlQD41YvU5pAVDtRBbhqdXgcpXXlly1DNh0PEBXNaJ60zT4+CGnVcehvc1h+2XRhva2LrWp7mkfbGkdSaQKRETmuosjUoZomKcNeSRnjtlslf5z2qGLH6eUR0DVyMjVUyxCq6J3MxKfRCESHFGX6g9P0IsAEUkEb3AEWNYBrNRBVvSJW9MZCIK6eVKM1ujKp5FNJG4eoKG8QkUeN32rg2i5ltjyB+JVKVplUZvq1HCBMIs07NOPqSTVarmNwVduhmt7fTtX8Om2qBrbtUGZbEIgqicRVWFmSCiIDFbdbheTaQZkbvY2qelWr9qgYXJW0cfU7Tv5GxbpWfVqretqSQCoZaR2jHFdZdfPryForxeJ6+iKg289hWCbZ/7KyqRBIWFyIJ1itMzoamkCSHCCyXohs3CNsvVXFg4gzw5JtT+uoavO3RNZIV2ppmFGulEfGYMsQg6r8ScmqWm/ccdX8mla7FjQcgSSldDqzNlXCSkpWHiC1U/h61qTbz5UmKzLtkSGQoDr8+Xh8yKDdXmkahkBUlDPOQPQOlLABIjvgkprp6LZHBbP2UuvGbG0S/azTMhV9DpNRR/Z6TrBkPCodLDlPOQINQSCqhlBHmb3NDqpPZenKr0RJyiO7BBa3Th4ItUdAt89U86mmj9Jn//cqhCTj2UT1hE57dPJEycHf90WgLQmk0pKA6uBohAGiIzMPhtojoGPUapUnbIIVlzwaYXzITspqrxHNX2PdCUTV+0hCIcMIRNcQ6wzySgNWRg4d3JpfXZu7BTp6Uqs8sl6IjG5GlaVahioGqumbW6vqKz0TiAd/VcV2s8ZVWNX8TB71HTS6tcfpZ5VZtGo9Qe1JMoYQVx7Z/GExF91xrdvP7ZSvrgQiqxhJz2ia1QPRxaudFLqR26raf6rpk5rQNPoSr0ofM3mooKWetu0JhBQs7oxed6CHDfhK3cgDQl3JGyWHqp6opk+KQMJm8m75qjqo2w6d8eHta1U5G0VPmkmOtiSQIMKIQyJJDxBW/GYaQvKyquqJavpqEIh/gqWylFYNeaLQ5rEThVCy37c1gXiVjQkkWcXi0voioEoIqumTMNhhderKErQcpmrk49TNelhdBNqOQMKIIo6SxsmbxACrropw6UkhoKonqunjEkil+uIE1XXbEbc9SfUblxOOQFsRiIyXIZPGDycPEB5iMgio6olq+jgGN4ogwuIiMt6EbjvitEemPzhNfATahkBkiUFH2XXyeLsubv74asAl1AIB1X5WTa9rcKPII66u6rZDtz216Euuw0agrgTiX76Rmc3oLPnIkkeQwurIJJuHB0h7DUNVQ6qaXlefVOpRIRtdeZL28NtLy2rbWiaQELxrQTpJDbDaqgzXpouAiqHW1Q1VA18LmWQnfSRL0ORLR0bdPuJ8agjUnUBUvZA4A0TFM4hDINSmsIHAA0RNQVsptY4hlNX3sBhFmC7qEpRuPpkYChNI82l7QxCIDIm4Cqi6L92bT7V74pKIf/DyAFHtgdZKr0MgQbN3VVTCJk668oTJVGmCVongvO3hCZZq79Y3fcMQSNjMJki5ZBVflQCCukKnDNXZoGx76qsqXHtcBOL0s4oBlq1HR7e9GMjWIzO23TRMIHG1rLb5EyWQWomuqri1kku3nlZrjy4OrZ4viX6WmZzI1hOXQGRWDqImZf7vmUCaaxQwgTRXf7G0jEAkArIEEllQgyRotfY0CKyJiMEEkgiMXAgj0DgIsMFtnL5odUmankBUdla1emdy+xgB/7IS/c5jhPWiWgg0NYHwwKiWWnC5zYiA7JbfZmwby9yYCDQVgbBr3phKxFJVFwGZHViq29urKzGX3i4INASB8ABpF3XjduogIDM+gsplD10Hbc6jgkDTEAiv5ap0K6dtJQSYQFqpN1urLQ1BIK0FKbeGEUgWAVkCYY8jWdy5tGgEmECiMeIUjAAjwAgwAgEIMIGwWjACjAAjwAhoIcAEogUbZ2IEGAFGgBFgAmEdYAQYAUaAEdBCgAlECzbOxAgwAowAI8AEwjrACDACjAAjoIUAE4gWbJyJEWAEGAFGgAmEdYARYAQYAUZACwEmEC3YOBMjwAgwAowAEwjrACNQAYGwd+wZNEaAEQCYQFgLGAFGgBFgBLQQYALRgo0zMQKMACPACDCBsA4wAowAI8AIaCHABKIFG2diBBgBRoARYAJhHWAEGAFGgBHQQoAJRAs2zsQIMAKMACPABMI6wAgwAowAI6CFABOIFmyciRFgBBgBRoAJhHWAEWAEGAFGQAsBJhAt2DgTI8AIMAKMABMI6wAjwAgwAoyAFgJMIFqwcSZGgBFgBBgBJhDWAUaAEWAEGAEtBKQIhG4krfbHsqxEqwiSWbUO2TJk0wU1UBdb1bYkCi4X1gcB3X6UgbJafe2VWbcO2TJk0yUxRnTbItMXnKYcgbYiEGq6rHKFGQR/ftl0YYoX1/DItocVv7oIxO3HStJVq4/9MqvWI5tfNl3SY0S1PdXVkNYsnQkkpF9liUE2XdKDw1seD5T6D04mkPDJWb0IRGXCWH8Nak4JpAhEpmlxDalMHappdGVSyaeSVsU9DyKFSkaKSURVO2qfPq4hrYbEujKp5FNJKzNGKul6nOXkauDb6mW2JYFUmpmoEoJqer9CqeZnEmneIRnXkFaj5ToGV7UdqumjxkjUZEmnTdXAth3KbGkCoQ5UMbgqaV3lUCWAqMHhfq86y2J3vfGHa1xDWq0WqhhclbRhYySKAKLGiEz+RsW6Wn1Yr3IblkB0FDUMRFkjr0IgUWveMkpeieCi8ieJT72Ur93qTdqoecuL0pcorGVlU9E72XGXlGyViCcuPlEytuv3DUUgUUa5UifpzNi9s3ZVZU9KVtV6k/J82lXh69luWSNdSUYdvZMxnjLEoCp/UrKq1puU51NPXWmWuhuCQHQUzQ9w1CCJMtQyA8hbZxyZvbJGyRXXq2oWRWwHOXUNYSVPVQa3qLEha3BVPR6dMSKzeSSp9shgx2kqI1B3AtFRsqAmySiVal26Xk2U0sUlEJWltihZ+PvaIaBLIKp6qzq50pkYVWO8eVcEKsmkW7dMvtppQ2vU1LAEEtbZujP2qKUf3UFXLXl0yIsHSGMPyqQIJKqfdeuRHSNR9ft7IWl5ZOqPW2dja1LjSFdXAtExvjp5VGdYMgoaNdhky9Bpj06exlG59pVEx6jVKo/sGJHV67geRNz8Ori1r2bqt7ztCISgiloSUBkkcY25an7V9PqqwTmTRkDHqNUqT5TX4H6vMjbCJlmqZahioJo+6X5up/LqRiC6hlA3X7VmWHHlkc2fJOm1k4I3UltVDZtq+qQMdtgkS9XwJyWPLA6yY6mRdKLZZWECCehBlYESV2mjiEFGwVTklSmP01QHAVlDGNfwqtYT1Nq4eh13CUp2whfVUzw2ohCK933bEYiswZZVvLgDTVaesG6WlTOemnDuJBBQNeyq6eMST1h+f9tVdU63HbLy8NhIQjv1ymACCcFNdpDUg0BkZdNTCc5VLQRUDalqeiYQ+ecaqtXH7VZuWxGI6mxfxlBXi0Bk6m43ZW329qoSgmr6JAhEdoyo6KduO5JoT7PrTKPL3zYEUsnQVxo0UQOFCaTRVbxx5FM1pKrp4xrcSvUF6XnU2IgrT1L5G0cDWk+StiCQKIKImnVV81BfXAJqPZVs3RapEoJq+jgGN4og4uipbjvitKd1taixWtbyBBJFHt7u0BkkOnni1tlYKsTSyCKgakhV0+sa3CjyqKSvMl6Ibjt02yPbH5wuPgJtSyBBiq9CNmHK7f5dZmBR2rgEFF8FuIRaIaBqSFXT6xpclXpUyEZXHn9/qMhXq77kemwE6kYgOsZT1cDrGOdq5fGW6yUXnfpYeZsTAR1DqJpH1cCrlh80bmUmSzL1UBqZiZ1Mfc2pIc0ndUMSCMEoY2S9cMsonqx3oGrUKxGb2xYmkOYbHElLLGNEo2bf/rER5QmHpY/rHai2RWZMMYEkrXHVL6+uBFLJC1Ftup9AZBQ2rI6kPJ2w8mXIkWdZqhrQ+OlVja4MOci0OkyXdOUJG7c6m0388stMBHlsyPR6bdLUnUCSIhEZAlFRPFUCivJCwrwl1XpqoxZcSzUQSNpgy8ooQyAqY0PXe5EZI0wgsr3aGOkagkCSmGklTSA6syxZMmQPpDGUv9ZSxCGQOGOkWgTi13dZEorr4cvWU+v+bcf6EiOQWoHXajP2VmtPrfSA6wlHIAmiaiR8W609jYRtXFmYQOIiyPkZgQZDgA1ug3VIC4vDBNLCnctNa08EmEDas9/r0eqmIRDVddN6gMl1MgL1RED1DEg9ZeW6WwOBuhOIzM6MSlBzQK01FJFbIR/TkMWKx4YsUpxOFwEmEF3kOB8jUCMEdCdZTCA16qA2roYJpI07n5veHAgwgTRHP7WjlE1HIDyrakc1be82yxIIj4321pN6tL7uBFKPRnOdjAAjwAgwAvERYAKJjyGXwAgwAoxAWyLABNKW3c6NZgQYAUYgPgJMIPEx5BIYAUaAEWhLBJhA2rLbudGMACPACMRHgAkkPoZcAiPACDACbYkAE0hbdjs3mhFgBBiB+AgwgcTHkEtgBBgBRqAtEWACactu50bLIBD2RrdMXk7DCLQDAgYAixrKp1jbobu5jSoIuCfAeWyooMZp2wmB/wfSMO99ojCmGQAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>k73zd</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19B7xU1bX+NzP3UjQERbE8uy/mJWqiMRYUe3n6kGDvAopRmg27xhJ7jQQrIoKoGMWSiFhiwUoRNb48oz5josnfWJ+CFeHemTn/3z77nJkzM6fseu7MmTX55YdzZ++11/rW2uvb7eyTcxzHQcin/o+5sEKp/K3stZI33JqmXB8gQ8AYFgdA075ItG3JNexeEkcIEALWEcgRgSgSk+GMb1icFzgs2SvaRwRivfNRA4RAqyMQSSCtbphZ/W0k4loN7RCIWRRIGiFACBACQQSIQBLjIZ0lGyKQREdQAUKAEGgyBJqAQNJJ0E2Gu0F1fPx8kaaXrAyqSqIIAUIgUwgQgbS8O4lAWt6FZAAh0KIINAGBtChyTa82zeya3kWkICHQ4ggQgbS4A0l9QoAQIAR6CgENAqkd4TpOCbkceyii2dbgxUfi/iMx3I4y2PdcrhDrG16GPwwS/O+w76adXN+eqHzVeqLyqRwhQAi0BwIaBFIPUHyi7rmkJU4gtRap1rMbOD2Ho127SDohQAi0HgLqBFJz7lTlOYnmTNCqLmy5xF7xX5wfVPyqiiDVIwQIgVZDwBCBVM2WTqQskcVdBxJ60YokzKLXjYS1Va+fqCxfRQH92WUy3ipYqGHu76ZXBn3eYPZE2kQEIhlpVJwQaCsE5AnET4jBxJgD3Dwrk1zrT5/WJzImUCD5CnsrLgEH2vrko6/x9ttv44vPl+Crb5eiI5dH3++tiPXWWwc/+vFG6NPXS7gVWyNG8GE4CSvrFQwjr6R2k9pwgMk3TcPMGbNQRh5Ovoj5C56IJ/EkmfR72yHg7/tVxknhV+q1JC5Zts20Q5QJZPCg//Q2zEsYPuIwjBk/qmETOXw4DXR3A6dNOAevvPIn79I/B/vsPwRnnDmhWqUMDN52DwAFwInO/nkHKOcA/9/QNnNFzFsYniSXfVfCC8/Nx/PPzcPLL7+KpV8tde1ghwH4bIq3Xc45KBRy2G7w1vjlsUfjBxutHTgvEDJSd4Dttt0DOSdc/1h96zfkc0x+CfMWPFnXJtNMcmrCCOTGOzBzxn0ugSDXjXkLH+UEIjMAMB2JGZOnm4Tq6zN46u89DSujCmPEnaquONl24mQF9ZOVm2SbaLtJcnR9lyQ/S7+rEYgD7LDNUIAlx1w3jhh5KMaMH9GQgPjJrNpTTOUicPbZF+PF5xZ5Sb+EPffaFedfeFq1vjcjGLztXsiXO3g7ER+W8/yBes2kKFeodLhyvhvzXprD5Qf3bhzgjFMvxIIXXubZ0ycqN2HXfQIklsuXMe74Y3Dokfs25u+ytx7FCGTQnig4vUIJMKhKmGksiH0iQ64I14YFj3NbJTmjRn4EgWjLzVKvMGCLThISIQ+VxB5nVlTy1UnySQldR3aYLUntibpVx3eibWSlnAaB/AJwOsCS2xEjD8aY8cPrCCRkaccBLrnoOjz2yBMoOB1wUMKOuw7GJZeeBZdngiPgMrDzjkOQL3dWRtl8phGdev39FzZrKJfyKBa5DuV8F+YtfJgn+zoCOfXkX2PR/Fcr/uzoKGDjn2yMH2ywIfqv0t8luQ8++gSvvfIaPvnkUzjlAnI5RhLdOPtXp2HIPrvW6h1Yutp5x71djPIu+SRRBlehMutxOtDVVfRGf0WUC8tdApGdcDQSIXDLTXfirttnucTmEhPNQIz3Z9UkJEoerUAgfjxHDv6k1ryTXUQEkoyR6RKNBBJzq19lg7zMZiBJBFKnahn47bW34r5Zs5Evs6WTMrbdbktcdtUF6OgdYVb9PohYDnZJ4s5pszHlluk8KReKeHEBI5DgzCLvljv15POxcMEr+OlmG2PffffBLrvugF596qY1Xrt/ePAJTLz6BpRLOZcO+q7Yidl/vN8tH7r6E7YPknRowFUYmHz97zDzrlkcmFwRew3dFb86f4LEMlP03oy/hCVHIHZPzeleJqlb33jHqkuOIslNhjx09RUlONFyUYQmYreKLTaxkrFZRfcs1ZEikIrhZWCXrYago5xHwenCiBGH4vDxRwH5Ujg25QLunTIDt992F+CwGQXwsy02xWUTrwT6smlFRL1YpKMTZGnxNzh4/xFY+m23K4EtkZ18EVsi49/5hxFIAbdPmoytttoam2y3Jd+PYctXbIZR/2EzH6cDsybfhenT70DB6UQp14VLrjgXP991cGOd+qNVPnGwxMLWoCqrcnXrUQ7w5OPzcNH5l8Mp55HLO9joxxvilqmT0NkrPvSETsAFlrCyRCDN1illk5DNhBiGjah+1aVUMYRF5YpJCy9lG6s0bNCxv5nqRi9hxQ3pisCQn++KFYsO+haXY9Twg7HzuF+6I+XGN+Hl8ed778d1E2/09jLy2GSTH+OUG64F+rI9FEYEwU3opJFu/e913508Zl9xDR76w2PuBnahM4db7rsbWGMA32lveFOfl8ArGymMzBiJ+Bk+IJ8tRX2yBMfscyDfHEfZPTyw5cjDq3L9/ZPKnolXn30v5IGOTqCjA+go8O9BVkYe77z1AcYeezyWL2M/lNFvQB/cfsdUrLZ6PzAOE97nDnBgTT1lAmmmsG1+XYJJSGQUnmbSst2WrO2y3kxTf6abiP9kbchKeWUC2XvL3VBe8pVLIJ1Y7o7uyxUCyXvr/nmUUeD/7W+E50puuTzYvz558BkBH+34sxE/uSYQRoAQqu10IFcuuAnXnXXkmMyie1qrkUCq8vkI3s+8te07Tg4F90RYATn0ZhsrcNzZynKU3RkUl8P+xkX4p7iq8kq5PJYXCnjkjb9w8sjXzj7Ki7/FqJFj8OknS+CUc8gXHEy64Wr8YMtNPVKrmxkFZzmusd7ny2/cE26ffvoZurq70e/7K+LfN9gQ62+8sUted984FXfewfdAGD6PvfQ0lx+cCbqsY/IctYEuw2ZvDLewUwRNtoZleoPYAHotI0LmRJhOco8iOtsE1TKOEFA05zglr+sJHu3x9iWCS1gjRx6Gw8aNrCYgb7nntWfn4bxzLkaxyO/JWn+DtXDzlElA/xX4Qr/wcFrAEq/Ni04+F/Pnv4R8rgMrrNiJ+/9wF9CfPbzhkwdLQHHyYmZA5QK++OcnOPSQES5BMWJqWMKKy7lOGSiVsfcmm6B3qYwC++7PvtiBBEa27NSZt+HuoBsO27dxidn/NBIqJ7dOMHHVU2+MtPleU8MhYyfvzaBYEbasVwQ7WVZClQhrd+vjZojiBF/1QRj+SQMGYGlHLzzyzl/hdHQYDR2B6JIuIpqERMtJKxBRIY32dGcgRL7q3tYhVJVWlQmkYRN93PBqznGAVxe9hVMmnIlyF8/Wa629Gm6acj0GDIzacVZRP1CHtfnyGzh5/FmVxDl6/CgcOXI/jzCSlsaiEnRtG5NvnIk777jHPQjQb+UV8ODsu9GH7eP4n/qRcPB7qQwUS0Cxi/9b9pe3OjDnmhvwwAMP8lU2ONh9jx1x2CUXAGxG5s4EohIs46AC3pn9OK6+8hqU2DHiuoPN1XXsqp558GPOjEBum/88n6UFjy9XZjeqBJFMCLUeFyjf0Qvo2yczBJJGMq/vVbbbtCXfxL6HKjGlnZQ1M2Gq1aWP8brLPE6u8RSWTyAO8OZf3sVJ487Asu/Y8lEZq6++Km6c8lusvmZ/s7OOYNJ2gJHDj8d7f/2XmxhXWeN7mHXfTPTyJx+SsPob0u7WiEcCzzy1yN3c7u4quSe7zjv/LOy1944hz79Ub+itadbdginDnSqwBO3Nml6Y8wQuu/gal/jYEti//2Bd3DjteqAPm43UfYKzJ6/+0w8+jGuuvL5CnOyhw/U3WBdbbLk5Vh7QH6VSCR9+8DHeeP0NfPCvT2ofziwU8dj8pzh5NBxmiLvKRJSQJYGPK+4tYTm5fMvPQGwl2nj4aqfeNhKjLbt05KoSRyW9ZOgpe4O90RUlTSBuLfYg4dbVY7zDRxyK48Yf4SbSd//2IcaOORFLv+Qnngas0g833nId1l5vgB3y8PR59OHncMnFV7nPl7DR9Jnnnoyhw3avPH7hDez5ToXg0n53F7BkCfDGG+/g8TlPYd6LCwF0uPsk48YfiyOO3JZthYR+ku638iu99frXGDf2JBSX5+Agj37f742pt9+AtdbhJVzxAX35Pk718/e3l+OXx4xBcTkrmUe/fn1x7gVnY/sd1nQLsUUplnf5zAb4+9+Aa39zHV770+vejKOI+QtnRNphOuB05flbPaHbM8zOpBVKXQUE68clPJ1kKNh8QzETI/iotqMStCmC0sVLtr5seVWfZKGeBIEETyOFE8iHHyzG2F+eiMWLv3RHw/1XWgE33DIR62+4hj3yANwTSwftNxKff/aFmyjZXsuMu29Cnp8Ydgf7bODPVpDYilBwQOEnZD/BsvKLFgETTrykumzknqjim/yb/eynGD16T/x0c333f/45cPSIW/D5Z1+C7WOw5Peba0/HNttx2f4VLXEtnXLSk3hpIXsQsgOdnQXcOnUCNvqP2ocya8jMvQvrfdx5x++42FwR8+efU3kIP4741ljjCH2jhSXUL2nFVyzn8ijkF+Ozzx6pPdwm3J7ZglFJqKeSk+l240b1pojDDU+F52mCnlSpr1InTFezEWVGmknfuDY7UhK9JY26GciRRx6JAw85GMceeyI+/vArgF3fgTJunnIdNt18xRryEB2ZC8PlANNum4tpU2Z6SzhFXHX1pdhux3+ruRqFtbvaakPgOCugXOYPVLBACSMQd5ZR6u1uSFfh4QnNyRXdk2K5gn9k2XtuJHgKylM+7LkM/jd2mqvDuyeLL1O5f8+XKpva4XoFUckj517zUn1Sn5GBvynul6zuf7C/+EeW2Sk17+lNd4OetRs8gh0oWznlBnz88Uxht6RdkOHlnpLuqDsdnbYiXnthSUg1MemaINqu7lKPrp6tXl8qlba6sX6cRxJI/TJPzdo7n4Hk2Mkfp4S9f3EA/ufP/8STT/0JJWclOI6/8VCEU1geOEJbXUoxgZ87amcJ1E2iLBHzE0vlXJd3HJfPmnK5buRy3+DTTx/lNwYnnP565eWPcPqEc9yZSnc3q5vjyZodzc0Ba6yxGk48aSx23mXdhqUfIYJ0gCsvnYU5D/3Rk1nETrsMwqVXjE7UzceNHc6aPv0ZTJ18F7exo4iH58xA/1XikWUzrZtveoxfZeLextuF+QvupCUsEwEZkNGKyVgmASbZJyMrDHoTS26ixFnfvmo9wyHUEuKSnwOpDGUD9jjA9luxyxR7uYnayfVCudgfJacfSs73UUZf5LwH6Q46eB+cfMpGbmIUWZKRQo0l4svexOzZj3rVipgy7SxsskmtlMrjAwVvjTyUQOpeYcu4xwFKJeDjj5bgz3/+Cx649wG888677myhnCthwinH48BDhgROeQkchXaAB+97HBOvZg9WctJbe/01cduMG7HCitGXRjbMZsrACePPwn+//JZr7Ib/sQ5m3HlD8l1Zgg8SCj3VLuUsM4Wb7HGPSKOSEmywom6yjUM2rWRoch/EBHnwgaPaoQHVemYivLWkJC9hhfXYyhJW9W4N9iTCVoMG4b+GDMP5F1wElPyllTLGnXAsDhs+SHh0LQrhe++WMPLw4+CUWOIuYid2MeMV7In4Oglsc9WNKO+n+lt5wxoM22gvA7++4Dd48olnkGfPgXSUMPPe27DueqvX3NFYFceX/CrJ2AH++9V3cNL4U1Eu8SfZ+3yvE9NuvxnrrDdQDp8ycMB+R+HTD5a48vccujPOu+CUGAKpLj+q3YUl6pV0ywXDs5lIT4ZAGGK2SCTtZGiiPRMyiEDS6YfKBDJ4myH8OKj7QGARP93sx5g06Tfo1SeP3/9+Dq6+6rrKLIRdYnjBhWdgj//ctfL+Dz3zGAN04NQJZ+Klea8j7xSQL5Rw1z0zKok4MZmEEKNInWXfAr8YeiCWfcOPKA/bfy+cftZ4fht8zepY/RUrwP998jVGDR+LL5Z87RILuwn3yqsuwvY7bpE8c6gZsnLYd9tlX3R9y/Av44BDhuHkU45NjUASsdJzsHDtZp2RxI2iTY7Wm2H2Ua+DDgHo1DWlh0kdhAO5RQsmE0jE6HzbQbuid+/ecPLsKo8u5PJ8c5k9NMFfidHJn9auPABXwrUTr8LPNtvMJRF/klBNAN5VIF75xt+5Irx8HoteeQUTTj4LheKKLlHtt/8+OO304xMTsWjCCT4H4k1eKgqcc+aleGHuIvf7musOwKwHpnMC8Y53NSQIB+haBow99kS8/dY/+OZ9voyjjj4Cx44+lN/rWP9a2yhFA+8b2Wn7YfxBzVwZhx55AMafwC60TIhER+46d/5YIjtgbPLagKCOtp4nCdxBVuPAdHqq7AzExiykpxKharumlq58D5vSw9bsMJ1ItNuKMoFst+1uPKHnl7vvAxk7epRLDNWVnzwuvvwyPP7IU5XTTL16sWc0uvkpJu9q9cq5fv8uKY8gqldS8RcrsQTmPjnN7kFy2KZ2L3cDPYde7m8PPHgPVl65n9d+/IMecY/HhcFdLc9nPpMm3oj77nnIJbLeK+Qw95nH4Lj6h98qzA4bnH/epXj6iecqhLrtttvgmmsv5MtWYbk5ikD8vzvAkL0OwdeL3VsXMeyAPXH6meOSCaTMjvHyNxK6Dy66V90/EqmHKOGqh6kdAuEvMwu+JExdQ5WaIslLhWRUdLFBTnF6iNheX980ebhjBtoDUQ0X4XrKBMKXsNhTW0UcyQhk3Ciwu5uqH/ZgXMF9de3CBa+6swSWjAauNgC3TbsZqw5kyV72Gnf2Ho4OPDz7MVxx6cTKZYmdfdjw/Tt3SSh4mpaRUPDBs5CTthV1qwTF/+TXffbJZ/n3SskCrr52Ih56YI77l84+HXjm6Sf5UdjAkddgnZn33IMbb5jqXSGfxzprrYUZ0+/Aiiv0bSQP0YxdBg475Dj86z32ZDmwzfZb4JprL2gkkJCrVdw9kNsf8JbRlvMXSrkzF1lqFY4z6YKNMNghGmnFBCuIJq80EqegykrFwkbnorb7DdrAgAhEyZ3SlZQJpPIkOso44qiDMWbcEaHJa/l3wNgxJ+Gdt97lb8DLARtsuDamTJ2EFfqFXNXRcN16rU3LlwIHHXgEFn/yNZyCg/4DeuG+38/ACn1zYNcB1s49anclwtFhmTNsSY2X3mmPnSuE4r9DxH2Gg72rw12K4pcRukt38Ea9LgHxmRKvwy9K5B9Oms/P5cRU/6lfugv+zpaS+KusOJGe+6sL8cxTC9wiA1b9Ph6eM4vfEBwg5lp5rF4eN980DXfNuJ+Lzhcxb8FTcJgNiY/o8/rJ0xzpOGyoUPGj+9wMsyKbBBKW6NjfdJZNZBO4jrdszaJ07PftUcVBtZ4Ojq1aV/4yRTe6a59Ed9+JHkYgXtkvl3yH0aNOxAcffOwm03K+6L5Q6reTLge7Hy9qeb1ho9YBbp18D+6Yxh4a5K/TnXDGaOx/0FA3ibMEW02y0S7hZeo3C5LvN2EnzRZ//i323+cQsGtO2N7D3sN2w9m/OrXucABP8B9+8Kl7PfvXXy91lXHY7b2XnodddtsOO+62rXvlSv3VHFHf3Y2lfHUexAmK3d7LHgjkJOjOwPLdePbJuSF7TD4eedw8ZSpmzrjH/QOrM/+F5yukU0WBk1UQFWZ/Hr1d20x/KktOIZs4oRv2ojM104oKypNNQqZG4abkCJoZWkzG9ih9bRGTCDnL6K+DUxbqGiGQ4SMOxnHsnehRG7gO8OH7X+C4UWPx5Rc8mbJ3aOy+x8648OLTqg9IV0ab4dAu/r9vcMj+R/FLGtkG9jqr4Xf33ooCOzFceddHuBJh+YYthZWLZQzbd+/YBwz5Nen8GpSzT78Y815cVCHC6264Aj/fapMqEXikyWZex4wai3/+7cNKgj/iyIMx5kQ+U3OwHGV2XbtnKp9Z8Mp83lT7nf2dpfNgQl/8xRfYb9hB7it2mdDBg7fBlVddhp12276y/lshJPfRdu9KFvakvXvAgZMOv86djXqjCY2rVsALT71ofQaSPAjwZkLudfXN2Q1VkpCJ5K/SbhSCviyZ2YBM+ybsTfJ+mD49SU5J+rba79pLWDnwPZBYAvGS6ttv/RPHjz61QgDsJNKhh+2HE04albwqUgYuv/Q6PDr7Sb4Uli/h0ssuwM67baWWRNgVKFPvxrQpM7DmWutg2D5DsNdee2LgGiv6ebzGl//6f0sw8epJWLTo1cqtt1sO+hkmTroodOnunDMvxwtzF1YOEGy51eaYOOkCvpIVtnFev9oW/F5JkuyQAv8/J5gCLvr1Vfjj43MrR6YPPmQ/jD9htPviw+Dnqy+/w90zZ2HWPfdj+TJv7ylXhpPrxvwFTzcsfYUFMnuzyM67D3avc/EfFBWdQfmHIqLKP+ftNYVs2YSowi6j72NlJmSqA8sk0mCbOklVtc0kAvF/TyISGd1lyur4RKadKGJJsjvJfzr6i2Jvog0VGcoEMnibX/CXH+WKqNzGK3CEdOG813HGKee4o2a+h1DCyRPG4SD2RHfMDObddz7GiOHHIFdit+Hm8MNNNsDUaROTiScKlTJw+9R7cNut7D3tBfdYLds7WGvt1bHppptg1VUHom/fvliyZAnefPN/8dc3/8YvYfRe0vRvaw3ElGk3o//KvUM3wnfYmj2pz656YXY6bkLnh4LY+Jrd6OgZ672Dg71fhH24HnDfN1L9zqZAJTz73OO1szXk8MXiZTj8sJGV01is3CqrrIxB22+NgQNXxdKlS/Huu+/hT6/+D4rFMvLuFfBMNsOx5L7X3d1EF7jihe2TlLHM3S/xlwCjEn78Meyaa8pcO3fZne81RS7hBfzIZk/PP70gkwTCzJRJenHJSybxhXUT3ZF6XPu6ssP0jWpPty1dHFUSc30dWRvS0lmLQPx9CEYgY7zr3GPB8rLNY3Oew+UXXwOnkiT9vYFtwgnBASac8Gu8svC1ysmv6ydfjc23+FElE0k/2OYAM6bfiymTZ3hvAgywF0vqlXea12QulHMONv3JD3HZ5RdilYH9+I/+MyDsziw3C7I9oqFwyuyqFz+V+vdyOfIbpOw1wO5m9+ONid4B/vfNf+Ckcadh6dLlFb1dPIJXDLsbs2UMGjwIK620Eh57dK53d1h3zSmsKo5hbM5nP8mb7Sa6TJyM9DbzVS3RmQ2oEIhOe1E2yiatoJykBKYjO0pfW4SVZItqjGShnjqBDNqrspE9fPjhGDN+hNRm+J23P4jJN09135fOkmNnL7hPsm+2Rd1FVgAWzH8Fp004122P5cRtBv+cP0MRM+MRIhQHeO2VtzF37nPulegffvgRcu4b/Wo//A4vBxtutCEOOXR//NeQnZHz95EDS02V/3SAwR4+bMTPSEfnX/ZaW3ZEet6CJ9wRet3xdjeff/zBV7j22klY+OKiuuvquT0/+tEPcfSokdh+h80w+eY73LcqcvJjxPRE4Bivb3vSdFI//Pm5NbYwxv6LzW78k1ZisgvoYJfYu1v7zfbRTeiyJKLbXixdNwRcPNoiCTdtAnFDPcGOqAeBRexptvhLSx81AmHa+X3dH2DLbmYGHoirbITG3VEVVt4b/WuB5S5LcQlffrUM7/39H3j//ffxzddL0dXVhX79+mGVgQPwk003xoBVv+cl3bAWG68ucUv5rKL7b5Ktng2LP/sGL7/8Kj777DPk83lX98033xyrrda/onTDU+8SvqvZqhE5JR3jnCKKWB74XxHdDYd1416o2xt90R/fR294V9NrBQJVFkXAJlmJ6qBTrtX117HddF11ArF1jFJUrmi5JMTC5ISd6PWWqYInU2oD0dxzCnxc7m+Xy4zMgyNx7/0lXkpmT8nEf4J1o8vKwV4/M6iVy57aKaILQ48ehu5Cl7sfFvYelOAtzsHfe3f3xdzpTxOBJMU4/d7SCCTNnOKMsz17UicQQZdEJZzIRNTwg7nEXKOyXCasLvtLjNYFIWooFhyZf4fvUESpskgTltrZtnzBm8ZV0WJP/vP/sU/9+/0av/NnSfYZvR8v7+FT/wpdX9ng9kpUgmdl6wkh+J0dFOgsdeLh6XPQiV4VG3x9G22tJSS2dNWsS1iqvqd6zY2ATjJXtcw2Cajqxeq1FIFU18z5ynnymnn0qJqnS7GPn6DZiLn6fEZSXbERfZgUPjIvYujRQ9FV6EKpUIpN6Cyo/b2buITN2nJtyLEXcfGW68s/MOX3oYRTr2cyIXnyPZTzHoUFhwPsMC5bhurrziF6uzsalY/0yCPJH/R71hCgZN7zHjVOIOH9PnCqqX4ELzET4CPzZd6q+TJ3ZN64Ru4dgw1JWG7C9DCvT+9JCfGA4/jI3E+6wQRcd9iJJ2XvuK9fJyphhyX8QjmPXsXemDN9NjrqRubxIRO/ZBSsG3xYL/nBPTuBykiFPdXOZk9sNtF4O0BMuxJxY0d7khpEgJJ5e8ZDCgQSuFab7d7m2aOHJfAN07DNhqAjWInqqL+6Zj4U3YVi6Jp52X+uwjuGmzQiT/rdH7E/dAsfmYdt6oqk7SSCCv7OUmp1XF43Mk8hTuNPsFlaUpS1iwgkEjFK5rLBROVVETBGINH9uTHhsJM3ux69G5Z3fhe5Rl5vEBvBs7cAdpY6MGf6HHSgd+D4puhilDxMaY7O/bbYyJyt7rOROR+lBxfc6jfHRY+wRpxnqjzQKI+NiRpVsoonpnbjCx0SaOY1cxMxQzKaB4EeI5Av8RWW47vIJaj6hzz4s9Od3mo5WzHviw6j5/8bE1jSsyRJv2u5OeEwgX91vPiyT3MSSBUjIhCteKHKhEAPIGCMQGR0ZzsXbAmLLWTJfPyRORuTs4fIUjgQJaMelSUECAFCoK0Q6BECaSuEyVhCgBAgBDKKABFIRh1LZhEChAAhYBsBIhDbCJN8QoAQIAQyigARSEYdS2YRAoQAIWAbASIQ2wiTfEKAECAEMooAEUhGHUtmEQKEACFgGwEiECZ74zMAAA84SURBVNsIk3xCgBAgBDKKABFIRh1LZhEChAAhYBsBIhDbCJN8QoAQIAQyigARSEYdS2YRAoQAIWAbASIQ2wiTfEKAECAEMooAEUhGHUtmEQKEACFgGwEiENsIk3xCgBAgBDKKABFIRh1LZhEChAAhYBsBIhDbCJN8QoAQIAQyigARSEYdS2YRAoQAIWAbASIQ2wiTfEKAECAEMooAEUhGHUtmEQKEACFgGwEiENsIk3xCgBAgBDKKABFIRh1LZhEChAAhYBsBIhDbCJN8QoAQIAQyigARSEYdS2YRAjYRyOVyNeIdx7HZXKqys2ybaSCJQCIQzXIQZdk20x1EVZ4uxsH6Ucm5vg1VXVm9OAKQbUeUTGTlJtkn2m6SHF3fJcnP0u/KBKILMnUQ+TCiDiKPWU/V0OkfonVNJmAbJJUUryb1TyJBmTgQxV9GZlbL9giBiJCHLuCiQSBajukjU9a0/tRBdBFNt75qrIQlVRvJvR4NW22YnNkkeTCJsJLq+7+r+k5UfpbKpU4gaZCHTLJn+sgEXlrBZbMdm7Kz1Dl0bFHBWIY8dHST7R/BtmQJQaZvydhkEysV38nonqWyRghENEjSIo/6DiKqn6hj07DDZhvUQUQ9rV5OFmObCTHMClH9mnGAZRsrUWzUoyM7NVMjkLSdklYCNk1OtslPZvSZnTBP3xLZ+Euzf9huS9Z2We+kqb/JpWNZO1uhfOoEYiPh1gOdZgDbsCdN/amD2OmmokkubDRt0ye2R++2B0CiuIp4NaqfmWxDRI9WLmOEQOIC3nYyjCMPWx3Rpk0mZVMH6bmuKZqERMuZsiSN9kzGsG+3CaKNkpGErY1BYlKbrfJ7agSSlhNsBG8aMxwTHZs6SPN0OxF/ipQxbZHtNm3JNzFzov5hOpoAqwTiOywt8rA9fbYp3wTxieJtq5ObD8/WlZiEcdLvNixPo01bbejIVSUO3wdp5i8bfrcp0xqBiCYzk8aZSMJJ+rA2bASUDl6ydut0xiR86HeOQBzGPYG/iRF8lG9NLC/FxY0uXrL1Zcu3c8xbIRCdZKjqDNkkKtOO7YDS1V22vm17ZLDNatkojHsKe9Ptxo3qTQ6wdPVWqa9SJ6txnGSXcQKRTWZJCor+brrdnuggKh1PxW7qIKJRpV4uDOOewt1Gu3H9g6GmEstBtE3MalRnXTbwUo+k5q5plEB6CniVJCrrFtO2mZCnKkO1nixm7Vw+KcEGsdFNtjLLPyaSe9gSXb0OujapJv84EhLVifqHeM81RiBxTYo6Tlztasm0ne23p2uTCdJTtV21nop/2rVOsxKIbtymsQ9igjzCSE7Uduof4r3WKIH4DkrTASYSsThcvKRum7r1fX1VcVatJ4tTO5eXIRBTs4IwvNP2tYn2TMggAkmn96VCIGl1ENERhi60ugSgW58IRNeD9uvHjaKjyMV0/JpKxLJo6bSrU7deT1VZqvVkccpCeWMEEhb8th1hKhHLOlLHLpM6q+qhWk8Wp3YuTwRS9b4oMZpauqIBVno9zyqBmFjuiYPCZDKWgVw1AZvW14QeNmeHMphmrayIb2zNREwnYlnfiNieNFswEZcqeugsfcnilIXy1gnEhkNUA8OUw1TaV6mTpK+qTNV6SfrQ71UERDG2kextyJTxrajtUTMFE+Shk3dk9ZfBJmtlUyEQ0zORnnawbPuy5UWDTFWuaj1Rvaic3NsrTSf8nvavTPu2ZmFEIOn0wtQIxCSJmF4KkoVapn2ZziSrhyqmtnVSsSNrdWQxNkUipuTo+EPGdpv6qsqW0V8HpyzUTZVAVBNeEGiZ5G3LQTI6yJRV0Vcl2FXqqOjWznVUMFZNeFH9Q3cpyNdHdBNcdtRvwt6kGJPxg83ZUJKerfp76gSiSyImE7JuB0nqWDLBqxNAophQB9FBWa6uqu91kqpqm1GWycqT0V2mrBzytaVl2qH+IY90jxOIzChJNFGKwqDTQWTJQ8ZOUf1lZ2bUQVSQVasjG1txswjR2NFpM8zKqHgRRSSuj+jKDtMhqj3dtpL6uigeWSzXIwQiO9X1gTdNIGFyRZwsElC6QSvTQUTt6ImbAkTwzGIZnWQuM2qWHUTIYK0Tw0l9REd2lA22CCvJFhlMs1ZWmUCyBkTcCLDVAkgneWXZr2napusDlfo0wHJiXZxEWjTAku8hRCDymFENQqCtEVAht2YCrNX1byosnVYbXjcTeqQLIUAIEAJtjADNQNrY+WQ6IUAIEAI6CBCB6KBHdQkBQoAQaGMEiEDa2PlkOiFACBACOggQgeigR3UJAUKAEGhjBIhA2tj5ZDohQAgQAjoIEIHooEd1CQFCgBBoYwSIQNrY+WQ6IUAIEAI6CBCB6KBHdQkBQoAQaGMEiEDa2PlkOiFACBACOggQgeigR3UJAUKAEGhjBIhA2tj5ZDohQAgQAjoIEIHooEd1CQFCgBBoYwSIQNrY+WQ6IUAIEAI6CBCB6KBHdQkBQoAQaGMEiEDa2PlkOiFACBACOggQgeigR3UzjwB7+RC9MifzbiYDFREgAlEEjqoRAoQAIdDuCBCBtHsEkP2EACFACCgiQASiCBxVIwQIAUKg3REgAmn3CCD7CQFCgBBQRIAIRBE4qkYIEAKEQLsjQATS7hFA9hMChAAhoIgAEYgicFSNECAECIF2R4AIpN0jgOwnBAgBQkARASIQReCoGiFACBAC7Y4AEUi7RwDZTwgQAoSAIgJEIIrAUTVCgBAgBNodASKQdo8Asp8QIAQIAUUEiEBCgGMX6IV9snCpXpZtU+wDVE0Bgfo4ykLf8GHIsm0Kro6tokQgukkorH59AEa1oQNAWJCrtpPUYVTlJtmX1G5SfV3fJcmn3zkCukkoWD/K5yZjLC6uZNsRjVFZuUmxJdpukhxd3yXJz9LvqROIaAIzHVzMaTZIKo3OHQw43U4iin+WgrwnbNFJQqJ1TfYRG3GcFKsm9Q/r36p+F8VfVX6W6qVKIHEBYyO51zvKVhsmZzZJwZXUKZPqE4EkIWTmd9UkJDI7j1pq0dHcBoEkJXUiEB2PNUfd1AhEhjx0oRFNkqLlwpYkTM4K6u21iZWMzbp+aOf6KgQiQx662IrqJ1ouqo/oDnii7LSJlYzNun5o9fqpEIjNhBjmANEkKbLOHJQvKlcnKGxjlYYNOvZnpa5sErKZEEX6SNwMRIYEZO1W8bdtrNKwQcXuZqxjjEBUNuFkAlMUPNsJMu3g9e02hZVtfET9lPVyuoMTU/7WIQ9VH8naLtuO7QRvW76svc1c3hiBhK13Jq1xmu4ktkfvtqfpJpN7FNGZbKOZA7undRNNQmn7w/YAqL6P2O7jOvKjiE7Udz0dY83Qfo8QiI7T40BLozPa6IAmiDZJRlKw2fJJUrtZ/V00CYmWM4VTGu3ZmIGY6NuqfYT6RnT0WSMQEw6X7TS227Ql38TMSbVzmF4ik/VZVsuLJGqRMqbxsd2mLfkmBm6qfYQIJGUCsZVom3H2EbZ0J9vpdfBS7RT1OlInkfVafPmkRJr0u1ltuLQ02rTVho5c3T5CfSNFAtFJhqqdxsQIPqrtpODTDS5dvGTry5ZX9Um714tLeDrJUBVXEyN42T6i2zf89nTxkq0vW17VJ1moZ3QJKwoQU4GUVgAnkYaJWUfYiFB2OUmFDFTqZCHQ07ZBJIZMxZGIbaaTos1BW9AeXb1V6qvUEfFBFstYJ5BWI4+4xG5q2ScpuYhgptqBiUDS6cZJPm5l8hDpIyIxHOcJE3GqOusiAhHvI9YJRHZULa5645pusK5OAIt0fp0EoJr840Zmojib6JgyPmrXsqIxpBNHItiqJtEk2Un26fS/KIKSlalKBKr1kjDL4u+ZJBDZQEtyrMnOYoI8dJa/iECSvG3m96SYMTXYSdI2rWRoMq5MkZ6q7ar1knyRxd9TIxAbIy2TQSviXBPtmZBBBCLirZ4tI0MgNvqGb33aydBEeyZkhPUR0YGlqfZ7NgLTaT1VAjHZUUwlYlmYddrVqVuvp6os1XqyOLV7eVkCMdk3eoo8TLRrMnmrylKt144xTwQi6XXVBGxq6Sqqk/p/TxplqeovCVPbFycCqYZAUkzGxbRo3bCAUyUC1XrtGPRGCSTo7KQOpBoYphOxrNNVErANnVX00Fn6ksWp3cuLJCFVHyZhGyZXtb8ltWUqcdvQWcQHpvRXwSkLdawRSFyy0pmu20jGMo6U7fS29JXVQ3fmIoMRlRV/6juNxKnT31R8KZu4bWAQln9ESVRWfxWMslLHKoHYIBHVxGnKYTLt25qF6cwkZPQ3hVk7ypFJQqYTqEzbNnwj077NeJTRI4iDaj0bWDa7TOsEYpJEbI3mZZwkE/A29VWVLaO/DC5UthYB2SRkikRMydHxp4ztNvVVlS2jvw5OWaibCoGYIhGTyU8lSGTaV03wMkFlSp+0lzhkbGzVsqbiS3TZJWqJUrZ+2EhcRoaM3aoJXiYmdPWhvhGPdmoEoksiMslSJMBk5ckQgkxZEV2jysi0E1eWOomOF8LryiSuuOUTGd+otikaX0lEIkMIMmV1vCPTjmxO0NErK3VTJRAdEjHt3KSEKurgsE5lSnaYDvXtmWorKTmI4kHlOAI6yVwm6cWRj65PdWMrrn1d2SJ9I2pWJhujujjKttdK5VuaQHQcayKAo9o3ITsqiGwRlg6WrRTwaena0wRiwp86cZzUvo5smb5hgkSSbEkrppqxndQJJG4WIjtiMeFY1UCW1dWU822RlgksTdmYBTk6BKI6gwm2adKfsn1EpG1ZmSIxkdSuaptJckV0y2oZJQLJKhiq5NZMeJhe6msm20iX5kBAlxx72opW17+n8atZNnWIXpvJH6QLIUAIEAItgwDNQFrGVaQoIUAIEALNhQARSHP5g7QhBAgBQqBlECACaRlXkaKEACFACDQXAkQgzeUP0oYQIAQIgZZBgAikZVxFihIChAAh0FwIEIE0lz9IG0KAECAEWgYBIpCWcRUpSggQAoRAcyFABNJc/iBtCAFCgBBoGQSIQFrGVaQoIUAIEALNhQARSHP5g7QhBAgBQqBlECACaRlXkaKEACFACDQXAkQgzeUP0oYQIAQIgZZBgAikZVxFihIChAAh0FwIEIE0lz9IG0KAECAEWgYBIpCWcRUpmjYC7L0R9LaDtFGn9loJgRwAhylMHaWV3Ea6poGA/+Ih6htpoE1ttCIC/x9m42NfHFHz0QAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>vc7sy</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dCZwUxdX/98zswbLLgqImxngTDzAeEVERPPE+QIwx6me8gkcMGjVGxVuD8mkMKjHGMwEVNeARbzz4QFFQVBSPeCfeBwq7wF4z0/39XnX37szszHRVd/VMz+yb/Mi6O3W8+r+q9+/3XlW1YVmWhQr8uEIbFSi7L5F7Ddh0mollNVcxuJRZ0DJ372sKcCVGIGoIGEwgUVNJAXmYQLQqiglEK5zcWB9FIIIEkv/Juo/qR+OwHVwtx2MJyXUrl2EuV78aFcRNMQIVhwATSMWpzK/ApSEQv9JxPUaAEag8BCJIIDkganu0rCTPhmTNzm1U3tTSJLE2/WuSh5thBBiBbgSYQCI5GSqYQHQbfNn2ZMtFUt8sFCNQmQhEn0C6ca0kD0LfZNBtF6m97vRH1i8BZfYtaEC9lqvfgHBxdUagGhBgAqkALeq280wgpPSAxFUB84ZFZATCRiB6BCL5REnHVwxDZitRhRoKTawhj5OuqeaBd7d+s8tJql1aSN3tSXfMBRmBPoRAxRKIvI4qmEBokDIcKQ9GCUqWjkDykaP7NyaQEqiau+jzCESPQIRK/CWRu42Hh3dS+qdy73nmafA8C3j3Ea0SPom96nCIllZYGkZABYFIE0i3obeA7vtWil284jytix+Fntwz21JBqkDZon0ptJ9pF+lyGWq3+2+Z4awiHkleYswYL7Ubo/qV4tXQuF0Q3P925Xd+ijHTwJJpwDKBeMweZCwGGLwVWmEKclFGQBmBiBJIzziE/TAB0wI62oCXXv4GX335HZZ9+z1Wr25HU1N/rDl4ILbYfGP8ZPM61NbZ9kOkR3INJRlTy0mf0gNwMTLKgFIY9HxGl2wV2SmdBtmRSciZYUDjGYbTgmT+xx1vRjskK8lMH+l2lKdVZgWfnobriKYchzRTV3EACfuojODWriSwciWQSgJ1dUBdDcREiFOhvvfJlxus0Cvv+p7yKmzEkSUQccWjBZBtmDFjPu6991EsWvgGujroiwQs0+hJohtkpFKorbew6+gdsP8Bu2P8+D2w1lrZROIa5abGbYD0AJhWHSDqUl/uFR/ev9MCpf5jsVasbluk90HXMZRznnwV48YdC8scICzlAQeOwn33/dHuS5KwaLyffQr8bLs90boqiRiSGD16CJ54YrrdhmQ70nM612Nw3ah8Pwlmt/9Md8tmNsA0gbSJ0T/cAAlHJQJ3y0IqZmH+5x8DcdPWW7ILfxg1imYFWurqMG3eXKCmFkjUSIteyQXlNpNkj7AYofhprxB+YRGXTpLMbSssmcOYY4V0lTuGzHI6xxcdAsmI4QhDbwKzZ72FCy+4Dh9/9A1g1AnjETOoYAqG/ewJSzyGJmB1uwEWDHShvj6GIw4fg7POOQJDNhsovATRbhpo6r8L0uZgwKwPpFMjvhzt7U/CoCdinR/Hczj6qEswe9ZLsKx+MIx2zJr9Nxxw4I8LEFYO8ZEdNoHxh12NRx9+QUhX168Nryy+D0N+0qyfPPJ5DEUI5Kfr/8TRoAmLPEYas/OzLp3GwK5ONCY78cCH/wbMVBbBT95nb5jd5GOiLVGLyc89B9TU9ISw4jExN3RzpE41B21Lh6HPZ0x0tOuOTaexysVLB4lElTxkdSCrv7D0UBoCcQyiOwGyUuRkNOgLd6WbQMoEJp13N66bOh2W2QwLcSCWRE3CwvDth2HoVj/BOoPXhGma+Pqr7/DJZ1/ihRdfweq2JCwzDgMJGFYMRnwFLrjol5h0wVHdOQUiprUGj0I6NQhAfZbhyjVkub/DqEWqq0Z4RfSJxb9Fe8cj4RAIgM8/A7bd+hdobbHB2XDjAXh1yc1oaMgXNssmECLLRx5+F4eNPxeW1R+GsRqTLjoJF07at0deFY/BzcPk/sxc1SYwbL1NEXOjVs53No4xxCwTNWYataaJBR9/bMcSuz3AjDghTYB0EhfvtTvi6EQMDoE4ZS+YMyfbY6ytBwY02mErt0/nZ7USiKyBkSGpYk+rMvWLlQnLcLl9BiEAHQSkio+s3mRwk/U+VGVUKa+BQGxrITyBAlERehJOp52YvhOhEI6Ek++ksIyI8UNELXDqyTfiH3c8AcsiS5lGQ2Mav/ntL3H66T/HGoPsW6Jy8xJdncD8Bf/FLbfMxMP/mg8z2QTEOnHhxUfi/PMOt+P+jhciHn0tIG3Z/bqERk+1MSdHQsW7/06iOjmJKVcuxqWXTIVlGUjULsfqthAIxAZUeBDTpj2Hs8++GjAbAaMT5/zhF7jk8sN78jx5tE3YUErgZ9sdi08+7hCNbbZlMxYtuhn1/TLIhwZIZOga/KIew6a9PAWTcjFE7kLx5ElYePOzD3t7N267pNzOTjsu2ZkE0m6CA/jfvfcTHqZlmEjFYmhL1GDys88AdQnbq8j65OzSo+/jjvehMvsrtKxfw+G3ngpMQQy6Sj+FCEQsHclXHOmUVScx5MOhHGQnow8NBGJ3U2x3JRnCAQO2h2k1dZelJ1IYXYgZ7Vjesth2QCzg1ttew8TTLoWVHijKrr/RIDzw4J+x2RZOwtoZVZZJcTqnpDORwmuvAqf/dgpee3UhJl18LCZNOqSowbWbzJ/s7dkaDHz9FbDVUNsjMJDEkUePwW23nyzngRRK2AtSy58Up3VAeeFRoyfitZe/Fhg11H2PRS89hCGbN9hM6trSTM/ABC48/25M/fM/ALMBsXgnnnzqDuw4ch3buAsGtv+Rx2CYFOrpHUrK9MCW/ueDnq1huUQjUlD0f2mIhEWuC+KWJ/cvlcTZu++JhlQKCdNEzMH9gief7iYikfwmb8JNhicyk+G5OSqZaR79MsUMUKZB1GVIQouJ5+wokTXmQTTkhwhk64RNDJVEFnllVX+hlI9dNQVCWGIjlAU0N+8Iy2oU4SozPRCWRaElIphOxOIrgFg7DHQKb4Qm5IoVz/aObTsxdPHkTv/SwGWXv4D6hlZMmrSveIj1u1vKzclMPO1m3HrLk4BVg371K7Fk6aPYYEOJ3aKO95IVTnGS2PbfTOHR9Jqszhbcl19eht12ORFIJtCA77DH6GG47/EbeoiAGskgks/e/BpjxhxDdAMYKRG+IhwNg7yRlPAWyAM0Y8Cbn32Q3U6hUFWxEBZ5E60rAXIDiTwEYcRwxT57dVMzcVZXLIG2RALXzH0GSNB2OZcBc6amcEkdhQnvg/7bLeNj/gWxThGoK2vEXFFljbbbrmx5LyhkjbJXO36+V+1bFlNd2MgShYoH5Qcn3XXkPRD3PEHOfvys/EUh6XLrUjnHhSCvgYw9hbjOPW8Rrp86Q3xpxFZi9uzbsO9+FOdykqxOiGzgoN27cxr5oy4xWGYtDCMNI96B5cvn2yEyClHlhqZyfs8dgihvAe+8A4zYYSySHQOFAT79jMNw1VUHIxbPs2XYGa8I2VvAB29/g9eWvIXvlrWgra0Njc2N+PGPfogthw7BBhtTexm95u6OEjuSgLMnzsAtf5uJdQYMQNxYjXjsexixVbDQIUiCfAgLtcLjsMwmfLfc3qa79tpxLFnyDGLk0OWClbEdNq/qUhR3TNk7GopteU4lcf6oXdE/nRQEb6c2DFz49JPZzZJnQdtshXdB22ztSVDYA6MQmQNOHyYQF0RZ70PWOKoSjpfxUTXime3Jjq2QDKpjzmwnTJJQ1Z0XxlH7vheB9ApFuX+wgF8ccQ4eeugVWOkEmposfPjxHAygDT3O4i4WiiEbNGrkSXj11f8Ig7fTThvg2WdvF0aNDPTKFcAmmxyNlS01sJDCyFHr4+ln/th9nsPL8Od+b1smx8MZtAOsdC1g1PSyoWI7T4zMFEX07c/y5XO79SRsrgWMHz8djz++AKZZi0EDG/DWW1Ow5prOph/3zJqLgwm0tADXX30v7rn9Diz/+jvERLDGMZgid2DvJltz8ADst/8YPP7ov0RIT3gJRld3//ZBuXrAbEKXtQa+Wl4LE3Gs/YM4Xl96Hxqbs0NS029bjNNOvcjeuRVbjTtmXILxv9jRbi8f2+YSVuYMJY+idRXQ2Q5k5Dqu2HvvrCQ2eRWTn1sAJNx8iJvoyv3peBbioF+imzgLzZuoLRYveYIYUKEej/CP1/de8ukyvjI7f2SMchCjLzNWGTndBxiZ9mTLBCVD2X6iUE6JQObM+RAHH3gWYDXBNFpx/XWTcNIpO4htpa6y8oJnAq+80o6RO40FrDUBox233XE+jjpqePf22kcf+RSHHfob+9xDrB13zbwE48dvledAoHwIwz1OQDkY4elknPDutqXu9lFHG3S0YNCgPUXS3M66x2Ba/WCZa9jnRugTIw9gBeLGCsBYieUtS2zXxmn03Te/w7ixJ+HzT5djnQGDEKdYUfeHiIQKunF9Cikl0dLyDRYunIsNh5JLk2c3ggE88s+F+MVxk5GyCKPVOPGksZh2/a+6vbll3wI/HfZLfP8d9WBizH4/w4MPnWt7SWKlEBAOGJTQpt8zP7kEk0rj3FGj0JAiQqNdVHayXGYXlNfkrhbSyIIvT4xUxpC6bRQjiCgZJVXDL2vIZeZMsTIyGOkmYZk+vcZVyd8rhbDI5mw19BR8+P5yYVC23vZHeHHR1T0GqgASFKKaeNqduPmWhwArjsFr1eDD/8xAPdljstEUvjrnfkydei8s1CGeaMVXXz+IAQMy8gtZ50Qo6ez+ofh1FaKUE3bL2lVFkaGcXVfOeUSRC+7+WMA+O5+EN5b+V/z5R+sOxmtL7sSWW4wUGwAMpEVCnbwqy6qBZTXBSvcTOZ2U0Q/frupE2iCyoFwEHUBM4LjjT8EbSz/EK4uXIpnsFG0AnXhh4Z3Yeqse8hBG30kBuJGc/fe/HM88+4bIw8QSbZg//3ZsN3wNEeY6acI0zJg+V5yLaWrswEuvPISNNs7AkHY9kVdBOQvaDUWJb2dr7BVj9rXxgGmnU6wYVtUkcJU4X+F4FoXCWH1sF5SKEZMlEC/D5vV9OY1QPtlUSUZGfhksVUhYpr1C5O7+XaUNmTFWWhl5AqEQjxnDNX+aiwvOu94+WxBbhecW3Irhwwdnn+XIRMECVrcBG/6Ydi/Ro3Anzj77GFwx+ZDuA3FETHvtfgleeP49sR14m23Ww6KXrsre3dQrtuacQs4IsXkkRgrvInKfvN1dSYJwyK3qJ3aDmVZ/kdgnTyFmfAcjvhpvfvJ6b11bwBW/n45pN94hPAzTiOGSa6fg+JO36Tn8ZwEDBx4Cy6wXOQsy1ML6G2l7s4CxWvRjR8NSgqRWrFgsdpGRF/X++8AOOxyFjtW1MGImttl2Lbw47xq8Pn8Z9t/vMHRiLUqT45IrT8eZv9vFJkMXI/vAPn63xx5oSNJ5DOonJUKGFz/1uEMmGbuc6muBpkZYtXVVfSBP56L1a+i96nl9r3MMKgRZqGwhwyrzxK5KPl7nWApFR4LIWCq8o96PAoHYIaBly4BNNz0I7auaYBhJHH/C7pj211Pzb5N1wkYzZizCr0+4CrDqEK9pwZtvPo6NN+5JpBOBbD10It5773th0MaNH4WZM3/jvT3WMYjikdlj99BP1+99jiH3oKAZyzjHQPfztQHDhh6NLz5fLTrYYssf4KXFNwF0Q4bbn+vhODuhhg45Hp/8d6XwSA48eDTunPW73q83z3ySd/77rrufxy4jd8QGG9mhre79SRRSG7i9yGlQCI1+UpLcTA8CrFoY8S40J5djQ3yOOqSxAoOw3mbb4pGXLhNt/HbnCWjubBPeTzIex+p4DDfMvd2OoJFj4W7rJU8k1umQjTM48izoOhD38qyyzOacMx9lkUGtU1VjL1NepoyalNmlZY22rLEuJIvfcQjvvcD5DlnZs55rnbZkCC0IrtVeV5lAKIR+wonXYeaM50U4qrG5DR9+9C80ZyTTe9w7O+Q+Zo+zseD5T4Wt2n/fLXH/Axf35Azoj2lg/XUPx7JlJuJGCsefeAiu+8txtoHLJIZMbTgGW5xjoNxGxlUY+U6UFz3H4Hog7q4keto3gauuegCXXjxdeCKIt2L2rL8WuUrEPgTZ3H8suroGCCL87em/xJSrD7I3G2XutMozq/KeoyHvgdIP5FK4u9+obiew6/Az8d4nXwgvpj86cdCQTcWp7ZbaOJ5+azFaa03UmZ3YILUSA8VpQaoWwwrUoQU1WFFXh0464G90YnnLS90bIVQ3KxQrLzp1N1F5jL/wQmMCETD6PF8ha1z9hGL8GF+/41A1xLLjlmnXDzYy7VZDGSUCEbuaALzwwpfYY7dTYJmNIox1ww3n49cT7GR6FsubtP3Vwnbb7CeS0AmrHY/Ovhq77bNptkE1gR83j0YyTaGSFE4//TjcddefRKI4kxiy2jaAdMzC259+GOwcQ67nQjkZAF9/CQwbNg4rW+jCxTRGj94YTzw1pejtu0QgG673P/j6awIqgaFbrYsXF01GHW0Ay0iMSyeQKVexsh3oICPquAyWicv2OQhpkzwRCq01YlW8GQ+/+z5Ww8SEUw/FpdeeaBe3N3r15HRcIiOijAFp52T+oGY65NkPFl0B031TQMw+ee7sTsvMr3+/fG7haGHmpgR7g5uYF+5NA15EKr2o8jKudO3QC6oYysyyOp+yaZBhGj+VMbqA+6mjqiwv8lDFxKu9XPlU21cdX5TKqxGIY1zoQsIddzgbbyz5TIzlZ8M3woIFV9q7sdyHTrJ5dCL63JmYSmc7rDpstOGaSK16C3FQEt7eKSQmudmEdHpdYRBhJWEkVuPtz+b0JoZcD4QMonOtd29Q5XdrZbOefZr9tJPvwO23/0t4H4axCvOeux07jBic/5p4pwHC5VfH3oD7Zv6fnSNCJ3baZSNMuuAU7LbbBqhxH9fF9rCkGKtg0nzba4Xx79kFZedKnF1QTz4rCOqOE87EPXPmYQXWwcdYF00brI0lS/6GJtra2+uJvzceRXepZRBBLscWPYdj9RCPncPpxIoVL2W9h6TXZoaMkJ2XR9NNxFVCIKrGyZ2r5TZSfomg0Hj9jqeYF+THQ9JhnFV16nfsOmQN2oYygdgGH7j5b4swceKV4uAaYm1YuHA6ttmOQjc2y2y57uaIpxqRTg8WJ6ItJGHGV+HdL+b2xN5dI5AGtvvpSXj/3WUikTvu0F0xfeYZ3iEsYVC9w0NFQcrZWUS/vvVWG3bc/mgkk3bifPyhu+Cumad7XqVOYdV/v9OBkSPHY3Vro9hRRjcD08aBpuZ6jN5+S+y55boYucU62GbYesCG69gsK+KxcVy2z96Fd0FlyWlvzUp/ZWLDjfdBJ9ZEO2KY+PvjcMWV+3vKmeXJOQclu+8AoxPqmQcuc3/3OIiZSwA0NNfDcbcue6SrUMjDIW8mTvswim+8C7omtNT3MrCqhtSrPS1CKzQSRB4vA6vihXkZ3yByKsARqKgXHlH2cPwRiAW00sG/TQ/ByhX9RYxkwsljcP31J9qLmyxEFzDn3pfxq2N/L47N1dW24Z0PFqHhhxlHIBxkaBvv7rtfiBcXvC8M48+23xALXpjsnUQPpDa384xGnLu0xo69FHMee0c85dfUrcBrrz2CTX/SY7h6haDc8xXphLic8O3nPsCxx5yHz79t6TlJDRO16ER/tGLPYVugf7oVtRYd0KMEDl1Pn8RFTz3qHCJ0vIU8t8xmGf8U0K9+LCyTrqtvx+//cDQuu/wgJdzCfJAv6uEU2feQ6eFkjjdurERr6+JuApEOBeqYJz7a8DJeXt9nOdw+cyA+xPasoiJ3ocZUjaZ4LpW8JDGquHkCK1mgGHZ+MJLsNm+x3gTiaVHs7bNkMydOvBk3/+0pcf6heWAHPvrofjTS2Q0n9n7IgZPw7NNvC4I5/IgRuO0fk2yvwgl1uRJRwvrMiXfhppseFLuMampX4fMv7sdA9/oNXyPMn3wtNjwa05wnv8LBB08QBxoNoxMnn7IPpk61iTHfG/yEEaPYFZ2v6EgDnSkglQBWA2/MmIkHZv1TSE/0kTTq0ZYYiKfeXIp2NKILteJEekMtMO0vF2PML0faW2nd3VB5z1f0hKKIePvVjYXpEMjZRCBXOEl7X5h5V+qFX+4fcn4XvzobAPyErjIlEikckaOSfCOj93BCLeFlaL2+j6Ih1B0WUiESP8ZRBeNQJ0OVNu5JIL2f8mwzQA8DS99YieHbH+Uk09tw882X4phfbS2g+ugjYKth+yGdbAZiHXj22Zuw8y4/6D4vkhWRMYEH7v8QRx55Jsx0szgLcffMS3Bo3pPosppQJBDyPkxgxPCzsPR1yu3EsUZjFz5+fRbq1ybLZR8WzLsrLOuW2S7E0+Rz0V7fGC566jFg1SqkF7+Bha9/hPn//hpzXvsPXv2sFR0GvevEDnPV1LXgiSf+jpGj1nF2RBXK4fT8ne4Pa6wfh7TArB0ugYjX7MrCpFguL4GE1VnGEZYQu1BEQK14MQMmkzx3e9NtuNVG0VM6iEGWGYPup+sg8vrFqC/VkwhhFTBkjsHdc/cL8cIL78GwDIzYaQjmzbtc4HfpJY/hyitvEfGqocPWwyuv/LlwbN60z5dssMG+SHWtIZ7XR+y4HubOu6bnssIwteKcV/n73xfi5AlT7MR5vB1XnXUMzvjdIUDq257r3umx3zBw+V77wLDvO0GXeH9FrXPLrHtuIjdQT1a9J4D/3vttmDzlVsyc+Rwsi0gkiX0P2BYPPnCudAiKCKR/3cEwzTUEgZzjI4SlE1ZP59X1RuhnpTKCImCFDJgfw+anjqK4RYvLEIBOwlPpr5Dg5cZMJ/5RbMs/gTjJ9LvufBMnnHB+txeyePHd2HyLBgzZ5ER8+cVKcbr6+usnYcJJI/InPx2rQ+GjCROmYfo/5sGgW2WxEnff82eMG7eJUlJYgOze/uu8WrvXOQxyNdLJnltm6Y6rVTGM2GpvfP6NndBea1Acr73+KM49cGc0pFvEifHMqz4uovdXuG/Tow7ELbP97H/uAb3uLWk5qnfko8jXXnv8EQsWvCsKrDE4jS+/uMsXgdCJdT85EF2TMmcvQmF+kGIZXVKVv50wCURMdR95Ab+o5BuL6mYA1b6DEkDQ+qry9rXyhmnRmyicTyGDVwAVmrsd7XQy/TAs+9o+QX3KaeOwxx574OeHniZ+b2xuL3jQsLtZJ0b+7nsd2Hbrw5FOUiLFxBprGnhx4V32Ozdydlu5oTX78nB6oO154nfffT75j3ejpi6FP5xzTHZ995bZLjqlRzmdfph3+Y14du4rsGhXmZEU16W31bVjynNPQ/BZvq1D3Y9bxDl0u2yNfbcX7cwtuDvMCa05Hty55zyC66feLc5gJGpbsHrVQ4oEYudAyk0gfW3hqIzXK86vQgI6DaLblmz/OjwCFdzEug64eSBofVV5+1r5QATivnb1/El34tprHhBnH5qbDQwfPhxPP02nm9sx4aQxmHrDhO73cRQDmKJDF0yajauvngHDole4JrH+RnWYff/NGDq0vvssgUt4LvMJR8D9lwaWvfMFzj7rSsz9v3mYdP5pmHD+BCBm33prH65L47zRo9EvmRY7rehAJIWBXnjvNbGNduNB6+Cvrz4ONBpA0wD7zXgSHyKunXc6An+69nqMGLF21tmH3IiN2KGUBg4dex2eeHyRaH2TIc14662/MoFIYF1JRcIkEL9eiFf+RafMmbqidmUJiwkk+rNcIoTlMQh6YdIHXdhqGHkO9suWxMeKwYivwKuLp2PoVuRReMe9KRdNcf2xB5+Pp596R5CIaXShoQE46eQjcOaZ4zB4sH26OWtS0pUfHcA381/GrBtvwcOPPwATdNVvGjtvvrlIyhsxujQwKQhiVaLWvmU23iBey3fBKVPw9zvniHyNgVbcOX0qdh0/Akh0er5ru9sTEm6PgX4Ne8JAM/baa0eceur/YM8xPxRnF4R/lHFpI12MeONNi3D2GdeKm3XpRP85fzgWl14+Vvqcg50DYQ+k+Az1eaBU89rVGeoJ0pYXMbjDzjTyOp/iVdrS4fGo9KdZ5X2iueAEQlyRBg488Co8PecNkRBOx9Iwa1oxYvTGeObJa2GAzjvQw7/9Jgz3E6ewDWoQd8NPTm6gtRU44fhr8NhD85FIx1GLNOqwEgm0YbttN8O2222JtdcaBNM08e03y/Ht559jyfznsf2QLdCQpNdyO/0Y7Riz1zbY5fwzul/lKlwVOl/RNABWTQ2WLk1ixxEHI50cBMtKYcedKHl/rX1/leKBNbGttn5fcW2LvWurE2usWYuRO22HzTbfGAObm9DR0YH/fvIl5s1fjE8+WQak+4uzH5tuOhALXrwDzcTBkglmIpAGOgeSts+BlDuJHs0VU30Eku/J3C/2Mt6ATiMsS2D5xiMja249nbL7xbia6xmW6V5L6X+hUQL8oQc/xhGHnw5Yg9BZ2wo0foAp91yKw/fcFQYdisi5wJZ+74c6NGMg6oS34HzcBLMJ/OXq2bj18mmIta1AM9pQT7cIOrGqnYfs4GQ/YkjGarA63oS5b7+BVXTeAikMaIjhyKP2xxln/Ar9N6J9uM67L0SOnC5nqhPRrAMPmoynn3zd3k4ba8WTT03Drruu10N0ksZcvNfcjGHdH+6H77+vAcx+znW3zlXBrmfmeGf2FSZpWEYbhm31Y8z65zRstFGid67HgSWfGJEikALJ8ay0mmKOTefC8ziuorOrvG0F8RoKCRfEGOfzNPL1o9sA+5XZD3nkI1q/7YQ+QSq0Az0EYgGpJLDlFofh009WobNmJUb8fBN01X4BI97W/X4L+1CZhRrLQmMyifrOGB6563FAEEgMacSQRFz8pDvTa5BA/LsOHH/AeAzs6kQdWUwn8bFo6ULnfBq9FbwfWjAAnY1rYeu9xmCf8Qfg0ENHopFuWaEXOYnbaF2CdDWVwJy5L2Pc2N8Cpn151Jj9dsLs+yYjjqRzdSGl5ult43KuCFFxawsw65+v4J57HseLC15FKkWMSPdDuW04yRrDwpAhP8Kvf1n4o0YAABTHSURBVP1znHzKbuI14fk8D6+Dj/367SYuVKR7t875/XG49PIjpUNgWucsE4gnnH6Mp4zBK2W7MvJ4AaEqb5A+dROg19j62vdaQljd22ad3VTpGJCi23KF4abrYO2QkvsA2kB/X7UKSK/EOUfuh5V1JlrqatBSWyeuGe+IJ2BY9ApVAwkzhpo0UGumQa+bpY/7JkFXWWnDQFesFslYHPfe9hDSgizcu9DpjYG55OHWpPev94OJGociqM5qehUU6lEvPKQ61ItAm9TH3T7s4ECvE399yaf44P3/4LtlK0TIrbGpAT/4wVr46dZbYNNNiDV67lNUOxvh3AhAqRerJ8dSePeX1AhCLuT/anbXiBR7klc1TPZDhdzDQcjAFGxefUzFJQ1ijMPCQEeuIyzZuN3iCCgRSMG7h8SWopRtyeiMhdgam5E0zr1t1rlllu42aum/Aiv6pQWB/POReVguboyqUbOlGWMcf8r4Xl2rTAIaYxxx1KRq8PCt/0INahGXkibTw6AeY+Ltivbbp3obKdsrInIVlJglYjZ0uXVN4RWRf2bnjvQawHDvl9JvsP3L6z9kqzKf/JYNy6jqJKQokpFfvLmePwSUCKRgF0Qa9I5t8b7tToDevU3Xj4vAvYnL9t675yCeBaxMxDHl+eeBWrpetQtIkMm0Q1hdYp+UIWWys+XpMeC53CULjbhjyXnJaxe6cMiJByOZSMKkK0wkDHXeLYoifGUIj2r2TbPFRgL60B1YvcNqtqRe8pNfNIhyR3QAskCOplzn9SiMJ+6rojvCZHcDyCqoWLlyDViD7GGRhQbRijahW79MSGFrTH/7cgTi3jbrehhisTrJYTp2Td5HKomzdtsD/dNJsQvKNbhEBxfMmdNDKFSX3rA0oBEi8B/BTwoptKMTHehAJ9pBv8vmQYoNh7wjmY8XgSRSNZhzy2NiB1vuJ/dEuE1W/j/57HIh55J0TjvryGMj70gHZtKSVwCBhJFIl8anAgrqJCQmo9Io3JNAhLEgj0LcNtsF0OntdApXjNm3+2qPXndBiT2wzieftcl7y2zugMMJMcjYGfISKI+SFv8ze20/zq8aClmRB5Ntwl2vpgcO8nHIpBfKy3h7IEkksd+v90dXwn5VbeZHZnz55J/919l5hyVPIKYgD8ocUe6Ickhxi07nZ+vRr3wqy0EYD3EldPYNBSptBC1bqV5F0HFHpb5OMqIxMSHl16wSgZy26+5o7qTdUClc9MRTdqyCDARd40F3QdGJ7do6WJQE9zmTekIfqgQiV17FgNmGyB6J3/H4hKFotU569zlWCC8p+0NkZ5O3qryHnnxo3pCTCoHQfWE1qTo8fOtDqEFdr9xRJrWqypdLktlpNcM5T9Tj+ajoWZeOMo0WGxxdqEajHZ2EVE1zw5NAhPoKJcld3YqXXsfsI+LiLvGMe6mcMtIGQ/vKlyOWHo8gf1JaVawwcwDkFaWQRFok4TOT97a/44dACi1TeQKhLQFpdCGFQ048EMlE2skd5bZMnpo8wdHCnXXjrKxGsp1a8nxqMjwfIq5Etx9YaN6p6jMaZoylqAYEdJJRub0jOQLJeS9DlnH0WInKC1W5gteUKg+BeEkVzveZYTGHWLTjWVhyCq1R1oj+9c4dyeqhd/u5uaNMAokZFmKpBOq7+uGxvz+CeuH52NuuixFVCWEJR9XcKiPgPpxLblYJw/ORJhDWFiPghYC/3JFXq72/773JoIzJe3XxuQYjUDUIMIFUjSp5IIwAI8AIlBYBJpDS4s29MQKMACNQNQgwgVSNKnkgjAAjwAiUFgEmkNLizb0xAowAI1A1CDCBVI0qeSCMACPACJQWASaQ0uLNvTECjAAjUDUIMIFUjSp5IIwAI8AIlBYBJpDS4s29MQKMACNQNQgwgVSNKnkgjAAjwAiUFgEmkNLizb0xAowAI1A1CDCBVI0qeSCMACPACJQWASaQ0uLNvTECjAAjUDUIMIFUjSp5IIwAI8AIlBYBJpDS4s29MQKMACNQNQgwgVSNKnkgjAAjwAiUFgEmkNLizb0xAowAI1A1CDCBVI0qeSCMACPACJQWASaQ0uLNvTECjAAjUDUIMIFUjSp5IIwAI8AIlBYBJpDS4s29MQKMACNQNQgwgVSNKnkgjAAjwAiUFgEmkNLizb0xAqEjYBhGrz4sywq9X+6g7yFQkQTCC6TvTVQecWEE8q0HL7yKEYqf9gr1FzZxZcrqty8dbXjhXa3fVwSB+JnQvEB6piwvkOpcvn7WRS4S+daJjnbdfvwadVmN5cqq2l/Q+rJyVmu5SBOIqnJL4ZmoyhR04gTtj8kjqAaiWT9MIx9m27rRDLI+SmEvdI83au1FlkCCGr6g9QspKsiE9at8v2PxW8+vnFyvNAgUMvBeT99+66mMqtTrIwgJlFpWFRwrpWwkCUSXYt12vBaWirLKZZT99OunjgoWXLb0CAQxmJnShjU3dK1dFWT99OmnjopMfaVs5AhEp2L7MoGEZSD6ysKI4jh1exC614fOtauKv2rfquVV5ekr5SNFIFFXajmNsio25ZS1ryyeUo9Tl/fhyh0lAgk6Ntn6suVKrdtK7Y8JREFzQYyyjokrQyIyZRSGzEUVEdA1R2R2R+kMzSoOs1dxP/OukEdVSBbVnZUyGFJfUcIxqB5KXV+ZQEq1QKKmVD/j1rlAcp8aC018P3KWetJVc39+DKmMbnU8gISFux/ZVNeGjKGXkSOIfsLCr5LbDUQgMkrNBKeYcYuyYv3IpjJWFyNZ0pRtW7a9Sp7AUZPdz1yhMXjV8/q+nDioyOaHOFTWRzFZVOQsJ56V1LcygeROdlkj5fVkHGXlesleiCRVCJb6CIqlipyVNEkrSVa/89irntf35cJI5qm/2PrIt0YKkYyf9ZHZflQxLJfudPTLBOKBouqkUy3vV4n5yIIJxC+aeuupzgGZ8jJl9I5CrjVVuVTLZ4b3/BJIvpHItiWHQt8t5YtAVL0QGcPmd2KFrToZ2XV4IKrjKBYK4MWhiqbe8qpzWaa8TBm9o/BuTdX7yLUbKh66tzTZJbxCZbxGVBHNX54JpAiOquRRygWSr68wF6Se6dZ3WlEx+DLzTKW9UqHsRyY/dfyMhx+w/KCmXkcLgXgZrmpYICpPLDLjVVdVgSeAnKu7VeTUJQO30xsBWUOpu1ypdCErd648QfMbKuPz4yGptM9lAd8EkvsEXMhwyRpTvxMyLCXKyl2o/1KNp1T9hIVztbYroxcVAyfTXimxDCJPKcNLQeQsJZ6V2leoBKKiPJWypQA7KIG4MqoYCT/jihpufsZQrXW8dOP1fSYuKmXDxlOHLF4kkm8MfrxrHbKGjWcltx+IQLy8EBUjHCVFq8itqvxiC4cXiCqa0S7vNae9vo8igeh+IFIhEl4f0ZvvkSEQLzIqFXQqizqoTDr60tFG0HFw/cIIFNOPyoOKbsPtV2dhzzd+wPKrmfLU00ogNITMpwSVBZJLILltlQoeVZmDyhW0v7AXdNDx9fX6hfTjR29+6ujEv9QkpqO/cmOmE/8othWYQAp5Dn4No996OsAtx2QL2mfQ+jpw4zbUPRA/etNhUIPoyo/MQfrT8VBZDpmDjrmS6keaQErthZSDvIJO8KD1K2myVqqsXnF+ldi+Tn27bcn2r7NvWV0G7TNofVk5+2o5LQSS70nBBVR2cmYqQJch97tA/MjsdwIFneBB6/uVm+vJIxAmgfh9yFJZYzo9H2pLZX0Fnd9B68truW+WjCSBFAqLqahIhTx0TrIgC0RlYblY6JRdBV8uq4ZAIRLRoXOVhzU/ZKBzjqm05UfWXK2o9KemUS4t7LTlZwbnwU7nAgliHP1MGJWnMa9po9K/jn5V+vOSnb8PDwHd68PLq5Ediczy1znHgsgtIysTiKzm9ZTTRiCFwlh+lO41CWSGrtKvDkNeKASnW1YvbFTGLSMbl9GDgG4CKbTeVKWVmS8614dfApGRM9/YdZKfKrZ9obxWAgkLMJVJ53eihSV7mMQapszctn4EdIRkZIykjOQq60QngfghPhVZ+QFLRvv6ylQEgegbLrfECFQfAvyAVX06rZQRMYFUiqZYTkaAEWAEIoYAE0jEFMLiMAKMACNQKQgwgVSKplhORoARYAQihgATSMQUwuIwAowAI1ApCDCBVIqmWE5GgBFgBCKGABNIxBTC4jACjAAjUCkIMIFUiqZYTkaAEWAEIoYAE0jEFMLiMAKMACNQKQgwgVSKplhORoARYAQihgATSMQUwuIwAowAI1ApCDCBVIqmWE5GgBFgBCKGABNIxBTC4jACjAAjUCkIMIFUiqZYTkaAEWAEIoYAE0jEFMLiMAKMACNQKQgwgVSKplhORoARYAQihgATSMQUwuIwAowAI1ApCDCBVIqmWM6yIEAvawryRryyCM2dMgIlQoAJpERAczeMACPACFQbAkwg1aZRHg8jwAgwAiVCgAmkREBzN4wAI8AIVBsCTCDVplEeDyPACDACJUKACaREQHM3jAAjwAhUGwJMINWmUR4PI8AIMAIlQoAJpERAczeMACPACFQbAkwg1aZRHg8jwAgwAiVCgAmkREBzN4wAI8AIVBsCTCDVplEeDyPACDACJUKACaREQHM3jAAjwAhUGwJMINWmUR4PI8AIMAIlQqDiCIQutyv04UvvSjRruJtII5BvjfDaiLTKKla4yBNIMcLwQj3fognSXqmJS4ch0NGGF878fXkR8DOnixGKn/ZKvTbc/jJl9UuSOtoo7wwoX++RJZCwJrHOdl21+Z24XmovJKtsf0Hre8nH35cXAR1zOeyHLNm56hfJXAxU+wta36/c1VIvkgSiY2HkKsidWGG2rXtSBCEADvXp1ka02tM5j3ONbpht60YxCAGwdx5cG5EjEK/JW+gJw289FQiDGHSVfvK554UIsVC7pZbVz/i4jj8E/OrWbz0VKYMYdJV+iq0RWS+k1LL6GV/U60SKQHQ9NYf1ZFGKBZg7Yfz06adO1Ccqy2cjoGtuhxX3L4dR9tOnnzo8B3sjEBkC0e1B6J4g5TTKqn2rlueFURkI6Nar257sE7sXSrrXnFd/md+r9q1aXkWWvlS2IgjEzwTXPUGCLN6gnpVsfdlyfWmCV9NYdXkfueEfP+srH65B1lzQscnWly1XTfMmzLEoEUgQ8L3qBjHQYQJUKGxAfw9jK6TqrpjM8kwgYc8E7/aDhIa86gYx0N6SByvhRzavqEOuRKrrTXYt6SLQYAhWZu3ABOJlSHOfdjJhktkZVW7l+jHKqgsjHya500lGjiiTcGUuD3Wp/RjSfGtEZmdUudeGzNouhKCfNeI1Xq+H1HwPg15tqs+AvlWjJATiZdi8vi+nSlRk87Mogj5luQSuImc58az2vv0SiFc9r+/LiauKbEHWiIyxLyaLipzlxLOS+mYCKaItmaf+zOoy5b0WkNci8aqvQkiVNFErRVa/Rsqrntf35cJH5qnfa43IeFuykY58XkYhbLzWWrkwraR+lQikmHJUz2fIxO7LrWDVp3rV8jKhC5VQFpNHNJaeqrGXKS9TphyjV5VLtXzmGpG1BzIPWbJtlQPTSuqTCaSAtmS8CVnjrnuyyiwQlSe2SpqwlSCrqpGUKS9TptTYqHof+R5Ada+NfA9l+XAJq99S66Dc/SkTiKoXIjPJ/D65hwmeH5n81PEzBhkC4QXiB1l9dVQMfmZZWU8+CvpVGWMhwx7WOPw8AOrTft9pKVQCkTWosuVKpRa/8ngZdp2LhRdIqWaDv35kjavucv6kVa8lK3e5vPRCD7o616A6atVXIzQCUTFwfg12WOoIIo8Xibgy65jIQeQMCztu10ZAxsDKeOelfnKX1Z/M+Aq15bVGdKyNqOImi2+llPNFIDJhLBXjplI2bGB1yOK1QIqNQWXx6JA1bDz7cvteRtbr+0zsVMqGjbkOWfysEZW1wQQS9ixwHpQsP1opcKkbNel1OFD2dGhmW6WBIv9FdUE8hrAXCRNIqWaGv368DK3X91EkEBWvSQY1lTXix1SpYCwjL5fJRsC3B+LlhahMNJVwV5gKDNsgyywWlUUStrxhYt1X2i5mwDK/89K7ynoKE9uwDbJuWxC2vGFiXQlth0IghQZebJGU2xjqnrheytfRX7kx8xojf1/cq83Ex4tA8j2wydTRqYNSk5iO/phAdM6A3m1FnkBKFcoqhzEO2mfQ+uFOLW69mJeei44MGegwqEG0Ug5jHLTPoPWD4NUX6gYikFIsEL8EojpxymGMg/YZtH5fmOBRGKNX6FKGPNxxqM7rYuN325LtX2ffsnoJ2mfQ+rJy9tVyFUEgqiSi8qSmI5SUb3HLLMqgBBC0fl+d9KUed5gEoro2/MxVlfXkhS21JbM2dBEmE4iXRoJ9H5hAZLyQIBNGxdX3QwY6jbBKW35kzcVCpb9g04RrB0VAp66CtOWHDHQaYZW2/MjqtUZUbFFQnfeF+pEjEBlCUlVMqZL3Xk+aMnKrTPAghkRGFi6jDwHdutIx12S9FxWj74VYELlV1oYuD8ZrPH39+0gSiG4SUSUQPxNVh8yq/eo2Sn19MYQ5/jB0FcQYu2OVmXOZ/ciUL4ajX5n99quT/MKcH5XathYC8TKefpXv1a4X6DL96nCTM+Uo5QIJwyh5Ycrf+0dA91wr9JQtI6HM2sjXvkq9QnKorpEgfTKByMwG/2W0EYh/EYrXVJ1ssm55WPLmtqsj11EqWbmfykRAZY0EMcZhoRMWsYYlL7fbg0DkCYSVxQgwAowAIxBNBJhAoqkXlooRYAQYgcgjwAQSeRWxgIwAI8AIRBMBJpBo6oWlYgQYAUYg8ggwgUReRSwgI8AIMALRRIAJJJp6YakYAUaAEYg8AkwgkVcRC8gIMAKMQDQRYAKJpl5YKkaAEWAEIo8AE0jkVcQCMgKMACMQTQSYQKKpF5aKEWAEGIHII8AEEnkVsYCMACPACEQTASaQaOqFpWIEGAFGIPIIMIFEXkUsICPACDAC0USACSSaemGpGAFGgBGIPAJMIJFXEQvICDACjEA0EWACiaZeWKoIIEDvqYji+zMiAA2LwAgIBAwAFv0HLxSeEYxANgLui454bfDMYATyI/D/xtHIbgwh2gsAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>dppkh</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CbwcVZX3v3p5Ly8JBJAdBBGRRSGGJIJsSgh7ACV72LOAMkAIwgzjwET5XABBdtBPIQ6DhEVH2VwAv0FAQGAE8ik4Iy6gIiCyGvNed1fV/M6tqn7V1VVd91RX9evqPp1fCO/1rXPP/d9zz/+ec5cybNu20dGP5dZWaKtWT2mjSUqb8qMFR+gbU19dnqZezPqZxSMxj5UTW6Ct7pSHBQFBIIcIGEIggV5jO0ohkBzavagsCAgCKSAwBgTSqHWUv2b7cUQ48qgIIBh3NYcyCeHVjDQSSk/rMT6+adUscgQBQaBXEBAC8XpSCKRXbFraIQgIAh1CYMwJpEPtbK4mZgreuRm6F7F4Kra3NjRmeErFgoAg0HcICIFERB5CIH03FqTBgoAgwESgYwTSOYfsINBcX3etTejj0V16M+1LigsCgkAPI9AxAuk0hkIgnUZc6hMEBIF+Q6CzBOLf+eSmjugYimFwVrDHaEYeu2srG71i8dEPZUJt24INQ/2RjyAgCAgCPAQ6RyCxDrhZ8XDnyXfUsU5YB7NY/fl6+av1dOToGlc27nuV6mMTuA5YUkYQEAT6AYHOEUhiNJsdszo8H4xaXEfY5oQ8ZO2Ep3hT/e0qFKye5HnRm/tdq+ih1TmbuKhDyIXX91JaEOg3BDpDIOTFiAc8LiDPVRx1hA2gU1nP6/mcZf13VNjzfMF/43rPcgUGown/c36vypHv17suz0d0Ubu9vAjA32Z/u+k5/7PBXb/B731t8RNtQ/VRGAd2EAuBxBmUfC8I9DcCnSEQE7jpshtxy6pbULAM1IpVfP/pe4FSYLcUOTbTJRBylGEEEnTw5PTob6Qj9UUw9L81V25wah78meSFyA51qp7efp1j9fJ7el+bqf3eh2QQ0XqOPYgPlfPKuO0P06/pd6Rn1YdvsJ7+HhNj0vrgOmDHr6gbk1ZLpXlHoDMEUgNuufQW3H79apTMAkbKFXxvzT3AQIBAyLGZwIxpMzBoDqBok2ez3Dw9eVKgWDQwNDSEoYlD2OY922L7Hd+HfWfuh+12fW8jkdSJxkcgJnDQlJkYMEvK8zqO1WOOAorFIgaGBjBh4kRsve3WeP9OOzTK9hx5MJpwiemg6QegZBZhGxbmLlmIxacvGdUpylK8aGAd8M9nnIunH/+5KmmWLBx+9Cws/5czRwkkgI9lWFi4ZD5ODNQTGznUgIOnHISSSWRuY+HiY3DiGSc4ZCWfMUGAQyC8TSfOOpfup5OyOXqpxEPIZpswGRwso3BJQ4Yu5nku1zkC+crNuPX6WxWBVEujBNIAnuuID516EAargyiZJeWMG8uM7tqyDYCcqFmwsNPknbH83OXY6gPvVpFN6LaiKjDrQ4cp2V4+bdTZeuzg1GcpkrBU/TtO2UXJ3vIDW49GJa5SKkhyZ/SHTnP0Jp3mLpuH4zynHLXY4JFHBbjw01/CIz9+BAW7ALNYxX5H7o9zPn9OY6qPopMa4K9n9rJ5OCGunqCFVoEjJh+OgVoJ1WIN85YsxLFnHuvgJp8xQYDjsLhO3muQjsPupGwdfTzddckjjGg49UTVl0TGmBhShysdEwKhCOTOZ5wIhD51J+46yFm7H4JxlSEUaEpcsoCy4SyfGBbsmgnTNGGo6IT8a1E9T07bGF/EeReeh90PmNa0xqLqqBn4+K5HYLA6oAiiULKVbCIg5bhNkk25HSj5BVrCoN8XLGCogPMvOr9JtiIQ0pvIaSqRUxkmTMw5eR6OPfP4JsKp969HHjXgipWX4YHv/ScKpgHTAPY5eG+cffE/OvgYFKW5pFmv5xBFVHbBxieWzcFxy4+PXlMKM6gK8PHdjkC5NoCaIpD5WHjWIiGQDg8+f3WdIBBvrLVqZlICSSJb1ylzyEMIpLNGHE8gytHZQKFxGs3aXEQpLF8EEiSQepN9BDJYHVK/nrt0LhacsWg0FUQV14C/vvQannvml7j7O/fg2ad+ibJZckhhyMB13/oqNt1p83pKpk5QVeDjux6Ocm0crEIN809agHkrFjrlvAaR7D+/imef+SXu+vbd+J+f/wpFy52ajzdwzc3XYvMdt2xMTQUIhMhs9rK5DQTSgJePPFZd9A3c8a3vqmiLiOpDH5uKlZd/1iEPb23HA6gBHyfSOfrkuQkJhHBwCWTpfCxc0SURiLZhJds2rS2+s+OwKT3Tyrm2SzZ5kJ0k8kgzeuBg3GFT6arqEhOImnH4M0WeUwzbxeQRyDduh2GOQ6Vk4O41N0MtRfg+RTcVdNDUE9QMmxzqnGVzsXj5wc7s2L+Y7Fu4/t7Xv4N/u+qbKFoULQA7T98ZX1x1YXMqS828PcdpYf6S+VgQnHl77XB3jd3xte9g1TXfrDv4Hae/Hxfe8OVGfaIIhCIDb4Ha31A3VXfrdaux+rqbFEERGXxgj13x+au/CEyM2BSQFoG4RFoyB2AWapiXSwIhQAlI3uWT/UYgYTPyVtEC13FyooMsZSeN5qK8MVfXrvLqHVQmnkA8ZfzrcMGcvud0g2t13gzaJZCbr/8erNqG+PWf3sDbA4NYV/RYwcLLf1oFWs8umcB+074Mcm60/kBO/pPLt0RhEDD8i7z+ba814JIVF+On9z+knHGlVMGN378JG2y7YePurAgCsUuBJRNPtrtofdGnv4jHf/QzhUSlVMXNd6/GettOUikkZWghjl1FIGEE4kZQ9/77D3DtxVfXiel9u++AL3/1Kw55hPlEwrxOVLTWMpQ8AkmTQBJ7ZN0IIrxc0NTizrQEx1RitTManHGpI3/UkMS56T6jWy6Jw+bI5hBTsEs49QiBtGfQyQgkOJu2gNqbVTz5xBN47ZXXUKlUMHHSRLx3++3xvg/uoBzibZffgpuv/w+Y1kZYZ0zAfU9dinU+Qth6iyUwbEM51IFaWRGIBROVgQrM8pv486s3R+4SKprArx55E2ed/GmUrCJqBRNnf+lszDhyZ6iF9gJQJA9DjjMkAmkiED9pWsCvfvYszl38T0o3IqdzP38u9jpq39E1g1YE4j/v4kZND9/5E1x63pdRMIuKBLbbZTtc8o3LUNig2JiqaxilQiB+OPJKIH7nxiEFDsG04xSTOt+odiUhmrCoSXe9pN1nPX2T4tCeO87f0/oEEjZ6TeCvz/8FX7v8a3ji4cdh12wVRagQ2d0hNX7ieMyceSCG3xrG/7v3ARgYh5Ei4lNYtTJMw8acZfOw+PSDsfEWC1DDhKarN6ijCybw+19+A4fOoMilBKtgYdmKZZh3wvpKD4pcBijKMCMIpNi4nbehG22g+noFc/f+hCK1WrGiZB++5OONBOJbRK+vgXiL25Tso0ilBjx135O44B8vQKFiKPLYfIetcNWqq1DaqBy/5ZeTwmo1xW4ZgehFBtnN4PXqjxpqQb2y01N/sMc5/zBJ3HWKuDqizgelNXvXcbg6ZdIgAN16WvVgGjL0LSS/JZMRiJva+fG378eVX7oCRgVq/YE+3vbX+iSeHLjtfO/sbCpg3cBwwy6sOnwhDpJ2GR1/xgmoUJQTnHa6D9LayXs2PRVls1gnkOHSMKol0yGQwtt45ZXbVHrs0A+dpM6BmJQeW7wAx511IMyY8w/FdcCRU2dj0LTUFuTjTz0eR586P55AvF1YFP3UgP/+2XP450+dq8iDdmpt9p4tcNmqyzG06Xi9XVRcAonK66SQwsrOMfcOgcQ59VZug0sgcS4oThevvqSOU+e5tMpw28qJXiQCiUO38Xs+gbhpmB+vvh+Xf/5ylNzTZ7QYu/X278aU6btjw3dtgGq1ipf//Gc8t+ZX+POLL6m0VNEuwrAMTQIpKzKq7zKiDI7PIfqvw6IU1tsvAvNnnYQSRS4FE6etPA2HzZuiCMS0gc02m4didQOMrwyiYBGBmKgVLYyUh1ErmnjppVWRyL3zR2Dp4SdgnPW2IpAzzj8TM+YfqE8gNvCHn7+AT3/yLJjv1FTkMWnrjXDVDVdiva0nBSKPoAN1f6Zty+7iO21z9s6bKHz8RBXSiobNDvR9GIGcdSzsYvjxGZ5J6ZSOXvzOjpjcyNhVj7tmotMqf5k4hx0nL20CiZvZx+kb54TTIAcdGXG4xbVT5/m0ZOjWledyPAJxF8v/9OwfsfyY02Gvcw7yDa0/Duf+n89gt/0nOx7IfybPBl7/77/g6guvxpon1qhIZHhwBHc8fXf9HEhYBDKuNgATdvw2VXdR+oFb/hOXf+Er9XWKq2+5Ftvsuq3ShwikVgWKFWDG7l9WBEJproUnHoMlyzdHrQhsscVitavHMOhcian+pXMgBauIIXMEu26xAYrGWowUavj66q9j2w+W65FLw+4xN/U2b+lcnLj8EFX/C78ewTknnYbht95C0ahhvU3G4/JVl2Oj7TYOSVvpEwjhNod2UAW3OVMfNLFG41blT0w5Qm04qO/CSo1AdCIIyyFD23L0DJ6Url8DY6HiGoc6MkQk6l110+it3c0SBQo3W7Jg1gSVdAbLcZ6cslGkFkUIUbLjCMZfD1d22g47KT6tJgBxBJpnEmhHd20CUf6I/lMFPnvaSjzzk5+rdJQ9wcC1q67F5rtsOZqG8aZ33u6smrOIfss3bkbRLmO4OIK7/n9rAlHbeGFi9inzGs45NORyST45ordtnDL3ZLz24qsKi4222Rhf//71QNndDms7vsqoOimsco2iG2eHV6sUFkU2eBM4YcHn8chDL6JmTEClNKJOb1OUQ1uG6VO0DJUWe++W26Nsl9XiP50xOeX0rfDSH4F/WHIVRv7yB5SM1zFx4xquvv5ibLrDpr60VavtqL6T+JQmpLUWNwIpWAXYAwYKJQdwdZjSsmEXDNU33uFLz0CKMJw1JPpunbNOZRYqibbxxl6X0soqLcpHmkCtBpgmQD8rgnDXisoWMGDBLtl4272BcxLNSmoGMEL/FkbLqjvACkCJDp2W6K4boEDfuwpkHWqEtDOJA+M8wynLJbQ0ZOs6pHbTZlH1cMiOq6tu+X4pxyMQC3j1uZexeN5ideJa3cV06iLMO9U9jOdd6Be8SaThIGEJI6UK7lxzl3MXlv99FE05fpphz8Uxy49tnqm75GS+WcW/nn0+nn3sOeU0q8UKVpy/AvvPm9l4sprK0zbeyc45EIpA5i9ZiHkrFozu7vJm7T7ZF6xYif964gWss96LYWN9JXvWbOcACzV3wHRPolvADpudjJI6dEhrJZSqshW5lCwTg9YIttluQ1y76iJsvfvExjUP7yJIOnWuNh80mp/aDe2RZRWYM3V/lcLy1p28GZx/luTJcK6C8QjK+ZdkFWzaAWY7ByqXLMRRZ54ElJxT+M7Hr0TE4lPcKKG6izVXebewijZsRRp77fB+lM0aSsrbO/ee0b+VooV3BgoY/+6N8XbZVv06abiAkT+8hvWGDYzzLVoRXlWjgOFSEQ89/7wQSJuExiWQMGetG4GEmU8aM/1eIZC025EGtsE+iyWQholcDfjudd/GjdfeiGLNgD1g4+b7b8XgZkNuCmF0Jh18zjuJTs/RSfS71ny/+TLFAIGQsvMWL8D8MxaOpsWGgeo7I/j9b1/AU0/8HHd9+0787Y217iFCC7vtNxmfu+aCxoN+Xqt950BUCuukRZizfP7oSfRhoPK3Efz+N7/F0088o2T//fW1sFDGSGEQU/beE1+47vTR1BXd7Dvi3vBrAidNP0xdpkifWZ84Ak+veQYv/vb3sK1B2JiA3/zprxjBECw423fVJSW0OatgYF1xAL9+5WZUSo0TbJI1QOdj3LUnikBOnjZNRTzOdS7O7N22jfppZiIN2iTw17dfV5ES/Uxlbcr/GEWFFUVhdFmlVbBRKVZUnzhlXfqg8oF7yIh4Rr93ytHPZJgFl3D839OZmbXj3sFI2U9MtJZVQLVgYNJmW6BaLLhrW/68G633DODhex9T19kUUHJuvUkhhVUfABlFKFwHXKfrwEWBaayBRDmgbpEdN/8Ifq/rANN2vFw9O1VeF48s9eERSBVYueR8/OKxNWoWu+3O78Gl37nCPfHt5rUpHRHMadfKuOPyVbj1+tVq/YEWom99+n7Acyye7yDnaxbqM2yqg+5qMgvkaOliw9HJrGE7axQlm9YsHK83de+p+PQlK4H1ac8u5az8CwEkrIyFkw9E2Y2eiESqxaqKRuoMZZEzJCfrpIFg2bCKNqbtPR1nX/w5R7bKbZHvtjBz++0xrgaUzTLKNWcXmOfWHZ0tWPaQOv9iWRuhgg1QM5xrSJSjVzpAEcira9diXamkMjT+04RlcxgT8Ba2HG9j/erfMGRWHaKyDFieLt4EX0UxtpJ75/881hi5UQ7PGFG7ET41ZX8VLRHRLFy8EPsuXwq1H1r1hYubWs+qUbjiEJUilLBTjo0RjipL2BUrmHXAh9UmBb+jrMJQEcO99z+KYRRRC8g0FGGU1Z9BDCoKSf3TQwTCwSbO6bTjfMNktyOP064kZXWJNA6zJHVHTRz8srKstx2d/c/WCSRqPDWkmGj2e8gSvP7ia0rGjCNn4NQvLR9NRVE+e4QclP+lFhbdTY6Hrrgeq29YrVyBWTRx3X894KY33Cmv8lGUvylh2fR9MVhzZtivv/2GM3N2L0/0z4odB+xcpKhmwgY5Y2fG7X38M2JyuuNHhtw0k1NePasKj87m1aWNFFjQv3Xycuoix+wRWaVQwH2//Q3UYku1gDnTDlCpPZrhU1PozMiUfafi8FlH4oJzL0KhNg6wBhVBnLLikzjwhL0d8vUOG/pSWA0vXaSUkwlss8lRKFXXR6k22oZaoabwpLb8zttJ5mWfvH+9RWnv3SImsGC3mc5hzcgUlnvNcGkEJqqooqLWpMJWqPc9ZJ/RxSaHgdTPRKaP3/c4wm5ppDexmygoiUFSossjFYnDUNFHQzKty1/BmzQCIRT8z+o6t7QcQVZy/O1oFRFxUmFRusaRFccht9OPQf1a6cXRKas+akduLIE0CK8C8/eYA/Mdx2EddcxROP4zi53FavrUath/u+0wpG7LdX5F5ciRUM6e0ibky8jprRsYUTNTz8ErN0KpFbOoyql3dtgFbLDJJHVjrvcplAoYN24cNtz4XXjPe9+NyR+egl0OPgCYMN4p4l/AD/5sFnHq7jNQpHd2UNGSAaNMpOAoS+8DcWRviG233xZTpk3BzoccCEwYNwqDXz4t2I6jO1ZK9dt4afeYYRoqqtlp2i74wle/BAwCD9x6Py7/4hXuFfVAtVzFZ75wHvY8fM9R/xqx4EtkYrnpvUIV2GfaxSiZZdUG2giw7PQt1Wn7zbc6qWEtob72YYzALtBp/ruVr6Z02IGTF6gohvpg0UmLsGT5kW7k426QcltMu6D2OmimOt1vF9fBMNaiQFGM7/PQXQ81/OzFIxRBTMB6GLDLTbxDFG2oP+l/2lrgb1OdOMcT5+TarL7pca6D4uiXhuxWBMOV7zU+6U6ypLrEYZa0HWnbQhbyYlNYQQI5evejUBh2rjifc+IcHHPOcaMOkLY6mW4Kyz+FrpVx52VOCsuwQ1JYXiW0ralWxFx3kZjIZ/bSeTia0itqodmXKqnPst1oQ/0cs9hbLWPBZHqRkvOeEVo8PvLME4i5GrFtku2T628X5a2LlOZyd0e517mTsG122QaX3XAVsJ7r001g9dU34db/S+9EofoBe9DChV+9CO/fY6foa9/dZinCc+/COmjqcc5lk95J/eUHqwAtuPjuNcrbvLTR1jNgFgccwqu5L01xA4aiVcZ279sOVYo46I4vtdBuqJTjYw9cog5h0mavEmWm1MJP9MeJPywVPxCJ0L8ty7eKKpipprEkDzVfYaxl+DHhPMcpy3UaYyk7jSgkzT7Qxa6XCSIOAzaBHLvfIgy/tk4RyGHzDsOylafEv0eCtvFe6rxQiqIMdZ07vZHQi1y8pAf5cXeb6riKcxtvouvKfa0OpuDofSDeNeYLli7A/BULYdevMml2dKPPtzjfEHIbL90ifMwZx4/eCKxyYsA151+F++64t05i5Q3LuPKGq7Hpju71862m5O5SxP7T9oM6J2NAXfWy5PTF6syMXX/pfGO31zCozlPsecBCjBiTYFqDKFtltbShrsC3gUd+cgk232oO7NKIu+bhpBSN2gAGak70WLL/jldevd25V6wVgfheBd9QjOqidSxO2MEkkDiDz/r7pA6Y8xynLLe9Yy07DRJJ2oa4VFNcpKHmeoy3P3L7phvLswnkH474FF7+7cuqLVM/OhWfuea85gOBwZZGEEhTZsMlkMOmHoKhCvN9FzqOpv4+ELrTKuI6d093LwXnvcypVe+1us7dW3fwbcNdefq/Ys2DT6mDfBQJTdpqQ1z971dj/BYTVSSi1lhC6jNRwwhGsOdH93BSWG4UtfTEZYo89jli3/qurIbZrVVG0ZyAR374uIoFBluksJy9Yc5HraHTXxWNOMc1Nt9sHiyLwir6NC+etzrRT8FaqewEbfWPTr/5XzoW1Q+acrIehGk5L84aSJpOK6n+Orjqym6XRDqdwmoYazGzozT7SgfzrMvwCKQGXHrWpXj4Rw+qheL1N18fN/z430YP7EVpWwVuc18o5Y9AmgjEzfN3BYFY7jRaZ7Yc80Ip2hXlN+ra2hrOWnoGfv2L59X216phYqudt8ZV11+JgYlDTZGEt5eMSGKvA/dyr713CIS2yNJ2Wfr/B++mtYhAOk6RgLOrydnZNIhipaBuJW54Hwi90tYXEYZ1JWUnqzV3PSair7fcckkosZAWhcI7ePXl29S5P++jTvF7H4+x0rD64EaCNGRqyNB1kkFRnOc4ZTVUbijSLbKTkkhcFKGLR1Y4xEUxeSMYNoH88MYf4KsXX42yNYhqoYorVl+JbXfbLvomWTd1c9tXbnHWQEwDlYFqUwpLTXuj7nrivrK1wUp8qadABKJe5bpiUazjjDU6jTcSkgyKIGpqL1MNb657EycvWYqXXnSiOdoNtev0yXjq2afU7i+a8jsbDGinmBMB0LrHMz98Cgfs7uz20k1hkRTaCktL1kXa9uWehwl9oVSLmbzqIn+IEgvM6IFxKkpLZJtuThHMBEVrRB5F26gfiDSKr+OlV7/deG2/fye2vz4b2O/DezVo4N+QQY89/OQjje+D0dC33SJJHQ/nOU5Zbnu6SXacsw1rW9gaWBKnnCUOrfokrs2ctqQpK0pnHoGYQOXlYcw9dDZKw85p7Ckzdsd5V64MXwR2SeGtF97ABWd9Di8894LamksXGN759D1qd1L940vxzJoauCwwLQIJvFAq6bvAKRKowiTXrtI86qibVcaMaR9VawUUcdAayJLTlqq1CbrahJw3PUHbYWnbK20fpnMmtKCuzpzQ/Vwwsd8B+2HleSvVplmS71KISiWNwxDWr62PWZOj8fEPoIatwB7QhLP7XpQB05kEqDcz0ittY24l5jqjpvu46AaTqrPPgj60UP+R6Z9VZKLeP198HQOlX8MovhFeFR3ItMfDtAZQNAw8/Ph/hJdTGy6c/Jva/e2lBHWiSXYjmx9I4nw4z3DKcpvTDbLbdXxptCENGVzsw8rHYdGqDg7ZJNU1nkD8M1Ia+CbwlX+5BA/d8RMUa0WYJROzj52NY1ec6MzkfRcp2m+ZuP3G23H7TbfB+rupnCQ5Cv917g0T3vpMPk0C8UHT6pW2jBx6BVWsxTsYQdV9bXlBpYf2+dg+ahuyOl8yBIwUa2qBnqII6kw620BbZx/9waPuMbkynn/ueZy57AzgLee0uNo4cNwcnHzOJ0H1qGe9a1NoR1OlgFlTEuDjb18DDjV1kHDemYtaE0gLfPYNRAKRxugSgGU7Mwci2kef/O7oAdG4FBZFMJt8Qh3KHP04J/BtCm8AvPTS9a5sZ7Ge3gVTKDrrLqzF+6QjKmQnlmprxOJqlIPohzWQKIiDbeems9Jw/mnI8NrXSRKIqyttUoknEH8vkxOxgeFX1mHJ7MUYfu3vahZJTm/S5hviw/vugU022xhr//Y3/O753+GZJ5+GVaH7oChdQQcDKRXT+D6QsSQQdc/WOceqhemWTB44JkeJqGmHT1en5J1D2gYGzQEVTSgCAXD08Udj6YmnuFGE49wa1yLoKhHaTgv84uE1WHnaeTDoJVN0bK9s4ZR/OhWzjpnVeMaOCNYEnAiNrq137gqrvzpXd4ZdA46cfDgGaiXVhuHCCEbKzrmcqI//RWHBMg89/khyd+t/Y2NASkM6wr0Qs0L3LzYv89Sf9K/BFAw6t/JXvPLqj9yF+8a1qORKxz8ZN5DjJOSdQHTaz3FmHBJJw/nr6B/Xh973nHbqykxajoOjTh2GbdNl5457a+lEvb36bqrphWdewNmfOgu1NytODrvg3PTq3PHkfgo2qoUa9tprH7xr4ka4954fjW7jfeYe2OXAgOa8MEmndQ1laAW4AP823o+fcjSOPms21mJtaOv3VbuaRre6emsRFEk9ec8Taj2hKYVVHVQRSNT2Wm8toqDWJNx3fJjAT+94EBf+6xcdLOlEfcnE5y68ANMO/Ejj9fhEINPoLAtdZmlj/pIFarvwfnvsrWb0Oh96N8vQyJBKndF6y8Jli3AsnYdJO4XlVyZ4wJO+81JNOkpTGZqsuJMY3UdUFd4N77oEqys8plw7TigPBNKqfWH6t+vYdZ8PK9dOXyjT67PtubpDIJZAgpkLNStUL9kA3vrDG7jmomvwswcfQ8H0UgnO4i8RyU4f3BGLlhyLD31sd6y+6iZ865s3q/ee14pV/OCpe5vPj7iL6AdNm4kBumbDsEDrFCeecVLoIj2tLtAfOgFBKwatP5ZKMx0w5UCVRqLDcnOWzcZ1d30N6wbWOZGE+6FUEvnih+55KPRoIsmZiIkqqnIYxokMDp12UH0NZN7S+TjudDqkGHr7R6Oq7vMzp+2Pknv/lneflXcXmPK37oIz1UvOnz6VEl0rX8ODj/9U/21QFnDwtJn1CygXnXQMTumDBe0AABOJSURBVCCM2yCQ0PWWIIGrnzO410rX2segXJzj8hyTrnNUdpDwsKJO8+P09cvgOtV29eboFmxrp3XVwboXyvBSWA3W4zpOG3jnlbfxzJNr8NdXX0OhaGCjTTbCbh/aFettsYHzhHvaWf2/l9APS114s0v/LNNzwCGzR9rN5NzS5Py1KB8U+HhRhOOAadGaLmF0nBj9/OiPHmm4b8mLKJw9S+q+XLcJfgXoxUa+d054+lrAzOn7K2AorUd/VZN9kUFoKohu0rULePAJ90oQ/xbU4HZUj+g8voyaxQfxCgYnYdtnG55pcXCSY/mMtSWO2KiyHa6OpbLnALnOjFUJs3CcU05b17j6Wqmfti5MqKR4CALJCSSCTOppiYh9+GED3NvV5J2krl+B4Tlm9SI62gDr94IUeRBlmNjr4I+o/L13qaIyUjrHAeDBexyn7PeN/kXpCf5Iwm3TPtP3dK9K9xoZdQttM6Kx6wGtPFwLshx9LMax1wsGI7KImX+kPkIgveIxuKmmuHYLCcQh1D/fp0MgXmThxy0y39zsmCh6WId3VBRB/oyu8J6E9Z0XY9CnZGHqzKnqGvj6hw7n0f1MdhmP3veIOibnEIWB6R+e3hTmO+/D8O7TcqTQ78r192o4v6P1i4efeMwt4GtQ3PJCWI6fY0dZH3xrIoqUCCKyjVnL54Db+2U5JNEOAagxIusBvW9Qmi1MTiCeQ4pzrEFFQhwt5fCnHjwFI+4b8ejupcE3yhisOaRQKVWwdvDvTQRSoFfJUllzEKXqQP1AWmgUoJvb8Cbq9dRQto4w7OCTZt/xigmB8PDqstLtOn1/c4QAuqxzc6xOLIGE+l1fzr/psJgPDN3zAc57PejFUa6ztgt4/GdPjl7KRJf0oqaWy0cTMU5ayTld7Z4Y45KZv+OCEZP7cyzvBArElk9qLJkJDirEJMyO6eXq2en6kvaXxnPtkIKQgAbAUiRzBNoikL2nfgSFFqezYtcDWjUvsMjurVs4eab4nU3cmX2UX4r1VykQiJausYqkZStCIGkhGUcQQgJpIS1yxgqBFgTS6Eia/FcwhdXuGkAwGki4Z78ehNimc0LZjVkSihvVKm0HnlReCoSlZWw+ktbgay2RUkgQEAR6C4HkBBLAIak/TAPOhvufXIF0ptsJVtwtuzEVxUYBsQ10risx6O4MnY8rj7YJx81UG8QJgeigK2UEAUGgAwjEprA6oINUIQgIAoKAIJBDBIRActhporIgIAgIAt2AgBBIN/SC6CAICAKCQA4REALJYaeJyoKAICAIdAMCQiDd0AuigyAgCAgCOURACCSHnSYqCwKCgCDQDQgIgXRDL4gOgoAgIAjkEAEhkBx2mqgsCAgCgkA3ICAE0g29IDoIAoKAIJBDBIRActhporIgIAgIAt2AgBBIN/SC6CAICAKCQA4REALJYaeJyoKAICAIdAMCQiDd0AuigyAgCAgCOURACCSHnSYqCwKCgCDQDQgIgXRDL4gOgoAgIAjkEAEhkBx2mqgsCAgCgkA3ICAE0g29IDoIAoKAIJBDBIRActhporIgIAgIAt2AgBBIN/SC6CAICAKCQA4REALJYaeJyoKAICAIdAMCQiDd0AuigyAgCAgCOURACCSHnSYqCwKCgCDQDQgIgXRDL4gOfY+AYRgNGNi23feYCADdj0DHCEQGSPcbg2g4dghwxkewbJzWHDLqpGyOXtRGv26tnuVgGYVdGjLi+qUXvu9KAumkEcd1IsfI2zU6GSBxvdG733Nshzs+PNR0bLmTsnX08XRvBx9OPUnq612rjG9ZLghEd7ahYyhJDTFt2cGu0SWP4EyMftbRrVV9SWXEm5eU0EUgqV3qytclkaQEomNDnDb62xWmk65P0NErDMOkunL7I+/lc08gnNA2ifPthGPn1JGkDTJAun+YchxWO2XjHGq3yI6KBOL0l/HRWVvvCQLhkAhngIQZcdozHy55yADp7ADpVG0cu+SUDbOXVk44r7JbRSwSoWdnxT1DILokwh0gHBLhyk5CHkIg2Q2GsZTMsR1O2aiZfJRT7RbZ3LSVEMjYWK8QiOZ2SR1nzxl8OvKiTIJTT5YyxsZk811rVL9z+pRTlutY05CdBjkl1UMmWJ0dH6kTiAyQ0Q7USXeNVXjdzgDtrInmv7YkC9M6tuMho2tDOn2uUyasR3Se0ymTBgHo1tPKstKQkX/LjW9BKgQiA8QBWtfovHK6Az/Yjbr1yACJHwBZlkgyLnRIIWn/6zynUyZLAklaPzfSiuv3NPSIq6MXvm+LQDhpGE6HcMpGGU4aYXQWstslDw5RCYGM3RBthzxI636MQJKOe5lgjaGd2wmnwRzy4Dq9pIako9NYyk6DPLhYRplWUhzGzlTzVTMXX055TtksJkFJHXYrvZO2KWk0FGdNaeoTV1eev08cgeg466RhZdLO03HQSWTrPqMzQBLydYON6eojEcjYDM0k/cN5hlPWQ0D3Gd1yScZ2lOwkdXJsOw0rSGPcpqFHt8lIRCBc8uDOmpMYlK5OYyFbVzdd4wi2Qfe5VuVkgKSBoiOjXRtLO4XF0YdTNqytrXTXsds07FCnHm5vp6EXt848lO8JAuE46HYGSJwR6RhunAwdo9Gph+OE0tBJR+9+KMO1L26EwCGoKDtJY30lDdlx9pDULnXHR1z9/u+T6sKpI49l2QSSdIAEDT8rI47raF39w4yQK9szCHouibwog0oyeIOyOKSbR8MeK5117atVf3DIn9vOpDasU0/asuPkccdHsLyuD0qqhw5meS+TCwJpBTK3czmzkzRk+2UkdS7tOBudQcZtZ96NPkv92+ljXVLn2DDHaYZFNxys4uyo1cSnmydYcYTOwajXyuaCQOIMk9Mp7QzwuHriZMd9Hyff+z4NOWnI0NW3n8olxZXzHIdAuGOn07LzMMESAokewR0jkHYGCHcQtHJYHD24jk9Htu4sM+s26OjKbb+UT7aAHjbz102vpO3csrSLONlpRSFx9ejYaRoydOrJexkhEM27sHQ6Wtfo2iUR3XqyJiEdTPqtTNK+4TzHKcvFf6xlp0EiabQhDRlc7PNYXghkDAgkOOPkRlhpGHcaMvJo8FnrnBRXznOcstz2doPsdkkkjTakIYOLfR7LC4GMEYG0QyJpGHcaMvJo8FnrnBRXznOcstz2dovsdkgkjTakIYOLfR7LswkkqePjdAinLBf0bpKdVJekz/mxSkMGF/t+KJ8UV85znLJczLtJdhiJ6Kz5pNGGNGRwsc9jeSGQMYxAPIPhGiu3fJhhpiEjjwbfCZ2TYMt5hlOW295uki0Ewu29zpdPRCBJohCOYXLKciHrVtl+veLWRNJoQxoyuNj3S3lO+iWJk8yy77pRNgfPoG/SiVhkgpV8ZCYmEF0SkQGi3zm6JJLGIE9Dhn7L+q9klN3rItGP23hbYcMhkTRsOw0Zun2d53JtEUgY2wfB8AYCp0M4Zbngd7NsXd10y3EGZFzUw8VZyjefCeFgIgTSjJau3euWk/HBscjwsm0TiF+s13Hd7IzSMC5dw+tmHNo3HZGgg0BcJCITLB0UnTK6Y1e3nO44TpoG029ZfkumSiD5hUE0FwSyR0AmWI0kIBOs7G0u6xqEQLJGWOQLAoKAINCjCAiB9GjHSrMEAUFAEMgaASGQrBEW+YKAICAI9CgCQiA92rHSLEFAEBAEskZACCRrhEW+ICAICAI9ioAQSI92rDRLEBAEBIGsERACyRphkS8ICAKCQI8iIATSox0rzRIEBAFBIGsEhECyRljkCwKCgCDQowgIgfRox0qzBAFBQBDIGgEhkKwRFvmCgCAgCPQoAkIgPdqx0ixBQBAQBLJGQAgka4RFviAgCAgCPYqAEEiPdqw0SxAQBASBrBEQAskaYZEvCAgCgkCPIiAE0qMdK80SBAQBQSBrBIRAskZY5OcaAXoJlLz4KNddKMpniIAQSIbgimhBQBAQBHoZASGQXu5daZsgIAgIAhkiIASSIbgiWhAQBASBXkZACKSXe1faJggIAoJAhggIgWQIrogWBAQBQaCXERAC6eXelbYJAoKAIJAhAkIgGYIrogUBQUAQ6GUEhEB6uXelbYKAICAIZIiAEEiG4IpoQUAQEAR6GQEhkF7uXWmbICAICAIZIiAEkiG4IloQEAQEgV5GQAikl3tX2iYICAKCQIYIdIRA6EK6sI9cUpdhz4roXCEQHCMyNnLVfX2rbNcRSBTZxPWQzoAbC9k6elHbwnQLezYNMk5DRlx/yPc8BDgEwrVjXRuMssNWLWlHNufZoG6tnuVgGdW2NGTwLCCfpXuGQDz4OYbF7bIksnUGCcehc8rqDg4d7LhYSXkeAhyHxSUQTv92UrbO2PB0bwcfTj1J6uP1dG+V7jkCoe6JMpikg8Pf5VzZccbbSieJQHprsLVqTTsOkoNSO/YYVw9Xdlz5KGfeaoyHRVG69fjbx+mPOFx6+fvcEAjHmUYZGGf23gnHzq2jVYqBM0g4OPSy8XdT2zgOq52yaTpf3bRrO7N6bh1CIJ216lwTSCuHGjZQuI6T4+CzlN1qZsRJT7Sa0cU5ls6aZf/V1g4pxE0eOE6Yo0fU+NON0tPUO+3ogYtD/1ms0+LcEwhnVs518lnJ5hBT0DCTtCELGf06YLJqN8dhccpyZ//dIptDenH2HUdUYX2aBIesbKOb5aZKIFGdznF6nLLcmXmasoNGyZHNKRs3OCQC6ebh1aybv+/9NsRxWJyy3Jl5GrLTiECS6hE26RMCyW6MtE0grWbTcWpz1jXijEDHKeuU0ZmNhDltXdm65aKwa/d5TlQV13/yvR4CScYIZ8df3NjgRCFJHbfOczpl0iAA3Xpa9V4aMvSsI9+lEhNIkkERhKrfCKRbnH8aeuTb7DujfTtjpF8JJA3H3S0yOmNlY1tLIgJpZ2D4m9tPBJKW005DThoyxtZsu7/2dsdIPxJIGo4/jQgmLRndb6Xta5gqgejmPlvl7ZM6t7Dn2lmniAr7o3RvpXfSNiVNp8WZRZr6xNXVr99znSGnPKesH3//c7pjVSc9pqtPq3K6MnTsKQ1ZacjQ0TXvZdgEksT5cJ7hlE3TyUd1pK4+3BmnzsDkEEgahphUpzTq7iUZSZwP5xlO2agx0g0EEtXn7dohdyzq2F67OunUkccyuScQXQcfFpa2ioRalafvdKObMKNoxxizGBxxOOTRsMdS5ywdfJhdxtkTRx9O2agxoktOaY+NuAllOzYRh3E7svP8LItAOM46KnT2/76dNZA4R9otsuOMg2uYce2Oq6/V91xd2qmrV5/lOmBuhMAhkCTjVVf/NGTH2UBSe8xijCTVJa6Nef8+NwTCAbqdGVBcPWnL5homd3DoEilXjzic+vV7XQccxIfzHNcG4iZtOpM9nf6MsyGu3nHyonTSrUd3o0JSPXQwy3uZjhAIJ9TV7fwkM+lulM01zrg26MhLMnvMu6F3Sn8OEbQiEV3nxm1XnH3E2VeScRcVZcXpHqcrl0A48trpx7h29dL3HSEQjsNKYsC6hjFWskk/DgatDCwNOWnI6KVBkGZbkjoeznMcO9YdG0mcfBqy/TI4GHDGCFdPTpowTdvJo6zcEEgSI4hLE3jfd0J2q0HPqT8N55+GjDwaeyd0TuoEOc9xynLbPJayw+ySMzaiSHCsZHCxz2N5IZAW7w/hdKiOU06DRHTqidM7DRlxdfTr90kdMOc5TlluP4y17DRIJI02pCGDi30eywuBdJBAwkJjv9HozJTScP5pyMijsXdC56SOh/Mcpyy3zd0gu10SSaMNacjgYp/H8kIgHSaQdkkkDeefhow8GnsndE7qeDjPccpy29wtstshkTTakIYMLvZ5LC8EMgYEEkci9D13u7BO9BKVI05zLSiPgyBNnZM6Hs5znLLctnWT7KQTnTTakIYMLvZ5LM8ikFaOL8m2Q90zCq0cKgf0pAapUwdXdlT5OGfOrSdM9zRk6GDSr2WSOB/OM5yy3D7oJtlJ7TSNNqQhg4t9HsunRiBhTj6Jk0xqNDrgd6PsVhhlRbBZ4qDTD71ehpN+SdIXWTq3bpTNwTNsksuJzqOi9CQyet3OFdZ2AmTiiEEXuKwcZFT9SQarblvakc0hkXbqkRSWbm+2X67dMcKJ6BMM4cgGdiOBRGU+dNO8SfDJEof2rat7JCQikFapLE7ThEBG0dIlBt1yrfohDRmcfu7Xsu2QiBBIs9XoOnXdcpwxkoSE+sHuExNIGiQiBCIE0uuDLCmJCIEIgeRhbLRFIP4GpsH6WQOW9cybm6vNur0iv7sQ8Oyjm2ezWY9jv/xuxqG7LKd7tUmNQLq3iaKZICAICAKCQBYICIFkgarIFAQEAUGgDxAQAumDTpYmCgKCgCCQBQJCIFmgKjIFAUFAEOgDBIRA+qCTpYmCgCAgCGSBgBBIFqiKTEFAEBAE+gABIZA+6GRpoiAgCAgCWSAgBJIFqiJTEBAEBIE+QEAIpA86WZooCAgCgkAWCAiBZIGqyBQEBAFBoA8QEALpg06WJgoCgoAgkAUCQiBZoCoyBQFBQBDoAwSEQPqgk6WJgoAgIAhkgYAQSBaoikxBQBAQBPoAASGQPuhkaaIgIAgIAlkgIASSBaoisycQoHdXyDsreqIrpREZIWAAsEm2DJSMEBaxuUUgDy+Ayi24onhPIPC/9CO8qozJ2FMAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>g7ymc</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dB7gURbb+e+INJMmG1XVVVIxvXdfs00VEcdeIBLOIrOGZUHRVRAVBDBgwoIgrK0lRFNlVUDGucc1ZjKirCJIEbpjU875TM33v3KF7qrq6ZqaHqfbzu9zbVadO/XXq/HUqtWGm02nkPEbuLx7+bQkVlacsPQkyTAABD9pXftYN8HQLcOVDoGugEdAIFBkBQxNIkREuk3hNIGUCXherEagiBIx0XgTiuu5+G9n6TR/XgOoMGgGNgEagMhDQBFIZ7aS11AhoBDQCvkPASJvZNRBrsUKP4P3VSMVqD55c3nt/oaS10QhoBMqAgCaQMoDuiyJ5BMF774tKaCU0AhqBciIgP4XVZu8W7XyyqkE7oOjJ3wWV/3endPZwOPmzyvZzJjL6B1rhU2UNlQ2MKhS0HI2ARqCICGgCKSK4fNEWgRD/2m87luYB6Yx8rXUKjYBGQCNACHAJxLUfys/AFVA4EuFmL3c7CipIm90MQ/RUjFilZGRu0DxZvQSrARYyZauR808xhXUqjYBGYKNCoDQEUtBvVgeB+Mlq7By/JhA/tZDWRSNQGQhwCURlNbyMWEUcnMyIXGX9XMkSqZCQQMG1JC/gC+mhE2kENALVhkDJCETEX1KaBDKzJKIPBTd26/m0okDvrJ+i8mTSUfnkxnN/svlBAEEnHXIAySc+epUCkMzKyK2HSH0seXZ6WX+z6mmtvNDPUmImg7POoxHQCPgLgaIRiFM0UIhI4gCasiSSD5Pl6Kzxdq4DzP8bOe0QgEj2J/1ezMdy9qQ/OX36nZ4wgJqsDgbSeXutTGQwaqudRaLNAEge/U4pSFZufUQImfQgQiY56wC898k3WLFyFVas+RWNjY2or6/HJp06YLutt0avLbqgNq+MzMyjYIRTTIC1bI1ACRBwWqP0ellHCVQvWxGuCCSFJGKIIdniIlv1TjMHGUQYQQQQYj/tdhYVcnzkNLc9sB9iwegGgBjZjGmb9ZR8sgqZSUSTcXzy6iKQJCKTYj5EGjEAO+/fD83BIJKBTIlhM477bpyAQ/banemQSxXpdCq7qN66+8oijy9+Wo7Dh5yK5kCYue9wOonaZAIfv/JsS33scGSGbhgt0UsjgLkLX8T8Z57F2x99hliKdn3R+7YL+sF0GjWhIPbafWf0PWB/9P/T/6J7fYTpTMRlMC2q+3LKYtqPG9kqN2KU2jGqdNB2smTqI4OnTDlu2riS0goQSOsItBENGHLdiWiMNrDR8x2X3tGmrmFEUI861KEWtahHpGUCRwySBgBbHnwkGkI0FnZ62h6ZtwjFIhhydxEzgfpkEz596SnUZ0fVYhrIpaIRPune+3//jIZQFPEsgUTMJPbdcTs8fOeEltF9IQIlIiKnf8UtkzH9yWcQC0RALj8KE+3ijdz6WFNfFMU9/sq7uPGeqVjy8zKYhjVBZSKQpv8z9aS/mwaQNoKsPQMwQTi2Cxk4ss9BOPekQei9aReQFhsQiEgIJAdnRefKdUjFcDQyDs8J0GLoV6jxVBGICjkqcCw1fn7sGK4IpAEJ/IIGNCDF5vfPn3AWjEAjYJALBYJmCNFEFPeOuhdRFoMUHvuHEEQU0ZZ05Dx3OPRoNFEEkg6wa9nJrdE0ikG/05ROlj8YYWTfMyeIAJIIoCmZRiidRMdkEz574Qm0KwGBUPRBBLL9wUdiXagWsWCYOWnSoy4Zw4y7bkOfHbdi0QNFagb7b8OH5HzTkMLBxw3CmlQQCYpADCCSjKNDqhmfvTAfHRzqkzv1Nf7eBzF5zuOMgMjIQ0gjEjCwW+8dsMO226Bzp44wTRMrV6/Bf39ehnc//BANsTgjlISRabWaZAwjhp6EkScdhxpNIFJ9V4Wjyy9YheOzZJbaARbS3Y0uXnGtZAylDLGImRwJxG6AGUsDjUZmXp0cIP2fmeJYy1RMwWRTXGeP/Sti4RgSQRpTtz6TRk5q83s71KMLuqCOxQmZtQOSTf8zssg94F4ABGsK6c45T+OmqQ/Q4RZ0SDRg8Yv/8hSBiO3qojoHWghkbbAGyWAEoaCBdCLO6O+QPXfH7PGXMzKjx2lXMxHotQ88jDtnzUHSCAOhMJKpNMJmEu2TjY4EYi2MU/6Lb7kHM598BslgGMG0iU1CBoYOPA5nDB6ILrWZScX8a89o6vCN9z/DzHnz8dQrbzAiprwXnX4q/nbS0WwdR9lT7Mil2PIVAOHVAcqqkF+uG6ctW2ZuPhUE4lWGLPay+VTg5mcZwgRCxmamDXTt0hem2ZlNdRiBBvyy4l807c4ig3ggMwXTBBNNaESCrQy0PhdMOAsINMIw4mxkXJOswbQrHkCEjc3bOla7nVhWxBJIB9scyqNSvmswceigE/FzzGTO74Q+++OWyy9gU0eq10Ay109a6whtCYQikGQgiD8f0geLFi1CLJ1G1Ezg2al3Yo/fbpol3LYmYRHAChPY85iTsbwxziKGPx3SF08++wKC6cIEQsRLGEx/6nmMnHgXmoJhhNMpbN29Mx6YeAN27NmpIA7WJgCS8c6SZRhzw8345LPFOO+M0zDy5GOFCUSIcBU7eEtc7kaK3NUatUc3+V3Zi5NWNa/vpKUX3fg156fw6vyZjyhwGJdHiKrwLfY0JR9J/6QQmMJqVZZ1VhMwrQXtNNC165+RQj2bQkoZQHMwBQRTWL5sbktGq5NTx86NWOKI4bTxpyEWpjFw20Xa/GiFhOVHLBk3niGtEbffjxn/XMicd/uAiX/P+ju26dyuxWFz/RY3gXOj5U9hpQ0D55w4CMuWLcPcRS8imE7huAP+iLtGj0SdDaFZBDDlsYUYdfd9SBohHNe3D7p37467Zz3EIqr2bEouZworh2HjBvDNuiT6DBiMlWZmqX7L9jV4YtpUbNWBVqYyC/hOztQiMPppRXOTpjyIukgYF5w2RJqAhQilQF/g5bf0JvyIQCwSobpa9WVoiIayReiXXkeuXvNbVSo3efCcP2umth9H3aA1eFNPbvPz0hcyB0sXLzKKYG4lF+mKQHK1Y3PuaaDZBOJpYPVa4D/vAj8ua0Q83oyrLhmRQwmZRdigsQ6rl89FyACCaaApALamQtEKTa7kRh0XXH8+jEACMBpa1lhofWXaFf9ABGG2lkBuglZjPl29FIee+lc0pUNA2sTwQQNx/clnoh2SCLOl4QCbFrMcDTmVDZxqAQKxnKpVf4pocndVEYHQNtkds2sglO7CIQPQr19fHHHKMCBgoC6VxMKH/oFdunfIxlutaFrbbPsMHoYvV/zKXiyYMQ1PLngKd8x6lDlGRwIxMgQ6esps3DPnMSSDIYRScUy/fiz67dmbldXiRFkvzhkQOFyvYkUkCROoDbTdPebFQi2H70VGvg2Srr/bblukaUNA9iUNRUIp4Nuvv2ite6lDEZtK8hygiBN1IgTr704OzY8EssH5JxcEYje4KOTMVUUfqmy3lHJUDULsdG4lEBcjcMsRUNzw3vdJTJwyHS++9hZiaWu3TmY3D5196NSuHv3790coFMJDDz6K1V+vARIh1CbjCBgxxMJNSAXSWPbzghb9rAGjdZ7DWmOJIYHTxp/K1lfooUXfWCCMplAE7775LmAEYdTX4Nl7H8e22ASdEEU9apFCGMOvHI8Fr76BBEUokSBenzcHPWpo47HzyNwavJKDPnzYBfj4m+/Y9NjevbfHo3fdlF0UN0ErHbkEQq5sxKBjcf6wITj9yhvw0ltvkbIY3L8vbh8xnK3LsA5A3pyiNgAzXnwbI8eMQ8oI4OD998V9116M2++fjdtmP8b+tgGBZNEirJYlgD2OOgErkjR9l8JevbfHE7dfx8rJrHnk7qLin+vIdfTWmomzedjLs+vgFjHRz/xzPXa//65Xrw1OoeRPVRlpE99++VWLPIsnLHn5vOHCzJX1cRHi4BUmOtIVLStfnleCEclvl0Ykn1304pVARPHktUs538u2tUqdpQjEGpFPmbsA1909Bc1GiDk5eqytoG1GigbtkAICZgcEY5uhLl6Dr165HDXkSbI9vEf3QSxL2si4CNp1RWssK1b8iwbwzJE0Bq2IpZlliyOIl5e/jwv+70L03m9/BBFDjbkGdakYOjSHMGXUZNQijATqseirT3HyBSOQDEQQNJMYe+4ZOLP/MQgjxZyP3fkVFmUBePXzb3HUuZew3VXRVAyTxlyFwfv9nq0NpLEhgRDJXDz4GFw47AS88vkPOPWc89jZltqAidfnPIjfdaxtIS4qYz2AvsNH4uNvlrAtyLOm3IO9tu2JW6fOwsSHHkfKCNouolv6LfjPBzj58jFs7SNqxnDX2KsxaJ/ds2sX/Gv0bTtjzpSQRaR5AYxrOyR9t8ySggiBfPPFF1wCsQjOWudq2SDgEF2VkkBEO7gdkDwHz4s4eJFKfrTjdYQuQgTlIhCvdXNt6B4yuLEZP5Cg8BSW5WSoA9I5g9vmPIUJ90xBPBhlDjiaiqP3Nr/FXrvtgi6dN0FTYzO++/En/Of997H81/VoDkWRTEcAsw7tEil89/J9qLfu/7ABnG3eNYEu3fsjbdYzQkkGkyz6SNIay9IF7IT10UPvxSdffQPTMLBFjyAWzRmHeqxFCk0YPnY4kuE4YiETsUCUOdjGUA0+f+1VbLppdzx182yEkUQUoez5FYpXatkUGT1EelTX88bdgkdeeJ2RJDn/Fx+dhk7sgF9mId2awtrhoL9gfbgedDDv4sFH4ZJhJzAZg869FK9+8S2Lys4+9ghcfc5pbFGbnB29f/a9TzHk4lEwA0EctFMvzLh9HCOYmxmBPIGUYdgSiLV2MubeB3HHI/9EMkCRSjPeWfQEegQyp+BbHc2GBxed7JzamGTT/1Y04vR1F0vGtr16sX/m3wpgvWeOPg189+UXSr99kq+X+EwVPxLz4Ac837ws6hx40xOFHDvPWcnq4HYajUc+Tu95+ZxIVLReXto/Py8Pa9EBgUqdVMgSJhBrFEoj8tc++xYDzh+JdUaQrWV071iPW6+6HIfsth3aWwsN1nA1ALz08VcYNWUa3vzyW7ZmQYf8fnxuLtoXOuGcpmkeIJHMEEnuSXQ6G9Gl5wmMFNLhGnb6miU216Dh59kIZHeDNSKJRjSCpr5owujBVx/DxNvvRO999kE0bSKabmARS9RM2Z5fiSOMH1MNOPiYgVidJpdu4rJTT8LFA05FBwRa1jKIyCiKyJwDqWshkJHDTmDkuuD19zF01Fh2Qr1LKI0XH5+DLWoyaws0PXbKyNF49r3P2PTYjBvHos8evVnb3mBDIO2JrLMtbx08HHzB3/DyJ1+ynXB7bP0bzJtyG1usz9Cg+8fi9a2368Vk2p1DzyeKJV98wSeQIl4t4z6yKD2BuJmj9+rkeMRiZxU8J+eWGHhO1JLHIwK/EggPr9z6e21P9724NDk2/KRtfrk5PdO6q2oAjag//4aNmLuGgXnT7sP23TugPa26rlsLNGe371qHReo6YOzsxzHu0SfYGkR9MpYlEE4lsyRi7fqyUicCAG157TtgJH5Ys56ttey6eTfMnz4WW3U5EoYZRipgwgyk2FkUk9ZYli7AymbgwCNHY20szpz84QfvgnuuPQlBrEIcCRaxxCNxpAKZ8yuJQAi99tgL9035OxCgcxkBPD1tDrZBd/REZ7a+QkN02gXVSiC1jAhoCutvw05gJEFoHHTaBfj8x5/YSfDzTzkRo045lr17c8lyHHP6cDY9tss2W+OZe29kBEEaTJg6GxMfmtcmAiECoQ0ABC3JZeszJw/H4p9+ZgR3xIEHYNLVl7UsnttNYNHaAhEbGTXtGKMnd0qJ/dtMY8lXX3IvoxR13Na6Vu45lNKYeOlL4TlEEeetwuGITBnlj3y9RCy8UbQb2bn1z83n9Hc2wHVYhHfbHqLEoKKNSm+dakt0RSC02Pvy599j4NnnoSlci5CZwtVnnYazBxyROWcQj2HkPvthk0Tu+Y80VkbbYfsTz8CNc+Yyp1yTSmDxv58GEjRBJPFEanH9Q/Mw7oHpTB5Nn02bMAb99twFRgIIpNpGLFRCjx6DEAsGEQvWswN6zGUa6/DVB/9Az26WM06gEU1IIMFG3bTGMvyWkexEOE1fhc0Y2iV+Rack8MAV96CGnfFOI4kIGlCLHQ7fH42hWkYSFww5Dn878Qw2RZZCFLOffwNXjruVRSFd6yJ4c+50tAsB546/Df9c9BID4eZrr8LgA37PIgeK9CgCuW32XFY2u5rlxX+xyMIiEEpDBLLPXwbiix9+ZARCJ8gJ34gZR8A0bQmC1hYKrUFYF5/QT5FNBqQ7b+pIlGgkrMFXWXjz7aVyTjw9eNEBjwys924iHRkCkckjWjcnw9HEIN6ljHQ6le3b/MvyyFld8/c5uGvWI4gHgugYTOOdJx7CphEjc94iZQKpBEA/cx8TOKdP/8w6RiCIsJnAJvH1qE01Z64sYR4ok+eKhQv52sdM9D7zfHxNC+JpE/vvsgMevWUsc65s0p52gOXViqTHgsD735o48uTT0RisQShdg3WLlyOcJDppBgIJJFjkkhkvP/jIXJx9+Wi2tkDlzLz/Juy7XUa9odcdj1h0Dfs3ndtoDobZQvl7/3mHbSU+6YTBGHnEmQiyNZZ2CGFz9B9wGpb82oRAOsmI97BDDkbfAUMQNw1stVkPPDnjPnZanZw2kcMtU2dg7B2T6cQmQqlmRgy0SE7ETajRtSMUudDVL5GeW7KN0P838FhcfuZJbP3Dyy3ETruY+I0jlmJjJRS3o12eI85HU9S5yerBuqKHL2c6TUvZWQVvowBvm6+snqIYillydadyRSB031P/80bh9c+/ZEa21w7b4slJ1zGnV3AEmjDxxMRJmD11GiOQaCqBma+9ANgQyPjDDnNsEXaeIxDCstp2eD0Zwq/RKGqSCTxy393YZfutM+SVf09HrjS65DAUxqlnX4hXPv4cSHXCVvW9sGjeGLbTi7wynaanKTL62Xmz04EgrbHQijKN6BtRm/4VP6x8CithohEZAslsT43gj8fvjV33PYBtm42mkoiYsczOsEQE066ciRlzn8IYOigYTKFp1deAEctMjTEhMYRTSdQkiKwCMNI1iBsRRHpsydYhKMr66MWFLbfxMgLJTmPtfdRg/LcxcxniGf37YPxFZxXlBL7KrqIJpC2aog5fxmm6dZhedRGdSspFwG4noFt7Ey3XLR5u9aim9BtMYRXa778OAfxh8HB8s2otImkDg/r1wR2XDMveZOUMGznYiXc/iCkzZrVOYb38NJAsNIVls8gZDOObH5bhxCEnYdtoFB0SMdQnYuyqkHAqxiaU7J7WqCYABEJY+tzzuOiacWxqKZoIYcKEG7DFoQdmVp2jQGME+ORH4IghQ9EcoI0CSdx45aU47tAd2ai+S/dDkQpF2h6ep23M7dpnyIYt2hgw0o0IBVcjgvUIp2NsIX9dOAqzJoY9B/8Rb72ziKlb07kjnr/jUXRCGO1QixoWsdTj1qkzcNts2sbbOoVFZG0tjltTWIedchY+XLqaEUihE+/uDFvtIvPGShj5mIo6X1X57NrULcnYOVSndYfc8kQXt93ZnX1qno6USxOICqTdyXBNINseMQSrEnRlegpnDTwWY4cPykwdFXgylwQ+wqa+mgMh1LFdWI+DFoSdn1YHZjkfWqg+8Yrr8cHL/0avX9dgi+Z1eGDmNGDzzVqmwDJrG22ljj3s0JZlYnLGdN16UyjKpoDI6dIVLPEgcN9zi4BoFA0GcNXkaZj28FxEkEbjsp/QNd6AGtpFkOqAtNkJ6VQnijNYQWyrqxHAuvWNLFqgjkXrILSI3xSO4aeVC1iEQwvjE6cuxO2z78XaDquxw0G7sqkxisjo7EpdIoloCpg8+m62x2vijPtb1kDapZrx8YKXUI8YItnrJumidyLBwf83Eq8s/p6t2+yz7RZ4bPJEx0skxUd6mkDcdaVM6nITiEz5ooRTaAFbBisrj1u5oru3LPkymHipTzXlLbCNN8+BpMEc628Pz1w1Tpf1nX18lkCsLTYOyFkEcufMOYgHwqhLNeG/XALJCLPOIdBoe9F7n+KES65iZNCluQHD/tIPV444j03/ZHovRRhsf1Fma2+LBZmtay30t0AQW2+3IyMSunmW0obSNP1lIkmn24MhrAvXIWSa6NbUiAO32BSbN65Fu3gKSAdx9YLngXSY/TtDVnTfRwBD/7gvk0mkNPykE7D/heeAPHnHLQ6HadYxZ58MhZEI0pyUiejWm6FLfQ2enn8NuoRaz4X89dqz0VyzCg3RJNaHiMICiJrNuPf8iagBRVp0zX0aNeiI9tgU4yfdj3ufeBqpYBAdzTjeXPg4NgtRMGW3Adcf5l2uiKTY5co6K9l8ua3pduG8kCWIkoqdDJFIwA1p8NZK7IioEC56CkudD3BNILscNxQ/rGtmTuykIw7F7RcMRR2HQGjtZMwDj6CFQJIx/PA8nQNxPnjWYhQ5F/wdOew8vLPkJzba7xwOYNGjs7FlXet5DMeTzgZ9RCmzLEwulU52v/zm2zj02OOxnu1pAk4dcBSuOOd0xgePPvMirrjhFtQkk9gytg5vzpoOtG8PJGgfGkDrNLnnUhJGiC1mNwejaA5G2BpI+0QTI4ybnn8pO63VeqnfzTe+hlmPz8d3P3zPNhSETNo1BaRC69Bc+wu+XfkhGrAWN8y+GVOmz0KKLg+Dib333QfptMlGuVR+KBXF1FFT8cw7r2P46GuQCgQQopPo467BMbvvhWjLxfgZNPO/v8II2uHEtjoTs5dUbEfupH+xy5UlAtl8bh2lKDHY2YXoyF+0DMv+8tuKl9/tQr1KYi12v6g0+QIHCTORSDptoNEw0OesS/HON9+zvx20206Yd9NVqGcEkjPllHVKlhG2fOdi5qPM0dJHln54bi5b6KVchW5qone/2WEnNAZr0Uzbbw26MJE+8RpDLa17pJPstlrr7ML3X33J3VJKU0k0G3X2VeMx7/V3YBohdK8N4bn5M9l03IDhF+D9b//LIpAT9t0Dk8eMAhK0u6zt901aGju7OL/rPgdjXThzDuSiwcfh3DNOx98OOAjt4hQBRVkkYdKplewHsOhAJKUlMrh6Id0FFmQRVL8ttkEctUgixC5aoc/kro2E8eXq17A2kjl3Yp0DOe3akVhfR9FKAvFg5kNfFK1MO4/Ok2Q+9GU9drcZqzRYezLK2k9243BrXJi1l5ZdeM5Ek/lcMm+jsMqayMuSJQLZfKQpz+Hm1sbN6Ft0jUNUpp08Ud1FIhaRdRILC1Gd5S2hOnIKEwhN01Akcf6tUzBzwbNIIYhuNSF8NH8Gu9Zjw0v7WqefiEDGTZuDO2c8nF1Ej2HJc/Ow83a92PoDPXbnEsjZ0prFO59/hr6DTsPSVWuYw920Qx2ee2Q2OrKReWt++s06I1Go+axL/Ra9vxhDLr4ie8dVAteOugK/2/I3OHXYmWgO1YA+STv3jhtxYO9tNvimea78/OvcrYOEY04/AVizCogV2CyQHRKPO6wf0qhjayupdCekzM5Igr5uGERzKIT1oTBe/+B9drMv3RdGW6Ibatdiaefv8cmSxbj4/muw8OmnMlN4qQT6/H5XtrYSD9Jna2lXF1CTCGLW6Mks8stcwJK51jAOAwlGVpnHYFsF6IPEBrvmxct2YCvGzFJ8Dg2IEUildUNZIvDqXGXLLYSvjHN3I8+NExfVxa58N1G2G50qzTaLoa8AgbQWS25w5kv/wYgx1zMHS9tOp1x9KY45YM/Wa8NztLQcdY8ddsa6SD3MYMa9G6kYOsca8dPijwqedKbxPk0aTZz+CCY++BAjE4perh1xHs74c98NrkWnop2cXe7UhbWuQoR44Cnn4fOly9lUzk477ojf/nZLLGRnUQLYeastsGhqZkGaTruzG4Zt9sjbE8hRGD3sJITiycz2Yu6TPb5HaysZL467Js/FpNmPsMOHtEaz+OWHMWLfP6Nzc4aQGsJhLK2tw8LFS7A82g3pEB2SjALJODo1rMHn7z6H2q2A5uy+AiLYiy87B/X4HpskfoFhNLGt0GuiEYy9+l40ZdGjScGpjz+M9qmOuGQAbQl2P/5302m50GQTtJ0p9bjIX6S5LJnpEifnKOrMZMoUxZznuEV1ZCad13fc5LXT1wvpkjwvEYtVttc6iLaDX9MJEwgBlTAMrASw/1+G4Ef6EAjd/9S9I+bcdw82qwu0+doe9U9ym+Tq/j73Sdw69QE0JDJjXJp6+vqFp3KuG7eHh30jfH0cfQeejF+SmWvJe/fYBE9Pn4KObIwsvkhs5y8oMrp7/nO4ZtLdLafNyTACJu2GSmL8ZSMw7ND9uF/kc4pA6CqTlu9xuLAA65LEG+6fjZtzrnP/+YX5CK6iq2LWZT+SVAdENmFhVyoMXHfPF5g86xGEUyZ610XxwbtvYW0kikQwgEAqBSO8CmbtYuz9+67YJLEGdGx/dU0YDz/6Ak4ZfxmbWmufiCGUCiGODti19544f9AwVocoGhDKfmEy8+nh1oiFIpU6tm05CJh0L66RiYSyNzS7qPqGSbOssWH7+ZNAZBylVwJQ7ZhzG6HSCKSQrfHq4pS30GBIE4gTAjYe1/pm+X3zFuLyO+9j3+Kg3Vi/6d4VFw49Ff+7797oVpu5FuSLJcvx8hv/wcwn5uOnX1az09w0JUVPu2Qzvn9+XsEDiFQ8RQgX3jIFsxY8y7bcRlJx3D/mShy93x6MrDLXG2a+qyEzQ056Lk0ABxw5EL8kDUYi9NDC9uZ1Ybz8xAx0s4iqwFx9WwKhyxRTLXdheSGQCVNn4aaHHmN3jnVINOFr+iIh3TdGi/ksHIoA9O30QGaT2XoDOPniSXj17ffYH2iNJVJXg0EDjsPwIX9Ct3aZtZOePfdDOFWHNOj0fAgI0tpLGEa8GUO22hy16Ub83C6ATv/TC7+0M4HgSnRNf4na1Aq2ijNh7F1Yi5qWiKU9At2QOzkAABwXSURBVNiUprrMKBCjVaQoEIkCJNvz47SGYi8432yLFGgUrJVIRMFzZqKOySv5iDSPSH1k5IjW0Um2DHGK1IXXNry6eq0XT76f3jtHIDY9z5r6YTfIXnk9nn3zbXaNBz20XhBKp0A7VE12BxN94jazhkFz8HUdOmHN+ga2HFqfbCh4DsS6SvyD//6CQ077KxrZlSVp/HH73+HJO69nC938Dx3xYaYIiabIrrxtCu7/17NoDEVBt5jUpGI4b8CRuOqsk7Mnv7PbgB1YakMCyVznLhKB2I1urAiECOTmhzMHCYlA6JO2ubfx5teQlsyXp4BLrr0JC155g20ZTiLNNhrUmCZ23m4n7Lz9Xtikw1ZIJjpixeomLF+5Eu9+8CHWrmtAt6YGtP/wLdRhLZbXJvBz+zgaOqSA0Bos/+xdHDtgX0bZv+ndG79Goox8KGqpjwPdG4CfP/ya3Wo895lnEAtQyQnUZM/pt9GVvhyZiAIpkdUVIrDMDQJpimo4u8b8QCB2UQjfGtumEHVCMk7UrS4iTldEpmpdZeV5JQi7urqZshVtWxFMy51GeArLUtSamloL4PLrb8PcZ19kkQgjDNoNFaAF2xQ7SBc2U9i8U3tcOOIifPjN95gyfTa7yqSTkcS3C+c4HiQkR0iO/ZRLr8XT737ERuB1yThm3nUr/rTjb5lTl4k48sG26vLe98vQ9/Rz0BCqZdNk7ZJxvPrwNGzftZ3tZYL5u5aVTGG1eD6T7bwimUQg9EEpit4cCSTHY1r1IWKc/NA/cdf0WVjZHEcsQBFa9lpE+iYLTTVld4URJmTQAcNAbaIZ3WKN6BxJ44g/98WJpw1E154d2FmczbvtD6Qz++aI0GhdhjZA0JckrYHFOZfdmPleS3g1EPkBHVK/IPbO2+gYi7W5YaYuXotuv3ZDXawWVyx8unAfoBtWo7VAh3aZqCbvKUeEIdppvTgqESdTiujDqquss87FSoUMVfK8tE2LL8y5/VeEZGXKFLEDUXssRjrXBMIcTs49TK999h0efnIB3vrgI6xYuYpNm3Rq3x479doOB+2zJwYedhCLSsY/8CimzHyYEchvOtbjvUfudyQQcoDPvfUhzhxxKRroex8wcehef8CU60ez6INiHjeM7wQc3ThC+tLnaPcccjaWrPqVbd09fO/fY8bYS1lZ+URl57Cs73LsdGA/NLIPbJk4f8hAXDr8lIK7t9qOyrO/GRkCIZk3TpmGO2bRJ20z60afvPw02/qcObmSffIVovMkgcw04ooEMP2xJ/Gv51/AZ19/g2S2NtaOKDZSpi/Gp4H6aAR7/X539Dtofxxx8H7oEsxcmcIm9WjWLAmk6RxlFhDrHEyPnscjFoijubYZiDYA0SYWsXz88cfohFW4+ZKh6BiPsTKYKDpDmQjj8gnTgEQNLqW7z4w4AoFGGHnbjq0qxgK1uGXRG0CACCRvv16hu8+YgOzh0lCQHfYs9cNzGpaDcOtcS0kezE4ULICrkKGKQJyIUcQ+3Dh1HrHIvs/X041OInUUTZNDIO4WJckfWFNNuV+uswq2rgKnnxRNXHbXg/jHvCfZsvduv9sCz9+b2d1k91iyyYlaW0ut76PzrhcXrTils3aJvfTZ1zj2vL+xb5XQ9NW0W27E4bttx108z/Xhud/7pr9bazQy37+wRvSWTPqd6k2y2K3HnErm5mcHJwH8Gkvjw08/xfJVq7H617VobGpCNBJBj25dsc1WW6LX1pszYrLajcprwdrhuyyWGkRYRAy59tCl5wGImHWoTSYQNjNnXej5efmLiIWBoZdei+ZQHAYt8GM1QqElMIJrMGn0pA1q1xURXLT3cehGl5RxHtvbnCM1QPsOQDTcclsaD0NeOarfq3auKvUrNVmp1N2NLJ4zdyOLl5ZXFu99vnzeQKXFVzl8M4Wnr9N7eQLJOyyYW4AVHWQu3DDYYvjRI67Bax9lvro3pH9fTBoxnHuHlmylnPLlRy1W5PDX0dfjidffpbE4dt20C55+8G7Hu6RU61R0eTm7mOw+U2t9+8MiC+cpIfsBhl16dqu/Q8TSvefxaIw2Idnhl0y0Qo/RwCIW+rrJ+RPOz/yJokOyHsNA9/XA7FGTgHW0wBbKfKLSpI0E1vCiFUW725zXRGpw46uvaQKRNDY/k5tklXybjUccvPe8innNvwFxpSVjnw0ch8OuLXLSX65uxH7Hn8Jutq1JxXHzFZfi5D77oCZ/MYFXe4Xvqdpxw8Dnq5vwpwGD0RCg74OYuP68YTjjqH5S22+9qFeKuXwrMsnVc8PvfriLRFtGNi1Cs1urycfntq9VQYqIaIot+6lcykY5um56ENJsjSUzTWZFLLTGQjRx7mXjEEEKNc01eGDipZlwx6ShifU9mawCVGj+WR2augqGyzKFJWoTfnbSftZNFN9KT8dz/LnvJV26FERSayDUdxf/dym22mJTNp1iTdPQv3P8BJvHX2MCZ14yCi9+tJiN8LeoDeLf82ehC83ll4hA7NZLqGhyP1dO/gfunzuf7SbrWhPGW4/NQDfyNQJTRVKIO2QqBYGI6auCQGiazembhxktctuE1lboiBAFFtZjEUibiCWUBGK1QHMaTT+9ijCBlmtwORVkpbObkUvckGIgt0nlZwftZ90koN7osvCIpdgVtvmkLd+B0JrG/kOGogkhHLzfvvjD/+yKXXptjx7d6tm6AS2CL13RiH+/9Tb+/vCj+PLHpewCQ7pa47pzzsDw4/q3rBG0XqdY2OE4AeHW8TJ2pu3FtOU1DvzhmBOwKp5i0cfQY/+C6885pc3iuVv5vAZrlcfHmSfL3Xsz67SzW2cFKqZio4KQjnlrLLkRCDWXGWyNWNjHiNNAz879gVR7dq1L5snYz7JlD7Of7JgMHW+htXPr0mQhZdQkEnG85e78IjUVqYeIHJ2mtAiUyrakCIRG7vueeBa+WraS7eKhdQ06p2HQ1t1gEIlUquUcCH1BkB7a3XT0wftj8qiLGMm0Li7bOVJvJ8x5TWWds5j8yJMYfe80JIwA2ptxLJz1IHbt0b7NFSkCfpZXXJv35SSQXEerejVZFdlw8c6SjdOusO49B+UQyBqsWPl05lC8q1bynlh0UTO/pFJOP/BqqcmDh1DlvVfdpvwprJwebTkJOkh4wJBh+Gr5Sjb1Q2dAyOVbI0dGDjQCZOSSROeaCM45eQjOGnw0I4/sZRdlQ5/OmdA5loMGn4GvVzWw23z77d4b/7jp6tZtwlntvDoerkMsGwreCubWKz8BN0O+Pm0HFm2yF9gVlhvHWp8p5h0+9IaEfW4ZAvETebAoTsHW3WJgq2X6BwFXBGKpTVNYb37xHf79/sf4ZPFX+PbHH7H0l1+wvqGBnRVoX1+LTTp1xE7bbYe9d98ZRx16MLqHM1tQZba1qoaLCGTeS6/jwtHXoilA982mcP+Ecei3124t5zZc+zsHJVXJUYmBaLRQ8A4gHsFKEkhrmQUIpBAYHMBF664Cb1ES8Rtx2JEH/c2PeqpoJy1DHgE+gdjItraDWl/HcNrdYy2w554J8Tqil69qa07Sl9ZprDMS9MbLuQ0VOmkZGgGNgEag0hCQIpBKq6TWVyOgEdAIaATUI6AJRD2mWqJGQCOgEagKBDSBVEUz60pqBDQCGgH1CGgCUY+plqgR0AhoBKoCAU0gVdHMupIaAY2ARkA9AppA1GOqJWoENAIagapAQBNIVTSzrqRGQCOgEVCPgCYQ9ZhqiRoBjYBGoCoQ0ARSFc2sK6kR0AhoBNQjoAlEPaZaokZAI6ARqAoENIFURTPrSmoENAIaAfUIaAJRj6mWqBHQCGgEqgIBTSBV0cy6khoBjYBGQD0CmkDUY6olagQ0AhqBqkBAE0hVNLOupEZAI6ARUI+AJhD1mGqJGgGNgEagKhDQBFIVzawrqRHQCGgE1COgCUQ9plqiRkAjoBGoCgQ0gVRFM+tKagQ0AhoB9QhoAlGPqZaoEdAIaASqAgFNIFXRzLqSGgGNgEZAPQKaQNRjqiVqBDQCFYiAYRi2WqfT6QqsTWlU1gRSGpx9UYruIL5oBk9KOLWhjNBSO0aV9mcnS6Y+MnjKlCPTPpWQx3cEItOgTkCXuqF1B6kEk69sHXX/AFT0MxU4ltq/+NFyfUcgXkDKN4pSN7AKw6b6q5DjFgtVIzov7afz8hFQ4fisUvzSP0gfN7p47R+VjCHfQkqbQhOIQrwLGWa5Ooibci0ocushk18hpFqUQgTcDioUFs1EqegfXmXIko9sPtUY+k3eRksg5XB8Xo1bRSdT5fwtOeXA0W+dZGPRp9oJRFWUraqPbQx2pQlEYSvadVC3jjg3vdsO7za9wqprUQIIlNPx+ME2eFNHvMGK6vy88go1qdt+LWAeFZlEKYHoDtJ2GyAZqBtM8tO67fRuyqpIa61wpXkO0O1agBs43NqSG9miaQsNsETq7qV/qIo+ROtaLemKRiBOAHphfZERgZWmWOW41cGNU1fZQcpR/2rpNG7rKUIc+TJVtZ/o3L1XghGxcx6BFCIRL3ntpoZV4evWFja29EoIxE8dxMkwytVB8o1XRD8rjRudRTrwxma8fq+PTL9QPQCSJRCRiCAXfxH780ICKvO6rZvf7ayc+nkiEFkHp7IBS6WDbAcpBYG4waCcxlZNZXshj3L0Dy9TPKL255SOl182n2VvPPnVZJeq6ypNICIO1WmEUqwOIhKWutXbTfhbyFALlev0TtTwRdOpNh4tzxkBtw65GG3oVQfRfiqquywRyObTBFL8HlrRBCJquF6JTLQcTSDFN9hKKEHUXrzaJQ+LUujhhqRE+0c+cekBFq+ly/deikCKOYp3A4WMHqJTSjKjF16H5XWE/AiKJ09GRzf46rTuEXDjUItJIKXSw005MgQikye/1UT7kfvW1jlcE4hsY8jmc2oiWfLwG4GITm0Vmk5Qja3uFvIIyLaFbD6R/iE6FeV2QOKGPPL7nZ1Odhjo/iFvi6XIWZUEIkoibjs1L32hDmK3fsOT57bDl8Kgqr0M0TYr5ihZVge39uSVQKzynHYd5mOkI3T/9a6KJBAv0YddJxHZWisyirPrUPn5RNJ47cgimwn8Z4obh0ayzls2nx1qKmSJ9DG35fBs3+m9U98TLV803cZhgaWthSaQAjeBujU8mU6nYmrKrZ6lNbHqKk22LWTzFSuS4UUXvPcixJYfgdhNc9ml0QMs//SpiiMQESctCm+hTitTjmgeUWehOp0oLjqdPAKibVYMxy/j1J1qWkgWL5IQkSka9esBlrwtliJnRRGIbOcUMehcQ5UtRxNIKUzW32WosJ1CTrNQ7WXLLkf/KCUxqCRWf1tf6bWrWAJRMc/v1OFkO6JsPrcdWGR6QAU+pTfHyi9R1gZk8zlN58iSUG4LlKt/iGIhkk42Wqp8SyxNDSqGQESMRQYyu6hBNJIoxjSESAfOT5N/668K5yGDpc6z4UeTRIncq317zS8yKHFq31LVUaa/ES52/UP3ETW91TWBULEyDtargcuUKQKR0wjFyivaOfJxUWGgbjFzm14EH53GHQIy0yUyeQoNNFTYXqHIJrdsv/cPGQIR6UdWGjf1d2dJlZHaM4GIGKvqDqK60VSFuSKG58YsZOSJEK2IXN1B3LRU27Qi+KokALfluanZxjzAciJCOzxV+Qg32FdCWikCcRuFqCQQ1eRhFznIRB9+iEAKjRpzcdMdpLhdU8TZqHLMXvuWCBIi9ZGR47UvyxCnSF14bcMjHq/1EsHSL2mkCYTnMHmNIAqyjJHIgKuiHBUyCo1MRTHz2jZOBKqjEnHL4tk/T5JoW6u2OTu9RJwurz48mxTJn59Gtu5e20aWQDbG/uOJQAqN3vOdkIrGFu1UpTRGVQ5fpOPK1F+ms8iUk2sLsvll2s3PeWSwdxv9yvYrt7ipKEeFDFX9zUvbyA6w7AhENSZu29Vres8EIqqA34Hyu36iOBdKp2ok6UaXasBVBnM9wALbHeXlUWFbMkQiq7cMgfg9atEEkrXgXEOSNRAvnaFa8/q9g5SqXVQ4w2LpaudkN8Y+4scBlt/7hyaQvG3J1Ak3xs5RLOei5apBoJIIRPcPNW0uIkUTSAWM8HX0IWLKOk0xEdAEUkx0texiIVCWCMRvIxhNIMUyLy1XBAFNHiIo6TR+RKAkBOJnB+1n3fxoMFonMQRESKEcc+5i2remEqmHW5k6/caDgDSBiBiWSJpyQ6kJpNwtsHGWL7O7x2/rb5XQfzdO66mcWkkTCFVRtJP4bcrKah7dQSrHUCtNU9G+kVsvv/UT3T8qzepKr68nAim9urpEjUDlICBKIn4jDj3AqhwbK7emmkDK3QK6fI2ARkAjUKEIaAKp0IbTamsENAIagXIjoAmk3C2gy9cIaAQ0AhWKgCaQCm04rbZGQCOgESg3AppAyt0CunyNgEZAI1ChCGgCqdCG02prBDQCGoFyI6AJpNwtoMvXCGgENAIVioAmkAptOK22RkAjoBEoNwKaQMrdArp8jYBGQCNQoQhoAqnQhtNqlwYBOk3u15PipUFAl6IRcEZAE4i2Do2ARkAjoBGQQkATiBRsOpNGQCOgEdAIaALRNqAR0AhoBDQCUghoApGCTWfSCGgENAIaAU0g2gY0AhoBjYBGQAoBTSBSsOlMGgGNgEZAI6AJRNuARkAjoBHQCEghoAlECjadSSOgEdAIaAQ0gWgb0AhoBDQCGgEpBDSBSMGmM2kENAIaAY2AJhBtAxoBjYBGQCMghYAmECnYdCaNgEZAI6AR0ARSJTZAlwIWevSFgVViCLqajgg49RHdN5yNxlcEwnNyMrZfqsbn6e5Gj0KyVMnhYemmHJ4s/V4dAjw7c1NSqdtYpYO2kyVTHxk8Zcpx0y6VlFYTiKLW4hmiqNGpkMOT4abKonq7kanTyiNQyW2rikBUyFGBo+4bgCYQ+b7cJqeIQYoYHE8OTwYvv0x1eWXKyNR55BBQ2b6lbtdiR9ai9alkDOWspni5fEUgXqqpYlRSjPJzZfIMXMSwC8ng5XfKK5vPC146b+kRyG9nnj2q1lAFgXiVIesnZPOpxtBv8jSBKGoRnhOmYngd1osMrx3LgkHV3LIiWLUYhQhUO4Gosu1cObw+rbD5fClKGYGoahwZlPwwOhBx/oVIpFj5ZQy83I5GxgYqIU85HY8f2pRn4zxbVZ2fV14hm7J08SKjEmyWp2NRCcSpcNWgVzuBqIo+eMai33tDgOcARaJUWQ2qnUDKOcCVbbNKyOeZQEQ6RbGIhFe2RVReCUbE+Hi6FFoL8ZKX5HqtXyUYaiXr6KZ9rXqqGmSJ2oZXghGJrkRwkF2n45Gv1/pVsv0VU3dpAhExBp7iXjsJTwcegfCMzs26AE+XYhGIjj54Vla+925sIl9Lr32jkO3a2b3IIElkSqdQnxLBoxgE4rVu5bMg/5csRSAihiBSda+dRHZ0VciZ5+utogw7LETIrVA+tw5CpD10GnUIeO0jXvuGk324cdCiOoiO7kUxyS9XNp9bDNS1fvVIUk4gdkYn6oTdwO525O02vVsHLWrk+VMUsvnc6ucGW53WOwJuR72iTtiNZl51KBRN5OohqruorWsCcdPK5U3rmkBkyEAmDw8WGZlu87ghnUKy3b6jDiSqq2g6Hp76vToERB2qjBN2o2Up9HBDUoX0EX2XSy6i9RNN5wZbnTaDgCsCceNQC3WO/FG428YolR5uynFLEoXqrAnErUX4J70bh1pMAimVHm7KESUJXt9wir5Fp+dEp+b8Y1X+1UQJgfAaRPUo2Ys80bxuyIMxscNtt27XOnjpRcN7Xpv41yQrWzPZ0a5sPie0vMgTzeuGPOz6iKgtOw04ZfXUfUNdH6s4AuE5ah40ovlVEQhPn/z3mkDcIuav9KJOLV9r2Xx2tfcqSzS/VwJx23I8wtERiFtEvaevOgJxihZ4xsmbditEOKLNVGh+V3QUxtNTVBedTg4BUefrZwLJ7yOqHLOXPiKyOUeVnnItX525KopARKMHXlPyogvee5FRn11kwetAmkB4Lef/9+UmENnyeYRG73n2yZsaEum/ImksXUXrKprO/9blPw0rhkBknLoT3DxHXqiZREc5+R3OKfLxGlm46XD+M7+NTyNZZyWbLxdBt1NKhdCX6SNuCMRLP9IE4p9+U/EEwjNaVSTCK0fUkZcqnR2B+cfsNl5NZIlANl8hAuHZLK8VRElEtBzROhY7ne4bvJYXf18RBKIy+nAavfAg43WSUhEDbxohtx48nXl11u/dIyDq/HhTRm7bTmX04baPiOoqio3KdKL90n1L6xxsViUt2voCW1XdjvZFiy6GEYiOrpymmHgOQDSfF8xE6iCKse4OahAQdX48+3HbbrLlqpjGEtVVtY4i8oox+FRjKRuHFCUEUigk9NqAXvOXqoOoJjkReTIEIiNX1EFsHF3CWy1kIgGZPIWmrlRO0fBszI1tiDh8N+iLyJPxH27kuqm/m7pVSlpXBMJCFs6BOd7Iyu0Ui9vy3ADP6xxuogjVerqVJ1IXMnaRdPkYVnsncWNTdn2Eh59qAuGV56Y+PHtxU5aIY/aiG08XUTLh1dmtD3NTp0pLq4xAcp2taAOoanAvoPN05elole3W4fN0lpEnUhdeGju97IhHFBdePTfG9yJtx2sHUXy9ko8I/iL1kZEjWkcn2TKEJFIXXts4EYiVz2u9RLD0SxrXBFIoCnFbKR7QIo3ttkw3ERKl5enoJwJR2Tb5nYTXWXnvvbZTpeV344ScSFukzqXAXVU/VK2rrDyvbSNLIBsjwUgRiCpHxXPOqgyX1xFVlKNCRq6eXuQVo4PwOqvdey914LVZJbz30g68vuE0cBHN5xY/XvuLyFMho1AfcVN3L21j6ZBfHo8g7N6rxkSkHVSmkSYQFSTCa/BShOeF6sHTT5XDt2tQFc7XSydxU3c7DAutt1iyK73ziHRE2TYQxT9XvmgeEb15kbpMWarbW4U8mfaRqXtuH8nNz6sDj5Rk2lJlHk8EIqqICmcoWpbbdIUMSNZQ3OpQivS8jlKMuvLandd5SoGLX8rwMxalGsiVuy149loM/XjtrglEYudWMRrKSWY5jKaU9fNzWbzO42fdVevmZyz8rJvqdvCbPE0gmkD8ZpNaHx8i4Gcn7WfdfNiUVaVS0aew/DzC97NuVWWFVV5ZPztoP+tW5Wbji+pLEYiI4y3HnLtbREXq4VamTq8RIAREHG8l2J9IPXSLVy8CSglEFMZiLNiKlm2lq4TO67ZOOr1/EOANoJw09UPfcOojftLNPy1d3ZqUnED8YoSaQKrb8ItdexkC8Uvf0ARSbOvYeORLEYhdiM6DxO+dw9Lfb3rycNXv/YuAKIn41eb09JV/bcsvmkkTiF8qoPXQCGgENAIagfIgoAmkPLjrUjUCGgGNQMUjoAmk4ptQV0AjoBHQCJQHAU0g5cFdl6oR0AhoBCoeAU0gFd+EugIaAY2ARqA8CGgCKQ/uulSNgEZAI1DxCGgCqfgm1BXQCGgENALlQUATSHlw16VqBDQCGoGKR0ATSMU3oa5AsRCgg3R+PeRXrDpruRoBNwgY9NlvyqA7ihvYdNpqQMDv32KohjbQdfQ3Av8Pyt4QyP1rqqUAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>bqfns</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CZxcRbX+d28vM8lkkkCAEKIRgYBkQR8KLoD4B01CiKwhwxaysYvmAQ+e72kQl6cIbgjkiWASQIEkoCBiFmXxqeEv+JQl7KvKJoSETDKZ6enue9/vVN3bc7unu29V9e2eXk7zy69Juqruqa9Ona/OqVN1Ldd1XbTyx++9VRyEkJ9bGTnuOyPACLQ4AhYTiKcBTCAtPhW4+4wAI6CLQBMQiOP12dbte4Xlh+q5FYrN1RkBRoARiAgBJhBjIJlAjKHjiowAI9AUCDQBgVRnHHjvozq4cquMACPQPAhUQCDNvQJnAmkeJeeeMAKMQHUQqBqBDBjgQqJpbuKpzjBxq4wAI8AI1B8CTCD1NyYsESPACDACDYFABQRSJ/3jWFOdDASLwQgwAq2GABOI4ojTeUvLKnFYRLENLsYIMAKMQDMhkCOQWizk841wfe2FhPU/7PdmUgruCyPACDACKgjoEYiTAdJpwMkCcAA7BiSS8hv5B/mCZOH//9ATCJEW/ank9hbfC6H+1vrwosqQchlGgBFgBGqDgF4IK9ULdG/GFYcfAhsZbE4m8dFzPofjz/sCgMEkUq4LQ7OizwDoA9AfMP6lssSC0vtE4ZMG9TUBIF6bUeKnNBQChaHOVr9urqEGj4XVQkCJQHKeQ6oHSz55MHZJ98BCCj2JNnz8lIX41LlfANw44JJhVfjEbSCegGvbqO2uQgpHTf8oYKWA3JMlldmuBUcIU8o7sWBZMbhODHPnnoVTTz/bIxGF/nKRlkGg0ckjqn0+Js3WUHklAhFmlTaRaeWe6cYZn/4YYujF8LSLPTIjMbyfiCMOtyCkc9GvflUcxbY2YNRIINlWY5R7cfSMD8GyeoQH4gbYy3JtSR2W55G4nteR93cbcBM4fe45OOW0zwGotfw1hosfZ4SAqhGuRyOrKnsYMPXYtzCZ+Xd9BEIJJH/fIg1gG46acQhsuwej+zK4ZPpcfOjUswGLQjr5ewLfmzWrqEQ9iQSW3Hef8EK0PjHpuYC+FT/58vfg6KMOgG33QlxibyWQiA+T3khRwoDwSgb2cCxYiOPUU89E18nnsAeiOAbRF3MA15HbWeIjBlM6lWJR4IUaa+ve5roZNMLlDGk5Yz1UBpgJJHptbeYWQwkkv/P5BJLIAguOPxPHzr8AcJPqIaxMGl874gh0ZrNwHGdQemxRz4VshO+50LfRRxKIZfUK8jhpznzMm7dYwZPIWSbvqXG4ri1DWt6/lLJVxZIJjEQP2kphMhXTisMEzFlhdVJWk7+KWXZuBsikgSwlc3heIy0ABG/EACvufUuvMjc2eX9R64VJqSjCWENFLlHIboIZ12lMBCoiEFq1nzTnfMxf8Pkim8q55aGHTMBApVLA1m6gn/YiBn+KeS4WHPTEE/jy/fcBCc9zIaPhW4fg1gX9m28s6DvnufTmCMR1kzip60zMn38RgOHGo1fKPg8QRyEO/qMGG2y1sybq7eUW58LIlupiBIaeQCCPgMiIXLtC/On8THA8Bv1eMF5hv7tZfGL//ZEQ2YADBJK1gZRl45Gnn2t4AimnkNUkFyYQY1NQVxWrqSPBjkZMIL5RLEiVFcbDy9Ki/6eVYzYDZEsZw4CIYg+CKjlAJoVvHHEkhmcysJCAm9v4pk1wIOe5+AbIt1rksYwcCbRl8ghkTtdCzJt/CYBhA3vnFYY98gklmDYcNNT0kMI04MK9l2L6WKw9KkdtyQQGwiSqMITyjPA9Aj+9WwjikXsIcRw+abIIE9L4qX73W8BDz7wA5A521m8IS45JJWnjyqMgubTMYVcVOZhA9PCudmnTuawy1lHIXjmBdJ2L+RTC8pa4W7vfwWOP/RXd725GX18fRo/eGQdM/RB2232CZ+gSA8alZA98QynPm7y7dRMef/TPcF5/Fe/dsgUTkkkk3jcR2PcDck9ErHAdfH/WMd5GfgxZYUilUd0Rs3HZ/Q8CyTTmT/8XWFYKLmKYM2cRZi68EHBoH6TIJ3TPJV9O2YJPDPRbBj07tmHjxkfx+qt/RyaTwciRI7HvxEl4/977eWnABenPub0Yf+9FMK53fiWDf/ztRbzw4nPofncL+vr7MHx4B8bsOhZ77rkP9hg3foBM/Iw44R14fcut7F2IDALL/w7xAAqhKfQQhEewH2IupVE4Iihmu3YeIfhNEFH4HyKM3298sojHUkIev2IsBsTaADvqsFsUU2qwES82mVX3SaKRSLaiQi5DRSBR4xF1e5WOQ70TgWn/KiaQOV1nYt788/DEY4/gZ7euwMbH/wIXdN5iQGldx8bkqQdi8eIvYvx7JhVsPhczAlQ/hZde3Igbb/whHn/0EbjIipBFR7ofyaxccY7oHIUjjpiGRCKBO+64XRhPxx2Gm3/zP4BLXoUX6kqn8fUjj8SIzHbY9lZYSIu0YxdtyLrDcdE96wP4BWJi5Ll0jgbaS232y3MlM2YcKtKa6TNnznwsWHgWXnnpWdx2+034/xt+h0w25aUIy5U2pTtP2HMfXHDBpZg85WNiD8ZLJi6INJEpTqNvx2asWrUC69beJch0cKqxBdexMHKnnfGxjx6GaZ+ZhUmTDgKyMcDNDmw25ww/hZrIQ/C/8w32YVMm53kEhcpV6CmkbQsbnn5Who1yISxvU1sMVYA1ZKqbpxyaoaucUlET8TJhOdPpEE29UkY4zIiYrBrD2izWozBCK6xjIlewjVrgoYND1P1R0ZpKn6nyjKEoUxmBAPj0Z45Fz/ZePPTH3wMWGVQv3JSb7H5oJo5k2yh84xtXY/KUgzwSKRbGkUbzjtXLsWzZtbDQBwsZ4VnQINh+qIbsk+euO04Gtp2GizgcpwNr1v4RQCdcJKSpoj2Xbtpz6caV0w/2CCSBrq55mLDoAnxn1gk5gxnznkP9kNliDwDxEudbrDRg9+CMaYeKtGaqM/OzXei3Yli9/h6kyXBa0nsQ3pCbhe2kERehtzhisU5cfvn3MPWgQ+U5muCGjvAQ0njjlWew5Ev/hk2b/g7bSueIaJCyeJ6LK7yxJH6y9FZ8dubxiDuuJC2SIhcqcjwPwf/ODyH97qkn8/csSmmmT0gxC4i3SaNe8hMI4VWymR2aFDAggNqeUvTTTseYmRrraj2j2MpdxXMph2K1ZA0uUnVHsRLdaFYy0MVQLAVdLTTys7CkYY+L1a+FJFwrgSlTPoiJ++yPESNGYPOWt/Dwww9h09uvCmNIq972YWNwww23YucxexVJg5Wex2233oif3rzUO/BHYsaw195TMWXyhzBy1E4iFPTmG//Ak089hk1vvQYX/bCsfkEyjtNZQCCU7ukA6Szgbh8IYbkJzOlagJkLLwbctuIGMyM9lw66vsULAQSzxi761V1CxiunfUp6IESgbhxb2hN4ZWQHutvbMWXqh7Hf/pMwrL0D7779Op7c8Dts/udr0oAjhlGjxmLpiluB4Tvnn44nQuh+G5875zQ89eRjXgiLSFTu/fjhuUAuqyQrqx9ZK46sOwIbnnzJM+qFK/6wEBb97vFZ0GMo1DCfQGgdYJW42kWRLAp5QYMnTPS+qnUqMZgkWNiUrGb7uiEsFXKppbw6AxuGs05brVo2EgJJJjow8+gTMXv2XOy087jchq60Qn24acWPsGrlMs+TiOMTh0zDl778fS99NhjCSuHJjRtwyaXnwXLpyhFgl93ei3+/5DJMmvLRgutSaGXfj5df2ojr//sH2LjxYRHWL0ogoiV6zkAaLxHfyXMWYO78xQMEkisnovgDngt5MLnfvA1wF7h21gzhFRA52hQW8w4dbmlrw4RZM3HMWeejc+x7pHdB1TJpfHbiBAzLpGCLfQ0y/zFkrDakrQ6kYgn020QslKKbFXs1lrUDe4zfHZbbjvPOX4xDPtvlnbnxQkReK+jtxSMP/ha/uPt2vPDK33Dd9Tdj1332l2WFcdf9lMjOKmLZy67mFJmgFQiklMEqZmB1zo+EGUIdUtApG6ZRYcShG0oLe14YDv4iUIWkw57Fv0sEKiIQauB9e07Cki9/G+P22DsQlgqmMpFp6MU3vn4RHtrwW1A6LtCOm29Zh513eW/BpnMvLvzX0/Hcs38Vwg0fsRP+e+nt2GXXPb1yhSlSZIRTuGnFD7Fq5Y3CgAdDWPK+quDHJ5AdYnltOXEknSSsrIVk1vb2lMnYOqCT6Qk3g450FomsDEGdPnc+PnzaIpFRNnvSVOFx0H6KJQiE7teimkmk7AR6423os2OwAtlWI9Jp3Punh4HNb+KarmPhZFLCK5t6yOE44sqlQLJDnnWJO8KzOev04/D2pldEu5/4+HRc+pVvy70dCuPlrex9j0Fu3D/4m/WY+sGDMGbs7nmegdie0M4yiyDN12C2KfJO6ey5wsQn7X4bCO1VMTHCqnVUywWl16kTZvTLoRI04Kbt+G2oyKxSxnwUuaYKApURiGtjzpyzMW8BXabYPrDSHvTkFF5+8X9xwefmiUN8LpJYdOa/44QTFwa8FQdPP/kwLrl4LmJIwXLj+Nz5l+Izx5wBuNS2H1LxzxnQCpxCNmn8bNm1WL3yx8Kgu24H7l7/B8Chsx10P1dwM3cHjpvxL7DpIKFYhtiwnTj++dqbiGelj+IMOsRATUiyoT0V120TJCGzhzLC0J867ZPCW6D2uroW4piF53sZVnT1SSAUlM7gq0ceic70DsSsHlmHKNAahm2xnfC1dbTfQiftqV+9WDjjk3DdbaILxx23AMede5HnLXl7MiJ7lw7N0eYGbYrLHuR/1LyP0l4EE4jKRDI12Lr1TIymTh1Tw1+IUTky0fGugu0W1tPpl+4Ycnk1BComkJNEGi8dJKTT4UU2UYUBpT2EHpwx91i8887LwtAeeugx+I8vfStwCjyNFct+iLtuvx5JJ4OOZCeW33Y30E57A3TK3d9jDpyXECGjDH65bClWrlyG1994VRCZ41B5yrCyEEMMWZG0S0Y2Bdva6slDaaYxZNwEJuy1j2g+a3uhK5mImjPGjiWJ5pTT5uOEUxZIT8vvl70Dx00/DMB2QaAndZ2N0xbSyXzyfgKegsi+coEM7fP04qYrv4gH7v8VLGQxIt6Ja+78PZZMO0FmmTm+V9MHy6I/FsaO3RNzrr8JsAhnjxRoc588FvpD94rFo7kduNQqME+llF2E8ooYUTNq2l6jUqaGLaxe2O+luhcVKajApxKW0gk1+c9U2fRWaVelD1xGHYHKCaTkSXRPCGFoZbrr5ZddiEce+Y1Y40/YY38svfE2uaImg2ilcOkFi/Dyc3/Bm6/+AzF3ONwsEUECDuKwHBeuTQGhgXMGFLJy3TRsmzbRd2D8e8YJ8rh1PaXxeu0GD7TZKZw27WBvQz+O2afMw/FnXiD3CQR5CLek4Ni2TyZknPOvcReb99ieuxus/Ml8r3XxZsM+3PDj/8Jdv/ipyB5rSydxx90PA30xue9C13TAwcNXXI4HH7yH4oxItkmPivZM5L1dNtJ2DNsTSXxt7TogQeciAplc/nmSYrogqnueC511MdkjicjyR9SMusbXoGRUhj5sxW3aFR0PIAqjbIKHah0VcoyiD6ZYN3u96hOIQFBmVy299grce+8tiLsO3nllC2JZyn6S91pZdgau1QfH7sXY8e/BZ446Cedc+CXPQwmu5AtCWMjgZ8uvwarbr4dlZ5VCWOI6d7rK5OT5OG0hXWWicreWH0QPZhvlZ6WpEIgMMaWwYvmVWL1qucges7LDcM+avwKZYQC9tEtcC+Ki/x/P44LPn45U3+bcNZUUThs+bAT2338qJu01EVMn7I3rvvltjEhbiDt09xNhRUQivZSi94pF5LmorAqrN4GGJrSm0h9V41fYlooxDNZRNYw68uiUVcFCzO2CjTcVuVXrhGEWpqMqsqj2sxXL1ZBA0rh++Xfw03uuFaGkDrcDa++8P5DKm8WsEz+Nvuw29NsWjpm9CItOXSz2S/xrOgYPkLxifvkd12DVyutFmMrOjMB9v/gTEhgNaxAxBLKw3HbIq0wulleZ+FfWK+wyDyhlKQKhk/kkd7GQkiSQm1Z8V2z8y1ToNty75nEAHYEuyvMwlJX2rW8twZbNb4gT6XSgUr5FxaabWTAq1Y+d+rKYOHInfPrjh2OfE7qAse+VITQ3jmL3ivXbMfQkkvj6ujVyz0X1RHcUnktks6z5CSTMA1E1fqrG2NTYhw2pzvP9tnTqhJGI36ZKeM2EoMP638y/15RArrr5q3hl1LPoae+G5bTBdmR4ij70hkOxV2KncPe99+PY42fj3CMWy5BN3r1R0nDQyRNL7lxg2R+uw+rVtyLZD3T0jsJDKx5FJ3ZFW55BplrlCUR/oE08EHpKb1ECcdFR9CR6qn8b1q/9JR58YD2efuZxWK5MGbbdLJIO7ZlQphgQc2k7pBNfWPwfmHTE8d6Ge5FNdDoXk0ljyfSjvD0X71JCD1npudyTDwdBHfRcRLZYBHsuuRiWLiHoltcfXdMaOsYv+AxVQ1jOIBaTWUcenbKq+Ji0qVtHBztT4mVyGTziERFI/op7sNvo7YFcdymWP3oDtg/LYNfddsMtX14tPBAyBTGkcdKSY9C9dStmzfq0uJKEDs05IhWXspk8Q+idtbBFuCYLmzKW0Ccyq+JZG+2p0bj0uMswDKMR9zwL2W1at/dgxkkHyuvcXTqJvgDzZ18sPADhgdD5C413JFIKr40eTJt9qNjXIFqb03UOFs1eLJ4dRxviSIBOt+d/AgRCByDdYcID8QmkOH7UzzT6U1vxzLNP4oXnn8aLLz6HZ59+Am+8+arwZCg8Jl6SZXXgyquWY/Kkg4tc2kgRxYy8CZn2W8Sey2AC+d6so/NEpkP1cs8ljq+toz0X78p0FStSznNRIRAvS5nWC05heq7K8wNlKGHNf3WIxlBrPUXX+PmNh9XTMZLlBG6mPZBS/QzDSpVETNqvtG0tZRviwhERSLHr3L2e5bKwUvj8xXPx6MsbkI5l8MEDDsMVS64ToR4qQqm7X/jSmXj2uUeEKd/vAwfhB1+/Aa4gAZFD5Rn5IGJZL4R1nQhhZeL0ml3giOOPQU/CRsYGHG9znAiHvJuY1S1Oa4sNabdNGG8iKfE7mWCv/OIZF3oPkitd2yMBuYXv7zDQ8/sw4/NH5t5uOKfrFJx3yIUYgTHoxCiMxAi0DQqlEYFcJQ9X5giETpsPDxCl389gWq7cG5H7KP4f4PXXXsBtP/sx7n9gjcCDDkl+5ODp+OpXv1c8O472WOgmZLLGtOdSmPlbSilznst0dPZnxN1kwbc6UrVK91x88gySKCWv0UW/QmRP7EIRi51xGT/+rNzLwMSYWX2w7c144817xQ3/lliMqKU568zTMCJQNUrVCmHp9KVUWR0jaYKHSZ1y/SpGKDp90MGsHHlV65k68pVasPj/riNjjQgkhXTfJsyZMxPp9BZh4OaecSFOPsV/r7iM98tNdkpVdWDbo3DnnWuRbNtFGsGi6Tpyc37FiqvFOZD+RC+2tjtYvWot3hUXnLhezpZPACnM+Pxh8gWELtB1chcWHvIFSSA5upDW9Oo118h/CXg8QYKR90vRafE+eRJdnOmQlznGMiPQ1teJL574n+hAu/BCgh+69mTFHd8Vqce08U+ZY2tX/1WQpe8BDSy0i+cpDRCq3AeKYQcuuvxcbHzqEUFCnZ27465l96FtkCdmompenYzjeS29A56LEIQ27mmMkrjq6BMHvXwkZcexI57AN9f9Qp7t9Pf4/Vvo5fDLS4eD9jxw6z39NHb8Cci6IwcuyQzpymuv3ZBXwj8uQ3c+tjKBROGBhK3wVbQsCjlUnlPKYOoYSp3n6BKZieEu9gzdMYmi/5briqtti6zEisWYTWL+ctN4za9vwbXXXOGtkNtw7bWr8f69Dwg8N4tHHr4Pl3/lfGGUXXF1xyWY9dn58rbaou+5kOdLfnz9Vbj77lvgWA7SdhK/uud/0I82ZLyLF3MKhB04as6BIuQlQ1iLMH/2hbkQlq6SlAphnT77XPQig2/9/Er0tu0QHlfOw6HjKHR63e7xSIeyrpLIOJ3iupKgx7R4Ju0B5Y8DpTHnjxf9nTyhDK7/3Q/x8zvv9IgP2HD1/2IP7IVOjC7btWKZKjlPwKspeII8FnqPi3CCAp4LnY6XYshvceYlwCP07xng4ulfR0dGXgj5blsb7n/qKfHdnslgr95ujAZdsz/w6UMc76INW9qA7vZ+vPT2L8WZSZHnEOBVnRP2wRCW8lsdNRXDZPWsWke1XN6CRSMLyqT9MHhKtalr8Aqfo2sAq9G3sL7r/F5rPHRkK1W2DIEIi1FALIMJRF7nTifRaR/Be6lRbi+BZnkGm9/5O8497xT0bN8kUvqmTPk4rvj2T7zsp4G1P112eNrp0/Huln+I53aM2AU/vPom7D5unyIb6Q76dryLW265HnffdSu99QOuZSObHY616zaI23hLX2VC70RPQspOL5RSSeMtBqHEY+ZRh8Kmg4SwcdLJ5+GUeeegGyl0owfd4v/o7isvRCZPcGDZH+n6lZWyURdYe83vhRwDITIHV6/9nneGhsrQqXofK/nSKDmBKK2ZrlSRSQhBT2hY30h85dhvYhhGeMIn6dhiqN6QfaYcMt/L8R2EICcEDb0fVNvj/Z+C63QCdJDTsmA7FmLZJDr7gV13ONi5L42dvGvvNyOJh96+UzgudEzo3w67HDv1k8848OmP2eJG5O+u/4oUiP6I85kZeQK/xPUkYambAnJxHqc695uYGCrVOqrlcoumIn1shJW/Sj+jGD9dEgqdPGUK6MoblK1ew2IVhbAs18EHPnAgzj53Mfbd78OBu7B88sniqY1/wrev+ho2vf03afQwHD/4/o2YuO9HZNgjbw6n8MADP8eVV17mGUKgc+RumHfG2fjEJ/4fRo0eg3R/H156+Xk8tOFB3Pvru7Bj+1bYFqW3ete5u8OwZs1DJQlk5oypsG3ycIhA5BsJydvRHVypJ0FC3eadRD8X8+ZfIIJKGTjIII2M8BAGgk60b7Liju9j5crlwujT9ShrVz/q7fcQJJSq24tpJ34SVqwfH/nIgTj+uJNx4L4fgy2sKPkhsj15KWMadz9wO5YuJcKhW4fJuzoPc2YvxFfu/ip2tKXEle7Z7C7oz0yE44zJvaLD9UJ0dPeXMKyWg7Z0O0buGIkb/utq2c1EChi2TX6LT2BhIepT9tx2/H7DM+JgpU1X0QhJ28Qe0CgMwy7yeq+B/Rb/OA2tOXyGou+gPniey3/OmInOdC+ysTS2ttm46rdrxOl7NxaXF8+EkEHR36t4glHF+AXtTKXlfUIs12bwt2YlEJ1+VXsRUYxHqkVWuvpTCQkW1q2MQOgMg9sOemHUbru/D5OnHIDdx74HyWQS3Vu34PEn/oKXXnzCi23QTE9g4ZkX4cTZZ3j7GoWrSJmtddVVS3D//b/M3Vgrs7AScK2YXHXTHol4Nu2V2Bg3bizeeOMV+T6QEAI5+qgD5H1cAQLxz4HoA1ucQObTDb+5YH9hq6XPgdA9XiLLyAXoFRvTpk337u0iv6QNI0aMEdflT3jvnujoHIlUKoW3/vkaHnv8z3j7LboyX2ZTjRu7J65bejOyncCr2Ixu4R2RnR6BQz9+MOCOCISAvJAYEQhhS0xDBxp7OvH8078V9a5avh7dw7YhlUh5xpqEHCAcCjnG7M3ijxV7R4bnHBtxJ4b2VAe+eOKlGI4OxBEbFIArh3k7shhO71mhSyf75GWVaGsXp+570IaU5/FKskogLv4rlvVW5Ck1JBBdvQozNGaLnQEpdAxtmCwqfTMxcCp1KsGhVL902vTb0KlTS2JRGZtKy0RCIANCSGPkv7iI/l/cvmvFhGE/66zFOP4EIg8vNdc3QrkVpMwsct1e/OhH38Ev71kNm651F+/Z8MM39G3BcZPYe+998a+LL8IfN/wOq1bdKJ6dpQOKa7wXSrmJgttnB86BULjopDmLcgcJzexJkT0hcTfYAIFIPqA3lQSX1sXPgWSdDnGLCb1EkKA54YQr0bN9s+dVDLz6VrTmCfzk0xtFv8mDoBCeIFpxiWQC/TEHfcleZESqM0WVtuHNv60LzV4tDGHJQKTc4vA/hXjJW5YprZncDDocSUnWGexACt/6+TcF+fTH08LD8eUV70EPZskFsuCIgKjNRDaDpOPikmMp048u8KcAIN19THecyY/0dOi/IllvZgNb0byqxKCoGmzVZ5Ta3yrVQRXDrQuOSZsqdVQx0JFXFX+dNsPKRtGPoZBbzmOtJ+e/wpW8gFNPX4BsNov1a+/Blnc3eW/Mk2+6kx8LkyYfiHPOuQj7TKRNc3npYvmwg8yuev7FJ7D217/A44//GZvffkuEmUbtPAZTJn8Qhx8+Awd+mF4Ha+Om5UuxapW8jTdIIIP3QHpx1IyDhJGjzKuurvmYv4CMvf9K2fJvSRWxfn+T2OsdbcpOm3aUdw7ExpyuRViw8FSxwg/G84P0QcgsW34zVq68SV7hkk1i3frfIJsFxu5+miBb/2ClPKmeCYTYfAMsBdh/8hQRLho//n04etZxOO6YnUq+GJAyj5Lk9JV4wWKYogd/V7HLtPdD3k83tmIbtou9oGAMS15XWTxNeiAdS/5+za9lVhwFKy1bvmWRFiqCQNJtIuS2pOuywWnTKoLqdFyhrIlB0JqGARlKPatc/LyRPRATbPP0VuwbNt9HBRdTHSuHVhkCKZaF5Z898NekA7Fw183g+ReewSsvPYdt27rFM8eM2QWTpnwIu+26h5e7WXiqvJRoxZ4TLBu8jyqDFSuukde5kzmiENbaPwAYOfBK21xSEBGTvKhw4HS7/4a/8A1VOodAHgJ9+59c1mngoErgZ9BZhMKPTR4XvT9EuBFkQimvmF781Iu3/nl7/t2GXru9vcCLz/8dr776Crq3bQW9GXH4sA6MHr0zJk7cD+PGdwx+VXrhgy0ZGhOfQZ/Hn78AABDJSURBVN0tNt4GEy1nsB1kxR4Q+SH0X1r8PewTTLAKK+v/bhTCUm084nLBiV6NCV1MXJXVfMTdVG5OxfDpEEA991UZlAYqqEkgpXvmunQmgqyHn8vpm1ZV0ijXdqmMGUkIK5Zfg9WrfiQacNydsGbtI8jSSfUii41wmigtByU8jxt7ChzaQ1D8FJ5FyBGPJ5u/iqZ/Jw9BvA6k6Nk2n1QL8ZUhPSLE4qnOioJq7U6UaTNvxV+YxacgSyDVK5j1pVCTi5RAoJZGNWpC4EGtbwQs1/HMrKZlLR4Z8FeYhYYj+tO+EtZ8AqGwVDY9Ab9e9xtkyVNQ9FbJSxAZYgHGKfw7Pc22tuONf94mVvHGkZFyFemMiH/OoajelMJXSGekacb9MHqaSqWIPKGQR9Vfv1WwMStTKYHokEKtvCozJLhW1AgYE4h4b7fWzVEyjiSCNl6mURSdkfsJP8VK2gNxY3CyY/HEE5uQccbCcekdGuGfUl5CYU06wUxXQPkeQiOukAsNZ30aUgPPJXyY80rUZ781O6FYXIcAijXJpKAIdAsWU9pED8uzV8WNFvi0f0B/KNMo72K8MjO62D6CfCblI9EGc0qk5tKFirQp/epr98kQfxGvStVwFD3d7O8hlPHWVNtXxaywXLmxKJpx4zUgs6ToE+KpVLsDph3neiUR0CUIJgRWpqgQCCUQYZS8i9MrvQ1VXIrnAHvscQJcZ6R3067XlYLbdoMdJA+h1HUVwgNZ9rw4lEchJjqDcN9vfyI3oisgkJIAhxjYmttfZXlanUAU+x/VzKqgnagJodIQVgVd4apNjkAogYh1fshtqKU9hHz0xAllewdef+OOQbH+knYwxEAGQ1h0QoDeH7J+/QPetSoK+wI1t/iqGlVo8OTfyecq4VypNlymnEroSNUQF5c/1AOqtBd1OJ5RE4IuREwguohxeVUEtAhk93FHwXF2geO2S2PmHQBU2UMgEqK9A3r53cBtqANi6sz7gVCNPLy2bPm1WL3yJ+LAHV3Pvlak8ZKMCi880nmwKqqRlNMnkMpDjUwglQydypmMSto3rcsEYooc1wtDQIlAcofi6vKFPmT0vEuTRJyfSKPy1OEw4Ph3RoARYARaHQE1Aml1lLj/jAAjwAgwAoMQYAJhpWAEGAFGgBEwQoAJxAg2rsQIMAKMACPABMI6wAgwAowAI2CEABOIEWxciRFgBBgBRoAJhHWAEWAEGAFGwAgBJhAj2LgSI8AIMAKMABMI6wAjwAgwAoyAEQJMIEawcSVGgBFgBBgBJhDWAUaAEWAEGAEjBJhAjGDjSowAI8AIMAJMIKwDjAAjwAgwAkYIMIEYwcaVGAFGgBFgBJhAWAcYAUaAEWAEjBBgAjGCjSsxAowAI8AIMIGwDjACjAAjwAgYIcAEYgQbV2IEGAFGgBFgAmEdYAQYAUaAETBCgAnECDauxAgwAowAI8AEwjrACDACjAAjYIQAE4gRbFyJEWAEGAFGgAmEdYARiBgBy7JyLbquG3Hr3BwjUD8IGBEIT5D6GUCWpP4QaOT5EZS9EmSZOCtBr3HqthyB8ARpHOVsVEmZQAAmkEbVXj25W55AWNH1FIZLhyPABMIEEq4lzVGCCYRj1M2hyXXUi0Ivt5EWKY0sex2pQMuIUjGBEFI8QVpGX7ijCgg0shFuZNkVhoaLRIwAEwh7IBGrFDfXyEa4kWVnzas9AkwgTCC117omf6KKER6KfRL/meUiBiqyV2P4osYj6vaq0edmaLNqBDIUA6g7QWoZeosaj6jbawZlrpc+lDLCYRmAJvoY1mYxTGpNILXAQwcHE5zrRbfqTY5ICSRsEE0GLqzNSiaIiTzFnscTpN7UemjlMdFZX2JVnazWM6qxMKmWrD5mJu2r4jy0mlT/T4+EQMKU30QpderouN067aoOXykFLqakOrIWThAVpVfxwlT7xeXMEDAxaMEnhY1zNds30c8wlGopb5gsYbZKtT6XkwhEQiBhCi8epHG9g07Zwrbp70PtoqsoqWofVcuxQtcPAjoLimL6G7UO65CCTllVxHXwqKSsjh1SKavav1YuVzMC0SERXaOpo/Q6ZVUVw6RNlToqZVRl5HK1Q8Bk3FTrqJYL9lanTiXeQimjrEMKhV53ucWYTr9qN/qt9aS6IxBd8qjUA9EZbtUJorK6UVF+lTI68nPZ2iBgOm4q9VTKFPZSp04tCITnR230sBZPGTICKeWm15pAVJQ5bCB0JqjOCkvHawuTkX+vHQIm+qCyEKpWu+W8FR3UeIGlg1ZzlK0rAhmKCcIE0hyKXE+9qJYeV6td03CXKuYmcqvWCfOYopjfqv1sxXJMIBEcJFRVdtOJWm6S8ASpv2lrog/16oFEoV8meKjWUSEQv0wUfak/bRtaiZhAGoBAihkXX21oUvAEGdpJVMmeg86iQtWoViKP6TPKjYBJmzp1wkgkOFfqS1MaXxomkAYhkDCjQL/zCqs+JqSO8WMCKT5muhiqkgjPk2jnCBNIgxJIOUJhIol2kui2pmv8/PbD6oX9XkpOnXo6ZVVxMWnTpE45Mi6UleeI6uiVL8cE0iQEUhjm4gkSzQQxacXU+IXVC/udCaT0aBXzUHiOmGh3fp0hIxCVlD/VAdaZWDplVeE1adOkTpg81Wgz7Jn8+2AETMchrF7Y70wgIavlwG0YHMqKZuYygTSpB8ITJJoJYtKKiaFXraNarlw4Z6iv+lFZGJr0M2ysqtFm2DOb/feaEUhw8MIUSKdsYegmzHBWQ4lM2jSpE6aM1Wgz7Jn8ezQeiOrYqZbzpdIN3ei2rzL+Jm2q1FEpY4qDSr+4TBNcpsgTRKqxzmRixa8uArpjUWn5YoumYvPC73WzeCA6uOnaiepqSPO0XhMPRNejUDGIfpvBcxA8QQYUM8zLax4Vrr+elDPeKtKGjV0129cxyip9UZnLxdpRkaMSHMIwVu1bq5eLhEBUQDQdsFJKEmxPRdlKubKmcgX7rPN8HTlMJkgU/VEZTy5TGgGTcVNZ/JTTuVLStNICS0cneZ7ooFVG192IkTTxNirtiokBr/SZldY3ldm0XqXycn11BEwIxHQa8gJLfVyopCnOek9pndJGHki9wcNGtd5GhOUphQAvsNR0w3ROm9ZTk4pLFSLABMI6wQg0OQJsVJt8gIewe0wgQwg+P5oRqAUCTCC1QLk1n8EE0prjzr1uIQSYQFposGvcVSaQGgPOj2MEao0AE0itEW+d5zGBtM5Yc09bFAEmkBYd+Bp0mwmkBiDzIxiBoUSACWQo0W/uZzcFgTT3EHHvGIHKEGACqQw/rl0aASYQ1g5GgBFgBBgBIwSYQIxg40qMACPACDACTCCsA4wAI8AIMAJGCDCBGMHGlRgBRoARYASYQFgHGAFGgBFgBIwQYAIxgo0rMQKMACPACDCBsA4wAowAI8AIGCHABGIEG1diBBgBRoARYAJhHWAEGAFGgBEwQoAJxAg2rtQqCNApbn6LXauMNvdTFwEmEF3EuDwjwAgwAoyAQIAJhBWBEWAEGAFGwAgBJhAj2LgSI8AIMAKMABMI6wAjwAgwAoyAEQJMIEawcSVGgBFgBBgBJhDWAUaAEWAEGAEjBJhAjGDjSowAI8AIMAJMIKwDjAAjwAgwAkYIMIEYwcaVGAFGgBFgBJhAWAcYAUaAEWAEjBBgAjGCjSsxAowAI8AIMIGwDjACjAAjwAgYIaBNIHS5XOGHL5szwp4rNSkCwTnCc6NJB5m7JRBoKQIpRn6V6AEbh0rQa966jUwgUc0RnhvNq9/BnjGBVDDOPEkqAK+JqzKBgK/Ab2L9ZgKJaHCZQCICssmaYQJhAmkylS7ZnUg8EGq9EYxpKfe8EWRvFYVshn4W6lkj6Vcjy94MutNofWACaRDyazTFamV5G9kIN7LsraxzQ9V3JhAmkKHSvaZ9biMb4UaWvWkVqo47VhUCGYpUXxXFH6oQVtR4RN1eHetnQ4qmq4u1CnH5cpV7nors1RiUqPeNom6vGn1uhjYjIxBVMHQmSyUphcWeUw0CqURG1b0jk2fo4Kw6dlxODQGT8VLVhUIJTJ5VawIxkVEXD51n8NxQ02OVUjUnEBXF0FGGUp1UJZBKlalasvr9qqT9SvumokBcZjACtRizaj2jGiv3aslayRzhuRHNzB0SAilHIpUoWxASVQJRIbRyUA+FvKpDz5NEFaloy1WqE2HjVs32qxHCqqW8qiMZhrFqO61eLnICKRyYcsoThZHXCUvplFVVjLDJEexjFGVrHX5QxYHLDSCgq2fFykc5zjqkoFNWdcx18KikrAop+O2rlFXtXyuXi4xAdBTeB1yVbKJom54ZZsBVFEFV5lJ9LCeHCtmw4quM0tCWMTHCqnVUywUR0KlTyRwppZs6pFAqLKWy2OS5UXu9rwmBVNNo6ihnJZOj1qSn06/aqw0/USesqWrYVAy9SplC2XTqVDJHVAlEBQ8VmVXKsKZWF4G6IRBTg6lTr5LJwQRSXUVsptZNDVtYvbDfS2GoU6+SOcIE0kxarNYXJpAKDxLqEFgp91yXnAqHVmVFp6YOXCoKBHQMtk6oqVrt6shggo+J3Kp1wgiP54bJiKnXYQJpAgIJDjdPGHXlr1ZJVeOnG2qqVrvNTCA8N6ql5bJdJpA6JhAxQEVe4FVOJZhAqjthVFqvlqGvVruNTCA6c4Tnhor26pVhAqlzAtGZILza0lP+apWulqGvVruNTiC6c4SJJDrNZwJpAAIJC3WUUgeeKNFNFJ2WqmXoq9VuMxCI7hzhuaGj0aXLMoE0IIHoTBaeKNFMFJ1WqmXoq9VuMxKIyhzhuaGj1cXLMoE0AYGUc+F5klQ+SXRbqJahr1a7rUAgxeYIzw1dzR5cviYEoprqqlqunML7v6mcXC1XVhXaastcTTlU2+ZyegiYGHrVOqrlTEnBpP0wdEzaNKlTDTnC2mz13xuaQMplKDU6gegQky4Ora701e6/ifFTraNazu9jMd3QuRooilW6rsyq3oJOu7o4VFtHmqX9qhOIjiEsF4qh33xlVkltZQKRKhqFAWgWZa9VP3QMm6qxDPO6de5oYwLhuRHVXIiMQHQFUr32QLfdZglhqZBkGDZMHmEIVef3SscubNyq2b4u+akgaNKmSp1KcAjDWKVfXCbCg4Q6YIYNXiWKwQQyMBJhOOuMGZdVR6AS/VUds2o9Q8VwqyMhS5q0qVKnWhjo9q+Vy9fUA1GdHP6AhCkItacTItMpq6oUJm2q1Anrezn5dHFW7SuXU0PAZOxMx8xEl5o1hKUyOqY4q7TdimW0CaQcSEOxUaUygeptYE1lNq1Xb/1vZXmCY1grY6aymq+3MTGV2bRevfW/UeSJlECGotNsVIcCdX5mIyHARrWRRquxZGUCaazxYmkZAW0EmEC0IeMKiggwgSgCxcUYgUZFgAmkUUeu/uVmAqn/MWIJGYGKEGACqQg+rlwGASYQVg9GoMkRYAJp8gEewu4xgQwh+PxoRqAWCDCB1ALl1nwGE0hrjjv3uoUQYAJpocGucVcbnkBqjBc/jhFgBBgBRsBDgAmEVYERYAQYAUbACAEmECPYuBIjwAgwAowAEwjrACPACDACjIARAkwgRrBxJUaAEWAEGAEmENYBRoARYAQYASMEmECMYONKjAAjwAgwAkwgrAOMACPACDACRggwgRjBxpVaAQE6gFerd3a0Ap7cx+ZDwALgUrd4ojTf4HKPKkPAP8HNc6MyHLl28yLwfx2qRn3rWkpIAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>77fwv</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAUKklEQVR4Xu2d2ZLcuA5E3f//0b5R4VsxsiwJCRCguBy/zRQJAQdLkip3++cXfyAAgVsCv3///g0eCEDgmsAPYCAAgXsCCAjVAYF7AggI1QGBBwIICOUBAQSEGoBAiAACEsLGpk0IcAPZJNGEGSOAgMS4sWsPAgjIHnkmyiABBCQIjm1bEEBAtkgzQUYJICBRcuzbgQACskOWiTFMAAEJo2PjBgQQkA2STIhxAghInB071yeAgKyfYyJsIICANMBj6/IEEJDlU0yALQQQkBZ67F2dAAKyeoaJr4kAAtKEj82DEPj5+XvUZ/2GHgRkkATjxpgEEJAx84JX/xI4i8RxRZZgnJ+KgFCJEHggEBGQp0b2wr5q/Gr7Hx+znlE1uBSOVzG0+lN1klfisfLSGpvqw3EdAhKhxp5tCCAgbal+Y6j9NeCSX930EJA3bhLRLCMgUXLs24IAAtKW5pUEJFM8ZhKJpwpAQNr6g92LE4gISAuSzCF15YdqX13XEmuvvVmxeO28IRLHZ/YQbwSkVxXznCkJICB/0tZjGFUViHfw3/lxZecNkfj6V/EdjzcHCIiXGOu3ItBTQLIGnWcAZqwdvSBaB+2bIjGSWFzeaEdPPv5B4E0CCMj8N5BPBJY4WyJh7c+u0d7Pi/rPDSRKjn1bEOghIK0nZCUR3oHkXf/kQ8SW512+Yt/6a8lPr+gU+0oO1NveTK8MEZCWzLN3eQI9BOTqhHwG2/IdRESgsoemx55nrcLuqkg9PL3+eMR0JrHgFdby444Aswn0EBBlQN2doJVBqNg/c4vs8QxOz4n/PGSt103qSV9hp7z+Up83u1ggINnTBXvLE6gWkMjt4AjdEpao/dEE5BjzefCrr7siMal7opxnbyBeYc2eQfwvJdBbQNRTsRW0JSzR/da+7+fWr2D5fG59L/EkGt/P1AF/96rL4n1n3/NcldmM6xCQGbOGz90IVApI9an1asipwuIZ7lfJ+A5m7+um1vVRQfC8hlrxVVS0oRCQKDn2bUGgp4BYw88L3HNKbhWMO9+OMSn+nF9HWa+nrM/Pflk+eAXMm5PV1iMgq2WUeFIJVAmINchag2i17xEUVfgsn5QbU/T7jyNPVSQsf1tztMJ+BGSFLBJDGYGdBCQ6WJ++93i6AShi8DTEPQNeje1JaFShLCvGAQ0jIAMmBZfGIVAhIJ7BFyHhGbpH+97XTdbroSthUX2780X1UX3O3fcZ1TmK5PWzx7oZ9hY5BCSaSfZtQSBbQKq/OLeGjDpgMgeocvp/+i7jzhfF7l2RWvFZn0eL3xIAy66aP8tO1ucISBZJ7CxJoFpAogNBHURZ9qN21FvK3U3IEkTP6zP19dSTyKvc75ohi+MozYaAjJIJ/BiSQKaAeG8f3hO21/4T8KoT+FkQlL/ue/bz6mdI1MGMAOS2GQKSyxNrixGoFBDrh+nUofhFnjn0M21FbiGfPU/fd0TLTPkOpTL2qN+j7kNARs0Mfg1BIEtA7k6+XpG4g5J5+7h6bVTpZ0WiFX+vhALx8GUDAfHxYvVmBKoERBlwHtTZgy/yxbXH38h3BB4RVtYqr7Oy85TBaCQbCMhI2cCX4QhkCEj27UB5JXQ3+JSh+ZQEa6CqsSoDXonz/KrLKiBv/Fa81vNW/xwBWT3DxNdEoEJAWoaSdwCeg1efrdxoVLG4SkBkb0R0rORbPFVe1nNW/RwBWTWzxJVCoFVAlEF8dNQ70CKDWAFj+eE9+Su3CWVYe3m2xPr0lxwUX5Vnz74GAZk9g/hfSqC3gHiDqRioHx+q7N6JpTqQK/yK3Gwie7y5nWE9AjJDlvDxNQKtAvKa444HV91iHC4ss3Q3lgjIMqVLIBUEVhOQ3QZcRU14ba58W0FAvNXA+q0IzCwgiMXYpbqCsCAgY9cY3r1MYBYBQSxeLpTEx88kLAhIYuIxtR6BUQWk4svk9bK3VkQjCgsCslaNEU0ygREEhNtFclIXM/emsCAgixUT4eQS6C0giEVu/na21kNYEJCdK4zYTQI9BOTY6OrPQ5iOswACNwQy6w0Bocwg8ECgh4CQAAjMSgABmTVz+N2FAALSBTMPmZQAAjJp4nC7DwEEpA9nnjInAQRkzrzhdScCCEgn0DxmSgIIyJRpw+leBBCQXqR5zowEEJAZs4bP3QggIN1Q86AJCSAgEyYNl/sRQED6seZJ8xFAQObLGR53JICAdITNo6YjgIBMlzIc7kkAAelJm2fNRgABmS1j+NuVAALSFTcPm4zADw0yWcZwFwIQgMAgBBCQQRKBGxCAAARmI4CAzJYx/IUABCAwCAEEZJBE4AYEIACB2QggILNlDH8hAAEIDEIAARkkEbgBAQhAYDYCCMhsGcNfCEAAAoMQQEAGSQRuQAACEJiNAAIyW8bwFwIQgMAgBBCQQRKBGxCAAARmI4CAzJYx/IUABCAwCAEEZJBE4AYEIACB2QggILNlDH8hAAEIDEIAARkkEbixDoGfn7xfcv379+9/wFTb/zww6xlX/vfM9DmOVn+O9lpt9eRQ9ayQgGQV1ycoGqQttTRIG7+K3fTHf1TfHrL0R0WF/2czJCAtLmUn9OyLal9d1xJrr72Zp6JMW73iH+05CMiaArLSzMjqGQTk/yTfPim1JDRr6NMgLVnI2VudA9W+ui4n6lorWbFk2amNtq/1VwWkYmirw3SlYsiKJctO3xJe62nVOVDtq+tmoJ8VS5adGZipPiIgC9xAPiGowvlUGBk21MJj3b8EqgeUx75n7ei5vHql6D28ZtgYnVPEv64CUj2gPPZXapCzgHz+u6VBvHsjhcceBKRnDbT2e+v+nrH2fBYCsuANBAHp2UI5z6oeUF773vUWBc/hznujVmy3xNOy1+Iy++fdBERJcgtMr/3somh5vnXiV22r686cs1m05HHXvZU5iLx+yfbHY8+zVhUbr81jHbbsXb2elxCQSIIje9TvD6wbgPfZqjCo654ExBKz1Rvijfi89eD1MWI/sqeqPzz99FS/0Zii+7x5mnF9FwGJDjYVaMR+RVGofnhPhFG7qhio9tV8sE4n4K0F3fKflVH72f3hsef1Wa1fjw9fzpE93hzNvL5cQKoToBZPj9c2qi9VDaJe57mej9Oylf3hrbOnuvASs37DxN3h5srnpxuIh1+Eh8e+l9EK67sKiHoiVsG2JPeuUNVnZzTIx8bXD6WhFH5eJqroqVxYpxOIDDTd+r+3D6V+7k7enufeDXylNp/60uo561XX1Y3MYqL47GWz0vpSAakeTi32PQJiFZnnunv22YrB+vyqGD17PGtXKvwRYqkeTi32Pf1xxTI67Kv7w8PEs3aEenrDBwTk/9SPBd9SONZAPt841PXK6epKyCq+VHyjUFd7ZkuNKSxa7XsEJOuAdeWzFYfVP9YBK+v1mJKTFdeUCUgksR7ArfatwvT4clz75NfdZ5E9T/6psbUyjDJiX9vrJYWfWgN3tp72t9j21nqFH6r/6jolH6uuQUAubiAtyVYa5HxiU4TFcwP5rFXEQVnTwoK91wSqB1OG/Qwb3tO/0gcZbwqU2JQ11PevXyUCUj2YMuxXFYhyYooIiPqaQH2NVRU/TfVM4MzdezBQ+GbkNsOGR0CUg9fX3rcXWny09lqfK3nYYU26gPQAP7KA3J3+WxukRUCuhlSPPO3QQN4YK7lnilOVn3d2vf3R6p9y0Dvm1tt/3rqYdX2pgGRDby2aY5IybZ2Tf9UMluidP8/wT3klUHECnrUZqv3OHPDK6b4ltxn1d8fT6g/lptHq31MuqvNUXWc97acKSGtSrcAz7Wfa8grIuUGubi0Z/kVOe1YO+DxOICOnT0/PtJ9p66k/nuJ5+r7jvC9yWFX6o0WE45Uyz84yAYkk1MJmneKt/W/cQDyFfnXyaSlgpUEq8uTJwy5rq0+12fZ3FZDKuFes9TQBqQafbT/bnnrK8vxcxtVNxVOEVzFWx+3xb6e11dyz7Wfbezq8HT97sz+u6pED1nOXlghIBfTsgs62pwiIxSX7BnJ+NUaDvCNZ2beDjFqzSLzRH9ZtO7s/7uypgmYx3OHzFAHJfLV0Bb2imCtsWqcsS0CuBr6yxyrU7MaznsfnfxOorLWq3Fb6fHewsWq9IlZLRCyfdq/14QWkqpCr7N6JiFqIFX5VNN7ujeOJv/KAVXW7qahDDlieqpljbYqAzBEqXkLgHQI9BUQ9qFgkqgXkfAtR/a7wiwOWVQ33nyMgcXbshAAEILA1AQRk6/QTPAQgAIE4AQQkzo6dEIAABLYmgIBsnX6ChwAEIBAngIDE2bETAhCAwNYEEJCt00/wEIAABOIEEJA4O3ZCAAIQ2JoAArJ1+gkeAhCAQJwAAhJnx04IQAACWxNAQLZOP8FDAAIQiBNAQOLs2AkBCEBgawIIyNbpJ3gIQAACcQIISJwdOyEAAQhsTQAB2Tr9BA8BCEAgTgABibNjJwQgAIGtCSAgW6ef4CEAAQjECSAgcXbshAAEILA1AQRk6/QTvEXg86/Vqf9anmWLzyGwGgEEZLWMEg8EIACBTgQQkE6geQwEIACB1QggIKtllHggAAEIdCKAgHQCzWMgAAEIrEYAAVkto8QDAQhAoBMBBKQTaB4DAQhAYDUCCMhqGSUeCEAAAp0IICCdQPMYCEAAAqsRQEBWyyjxQAACEOhEAAHpBJrHQAACEFiNAAKyWkaJBwIQgEAnAghIJ9A8BgIQgMBqBBCQ1TJKPBCAAAQ6EXALyOe3k2b/Of6202r7H9+zn/HWb2u9iyPqz5W9qK3sGpnJXmZ9XfGvtp/ZI2/Xz5lVqz9He622ZqrpO18RkIQsvlVICEhC8gpMVA/4avsIyH1RICB/s0FAEgbICgKSLUYJWKc1UT3gq+0jINell32bmbbAD467BaQl6OohpdpX17XE2mtvVixZdnrFvepzqoeUal9dN0MesmLJsjMDM9VHBORA6q2bhJqsq3VZgz/LTkss7P33+7nsmlSHoLpuhpxlxZJlZwZmqo/dBKR6QHnse9aqIN9a9/Q6Qx0+GTbein+l51YPKI99z9rRc3BV32pvfGPLsDE6p4h/CMjkN5Cn99Vqk6wkqJEmGGVP9dD22PesHYXfkx+t8bTun4FRxMcuAlI9oLz2vestsN7TiWe9srYlnpa9Fhc+1wlUDyivfe96K9KjPeVg41mvrG2Jp2WvxWX2z6cXkMjrl+yh6bHnWXt3uzg3oNfmsWhb9s5e/CP5XzmklEPImUW2Px57nrXnHrkTJ6/Npx5RBHCk2qr0pVxAqgdUxH5kj+d6/F3r/SEwdb267uOHVezZLCqLdVXbLcNNYRKxH9nj6ZGnuvQKnnIDuTqMWb3xjSebhZKzWdaUCkjkduABF7WfPTQ99rw+q83k8eGuMZ6Ez5MX1uoE1PzqFv9eGbWfPTQ99rw+VwqIx+9ojmbe94qAqMrvOdEc11r2n4a4J5nWr2BRXzXdDW6PKHiF6epEhoB4sp+ztnJAeQfx02sbb7TWLVl91WTVpIdfhIfHvpfRCuvLBCQy0DxAPcP1bLeXgHyea4nM2TdlfVXzWc3qyQ9rbQKRgWZb/W9Fy/Br7RFLQM698fXaOze8MVav9+RnhbXdBcS6HahQdxUQ77tjb6Nm5UfN487rvMPMy6rF/owCotSuh4lnrTc3q6wvEZCW4a6AbbUfaQ6rOC2fPM/8PityQrX8sE56VpxKflhjE6geTq32I/VqRW35pDzz6bWwWruWH3c9otq3OKz0OQJyyOanQNQBfFUETwNfaY7jK6SoH+o+dd1KxT5SLOoQi/rcav9pf4vt417vd4Tn23TUD3Wfui6aoxX2pQtI9WDKsJ9hQxWQb9HfiYvn/9+9jjr6osSmrFmhuEeNoXowZdjPsKH0yN13ft7/r/SG52ZRFf+oNRn1K1VAnk7ZWde/jOGXYUNpjqekPL2mUvY9rbHisz6PFhP7bAJPt1R7t7YiY/hl2Ij2SORm4hGQz1orPutzLRPrr+oiIBnikSlOVQP0ycdzKUUEROX4FF8mx/XbIz/CysGUKU5Vfio9EhEQtTeUW0gmx/wKGstimoBUD6ZM+1UCcnWyyUy32iRKk175pdrPjGknW9WDKdN+lYBU9Yi3dr094rW/S12XC0gW+Myhn2nrXCiRwlT3eFiqNr/+e2zv0hzZcVYOZeW1jCeeSl/V2lR+JqqlfiN+eBjusDZFQDJvB973ppHBh4D8TTnCcIfmyIwx83ag9khLXhGQP5RbGGbWz6i2SgUkC372wM+2d0yucqq54mLt87K07B199toetZhH9qtyIGffPirsqT3yVIvZfav0CL3x3FXNAjLb7ePpHWxWsViFiYCMPOrzfZvt9lEtINEeREDya7PVYpmAZAzjyCBWgGQX4vmZEVGtiNWy2fL+WOHMmj8EKm8fVbVc6fOdgFgzoyJWq0csn3av8RIByYIeGcRKQisKccQr+tNJD/FQKiVnzbHesnrj61nV7WZEAakS4+p5kFNFY1qZUkBam7BHwUQau8IvTljvN15PAWntjTthyrJ7d9BS7VcIW0XfvV91fTxoFpA+bvIUCEAAAhAYjQACMlpG8AcCEIDAJAQQkEkShZsQgAAERiOAgIyWEfyBAAQgMAkBBGSSROEmBCAAgdEIICCjZQR/IAABCExCAAGZJFG4CQEIQGA0AgjIaBnBHwhAAAKTEEBAJkkUbkIAAhAYjQACMlpG8AcCEIDAJAQQkEkShZsQgAAERiOAgIyWEfyBAAQgMAkBBGSSROEmBCAAgdEIICCjZQR/IAABCExCAAGZJFG4CQEIQGA0AgjIaBnBHwhAAAKTEEBAJkkUbvYn8PmHhtR/6Ki/dzwRAu8T+Pn169fvjxs0yvvJwIOxCHz/pTp6Y6y84M04BP4H0jQIyavqgbAAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>vxvw7</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dB7wU1dX/b300ASma+JkYYxRLbKgIaKSIWBGDKAI2EBVURFFQAUVE7IBSFQ0oCiKgEguKiiKigC2xRezmyyc2DF14b9v3u3d29u3Om5lbZnbfvnln8zMKc++Zc/733PO/57YJZTKZDALwM40ICW1JZ0uEbUvKyxG+KGAF3HHzbKwu8Lr1PCtMAggBQiBEBFLoBBSPnDoFEQiFC0KAEChEIDAE4nfD1hUi8aqn1/p+407yCAFCoO4gQATi0FZ1JbB61dNr/brj6qQpIUAI+I1AAAjEOrUiO9ViljMhtV8T8RvwcpNHBFJuLUL6EAJ1BwEikFxbEYHUHbclTQkBQqAcEAgAgXiFUTZj8foequ+KQC4V0s0MRe2YfZ7JDhRCovLUXoQAISBCgAgEFEhETlKS50QgJYGZXkII+IlAoAiEHWkJhexPgjg9q/trANaRteEeTod7THSq7baO+K3uVTtTe1b9Red73Nq+ABCRID97F8kiBAKOQKAIRKet6j6BZK22GCIiEJNkQrkMzAm9ukEgwrYPTEMLLaUChEDJEAgOgcgGiHQGYFlKfR2JMpzqgO2OzSnbziXrQvQiQqD+IhBIAjFiTJqPrc14ycbRIWRH0xpBNJOVl0YKIR6BQ4jw/6qdEXq+yzJzmLVMx8K/zyCcZQtr3M3PUDLIcEsMXglzi8rBLttu6UQgTikXE1IHCLP+hiCyvC4jUOcJxG7uOwUW5lNI8qCa5MEwiigi/H/qd2CxwGzIZNKSvL0NeYxEWIiuRRLJAKlQGgkkshbLuaOpcf4WAmYHs8fEKZQOAeFyjb5M87AxQjD/sZh+TPsuxlAilMbqt1/nNIvcLiw5nKgUIRBUBPLXi3WvRKzzBFIw4s4uorNgv/T1pRh162gkw4xAgEF9L8YVF16OGA/7NQO+28wIk8cCdN9L+mHdv9chlAnjj7v/AUsefbosCCQZSuDwE45EVaSKw5EJAaJF5VDeiJ2VZ3+OZMKIJmN4e/laVCDG7ay10btbRmFJvzq074SwSQwIZ23P4M01rxkljYQRYFt3iUAMSGw2m+gGEbM5rDK9yvMzcDttrtF5RznZJaO/28YimfpuZQJFIKahLOBvyWxDtzO6YVNyEx9F79VyLzz78N95YGTZg8qPZR0fr/8EfQaeg0Q0gXAqgmHnXokh/S+tfQIBUIlKHHLSYdgZr5Q2ixEGJ45QiAdcNjqPpKOoSFTg3WXv2uBUwu3Ohjq2PzOrMB6mwZKk1Wtelye6ck2opFvOv4J+B3y/5flnqT1h6sovZwIpxsCgXhJIEgncdN9YPPHKYqTDacSScTwyZQ7a73MUIpmI43ZfO7AqkcDdc+/G7IWzkQqnEU1F8dKjL+IPLf7AVwxqOyZVIYF2PdqhMprIqS/KQHJkG04jlUliZ2onIukQGiQb4b0X3kVDVFiI1icCccssGKllp6M6tOttTFFZssU1axbkZRT52YVpkYOetPhew7X9DPh+ytIN7K6BzmF7v867yoFAiplVqGBik4HIBQq2ulC98Jp38CAvmsoGMSmFbQKA89kOtqScxpp1a3H+tRcgEUkinI6iz6l9MH7wzYhnYtUjVkFgYesfjEC6XtAN3238D5/WOfLAozDvzrmIo0KaPGSxEMe5mu3DdGQrIMa2AfefuWCeHb/zeg8+/SCmzpnKKzZMMAJ5x1MGYmtr/jqFhUQ6dOjCJxaTqV2RTO6FVLoZ1qwdW02GFoZmsSDOmpD9vWj5SfVAiQjAgD33K/D7Jacc4a1t20qdVai0gTKB5AeHgs1M4sinolfNsjwAZWos6rqRCAv8Jw48Cd9u+IZP17RuuBtWLliBRmhQuCOLvc0mjTAXz1f/azUuGDkAyUiSZx9jh9+Ec7qegwrElUf8ZgVzFGN1jhrEXAMJOYJ3Atsc4TMpqRDw/dYkzjj3DGxMbORVzuhyBiaMHIEYWxNhSwbZXc+28tgae84gYxDB1935HLsF0zRwdLvTEMo04FE/kwkhxBdiwli9dgGXkk4DLVueDYQaIBNKGgszvNkzyGRHkFx2eBM2/vICQiLy4JUtmtd2uuitF/he26/g6Jcc3w30QWCpbJPJKmTXckqVJamvgThugRV86U/ylLgsDxWokd2QY/UVNrUzcd4kzJo/C6loCtFUHNPGTkH3o7rlrV04683G9GwqbOyUm7Hg5UXIhNLYJdQErzz9MlqFWyqvpZjBkDuBpKFWkuYZBKvveJ7F+XZiRgaplFE1kwaSIWD8pDfw5HOLkIhkUBGOYcm8Sfh9KyN2hy3B10omLBZHQsBvdjsZmVRzpNIVnKijkc3Yd18gEt5kEEOmAulMc3z51S9IpnfJkYix0BHmuLJ/h8LbsOHnJTWIoQaJhYz3Sqd/PgSRoIrwY3RbqgBbG23gh22yQV/GvlIRg4wufNwt+0VC4xyEsZWV/TfbycRm/2W2sRprosbWWjMmmVtgeYBho+G8KRhj2635huphpjX7Mc8+sFG7GWjNjbqsNlv8Xrfhc/Q6rxcqY1V8+umUDidj0qh7EOP7sZhsZwJhO6+2YzuO730CNlT9woPqaR1Oxj25+sZivEE0zLY0R4VthOXap7PSrYGYxf/sSNgM0vm7onKD+mwZsyz7+/zy+drLNDhXg43yW3dHCg2RjIRRGas0hLKMIBlBg1QcsVTcWGFPsyyBKWEydOG/Q6FK/OmPLQ0SSDVHOsMyB4M43n13UnV6kl3bSDECY1kNdzxDY1be9IFIGIhGWX2HEYGMkVRGGQGvQdJrfWWFi1zBz4DvpGq5EYEupEIC4YaGMjxIXnPztXhxzTJkQhk0jjXCS0uWYdfwrsKRuLkNtt8V/fDxV//iwePI/dpizpSHOQnNX/I47ph5BxKRFN9q2eYP+2HetMfQJNQkS1OFcxWmTmz+/olXFuHWe8ZznSLpCPqd0hejhl3P6zGCYSRw7tXn490v3+PBapfQLlj+9CtoKdI7w0boCTzz9lKMGDcCiWgVYukYZt48Hccf0TWnF6PF1955HZfdOBTJSArxZAQzJ89BhwPagc3CsJF+/lfnGRl8+gVw3sXX8pH3ro13xdJnb0ScTf2wKSBLS7Jdp3dNWovbJt7On0SSjFwjnAyrt65KNn+oCuHQNny/YRlSEeCK0WPw2ntsB1MaLeIt8Mz8JWjdOIJoCmBNYf21b392dtEhmzmgCmvfecoggewah+MUFiMRno246MowEOwctiZukomcJEDeinkNpE71vWQJMnW96F0s+flyRcHW74DvNL2so4eojjePq/3aQgLho8TsQbqVH6zExaMv4YvSbFfTDVdeh/NPPB9xxFwtYZnAP/7zAfpd2h+JmLEN9s4Rt6Fnp56cQNjofcQ91+KZFUuRiaT4gvfZx5+JW666xcgTLLumTH3+9Z+v0HfIYPyaTvB58iMPOhKz77kPDfKmX5JhYP6zL+LW6ROQCicRTcYxbuRYnNWtKw+Ubr9EBLj85puwfM1rPNjv3rQ1Xn1iCRqkC0fQGxNAx55dUBmuQjQdxuDzhuGKvr2xR8uTkck0AjJxYx4/nOGH/pLRBCckzhipEJ9aq0jG+DbaagIJIRNKcZ2rognstf8fOPH2Pf0cXDesIyI2U0yuxmTXMtgoPx0FVn/0PoaMGMAzM6bGNRddg4FnXsg3ObMZpY7tOiMUihTsp82dq8h/kcNCtmjTgFMnFXWJukQgvO/kjx4ExrkFcplAbSdehhx0ZbP3ych3Kud34DftV8HcrUmK0R4i/65rz3MEUt0x7ad0zN1IJw86BV//9BUPLgftdSCenLLYOHTmsh2GrUWMnXkzHl/6hLGY3bglXnt8ORqjId/JZZzb2IrzLjsfn/zfJ7ltt+NGjMPZnXvXOPzHTpj/kv4FfQcOxbf/jiGdbo49W+2BuQ/egNZN2IG46jNjzK5ftgEn9B6OynQlH7W3P7Q9HpjYHzGbTUu7796XtyE7vcwOIfKzFWw4ng4hnDLOScRYBM7+cuWiO4EoYxYglEqjUTKN/37/Mh9R879jXBEGKkPAXwdcgC9/+JITCpPbq3sv3H71NYhZCC0ZARg5dT6tK3aEK/lBvyk33ovuHY/gQd9u2svJAXNTX2zKLQL0G3QRPv3mYyTTSb59tyLRANG0kdmwPEh4tsKcM9RclBYRjNMakbCeBQDHDKVIqYtsQLW2k0w91UAvI9PUQ7asn0HfKdAX007ZAC2y0y+SktWnXMtJEwgzgBHBrGcexKRZk7I7kuJYOHU+Dtv7SB60+S4cI2Up+G1JA116n4JNVZv5SeCBfS7EyAEX5QImIxUWXL/6cRP6DumPTTs28fXRJpEmeGz6Yzjw961zAZOVrQoD14y/Fa+sWI0vP9sKJJsilozxHVIsyOZP7fD1lSwRZCLsnARTMoyKREPEUtHsmoIxRcac4qefFvD1CbZDadFzP+LWeycgHcognozhsVmTcNCfDILKEQiXDzww91PMfGQmUuEUGjeIYPXzU9CIEUckuysJ4GsyH67/GH0GnYOqaBU/U8J+reOtsGrhysLdYRzvJFZ+8gaGjBjCy7MptNVL3kSraItCwnabFsoNy4D2HTrxTIpNFVZGq/i0XzwUx00jb0Svk06pnj9z3R7rbRdYbXQE230fdZBAvIz4/cI9P3DKko6K3nZlzb5pZ4OKDiIM3EiDCMMevVAmw5Y2WVg1gqjbgJIFwB+qfsRJZ52MLdiCUCqEfif2xU1Db+NbPpGyn/N/9qXNGHPnjUiFM4hmovhm3beoSEb5lI3xM04U8zudwgmkomlkIsadU6FUFNFUBPFUlI+4k+E0X2tIhhNAbCv2268Zbh83Gqf8pb2RANgEUzaSX7b6XVwz9hpUhhN8DWHEoGsxoHfPgjrmbh8zUxhw9TC8u+5dTnoH7tEGi2c/hGh2e2s+nEz+O599jQFDB/BAz7B47N45aLf//mCTQBzTDFAVSmDy4/figXkPcNJpvEsjbNm+BfFkHLPGz0DnwzsXbEpghD1l4VTMmHs/z4gO2+9QPDFxPipQUchgFpsLT2ubC/ZprHr7dX5Cv2f/nvhu83pOnm1+ux8W/W0R4ohXE2OBExSHMIoRvwuyE1vWEIUQf56rBjXRaNcPrUQBUHXUr0oK1vIq2UduDGQzHaiKtRNB5ZOUjkw/2qguylAiEHMx/IaJo/HU60/xwL9rpAWWLV6B5uGm+E3LrsikmyKTaWjQQnYaiM3hp/kp6RCiiTh+Wb+EB27rNlEWqliGMXP2pzzIpiPGrq8TOp+Au8aeznc1/fNz4JLLhyORSiAS3oxBF3TCsAH9EEOF40WJjPh+xa/oelY3/Fy5get28J5/xsIZT/Dpt4jlahNW/qvN3+D0vqdjZ7QSkXQYwy8cjkt6X1wwnWYGLFZ+B3bguF6dsTG1iU8DjbjwGgzqNchYU8h6Brty5LTBp+OL775As0bNMXDQRZg47W6+5tO7y18xYfitiJq7w/gifhoX3zgYq957g8sc1O8iDD/vKkTN+5wyQPujj+OXH+b/aqxVZLe8VoXSmPrEFEybOx3pCNvWHMX08VPRtW3X7DWTdqfqa4dAdAkmRyK6AnzoxSqL4Xav8xrsdQOgar1ilFfNAkQ6qBKjankf3KVOi3BeRLfpgObi9dtfvMt3NiUjVYinKjB62I3of8K5fE0hfwqLjczXrf8ZvS/sjUQ0hUgygunjp6HLUQcbI3ObbIERCFv4HjxqNN54dxWfKmPBky3Yd+vWDf0H9ccPP/+ASCqKrh2PxdSbxyPGt89WB2pri5jbbCfMvA2PvPAon8apSMSxeM4iHLT7/jwjMfecss6bCCUx/ckZ/HR2MpJGPBXD8vkvY8+me9peXWIS65W3XIWX3nmZE+vxbbth+ripfLuwsSMsiU+/X4eeg3rxqau/du2JoUOHovuZ3ZBMp9GyoiWWL16OXdDUyObYrqUIcMypXbB153YgkUYkGUNFKs4X6o1AmcGbayXugWLZHYDvt3+HU84/DZsTmzn2Rx14JB6981FOonxkxv/f/XReLcblOtXRRIEt3xiVsmY9p0CnI8tJphuR6bxHpk5+Get6l50+ouxNRMZWp5LRsU45YpGVVSIQnubxqz0q8dcreuNf//sp30V18D4HY9FkYzRf/QvzK0DumHMHHnnyET5FtVfr32HZ7Bezi+5myZoBi43of0psQL9LzsW3G77lAb9BqAHatGmDD9Z9wAllvz3+hLkz5qJVpEXBNmK7RVYW9FiQf+fL99D/qv6c+Nio/5I+g3DtuVdnd5Fl10GyV5f0GNwTn6//nCvZ8ZCOmHPrHIve1ZYaV4mkMe+5eRh//3hOEK3iLbFy8Qo+3cQyHPb+mfMewJR50zjBzLx1Jjq27YBLR1+Cte+/zafzJt82GScc0Q3HtvsLD+RsrWJHfCdfq2geb4ZXX3gVDayHP7KL9G5+YhBcFcZNvQWPv7QQ6XASFck45k57BEfufQRi/ES9XKZRCgJRXSgvch/REi8biGTL2Snhd/DkgwjLnVGyU00ygVok2+65zN+Z2Mjo4NaYIv20HCHglaS28eZjwAIIm5uf9/JjmHDv7TxDYJnFUzMX4+C9Dsqdj2BB9VfsRKe+XfDz9p/5dMmVF12BIb0uLQjYNfFlxwKNgP/Rvz/BucPOw7b0toJiLRq0wIIZ87BPq32MaSt+LYb7diAmkxHfqZechq9+/JKP4H/fYi+88vBLWeIL57Yrf/jvD9F7SB8kYynEklGMv248eh/Xy3a7shlQ2ZmTz77/DD0G9eTrOBWpCjzx0AIcssefOYGw8HzOgPOw7n8/Q9Mmu+DVp5fjuI5/4Vt02W4vtlAfyRi7od55axU/Jb5g6QKMmzaeB/dOh3bCjNunGVNidovmVvPzIj0j5E9+/BRnX9QHO0I7+EHHHh1PwT033J39Sgqz3X4NrBSEIdfHBDcdZIVobgqTU0GhlGwwki3n9Gonv9cNprL6yJZzG+FbdXTLPgpiUHYtRFcHWSx1MVRwkzpfVItAEkhiU2YTTjizO78unWUE553UH2MuH8MDEgtFjACee3Mpht8+nI/IG2caY9niF/Dbit0LpozsCMTIdFgGU4lFqxZjzF1sAd4IIGw9YurtU9H9oG7C7cNW2Yz4pi6ahumPTOfEx3ZhPXr3Izj6gKP5FBgjAXYm5c4H78LsZ+bwzKdZqCmW/305dkUz+wOT2VPWjL+qQkl0O7c7vtu4ni/8Xzf0epx/an+OSNtj2/MNAGxdiNnQMFGBtW+9gU2/7sAJPbpjZ7gSjRo1wqt/fxkNwjF+AHL0xBvw5Iol3IzrLxqJgWcM4FNi5qJ8zj67Cyyzi8jm9utLxl6Kle+v4jbFM3E8P/tZ7NN677wpOUYiNTdR1AqBsEux+J0r+fusXQiEH2TMnkBkH8DiWVm01q86EQU40XOZ6FIbBOJFb6e6bmsPVmIxcfGihxux8fijcH5Hpp2CWkaZQBgQ5h1Rt0wfj3kvLuBBqUV0V7z85DI0DzXnW0xZALxk1GCs/OgNjt0Zf+mBO0fekR3xOn+Po3pwbdyC+9x7z+OacddmCSSDcCaEwf0GY3ifYXznEBtNu/4sI/Gvt3yL0/qclrvapG/3s3Hz0HFcL1aULYZ379cd32/9nl/4d2bnM3D7tbdVL26bL8tuW+Z/NN8RBg47rh0S4ZRxJ1QqwokiFcrg3Kv6YcacmXyb8dS77kOXQzvzOMemvi4fdTlW/HMFF3XfTZPRtf3xSKEKpw84A1/+8hUnnCdnLMIhvz/U+OCsy71iBSO17PUxKz5ciUtvGGJki+kw+vboi5suHcMzqlr9mmI+dvmpQyIB/LodqKq+nt6pjS/rcHT2URhV4Qi2xmJ44r13gFgFuxMlr5rcFJ2fHV0U4ETPZXTxm0DYO0V6iZ676S2aKch1r7wALkM6XgK+G3nJtEE5lym2bVIEUmMxK3synR3663XpWblbam8deQvO7HQmXxf5euO36NGf7WLayaevHp30MNq1aSe8O4vFYvPerM+//wz9rjiPL/rmHIuNoNMxTBs3DV3bds6OyG2+MGgTZNlHbhkpDRx5EVavW8NFsrUKtnjdBE34n1d9uApDRlyOykgV33L8wG0zcdzhbKeT5XxLdgcUO1BpHupjWdKo28bgxgljkIqk0LJ5K7yy+EW+gN1z6On4/Jt12K1RK7y8cBkaoiHHgpHx4uVPYdTkUXydiBHt+JG3YkPlz+je80R+cr/FLi3x1vxVthmXwWPV3z7Pd2bT3rMv64OP//MxJ7Xm0WZ4Zt7f8T8N9zAyKj9SDNuMQbJb2V33m0piwOGHoyG7OEvwm7H6zRyBcMJgxBGLAXF2ACd/oFJ6AhEFY6eRtcjm/OduAVk3qIoIQlZvGbIwdXSTWWoC0cVNpd28lpXBloesImdSLgTi0OEsUyP9RpyL99cZ90y13a8tFtwzj49qjfMOD/JLEg/Yqw2WTH9aesqJzdlvSP0XfS/ui29+Nq5iP+LPR+GHH37Adxv+w7FvUdEM8x6Yh/1a7Muzg+pAmLZ8zjXvMsbsdzMWLV+MMffdZKxVJOKYPG4iTjryZL5WcePtN+G5l1/kp+Fb77obli1cik5Hd6mx5ZjRnHUHFL8efduP6N6re+6KkGfmLOEj4VMvPJVTY58TWcYzNpfRsI3KvyQ34rgzj8OOdBWaR5vixadfwJvvv4XrxoxEOpxB904n4r4R91o2KQhcMHuX1/xXF2LcxHH86hS2VjW0/1Bc3u9ydurDv+xDKWPoUKA46wjpdLpg1LszGsHs9/8JRBgBiEnEEMgOAYWBcMT4tyUxlTnn5LVT29WXCX66HV0URHSDh+x0kqm3ahZkRxYiUrI+F5GcbFsWe4Quq4dZTtSmuYF0kYlBVm89AuFDK2Mx/ck3nsaYO8YgETW+lbHkgcXY+3/2RvfzT8b3G39AOBXC6KtHof8J5/B1BjYnz/5x+rEnbB3iivFDsfLt13mx1s13w4KHFmD9+vUYeOVAVLFLARFCm9+1wfxp89AstEt2MZ3Ng+fLzstMspf5Mb3/W7UJnc7qgl9TO/g1Ht2OOQH3jZ6ERCKF9t068umyUDrC10jY1SVr3zL0yP3MywNN8dnpl/wR/0f/9zEvPu6qm7Fp0yZMnn0fP2sx+/ZZOPbgYwsyMZYVDRk/BCvWruC7sSZMmIAPP/kQjz/+ON+NddPwMeh7fB/hnWP5KjKMN6c345QLevBDg+z3mya74/lHn0OrSDMgwU7kywZngTslkxh4RFs0SAouFwMwY/VqsW+yr0U1aoJMzHlrdk0h1ht8C20LGoEUk5h493bYjeVHwNXJmkSB1S+y1JUjcmqR/uVGDCJ7coSXSZtbGmSrVJdjmcI2bEP3Pifhxx0/8Qf9e/TD0UcfjWGjh/E/7xrbFUufeh6N0QSZ7BQSC7R2P+N6dmDGU/djzmOz+XpBo0QjPHDPg+iwvzHXPfvZ2Zh8/2Tj2+TpEE4+5hTcff3dtgcCeQVzrSJvqoadAj/8L+34iXa2fhNOhxFPVhhXnjTegVSEZSYVWDD7cRy054EFV5c4osTPWhjfD7nrb3fjb0se5ttlT+12Kr755t/49Mt/YfdddseKea/yz8Xmrz2wK0uefuMpTsSMPLt064IffvoR6z76FNFUDM8ueAb7NNu7cBHfZerJ1GP6/OmYNn8G0pEMzz5uGHoDzj/pXMTZ0oL0GkNhxmBnv5ExvG/cxW5iru5O1TXYBWIRNgUl88UopxfVzpSVnTai4KEatNxG334EeDsCsbNLVe9c0HHZMSm7bThfHz/1UJUlatu6Sgyy3TfkhUDMQDVx9mQ89NRDfC2kecMWOPDA/fHWe2/xwHzuyf1xw2XXc3069+yEyliCB2rTSY0GM64yYQfnqsKVfEsr+3NiWxWuPH8oBp8xODf6Zjuzrrr9aqxYw7ICdqdVHFcPvhoXnH4+Xw8p2Oaa/W5Tuw4ds5+3MEapLLDfPWUiho0cxkmE/UaNGIVX33gFyz9gBwFTOOB3B2DhlAX8HAfLdtj/bIND9i8NK4zvmrzxyUpcdv0V/BBi08ZNsH3rr3ynWp9Tz8L4wbfUyCQYEW9Mb0TXM7pha2YrYo2iSCXTSFVm8KfWf8TSOUtQwViPnbA0sx+nFub3WCWxdfMP/EuDm5JbeMk/7vZHLJq7GGBfBKyCwhqDRMYQiwKNWcaQ3SFW0Luzfyj5/tq6RyCywcja9G7bYWUCmF/vlQ46GgTiRmqqQd+JyPLlyGKi+25ZrMq9XPUUlsZiqvmRqa83fIuTL+yByvCv1VeAhzL8gsOn71+CA/fcn+NgTF6xgF14kMH8UNXn//0C/S7rhy1VRtBr2LAhYukwD76h7JeHeJbCgygL6bHsszA/Q9GwqiEyP4f41ejsx77nURWvQrxFlC/ms8yCbfdkBLZ04Qs49eJT8dPmnzlZ7b/Pvvjy6y/49Bg7Z3HNpdfggi7n8V1efOdT9seuVmFvdhobs7C1A7/ixF4nIpFi5zuMrcfsLq9Zk2bhL22OMdZs8n7mSfbhtw7HsrUv8QV8fu1LKor+J/bDhCtGAluqgEr2vZQ8xrLxriEdj+bX7TOiTrLdYGFj2zC/RTjJFvzDqIzEjIyBrzH48PMlY/Cmh6r7qpb3pl3NKSGZwG73TtnA5lVfmcOcXoKnTqakutbiBT8vtnnFvi7V90QgBimkwM6FDLrpEqz85xu57bbs407tDjgSj905L7td1B4W49BgEluSW9H/kvPwxU9fIRlKYfdWrTF3ziNohmbZNRPzCLZxX1P7k4ysgl3AyNYs2E6oimQFPl22DhV5V4FU8mmznajEDv4eQ+c0uvZl3+9gBJPk90Ixh2HLymxZIJKJoVEVu903VnBbr1HX+DkRCJPDVnoO3Xdv/PMf7/MpslAmgt/ushteWLgUETQ0ziywX4h9NTGCSoFkXIUAABb6SURBVLAPdmXw/JqluO6OkaiKJLltjIAnj5mI3kd2wVmHtUXTqkSNLxnmo8o62N/WrELm28/R96K+fDqMvemQNodgzIyHjQ+BsB9bY2jYGDstRMZosSy29mr0IFVCUC2voVJBlWIEP7cg5/V9pSKqfJBEQdvNJll97XZ9MR1E7/ba/kGtL7WNV2Q8W0x/8d0Xjdtu2YeSwIJfA9w5egJO79gT8YLtotUh2NyyywLdsLHDsXL1Gzw3YVdrPDjlQRy2/6FcVodj2hd+CS+UxOpVb+KRvz+MOx+8m0+dsQN6h+/bFo/dPRdN0SQ302NkNyz3MT45W00CaXy0/hOwLa47uc4s0If5IvaxRxyLB8fMzF6EaD/3wr9N7jCtVYFf0bP7QajAdn5LF/ux9Ry2YM+zqeynYtmZhR8aNca2eMSYsgsnURmv4vawH8tAGiQq0DARRoMku5MrzXeHvbLklYKsyGwfM5MbOm4o3nz/zeyhxQhmTb0fR+11FCdIfkUKwtiJCJIWGmS4M+zi+bf9ihpf8Nz3QJ0TWEjlvr/Ho93W6n4HdNF0i1MGoRoovertBKNswNdpBpGNfu3g0tEtaHV8IRA2st+BSvTo3wPf/Xc9Hz3vtstv8OITS9EIjZwXobNrFDPnzMKsRx9CVSaBSCqCaDrKv7/B1lDYYb41a4xDdrkfqxdmU/mVuOKWoVixZiUnCPahpz7dz8aNw2/MBlgjW7HrTIxMqpDCmZediS++WYcGyUrE2UejMmFMGHMbuh3XA0hpTvGEtqPnMfshHNqONNtSmvctc9MG5sRbolE8/eaH2JbNBNj6yYgp1+HVlcv5lF2bfffHY3fMtZyAT6Pb2d2M75DnnXVh8vg350OZ7JX3jIRYVhXmX4CMpth3Ulw/9MEJa9WTb/L7gNV/Zk5WuPtJlLGpvsduBo9lTvwb9AjxrdglX26RNEI3cImCrWomIgqwBV3NYb1CRYYdPCKbzDqi9R07PWRlSzZbQTGvduu8s5zr6BNI3pDPXAsxxvhstM8CFzvbzT7wlJ33sdyTYX6zgo282TxRkmUVq1dxrNhf5UJY4XKJgWVu26yZXRgvYUHEON1gBBTRj2UmLOjGUQlsZzfeGlfOc3Zii9bmVFOeIPPks/HlPqZ7zXMM2+NhPPLBGiBWuI24hj7ZKSwzEzBm3gwEzYvVDWvkf9UyWB1DjkEbYinsG/PHnnlMLgOSf6t8yVcWvpItbN1CLNbP6S3Mz9hFnuxKf+PyyvyzPwUuI69oLZfUWSOoZZWNrim4k86JGMpBdxkdZO2TkWVXpq4RlB6B2AV1WzSADu075aZs8osUfLPCHDJmv1thlHMZu+affM6tJ3g405BM4qK2bVHB7l8S/HInn3PvtanAzzE0tt+VJHqBT88L+NpC3k6vYDvctmMbKtk2LR9/+dN9RvaU377mi/QJhJE5y1hfe3pF7vp8twOIZsaiMtjwEY4CUcWaIvJbX9nAWdcCoN84eZUni7POe4rRNjaftBWoZj1XkVc8P6swPhZV87S2o3SVeQeZk89Zkruso+gcQxo7o1HMfv8fZXWOoTbm9I2MjN3OpU7GTpvDnDeNmbf/Gu8Sj0nsp8hYXTOTPO6vnZGJJvkmjJq/7PoX25yQiiJeFcfKZ4zrYawfFNPpnDJ1yjGrkA1YxQg+MphRGf8QkG1r840ybS5PIGYPzxhZRf53x80X1vgSHnvA+n3G7nZVD8CkkhjY1v3ks3nl+fQ1onMMaYCfY2haqxmDFY3aIBAPLeJ8p1YJDDFvAEjw+5vZRJzdQdXqDRTsrBCb6jKmvPwnkHLIKmSDhUyQ8OQXVDnQCMhNYWWAY9p1MSYeQmmsXv266MN11aCxIahMxpCtMaR9ez6Pyv5xcu7Ck8/pbPDSnwLhJ549n3yW9BOngFrj7/1efpbUz6mYNUWwphYqGaTtO/TtNT58bOyzE12Vw15djCms/IBdzKBMxODRj6m6rwjIEYhxxNqYVuaBJFF951SGHW7L391jEwgkMgbTKvm7ksw1BkHgKcEIWKlFiEAK4KqGQ59A3PAvt+Z30pWIQakXUeEyQUBIIHz9lV2rnUgBVVVAohJIm2wCXNbhGKEpWnclmR8IMi9HzB8BFyNjcDhfkJsPzP6H54G2EC2fC5R5BJUlEHkzikNEuq1CxKCLHNWrCwjIEUg6CVSlcM6RbdE4wT7XWn2X1fS3jO9quP4su5Jkrklg8vg1WaG8D8tJ7iYSqWP7PDAEYgmg8pFXCzavlWqTQGT9UNbGclwkl9WdyhECOggICcQQyhbBWUTPfmZUvGWmUJdiZAw61lIdQoAQIAQIAd8QkCQQ395HgggBQoAQIAQCggARSEAakswgBAgBQqDUCBCBlBpxeh8hQAgQAgFBgAgkIA1JZhAChAAhUGoEiEBKjTi9jxAgBAiBgCBABBKQhiQzCAFCgBAoNQJEIKVGnN5HCBAChEBAECACCUhDkhmEACFACJQaASKQUiNO7yMECAFCICAIEIEEpCHJDEKAECAESo0AEUipEaf3EQKEACEQEASIQALSkGQGIUAIEAKlRoAIpNSI0/sIAUKAEAgIAkQgAWlIMoMQIAQIgVIjQARSasTpfYQAIUAIBAQBIpCANCSZQQgQAoRAqREgAik14vQ+QoAQIAQCggARSEAakswgBAgBQqDUCBCBlBpxeh8hQAgQAgFBgAgkIA1JZhAChAAhUGoEiEBKjTi9jxAgBAiBgCBABBKQhiQzCAFCgBAoNQJEIKVGnN5HCJQJAqFQqECTTCbjSbN8eV5leVLEprLVVi/yy802L7Z4rRtoAqEOouce1EH0cKtrtah/6LUY9Y9q3AJNIMxMP0dFfsrSc93i1PI7kBRHS5LqNwJ+trufsvy20xoHvMonAiECUfahcu8gygblVQiybV5wqQ91/Wp7v+SUI+ZBts0r3vUqA2Fg6Y4egpp9+J2leXVIql9aBPwKjn7JKa31cm8Lsm1yCDiXCjyB+BUgiUC8uhrVL0cE7BaXVQdZQQ6wQbbND3+sdwSik4UE2YmCTIx+dJD6IMOrf3utX64Y+0Gu5WqbX3oRgUggGdQgG9SOL9GkRSvixVdEdUXP7YySqePFD2SDrIwe+fqrlPeiv5sjFEtu0ZyvFgQrE4hKw1rtEdUVPdftIF6msWSdSFV3lfKyOqj6T7HkquoRpPJeMBX5hI5skUxr3zDbQnYaS1Yn2XI6+qjIVvG1YslV0aHcy3oiENXpIFVnlnFiGZl2TikjW4V4VJxNdtRmOo+sjarOViy5qnoEqbyKHziNuJ36lRe/EfVVHb1V9FGRryLXS99WyT5E+AXJh1VsUSYQlaCq2kFUnUElAKo4sF3glnEgWX28dBBZ4hM5gayuIjn0vBABHT9T8XtZ+V58TDYLkdVFxT7VDERFB1lfVcVOVm4Qy9UKgYiCoExwkyljbTBVZ/NS3s1GFQdV1UHGSYshU+a99aWMKr5e/MEu2KvIcxosqQ6YVMs79Q873d0ITRVrGR8shkyZ99bFMloEopqF6DSIWx0d8lAdBanaKFveqrvIFh3sRI4oeqeoPj13R0C1zbyWtwZvVXlOJKIy0FMlEKfytU0gOuRbn/tDyQlE5JT5jeEU6My/V5Fl10lE9VUDrUzH9UIgIn1lHFnVJhmZVKYmAjK+oBu47QZDZkBWea9Va5W6KmVV7PTSP2RITOSrOnaJZAb5uS8EImo4L0HLyaF0g6msLrqOJJJvJT/Z8iKMZZ1U9D5ZOVTOnyxE18+cSCRfK50+IquPbDmnAaGdP9vJdHuPjg5urea3vPrQR7QJxOrAMnOafji02Sg6suw6nd96uwVoUUZl7VR+OzSRR+m6tGzbyZZz0txavzb6h8rgRrV/EIGUzmd13lTvCKTYxKfaQdz08Tvg+y1Px+HqUx0ROYiey2BVGwTiRW+nurJEkT/g86KHFVs/Zcm0W1DKeCIQUTD2I2D53UFEOss810mD/SQWHefzoy103luf64iCkui5DHbF7h+yU00yurrNAMgSSL4+fvm0HYa6MxyyOASlXL0nEFEH0XEkO8cWObtOHVkn9CNQyb6LyhUiIBsYdfzMLiDnv90vmVY5Il8u5gCrFASii1t99H1fCcQajL04mtkYpgyzUf2QKcoyvL7DjQxU1ly86mHF0I4s66PTl9JmnSkbWf2csg+zvm4gdBuR+zEY0RksWev4oYcTAeviJttuQSrnmUCcgrEfwc9KHqLAr9IwMh1b15H8IBA/8HObMlDBisrqIyDjZzrEXiy5doMOp1G/jt66WVOpyFK3z+t7SN2uWbYE4hZA/QiuMh1Q15ncnF31hLpuJ6Xso3w6pt/BT3ZazEsmItLZi1/q9A+dOiIPcMu0RHXpuYGALwTiNqrQCcKi9FT0XLZxRZ1ER3enEZxMh3PSR1cPv3CSxZPK2SPgp5/JBD2ZMqK2Euks489O79AlA+ofolYr/fOyIxDZ7MKP4CjqJLqB24lQRfKK2UFE7y6969WvN/rVtjLkoBugrS0S5P4hg2P98lA9a8uWQGQCnh9O4FfHlul8Ipv81EWWiPXchmqpIuBH26oMmorxPqvNIn92w0in7/phk9MMgRdbVH0hSOV9IxC7Ubdqo+gEPZVOZddwfjplvnydDuIHhnYdRLUdguTg5WKLVz/T8XNdHxT5sZfpK6cALiPTK4ZOdlH/0O8lvhKIvhoAcw5qSC8IUt1yR0CHBLyOmL28025AY+rjta/qkptXe2iA5W8vKRsC8dcskkYIBAsBGmAFqz2DYg0RSFBakuwgBAgBQqDECBCBlBhweh0hQAgQAkFBgAgkKC1JdhAChAAhUGIEiEBKDDi9jhAgBAiBoCBABBKUliQ7CAFCgBAoMQJEICUGnF5HCBAChEBQECACCUpLkh2EACFACJQYASKQEgNOryMECAFCICgIEIEEpSXJDkKAECAESowAEUiJAafXEQKEACEQFASIQILSkmQHIUAIEAIlRoAIpMSA0+sIAUKAEAgKAkQgQWlJsoMQIAQIgRIjQARSYsDpdYQAIUAIBAUBIpCgtCTZQQgQAoRAiREgAikx4PQ6QoAQIASCggARSFBakuwoCgL0IaeiwEpCA4IAEUhAGpLMIAQIAUKg1AgQgZQacXofIUAIEAIBQYAIJCANSWYQAoQAIVBqBIhASo04vY8QIAQIgYAgQAQSkIYkMwgBQoAQKDUCRCClRpzeRwgQAoRAQBAgAglIQ5IZhAAhQAiUGgEikFIjTu8jBAgBQiAgCBCBBKQhyQxCgBAgBEqNABFIqRGn9xEChAAhEBAEiEAC0pBkBiFACBACpUaACKTUiNP7CAFCgBAICAJEIAFpSDKDECAECIFSIxBYAmG3qNr9MpmMFsZ28nRlaSngUsnJVi/vKRfbvNhAdd0RsPqN1zbPl+dVlt9t52cfKTfb/MZKRR4RiCRaRCCSQFGxOoMAEYheUxGBVONGBCLhQ35nMxKvVCri5+jKfDF1EqUmqJOF/SQQP2UVA0w/+wj1jXpAIMxEvwK/X3KK0TG8ygyybV6xqQ/1/Qr8fskpR8yDbJtXvAObgRCByLkGEYgcTkEt5Vdw9EtOOeIcZNu84l0vCYSBJpuGBjnABtk2rx2jvtT3Y20vyAE2yLb54eOBJhA/spCgBlm3OWFZcvXDAUlG7SPgNUh6rV/7CNhr4Ae5lqttfumlRCBeABXVFT23M1imjhcCkA2yMnrk669S3ov+bk5SLLl+OWZdlZOPqyoRi+qKnov6iJM+XghA1pdVdVcp70V/lT6i2p511YdV9PZMILLTQSJH0wloIpluGYiM3rI6yZbT0UdFtlLD+3xORuXdQS7rJZiJgqaObJFMJ5+UDZayOsmW09FHRbaK7xVLrooO5V62JAQiEwRlR/smoDIydcqK6tgRjx+6OBGaimxZZ1PFWlYulau588/PQCwzYHLLdN100QmWKvqoyFeRa0c4spirZB8yA8766P9lQyBuo3OrQ6gGQNXyKrr4VdYrMck6rw4WsrKpXHEJRCVYeg3CMgHTCymokJmbLio6yPqnKnaycoNYTolAVIOlW3mVgGkCz5xOJwD6WUd2HlnHPmudUmYffozagthBdGxSDWoqAUvGJ1TkuWXcIp/wYqdKP8rv/9b2UNVBpj2LIVPmvXWxTK0RiK4DyXQgu4ZQrVeM8m5EZtdJVHUQOaAOkYpk0vOaCKgGIK/lRQMPERE4kYionle97eSr+qiqDiJ/1SFfkcwgP1cmENUsRCcIygTa/EYROXpt6pyvm4xdMuVl7PWDRIPs+MW2TSWwqZR1yxjsbFLxFRU9VMqqEFS5EYgKfsX2qXKUX1QC0SGPUnYQp9RYR29RHRnyyNdHJE/VmfyWp/r++lZeNsDKllMZEDj5tUwbyOojWy7/naI6Mn3EbYDlNdiL9JPBr76VKVsCccsadDuIbBCVLWd1Frf0V6ZzEIEEp/vJBiPZck7I6PqqrDzZqWbZ4J2vr8rmGLs+7xU7Uf+VtSk4XqtuiRaByEwJ+eHYoqCr2sAyOsmUke18ouZw2hTgtllA1WaZthLpSc/1EBAFONFzmbd68VeZrEZmnULFJ0V9WkQUxcpA/GgLmfYKWpl6RSAywdRLh5TtHDKZhp2jqXRUs76bTjrygtYBimmPKCiJnsvo5sVfZQdCokxBxY9k+4jMWmC+/io6iDIP9tyLPJl2C0oZbQIRBWO36RxZ8GScTbWhRR3Oi94y+lpHWDp1ZPETtZGKHCqrh4AbSbhN58i+rRgDBBGxedFbxt9FhOXX4MppkKUaU2TbKojlikIgTkCpNIyMo+mMFGTl6o5uZOWrjrD8tlWlLYLo+KWySccfZHUTydZtY5Fc3b4hkxU7+blIJz9t1ZUl225BKleWBCJyFmsDqDZ4MeXLyNYZYflJIKp4BcnhS22LjD/42bZe+4ZskLdm0iq46mRNIhx1fVqUbanYVR/LeiIQtykSXUd2m2LScTy7RhU5o5cRloxsHQJR7SB+YVUfO4XfNot8wmvbirJZVfmy/VpHrki2k8xi+LOX6Wq/faSuyisrApFxEpkyosYQdehSE4ioU/k5QtXt9CJM6bkzAiJ/U2kTmaAnU0bUXiKddXxSJrtxw8JtcCmyR2YgqdIOOu8LYh3PBOJn8JMhB78cW0aObieRscPqTCJ9VJxb5/1BdO5yssmv4CdDDn61v58+KePvIh/3C0OnmCV6fzn5U7noUjYEouIcfji2SIbZQDpOpdOBRfqo6KGCZbk4YtD18KNNrDKKPVr30yfLnUBU+lfQfVXFvrIgEJ3OpROkZZzYy/SVlxTdz84qM0pVcRIq6x0BHR/Pf6sKebj5oWqg9Kq3E3I6PuqnLvmyVDHx7g3BkeALgbhNY8k0jq5j6NaTCfS601eiKb1ijxopPS/fzqlDAk6+KtOv7HxBtp6oj6jKkRm8ycj0gqETIcu8t3y9qnY1841AvJhBowEv6FHd+oAA6yMU6OpDS9ctG8uCQOoWZKQtIUAIEAKEAM9wMzSsIU8gBAgBQoAQ0ECACEQDNKpCCBAChAAhQBkI+QAhQAgQAoSAJgKUgWgCR9UIAUKAEKjvCBCB1HcPIPsJAUKAENBEgAhEEziqRggQAoRAfUeACKS+ewDZTwgQAoSAJgJEIJrAUTVCgBAgBOo7AkQg9d0DyH5CgBAgBDQRIALRBI6qEQKEACFQ3xEgAqnvHkD2EwKEACGgiQARiCZwVI0QIAQIgfqOABFIffcAsp8QIAQIAU0EiEA0gaNqhAAhQAjUdwSIQOq7B5D9jgjQNzjIOQgBdwRCADKsCN3qTq5CCBQiYH7ojPoGeQYhYI/A/wPbNjabKUIpfAAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>wybts</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dCbgUxbX+Z+beCyiLioosmqAoLmgUBIlGIRpU3J9GjUZFxQ1QAeOLUXFFY0AEDWJQQRE14k5QY6LiLgguKBFB9CVxATciAUTg3pme953q6Zmevt1dVT3dfWc5930v10tXnTr116nz1zlV1Z3IZrNZ8I83AoROwnxs+08ARq5OsqLRswY/18Uy7kt14F3GALNqjIA2AgkmEAlmTCDaRhVNBSaQaHBlqYxAcASYQHLYVc5KPPhgc01GgBFgBMJEgAmECSRMe2JZjAAjUEMIMIHEPNgc6TBjx2xy3BwjEBkCTCCRQestuHgzvgUU4CYZAUaAEQgBASaQEEBUEsGsoQQTF2IEGIHKQYAJJK6x4txVEdIMR1yGx+0wAtEhwAQSHbYOyYVjqHT1JpEoj5sXLefI+VhubKbHDTECESHABBIRsM3FlqfDbDkCIYQIk8JFTLrSamQB+p2g3wn/31Q1SWXKg4tjsyRuiBEoFwSYQAKORMs63oBKh1LNIkJLWHg38TMG0NQEZDLm5X9r28j+e/tuF+b/PZlaha+/noVUeCqEghALYQRaCgFnZiPqF40wgeQcVQZGfj2cQFKsi/0WtroEYn9fTGUvmL0JRDeCcEYYmSzQZbshMLLtxPxzEoiRzWLliik2AgHq68EE0lLeituNHQFZ6jtqwnB2mAkEQBoGttm5G4ykmTIZecFFuPqSy5FSMQ8Jk1iPMzm3R+RhkVM57YWodFVWRiWC6NZ1hMg5JbJJM0UFo0AIybX4auVMJHIRBaewZIjH9zzulW18PSuvlsqNIGToMIEAaISBjj27IZ3KImUkMOqCEbh21OWos+XnPYFUIJBX57+B+e8uECKSBnDJRaOQQtI3wpENXBTPVSKI5iuQwl6FFUFksh2KiMEeSaz44naTMHJ7HHZ5dUmgoR4mgVR2mBbF8LSozKgJxC4/7lV0nMBWGkHIsGECaUYgwKgLLlQnEB+EyVFSwueGiTdh4p2TxX83ZICVn3wmyIlIpHx+DGSMpHQPolu3C4tUtu9VJBPrsPKr+5DMRXKyCIKe239oMzxF/8bkUT5mkdMkSgKJUnbcQFYbQcjwYwKJmEBob2XspJtw811TkE1k0SoNfLX8c9RHQSC0qifSov/J/Tet9J0/ro4dAKWgunQ+AxmjvesmNu1BrFgxxZtAUsH2JPiOpWyatvzzKJ18lLLDRq7WCEKGXyJLXoF+ynXVp7tb7dVjHzleKaxUNqFwX8P7eC412QQDN0yiCGQKjEQWDZkEvlr+mSeBeO2LyGEwQJs4acMkAvr/rOE+rF27XehKEMnkWqz8cqZvBOGXwtI6VsusIZubZfU8SicfpewgIPqRRDWn1wJhFTaBhL4xLPecav3WJpArUWeTbC7qs0jkmFaFb/0JpK75Jr1HBOFM9VhqifsSOUVEKonuUVAU0fVXMIx2yGZbua4LvvjidlfM6DhsXUNMp5rCGle10edSJSIQpZOPUrZbtzmKKNEYbNX1U1ieE794Je65kva4he0UGzoRuWBmtUERyFa7dkM6mUVdfhO9QCDWXgaJyMIQTpkO+spIhOpZKawJU29HljaJ8xGIg0BE3imBpoyZgrJHEPYslJEAaB+iQCqG2JBOZpNIJDYhkViLL1c+LKIIUtAtheVlPuJSXsQb2OXCG+WiR3hTOVpJUTr5sGUzQURrC3bpUgKxO3LLkdonX8HfOAhE+K9cHoU8Ii2NrYrOvLzTEwuhtBNLHq1OOEuSTs7burusc4rJcuRWXbrnkUA2TwFOAhk5bASuHmkSCLX5zepVmP/WAnz77bdYv2EDOm2zDfrt2xc7du2eI5NcqsgWQVA0kEmYJ5TG3jIDk6aa9xfqDGDlP99Cfe62dVHXCaIs0LVLIYKgwSLSyCYMIY9+bpv8R6xa/R02btyItm3bokunrbDrLkCPHc3ogU4z1Vkb0vlwJfcfVoPNGNvxPCIbLBfHXS56RARz6GJlTl723E8h3boygnBri1NPoZuEEJgwcsg2X003J4RnX3oOvz7vbBhJA4lMFk/OegwH7XuAIxVjnus3kMSyD9/H/xx6MNo2NeHHrdvhiYVvA6m6HJFYJ5ByifoE8PCYMbjn/nvRWFeP7XbpiYdefwNItUImlcQZw4fimReeFQ5581Zt8P68t7F12y2lUQB1ku55DDx6EP6xfKlYke+3d18888hfhN7Ub7EHsmtXpMXpoQRGDRuBKy++Em8seBWT7rgNbyx4U4BFPbMIleTs328/TLhxPHrusDPqBZjI70E00qW4HS4U79pIJzJ550+9zmYoakgKWSmiKAF+EqlsE1pl1+GrFbPyEQSRxuofgMl33of7H52FVatW5XnYaRLbbNkehx5yEE498Vgc1GfvfP/yHGKL/jwjPA/PWu4Otxz003WEYgLa3sMic3J+8oO0XbSSdLwPxqmLm3wVR+7XJ5X6qmSgK0uGdTTutvqkahHI6g1rsWOfPdCYTSOZTeCykZfgd8NGo76IQihKoHV7CuPG34BpUyZhl223xVYbm7BZk4FUJoE6kX8hV2qSFP1JjjKdMtCUBNJJcq71mLXwLSCZAol/+8038MvTf2Ve9stkceMV1+K0s84zR8QZ0VjjlGPFDxctxJEnHScIgu5h3DX5Tzhs8LGFekkDP9rJvAdC/TrhxCH4Zk09nnr+ZWSSBoyE6fCTiSzqMhnUG5TqMlBvAO0aNsefZ8zE3n13pnyVkLljl+OQSbRHOlEv+kX1qb/Ur411CRh1RKImgYqLdGIDI4k6bMA3n05HA0UPKTPy+OCfS3HKmafh86+/RJr0SCSEjvTbmgSUJrMmED2jKOe1v85Frx67KRFskVkzgZQ0y3Ucua7Tcyqm4uRVOyPTuxRdZXqq6iimeu7Mjx/5qchjAlFBSV4mkc3S9S9zBSz7oZX64FOOxfz33hGecuBPf4Y59zycu3CXIwMkBS3Qqv+gwwZg+b+WI5U10Cpt4LTjT8S4P0wSp4WKfpIGMhvWY9ef9MJGNKE+k8Vjt03FxCuvQat0IxqyWWQEsZhEQz91RhIpA0jlUkEF/W1vvc2lfYgEqC79UPmkkURdppDCumPBfAzqTgRiEsXaZGd8Xt8Ha1KdhWPut9++6LX7nujUri02fv4lnpw+He0bG9E6d162sCeyCUmsxfMr5grSO6rnbqLdtJFBpimNta3qsWLzNmhq1xapHAbWTWzSvy6bxmfL5pl0nAC+XvMdDjzi5/jyP98KMklmge07dcbAAwagW5euSKVS+Prbb7Bk2RK8u/g9bGpqQob2cbJJvP7U89hz593zBBJ0hR60njW+pdaX2WSz57E3WKyBzBHLHJ/qij2OPcL8GIb89mirj0FIKSwyYgLRnlmuFbQIhEjhpj/dinG3TRBHUtu22gz/XrQUbRIN5n5HjojSAN7/ZAkOPnIQmpJZscLOZjPYpu2W+GjhP3LlLX0MUPm5b76Gk4acIspTpLJq4T+AhtZAYxNgUIkk3p5xLy6//ipBJuRMZz3wILbef4AZSeRW9CKqybYCjPZmfuq7/2Jw//2wMd0k/rxs5G9w2MgRuTqmoz57/wORoRU/7SIDWJPaCm9+3Rrr6juK3WzaMSH+IRJs39iE3bbrjHaNTag30jkuzIrUVwobkUp9g0RiFVJ1/4GR+gHZVBbpXJpqQ30SS1atxtIvvrA2dYoHhfpgbvYIvcbdcA2mzLxbkGYdErjhmrE4/ddnmPtDVn/FxTsD6R/WY/YzT2HajOn4aOlSvPL089ih5x7uVkLEp/IKW3te0y3KIz0IM7FnVed6Zjh2f57DLpzpoS8lKgJRlauTErN6J5MdxNHrI1eooerc3fTSIeBSdOS6JgLSTXQ7UEQg895/G0efdJxw9PTaj78/Ngf77dm76FQSlRs7eTwmTrlN+MK2Hdrjv2vXoD6bwKy7ZuKwgw5GCqn86tgipvG3ThCX7fruuTdeevQpIJ3bfM8pYaxfg70O2BdrNqwX/3L0YYNxx+13mxFN0VGlVrSxIf7t9js+xk0TxovHDfX1eGfeHejYEdix67n5rpGDb6qnQ7oWB67Hy2/OQvcexT5RRDzk4HNcOeL8y/DUC88KB1+fTeHd+W9gq06bmbok05RrEzmzSTePw6Spk9GQTqP3Vp3QrtEQcpqdHchHU8hHXI2iQbNdEXWJE1c0cLkUYNJMZRHNicMGIl1mYNrDjwHdtjc7JDpm23PKEb350HmPxeXvXIqtWXkij4YGoJ5uELaK6fxvsKkrHAu9gytYda1aKk7czymrpGm8HKWMDJwd8SovIw0VJ6+qi6wtLfAVC6voryiqpotpEQjl2jfBwC69d8d3G9bRDjyu/9+rMPKcYUXvdiJC6H/EACz75yfYsl17jLrkNxgz9hrhBE899pe4fdxt4iKdeXchi6ZEFr8851S8+Pqr4nTUyGG/wZiLLxW5fPt3IZpSwMVjJuL+Rx4UZ6haJVJ477U30XUb06majAhQUq5TlzOQRluxp0LpHzJS0rchY6a+rLsQpAOlmbbtPkJEICTnkhEn49orDkS9eNlf8x/zVFcGi5Z9gIOPHSzSRkSm1/3uSlx81ojc6a3CybGxE8fhlrsmY3M6TLB2AxZ89K/cw8I+UJGDz73O44iduouUHv1ccNZQnDTmukLklI9AXC4yJgwM7//T/Pc0zB7Y2yqRUHLy0skENtQlcT/tVdGmjTg7XAY/+UGz8pbmPhrZDB1zi9phqTjOliYQGQayVJGqAw6CRZiyvaxR1v8wrVi1P2G2GZcsbQKhfeLThp+FZ196HvSG2SMPHIQH7pqBenHFjtx/Fkv++RH2H3ywiCZOPfYkXHn1Vei13z7IZNLYevMO+OCt97B5orXI9ZMzptvaO/TuibUbvhcb04/e/yIO2Hs32kgpujFNK/3Fy4FDjhguTjuRs68Xi3zK+5vvzhUr89QarPz6PjzzwvsYMvwcMwVkJPH0E7PRf6/OYhVv/RDhEDFt3aOvucmepXdhnYvrLz2v6CKhc0Asvfca2Beffb1SbGwfO/hI3Dfp7nw9k2iAsRNvEgSSNNLo0JjF5//3mRli+G3+J4H+fffGytXfCCLYY+ee+NvTzwF03surHilJ/RcONBfiuJa1fcipGRFpmB4dzc5kcHq/vmiTNlBnkHM2T6o1Jy0ngTlJrThCMiMs8/iyNa5T5s83j7rlCTHXT6+/8xFSPdBgEVz0JKfrNJ37GaVEIAIrhfSk2x6KavpHjIvLZrab5ehiEbZsDWuOrKjKeITRuOqYhNFWwX9qtGo6RAN3/fke/Pb6q8TKnghh+dsfioiCpiY5zJvvmIQb/3iziAZm3X0fDj5oEI4/awRefm2hiCpmTpuBIwbuIRw5yVjy8VocdOQvxF5Bh4Y2WLLoVfTodgay6XZI0mmj3HFbek4enhy9UZcUdbts2wnvzLsKDbTGtlJAdUCyFXDK2b/C8/NegZFIoO/ue+O5x5/OvcSwGEL3V5kU30R3A50irZMuOAN/e2UuEokkdu2+E+Y/8zIacukiJ4HYX2XSinY1PPL1JjkBwy4ZgYf/+qTYb6IIp1/vPvjdyEtxYP8DbG8KpkjOdKqma5RdcAzxy4i0N9WYARobYd6ApNG3cnxOR61HIIU9npy+2SRG/JSiKtshCRFN2MmqmFAakwmsq6/Hw++8A9TTwoIWGQW9otqIljlNt+c6dXT1DiPdJdPPyymp1FMpo0JOVhkNlxamL21xWUGJqhS8tCIQa6p++O/l6H/YQJG6qTcSmPvX57HPTuaGLW13DzjqEHzwyVKRvvpo4WKkEg2458+f4pJLbxZlTjjmOMx55EmxC0IkQITQlMv1E8HU43t8s3KmeDOr89OmVP7xZ97CuaOG5yOG6VPuwvGD9smfyKIN8Y+++BwHDuov9mrI50wddytOOfYk1w9FiYuEu3RFJpUQMszXuVsXCYvtwnplCP1uSmQw+vrLcc9D94soYdsOHfHx/MUOAjFgpbCICOrTwNcf08sUXV5lkmuKcCY3uezfy3HIcYOxdtMP+WO7FOl02Lwt+uzTG3v12hO9duslfu/U9cci8KALlv6XycMhEJP7KAKh5Si9h4tuUdo2iIpO9dkinjinmbiMSpxhprBUThqGpZ7fPojbM93JrxMteK3qdRy3Tlk7hir1VMqoEpRbuVIcZFj2UK1ytAhEGGIu5USpm0+/WiEc1k3XXI9hp5wj5urSzz/Bzw45SKSNfn3iybj9hltEWqXjdiehKbu1eVkPwBcf34HWdWYEctElL+KR2U+If7/2t2Nw0bDt0MrjS3PUPu0L9DqgD7787lvhxgb+9ADMvudhEQXRD/m0y266GnfeN02s3jtvtQ3ef3UhNk+1zufA7au4fARCi1T6oNT5w3Hd6DH5vYyiCZFf5kDcy7jylrGYPG2qIJA2yQZ89cG/mhPIpJtwS7OXKXoTiIUzRXuvLZqP8y4ega+++UYQtvVDREJOmyYf9bprp844+vCjcP7Qc7BDp64+3xuRpYDUTN37dFU48tW0KN9Sfk5RhUDsTi+Ig5XVkT13Iqtb3qqvUk+ljN9I65Avk0m4c0abQMwow8CwK0fjoccfFQ76uMFHYebEu4Vm4+6ciPETJ5jpq5kPYFD/geYlOgC/OvMy/P31F0W5+6dMw5GH/kQQTf8BJ+CTFZ+JuxEvPfV37LPbFmb0IZb7uQ7bdrOp/ev/OA6TpkzOb2AveO4V9PzRzqLwuqb12HP/PvjP92vE3sToYRfimpG/g9fbdUtJYf32D1fjTzOmieOsW7Vph3+9sywUArFIhK5lft+4AQ8++jCeeOpJvLPo3dxFzdwFTMclwrat2+CW34/DyUcc70oizeD0ZILgkYogZ+v4QRzHnuxzwpvZwp05EmleTlGVWMT4Wy/K1ritruq4dZ22bnlVPahcUNlFCzuFfZ8iM1Hcw4nVaCqwsYAEAjz81ydwwegLhQPfruO2WPr6IuEyDjpuEJYsXYrOW3TE+wsWoXVuS5kc4YNPPoLhl18iWOHEI47Fnybega/XfoO9+vYWRLLNllvho/kfmK8Fsa30xX/aHBFFGJ+tWoE+P9sPGxMZQRLDThuKG8eMFUUffOxBXDTmfwW5tUnWY+Er8/HjrWlV7v5jEUhT0hCX8EZdcFHug1L+I0pEdv7lI/HQ7MdEwe5dtseiuW8qEoj/B6XsEZK190T9/r5xPd59/10s/scS/GPZB4JQ/vX5Z6Kv4k6GkUXrRB3+8sCj2L93/2bprDgIRIDRUo68pdp1mIoKgaiedPJLh/lZqIoOdqIKIkvm81TIQaWMrB1dMuFIRAdR77KBCIQc2Zf/XYVeffdGYx29tCSB+c+9IlYS/Q85UKRzzjzhVNx644SiE0n/2bAGu/TdC43pRmyxWTu89+4ivPjySxh6vvlKkmOPPAr3TrwTdeLIvvfS1dpkPnPEUMyZ+6xwnrSZ/96Cd7FZqjUGHXM4Fi3/QMg8/rCjMe22O1Fne3liERxZMxW15a5dxXFiHQIh4hl08lF4a/EiwXA/738A/nKvdTPf9KHW23gLKSy9D0oVklbmiyQLvGpuStO/Lf/0E0yYcisemzNbYEGZriMOOgQP3DUzf1w6HHNhKToIyFJVstNWuielnLrVKoG4jZGbP2ES0bFm97KBCYRIZOAxg7B4+RLhtG69cTy+++473DBhnEhfPXHfQzi4/wBz1Z87bUQr9pOHDcHfX3pBpJPuvPNOvP3uu+I3uUNKvZx5wum+x2ctceQ4X3zzFRw/5JR8GuuWceOx8049cNwvj0c6lUAyk8XTDz2On/X+qe/Gsv1liuY30f0jEGF4iQRWb1qHnv1+gvWNG0QUdPno3+Ky80c5jvEa+P0fx2P8HX8UB4voFSr/XvYJ2ifa+H7S1nn61n7T3z6U1kkv6sMxp/0P5r2zUDzu1HZLLHvrA9dTZ6WbDUtQQUCWm5cRiFsbOk7Py2kGiWiCRgkq9VTKqOAtKxNXOzI9qul5IAKxnNZVf7gOk2fcKRz4icedgI8/Wo73P/wAnbfaGkveeBfiqKoNLSKQh55+DCMuHS3WzkccfRRWrFiBxYveQyoDLHjtDfTo1L1AOlTXIxAhHchp9h98ED769/+Jgnvt0Qs9evTA7Nm0Egd67dwTr8+ZK12FN98DcSEQW2rEiiymz7ofv7n2ckGgdBrthaf+jt677JlPlZmnqQxMuXcqrhh3g/meqkwCC15+Dbt0/rF5d8XRP6sZK94wz1T5fzCSyJywvWr8dbj93rtE+c2ydVix7FNPAimTTE+LZbrimMS+UbRHDj5IHb++BCExlRW8CpGpOmzVcqWOWVztlKpnJdUPTCAUATz3+lycNPR08Rbb9u06YN3atUhmszjz1NNx69V/sN1VMCEhR/ffxnXYvc9eWJfeiNabtUE6nYaxqQk7df0RFs6dV3B4Dg/X7LJVLj005cFpGHP9tfl7eeKDSIb5Vt2Jvx+Hs4/3j2gsItq6p/k2Xnqn1egL6HsglwtdrFsD1n4+9ZvSUp+v+hKHHDEI36xbLdo6qN8BeHKmmb6y9losAnn2lRdwyvlDxAk0inAuvXgUrhh+aa6c2QK9wdh655b5OiwDhx01GDfccAP67N0nF0EV9LGMzHp1FhHIr88/A8++Olfo07Pbjpj/wqvmyTSX29dhEYjunQTn5LDrQbim0STw9fuhk3914h3Q0V8KLGUyByUDr3oqTtupbyUSCPVBpa/UN5VyFiZMIKVYs3vdQAQiBhjA2sb16N57d2ww6MVT5p0NOgb75IOPYGAf+2U3s3FyknQZ0Ny7+Fv+SC9dATn7pF9jwvXjC9GCgocjQlq9aS327LcP1jRuMDeScxcKt223JRYveBubJdo44qDmQOQ30YlAAPTdqzduHHMd+vXqnQ8QrGtw5NrmLZqPC38zCp+t/EIQF0Vazz4yG/16WY6+0AZptOr71dhj/32wLr1BnEhrnWrAjVddK/Z8Om7eERuzjfhw2VK88cqruOSCkaIyEULnnbZHtg4YMGAAzhlyFg4+4Od5Urb0IdohhzvtoRm44rox+XTeb8+/GFeMvkzsT8V9ECqImRJOm7AJa7FW/LZ0dqbySHYrtEIHtBe/y/0nCBkEqeOHQxjydJxvkP0GlTpOwohap3K3rXLQLzCBkPIi737miXh1wTzRFyIPcedi3ttocLkoZ67IgcefnY1zR40Q76miDV+qd8/kqTju0KMll+CKV5xm9JDBpVdfjnsfeUB8kpZ+6DLiRWedh7GXXeNzH6IAv5NAzNfEJ7BDl27o37c/unXrgtYNbfCf1asw760FeH/JB+I1LZQmo4ji6t9dgdFnDfdsi8jg8t9fjakzp4v3bdGqiepRb1KJJAzDjD9I/W8//kI4T6qz3c47iAuW1k30jh22QP8+fUWarkO7LbCxcQM+/eJzzF/wJj79ckX+le/du26Pl596AVtt1s4kdoelqa704zbQJjThkCEHI1NnfqZXLFRsylsOpFVTK7wy8+WKJRDZqjkMh28fuzDkySIZma0E7bNTrt/9GJkO9ucyfXRkxVlWdRzi6l9JBELJhpunTcZNE8bh8EMGie9+0DunaD+APtxk3SIXTiwLTJs+XUQu3zf+gN377I3vN60XDoL2Apa9sxgd223hslq2hyLkcs0v+QlnkiOkxZ8swYCjDgUdw6VnDfRm3JfmYafOP1JafTsJxPzGuGUWVvLK/G1+PZCeJ0Rkc+1lV2H4Wef57rOQqB+MTTjzgnPx3CsvCBJxpmlIXn0mKQiEUmD0frCee++B7zasEURrnYt16mXXh/Smd2Y9cPcMdO/8o6IEj51E7Ct9Z6AX5O9jhh7TzOE7CUD2N/WwPl2PF+57XqSn/H4qJYUl7F7jfkKplwf9MNNZrbvJ0emHn9PX0dGtbBgEEpdzzXsQDRuQkVHcusv0CUwg1BF6x9TCDxfhqGOORCprHh994uHHsH/f/VzbPWfoUPPbIImscIriv3Mr5IZ0caql4HBMl0Z7E0QeREJFK4nce6N+MmBf8dU+KnX4zwfhoT/NyJ2GspI9bu9iMiXRJcdtdu4GI+edR48cJfZmZj3yML5e9W3hU+454qI29uvdF2PHXIe+u+9T9OlY+56AtdKnaMJsx8Cc1/6KWU8+hsWLF4uIhp5st+22+PEO3dGn109w7UVX5N+buwbr8eQzc/D4nNl4c8ECNBnmm3mdP9Sznbr3wJBTT8M5J58l7t7Qbok9DVR8mKEJvxgyCOlUU36FL3Pwfs/nTJ/TLOXkTEG5/W1PT9FzSkm1r5DUlGxi2Z/bna+fAyjFSVvteclvCQIJ4uxkGMjuzsjGRVUnmR6ydop8VBVfWgxOIDmErA1f072bPyo5dyt6sID2uuRHz02SMaUPPWeIuaozch+qIgKhjzYJQjK/KCjep5UxX80uXuGd+3exCyM+bpXFPdPvyY+xpQv9ps1rk8ro4KyB9z5cjA+XLsXq1atF+c5dOqHfvvuh27bdhIu2f9fEaVS00l+Ty+nTMwur4vscFmbk8qntwksR7eW/x3qcct4pZlRn/7Z5DmzTwVMaLPf5XYcy9Jxwo2RZfTqFF+6bW7TSp7cot9RuibWIcIssrGeiO0V/6Ezh2ikbluNTdbRivku+px4X+mH1XZhaFTv9MMejZAJxkkXeuXlugiu+IiPnLJqLsb+wz4wehow4G0/PfRqZZBo7d++BV595Of9SweZvZjL/5dzhQ4XDdX1zU8JAMms+K3ykqRDB0CtXUkYK9029T5y58iJMIpABZwzEpvpN+Q9AWTl964NQzf82NSq8ztwa7iTmTJ9ta8s6vZXJOf7i/SG/CCCqTeggJ7JkZyWYQEqf7kEcfBjOWMUJh9GOhZBKe6WjyRLsCHgTiGxma+Do5lhkufa8UeRcvBWBmP9uOlk6hfXPrz5F74P74lmU8W8AABMiSURBVPvW/xUfB7nq2uswdPCZ+RQORRTCIecEerdrEgQ9N3P6ub/z7JBz2AkDdZkU2jS2xvZbdAFt6BKZuKV4KCXWWNeITJJet2I5fPMTtNbfd99BKTn6nqBFAMWUZv5VeN78bzf6ai7NPlwqewhByEDDJLhojAgEIRA/9cJ0+jIYmBRkCLXs81AJhJw15f3JDdOJfv/T/CodNyXYU1gFAqEXNBq4YsI1uOOBqdi1X08YiYxIX9EmunCAlO4R/tVM65gprGT+1ejFTFo48eOe0zc37c2kWAJt0BqtRdae7iP4JeD8+zn0HIqEzEMGbj+FCMV8Wvx3Uug03bEvpIJsNGWivJehGLlG07GKlRqFs4/TqYehf5z6VqyhBFQ8VAJJIy3O8Fv/R5999Vrxk7600vf6sZ/gKhBAgRBoTZ5JGuJrghQBLF2wDBecdj7G/e/YZhcYzYjFvpnuj5Ys1W6eBaPklfn1DZU9n4Djo1Rt6NCh+Y9K5Y+95l71Tn9be0bNCSh3kMGxJ6TUqGshExn+CQeBMJynU5NadKZh4FiLuKlYcSQEcuiph6KxwUzdWBFA4fyr6W6JIObcM8eTYPxSTmaMA9w+eypuGXcTkK5Dmw0dsPDZN7Hb9j2U4gG/DJ2MQFSADa2MNJVoj/OCx3x0Qs6LYKzx8ntuVk5qREPOlJ0uYpVLVKoOrVSnFXbqSneEqqm86pjJ+lzqmMrkx/1cnUBsXtV5/NJS2kphURorm09mWad71Ca8ilsh+XSBsO+h/fHpVytFBHJ4/1/gsWkPSd97Ze2fNFspK7NG3KmU4vYKexNuesgIxDkGsvL65jj0nLPyCwSTcOzHsJ0pOPe/p08rPqrtrgVHO7LRYQKRIRT/8zCIqJxIKFQCsQ+Hv6PzGTjpitt8F9WTz/4F5180AumU+RXwB+68F4cP/EXx/QeXd0D5EohYasuMqmUJpKBd3HpIcBEEXHxCzqyhMKAO0bQvZO0J0VKEJp39kIJ5DHsGp8t8hsTNUZWT45HNMn7ujYAKCcU11oGP8bbkAJv3Nsw0lrW7Qae0aE0q9f8tqXhNtB1+VOMdgdQEoNxJRqBsEahIAilbNFkxRoARYARqCAEmkBoabO4qI8AIMAJhIsAEEiaaLIsRYAQYgRpCgAmkhgabu8oIMAKMQJgIMIGEiSbLYgQYAUaghhBgAqmhweauMgKMACMQJgJMIGGiybIYAUaAEaghBJhAamiwuauMACPACISJABNImGiyLEaAEWAEaggBJpAaGmzuKiPACDACYSLABBImmiyLEWAEGIEaQoAJpIYGm7vKCDACjECYCDCBhIkmy2IEGAFGoIYQYAKpocHmrjICjAAjECYCTCBhosmyGAFGgBGoIQSYQGposLmrjAAjwAiEiQATSJhosixGgBFgBGoIASaQGhps7iojwAgwAmEiwAQSJposixFgBBiBGkKACaSGBpu7yggwAoxAmAgwgYSJJstiBBgBRqCGEGACqaHB5q4yAkERSCQSRVWz2WxQUVyvihBgAskNJk+QKrJq7kroCEQ9P+zymZxCH77IBDKBxEQgPEEis2EWHAMCURJIlLJjgKamm2ACiYFAeILU9Byris5HacNRyq4K8Mu4E0wgTCBlbJ6sWrkgEKWTj1J2ueBXrXowgTCBVKttc79CRCBKJx+l7BAhYFEuCDCBMIHwxGAEpAhE6eTDlu2UR53jjXnpEAcqwARSgQTCEySQrXOlEhCQOXnZc7+mS6lryXWbE/Y2mUBKGHyfqkwgigRSipGXUpcnSDSGH5VU3dN2OuVlZWXPS3HibjYsc9qylb9KfafOXkSgK4sJJZwZoE0gukaqU15WVvacJ0gBAZ4g4UwQXSk6iwXdSFJm/zptO/slq6vroFVW/0Fkutl1WHJ0x5rLAyURSJAVhp9jk00Qak+ljNvAyuoFMUKrHd1Vka5zl+nuFqXotsGTIRwEZI7Y3kq5EIiKHqXMD695EkSm066DyJD5rXAsoTakaBOIjhNXMUyvCaXilFWdpIoD1pn4XmklFZ11jVdHL5V+1oZZt1wvg46X7mJExdaCzA8v+wzqqP0iES+ZQfWWzS2eH+HPi7IhENWJF8QIVOqotu8X+qtMapmR+61QVSdW+GbCEnUQCGJvspSPqn2qlotjEaSqi2o5v7knI2Cdha/OWNd62cgIxDmJZJNKx4hksnSjGqdxBXXyTCC1Pp3M/qvYst+KXiXPH4at6WQIVPrkNvoq9VTKBJXNFhktAiUTiErIS8Yuc/qy51GTQpRGHKXsaM2DpQdBQGW841pg+S2GVPTUjVRkUUIp5BhEdpDx4zrqCAQiEJVw0DJOy2BkBCF77kUg1TxBVHBWH2ouGRcCMsfs9lynjiyVKZMVhBRUZQZx8mHJttqW4ROXHdRCO5EQiBsZyIxEh0BUHauOTJl+XsagUk+ljJ+xlVq/Fgy53ProZ3u680N3/FVTUzpydcrqLvaCynb6AS8bYEKJbnbERiB+Tl/H0eusnnTkBjVilXoqZWRD7OYUeMUlQ63lnvuNedQE4uZYZcdfZU42qA2r1FMpo7PA8isr62fLWUxlthwKgTjTSJZB+Bmt/ZmOo/da3ai2VUok4VZXxfhVyuiYD5OJDlotU9ZrzFWJxT6ngswPmc3JngdJRbXk/PCbE256MZGEMy8CE4hXRCEzdtnqS2dgddMEOqsYVT1UJqJKmVKHM442StWxluqrEIhqVCCbU7qLoiC2EqSOSiSkWkbHdlTIRHV+67Rbi2WrhkCiXrHpTlKvSMkZrYVpdEEdTZg6sKwCAkEWS846QR23n2MOIjNIHVVyCCpbx9bcSIVJRAdB97KREYjKOXWV472yLgaZpEFDbVk9lT7HRSBRtiMbE35uIiBbCascaXViqeP0vJxmkIVGUCevUk+lTBg2FVc7YehaKTJCIxAdQ/eaWDqTw2rPzShaaoIwgVSK2cejpx+BqNqKXdMw5ofOPC01ilZ12KrlSh21uNopVc9Kql8SgfitsvyMPUwCCaqDc5CCGJcOUemUDWpAQfoQtC2uJ0cgCIGEZc9eC6xKIBDV6Jnw1SFVnh9ym9UtEQmByAa11gkkjgkiGwNdQ+HywRAIYutB6vhpF4Y8HecbZL9BpY6TMKLWKdiI11atFiEQt1VWqQ5Px5jchlinvk5ZnTRAWBOkVCxrawpE21sVxyiLhq3nQcc1CgLRRU2mu1+0Zm/L6/h/2ProyqvV8iUTiJMMZIbiFVqr1vMaqKBOXTXUd2s3iM6yiSI72ikz1CA6yWTy8+AIBCGQSlhg6SCiapOyueGM3FXKhzVvdfpbS2VDIZByAKxUAtFJAahOiLBxUZkwLaVb2H2tJnlB9r/CtudS5anYnnPMgtiirB1eYJXXzKhKAgliuJVAIOVlOqxNpSAQNApS7V+p5KTajqycjHycEYxMHj+XI1AVBBK1AUctXz5MXIIRCI5A1PYbtfzgPeeaUSPABBI1wiyfEWhhBKJ28FHLb2H4uHkfBKqOQMJOX7H1MAKVjEDU6atKxoZ1Lx2BiieQIBuUpcPGEhiB8keAyaP8x6jSNaxoAuHQudLNj/WPEgGeH1Giy7IJASYQtgNGoEoRYAKp0oEto25VNIGUEY6sCiNQdggwgZTdkFSdQkwgVTek3CFGgBFgBOJBgAkkHpy5FUaAEWAEqg4BJpCqG1LuECPACDAC8SDABBIPztwKI8AIMAJVhwATSNUNKXeIEWAEGIF4EGACiQdnboURYAQYgapDgAmk6oaUO8QIMAKMQDwIMIHEgzO3wggwAoxA1SHABFJ1Q8odYgQYAUYgHgSYQOLBmVupUASc36mv0G6w2oxAJAgwgUQCKwtlBBgBRqD6EWACqf4x5h4yAowAIxAJAkwgkcDKQhkBRoARqH4EmECqf4y5h4wAI8AIRIIAE0gksLJQRoARYASqHwEmkOofY+4hI8AIMAKRIMAEEgmsLJQRYAQYgepHgAmk+seYe8gIMAKMQCQIMIFEAisLZQQYAUag+hFgAqn+MeYeMgKMACMQCQJMIJHAykIZAUaAEah+BJhAqn+MuYeMACPACESCABMIAHphnttPNpuNBHQWyghUGgLOOcJzo9JGMBp9mUBiIBA3guIJGI1Bs9RoEIiaQOzyeW5EM4ZRSGUCiZhAOLqJwmxZZtwIREkgUcqOG6daa48JhAmk1mye+xsAgSidfJSyA3SVq2ggwATCBKJhLly0VhGI0slHKbtWxyuufjOBMIHEZWvcTgUjEKWTj1J2BUNeEaozgVQYgXjtqZC18eZjRcy5ilQySicftmw+tBKfiTGBKBBIKRvhpdS1zMCPNOymwgQS38SptZZkTl723A+vUuqqzhGeG9FYrBaB6DK7TnlZWdlzHQO1ylpGpeqgvdpwM85SZDrlBZXFkyaaSaNqayr46xxflZWVPVfV2y2ajcIGg8j0wlRXlsrYxG89lddiyQTilTrRTbXICKKUlbysrq7xuQ1zWE7fiWcpuvEkiX9C6qymZTbv1F5GEDpt+8kOk0D8UqtBbDusxRrPjXDmRtUTiAqRBTFkWTRSiswoI6NwzIaleCGg48TLhUBU9CjFnp0Rv2raKcqFGhNIOHO4LAhEFiH4GZzMEFRkhzE5dNNiQfXWifhkbYRjQizFjkBUBKIqVxaluI2Wiuww5ohqlK5qtyrE5zU2qm2wdfsjoEUgJEpl0FSMzT6AKk7eq+0gIXIYhhyVziqrM9UwnidJy0x/FSeuEhkHISYVMohDrtt8Vd2/ULVbFV/EBBLtHAiFQJxOvBwIRGeCqpKBcyhU6qmUUVkVeqUBojUPlh4EARUnrmOfUTljHQes0icVO1ZZ/AQlENV6QcaU67gjUFEEohOF6DhunbJ+qzc3Jx+lbDbq8kRAxdlGRSBxkY2qsw6CRZiyy9NCqker0AlEJfpwOtpSVkJeK3Mdx61TtqUJhCOR8p98MqepMkf80qwyBytr3ytN6idXVaYsSo8yAuG5Ef/c0CYQryggyMkhqqPrvFVXbjpydcrGRSB+0ZabmcicSvymVdst+u2D6BKIrvNWXZDpyNUp6zdHwiQQ1TnCcyO6uRgagZCKfoTg5fSCOG9ZHdlz2SpJdSWj0o5KGb/hVXE2zvo8YaKbMKqS/Ryuypj6HTJRGV+Zw5c9l80RFR1U02m6ush08xsjVb1Vx7nWy4VKIF5gBiGWIE5VFgWpngIpJwJRXWVxVFJeU1mFJKxFl6W5Sh1VByhzyrLnMicdlh6qJCMbXRXs7DJU9Ze1W+vPIycQmVMP6vjCNJigUYJKPZUyOkao02+eJDrIhltWZZz89jn8FmOqmqro4CQxL9m6hONFimGnsNz0Vek3zw1VK/IvF4hAdFbFfqF4KZNExUhUVxxBnbxKPZUypQ6lHxY8UUpFN3h9mY2qOFNn6zrjKWtfNdIuJUpQIR6VMsFHwazphoUOlqW2X631a4JAZIYS1Mmr1FMpE4ZxxdVOGLrWigyZAy8HApHNDZ1IQiUaUOmzqk66dhQHUenqVOnlIyWQSgnRgzhf1Tqq5Uo1pLjaKVXPWqofJDIMUscP0yAkFpQInPVUHbZquVJtJ652StWzkurHSiAqqS+d1YdscqiG6EGcr2qdoA7BXk8FE1V9Ksk4K13XMMbejoGKHciceNCUWBDnq1onaHqJ6ulgoqpPpdtdnPoHJpCgZCBz+joGEVQH1UmmEm6rTHAVR+IkDB1CUJEfp1FxWwUEdMbRK12kuhDywj2IDrI54jdPgxCCSh0nYegQgop8tlt9BCIjEN0js0EnSRiEJJOhCmvQPrutCsPQSZeMVfvJ5dQRCOK4wnD4dg3DkFeqPcpsUVV+kEM5bqMl00d9hGu7ZOwE4hc1BB3UUieIqvH6mYpMd502SJZOeZ4g5TuJgxCI2xyR2ZcMAZ3VupusUuxRVXeVNsIgEFV9ZJjyc6AkAvEiA9kAlerwZeG1bjSjYrhexiLrq8pK0C0C8SNameHq6CSTxc9LR8CZnlSRWKrDl80RXRsJMkd021Cx+SAHc+xYBNFJZbxqtUzJBNLSwEWd/w+b7ILipTOBeZIERbk66wWNglTRCJvsVNuVkSRH5kGRVK9XtQQSlhMtFwJRH1IuyQgUIxC1g49aPo9n+SLABCIZGyaQ8jVe1kwNgagdfNTy1XrJpVoCgYomkKjTVy0xINwmIxAmAlGnr8LUlWVVHgIVSyBMHpVnbKxxvAgwecSLdy22VnUEEtbeRy0aA/e5uhDg1FJ1jWc59oYJpBxHhXViBEJAgAkkBBBZhC8CTCBsIIxAlSLABFKlA1tG3apYAikjDFkVRoARYARqEgEmkJocdu40I8AIMAKlI8AEUjqGLIERYAQYgZpEgAmkJoedO80IMAKMQOkIMIGUjiFLYAQYAUagJhFgAqnJYedOMwKMACNQOgJMIKVjyBIYAUaAEahJBJhAanLYudOMACPACJSOABNI6RiyhCpFgC7i8atxqnRwuVuhIJAAkCVJPFFCwZOFVBEC1k1unhtVNKjclVAR+H87/j6M7jfyHAAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>bkhxc</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dB7wVxdX/7733vQcCStFEAYmKBWOvoOQTP1uMvUbFgg0VEbGgESwQ+2fyaWKNHXvEaIyxJxr1MwKxxZKioYgidgUBX7v37vc7s7v37du3e2dm27t339n8yPO9nTlz5j9nzn/OtDXMsmmCHkP8v/SxEvskD3whFVk1QZDYyt8r/1G25eT0Cgytd8jy9LRLPnXo+ievGpfACDACtY2AUc8EUuE8coJGSIfe0x1oT69/bfdP1o4RqGkEDNO0I5CaVpOVYwQYAUaAEag1BJhAaq1FWB9GgBFgBOoEgcwQCM/EpGRxDtBOcYprZylpx8UwAoxAiggwgaQIdiaKYgLJRDNyJRiBOBDoBgKhxe7gnVLeSCK2yKKLILVF99jKj6O1akkGA1NLrcG6MALdggATSBUyoxZhPxlglwxMt3RYLpQRqCUEFAik60idNm4ZhmfyW9GhBCerHpnogtalHNcffPXXLUA1vSIugeK6O79qPTkdI8AI9DgEQhGIL0qKjq4WCESnlSOTjSIuTCA6rcJpGQFGoBYQqEIgamsEQZWI6jel4EgXS6rrr6MfnZSpxFu860g0jQ5+0rbkBIwAI1CXCGgTCDkO4ZrF6e+O5XCvX/V3MGXALAOGdyuPCzszb3lr01lop9J88kgJxC3T1s7IdcgVJ9fpXzVdDMCdh0RmjEC8EZZqxMUEUpf9nZVmBGJFQD6F5V47AFACsNaQrVBCb+RQwqTTjsEFUyeKpWipbzWLGDNqS+TNYmUnVkecUEYZOZhogok8yiggJ8puQc4owjRLeHHu3JCVt4hjvbXXRRkNgjgmnXYSzp46xSI038dekzEaAKMAIG/pzJ4zZBv0nGze9UGdyx66rC1qwKZTjp/YKHprqMlJM4SAGoHYzEC+s90EBg8dhXb0QQ5FTD7tSFw49SRlAiFCgCAQetzbeclhk6PuhWFDhsNEL3G/1ekTj8U5U88SeXbZYaQV/bhyqvxOhETEVEIjymgSBNJgNsMwWmEISiTqsh43oZF+JSOHF+e8apUoohE7oZQt68hKTIq0HFQtJFQjkTqqZWqqJu2Ig+RHIZ8o4EQlrihlc97uRcAo262v4g/J1dK/wUNGoh199QhETHn5TGGR86KHprXMBuGfvzdkc5joK9KfMfFIXDBtkj31RaWHeGy5aw3ZAkX0gYEyzpx4JKaRXDE9FiBXRCdljBm1HQzTIhk3wVhOliKTjkeF0LzUKapvGMJpO/lfmDOHvDi9CFFhzSxEjBRhuSMtTRGcvAOB7iKQqG0QVu/uIC4mraitHU9+ZQJx1j4iEYjwlMGKiwjHRVDkrs+YeDgumnZylQhHvtjfOXLqh5xZxBmnETGdiLy9luOvFckuWRGTaUUqwVQRsUE8ZLHLqFFCoLt27tKDjmLqEphYBTJyYibvpb+9bkdaEeuSWnYyJkJC8wr/hPUL64hV1UpKflJyVeulk45JSwet5NLKp7BcZXsdvPYUVrWpEQpAjM4Eoic/mEi6TL2ZZUUCsV24s05SbfHf20ay6KHaVJg7rztCS84ORIS306htkROXM/tN6VmF+xGamAHz7EXwTgl6p8ToPf3NNAyIaCvMI6K/Jjty8gqwNa1sxrDfpxHQeaLGuEfLSTn6pOSGadpazNMdpEU4xG0/cWKbOoEEKq9IIA6YXRuzbM/bd55SEg3gs3ZzxsSjFSKQcPtVLWfpeNSuo2Px3gnFNB1aMkswrkhLRFxBGwsCWk/smgtvlmNGjkTedrqqEZQgMyOPl+a86UMgZXuDHU2ZuoiDpurEv/C6quRM2hEnJT8puSqYcZpgBKIQV9LkEyuBdILAZ5utbDpfFuHQmoAumJWpN9fiv2G240zaPeaawurk/1znPkw4ZKA3TeKsZhhB0yshmaCLn3bvkjOBnK5zrOS3tzWXSYiY17KaUyfqctha5IvoEpTKD5jCKpeBUgkoFa2f9OTzQKEA5PJAjnb72dWLqKZf9qQdcVLyk5KbAMQsskYQiEYgZlnswiJHbIVawFdftmHOnL/hiy++QnNzM9ZYYxC2H7k11hk2qOLcgnyLjED88jmOoHI2xXZeztqGH4HknCmsqSdWHN3K74C/zn4VixcvwfJvV2L1gf2x+eabYrPNhom6ebcpO1Myjny3R+qgmjKqEQj5SO+ZmiBsyK87PrW5BXjzjX9h/vyF+PLrr9HQ0IDVBw7EiBHrY9NN1kWhIfh8The7i9uTasursoZFsuyNDJ2Wn2SdhwyxXMaO662DhmJZ4Nacz+PVRYsEeQgSSfCROWLZe5lqUfMHyZfJlb2X6Z32+3rTtx7xiUQg1iL3OEybdixe/r//4Jpf3YDZc19H2TXvLHYXldux46htcNWV0zFiw0GBC+JdCIQIatIRgduEHef9/vyvcOBBx+DzL5eByKF3bxP33nEtxozZziI27xSWIL6jMW3q8fj3e1/jV7++AU888xe0tdJ5E2tHlHiMEjbacF1cedkF+K8dNupKIgBuuf1BXHDRleJcDD2bjBiOpx6/B31629zk41CF3iZwz/1PY8q5M8QZFdpSfOzRh+CqK6dag34Xkzj1XLBoGa6+5mb84Y9Po7mFtkK7EpUpUgJW6dOIPff4b4w9/ECM+dEPBWnLgoGgLbuyZRw1g5dvcgiU444kijQd5Yq/bOV2Hj68QvD0H2JTQN5AmwHMXmgTBgEjRgC0DZv+W4aIWs10HLFK5Kw63RDGMarkCUoj072a3n55w9bTGqRWnyuV6epuM5msaFZQG7mr4RFH/SMSCHD4oftgxbff4Mmnn4NB5y2os7oIxMzlRaPTgnjvXgYeuPcm/GiHjX1JxCGQNYeORMnsK8ggkEBMoGQA8xZ+gwMPOgqffPYdykYO/VbJ456ZN2Cn0RuIo39+BEJ/G3/8ESjkTNx6+x0wTTonQocXc+LwYtk+EyHIzyyhV0MRd995LXb776066U36Fk3glFN/jkcee946/IgiDj90b1x/zbkdzttDCDSp8s4/PsNP9j4ELW0FsV15x5Fb4OEHr0UTnVt0pXfI4867HsdFM/4HzW05+5Cl7Zidb8G7F4uNEvJoxYXnn4XTTz1MSiDJmrqtp/hhr02oFOg4inIZO6yzLhrLZeRd25ydKO/5+fO7SiOCyDVZU1Z5O3JzYSqa11m3SYBLdJyYV3mVTq1CBm65qumj6F3NuYclEVW9RXPK5scDbE4FbxVz7c40SZNEtbpFIhATBRgoCqdpEEkYbRg1cltssslG6N+/v5jGev4vL2PR4s9RMgtiYXm1vnm8+JfHMWxwr4qDdxT0EgiMojiv0emgou0IyL/M+3AZ9j9oHD759BtBWv36NeC+u27AjqM26OLo6QDkmkNHoYQ+KJt55HNl0FpIziDaKGK7bbfAlltshtX698dnn32BZ597GR8v+VycXKf3qw/ojTmzn8bAfp1H9KTO8u+APfc+Bv96f5FNIu249n8vwtjDdxNkIAa89sF2Sv/tCmDXPcZiwaJPBbkOGTIAzz31EL63er6Ts3cilWuuvQ9X/OI3KJfpoCWVX8L66w7G6NHb4ntrriFkzJu/CHNmv4ZPP7ewIFI656wJOPfsIzvjrD3FFLZruCIPdyRRprWJrjJ3sSOJSi7TQCkHtOVymP3BQmvqSdlJWDjRQ+0ugg7bbkQwQlEZtUkC5BHFmVX6geYoWycC0Emr2/K6snXS66TV0bteCKQ7SSJxAunVaOD4cYfjlFPGYcj3G6x+SYEIjdBLwBX/MxPX3nCncK7kSff7yRjMvHWG5eQ9UzV0DsSJQHwJxF5rWbB4OfY/YCyWfLYcZtnAan0b8MD9t2H7bYf5TjU5BFI0VwEM0rGIvFHEoQftjSlnnYr1ftDXwsnWu6UVmDjpYjz2+Isissmbrbj80vMw/vi9fInvPwuXY/efHIKly4uCKPs2lfHk47Owycbf60hvAkUDOGH8+XjsyZcBsyCm2/74h/uw5aZrdZFLfvb5F97F4UeMR9lYRURGqw9YBVf/4lLsvecWlUG04wjJ+b744nu4/vob8ddX5oh6/eyscZ39bhUCkU5Z0XoEkYFwcNW8r2eaQTBhGTus+wM0lE3kxNVmtBMtJ7AlHF6Y94E1xeQsdhAJ0q/OLTIUSYjFfU/04Pe7LaVv3xHW1TVm3iaQdhhGM1auWNAtBBLkrHRH6Kojc9V0joMIclK1rHdUnWuJQNImCV3s/IgkUgRCAjcZsTZuu+VX2HB4f+FS/PYqlUxg3AnT8eTTLwmHUTDa8Obcp7D2kL5dRtxuAvGeAxEVMAFBHgeNw+KPvxTTZgMG9MZD992MrbdYW/i1DtdGzi5nnS9x7cIiMWsPHoAbr78SO45c3/8woQl8/pWJzbbeFa0lckBF7L7rKDxwzxXC0bv9sDPN9PSzr+Oo4860ohazjPXXWxPPPvMAVu1j3aRFhPCb2x/HBdOvRNlsQN4s4dbfXIED9hvtT3plYNR/HY6FCz8TyPbpk8czTzxQWUfq0qCV6TfgqadfxjdffYWjjtxfOtD2Eoffmojw07Srqa3V2tnkPV9hK+Nek3DOeZQpkjCAOR98aEcSdmKTnLsNpnvnsHt6iQidNhvYP/v021JkyNmHT2ibgvt3srW8QX9tx/KV/7Yu/PSQZmUKS2eoqpFW13H7RS06I26/tEnrEEQ6OnqL7uyJtpIiU2/zOeWkTSBJk4TOVF4cdY9EIGKNwjnRLVqojJL4R/8rg7ayWs68N95+5xPstedh9iWMbZhx/qk4fcJhvhGI31Up4qYTA1i0eAUOOvhoLFr8tVizoBH5rAfuwJabfd8zgu84SOYlEEtvOgdyvMgTNJYmZ/Tj/U7Dq2+8J2ox+Pt98e7rv0fejlLsgMXhNbEwfvkv7sXVv74FptEopsj233cn3PKbS0Q5r725EPsedCxa23LiIsrTJx6Pi6Ye67vQTT7vyT+9iqOOPVvc35U323DxjHMw4aR9qt475t4d5tavUweqRBIaXtFqXuwwbDgaaW5JbPelWnVeJH9x/n8soWIazc5E00+U1P5X4R4iPAD9+oyAaUcK1vpTMEEsW/6WEO9MSXVMeVkNSb+LaUMKYBKeqgpCL4zz1iERmXzZ+zj11i1LRhA68mSyNK07luQyBx7GactkuhUPIz9KxaMRiOcyxRKKaEUrmtGCFjSjSGsjABrRD30xCDtssz8++nSFGJ0fsM9o3HbzpZ2cJw1G2o2ud21dMPUkIefjj7/DPgcdg48WfyHqPGhgPzzy0G344UZrCqdedXuw+xJI1zbearuUKGKYMOkqPPjIM1YE0MvER/P+7Esgltuzoowjjjwbf37htcp6yGWXT8eB++6KPfY4AIuWLEXeMPHjXUfi3ruv8iUwJ6I5c8pVuOeBJ4Scfr1KeOetF9CfrghTaPGg6ahKJNHa3nFGwiOPogi/SLLVWAV/pfUIJ0Jw8rl/t5Ub1HeTilQiBbqUkqJPwT2uu5hFpLDi39Y6kbtiKlNV7kjFm94RpwKWAp46SXScoFuuar5q6VRl+NUnTN448oi+43PGS+YMw5St046qRBvGgdcyKehgFAOBjMWFU627qhwC2ffE/dDS2IxinhbXgXypNx676c84bvzpePZ569qKjYavhZeffVLsFgKs693JUdL0z1rDR6Bk9hELwZPpxPhZZ2HJl5/jkIOOwYcLV8AoN2CtQf3w8O9mYsSGA4O3BdtGKRbnPbcIq5xEJzI4f/qtuOm2+wGzETmjGV8ufqkLgbiNn8r6eqmJXX98KD748EvQLrRCIYctNtsEb775hnBr6w8fimcfvw/9V/UnA4eIdt71aLzz78VitD161CZ49JHrbcJxVuSdNQlvk9v3QzlTN+4lCXtBf/SwDVCg9QxPBEG7zl5asMDzPRZbfj6H/gNH4LtcE8Ryv+HEmJ0jBtMs47vlb1uzU7YDD4oYOi9qd1CLjhHXWlqZYwsaOcvyVfg64KoU1fyqjlHmwHWiJm+ZMgeaZNkq9hJ2qklWL6dslfqp6NndaWIgkI5dUkFTWK0oYe9TDkRr3kDRsM5LEHHkxL92mKDFTQO/ve4Rce36+lsPB0y646iMEyYeh+OOG4dDDj4Cn85bhqYVg/GDAUPw6KzbMWL4AM+aR8BIxiaQtYaMRNGwbhEOJBDXfDkRyIxL78C1N90jCCSfa8EXH70oCCTocaKHt95Zgn32Oxwr22iLcKO4AdgwWzFwtSY89eQsrL/ugC6L5hXjsi+VHLHx7vjq27KI2I4Z+xNc/QvX1mBy/KWytSZBe4k7DWXpKvwCtlpvJzSVijZRdCRoz+cw94NXKgtWA1bdpLJOYE0hudYNXHLLuXZ80/x+5+UPhUihsuTuFzHEGCn4jWK7o4OFceQqjsdxOn7yw5Qpc+oqTi5KuUF1Vik3CnkFEbEbD7cOKm2TNWJQ7TexEkiQX21BO77Bcky7+VLMvPkuS7eGMubPfV+QiBWBAIdMGgvTpO92NImfFtHQsjpRUx75Uh+88dw7OP6Io3DNxVPt6MUaRVebzbC+A0KRzQ9RLPcSm4/PPelETD9vQmXHWAUwD4H8/LI7cd2NM1E2e3WKQCh90GKzOMwG4LezXsakMy5EybDrYrbivruvwx67bWpFErSu42YNWluhdX+a8gEwZO0xMEu03bmEU086DNOnjxfvhEOmAKAEjBq6gSAJw94sQFgUjSYs+qJNEFcv2m3mOcbdigKWFZrQWqCoz8Dy5X+vuqbgEAptkrJ209ZepFAr5BHFscmccdKOTFa+n1MJk0fmwOMkEB3Mgpymqj6qTjdL6VIhEKKHNgA/u+wK3HLHLDE90r+vgf+8/ZpNEPSWpkMaxIKxM4VlnTPp2J7TVmjG1rtsimJhJXJmC/JGm4hgLAKxrqwgp/zg9bM8hFJACQ1WZEO3t7Y14fxxU3DJlLO6EoirdcmJX3L5TPyatiD7EEigwdknzR978nUcP34KyrleFtmgFVMmn4Cp5xxlRTF0GJJmoWjR1x6mO7Wln8N/cCCMlnb0a8ghb7Tiky+WoDWfQ7u9wzVvlkV0Ib5V4toVJSKFle9b6nmCE/E3e7uc8rZYFzs7syeejU3SPqHs4GWCZe+lmiSfIKxTVc0X1SmqbstVcZyqOquQj+4oPgoOKnVL3lLqv4TYCSRoVE7OeNLkK/Dbh54VqK0zdCBenfuwa/Gbdm1ZdODswnIIJIc2nHzSCXj42Qcwb9k/gIZmQRrTLpmBE/Y53I5irBtl6ZbbQyf91BrdixssDHFwsGjSie9eIrppKBaw04htcMkZ59mTRf4RDKW95Oobcf219yFf7C+c9ReL/1Rx/t6wx95AJJYV5v/7C+yz7yFYvpLOfvRCiU61GyaMXCvuvPNG7LnHD1EoA/17jxAf0irmnAVmOv1OknqJqKKpbCBfsk6Wf7nyDTrSYBGIHb1U1hhsWxSxgQHknXN3XgJxTq5H/IZGGD+uRCIywVXeK8lPoc+Gdaqq+XQcp8oW3ygjb1WddQjEie79orlqzcekkIJxe4qoEEhQv3T/XSxGK36R0LuwTFti99xnPF79+zzh/HYavSkemXVd511YRAHixLj1xUNy/wWjBZddPBUnHrcX3l/4GX586GH4fOkycfgsZ5Rwzf/OwNgD9kMezfbnaY0uZ82KoC8dNooprJLZG8VCM7bdZR2YhaX2FwlpFG8RjpgKEoN02o7cgC22+hHuuPp3aPp2A/Ru64NPFz/seyCa6kSEQOQxeJUR9EFesdBMGwPa0YBm9EazUUBrQx6lHF3L0Y5VisswYhC1SAvmLp5HVRIRgzMFduAhZ2H2K+8Inhq+zvcx++V7O251rCwseFrUtSYhzuV5G9bze2SnK3P4ATYdMlv4TwqHLlC/U4Z1qqr5ghbhgxyuqmPVIaY4SUcFYRUiVK2nSnmcRg2B2AnEfzsesHQlsPFmO6G5zboaZOqUE3H2mUd3OsRHfdwhELoLi06TnDjuYFx1+aTKDeN/f/cTHHjwOCxbYX0hsFe+DTffdDX23XukJcs7a2M7ZEq95tAxYndXa+MKHP+zn+DsU0+GRTed5/RpzYBWTeik9MEnH4mGlkF4ZdZ7aGrvg7yxXBxSE+UYQFu+jPa8iWLemkoqFE0MW30N9C6V7MXrIoq5AppzvbEcDViOgtjSutGG6+HFP96EAQ3fAUYzkG9CEbTeYe2gIo2uvOoO/PLXdwkSogjkT08/7HPexb+hBY+4yMS6lt7nAIuanQSnCumYQ2ZjAvG598nrOKsRTLXmViUwt4w4SCcsGYXRN6q5c/7OCEinsLQjEB/PQM77jrv+hHOnXQrToFPaLfjL0/dji02HVfaxik5gGJ0IhBz76RPH4sLzx4uohfwfOdZX5r6Hw8ZOxMoW2j5aRmMjcO/Ma7HLmM0qJ5srd/HZ9aV8g4fsj7LRC+V8O06ZNBZTzzsEA/tv2IVACqUiVmttF4vTYhLMzGH1PgPEJuPXPn4XO6+/nphmai0Usax3O4aP3hLLerehuUDXcjSJ9Yi8WYRRLopT90Q0D9z8MG54aCauvOwqcZUKfSJ39713xV2XXYEGsdDdB43ojSYiETHdBvzjX0uw024/tW/6LWLXnUdi1n1Xus6OdF3MduCny2sXLfoU66+zpuLBERuobjg3kbVOGcax6eRRSRuGRFR2d8naKmxEG5RPFlWoYCHTmd+HRyASgZA7nzzxKFw07YTKNSbO94ecuXlycR993CLORXz99QqxNXf0qK3wh9/9StyJVJmKd0UKg4eMEZce0m6f0yfS90aOtuTbV3UQOTzz3HyMO24S2kt0dYWJVXqV8MD9M7HDdoOxat+NkS9bjp8WmmluiE4605QUXSFCd1WJLcRGG5Yu/3vXsKUMjPzBj8SUFO3+EqyUa0HOWIGCsQIvzv+nlYcS9G5HC4r4CsDv33gOk8afbt8V1Y7TpkzG2WNPFgT109MOF7LK6C10cC6izBstKJSLaCrm8OgtD6MBjWLdhupLazBjT5qMZ597xU7fiomnjMWMc6bYmw/c939QLpoDa8Cbf38XF027HD/edTecc/bxSgcPrUMbYb5IFd74spozjFPTyaOSVneaSzcKqBZ5qC7SiyjeHumpRDIq01humSrRloygsmqjcdVLSiDugrxrIPRum61/iEtm/Awjtx7aeUeTvcj78uwFOG3yufhoyTdWtFBow2OPPohttxwq/LL49o+HHIYM2V84T5qDOX3isZg2bW/067uFtaYgRsg5lMt073mjSEeO0zrS1oq8sRKty18TW1yFYOcngK2H0pUZdMUIcPrEE3HH7TeISxXFLi7XNti2fA6zF80XI/crr7gb119/m70+8h0WL3kNdMmjeMQpyTJojeWtD5Zg930PwYrv2oXM3XbeFr+9/VZ7W0DHQcmlLd9hl90PwIcffwvDyKOQL+H+B2/BDluNwMEn74X2QjtKOesAJkUq7eV8ZfGfinx79kvYcPONceopx2L0yO2xOgbS5BQ+bF6MuX99C3+47894/f/+iaa2Pjhv8hk476yjrTWb0HNGcZlaz5Gj4uDdaMSRXsUBO2XqOHgZsejorpo2iPx06uhHJGGisp5jteFqGolAaByfR5tYExg2dC1sv91WGDZsKJp6NeDrr5Zi9pw38PY784TTptE33f80/fwzcOqEvUXgsap9B5L1HQ4ih5w4/+GcBaH1iUZzJQpoxvJldIrbflwO8b67X8V5U6eLETo59oGDGvDE72di7fUGYNTwoWi0z0iIsyWwzpiQ3AazGS8toEjC2kLc6ROuBQNobEIpX8DFl8/Er268Eyh3PQcijBTA0m+B3fY6AvM+WCK2KA9ZczW8+KeHsfrArtezU4Y5ry/EfgcejzZxPXsZA9ZoxFMv3IPV+zeiFctRpIOVFZ+fw9xFb+Docaeg/dsWbL7jaKG/uELffS+6acCgw47FvvjbS6+jsdiAc8+cjHMnjrfPy3TA51oaCTg/Q5Sct/9HkY3e53zDmWJ2cuk6Om/NdUblYUhBVb7K6DwsKchkq8oV4zjla/672phMj+xYZTI1iYVAhGriUAHdd0R3dZeRoytYadXAbMDypbTwTG8tp2egDTmjBSvoDiRhAR27jyhgcKawCuUSzp1wBM4591grkhCj6I5LEinfTsM3sM6PlBuBHEUiJZg5GsW349WF7wH5ojiVTXnXHrqVmEKixe4zJx6Ns8+faMtzTwU55yRyYrG7GoE4i/5HjjsPTz8/W2DQmG/Do7+7G6O2Hx540pw2Ctxw86OYcfHVKNF6iFHElluvh0cfvRONOYpWWj3XTRWw4NMlOG/qDPzlpbliid8iPNoxZjt3o4wy2lBu+A7b77Q5SoWVMPNtMMw2sd5C03bWPDN99At46LpZgTej51FAL/QWKzK0JlMQU2OqT+fLFWs18ElSrygOzY2yaqRQzQnqTDXpOO3KWC7gWpUoEVYQKcicfVy4+0Uvqtbf09JpEwj58bWGbiG2wxJBnHXGRJRKZdz3wEP44stvBH40zSQOxtGnWs0cRm27HS6dfgG23qxv16kU8VEQe0qIHJVJZ0Q2FfLzKGLKhHG495Zfo7HcioJJd/xaj/iehGFAfJHOMHDnJb/Ajb+5Tax3FPPAGmsPwe+e+D1WHfo962S3SXpvZd8GXMLkicfigqkTKgvMfmvHNL128RW34Lobbrc/LNWKzz5+tdOXDq/65a345TU3omj2Ek56+vln4rQJhwV/Stb2XFTjo8adKz5cRQ/tsjrqiANw9S8v9F2zEHvFTOCtdz/BY398BnP/9jrmz1uEb75dhnw+j0GDBmHEJutgm503wl6HjMGgfrSLjU7523iJ25GputY25Z9OPFQcGOnYvuxsY6a2y6Gh2IRHb34EDWiqrMnIIxeST/u9nFGBVTbFniTH2mFWG0+tEYjMOVZzyNUQrRZtyHZvqegkI50o05HIGiwAABI6SURBVEZh88qIJEy9/DBWkVMb1p6cFloEIpjZdf1eZQhLfysBb729AP98730xfUWNuOaaa2LkdttgncF9rQjC+Ve5xK9kk4cJ+iIdrWJYI+oczHIO5byBdqOMuR8ssE7HVfyP0/073KP10uWg7NPWji+r6G17QcFbnXDtPHJ2Xok1GtdJbG++Tni4NOhCSB6P1Ukf29921alzwwsRrm9+eE+Zi+9miCRFlMQdYx2RVUcVOs65BBECbZ9uRxH7n7Qfig3lypqMc9Lf/TMoknFr3gtN6I+BoJ9xP9WIIOyOoLh1rOb8VZ2QTiSRpP4suwMBGVGJ7ir5umS946lNIJ0q7P2uhD2N1RkUeyXb80W6DvdtuYAX3N+2pmkw54t0+TyQp29b562LmCqPv8P33i6r3kAB8hwvKxUUpI+dMckhr1Q3vQR0DX+ruJDf+n/nWn4/wjnstJ9WrpBxE4u7xIZiA5686QkUYH2tUi2S6ZyO5FmRTANois15KK6iPWtuwq5F4lBpASYJFZTqK40KydQz0UgJpKrfc75Q57oNdufh63ta2AQth7TnDMxeuEjx29Yur02egY5Ui3/dazzKXKKgpl8MpZBNgUD1pLhTO46XIhe/D4PpOH63XNoUsNeEvcUOM1p/so5oWtFm9TvM3J8eKYt1mf7oL34GPR326iF0+lXYUnh84sjJJBEHitmToUI0tRjNRCaQHdYeiqZSqXKZn1iTsCi144PndJSCvl7nE0noDsy7a3Spq6fMxGuRQGQ6h33fglYsxVIRzQjCEMQhvjto/275dfcdZt61GSpbJZLp0LGjxShiaaLop/KVxLA10c8nWyPQl8g5eioCtUgyRtmmtVADs8oUlsLYXMw+uSMJz86ngAXWaidUVQCN39gkU1VOgQGME0wcanjEXx+b723BoexADBiCBVA000Y7xMQOvPBTWJ0jmY5Ff+/U2azrZnWCiXaSDcCARNZgkmoPlssIhEFAxSfGGclEIxBRw67XaahVXM1hdlfEEVwHJhBfbOIO0XwK6RzJBBORO5IhMY1tjfjzzc8xgah1TE6VcQTC7m7zg0U6hRUWy+hTNGFL5nwCgRQcelSk3YMDv4GC928UybSjXXw6WR7JdGwndrYR5+yps6h6c35GgBGwEOhWAqks2tpnOrhRYkSgDghE8FxibV8fBxpjbHEWxQikjkBiBJJ6TbhARoARYAQYgVQRYAJJFW4ujBFgBBiB7CDABJKdtuSaMAKMACOQKgJMIKnCzYUxAowAI5AdBJhAstOWXBNGgBFgBFJFgAkkVbi5MEaAEWAEsoMAE0h22pJrwggwAoxAqggwgaQKNxfGCDACjEB2EGACyU5bck0YAUaAEUgVASaQVOHmwhgBRoARyA4CTCDZaUuuCSPACDACqSLABJIq3FwYI8AIMALZQYAJJDttyTVhBBgBRiBVBJhAUoWbC2MEGAFGIDsIMIFkpy25JowAI8AIpIoAE0iqcHNhjAAjwAhkBwEmkOy0JdeEEWAEGIFUEWACSRVuLowRYAQYgewgwASSnbbkmjACjAAjkCoCTCCpws2FMQKMACOQHQSYQLLTllwTRoARYARSRYAJJFW4uTBGgBFgBLKDABNIdtqSa1IjCBiG0UkT0zRj1Swp+UnJjbXyLKymEAhFIEkbWlLyk5JbUy3KynQ7AknbWVLyk5Lb7Q3CCiSGABNIYtCy4J6KQNKOOCn5ScntqXbQE+rNBNITWpnrmCoCSTvipOQnJTdV8LmwVBFgAkkVbi6sJyCQtCNOSn5ScntCm/fUOjKB9NSW53onhkDSjjgp+UnJTQxoFtztCDCBdHsTsAJZQyBpR5yU/KTkZq19uT4dCDCBsDUwAjEjIHPEsvcydaLmD5Ivkyt7L9M77ff1pm/a+MRRXiIEErXhoubnDhKHabCMsAj42a/3b36yVc+LhOkfTp5qZQTJlemuordbhkp6widqHln7qeohk9OT38dGIDIjI5BVG4w7SLBJquDs5FbFuyd3gCTqrtNG3vJV2ky3f6g64ih6y/q3rs66BBJWdxW8k7CRrMiMhUBkDkvVgB05usamMrryGqS7AYOMKKwess7kraeKEavqopouKwZci/UI68xk/ShM/9CxhyT19pMdJhrya+8oeqv0vVq0sVrRKRYCUWkEHRIJY/S6Oug6eZX0YfTWlatSTzdZqqavFYPMgh5BDk11oCKzCVU7U00XREwyQkuKFHT0joo1949oPS41AtEJSVUNSDXyCDNyC5tHhShV0oQtP5o5cO44EFC1X3dZOnlU0qqk8dY16TwqhKOSJixufvmYQKJZfN0SiC55eAlMNsqL4sCrEYQOeeiQbjQz4NxxIhDGEevYp0y+7H1QXcPk080jIwgdeTJZcbYpy/JHoNsIpJoDlxlRGPLQ6aBxjnC89dTRXYYDG3VtIhC23VTzVUunKsMPuTB548jj9BFdWbrpa9Na6luruiMQHQecdoherTwKlXV15w5Sn50rbLup5gtKp5q/OyOQoMjeq5PK1FLU+tanddWW1nVFILrTP7VEIG5dVDpH2IiptsyrZ2oT1rGp5vNLp5q3WouEkREmj4xEuH/UT7+pGwKJYqhBBqtiqFHK9ZujrTZ1Fwfh1Y/pZVfTsDajmi/IrsIMUqJO16rqrDJl5qRR6Zc8wKqN/lMXBOIHlaqRcQepDUPrSVqEdaqq+VQIRNcZh3XIqjozgWSzB9QNgTiEEafBqpBQnOXpduooZWfTXOujVmHbTTVf1glENUpXxas+rKY+tawLAvE6+rBrIWEMLkwe2Rwvd5D67CyqWoe1GdV8fgQSNMBStbU0IxBVApQN8FTxUm03TqePQLcRSNRrDMKQSBiDiyOP04mjypJ1KP3m5xxJIBCmnXUcuEx+NYKpVl+ZXJVpKJ1+LcNeZu9h9JWVye/1EMgEgaiOssIYnE4eWcfVkeUXxcg6lF7Tc+qkEIjazjJ7VpEvs8WoZBAUZYclEPc2d7duMptXwSKpdma5QGoEohMxqBhFPXQQlbuPuINkrxuq2K+31jp5VNLWQ//wEmW1qS2VvuRgKutT7mhPJW32LDS+GtUtgYQZoat0vLg6tswwdXTRSevFRaZHfKbEksKMynWmrnTkx+GMVWxHxzZV0+qQn049deSyNashkAqBqBqOTgcJSlst/NfVQ7dzO/Lj7niquHAHUTP6pFNVc2oqZcvsR8eOdWxCR66qTeqmC5M+Ct4yrFXaqyeniYVAVADUaaiohqwa7qropKqLzhRdmOjJjbGsw6jUS6XNOE04BGTtI5Mqaz9Vm/QbAHXXAEu3f+jUsdpgMirWsvw9/X0oAqkGWpiG98qLQ0ZPb1iuf/chEIZAZKRRbQChklfFgYfpd6p5VMqv5gdU6qhKJDqyus+K6qPk2AmkPqrNWjIC3YOAqsNNepDWPbXnUrOGABNI1lqU68MIMAKMQEoIMIGkBDQXwwgwAoxA1hBgAslai3J9GAFGgBFICQEmkJSA5mIYAUaAEcgaAkwgWWtRrg8jwAgwAikhwASSEtBcDCPACDACWUOACSRrLcr1YQQYAUYgJQSYQFICmothBBgBRiBrCDCBZK1FuT6MACPACKSEABNISkBzMYwAI8AIZA0BJpCstSjXhxFgBBiBlBBgAkkJaC6GEWAEGIGsIcAEkrUW5fowAowAI5ASAkwgKQHNxTACjAAjkDUEmECy1qJcH0aAEWAEUkKACSQloLkYRoARYASyhgATSNZalOsTKwL0ASj+gl2skLKwDCHABJKhxuSqMAKMACOQJgJMIGmizWUxAowAI5AhBJhAMtSYXBVGgBFgBNJEgAkkTbS5LEaAEWAEMoQAE0iGGpOrwggwAoxAmggwgaSJNpfFCDACjECGEGACyVBjclUYAUaAEUgTASaQNNHmshgBRoARyBACTCAZakyuCiPACDACaSLABJIm2lwWI8AIMAIZQoAJJEONyVVhBBgBRiBNBJhA0kSby2IEGAFGIEMIaBMIXS7n98R14VxS8pOSmyFb4KrEhIDX1uLqG456SclPSm5MsLKYGkSACcQ0a7BZWKV6RiBpR5yU/KTk1nNbsu7VEWACYQLhPhIzAkk74qTkJyU3ZnhZXA0hwATCBFJD5pgNVZJ2xEnJT0puNlqVa+GHABMIEwj3jJgRSNoRJyU/Kbkxw8viaggBJhAmkBoyx2yokrQjTkp+UnKz0apcC45AfBCIe4cMmxkjkLQjTkp+UnLZIrKLQOwRSNTtslHzBzWVTK7sfa2ZQL3pW2v4JamPzBHL3st0i5pftY94B1dJlSurb9j39aZv2Hp2Z77YCES1ErIRfxjHqGIoQXLj0NtPdph6hskj018mU5af3+sjENbWVNtKxd69Wjt5qpWRpN5u2WHqGSaPrOVUZcrk9OT3qRMIgR3GiIPyqDrvsJ3Daxx+esRBetVwiao7d5R0u3iU9lJpK10CUXXeUfTW7de69ZSlD6u7TG66llN/pXULgYRxllEdd1gDi0IgQfXUIZw49OZOkm7HjNpmsvbSIZAoaXVR0x0Y6qTXSaujtwxrHVk9MW3sBCKbN3WDHIUUdJwwlSnr1LWod1w6cydJt2vHYZs6DlM1OpfZQT3qHVVnGSbpWk79lRYbgegYvANTWALRNZpqBJK03u4opBohhMXCz+R0Rp31Z7K1r3EY/HXyqKRVSRO0TlKtf0bJozLdrJLGrUOYerr9ARNItP6UCoHoOHAZOcjeB8ERJp9uHhlB6MiTyYrW7Jw7SQSiOjWZA5fJl71X7SMqzlW3LBlB6MiTyUqyjVm2hUBdEYiOA5aNlGSdVIf0qo2IZIamOv2goq+sLH6fDgI6TjDMaLqa/LBl+9l7EgRSrV95W0dWfpS6pmMJ2S+lbggkqClkRubkC0M+YfLE1UHClp19k639GoZ1bKr5qkWnbnRU+0ZQH1HJr6qz6oBOZ6AUtuzat6D60bCuCUTFwLuDQFRIRKY7E0j9dCKZc5S1ta4DVyEQ1TLDREBR80Tpk3GVXb/WVVuaM4FUuQsrihOXdXJZB49Sdm2ZWM/TJuzIWDWfzLYIcZl9+bWKavlxOfGoNh5G355njcnWuK4JJEq4q5I3ioHLOrmsg0cpO1mTYekyBMI6NtV8MtsKO42lWj4TiMwCes57JpBuikBko0QmkPrthGEcsd+0p+4GCz/EZAOVqGQQtq6yaV4VvaOUXb/WVVuaZ4JAZM64mrHGdQ5ENq8b1Oy6TkKlY9WWifU8bcI6NtV8OhGISt8Isl0VW1PVuRpR6faNKPr2PGtMtsZ1QyCOMVfrPGmRgc6hP1nzMYHIEKq/92GcapQIxGtDfn0kLTII0weZQOrPxiskbqpYlqt+YaZWdPKopA1DIipyvc2ok0d3VOgui0mkfjuQn+ZhCEQnj0raMCSiIlfWR+IkEJXoKYzO2bK27q1NKhFIHI7YbZj1RiCkuwrBqIwkHXPR6aiaY4TutcgMlB7GqenkUUlbLwSSRL9WsXcHH5W0GTDJxKqQOIHokIdfGO/nMON0xjqOuJrzVq2nDvnp1FNHbmLWxIIFAioO3g1VEunD2IOuHrp1VZWvQ3469dSRy6ashkBsBKJWXEeqOKZtohqPLESOSgpJ11EVcx5lqSIVTzoV4q9Wkqy9VB1x0IBM1S5leugQiI7OOnKrDTpVWlOljipyemoaJpAYtvHqjmxUianaKFXHYLmT6KAVPS0TSFcM3Zio2KMu4YQlEhVdoltEdiWkSiAqjRWXc1VdT4hjCkuXQHRHhmGIRAXr7Jp199YsDIHotFdU59rdEYhqXXVJx2l1Gf6q5XevFdVH6doEUq1aYZy/V14cMuoDetayJyIQxvnL+gg7xJ5oSbVR51gJpDaqxFowAowAI8AIpIEAE0gaKHMZjAAjwAhkEAEmkAw2KleJEWAEGIE0EGACSQNlLoMRYAQYgQwiwASSwUblKjECjAAjkAYCTCBpoMxlMAKMACOQQQSYQDLYqFwlRoARYATSQIAJJA2UuQxGgBFgBDKIABNIBhuVq8QIMAKMQBoIMIGkgTKXwQgwAoxABhFgAslgo3KVGAFGgBFIAwEmkDRQ5jIYAUaAEcggAkwgGWxUrhIjwAgwAmkgwASSBspcBiPACDACGUSACSSDjcpVYgQYAUYgDQSYQNJAmcuoSwTo2x38rY26bDpWOiUEDAAmlcUdJSXEuZi6QcD5+BP3jbppMlY0ZQT+H2ddp4yqr553AAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>xyzcb</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dB5hV1bX+b5s7MwwEQcCoiZBYscbeYjdGRdFETUQE6whIFwWxJip2bAEMBqNGLCH2Ho0an73EJEZN4kuxPUFEFJh62/vWPufMnHvn3Hv23mffvi4f38DcXdb+19rr32vXUCaTyaCKPo6wobwyp+1vwpXdqj4NySd3lbSnstFm6RgBRqAICISYQIqAqkyRTCAyKHEaRoARqGAEqo5A/LG0R+wZOwJxQhX/0MW/6CApfOvnCCQIvJyXEWAESo9AfRFI/nmv4iPPBFJ8jLkGRoARKCkClUsgvg5XHycqupxc4pZcupnSCfVx4ZyMACPACKggUHcEUml+WFoe6YQq6ue0jAAjwAjoI1C5BJKnTbp+NHerWaVEIPqq45yMACPACJQXASaQ8uLPtTMCjAAjULUIVAyB0HGUUMgVF1DIQEdUwpUdK/SR2zEFn1Apb0Tkype37Ko1NxacEWAEagmBiiGQPqDqzlVVinZy5M8lAxkC8WoKk0qlKJjlYAQYgcolkAC6Ka+Tdc5zOA0weSKeyjZZXgCQOSsjwAjUPQLlJ5Bcf+vMWIVoBitnWquQupwhfW7kUqoZMHdIIabfbGHdv3e1LWsfca6MTh7Chv7S98Qb9LNU7an7rsEAMAKMgB8C5SUQcpQp29m6HaWqs3QctlMWtZrK8CinKDNjTv2Ow+9M4R9vvY1VK7/Alyu/QEdHB1paWvCNQethxGab4pubDgcao9kyCqawBafyksCuI7ZCYyKEVBgYO+U0TJwzk0nEz6L5+6pCwL3uqXotX9aaqVgyzZ0YriooqlLYshPIa8+9iIknnYp4MiwMYJ9DDsJVt/wCiCqMtlMZrPnkcxx58GHoWteOdAjYZo8dseS3S/s4XKME4o4UuoAnlt2PJx56BH99809IdScQoj0AdhonmiLZwvEodtpjN+x/8EE46IhD0Dh4YDbZpTJAIoS9RmyF5u4IMqE0fjKtFaefOx2IKOBSlSbJQuciYMpRmipHV0O59cuUU4gUyt0eGflrPU3ZCYQG3udNmIEXH3wSEYSE87/+1puxw6H7WM7S72OP1i84ZTJefOpZkTrTGMW9zzyCYZttIggk++S5wdtt7bpfefj3uGHe1Vjx0WeI2IRB7RD/DPXezSVmosQv06KdmRAQbYzjB0cehnFTWy15xdfZBJIKp3HC1FacygTiZw01+b0JR2mijCDg6pCHuz4vIil3m4LgUSt5y08gGaD9k5U4Zv/Dkfh6ncB1/W9vhLv/+DjQErNwzjfvT844Dbz2xB8w55QpiKbCSEbSaJ05BcfPmmhFMfYMWW8RBgjEiTySwM2XXI27fvlrNKSAUCYMcvahaATb7rA9Nt1qCwxafxDS6TRWrVyF5Z/+H/78xlvo7Oiwo5Ow+JmIpHHSOVNw0oyJViRC5XejJwJhAqmV7qbfjqDOMmh+XcmDEkchEilXm3SxqMV8BQgk19Gm7UXtnLAg6HkNex3kscVLcc3FlyGaBlIhWCPuOdMLT2WRiGu6cOyBh2H1h58J/Wyw5Qjc+eRDQLO9xmBca2mAbvpNAlfPugCP3X2fkJk+kZYm/PT08Rh7+kmIrTcgm/gc0ulK4p3X38CyO+/FHx9/GrEkrXGkcfKsKRg3c6IVdeUQSDKUwthpZxiNQIxO5elgrClA340V/gMCpc0YOm0pQR4vRyw7518uR5uPPGTklmlvudpVAnVXTRVKBGK1ymMbaYq8fgrIpIFw2Dr8Rz9DkltOyQd0ZnD66GPxn7ffE3WkmyK498mHMWTLTbynsuzpoyWXXIs7b16CSBpIhoFbHlyKzXb7Xu+agmlV2IT31G9+h8vmXIg4NRvAkG9vhAV3/AqDttikJ/LJipxyd2mlgE///Hdceu6F+Ou77+D0s6b2iUD2/s5INHVZUY17CiuDDEK5YRktINJBTMldWpr+2xyaxgToSyAZpJFACkkkkRK7NMiEIoiKP2GEpeZGzTXVVEk6DlMnjwl5ZQhApp5Ci+zlapuM3PWSpg+BaPXr7gSwbi1Ai78Nsd6/EXsOyZlHop9eW1btXUz/fftdnDrqJwgnrPWB7fbeBfOX/bpvFGKn/+zd/8XYHxyNcDKNZCiD0WOOxfRrflZwoblQ+3xHqnbmts9W4ajdDwLauwR59B86GHc9eT+aNhzSS3Z91l4ck7IjGPov+b4ksHD+fLEW0jrtTAuffFNYTkQmdpvYQLobJLb5Wg41kwlln+x37/KSsG4tO/Ap18HXF2cJ+XKTuNe5kkhgLdaiDe1oQ5tI2k/8aUY/9EcD7KlRjXrKnUXVaaqmN9U+k/U6ZeVGLibrMNXueitHikB6Orw9+u4540AOi6ZcEglM3GlnNCcTaI9GsOill4BozIpCHPKwnX7WWQaxzTZipYtY00IL5l6K+267C5G0tZ5xwY1X4YBjR/VEFEIWKiQJnHn0CfjHq2+LiKV5g/Xw0LOPI7R+fyBsH7hz6rTXSqSUm3tWT8hoj+5tp7/wZ1fjd4t+jVgqjO5oGjfcthjbHbx3FtHld8A523VtoVJdSUQaop4EQruwxkxtxSlEIDZvdH7xNd56/Q188flKsU148JBB2HGXnTF4+MbZ50Z6Gu0/1ePGpxgEIoW/KxFFEF3oAhGC9wFKR1m9P0MIi/Rd6MSMG89CV6wL4UwY/Tr74YaZ15eNQIJsV3XjpjKyL5eDLVW9MvWYwl3VdqshvQx+fu3wmMLK42gywL1LfoPrL5yHWCokdhON2Hpz/PqRZUBjxJrCSiWBZAIT9twTTak0Ypm08L1EBg3pEJZ/QusUabHGcdyY43DwFZcD8QjQELeillAU+LINo/f/IWiUT6NoIoZHnn8aGNwkfIgYaaaAp++4D/NmX4BIMoR0DLh4wbXY5+gfZk9d2SP8XUZsicZUWExzZTnJTAbhUKhnl5YzinV+0pRYVzSD1//zvkUO9MXXHThol72BrzpEUVvs/j0suH+p9b3HjJ3vaNs9tUUFEkGQnK5FdCKQE6e0Yvw50/H+i6/hlgWL8KeXX7fPF4bE2hRFbFTUDrvvjPMv/xnW32KE4S2/pT8FT9HDCqxAG2hzRV9w5y6eY61HUdTl+hlNRxBPxHHd1OsQRxwxNPRMYcXEXj/JqVW/3pPzvaxzl11YzrdWINPxZdI44svKkw+OckUG+dro1x6ZNRhF1Vdk8lLgoEQgNOqfN+kcPPPgo2L0TbuHDvnp0Zg9/zLLWaWTIhoBTWnRz2QS4hTce3/H2Ucdh/UHDRbbVylfIgJ0RIF10TBufvllIEYFRIXz/NuDj+P8M2daUUg4jR+PG4Nxl19oj/AjyKxcg6P2Oxxtq9eK8nY7YG9cfufNfae6bALZfZOt0JQKIZKi6CXS43AySIn/k4OmHVT0oW24RHr0ITnbY8DL/30PYtYjA7z95AuYdsoEcW6F1iYuWXwD9jry4Czi8iUNP3PrIZCRaO625Dr8uKPwVdtaPPvU04K8aVRNPzPhDELpTI/8tOAebWnCTb9ZjC333NngWpA6geSuRaTJgITz7hs5eP2+Cx2YtGAyOqPtlt5yPvPOuNSzPJqi6ocWe9qqX0mnrGRJJLcthTq7zhbWSiGQYjprPwdZqJsVUy6/7m3ye1W7MVm3GO9mVJC0dz2ddNRx+ORvHwgHT1M4F19zOfYdM5pCDSBNfzNAmiKSkBipTzpsNFb8+xMxQh44fBhufeR3wJDB1gJAMoUJe++FpkQKDZQinRG7mpoSYXz+yXLR3lQkgwUP3QfsuD0QiWPx7AvwwANPIUGL9APiuP/3j2PAiGF9F9vthfY9t9pBbLO1zmDQiD2NkFjgt2KNTIgccEiIH6X1ly7rECARSHyj9fHYGy9Y5JQGFl90Fe5ZfBuiyRASDcBzf38TGNjku3jtTyquyC+HQIjUCEoiLCLMZDQkpqs232pLDBw0UExjvfrc/2DFx5+KrcxEiNFv9MN9zzyOfpsMEYPzntGmaQsqUF43EmhzrUV0g9aMLAKxooA05v7y/D4RhBNRxJNxLDzzFyKKIILpu3nAm4isZXJr0byYEUe+pqs4b2GR7luoPU5UyzhKdzf2K0+FvGTMJUjdMuXL4qxalorrUy3bVHo/3Ze7DWoEYq8lrP7Xxzjx8GPRtXqNNRpuacKvH70XG4zcNHumIQn8vHUmnn30CUTJQbc04dYH78JG22zRG7E40Qr9pCkw+lA9//4YPz9hHBoogqEZHYpawmF0h2P46LOVSIVi6A6HMeX8WThw4mn2tSA5c1RiQZpGrvaOMPdKq1vDzlpJGrjoxIl49fn/QZrWUZrjuPneO/DdXbe1yk8B00efiHdffVu0e/h2W+CXT98nohN/gvAzKW8C6ZeIIJzOCAKJNMfwo7HHY9wZp6Jxw8HZpJUAbr/qBty+4JeC2Ils9j38EFz0q+vynIfxk6f3+961CGtHU++nUCQBsRNKrEXcMBPdDd1IRRIWgVDEl7Z+zmu9Im9EQovewzBMRBLV9pF14rLpvNrv51ycPCadjJ+8ft+b1GO+9stO/QlXUwHXn5Q7igiik1AmQ1unCEl7mOq3DdReSP8zTeWcNhENSRoXAsM2G46ljz4ArBe3HFsSeHjJUlx34WViZN8dAa5ceD32GP2D3rl52vbrRCzi33ZTbIf+8PwFWHLNTYJEyIGeO+dsPHbvPUitXYt4qhupUBrd0YxYbKc1gKv++MdsLGgXGC3m0/pKLAa4d4Xl+sEkcPvl1+E3C5bQeXgko8DP5l+BfY47slfeBDBu78Ow4oOPRCSw3xE/wHmL5wMN/ipQWpS2I5DvDx+JxoSll0222QzXLLoRAzf7Vva0lKMvO9r6+anT8MITT4sprWQ0g4defxYDvjXUf4tvAQF71yLaPQkkdy1CTA2GKKKLIN7dhPlTr0UcjSIaUJnCiiKCRsQRydibC/xhtsnISei91hGc7KUEUY4sVJ2Zl7MupjOSIQeZNHLo+afSqUsnj78khVP4Eb2q3oPKYzK/OoEIsrEI4varbsJtNyzqOQF+4BGH4fxF1wgC+eitd3HSsWOAzoRw7uOmnIGT50yTu+PKiQg6kjjxwCPx2f9+JKaU4qkUmpPdaEx1oSHUiV/d/1tgh617RuLn7Luv4CBSSCQUElNcHbEIbn7xJWuNpedcCo1+XWRF6y4PPI6zp86ypuXCIYyZcgZOOu+sbHkTwOiRe6Fz1dfIhEMYNfYYTL3mot5zHwU0o0QgNNBPALsN300sBmcQEYvorXOOF3URmXp9Iingwz+txvFH/EhM2RH3TLrgLJwwaZTQAZGe1ycZAbpc91rmpqHvJt0wWexo8vrMmzTPg1iIV2NoRn/0Qwz9AcRyAxiTlixZljguQ0eVKL1zbMZv0CRZdm4yv/UQE85MhTBUR+x+7dFZm9GE0jObLn66+QrJrqIHkxiUuyy1KSxHWlrjoHnbJDBn7AS89twLCKdCSEcymH3JhfjhqFE4ntY9/u8z4bj2PGh/XHb7gqwDdr6jQHu67N3nX8eEE04SI3FaG4ml00iFUzj2tJ/ipIvnFl4kpuiGdoXZayy0K8z9EREL1fPO3zHj2DFo7+hGWzSG7Q49BOfcuQSI90ZlYvYrARz47W0R7cqIvQEnTDwZJ19kk4ysJmWYxI5AthtxDMLd6yGdbsT4yRMwbfbWIGcvLmSkBXSxiG5VLKYS0xDEceCe87Dq0xUC+32POBjzF4wS8rpJxLnkkcpqiwOnXbUE6xp7Iwz3903dcSw4u1WsRKh8SDTSGRFbNGVtUHBIzF3+N785TmwKoE/aPsfi/N+5N6w3QrZ06J3eWiNy8LDKc/5vlS82HaAd4fBqfL78GYRpXFEkAhEc5VG4l+0HGYWaJgZHxzprG8VwzvlsTrcunXzljCL86lbpkyppZWxSj0DIcVHnoDXwL4DjDhuLLz761JKtMYqtt94a7771F5Fm482+g6UPLkF4EC2Gq4hvrcnTusPFU6/FH+57FFGaNwew3sZDsey5uxEZYDlQ98jaOZBN6chxiSME3bCG2G7+yADn7LO/iGzIydHicyISwVfxKBY++zgwGEjZ583EURBankkCx4w8FN2rvhZrDEeMOQ4Trp1p7dAKZ0cGbjnc/5ZBgIiAyGr4kKMQTbQggwZ0xNLoiCWxrrEDSWpYz5Sj3SgiEBJDkGwY8aTlFbsjtH4SQigdsZaW0xExvRVKWwcNyWG3N7Yj+Y3lgItALAXbpxo7mxFZPRT9uwb0cfC5m74zGWv6ylkMo/JFRGjvoqKT4fS9mwA+++yOnluL8xFA1tmjnkspvQnJTSC5eAvytS9KiNDPIhNIPhJxyyXTUQvZjV+kI2NzXml0iEnHOZuWT7e8Ss0X1D6K2S4tAiGHSJusaEAfSQAf/BU48cezkWjvRMoeWkbSITQNHIC7H74EG37H2s2bbwScr8OL83sZYO3nwAE7TROjWCpndcdatEdTSEVoB5U16vQakYYyaUTTaTSkU9ZIOOOktUbDRBr0e2vbLm0Zhti22xkNiQX6NP0NpcXU2YCuJAZ2JzAI3Wi0r8doRxhfIY6vGmJY1xBDVyTa18HaI2rHYfd1aH1H1A3pBJqTHRjSHEJzugOpUBfGTmnFyRcdj0/RhjWgba3Wxx3QzF0412oXRSIJ2vgaFgQSTsfQ2N2M+bOvQovHVJIzhWVvYehjb7QBjaIPwl/lQ/p2tkSr5Ct6WrIX4dntmcwiRiBOW3ScsQoO5RqlqshY7LR+jtYPI7/8xZa/GstXJhAL5JAgkKHDDgZSgxBJNYk7m+I5k+y0cN7ekBJnPqxP7hSD5aBFX7ZHxL1hgrMAmhZnTvp3hcXIOhHOYMo5MzF5Tu90jpuAckewXkpxpnouPe8VLFt6t+WIG2NYsvRabLebRVLOFAv5zEYiny5gzB7nYGBnAk1J2oZKawxhrG2I4NaXr+k9SOjl2R1PT4ftY0BHjA4oAnaQ4OmwW9LAdpvuhOb0V0CoQxDI6TPPROtNk9Ae7/A8QHfFGfOEXNfdeSWWLrzT2ijbCLz37D8RRzMa7ZMRsUysd9pGZkpNxbJdO93ybXpTKS5wWtPtUxDIz2EpFKWc1IQzVI0mik2SuSB4ySezFqHaLmXw6yiDMoFY3tYe+dqL3TTd8uYj72HmhDPt0950FgE4dcoEnHjusaBNNPkWcGWwpihnj433QxMRSCiDE888Ha3njxFTYs70ENXn/hQa+UaSwBN3vIhLz71IEAUdVpxz9SUYPWZv652OnM07YgrLng771bk34b7blwpSo01dD7z1ElqPOARNyRSimWTWIv61ubvCGtLAN7rQFktgubivKWfbMQARRSApop6GdDfiqYQg2c5YGpF0A26YutA+GNf3QB79JoYwrr7sEtz3q6WibZH1mvHq228jJehE/lxEIb/ru35lK6JQuvL5dbUrXWTsUzZNsaaaxADM5yyJrIxOOl1ZVZy6Dsn5kbJMmaaxUsW2ltLrEYiDgL3Qvfz9/2D8qGOQXtdhnYegyZMM0B3L4JpbF2GnQ+zHoRSmCrKcTwLYf6OR4vQ3OXtxrcfc6dbag+OsXFrJqsbtqWx5P3j9rzjjmHFAd1IQxk9OGYuJl8zp3a7rKSfdOBzGGw//AdMnTUIy2oVMuAs3/uJK7H7IAUCi25rXcz0g1brvvln/JxJY3ZTAyIN3w9eNKbGukfuZN3WecPVEBFvutrOFo3jSdjxmn3AxBmOIuBLQ82Pvjrtixlw8c8/DIuJbb8SGWPbSM3mvWslnzMV28F7lyxJTsA5YHgIp9ujctFMMUp47byGH7kcGXnrWWdiXiVyC2VT95g5GINQXV3Xg+FFHY8W/PxLObvvdd8Gnn36KVR9Zp8gbBrdg6SPLMHDTb9mr4hr3EOUQyLjJrRh3vv1WiIru0kDbhyvFNtd1K1aL9YMdD9gD195xi0VG4jbbPAXa5JNeuQ47fn9bLG/5P6xr6sbWO2yK3y28l86zi/MjzmfujXP7FNTYHcLArijee/o1rNcRQ7w7hFDPm7dhLKaIRdzrRJsHwvjxpiORCMWxpqEBR82chMlnnYsI4gg5L2W5ahCL13RoMglMOPIn+Ncb74r1oW322x3X332rtehDq8eSH6ejKndybeZRd+ylIRxJwAok88NQZtTsJ0UQh2/awcrI4oeJH3nQ9zL1eJWjm89PB/X4vR6BOE4iCcwdNwmv/OF5sVg6aMj6WPbUI/j4449xyo+PBxK05yaD4c6liy104k7NkQml2ATSmIogEUqhIIF4Dm3t1ea2BM740Qn45zt/QzKUwAZbfgtLHrsLkeZmsSxOdzd5HXSjg3HW5Rg0kA9j1gVT0TWgHV3RLnFinc5bJOhAI+0IE5btfcK6P0LYAA1opNsfv44DXfbtkJQnDcw+gM6x0KI3EE9bO6bSaMC/Pl+BY6ZPxFFzZ+XZtuzsxAoDX3fj0F32QqYtKQ5vnjJ7GsZOP8PwxYoFuophAhHFOWXa1TobxOTpsHxdO5+zMu3ETJVnohwZctAhTb9yZcs00cbyWVRl1ZyfQApOgltbWm+78kbcfuPNYt0jEQ3hlrtux+b77Cw6/EOLbsd1l14pdgTRNNH+ow/FBQuvta79yPPukTWizPR9+ZAIZMNtxONNPVNY501HJkLpJdwI+Ve6CHLKOXjm/keRiCaQ2CiCW566Df0GD0YHuuzYIZtAnBPWzqWLpDqKn77R3oRXF/8BLR2NQpvNg/rj3icewuBhGyJBGwXyEBHtZmokKiIAiHWIcZJhPHj9DQg1RDF6ypnWPlzCPhHG6OGbid1fIzYYgkwogVQ4aZ0DseXoc/IeUbx/1/0492fzkAg1oi0Wwu2/vx+bbL+lZXUSUPXdxGBlzd2eWwozFkGffd4la2+CbT9ibUqqTaWQtm8dhRyV7hpDvpaYcIqqZUj1PYf0A1wZ4tSTSxB+9ecjFNkptvJYTXXVqk4gYnoFeOOxZ3FW62RxcI12LbWePQ3H00jXufacopOTJ+HV3z8vZk/IX067YDaOnjjeZzTsMZVhE4hVl70Gct50JKP0XkSneHnO+mRPjzm+heKeO2+9FddfdhUa0xEkYxnMv2cB7nx2GdriHeimGxQ9PvMmzhO+3J69EmEC3eU0CC144Io7cf/8u+zLC4H1NtkAv7h1MYaN/E5vlNDj9VzvibgK/PyD/+DKCy/Fyy+/jAkzpmI8vYnuetJ2/29vgUGd3eif6MKZrSdhl7NnWARjT7XNpjUW+7kSOkFv3Xcfx4fLV6ArHMN2398dFyy7zftFxx646JIt2nbmvCCZbyrJ+/deEYLJLjBk6BbiJL4DZZoGGfTuPJJYueJfVUsgQm95Dhnq4Kfq/HPr8HPGXjKprm/IRgjuugo5ez8ikGmTjkw6+ilWnkJtLEXbJKawXI7D9qQr//EfjBt1HBJr2gR57Lb/PrjCuU7dQYrOinyxFmMO/RG++PBT65mLWAQ33bMEI/fetfeBKDt9wYFkAthvw60QT0WyCKQtus5+L8J6dS6XQMilnr9oLmLpEOJJOh8Rtt8niSKabMJVc+iOJrqhyfVyou2q6O5XK3BJi+ktoihniitOdzQl4pgx5gz85flXxM28dLVJrCWOY8aPwfgJpyKy/sDsNRXXtN+/3vwzfnvHXfj9w4+JK+YpEDnF/SY6DbsTIXx/+FZo6abT5Wlsv+M2mH3eHPTbZQcXQfWul3z5yhu4cMYsfP3hRxg+dCjCYbpCJiUuobTPX2bfFUYjQvc9YXRfWL67wuzrYfo4qXwRgivYyd3DMGzYSIv0nJFpjv6zA98UVn7+j7yRk9hpV6ERiKxDl03n54B0yymmA8pXtoxjkyFX1Tb7EYqMXH56CPq9n4y55ZdbZgkCcfV08qhftWPMET/G5//8EKFQBAM2HoJlTzyM8NAW61p0Z1Rlk81/X3sHJx8zRlz/QYu6zRsMwj2PP4TmjQaLi3ITSIgIgl6vzuR5L4Iminb+7pb2pYppjJ/ciolnzcQa8V7EJO87mjI0VQRcM2Ee9hi1Czq+7Ox5UKol0ojmrhbxSl2/zhbEaU3C9sVuf5QOZcQ6wsvv/zn7Tiw7isis6cDFU+fghSefFpEIrX2IdZBwCJtvMxJb77AtBq0/GOl0Gl9+sQpfrPgcb7/5J7R9tcY62Ji2tjuTkz/17DMxfgZNYfV90pbaQVN3JMuwb22E7+26EzbYeCM0NjZizZer8dZrr+ODv7yHxlQK/RLdiKU7cd4507Bt66n2/V/W3uRZ++4rdGBFLbSjLSxekFwsXpCMAFG6fNLWt7hUzD6971wB41wiZR80J9ndEYJ7qcKLIOj7FSvozfu+BNJnRGwnonX/Xp04k3dBu2lx8wd1bDpOIV+dfg7JxEYE1UhEF33VKaxC9XjJHITw8tXlh3+lEYKqbkIZmhNw9+icEnoGefa1IuePPxMvP/2ccH50V9Si392JTXfbzntxlzIngft/eTtu+vmVaLAfYdpsp+2w6L67kGpJYw3WiT/0ejW9F+G1iH3xorlo7g6JCILORCQiGbRHMoik41g0eYH9XkRu08PCF9KawzabbS7eFyGn7TjPaCqCcCqCWLrBOjRo33ERFu+FWJDQLb+d0Qxe+a/9IqF7hsyZikoB9y68FUtuWiQiMsKFyqDJrr4HJy3H7Zyep6iFHn867JijMHbiKRiyyYaWgJTV9SKhQyCCo3IWlJ1NXE65dE/YrPNm4fDWk6wFAjqE45SZ67nttaFT9z5QXFLZHo3i2U8+Qlc4igHdCbQkujGguwtxEYOF0IUw1jTEsS7WIH4S8YkIIefj3NWlaox90jsn2Ss0yvBqnyp5CJUEnMoKGkWoOjlVpxe0fGG+HmsoQcpVIelS1RO4v5ShAItACnRQZ46bHNct82/CrfMX9dyqOuPcs3H05JORiibRab9dbb1YTrksN0oPB9EaxIzWiXjpmeeEA4bNGe4AABXkSURBVKWHmg4beyzOv/gitKMD01zvRXg9UXrlGfOw9X7bWuvLIeC0ieMx/aez0Jj1XoTHHL1NYLuO2ErcDUWL/dRUhxSFlHQflA2B+/d0QpGuSsl60jYXJ/cCyeoO3Pebu/HUI4/hg/f+CYhttdkadQ47NjY1Ycc9d8UBPzwEB44aBQyI2hdZ2bJRvgSw64gdxMYBKmfi1MlIplK4/7fLsGrlKvsyRSvicw5pbr/Ljjjr4nMxfIdNxboHEc7QoVvYb6Jky0JNaUhlMKC7Gy2JLkEYXZEwXmr7zJKlGxi3x0Ho192JRrqUEnS7cQgdsRiWvPScta5Cf8UlYa47TlznYEQ5ImqxL5/quQ25r6VnT13J9ATrji2KgivlE4QICuX1c2BeUUSpHGQ+5y5DrjJ6Mx3dBI1iCp1Dcdqjgr0MBpWcJmsKq+CUsttZunt7BGgL5b5dnb2bibr4+QvPFY9KiWtQQta8P51boOvKr83zXoSz+8nreAaJQBtr6bU6ennO8+PISeL0PbMnpxd7bVok9iJap46e6R4gtbYNf3v7Haxa+QW++nI1Ojs7EYs3YOgGwzD8u8OxyRabA1H7Snn7LXOHBBwdiIskPWTeaNg2QhQn8nA3gspwXi20yrPXEPK0VBCce6qK8rinsHpksAURtxun0LrXXmimk/f0hLE4op8WXCF2hbkJhNZUnLdYfNZY5JTRm0qdcFRrKG36oFFEaaU1U5tOtOZXsx/Z5uYvhrMvxlSYX7vL9X0Pgah0yN4X6mj3Uhh93q4Wh+GsNQHnp9fLc9bb1fSHzlb3F1d05JPDPZgv5YyGE4GpKEjI5xBuruA2Gzq/Xn/YZsJr05O6TjY3V7nxoH/nW0PwXJS2b56VwasP7l6KoBcjvV6QtMER77G4bt/Neo+FFuxpp1ehT1EjFhUNmk/r59iK4cjMt6L0JfrhVgpCMNXqWiQW+UV0F4r0Qt0pN56KtqZ1giBoR5L77erekwreB/Oc78vydnWPY/Q7+Wxt2fU8h1BgF9HQYSPF1ApNjdHP3g2oFoDirq2e/CmsWGmtIXhFFPkMV3qNIc95G+0Oke8FyawCbZ0Ta6X6vseSEtNO1ovoni9I5kQsuTxmYtFXu/0KGYsxulaovmKT1hIhmAK5molFm0CWYwXasE5g2A8t2ABDxc+if3I8imqE0DNSdw/Lc9YqRBvsxZLccwh9HJqzCGov8i23dxn14OA6AkK/y8pvRwhOdUXHrgQVOA5ekCQRSKLLilrcb97bcjgvSAoCpWUf9wuSPRGLDWBWJBcCYrRupHEtTgkwqKcqmBCKp+1qIBYtAsmewqIJmKi9FuG8eV0YVM9FPyeLPULNdyLaXbKYwnemiuwvvBy820FThOD+vxd39H6f5xxCvkwS5xucyp1bhC0ek9iemncOz5km1DNk62wL8aW3Mw404hcKStrHyV1v3nuJKvTYN2Jx4sRQJoOrX3jByklRSr/+1k/+GEWACcEonEUprJKIRYtAslHJXenNdkRSEYJ7a1Q+55JHFRQhuI9a+xGIEyHkrhnkFi++p0PaPWziN+UlyWA9FblxkxhJ55JWTwQVlEAsgWTWSYrSG5xCHbLxWWOh5GsaYrj5zT8xgUgohAlBAqQaSeLWdanW1AITSL5Fb9KJEyGI0baHf+3xiS4CGTZsK8uhSSwq++0y8rILP+Jw53FIxLVooWBqhQmnEG5SleQrIHDBUrX3JAoUoeRWJbXGQvNdYevgYx1OYTEhqNknpy4uAsYIRIjpMbWz/jDrHEJBx037STPW+ZHln79vtZjObNgLzu4RstcagtLoWdXBSqZ3GL+3g1sEkqF2eR0Us/WqJLvbFiqEQIprnrVfOhNC7eu4llsYnEAywJBh3wUyDeJ1QOd2O8sxWruMaIdRYQJxne5z0C6wztCjENO7jGpZ09y2siFQj2c8ygY2V1xSBIwQSCrPFBWxRtZdRoJgrPZJDuxLCgZXxggwAowAIyCPQGACccjAvc7BEYK8AjglI8AIMALVikBgAjG6iFqtKLLcjAAjwAjUIQJMIHWodG4yI8AIMAImEAhMICaE4DIYAUaAEWAEqg8BJpDq0xlLzAgwAoxARSDABFIRamAhGAFGgBGoPgSKQCCSV35UH1YsMSPACDACjIALASYQNgdGgBFgBBgBLQSKQCBacnAmRoARYAQYgSpDgAmkyhTG4jICjAAjUCkIMIFUiiZYDkaAEWAEqgwBJpAqUxiLywgwAoxApSDABFIpmmA5GAFGgBGoMgSYQKpMYSwuI8AIMAKVggATSKVoguVgBBgBRqDKEGACqTKFsbiMACPACFQKAkwglaIJloMRYAQYgSpDgAmkyhTG4jICjAAjUCkIMIFUiiZYDkaAEWAEqgwBJpAqUxiLywgwAoxApSDABFIpmmA5GIE6RCAUCvW0mp7HVvm481I+1fwqdXFabwSYQIpsGdxBigxwnRQfxI4ciEyUEQTuXIcvU1YhUmACkUGwuGkqhkBMGLeJMoLAzR0kCHqctxACQW273M5Wp2+48fAiknK3iS0WqBkCCdrBghqDav0yxi+TJqjcnL86EAhqC0Hz66IUlDgKkUi52qSLRS3mqxgCIXBVnbBbIU7eUs+DBpHZr83cQWqxy+m1ycsRy9p6uewoH3nIyC3T3nK1S0+DtZmrogjEz6HmU0FQJ66rWlP15iM/7iC6mqnNfDr2oJPHBHoyBCBTT6E+Vq62ychdL2mqnkBMOXFVhZeiXu4gqlqp/fSqNqGa3hSCJuvlAZYprZgvp+IIRDUKqdapKxlVmuyEMvVxmspHQGVkXy77KVW9MvWUYqBX+VZTPAkrkkBkSaRcxlGqermDFM/wi1myjn2o5FG1C2qrynZYVWxyy5aRT7UOr/T56vEiWXd+mTUYE/LVQxlaBKJi7A6Iqnn80vt971aen0H5KbpQBymmMXIH8dNMZX6v40BV7Dl3gOVFECoy1Er/ULGGYvZbFTmqPa0WgchGCF5OXEVxhTqVaoeTVZRMxytW3bky5uvY+TAslVyyWNZrOhkbKjTAkekjheoIWr+q3tzyqtatWlcxB4ZBZKnXvNoE4iYRP4N3jMovXSEHWioj9XPC5ewgMvj5yV+vhl7qdsvaiWw62Skcr0GHjN3I4uMnr9/3svXIpAsywHLKN4mNjMy1lsYIgXiF0A5QQR1abv6g5fkp0K/8cnYQWWP3a4MfBvy9GQT8bMXvez8pvPIXk0Bk5JVJ49cu2e916tLJIytPPaYLRCDuKMSLREw5MncEY6pMvxGdzDRRIeI0YUy6xl5MjEy0q17K8HPmuvqVncaRHXDI6kNGXpk0svX5pdOtSzefnzz1+H1gAilEIm7HHwRcv44YpGyvzqiyY8V0Jy3kHGTr4g5iyiKCl5PPdk3qSHUqR6dVsvLKptORITePbl26+UzIXGtlGCEQLxIxRR4O4MVWuuyovdhyMIHUWhfLvqLHq3WyA4N8yBRrgKVDTNw/as9+C7WoKATirjBo5ygmgegYu04eXZPSrUs3n66cnM8fAR1n7F9qb4pi6FxH5mLIIUucsr6mlDKq6LAa0xojkNwoxAFDVql+4BVD6Tpl6uTxaxt3EF2EqiefjjNWaV0x7FKnTJ08Ku3kCF0XreLkYwKxcVUhOtnprqAq0+2MuvmCysv5CyNQrKkmr8Gbij17Sa0rayltT7cu3Xxs330RqFsCCUICQfKqGKGuoevmU5GN06ohUG0RSBAb4v6hZhvVnNoYgThG44x8cv8fFKQgBl1ohKUzUuMOElSb9ZU/H3mYnOY12T+ClhU0v6x16Najm09WrnpKZ4RAvMjCtJM1qfSg5GZSlkLGpluPaezrqUOYbms+HerqNp98psozUY7u9Jcq9rqy6uZTla8e0gcmkELOyqQjM6V0UzKZkkeWQFQiJVNtrIcOUMw2FrIR007WhD2aKMNrPYZ+p2K/uTrJN+DTlZf7hzmrD0QgMoqQSSPTHF1jcZdtoox85RW7g6iUbwpzGb1wmvwI+NmbSRLxq8tPTyZlMUkiJgeoptvoh2k9fG+EQPycmwmHVmkdxDGOoG0rVgfx00k9GHc52yhrr7Lp/NoSpBwvxxo0ashHIrLlyjh71TbLlOmHM3+fjYA2geQLK70ADupkvYxRxUEWq4N4kYhuB/FqT5AOooIPdwqzCATRm6z95JvmcX6vov98/UMWFZWrf2TL9EqXW08QuVXwCSJzrefVIhAdQtDJk2+6SLWTBTE0lbp06jHd+bhjlL/Lqtq6iZGxKmkV6luqCPrZnE6/yJVBZoClIrefzCpl1XNaLQLRASyIgevUVwl5itFmv87IHaP8mlclkKARdtD8fjblh6iszenUwwMsP/TL+33JCKS8zeTaGYHKRqAYg43KbnHfSyZliahQu/xIykQdlY5rKeVjAikl2lwXI8AIMAI1hAATSA0pk5vCCDACjEApEWACKSXaXBcjwAgwAjWEABNIDSmTm8IIMAKMQCkRYAIpJdpcFyPACDACNYQAE0gNKZObwggwAoxAKRFgAikl2lwXI8AIMAI1hAATSA0pk5vCCDACjEApEWACKSXaXBcjwAgwAjWEABNIDSmTm8IIMAKMQCkRYAIpJdpcFyPACDACNYQAE0gNKZObwggwAoxAKRFgAikl2lwXI8AIMAI1hAATSA0pk5vCCDACjEApEWACKSXaXBcjwAgwAjWEABNIDSmTm8IIMAKMQCkRYAIpJdpcV9UhQA8U8SNEVac2FrhECDCBlAhoroYRYAQYgVpDgAmk1jTK7WEEGAFGoEQIMIGUCGiuhhFgBBiBWkOACaTWNMrtYQQYAUagRAgwgZQIaK6GEWAEGIFaQ4AJpNY0yu1hBBgBRqBECDCBlAhoroYRYAQYgVpDgAmk1jTK7WEEGAFGoEQIMIGUCGiuhhFgBBiBWkOACaTWNMrtYQQYAUagRAgwgZQIaK6GEWAEGIFaQ4AJpNY0yu1hBBgBRqBECDCBFBFouogv9yN7MZ9XXipLNn8Rm8VFMwLGEHDbuapt5/YR1fzGGlHHBVUEgQRxtI7uTJQRxA7yOXyZMr0MnwlEBrn6SRPE0Xr1kXI4W50+UkhOJpDy239NEEi5na1Ox/BSvbuzlLtN5TdNlsCNQFACKbezDdpHZAZZ5SDFerfSiiUQlemacjnboJ2iEImUq0313iEqtf1BCSBofl1cTPaRXIIoV5t0sajFfBVNIDIkUi5H69cxVEJvt2E5+crVrlo08lpoU5Ap2nI52iA2LNPecrWrFuzJVBsqgkCoMTrGppPHBHCFyEMljC7UScrVNhP4cBnFQUDHYerkMSG9DAHI1FNo6q5cbZORu17SVAyB6JBIuZysyXrzdQKTddSLMddDO1Wdpmp6UxiarNcpi6ewTGnHXDlVQSBeU1nlcrClqlemHlOjPHPmxCUVGwEVnZt04irtKlW9MvUUimBU2sRpvRFQJhAVA3aqVMmj6zjzrZcUmm5SMYpSr00ElVtlKk0FB07rj4CO01LJo+o48/WNQv3Tv5W9KcoVGej2Ee4bKtotnNYIgegYqM4is44T1zWyXNgK1V0MgzQhdzHkMmd6tVuSjIPPbb0KgXhN9wZx4kFtrVDdxbTBIHIXU67atey+LSs6gchEFIU6k/s7UrpqeUGMLGjdQQzJpNxB5OC86gioEohqej8CUS0vqK0VOr9UTEdtUm51LXMOYYcZDQ3LOnHZdF6qUDUOjWb0qdZPXr/vTZqUX/v9Rpy55GdSNi7LHwFZJy6bLkgfMdE38k13+dmhybpVBpqyeBVTPn8rqf4UWgTiNQJyoNCZZpJVdiG4gxqCDDnIpDFlEjp16eQxJS+X4xHe59yFZtrZ+g0ycvtkUB3JkJ1MmqByyJKZjF8J6jdMtaVayzFOIASEzlSTjLK90pgyABnnK5PGlCHo1qWbz5TcXE4vAl66MD3dU4hETPUNFYdd6QTiNfg1jVM99QFtAikUheQDUEdRfqMsnTJ1Q+FSOmfdunTz1ZPRl7KtfvZrIkoohc5liUE2nQkd6Nalm8+EzLVWRiACUSERXUdfrBGWX8f2krcUHTXfaE/W0ZRSxlrrDMVqj46tqcjiF+molOVOq2NLpXTOunXp5tPFsZbzBSYQGRLRJY+gzrSQ4nQ6tU6H0jUe3bp08+nKyfnkECi2XorhFHVkLoYc+RDWrUs3n5ym6ysVE0iOvguRnU6H0jUn3bp08+nKyfnkECi2XorhFHXK1Mkjh2DfVLp16ebTlbOW8xkhEL8opNIiEN1psWI7gaDTB4X0EFQHtdwJStW2Yk01eek9qL51ZS2lc9atSzdfqeykmuoxQiA600EqIJl23EHK0+1YKu0NQgRB2qYqI6eXR6DYejHtFIOU584blMhUpqFl6wrSNnmN10fKwATiRx4OjLLK9YLdZOcLWlbQ/LJmpVuPbj5ZuTidOgJ+fSRI33CkMekUg5YVNL8swrr16OaTlaue0gUiEL+OkQukbkcx5RRNlKM7/aVqVLqy6uZTlY/TyyEg20d0+4ZpAjHhXMsVpctiaKKNctqv/VTaBFLIUZl2siacookyCk0t0XeyBuw2q3zGrCtvqTpv7XeN4C0s5KhM68mEUzRRRr4+otM3csnR1El+dzuDyBXcQqq/hKIQiGlHq+tM843O3GrTMSBTBFnIiag6GFMyVb9JV04L/Byyqo4LtcyvLj9UTMpikkQKOXtVIjDdRj9M6+F7LQKRdeiy6fyADlKO3xSCDoH4EaRfNCLj7FXbLFOmH878vTkEZB26bDo/yYKUo2prfrL4Ddxk+pyMs1dts0yZsm3jdBYCygSiamyq6b0UE6QMPwKRNQSVk+myZXqlc+oxIbdMRw0iK+f1RiCoY9PRm2qdbsmD2prO2Skd2/GbwlIpUwdjlfLrJa0RAtE1IFklViqByEQiKobkxiNop/aLglTk4rRqCJRjaqVSCcRUHzE9gJP1PWqar7/URSeQQgYkq8RKJhC/cF3GpLhzyKBUPWlUCcSrj8j2jXz2p5I/6GBFti6denQHp/msRVbW6rG28kqqTCA64gYhAJ36KiFPMdos2wG5k1SCBajJECSCUKupclIXo81+fYT7hln9l4RAzIrMpTECjAAjwAhUAgJMIJWgBZaBEWAEGIEqRIAJpAqVxiIzAowAI1AJCDCBVIIWWAZGgBFgBKoQASaQKlQai8wIMAKMQCUgwARSCVpgGRgBRoARqEIEmECqUGksMiPACDAClYAAE0glaIFlYAQYAUagChFgAqlCpbHIjAAjwAhUAgJMIJWgBZaBEWAEGIEqRIAJpAqVxiIzAowAI1AJCDCBVIIWWAZGgBFgBKoQASaQKlQai8wIMAKMQCUgwARSCVpgGRgBRoARqEIEmECqUGksMiPACDAClYAAE0glaIFlqEgE6G0Jfj+iIlXDQlUIAiEAGZKFO0qFaITFqBgEnMeJuG9UjEpYkApD4P8BPG92fSN/qBUAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>6gh2f</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CbgUxbX/b+Zu7ALuoDzNF0WiyTOaF9ckoiFRuSIYQVQW17hAxGgEg764EJfnHqMhQf8qRCO4/GMUd1Ti8l6icYk+d0VFUBE1bBe43FneV9XdMz093dOnqqtnuX3Gz+9y71SdOud3Tp1frd2pfD6fRwwfR2gqBtm1FGnOrpzHjHQtzVJu2xwO/k3HLV/ZYK7ACDACZQikmEDUosJcYmMCqYS8OZzV/MulGQFGgI6AQQJxEqKpkbRpeXRQElWSM3Wi3M3GMgImEWACMYlmI8piAmlEr7HOjEBdIGCQQOrCHoNK8AzIIJgsihFgBLohAkwg3dCpbBIjwAgwAtVAoPsRiHdJJmCJJnTlJqRAaP0A7wUdeSs7reYt2HDH2ao1g6tWO9XojtwGI9BYCDCBBPmLCSRiJFcrsVernYhwcHVGoBsiUBUCEVdNUinPENpO0Hn4fFdToE0npMY+rltTV3DjjAAjUNcIVIVAfBEQBCLuMKbV1mZ8ycjVQND3YfWKIgwTiLAz5SaR4GPOdB3Nx1Qt2zZtTXeyxTQ2LI8RMIlAZALJw0qOKdiJUXVzQLW8j/XOZfqyWU7QPoTPjMhrR1KSUA5ZpOR/pcRmwC0m45RlMQKMQB0iEJlA/G0SpJKGk5SdMtZcwzMCd2UqatKWVcTspbAsVhzh+7YRAny5nqYuQ/o3LCclyMF/n1ynbQtvSDJX+1mEv0oEEsRMFijFDzNYHaYLVokRKEXAMIFYiXxtxxp8+OFSrPhiBTo6OpDJZNCjRw9sOXBzDBu2K/r07lM24g1zjDvJr/hyJT5dthxrOtZg7dq1Un7Pnj3Rt29fDN5mWwwatB2am5pLyCpooUzInXDcBORTVsY6/NDDMW7sOGX9yvT37PFYv+bQsb4DHy37CCtXfIZ169cjk8mid+/eGDBgAIZ+fSf06d2vdEYXNIsq/F1grk4cRaKxSN2ZgZTn7dIlvbIZZ5jjBFHmrTmO7yfotFnYabowglFbGQ21Io4C3hlzHI+lc7ehK78aevrha0L3OPzGMosIRCYQZ9aQy2Xw12cWY/HixXj/wyVygiAnCnZiFilKlB0/9mi0j2xXSNDWSP2jpR/g0UWP4/XXX8eXX35ZsMCRj1xxMz6dbsJOXxuK3f99D+y5554YNGibYvpy9BITmDSkbItArER5+KGjbQKJGCauBPf++x/gf/72N7z62iv49NNPkZNt+e+LfPMb30R7ezt2+8aupQq4E62dHMWfJk2eJOWl89bMIydmIAq/i0bGjPkJjhg9poipZzLgRcI7WSAhlQcOPviwshmoHR6FmVPeti0l7RHxYy+RFuLJas2pJ8qXzlxzeOSRB0pnMyQFq1OIssxqKtFTLKK0VQ0CoeDi2EPR2SmrIrcSXiptUnAPI0xdGZR6Jm2JTCAiab359hu47Y9zsWz50qL+hQRgE0k+L8e5oQRSMrLMYfmny3DH/D/hlddelie5pPH5dEkCsRKKyDyuBZlcK4Am2fjQoUMx4qAfYa+9dnfpZ/8zBUyadCKyaavuqJGH4aixY9yibAOK5a3MRvv9pZdfx7W/uUbqayVH75Db63Irg/54xMGYMGEsDj74cLt9ixiKCdeSZyVYJ6Wr/xQ+yeUE7TTb+lkJWfxdaltI6MV/exN4eNBaJCATu6zsxIRrFbKbL2GpJDLVDq4iO8hXldqMm0B09acueYfHZ32UUPV7PWgdiUDEcsbjix7F3NvnWckmbSW41pYeGDZsGLbeehv06dMHmzZtkiPvN954A4e3j7FnID7me0bZz//jBcyZMwcbNm0oGYlutdVWGPr1oejbfzP06tULnZ2d2LBuAz777DN8+OESrF+/Hp+vWFW6TSIWUaR8a2TrHsEKEnQIJC2WW2yCEoHt7FQUyzsjYmeEbOfEshGy2AMSmGR82rOyZYEQCwTgEIyVYcX3jzx0fylQHowmHXcS8nlbp1QKTU3NSKdt3ShP6s/lMHr0GIw67BCLh5ytECJBBq1MBQZ3AywtmeyYOslRJZHoyDdpX61lhWFlCp+wdmqNQ63aT+VzdpapsERd+Mo1ShTk8djjj2HeHXMLuvfr1w9jRo3G8OEH2XsQpWZlc3m0HyJG1E1lSxDeEa9I6oXRrzPzcIlzljiccqW/53H00Ufh2eeeluQjyoglnnlzby/Ld84SlrOkNGokcQlLsoPPmQBnb9/G6vkXXsR1v70OW26+OQ74wYE44Ac/wIABmxUmDe48/c/XXsXsObOxbt26wrLMxRdcjB132NGawTiyXb469rgJhT2QUSPbMW7seOWc7hd8JWcUahWdvorZfyQTkeFj2QpYBCUvldG+QnORiwbpVc0ZSFiiVtVFtXxkEBMmQJNAcljy4Qf41UW/kqvu4jNku+0x/exzMLD/lpUhdDJmhRHum2+/j8svvwzZbBapVFpukJ8xdRp2222nouyA+jJvy6UdYF3HGtx737144olFQDZvE0jxtJGzITzhuGMLZHX4oYfZSTjkNJSr/UpT6ddefxVLlizBoYceKkm10nFZoc8b77yBSy67xLo7kk/jwAMOxImTT/TdM7IOABxrzfxyabS3H4bxRwoCceuunkAzyGADNqILXcGb31XuKPLCqcsy9w5SK7LohYw82Vb+yQJoAdAG5FuALrHxlQbELE3cQRI/xWZYDJ84k5cp2ZSNalNtBUFcnInTnKCij0pZWutcyo2A1hJWNp/B+Rech4+WfSg74+YDBuKSiy9Fvz6bFWQrr0/aI/YNnRtx1jlnYc2aVVJWa2sPXHD+BdhhyL9peU4k2SUfLMEfZv8eV1xxRWHKIEc69rqUH4EIRinpXJ7kFOXehION96cwUOh78aUX4+1335b2brv1trjq8qtk6vRi6pwgE7UEYY5qH4WjfnKUwgEFf0jXYh1W4FOsxVrqVk9h1qO68kUpf+mCS0vkS7/YE2dRf7NNndh+7Tr07+wqXtq09+DkImS+J7L5rfD8g89j8JpWtHW1YVVbC2YvfhpoawHkiT2znzgTVxyyKyXxONqLgraKPiplo+hUy7qmlum8NoTNBkV5LQJ55rnF+P3Ns61Rez6NmefOxK5Ddw1MXCQykQSSw/0L/4IF99wlZYv8fuKJJ2H494aTkqK7Hcf4IrgikYiTWtbGuvhkkcEmbMIxpxyDruYueZpp1MhRGHeISMLWpxOdePO9N7Hyy5XYsGGDPCq8445fww4DHULzH706I2b/wHIfu3VKOPc3gHn3zcOjix4tEOgt19xszwS8beUwccpE+1QX0N4+CuMP1iGQ0mPAG7EB0/84HRtbN8RKIKl8Hi25nPy/NZtDUz6PnA28faZB/j5z8szCnMo7nxK/i9nHMT/5AXp1uY6PufaKcvk0HnjgZSDbB1jTCnS1WcTRYv+MmUAoHZGagPyShUn5fnpQkjBlJkO1MawcRR9HhkrZsHbd38eVtFV0cMpS/B+mL0WGb2yovtJWjHovuXQW3njndbkEsNuwb+GX5/yyPMHbhFB2cbACQl3ZTfjZmVOxZt1aSR477LADfn3hLHv0XTojCAc6fOlGkMNarMHo6WOwrucabGruQvvIURi/xzh8gk9w32P34YUXX0RXl2tkazc8ZPAQTJo0Cbs0D/NVxSEg7wjbKlw8LVX8PoVLFlwqv80J453Hn+TTVvKUdylKD3+JI8zFI8EWucjjvHZZpyXxs7hlUKqR/C2VL5xiEwtFPbracOWEq9ADPQNgNvN8rza59LQRyHYCG7uAbKaoqEvNaSNG+Jy6s06LiRhc39yKm555FnANDkoVFzOMlqotYcWVtKSrPM+U0+344f2nWMKvzbCEpJLcqLpQ26TKi1KuGrhT9aPgEpe+SjOQDLrw4boPcOaMaYWR4rSp0/Afu3y3bN3dGStbqaZ0Td4anRdnAs5FuNc+ehX/ddXlyOfFunUaU06dgn1328dOfyrr1H5r4eX1hT3r0YH/nHs+NrZtRKZJ7LmkkHeGwY4H7f2I0mdaWbOvgnWuBC+Pwdod3Z2uizMkF4EUjsmmMPOomZJarn7gGrz8yotS9habb4XrTr/Wd4lI4DhhVnETXdwfGf/t8dYJL1v3cgLzIRB7f0EuhSGFPuiLbbEt+qJP5RjOZ4CuLJDzw5sQ/tkckOnCWcMPRK9MBi1ZcXCi/JTbhY8/XvnYdFsr0KcP0NpGaDT+InEm+ThlByFDSVDxo2oPGBRJtBZ4mcYiDP+4yIFiR5FA/IfKJTLEaH3BB/Nxze3XWokzncbvz5uDHugh7w14R8h+I2CRosTnsgWXyZ/WYaacRUDeEbV79O29WBaQIL1miE1+4QDrnkhpHkpnm9Aj04oPX/1Aros3Z5vto7WibFr+e6eddsKOO+6Ivr36YNWqf+HlV/+JL774vDAS7NevP66+9Er0Qq/yI1mBHihfwhLzDKFrBlmcPmMK1q1fK2vvtcd3Me34abDnIZ6dmByOnXqs6xTWKBx1yFEhevjNzEqXsJrRjJ7oAfGz4mdTJ7B2HbBpU2CCv/BHI6SI0mPT1u9dTWl0NDXh2sVPAc1t9oa2BhmJjfAmsZehMsigdA/1MqYSVljSUNesdjVMJzgVjFXK1gIhip9N42fSTmUCmTL3dKztLZaYrHsO1t04J70V71eXzkDKF7LOG3eeK6FbaX/WXbPw9ttvyv2Pf9vua/j1cb92bm24HrVhj1AlGRQ0qLCJa8l2xuTWb9aJnla0ojd64rQzTkXvDX3RmhWndcQh42bst9/+OPzwMdh6iy1LTiJlshncMPsGvPDiC4XEOHHiJPz4oB+T9mm8zivMSmxTnv3vZ/C7m2YXqO60k07D9/b7vlWtaK79q/cUVjvGHxlGINZzuCAmebm8NXsQ90io53ZtIpezsa4spn9vfzl78CMIoeQFix4v6m45ovh7c9qaNYj/29rqggCidi5KQqC04Zc0apUMg2yiHvuVoUu5k0QBxjMDCZNbK8wcU8LiIUx/IiQ1K+ZawgrfM9iETpx37S/xv0telwlj512GYrtBg7F48dPyNnPFTzqF4T84EJN/MhEt8lil+BRpRpDB9Fm/wPLPP5Hf7LPX/pg6YYqdb2gjS/+Na7dd1r+dJTQhVVDf8Scfj+ZcWu4fbDFgS5x66mkYtpPY23Bup5RatmbdakydNgXZvLUxv/u3/h3n/Hx6CIEE4+uQyPqNHZgxcwa+/Jf1qBZxr+b6q69Hqxid252wZLPSdYy3ELC5cKzachn035jFcSNH4luHtgMZQSC2hEKCz+GiESOQt4+4+hHE+uZm/NezzwIt7uVIhVgWsgvHaZsDHj8SHpcKLcZeNCxhhClQKaHUKhnqtKtTJwwbOf5Q3AOK4o+w5E6RHSaDYnM9l1EgEHEnO4ezZ/wCn638tNQm16NFJC2k0yWEImYUWeTF9UHs/PWdMf3s6ejVo7dLhnXf+5QpP8W6DdbSzUEHjMAJk04IHdV7n6QbBHb5vbPi04LFMV6hgQiIw0b63aXwmIscLph1Ad5b8p7c7N68/xa4/prfahOIRWo53HDj9fjbC38v3Os46aSTccD+B5TLFXsH2S4gl8EZkyfIjXSBrdi6cU4vVQq65lwOfTI5rFq6DL02daEt59zSdz+6JGfPHmxC8jtvK/Ye+sa995AsAnEGCn7+U02ephKPTrs6dcL01ZFJSfJh7QZ9393JgYKL0ia6SHKnn3EaVq9bVdhA7tOrN/bZZ1/sufueGDJkiDzmmk6l0ZXpko8WefnlF7Hw4YfQsaGj8NC/fffeF1NPmWLJkJndIpBJJ0xEJi8urzVh5CEjccy4Y4qPHvGxRuhz/oXnY/ny5a5v8/Zx3dJncohHlPy/m28tmdH4XST0Eojf1pCoN/um2XjuuWdlsm9r7oFb5gjZ4aN/P6cIeff+5V78+c//H2jKQ+xNf+fbe+LnZ57tL7Ow97ARsydPlBvPAsZUOo3mpiaJ67KlSyUb+B2LzTY1yb2Hk886G7uOOcKaBeh8qrD3QNiaszW3iaawxKZjUPQ6JpZ7gkgk7gRKXZKiJE4dXSuh74erjh4qHqbIV5HXHcsqE8jxJx+HTeLYZT6NPXbfA6effjp6tvQsv2Ftv7RJJMcVn6/ApVdeii++/Nx68Hg+jQtmXoChO+1SwFS82OiEk09AV2YjxKP8Dvr+cJxw/EmhBHLu+edi6bKlxamtWNd3v+XQPtXTlG3CvLnzkHJtDBcJxP0499Kb6H4JTOj6pz/djocefVgmfHEL/Pbb7ggnELHXIJb63HsPAP65+AncOvdW+/QZMHjw9pj+nxcCPXqV7k04+xRi72G//dArJ+6ulB75lTPAfAry5JKb0NyGiM1msefQ2mLtPwTcg5AdyF4yKN7y1iSbCL3Hs/UTIKk+CYSahCgJl1LGC47KCLyRCCQM1zC7w+pHCNdEVaUTiH2vY8LxYskkW+HRGZ7lHvvG93vvv4MLZ11kLc+gCT8+cAQmTZhcvBmOHH7285/hX6u+kJvoe317L5zxszMrJmVBAIJAli1bVmhULOGIUXfhybd+BGJnJAqBBM0YFtx1Jx54aGFhuckhkOJRXbumO3GLew5i9rCpC+jsBMRS1H8/i9/P+UPhgYgDBw7Em6+/bt3lEAcVPMdaxVxN7D1c+exzcu/hzOOtY7yi3cNGjsIPxx1VmB0GRnLJ3oNYylO9Y1OFPkJjjXBFAqYw9JlNeBPuEjpJ3qkfVjfsez9NwxKpu069EoiKDY49ji06mKl5PNmllQnk+J8ej86uTXITfeTIdhwz9mjS8VWRrGf+aiaWLv3IOmU1aHtccsllSNv3QcT3F11yEd597y35/bZbDS48wqOSiywSKD2Gar0XA1hw7wIsXLhQ7lOUzEAqEkiFF0oV9h5yWHT3nXjgwfsLx35/c9sf/XEoIRD3vYdNEHsRcgbh+hRmD+7TTvIEi71RLdaqxN5D737It7Xg2MnjC7Mg8Syso48U90Dcz/uyhHv3gOJKoMa6kykFE04glfxBTa7UcnERqdcGldmDju7GYjgBgioQiH1iyfVMKJGsp509DV989YUkkBEjRuC4Y48jE8icW+bg6af/Kgmif+9+uPGG2SXHc2+ZdwuefPIJe1TfhBuvvxH9+w0guKGUQBxSmX/PAjzwoA+BFCYHlo3ihVIi54rArPhGQtfew8d334WFC+33WwA4be4f5cg/7N6DmD1c89STePO5v2LOvHniQfJSh4H9t8CMGTPQY9vtyo7rlgFg7z3km4BjJx9TkUBEXfesKDQvhxYguKMKRepVzSgJK6xu2PeqsFPlUct523fXC5oR+Olscvagq7sqlkktH0ogpaPZHGZdNgtvvfMWkM/iP76zF86c+vPQtX9rLT2P2+ffjkceeVgSSGuqGbfeMreEQP7+/P/g+ht/W0iIkyZNxo8O/FHlZSx7r6VslIIc5t8zXyZ5cUWvLQvcfOs8a9nIPehP5TBt8kRZXegpHkj4w7HjrXUwsf7vPFJEFCjZe5A1Cs067xG54PHH7McB21957z20teD5RY9jzn33YIO997D55pvjvHPPx5ZbbmnNyIjLN96n8VovwyqdgZTj4j8jKZSr18zsMaRe1YySsCh1KWWoyYwqi1pOtBu23ESdPai0WcleU3KomCatHH0JSyKTw23zbsXjTy6Ss4Rtth6Eqy+70k7wlTdXRbK7+babsXjxU5JAtthsIH5zXenR1w2d63Ha1FOtTXoAW2+xDa654moA4jHo/p+gRCLacwhE3nvo7MI1N91iP3PJJhH7BJg4ySQ+4qVX4uOQgaQI1xv53PcenCUsS6s0CktYlTJbKod777wDC594DJmmJvn62e222x4zfjEDA/qLmVb5vZOiuPLjrGL2MlG8jtd+nLuXQIg8lLSYj9XeKAmLUpdShmogVVYYKbjbizp78GuLSjp+dlNtpGLG5UoRUCaQ5//xd/zmhutl0hJLNldddgUGbTM4dBlLJHTn7oRY/vrG0GGY+cvzS2YXosydd9+JhQ8X38J35JhxOKL9cGCTfWvaPSMoG14XTw2JrxbdPR8PPPgAmnMZ9O7KYfVHH6N3Jo/WnPXmRIscrH0IEaSDBg2S7yPffqxrI9o9g7DvPeRbW3DX3fNx/4MPlG2iFy/klV5g7MpmcOONv8ULL/2jUGfnnXfGOWdNR88e4qGF9psSFUbagTMQ+3g0E0hturvf0g1FE0qyM5lgVYjB0Z+azCm2eDExaZsjW0cPiq+4jIWAIoEAnV0bMXXaVHmvQ3z233d/nHbyaUUicGUt55/i4Ygrv/wcZ0//hTzBhWwKRx05HqMEMbg+ovzqjtU466wzsbFrvTW2TzVj1ulnYMcdvg50bip9FIZrWnLRD61nLjkzBkkN9vvCu5pS2NDUiuueWgw0t7juPeSkPGsJyzrJNKp9NH44dpw/Ibr2Hu6+ZwH+svD+cgIpI4Ac1qxdg6uuvVK+WMqZLezz3b1xyimnoTndVPKI+TJOtP/gNwOrTCBmnpgbd0ep16WoKHbrJi1qPWo5tw0UsqjlKaw4yEMmOMWb61H8nsS6JAIp3YTNoZA8xc1npDBlylTs/Z29PbMJ+wF6uYzcL7nl6ivx6isvyiQtXhJ15ZXXAJsNKB45dc0sXn/uacy56Q/26Sqgj3js0jtL5DOXyj/WezQufOwJq7y8USepBx/fNR8PPrgQG1J5rG3rhV/NX+C69+A81kQ8T2qivDsiHscyWrwPROwjeF4oVUp0xeUxhxCC7oEs/3QZrrj6Cqz8akVBRPshh+Fo+epZZ9kv6J0ixVaTRSDOoYjG7JI6SUu1DoUQSmI24FlUlNmSqm6qiTsu8lDVozGjrbZaaxCIeADrapx73rlYvXqVHPGLUfQxx0zEiAMPkrfQnU9KXJr74gs8dNMf8PYzz6CHuGIN4IgxR2Lrw8cUbqJfWPa+Byu5O0dcO1qa0Pq1HTB42K4YM2aM/Fm4PS2Xa6zlNGfDO7NyJV586R9YtGgRPv/8M2RTaWRTKcy+/U9AqsX1ClPr8SyCQJyZC+WVtoWltoesE17ei4SScAWLpXI4+fSfomOj9XgW8YiX4yedgAO+P7zwdF2q+/1uuetsolPbq59yjfUok0Lse0a+4u+6I3wVsqAuMakk1zgJJE7yULGxfuK9sTTRIhAx0n/n3bdwyeWXIiOexCpuNueAbQcMxN7DvoEB/bfBV7nNsHzpCix/6SWsevcd9BPPXMpmCs9qEpfkxNsBRcDPevzhUtTsta/PFz6Ie++9G1+1NOGjvn2xWrxFDmn06tETQ4cOk6eW+oj3QADybYErVnyKjz/+GCu//KIweyl06Dxw+9wrfb0zYfKMwoW9w0aOxvix+/mWcz+w9s57nsHChcW9mjtuK5Xt7LFMmHxO8TJgKoXm5lZ5QVDueaTEklwn0qlOpNAJpCyCFZ3Kmwhuvan8USleAvG7B9JY4einbWMSiF/y0vVFJVJQIZew9nUJzk8ulXRM6W9S9zCc+PsiAiQCcUZPjrOtdescXvnfV/C73/0O69d3yCWgfhs70fbue8hktsJDH/bH6qbBaMll5OtKnY3r4r250mUb9ytMHfWspbO8fG+EOAHVmRbjerteKo8DDjjAP9E7MxI7Ge+5xx4YPnx77P5NV3HXXs2EyfdZJ2dTKYw6tB3jxrqeLuvaRJcEYnEl7ro7Iy8Syk8+jTvmji45fuuoIGX7bfwLAk13oCm9EunmFWhOfw6krX0f70dg5rdERiKQ7rjJ0EA92FSCjNtkFZKizHKYQOL2WH3IJxOIV12HRL7611f48/1/xrPPPoPeHR3Ybs1a5HLb4P22vfBV82C5VCNOGx15xC4Y5n77qyexud7gaidlu0U7gb/5JvDkk5/hjbfewurVq+WXTy1+0neTzAleOZK3B7Bluwyum95yqcxew5KvhLVfgCT/5FXM/l2KFae3nPclisKuZTTn396b5gVylIS1Een0Ggw/cA80pVfJ2UgpedrG51K4Y94VvhHjzJ7ErEa+kXDs9wrlPJfcSw4Y1Ef4qWkh0RD7bmJ10P63moTalKaQCCUph2lPaSdMRqN+zzOQ2nhOg0D8NjhzcinrvTffQMenn2Dt2i509RyMPgMHYejQQejXL9w47/smKtVYsQL4+JMVWLNmDdavXy83v/v26i2fBLzDkG2x5Zalp7HCWy8v4eIUnepldbxPxRUF5DMVs8CQ7Scgm+8H5NsK+z7iLoosYyviEJuX0ORJs1Re3l0p+bgfhSK+CPrdq2kAYVLqL116te87zWUT3plQ6RNcilq4X2vp0U1sK4iHDTv/+2wzGPFVNYT4LVOabpc6CzDdrml53YUYTQwSTGMbVV50AvEkBucBhbqPNqca5H0PSKG9mi3ZeNfqS3/3U0ssiWXFqeasPKiGrPviRlDCDXrZeUB5P+IqefdwGYHYf6C276o/ZMjZgTM2CgFJUa7lR7dqovOl0xvR1LQCy5ffK0mkkQmEGudcrvsgUC0irCZRaRBIdIe6jwWrS4u2qRrILzETj6948UexeiZmIiUPRlFHpV5qUN+Mq6Nvoy5h6djKdRiBRkDAGIFEIwUVqLoRgfgt7ahA4bMyVP5WekWBisXN+T2aXxXV5uKMACNgAIEIBFJ5yaZszdtZGXE9/LBwX0IuXZRa47/kY712lvTxrrETqwXLDrncRpzBlBejJk5qORI6DVPIHEE1jMmsKCPQMAhEJpB84ca2J8F5HsQUmAgCEi8xHwcDzQRSlSDkBF8VmLkRRqAuEYhAIEV7KiURuaGTEvc3Io6glRklYnskd7lnJRHb8x5GCHhMPUmthipEw42JqqGcysomBAEjBFIJq2JeLH9BlRLGigQiHuBoLXfF9Q7vkCU8JeN8NzNUJTRoeRqBNKhxrDYj0K0RiJ1AujV6bBwjwAgwAglGgAkkwc5n0xkBRoARiIIAE0gU9L6IvRoAAA/TSURBVLguI8AIMAIJRoAJJMHOZ9MZAUaAEYiCABNIFPS4LiPACDACCUaACSTBzmfTGQFGgBGIggATSBT0uC4jwAgwAglGgAkkwc5n0xkBRoARiIIAE0gU9LguI8AIMAIJRoAJJMHOZ9MZAUaAEYiCABNIFPS4LiPACDACCUaACSTBzmfTGQFGgBGIggATSBT0uC4jwAgwAglGgAkkwc5n0xkBRoARiIIAE0gU9LguI8AIMAIJRoAJJMHOZ9MZAUaAEYiCABNIFPS4LiPACDACCUaACSTBzmfTGQFGgBGIggATSBT0uC4jwAgwAglGgAkkwc5n0xkBRoARiIIAE0gU9LguI8AIMAIJRoAJJMHOZ9MZAUaAEYiCABNIFPS4LiMQAYFUKlVSO5/PR5DmX9Xdhq78aujpp70J3Y0DygJLEIiVQKoReCaCrBp6cgfhnicQ8MaaHyqmEj0FcUpb1egfFFwceyg6O2VV5FbCS6VNCu7dpYxxAqE4TNcZFNlex1Da4g4CUHDqLkFfCztUYlfVFyqyg2yv1Gbc/UNXfwpOurJ18kgt4qrWbRojEOpMQJSjON4NjIkgqJcOEmY7FcegEVaY/FoHXNLa14ldFR/qyFclkXolEGFHGFam8AlrJ2lxXcg/+YjIqCY8VaAd+bpqUvSrRgdR0Z+iMxOIaiRVv3xQ8gobzFBixVRidKMS1G41+gd1eUpVF9Xy1Y+Sxm4x0gxEJdGpwmRadqWZT70FmYrt9aa7qp+7c/k4fWNKNiXWTLUV5GvVVQkVfVTKdudYjMs2IwRCGTGpGkAJbFWZlQKYMhIz1V6YHJWgVykb1i5/bw6BOP0Sh+xGHWCFLWPFgZW5KGl8SdoEEmeCj1O2n8vqLchU9FEp2/jh2jgWxBXDfktXcQzg3EhTYiwue6P2V4rujRNV9adp3RFILRxOaZM7SP0Fb71qRIknXd3jlK0yQ/cjMr/6cZCbCgYqZXV9kuR6WgQSZzKthcP92uQOkuRuEc32OGM4TtlUAlFFxzSJqGCgUlbVLi4P1DWBmA481Q7SHU+lcNDHi0CcCasWy1cCLepgKghZ0/1YBWOVsvFGRveUrkwgcTokTtmV3KfTbrVmYWGdT0f37hnK9WFVnMm2Vr4Osok6wBKeCYtjFe+p9L1aYaZiTyOXjUwgqsaHnYF3yzMZdHESSFwdhGI/dxDVCIy3fBIIpJZxqRrvUfxBsTPeaKp/6cYIhDoaYQKpHBQqo6uoywvcQcx30CgJy9HGRF8yaZlq0vaLSxOxZkIPFVxM6KzSXiOWjUwgVJApiVEnQEyArtOuTp0wXSkYeWWoLi+E6cDfR0NA1R8q5XViToXQTBKXjq4qqwTUWb+K/d72qbktWsQ0du2qEYh3VOLnHJ2gUwmQRuog1ODVwayxQ7a+tdf1B6UepQx1gOGHYhL6R9gsr76jq/60a3gCURm1NEoHoZJHXEsF9RemjaORTpJ3rAurG/a9H0rdYYDlZwO1j+hg1jjRVntNa0YgflNQ086myqOWqzS6owZ0pU6uI0NX99qHXvfUIIo/wuqGfa+KKFUetZy7fZ061NmTSj8xoYcqrkkqX1cEQlnmUnEONXio5UwTiLtdlU5huqOqYMplKyOgG0uU2WQU2ZTZickZuom+bMJeEzI45oMRYALxuShFTeZRCcCpT20vShLgTlAdBKIkLEpdShmqpVRZ1HImBzY6bXL/oHreXDllAokysqAEBaUM1XyqLB0ioMoO0tUEeVBGrVSsuJwZBKLEBaUupQzVEqosajkTBOJtS8jkARbVo9UvV3cEEoWgKi0xVQrEahKITluVwkKnc1c/zJLVoq6PKb40mWAp7en2R6rsSqQTlTx4gBV/v6sZgYSNKnQ7YSUSoazxhunlyI/aQajthIWAjh5hMvn7aAjo+oRaj1ouzAqqHGq5KDMQk8QYRY8wzPj7UgS0CCTqqISSPGtFINRRj2qnMmWP7iyLA796CKjGhs5I2S/hUmM3KMFSBljUNlQwiIs8dHCtXpR0j5a0CcTtnDgJQSUQ/VxCSdw6bajUUSmrGlZxylbVhcsXEVBJijo+NEEg1Hap5XRG/io46cSXju467SS1TiQCoc5EojjRVF3Tz+Ci6sUdJKldS/8x6JQBmYNqEJHooF6LGYgp/U3qroNdUutEJhC/aaIfmCqdIsgZUYKtnghEJ9i4g+igVvs6OjGr0ld05Kv2T+pgydQMRMdr3D90UItexwiBBC0dqXQEHVN0AlunnbjrUJIAd5C4vRCf/Cj+VdGK0k6QPB5gqSDNZQsz4HzcWZ6xZgQYgTIERLKPu+vxAKt8GTFuzJMW6rHNQJIGJNvLCDACjEDSEGACSZrH2V5GgBFgBAwhwARiCEgWwwgwAoxA0hBgAkmax9leRoARYAQMIcAEYghIFsMIMAKMQNIQYAJJmsfZXkaAEWAEDCHABGIISBbDCDACjEDSEGACSZrH2V5GgBFgBAwhwARiCEgWwwgwAoxA0hBgAkmax9leRoARYAQMIcAEYghIFsMIMAKMQNIQYAJJmsfZXkaAEWAEDCHABGIISBbDCDACjEDSEGACSZrH2V5GgBFgBAwhwARiCEgWwwgwAoxA0hBgAkmax9leRoARYAQMIcAEYghIFtM9EajGi5+6J3JsVRIQYAJJgpfZRkaAEWAEYkCACSQGUFkkI8AIMAJJQIAJJAleZhsZAUaAEYgBASaQGEBlkYwAI8AIJAEBJpAkeJltZAQYAUYgBgSYQGIAlUUyAowAI5AEBJhAkuBltpERYAQYgRgQYAKJAVQWyQgwAoxAEhBgAkmCl9lGRoARYARiQIAJJAZQWSQjwAgwAklAgAkkCV5mGxkBRoARiAEBJpAYQGWRjAAjwAgkAYHYCEQ8hM7vk8/njeHq14aq/Gro6WewCd2NAcmCaoKANwZUY5eitLsNXfnV0DOsj+jqTsGIy+gjYJRAgpKxCSJRke1tr1LwVYNAdHSndBgduZVChdKmfqhxTYEAxWe6fqDIVukbTtlqEIiK7ir4qMjlvqHeR40QiI6TqEGgIzsIBr824yaQqPrrkJ96GFg1qD7RlZ/keipxoOoHFdkqfaNaBKKrPwUnXdk6RJvE+I5EIFGcU03nux3rbbfeCaRSYo+Cv4lZYRI7jKrNOj6i9I2g5K6qX6W+Ue8EQhn06ODPfYMeRdoEEuaYsNF+NUfW9UYgQbarkplqeXpYcEkTCOj4R9ShEEhY/9PRnxqXFP1U2lfZp1FdTlMtr6I3lwWME4iJ4NLpeH7O9JNTyxkIBRsV21XKcrBXH4E4k5cp2ZTkbaqtIA9QSVNnRhS37tWPqvpqUYtA4kxccciu1EniaC+Ki1X0USkbRSeuq45AnIkrDtmVkngc7akjWqyhoo9K2Sg6JbWuMQKhjK7DQK40LTchnzpL8a6tUmYyYbZRv1chBZWy1Pa5nBkEKCN7nZaqGYsqI/647KX0WZXl8LjyiI4vu0MdZQKJM2nFKbvS9DmqI00GpQoGKmWj2sj16QjEOeqNU3YcfcRk31AhNJ2ydA9zyQK+eUUPx5m04pQdR+dwy1SEMTACVTBQKcshXz0E4kzyccqOq4+Y6hs6pFALvKoXabVvSWkGEmfCqsXylYC/Ursq7jHVSVQwVimrYguX1UcgzoRVi+UrE33EVN9gAtGPy7hqGiEQVeXCjvjGMbLXHV1RT20J+SY6ikqSYAJRjbz4y0cdkNTjer5qnKnEsI5HVPZb4iR0Hd27Wx0mEI1ndql2KGrQqMqNmqxMkR7VviSUi+qTRiAQykAprsStKjeKPyh2JiGmK9lYEwLxS1yqydOU43Ta1akTpq+OzCidw9GHO0mYZ9S+j9MnqslTTfPg0jrt6tQJ01dHZhR/cN8I84jiRcIwZ6gs93hJpFoJlKqjykgwajKuhKuOHuFuL5bgTqKCVnhZ1ThWKR93AjV5E11H14ojXZ+VAkrshuWsSm1S5IdHRPcuYWQGEgY0pZNQynhdoRMcjUQgurhGJbTuHfLxWqebOCn1KGWi9JFGIpCwvuHgoJNX4o2Q7iW9KgQiIAtzZNj3frB3BwLRnX1QMO1eodoY1ugk+aBkFzbYoSRRlT5SrwTiZwPFdr8+Qq3XGNFWey0bmkBUp7zeZTPdJKxDdqojQ0qgm9Cj9iHYvTSoNwJR6SP1RiAm4juKP7pXZMZjDROIximsIOKhJH2TU2sTHSyesEqu1CgJK6xu2PeqqFPlUctVGiSp9A3qjIxir67uFNlcxtAmOiU4KMmOUobqNKosajl3uzp1TNY3SUJUPLkcDYEoCYtSl1KGpmn5snI9zUBM2WlKDhXTpJWrmxmI7nJSkMOoSZ5azgQBRNnv8LNTR/ekBXi17Y2SsCh1KWWoNlNlUctV6iOUQaaJmX2lWZD4jqoHFcOkl1MikCgOpiQ7kwmW0p6uPVTZFNKJEtQ6eiQ94Kthv9svKgmLkqj9fK7Shk6S17GHYktYso/SN4Jm6bpYVSNuGrENIwRCcTQ12VHLhYFNlUMtRyED6hKAW1aUgNbRPQw3/j46AjrJ028wQ40n3Rii6kktp0NOQYmeklMontLRnSKXy1gIVIVAVBNdpZmISmBRRmuqugXNWoL0MjmroozYVPDhThAPAjpJS7WOTtz6WUuZXajqpkKGQf1JlxTD+ogpufFETuNJVSaQSgnUL3npBLoJAqG2Sy2nMwOJkzxUiazxQrOxNaYMXoJG35QkpxO3usk1TgJRwUknInR012knqXW0CCSMRChgRukkFPlBZcIuZzn1KulH7bxhRKhqhwndVdvk8voI6Pqf0jeCyEdf2+ANZp0kTK2ji5HXzriX+6Lg2p3rahNIVBKhdBJTwVWJFKhkYHoGohNUTCA6qNW2jk4MU/qGaQJRGTBR9GMCqW3cVav1SASiSiKUwAsyXKcjUkYpTCDVCrXktkOJ3Sh9wwSZMIEkNz6jWB6ZQPwap2zMRVG6EnGZ6IhRdVOpT0kuQTMoHfJT0Y3LxoeA8F3csUqdBcRnpRnJlD7CS1hmsFaVEguBqCrB5RkBRoARYAQaDwEmkMbzGWvMCDACjEBdIMAEUhduYCUYAUaAEWg8BJhAGs9nrDEjwAgwAnWBABNIXbiBlWAEGAFGoPEQYAJpPJ+xxowAI8AI1AUCTCB14QZWghFgBBiBxkOACaTxfMYaMwKMACNQFwgwgdSFG1gJRoARYAQaDwEmkMbzGWvMCDACjEBdIMAEUhduYCUYAUaAEWg8BJhAGs9nrDEjwAgwAnWBABNIXbiBlWAEGAFGoPEQYAJpPJ+xxowAI8AI1AUCTCB14QZWghFgBBiBxkOACaTxfMYaVwmBaryzo0qmcDOMQCwIpADkheS4X24Ti/YslBGIEQHnRUbcN2IEmUU3NAL/B2BhTG62ljbeAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>vzp7s</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu1dCbgUxbX+e+bOZb0SXIlIkGeU4IYGX9REDa7EDQVBkCgqiIoYxT2iMSoGFBfEJYrigktc3nNBje+pUePui1skLnGJPmOeIooL211m6fdVdffcnr7dU0tXz8ydOePHd53pqlOn/jp1/jq1tWXbto1u/PGUt0zVIYiGMcGmFAzIMQ5AQnpqiy24OVMBCVG/axdEGQkBQkARAYsIJMIhez8TgSialOnkRCCmESV5hIApBLo9gZgCguRUB4GuAZRLGLYbcdQ6gVcHNiqVEKgJBIhAaqIZGlcJIpDGbXuqefdHgAik+7ch1YAQIAQIgaogQARSFdipUEKAECAEuj8CRCBeGyruZlJM3v0tJbEa0G6qxKAlwYRAwggQgRCBJGxiIvFEICKE6DkhUKsIEIGg04GxIzEW3G0/Bnf/eEdtLMugUE3iq1VDhK8daldH0owQIAT8CBCBAODE4Tn37jY35eprw1eHbmnjFIl0y2YjpRsagbojENP+33ZHxhaCJ6FrxW7q46CdqN1KSL5WoCc9CIEGR6AuCcSZKGKO1XOuLMwA+OxU8G8XYiglCkYgbHSfQto1FU+md+AtQm5UeaHlxyGn7k8gOeTQjnbkkPcmEMt2yzTS6IEeaEJTg3dfqj4hUF0E6o5AHDiZU80DyLl/yxEIYxXmwJsA2wIs9v+OQ/dGvZ2j3wJg+2RbdjQxSREII6WMU7bmR3ZkLhrhaxZvJNsarMGXWIG1WFMkfS/iK3BSYf+l4EWDvdATG2IA+qCPkfJJCCFACOghUKcEkgPsPEaPGok0stwppWAhbxfAfD5SFtJWCj1790Gvvn0wcONNsNkPf4RdfvZzDBm2tUsizLmHXOBnZzF61B5I2x1gwjiHMN7hfx35zveU4DuQtzJY8vjzLonoNaA/F3OwWeRRQI7/9RxufMldJfA1F6l4QVw6iz6mXDwV7Zl2wHIiKoYfJ3Hfd+//e7f3wp1n30UEIoa2bArVTR2y966qyi2npGyZMaGo+eyqmFYKtzomkHaM2Wck0lYrow6gwLy64/KKjr6EICw+UfWjLbfFcSecgkFDtwX4tJWfRFgE0urIRTuXGzYr5shnI2Z31iz0O4uPeuH+x18CrB5GDLgDWbSiFauxBq1Yiyw6fCTi1cN10F6UFVjjCa75+L/PvHxm0aEHFQ5z+EEC8H/38tuWjR7ZHrjlzFv5tJTMx5nC6oWmml2XkqlF9dOoOqVimwku8NaVG4ZIpRyhidYwWe+gPrWKQ30SiJ0DrDaM2Wc3NIERSA6W1RPpdBMnCdbQuVwOBZaOj3ZtPvJ1ZqRSsJp7Y+Z5F2DEjrshBzaJwj7MAWfRhA4cNH4Umux2pErWWdhz35oLT1/63bJs2IUccrkOPj1WsHrhoSUvISfpOEM7mC8SyPO1hCymz5nOR/M5KwuknMkrVQcfTM8IeMHpCyKjGm/KqRwBOZr4MeGUgt7ojQ2wEUUUJryYgow4Dq+cQ4sjtxKO06R+fn1r1ckrmIRyUqMEEj4fXyjdJsvmsv3bZpVVFmz35F6KEUMrxv5iJNL2Wl7CIROmYOKU6U5MwNc52PJIFl8s+xzvvbMUj/1xCd57eyksK4uOdAFrW9L43Y1XYr1+g9COAp+Dd5wfKyDnxiaFLqcXHO04Dfncpffdxj3PLcZtt96EYcOGocAm2Kw+yFtpJQfPOwCLqNxoiuHJFvnThSb0yGZw3azr+Gg+rbW2UhqpiJtHffutF5l5spt4RNHMahAybeikirKtTv0iNiL4CguWK65bfacIOlJVUkjCYSbl3Bvd0SdlybEIRI4I2Ag+7+6yCY4+davF5IQ7DGdJnDn4dux78Ehk7Hb+y5iJR2PyYSdwp83crfNxdmqlkUcaHbjnwdtw+60LkU/l0JbJY/C2w7Amk0J7k1WMTopz9MzZ2WwlwPl4RwT9c/aeg2d/0/yQYg5NdisnmHff/TtG7vkLnDrpXNhIuwTFnvinmNgOMO/jrTmUltj5LYUMmsEWmPuiD3qhD5r5An3SHzUC6bKYX/xBTU5n+3n1ExNI0kh0N/kqBMJtPImDsALQkiCp7tZOtayvFoGUI46wZ2x3zZf4ku+yKXUgnTtrwqdAOh1o0UGHoDnzipnFETyjK+ZKGCGwBfS0neVL6AWrB3J2EwopNsq1ALZIyxdonYVwPh1lZ9Fk5dCcL6Bntgn/WPoJbrvpYXy/7xAf6ag3p+XEGrh24Tw88eh9nLSsphbceOsf0L9lIGxhpMAiIEfXTjfJfmH4+X9hJMLIiMUebIWAxUHlHXPs3VmxBajjWS6H3KDGbJm1Li1Jx2/SwasSWq3j3gj6SRGI0ymZp+jcwtqGPJhrZq7NWZruHNUHd+iwXTbTLj4K7Zk1RYfGnKZtNfFTFmwNIo0cUnYBBV4OIwBnqsv7nmJbm5gG7nO/o5h/2tUocCfMogumEZPXgf2OYbulHAIZP3Eyjtz7OJdeHH2dBfDOEX8Keby14hWcd9ppWKctjZ7tLTj35Eux58iDeHrbtjRHYVl88cl7mHHsUbAKLAKxcMDYI3Hk8ScBFosSwnZ7FZytXcjh/z75GB99+AG+++4bdLS1o3fvvthggw3wg8GbYoNNBjn57XTpFuRiZNRYBBLZaWuM6IJ6VsPJ6zjsMD1NkYiOPn4c/flN6dQIJBCnjlIEwonDLmDO+WfjlZeextoeq9B/5x/gux7MOTMiYFM8IdsuedzrjOYXn7UQZ54+Ax9/8C7f5rr5sBG4fO7v+dg8hSxGH7QLn3bq8nG3cfKIIeKTRw88tORF5N0pGzZVlEE79j/I2S0VNYUVJDpGYq35FZg49gD0yuVhFTI4euqpGDPuqJAdWVHauNNrnXNPANox59yZeOMvz3HK6tn3e7jx1vvRs98GRVLq9G8OSedWfYP77r0djz32MFZ++1WxMJc/ne9WGi0t/bDDTj/DnvsciKHDR7hbgtUPJkb6V+OON5rQtKIH4/rpd6c4JBBWd78TjCOb1SjMoeo6bN185ZDVkamCCRGKvl2XbTe5d6I7BPK3V5/HBbNOQmuPlfj8e6tx+GnHYf/tJ/AVhLApKG/XTQuaseaTzzFr2kk8ImCEc/IZF2HXvfd3HLOdxdh9duY7ppzRuOOEg+cqOnfw8EkpJyJhKx5WL9z/2P/4tsOycyBtGDNqN75bin0OnjgNv5zKFtHDRvweRFkgtxpj99ud52NxzKGTT8D4I6YpEIgrq0ggObzz5ss474wTOFEWkMHkY07A6AlTS85/OAu8Dnl89vH7OO/s0/Dtis/crcIsGkm7TsCJm/jCuTsnzeMtqweuWXgLBg35kdbBxFogkKKhesGuf9W7hJADJs1MhsGSwF2Vqt1OxxF6ZZQbQas4yzCd641AdPAgElG1ZnF6yQjEcdVsJD3jyLH4fNlHaM9kMXDoFrjy8tvdbajRu3eakcXiq6/Anx5awp1fn37r4Za7HoGV6VvcHjtu/905uUQRCNtlZNtsfYORQw6FvEMMbMKqpf/GuPmeR4HidthSAmERz5gJcgSy8ouPMeXwQ5Fie6/sFI6feR72OmCsOoFw7Zge7Tj1hKn49MO/8emvfutvghtvuQvo0dLV0dtZtK5czqe6Vn39Ba8dW+NYd/0B2G77HbDh9zfmRPLtNyvw0Ucf4sO/vwM718bXlfJWM66+/mZs8m9b8jUVsS81fQVKhLxIZnLTh737nD1ipuDsn+78+Ahl5Pa7FH/PprJ44a3/cY7tePztnlVwpl7VIzJx1wlPoUsgonw6DrMEupCzG6IyozDQzWdKni4WjUQgptsosu3kIhBvG2UH/njPrbh10dV8ZFyw0rj06sUYMnR4mVFvAYWOVThy3C/Q3votzzN2/BGYNG1mqcNnHsMOeAzvlF7RKzgkNvec0/HGq3/hv1rNfTHn0gXYbMt/943ouxLI2InHYtKU48tEIM4i+tOP3Itrr74EKZud6M7g8mtvw+AttnadkKojyuLZxx7AVZddBICdXG/CjFPOw+77jokgpCxu+/2leOiBu8HWY9i+q2NPOA17jz4ESLmRU/HkYgGFtavx7DNPYMkD9+MfH/8Tv7/+Jmyy2bDqE4g/goi0PPeBxzt+xrOBXbfZGWmbrWk5D9i6lv/z5zfYCX73w4jDWQIL+UTv2NMliXL5dDuubr4wXWRlyaYLlmF6rUFFns4ajJennghERKKVqmvXCCQwYiydm82i/bsvMfmwMbCzK/noeI99x2L6qbMCdzp5ndaZknn28Ydw1aUXuKTTE4sW34X+3x/ic/jOdlp+xoL98bYLFp2lp1Q77rpxAe7/jzvcq0maMPOsC7DLXgcEHLL8FFZx6sguIN/6LU6afgSWf/ZP3mfW3+gHuO6O+12iUyWPAtC+CscdORbfrPiMY7XJ4C0wf+EdQKonjyS6fOx2HH/4QVix/FP+6Cc/3Q1nnH+ZUz73o4FT8TyV462feuIJbLPNcGwwYGD4iDs4BSQOUYrqya1N+CKQqAjCV2F/BMFr4TsbVEgV8OzSF0unpXSnsKqwRqLjmFWcqCkCi6un125xiFhVB9X0nm4sX6Wcahw8/PqWk1MrdRESSGkl2AG9LK6c+1s8/+QjSFk2mnr1wx13L0Gq97qw7abALiWWvh1nzzwBH779Khe1zQ674ry580MuESy3W8jxSC//+XFcNudsTkRs3n/suMmYNO3kkJ1MnQSSsVu582bnQCaxg4QWG6qyXUvuBVZcqwLavvsacy88F+8sfZkv/Nt2BjNOORu77zdO464qhzjvu30R7r7tWoc4kcG5F87Ddjvt6cgLc+B2O8btuzNS+Va+uH7gmImYPOOMsgTWOasjOEehSiAsvf+fTK/w6lQAdtv2p0gVvI0VzoYyfycuiSCCsstGFDKK+NJ0AwLRdYpxog+WV7Vc1fSiltKRp5NHpEc1ntdKBBG37gprII6jZYvpH7zzGmbNnFp05MeffBb2PGAibGQCftHZvjp92uF8UZpNX51zwZXYfuefK6wpOM74Xx++hTNPnY5s6yq+CP/jHffArNmXRNxm6xDIwfvsima0cYwOmTgZE6Yc5253tWC3dWDt2tX49J//izffeBWP/fEhrFq5gh/2K1hNGL7DbvjNnCt88gUEVzKXn8Oabz7H1MmHotDGIjULw7b5CS68/FqXPPy37/rXAtoxZcIorP7mC965Bw3+IS67bjHQxNaKok9pyxlBYHdYZATC2jjlrD94gaFX9UBBwSjCe5y38njuby+VBkzlIohgBUIWxeWiIDkkKpFKxdFVI/pQIZAoZxd3FKyCUdTIPK4OSdpCOZKoZb1VMFEkEJdE0I7Tjj0cn378d17WZkO3xdxrbu46UrbbcPvCK7Dk/j8gZdtYb8AmuO72BwG7OXwKp4vmDnm0fvslTpkxBSuW/4sHDoM23QLzFixCptc6EWsTpREI84QFu4lHKuwGEH6xSHFkWuDnT/iFi/xqEAvb7/BTnPmbOcj0+p5PfvSiM3du3gQ833acxXXzZ+NPjz7AJ50YsV664CYMGTa85KyGU91SArnq4nPx3FP/5ZJzCltsNQK/nDwVW263gxM9lUxl+c/fBKbYwqKHoBP373Iq9tDirBh+Nnxnfr0Ijx7YPWGBK2giowjvlnoW6LlyFWbMVOy3ZtPKOkfZdKKK6sgRjYLLlRnXAeroG0Z6vM8KLncUYaf7XIRftfTSrY9OPnUC4QvdOfzpkXtw/VWXFbemzr/+dgzabKtSh5tfiyMP3RdrV37NR9BHHH08Rk9i21flbl1li9rIt+K8s07Gu0tfcS7e67cR5l9zA9YdMLjMqNwhkLG/+DmaCmv5zi1+XoUZWoode/SuIWEbZ51XwbLnfVv6Y9yEwzH60Em+xXbx2kenY3UI7/NP3seJx05Cyma34aax8y574bTfXBJxaNDXbHYOyz59HzNnTEW+bSXf1svIjpFa717rYOiwrbDZ5ltgyGY/5NfPrz/wB2wXgbt/lenp3jPGWIY1E9+e5ZuKkowg2PbpfAp4/q8vOlFEcDODyNKKEUS8BWw/YUlHIDXCWLIOUjZdOch1ZYgcYFSZJhyjrs5RJOLX1YR+lSxH1J1q+bkGgTCHkoXd+h0mTRiNXNs3fMpjrwMn4LiTzvKtF+Tx0jOP44qLznJ20DT1wW133Yee/b7vrkOIYHF2Rd145Rw89ugDSLPbctPNmD3v99h8G3Zgjm3rjToZ3jUCsVLNSDWxk+8OIWRSGWR69kD/ddfHoE2HYLvhI7Db7nshzaMO3ekiZ81n9jmnYekrz/BReyHdC9cvuhPrD9xcot5O9PLem6/hsrm/xXdffeFsyM2zCCntRk9NKDDCs9NYf4MB+Omuu+PgseOxzoYblwJqA7sM3wkpm0VbvojLt2AdGUE4XOQQR8F5n0pgE5Sg8YJzXmISFlkDf851SvFBAFLsKpoQuTVCIGEOSHQWQ8fxJemIk3DKsriI7EGF/KJwFcnQaQ+R3vX2vEggav3O2U678KpL8OQj/wkbeTT3Xg+33/0gUj36ubuosjj/rJPx9usv8BH+ziP3xymzzpfc0cQcVp7Lvv6qufzch201Y8YpZ2H3fceKR/L8/IV7kLCwljscfhsvP0joTvt0OX/geUzPe+o0dRZ/e/UZ/HbWqe5BxCaMGn0YjjnxDAmdvfKcKKbQuhpPPfpf+MsTf8YHb79XDNPdG10ANiUHYNnyL2FbKU4o7GqYPL8ZAMinCnj+TbYhwH/TY0idwi4Z8/Jks8CaVQD7G/bh1+BHTE7JGlQwXbl86SYgkwGa3X/sew1/RM5d9FxUtWrnF+kX9Tyu3p5cEQGI9COCECEkfq5JIExwFv/66F3MPO5wfgU627V00umzsNuoQ3ip33z+MaZOnsivEkkVbCyYdz0GbPVjydF9Dive+ivOPv0kWPnVXN5+B0/EQTNOkXwFrHOAb+qo3YrXo4yZcAz2ZQTCt8+y19dGgSPYzcSz+bYp+3dz2W2YPX0yPv3H+3wnV3PPdXDNLf8J9B/gOvyAs2Wj6CY2ko7QJVfAwVttjZ45tk7jpCm4V7uwyILpsdGADd2puQzmXTofzVtv74zU2b90Dkjli2/54wK4vv4C/WswHtm49ctn8auf7IReeee9KSofb42pSHghmflperfyXrpy+drTTViVyeDml150SKTGCYRVudwCedzF87iOOG5+FXuIcvpxnbgKicQtK6y+KuXr4KWTJ4l6Rg4GZA8SdhXgRCHnzJyG9956nXeUzbfcDnMWLOLe6z9uvRb3/OFmflHiVgM3xflXLOJn6bqeZwhR7cvPcfWMaVj1zZd8HeDHI/4do9iOqJS7BVd4sth5pe3v9tkDFrs+PZXGuEOPwhZTj3UJxJn6OPPnbDdY8KNIIHxB3lmEZ2st/OoU5uSZg7czgN0L6XwPNOWb+HSS+xoPXujK5gzeKRSwKuOtY3APX1SoJduKHzbn0DfnXfHCKcR9zlwvu7Y+62wAsNlEYRNyVg/k2SWVbLMA247s3SUmsES/42antwsFoDWTwTUvvww0VeJaeImuwq9NTpefwpIQU8kkUU46rvOOm19EbsHnlcSsO5VVSWddi7ior4GU1CKLF/70IOZfMtuJQpDGgoV3YeDgwZj2yzH49qtl3N2ddfxM3Hr+5egbMhPiXxzljtjKIlVgb/5zRr1seoZdw84uTOTOI+TDOpO/IbljtfP8apQUe60rm9Kxe3HHaqfYYrqT/tJnn+Xv9AgdkXskxXczMTLwbSnyRyBcnwLQthqLphyBr1cs5868pf+GmH7LnUDPFpw+fAf+sicWRdipTl0ZgVz3wTvO9VxhH7YA3v4t4F7b0iWJncODpx6Pd996k+vQt2U9/Oq+RyXWWkIKK5k6ciMQNsrv0+KM9mvmI0PwNaMsVyQs0gj+1ggjWVky9bdeXAdtgmhry5pqS5uYBJIDsqtw5GGHYM23y3hH2e+g8RgxYgRmn/drXtNMz374w133Ac3rAIWoOWvPKbTjjrm/xZ+ffpxvre29zrq49KobkBnITq1HLGyHvijEm8Jit/G2cuc/ZuKU8lNYxVkd35QOP+SdZgsKzj+/k/VtgR233XCkCx1IpxzSc+KRXihYKXRYNh5e+roTlQSnqrwpLO5l/NNH7Ae3vDy74iXiIIbdhj8unI8l992FNDtJ39QTN/z3C86lklFTdFJrEy6BcP3YiN/QInht2X7FtAlzYrrTVyYdoklZ5cAUkWNcklApO8myKmZQNVRQTAJxdg3dduNVePjexdxt9m7ph6FDh/K7qtgM994HTMCxJ7PT1GwUW4ZA7CwevvcOLF60gG8NtlIZzL54PrbYficAze7cvTvDU7zixI+kf/Hbvwurnec95NDjMGHqjM5rPkQns73nBeBnw3d0IogAA1h2nr8n5akn/xvHHTUJba2r+BTZRgMHY94idgDQ5T2mL/t/4WGIHE4+fgpOOvlX2GwYu3+LrdWwNQuXUEqGZs4U4lx+TfyL/MmGGw/BNYsfCDnQ6csoRSA1ZKF1oIopB2ra4ZuSJ1M/k2WpkICpcuvADBOpggECKeCr//sY048eB8tmixzuGNyykLebseCGOzFwyDDnjEIXF+zVKYu3XnkGF557JsBfuARMnzETux/kXiPCtmt6I/7gX57aO7nmEVQpgaQKGUwcewIOPvpYp8DAuQb/iWrvXAg/OOedh3jTcdAleZ0TgpxAb7xiLp587EG+FsKm2n79m9n48a77dEYV/p1QZZuxHWP4tfZ5bD9iRxw4Zjy2GbFj6UWKPDJxiPuJJffihmsv5+tEDOtxk47CYVNODCWQ7sMb3W+KSqZnRjlZXWeoki9KP1nnKkMQ5TCQLUcVRxEGYXqL8sjoQGl87lB/Ed0V4h4s/N3ZJ+LN117kC8ms4fK2hS223gEXzb+Bb90tvnrVXXIoORhmt+PIQ/ZB66rl/D0fzIWkM335FJDzIqk0UoWm4kurgg2Yt9K455EnAz+3Y/yokfwd5IxAli3rgG33cs+BlE7JRJ6HYI7fmzlz34TbWQhbKM/hs4/fxa+mH4WU3cZ13Wzo9rj46oXuu0nkt5lyPNCBsaN2dK+1Z4viKfRp6Y8tt9oWA38wGH36roOOjg58uXwZ3vrr6/hq+b/ce7aADQf8G6667iZk+q4behuvCoHwZSH/cr7KNSQmelfUwUUvGBNGciaUMCsjLoGInLhIW9EZlHL54zrdpAhEVOfg87j1UC2vEdLHjEA8iLJ4/YUnMOf8XyODHF+gzlkZnD7rfOy0+4ESlxG2YtzeOyNjtfF3frCP84pa55Mq9EAm2xepQjN/blnpkov5GIEsW76a7YFy3xueQ6qQQ9pqR8rKIm8B0045BeOnTut6+Kycc/Qih7AIgudrx0WzTsSbr77o3qGVwUXzFuJHw3cMubLEI1z3b6gTzGLSmL3Rsfrr4jvQS31p54IPP+PHo7E0Bm06FOfMnof1B7ivtxXuUnMQdtHtauf82hJHPv/L2qC4jdjN5X0PSPF2mUWmd6sg+9yvHNt9zPZRWN4uN/awG5FJHEcal0BknFkSDjZOncN01sUhibrJYFrvaQwRSI5fOTLl8AlY+dVnHLM+/TfA4jvvB5paOtdzXadT7PN8h5MD8fi99+BOmDkW5oT8f9l22BWfrykenuN+g+2k4oLYW83TePKNZzrbyvW6h40aD1h55K0CRh8xHocf80snj1sGJ6cIAvE2Z5U7K/faK0tx4Tkz+fvX2YfdoXXenHnFMlSNh6mWbW3Hc08/jqefegLvvv0m8rls+HvYbQsbbzII+x4wBvsfPB5IB9+YoVp6aXpGHi19h7kL8p0bGErPoXSloS7PS86tdD3HEk04wReUpWBZa7B6zTtEIBpNKxOBJOFkTRMI7/tRh1cjcEmiXjp6aDSbcpak6hqliCECYWNU9o8NWd2RLZ9+ypSMZD3H3exL7l0ZPnLbQ2DbPdz7nxhBsDugnNe85ti9TEvv7hxtBqc4QhfVfVXmFyg6G6nYhzmt77WwF1AFHZr8dzZdxafr+PmPgnPZoMVeA1W6W6zTQXZ1iF3L9y51dC5c8dZhHMJ0dHdIk5Xn4MPWllhqtoW6822Ozu869cvz+uR55LZy1Tv81pDEP6E76UJK9aaw/I8qoV/iAIgLEDlN045DVJ5Y4/pPYRrz7oiYIQKJon5nCqRvy+aw7T6cUNgItbnQjm2GbMQP3Tm3vPbE+x98x+KWkqkVZ728wK9CZK/QzaULxZPY7JZY1oDRI95OsuDu1L26xEu/+rvXimTiPA+mL/89eM2sav6k0gdbQmdKiZ/Xc6+cKg72EnPUivdmiXbPdcNeWIvOmpxjNzSkKqicLIHwIXPnkQQWnDCHFDaFJbysz30HlCpG5aagVGU1THq3gfifxIjDQTNycV9l1b9hGoYqSgjUFgLJE4hqfQWOo2T3lqrsQHqTsmKqIpG9Pre3EoFIND0lIQRqFIEqEki4Q/RCZ5NhfSyiMDoSdt7vUYGBvaK5OSfPY+GkWCIlJwQIge6PQM0RSM1BaoxAHMKsPQKpz8im5uyIFCIE6hCB5AnE54BlRrhd/HVZB+5dq85aJq4jjJtfZB1y8o3xlUgd73lCBQbFiouRw0e2WpSOECAEkkegqgQSRihdHA07kFCy8u4HhQgktomE4CtD9KJyiUBECNFzQqD7I5A8gXR/jKgGhAAhQAgQAiEIEIGQWRAChAAhQAhoIUAEogUbZSIECAFCgBAgAiEbIAQIAUKAENBCgAhECzbKRAgQAoQAIUAEQjZACBAChAAhoIUAEYgWbJSJECAECAFCgAiEbIAQIAQIAUJACwEiEC3YKBMhQAgQAoQAEQjZACFACBAChIAWAkQgWrBRJkKAECAECAEiELIBQoAQIAQIAS0EiEC0YKNMhAAhQAgQAkQgZAOEACFACBACWggQgc5MvqsAAA4GSURBVGjBRpkIAUKAECAEiEDIBggBQoAQIAS0ECAC0YKNMhEChAAhQAgQgZANEAKEACFACGghQASiBRtlIgQIAUKAECACIRsgBAgBQoAQ0EKACEQLNspECBAChAAhQARCNkAIEAKEACGghQARiBZslIkQIAQIAUKACIRsgBBoUAQsy1KquW3bUulV5ZYTKlumlGKUyDgCdU0gqoYsa6yqcqmDGLdbEmgAAV07FvUTXblhVRKVZQAGEhEDgYYikHLG6Df6JI022LmSLCuGXVDWBkAgjqOX7UtxYaT+ERfBZPMTgfjwrQSJEIEka9AkXR4BFVsMI5sknLuKTvI1pZRJIUAEEkEg7OekO0gS8pMyFJJbfwioOuukSSRp+fXXgtWvERFIoA1UO5VKEyYpW0UPSksIMARU7TFpB6+qD7Vi9REgAglpg6SmspKSW30zIg1MIFDOPpJYr9Bx2EmSiI4+ftypf5mwQjUZFSWQ7tBBdEZmspDHNfC4+WX1pHT6CMRxgkn1j6jpWF1ddfOVQ1VHpgqp0nSxvk2XbTdbEVmdhvYUoA7iICELOXWQZIw+SanUP/TQVcVNpW94Gsn2O70aNGYu5QhEtaGTCDFldZBNF2z6JEb6nkxZI1bRQVV2Y5p6ZWptwubCBhk6DtNf4zC7S0pXVaRV9dDFQrbvqerfyOmVCSQ4xSPbKCoOUdQgsrJUDVMmUhLpFvZcVt845bMyZNtCpw6URw4BEzanEqWK7K2cLBO6mrA5lf4RRh4iHWiAJWe7OqmIQEJQM21wKvJ0O7VO41OeZBDQaUMVJ1pOa5WyVdKGDW7iEl1wMCojT0dnrxwR0SRjDfUtVYtAdKIQFScq20FEBqFjbKY6sm40oaNzfZto96udahuqppftHyKHrFquanpRy+nI08kj0oOe6yNQEQIx6ZRViEjV2EzqqUOyOiMy/aannEkioGJ7puxOpUwVWwubNhKRkwy2qvqq6CxTPqWJj4ARAhEZk+kOIoo8VMNtHUOWgV633rr5ZHSiNJVBQNamZNOJtNaRE0UMorJE/V0mv46+YQRiQhcZfSlNOALaBCI7wjblDFUijygCKWcEsqQka0hx6x03v6yelC4ZBGQdpGy6clrqytAlEBN9RVfnKBLx42NCv2Ssov6kdgsC0SGPaoe7JgggqamD+jPj2qyRjJOMaycyZUSho0IgJp1yHJ1rYXBYm9ZWHa1iEYhMFKLr/MMMRdWITRiqTrPEdQr+MmU6uSouOnWiPOoIiOxP9FxUYrXzi/STJS5d+5XpGxSZ6LaSXL5ECSSuI612fjkIu6aKq7cqgXjpdTuibj0pnxiBcrYQ1066I4HE1TmIuAqJUP8Q26tqitgE4o9Cgg1UzehDJjpSBUsmfVynIFNGFMFQB1FFL/n0UQ4zriONm78a/SPM2ce1WRUCYXWOW17yFtO9SjBKIP4GiutI45JPLXSQShirCUfSvUy2+2kb1hd0+0eUw9SxtUrbTqXLC/oAIhDzfafmCES3Y4VBU2mDNam7bFNXuo6yelG6TgTC2kjXVky2t0lZovZOIvoQlUkEIoNQvDRGCCRstK8bQejmqzaB6DqEeM2n/lKguOVRfnUERNMsstGDaYdvWl45ZEyVxeTI4kUEom6rqjkSIRC/ErqNrZIvqtKmjFYGVFMEEqeDmMBMpq6URh0BE1NPpmzM075S/cNkOSoYVCvqUbeO7pvDGIGYYHsV45CB3KThyo6u4jpxFQxU0srgRWmSQyAugYiiGJHmJq9zF5UVfG6yH8bBIW7fVK13I6SvGQKJYxisoWqlg5gwUlUsTJTZCMZe7TrGcaSqNhGsa7X6R5w6h7WXLg7UR5KxfqMEEkdFkWHUqgGY7iBhkZwI11rFRqR3oz2PYyui/iHCsl4IhPqHqKUr+5wIpLJ4U2mEgBYCIgKp1UFEHNKMAkqEhUz0pdUIlKkLAjVDINQ2hAAhEI2AyGnWKoFQm9Y3AkQg9d2+VDtCgBAgBBJDgAgkMWhJMCFACBAC9Y0AEUh9ty/VjhAgBAiBxBAgAkkMWhJMCBAChEB9I0AEUt/tS7UjBAgBQiAxBIhAEoOWBBMChAAhUN8IEIHUd/tS7QgBQoAQSAwBIpDEoCXBhAAhQAjUNwJEIPXdvlQ7QoAQIAQSQ4AIJDFoSTAhQAgQAvWNABFIfbcv1Y4QIAQIgcQQIAJJDFoSTAgQAoRAfSNABFLf7Uu1IwQIAUIgMQSIQBKDlgQTAoQAIVDfCBCB1Hf7Uu0IAUKAEEgMASKQxKAlwfWAAHsPB71rox5akuqQBAJEIEmgSjIJAUKAEGgABIhAGqCRqYqEACFACCSBABFIEqiSTEKAECAEGgABIpAGaGSqIiFACBACSSBABJIEqiSTECAECIEGQIAIpAEamapICBAChEASCBCBJIEqySQECAFCoAEQIAJpgEamKhIChAAhkAQCRCBJoEoyCQFCgBBoAASIQBqgkamKhAAhQAgkgQARSBKokkxCgBAgBBoAASKQBmhkqiIhQAgQAkkgQASSBKokkxAgBAiBBkCgbgmE3aKq8xHdvKort5wuojJ16kF5CAERAqq2LGunqnKpb4haqnafE4FEtE1UZzHZObyiZTtm7ZoRadYdEdC1ZZG96soNw1BUVnfEvZ50JgIp05phxmuycxCB1FNX6n51iWPL5Rx7HLlBFIlAatuuGo5AVEnBpAFHdSyTZdS2uZF2tYRA0B5VSSEJu1XRqZawbFRdiEDcli83ajLRUZKW36gGTPXWR0DVWYfZsIm+4dUgafn6SFHOKASIQKpMICY7IJk5IaCCQK0TCPUNldasTtqKEUi50YWJOdOgselMFyUZJejo4zcJGp1Vp4NUslR/G8vas4x+shtCZBx2knaoSmjBupfDTwYnSqOOgBKBxHGCSRMIq7q/A+jqqpuvHPQ6MnVIVcYBqJsI5VBBII4TTIpAgn0jaspI1n7i1DFyKiSw7V5GF5U+IiNPpZ0prYMAEUjAEnScvciYVGWqdIxg2dRRRK2R7PM4zpUIpLNtRHas00dEMpO1jPqUXhECETlQHWMIa45ajEBEdS8XhuuYHHUSHdTM5dElEFG+uH1EZvehrO2IdFVFU1WeLhay9VPVv5HT1wSBqDSArEOWTSfjwOMYnsqccbmOYXIeWwVvSquGgKozjDudFKadrA6y6cr1kTh9I6zuInkq/SkoXyRbraUptfIUFs8QcUVIJfaQq5StkjaqE3u/6xqeqg6q6XU6IJl98gjoOOZy01cqGquUrZI2CaIL8yeivqajs1eOSLYKzpTWQUApAtEhEF2nKDOyKufgVctVTS8yIB15OnlEetDzyiOg6uRU05erkYoslbQ6zl6EvGr5Segg0pGel0dAmUBUSUQn5IxLHio6iuZTdUctOmSgk4cMvDYRUHGO1Yg+VJxxUnapglFSEVBtWk/30SpRAjFleDpyRMQg00SVJI9ypMee6eoiU09KYx4BWecom06koY6cOH0krj3q6BvVR+LqIsKWnkcjUPMEokMeImcsYxBxjFJXZxW94+gnU39KEw8BWQcpm66cNroydAnEhO3p6izTR0zoF6/1Gye3FoHIThHFnb6qhCP2N7UJw4ujc1SYLmOOJnSXKYfSyCMg4yTjTl/JlBGlsQqBmLSvODrr9BGTusu3fmOkTIxA4jrSaufXbf64eut0ENMkqFt3yleKgMhRip6L8Kx2fpF+ssSl6+BVCJDpoluObj0bIZ82gURFIV4jVTP6kI2QTDewKfKIQyLUSUy3ajx55SKMakYfYX2kErYTl/SCraFCIpWoXzxr6X65jRNIOQhkG9CEI45LYKpNWc6QZesdp3NQFKLaYpVJL+vgVG3EhCOOS2CqCCbRJ2Xx9XRVxVm1jo2WPhaBlBvpB4GUaTiRMcjIEI3eVWSoGIMJ0lMpr1pRlqqOlD768K2OUzNpZyZISKV9K11etaIsFUy6e9puQSA6Tt9kRxM1chLRh6hMIhAZhGojTZIDI52+ETXIiiNLhHQS0YeoTCIQGYTipakZAjHt8E3LKwezqbJUpxRMlRvPhCi3CAFTBGJ6BG9ankof0SUrprNK3krWUWQH9fg8NoHITGPJNLjpEUqlnKvJclQwqFbUU4+doBJ1MmEnqgMMUb0q5VxNlqOCgUp/EmFFz8MRqAkCEY3QZBvPT1QmOqxMuSbLMYGDDFnL1IvSmEUgrp3EtY0wuzDp2CsRfcgMVsvpQX3DrE3z9rANoRqng8TtHB4slSaQOHUOa8q4OBhqSvNWRhI5AnEcdhK2EUcf2SY1XYYuDtQ3ZFtMLR0RiBpeJalNE0icERZ1kBgNWaGscZypruMMG1x5v8XRRxayJMpQxYL6hmxrqaczRiDqRXfmkDWIWjMEIpA4rU55VRAQ9ZFa6xtJkpQIiyCutYqNSvvXaloikFptGdKLEPAhIHKa5CTJXKqBQE0QSDUqTmUSAoQAIUAIxEOACCQefpSbECAECIGGRYAIpGGbnipOCBAChEA8BIhA4uFHuQkBQoAQaFgEiEAatump4oQAIUAIxEOACCQefpSbECAECIGGRYAIpGGbnipOCBAChEA8BIhA4uFHuQkBQoAQaFgEiEAatump4oQAIUAIxEOACCQefpSbECAECIGGRYAIpGGbnipOCBAChEA8BIhA4uFHuQkBQoAQaFgEiEAatump4oQAIUAIxEOACCQefpSbECAECIGGRYAIpGGbniouQoBdoU7XpItQoueNjIAFwGYAUEdpZDOguoch4L2Dg/oG2QchEI7A/wOEr11BSG39wgAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>rc4kj</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CZgdxXXu33eZGUnsYB6E1WwCCchDvLAI2cYGbMRihCWhfQEJLYCQ2SE2js2aEBaLxewGkwiCI7AJdogJNnEwDxwSW3iLDTY42CHsiwSSZu7S+aq6+07fnu6upav79u17Lh/fjOZWnTrnr1PnrzpV1W3Ztm2jI5+m22opvHVPKytt5QR6pN18QeSLukv0PYQFCgIUmUEIFAgBiwiECMSEP4viv+h7IhATvUAyCIFsETBPIMJI0W6gYvFs0UmlNY+wPOGBFVjOAFFXp9OE3On2U3EaEkoI5BIBIpDMu4UIZBhyhkVEClO7X4hAtKGjioSAIgLmCUSkgH/HxYJ+5qI1NdYNGAn3YII7R5auHiLAeuR79aVOBDDUDz3iMWRmDhDInkA8o1nAcDfIfb/KQ0IEIo9VN5QkAumGXiIdCYE2BAwQSPuMTyYOaBGGoONGtptwhZGyowT1DcctjRRPMsNk+jdZC6LatMIQIUTfEwJZIZA5gYzI/BiytHgEks9ASQRiyGFJDCFQAAQMEEg8Cp0POOJeYldhLMvQhRPXYBtBmSMJwWi7YjMLVSIpdt3gl4XqMDKmkAh0lEC8O4y6wdsLIkmDib9nE8uKjEzFJRApzOzhAxOtkxMM+CjeDhy2MDH62JXZ1jzBim7aRFskgxDoBQRSJ5DMQPQF7mBAiw1wMVPRqHpSAVPD8LTkxqsSIDZDU/M2MYw8bKDp/pQmEBbkvRWdSzRRib3NNjuQryKjvvf/3bI2YsMHL5g/QazR51SFEMgCAdVJuuwDSjpGIG2rBzYN9SJO8KeHrrfzzgKJN2v1/+7rBelAzGT62xPIbTXhr+f9MUKXUOfw6vujLKvP/t2su794f/D/rPCgZxvKtrVU9/RhUTa4SaXj3exqRwloWE6M5iecbWCrMXuh3KwCdgmWXeJf8OZYAfZv73f2k5Xhf3BCv82MZssHq4kmSmhYJdjsZ4mVsPHBBz/zlR7JDe0EApS9/jKMpQ5cVIcQ4K5vKo0eAqcsIaj2RAcIJGSOyP7E/m8A2Aj8bu3P8O6b7+C9d97Ghg2bMGbMGGyx1ZbYfa898ZG9dgUG3PtnPDrFpEFEaHht+gNnxZXdkjusL+8Ey3ICYs0X55ke5eg7cSMIjdVnPOG16wZc/ofaINBgwtkfvVNY7s/SaKBaQs2NpSLzZL+vuDjsPHof9KGGfm6aF1kd+y33wp89Yo7f3p9sDbAJFbxb7cdgmYEJVJpDGGgOYvfttsBAYxOqqHFpDBevdktX7z6NRyhBI6wm6lYJmyp9eO7lX3Pco4oO089IQnFo2eDelyzYBsv5A05aAcKgul0vKs0AnwY4WfhENgRiN4FGyPSWzSrZFLRm40cPfRdPPPpP+MXa52FvqoPNPy3fcx7ZrLPJAme/hYMOPRhHHPVxfPLYo4FttwZKTXdV4ps+8xkry5n4f7KoUWlbdTz/xHO4YOU5KDXA5c9ZcioWfH7RcMTx4qh/Zt4Ejhk/CWVmVsnGgsULMfec093p9jAB8ZWCt3Ji3ONFtEHgwmV/jueeeZb7Tb3UxIkzTsaFX1yJibvtg/4GY5fhD+enZglD1ij8+p0aNpQHUGeB08vvJPS+SrPJ29xt2+34zyrrr8CKgK8YmDnBAM9WEewQAmdQZmMTmyoVPPvK06g7/IEKw4BNDvhEYRCw2f8uQVpBogwa46xUWuXZ16USUK4C5TJQLjn/jvgYysglRNhMdZUAZjJ4BNuVka1Tx49SmK3SmQUzcKcqRQbDVBUwJDwbAqnXgSE2s2ZRxPdplvC7xx7HrdffhLdfeQ1ld7SzYFVychu+nIqFBovGLGXBUx8llEdXcfRxn8bMxQuBPXbFUXvv0RLOZLBg1/YTZTTtUbDtUUBzFF82sBjM2mLlmFS7xGbFzsy0lV7hmpR5oOTBrGmhYjt1WRuMeFh0rJVLfNb9+7fe4kG0zgKbS2CWbXHC6a9XULFLbrgFhtBEvczqOgRbbTLybPL2ms0mrJKNSqOEAbuKChrYc7edMWfpHCw4fy7nQhMfzkM8feZKS5rGYngw072slD9NaLspOo9d+bLdx7IjDAr7nk0KGLG4PlIqdh5KhTjC/CHpYRUTPpa1jKIE6KxxU20vIwIBJu6yB/rZKoSRA4svDQtlu4xKw0KVBWQnCvMZPQ8nbqKfZbzZAPL+7c262b9ZEVaezeCHKnU88dIL7fmMtmM3fOrKg+QB2+yEMvphwYvAbH1T4pPkOur8J/s4cW9kyo3p34eKS29NXr7BCATAICp45cMXwETXeZ7GiXNlpxCuu+RBPPatR9G0bE4ckyYfiSuuW4pmxVkBhc2lKw3gExPmo69ZQ5/1HuacOhWzz13spM0Sf4b3GJIGqnhV8nmvJTF8hgSki73rz5Jvbkhbl7jgHrXyEMGcdMUjkk/fhyOQDYF4ewbsJ4umDeCGS+/Ddx96BJWmEzIHBgYwa95snHLqZFhbA/9n8wNZEssXwIcNYDUqTpKLB1y2MhlkuXGeynJz9mwF4qZUYJVhNxlJ2KjaNbz629/irBnz8OYf/7sltGRbqFWamLZsHmaee5oTnKMmtnVgyj5Hor9R4m3OXroQU89fyEmD13H3ZlqTbNf+e668Gw9/45s8HcVWHAd/8jBcdutX+J5Oa8EV6KdWlsq/OvD2TIo98e7pMRsVxLNYTYhSRTKze52ArksePe0oHTY+VQIZdjQLo0eNhYVRYLPpPp6S6eMx2kmPN/me8lCpiVqlzlcV69c970ATEiRZUH3xF0O46rIr8cLPf41lZyzHwjOP5PsCUR9Wh2eJ1gMr5q3AH37+S1TsOj72iUl46of/imqjgsFKHdPPmo9Z5y2J3RTHEDBlz0norzMCAWYsn4dTLjodqAZa91JDdeChr96L+26+i6ejWNpr/OEH4fI7VwGbs3z+8AxxxCAqUhK/w86e5+ZVZ/2qQVymvIePSBcZWaoEQuSRZ++Mi6tBbwgGLBMBzL1EZrGtkFebmPrpz6L0YQ12ycLA9pvjvofux8CObFPUIYzW5nOAQNjernfSjfNKHbhj1b3o6+vDwrNm85x7WKKEz+LZFxuBLy+5GD/90bN8pTLugP1w9ddvx4mHHIFRtTJfTUw7cx5mn79UmkBqZWDmsmECaZu9uaetHv/GQ/jaZTfw1VajbGPvCeNwzb23AJs7x3IjVzrd6VOkdUIEVINvXHOeLJmgz4db4Chp2GpERpaKDUQeCR2mg9VHrkDiCMO/2eqlo/xJ++D9Bo8AvCDZAO674hY8/PUH+CpkqNzElXdej/FHHTKc/mFb2PzRIhIJfu90T70B9Jcd8nGPZ3q3CNw/8GO3N158FX6w5h9hNW18ZM+dcMfqe4GtR+P4Aw7HqKEq35xPSiC8L30rj2cefhxXXXIZ+ofY1ngDux24D2647zZgm/7oPQzveHHYZraXImOb1F1+DLWDfp/bplUCr2kjotrW0UmljkpZ0zaTvGQIqKWw3Bn10eMPxUCtwuPkKcvnYsE5y/kM//3fvorv/P238dzTP8b/vPJHbBwaxMBWY7B45XJ8eu4U4MM6ph9+LOx1Q7zuPgePx9Vrbh1O/fD9C5eRvIM5rTM6EZuw/iDblu7yHUWtAWuuvRt/c9s9PI212fZb46YH78SWu+3AVzHHj/cIBJh25hylFQhLYc08Yz6mX7iY28HJjy2h6sDa7z2Nr6y4BKW6c2Fup7G7YdUDd6C07Zj4lccGG8fuPxH9deekl3PmzHIuzVk2Zi2dj7kXLHVIlz65QyAuIKrubcjM9k0AoKKzjE6ypCBbLmijiTSbCdx6XYaQQNoWJOwk0RBw/Dgn4LLPjGXzMH3BLNx0/Y343j98B+U6O+JagtW0+Iy+VraxcMViTF1xKtY++f/x5dMvbK0+vnzjX+L/njiJH0cd8RAKWQKJ60Emow784P5HserSv+LkUdqsHzfddzt2nLCXkzry2cNOQbUIxLscGCY/ag+EBXR3VfTiU2txwdLPo7zB2djf7qM74mur70J5py3dzZjwuwucgDYAJ4yfhAGWH2OUyvdvnHswLM02Y/kCnHLRopF7Lr3uzTmxXyYNFFQ1bHNcJlCbMFkUxEXfh+kgU0emTJR9RCAmej65DCGBtDURIBAWkMdNOAC/+/3LWLduHS9aLzvHcKvVKgbrNTRKTSw+YwlOOfNUfOOam/HIHX+Hkl3CYF8Tjz73Q2BrdhlMzRDRKREuzSWPXzz+DL5w9kUobWrA7i/jiluvwf5HHea0yRY1bQQSksIKS+lFEYgr85WfvIDz55+JxvpBTh5b7/wR3Hj/nRi923a+lUfMsdaNDRz//47im/SMhNneSemDOr+rwglk6VyccskSIhA1t8mstCi4hSmiu9dgwii/vmGkpRPoRXVE34vsEmGcFfmK9Cz694kIpNpwjqOyIFfqr+DEaSfhM1OOxw7j9nGCWwN4/7XXeFpnq112xEXzzsDvnv0lf7LeTgfugVXfupddqDD/UDt+4xl45Se/xrnzz0T9w0Ge/rnw8i/gY7Mmg99YZJfPAoQY3ANhd06co8SBje4AgbBN9OnsFFYJeONXr2DFvKWov/Uhrzlmh61wy+rbsdleOwaOBscQiHMhxdHPPfb8ubFHoNosczv4qu/ikFNfRffWLrEvLrip3IHIIgiKyIO7fsjGuqgrTKfEkrQnqkvf6yOQiEDYCmSoauOAiRNw/mWXYIvddxiZ2/euctSBpZNn4u0XXuXaHnLCJ3DhjZc7RBOazdG8eOamkD548XUsnb0QG99cz4Pu3BWLMX2le1eDt8efQ8JXIJPHHY7RgxV+C33EJrrECmT20gWYesEivP+HN3D2rMVY//p7fO9i9Hab44bVt2K7fXeNv1cS7L/gYYQaMGVv59gwEYi+s2dVU/dUkU6gTmKTbHuy5fy6mNyQl7FRR0cZuVQmHoFEBMJET5z8cZx74xXOSiLk8l1rU3kImHHoZ9B4ayO/B3HMnClYdvn5zkawKQJxj+vWXluHs2Yuwhv/9RrYTfbJ0z6LZVdf5JCV/yGJPgIZE3UKK4ZA+mplNMs25ixZiJPnzcRp8xfg/Zdfd47rlpq47YG7sN1h7mrMXcj4UxVSqTgGctiKh1YguR3busFMt54OECptqZT1dJHZBzK5wtLRUQc3qtOOgI9A2mf8oad5AykfRgTTzpiHWezehHcL23cSqhUg3b2GE/afhIGNzkW6KUvmYN7Fy2MIRKOrmH7v13Hu/KX4/drf8Nn6wUcdhi/deu3wSsd/Ustnz0BwBcKeuRj10qEh4OS9PoaBIZZSamLK1M/hp2vX4uWXXuKb3WzTm6XDDp98JD5/62XtxBV5TDpmxSV7cVEDMqpiHgHdYKZbT9UC1XZUy4elvaJ0NEUiOjqq4kblRyKQiEBYkGy7ud2a3QcaYoG6NrwCYfchPj33ZMEKRKO76sDlp56P//iXZ3kgH3vgfrhq9W3A5i4TBG+1u3qdMP4IjGZkwE9hzcOs804fvkjIn+Xn7pl4Kg0BJ+01CaOHKpwomPPyBwuzx5O7bbD0HtsfOmHRdJz2hZW+ey6ukBE37OMJhLU3UBPcfNeAjKqYR0A3mOnWU7FApw0TdeJ0NEEiOjqq4EZlwxFIlMJqbTqf565AwlJR3i3wmn8PpIlDTvgkLrzp8uQrEP+Mfgg4ce9JGFUrYcdddsaq1fcAO/RH37lw77VM2Z/tL1Q4gcxaNg9Tz3Uf585Sct57PvzkyAnkCIyusWdsWTyNxU5HHfLxiThuymfxhYsu5hcH2UqEXZZcetHZmLzklNBVmsgx+Wlml7BGEojv3oxIEH2fGQK6wUy3nophMpvmQXk6ekUdJIhK2yYlER0dVXCjsmkSSODRH21O4m0I14ALZi3Dyz/+Fddk14P2xvVr7k5+CovLd1cIbqpnVK2CZp8Fu5/tRdjOm/FcomGkxz7sKDGrV22WUN9Y43dT+D2LfgtWH/vdxlCliTlnLsSsZQtbeyfctprVIhAma6gEjD30QFx11838wYhPfvMf8NUvXYOBhvMIeHbQ4JLrvoJDT/pU/CNSQvqonUDYI+LZPRDv0SlEIHkc2LrBTLeeCgZRgV1FRrCszNFfVsdfzrStpuUlwaOX6qo9ymTEsVfJm9vuoznu+Isb8L1vfIufoh0cBTzyzPeBbapSN6qDb8Ib+YxFdiSsxB9yyFJLzqPeHbLw0krBjnXeA8LphF8yZHVYWe+lSRurDcxdeRpmnL2o/YCAl8KqsVerArvuvxeufeBOYEvncSrs+O2D19+N+792j3uXg71+pITr7roRH510oNqJLM5QTsqM3f5vJ5BectXusVU3mOnWU0GmUwQSJJkwPZKsQrLATgXnXimbiEBY7J16lsSjP9yjtT957Ee48oxLUKlbGKw0wW+inzBJ6kKcFIHUSjh27OGtG9zBlxL6O5XvW9g23ythhMZ+sr8NlRqcQBgxDFYamLdyMWavcFNaHmt5K506e0ugjZnL57ffy3Af337zxVfjiTXfba1uqluNwqoHbsf243dXe4hiaxOdCKQbBmaSYKaTYlLBJC8EwnQ2SSJJMFfBj8q2I6C2B8Iut9WcR5mMGazyGf7UEU+vdTeDW6+jG364YPOtDZh26LGoDDoz/T0P2g9/9dDtThqrtaTQvP/B18juBbywhxCG9bwb6E8afwR/7hTTiV/S82+i+48mBwjEe5w7v0joHqttPYHFvQx4+WJnU5+lyBheW+60Pe745tdR2Xkr533ezmvW4z9EINLjdsQht6hTb5Gn4aSbiiyYJJglqZtc83AJOjrJ1jFFIrLtpYVRr8rNhkB8wf2Wc6/ED771GMrNCobKdXzpa9dgwuSJzozcu+DHeyP6Pdf8a/9lO/Z73Aug/L3rDxyCm+iRKkRuag+/bp0xA3semHes+L/W/oavclgKaud9d8eND94NbN3vu5cS44J0jFd6fBKBSEMlXVAnOKvUMUEiKu1JG04FhQioEUjIPZCRK5CYNhvAuhdew5zjpvFTSuzTt+0Y3PPwavR/dBv5Z2J5J7sawP03fx2lioWZZ50q5JwRmmkQSPypqEALLsk13vwQZ05bhDdfepWnyxiJjJt4EK64+yZgjJgrvYuEo1jKLO4FVsLuHlkguFgTLYY0mui5KkmDWdL6fsA9WVnvL6jakJREVNvrOadMyeBEBCL9/gxPeffY7N/+9a1Yc9tqfmOb3QnZZpcdcNUd12H7/QJ7A/wOhs9yb9XRBN757R9x/dV/jX9/+t+w+MwlmLbyVKnN+DYcExOItycR/XRc/ij2hoUPX3wDy2adho1vrGsd7z3yxGPw+a/+hfh4r3/PhQgkpaFgTmzSYJY0mHqWmNpP0bHHRB2eaNB8j7tsPXO93puSrKaLdOipJo6JL5WkFHBD9jI8AhgCvnzaeVj71I9b70Qvj+nDSbOnYvbiBcBHRrendrx6deAPP/0Vvv3AQ/j+dx4HmjbYAw8XrFiMz52TAoFEXYwccSpK8Hh1hpsNvPb8Szh7zhI01w+1SOTkRTOw4M9XxD/SxT1dlsYKpOvdvgN7HCLMdIJnUGbUZrdMYDRFQGFEJBvUdTHQ1V23PVFf0vfxCGRLIJ4u/JEjTfzlRZfime/9kD9llu0Z8PeHVIG9x4/F2P33xVbbbQu70cC7776Lt19/Gz/7j+ex8f31qDYsfo+DnZbaVG5iwcpFOGWle9TWbUPqOVMiQowhEOed6OIVSAt+d4P/N0/+Oy5adi4/SMA+m8p1rPzieThm4dSIlcjw8WQikBBnLiiBMEtNnpiSIZ6oUKETnHXqRBGWDGklaY9IQh+BbFNYnp6+FcW377wff3vrvai/v6G1GuEOYzlv8WPvwPB/+MN92THbko3yZv045nOTMXPxXGy924783RtKGyEiAonaxw+ciuKnsC453X0xVkxnuPdhnn7ocVxz4WWtOyL1io1LV12Jg4/7+IiViLfn4hBWdo8yGRmXE5yO0/dPYzVTPHQ1QkeTwcwEiSQhjzAik5GXFAPV+qrljTlWjwtSIxD32OvR+zuvtG1Y7Fb0fCw8d7n8KSg/4N67v9+r4dHVf49/eewJvPSfL/J3lnuzjlKp4uZB2XtHgL4xA5hwyARMOuZITDruGGCLqrv5zm6js3qC01vB9uuA94relj3nLY+/p1EDv2/C3ofCdOKvmL1wKWz3HmGkT/mI89HbHsDt19+MctNCnd2W37yMVXfdgrF/dsBIE2JOfaXlv8UhEIf42EuBeTBMCzCf3DSCmSqRyAR5WSh07NGp0zZRDDnbnrd3qcjiV+Ry8gTiRRTvBBQbl2w0Bo/PBkcoIwPmDIG/8xQT+6P/OC6T+cEgfvn8z/HOW29j3bvrMLhxE6r9fdh2+22x+x4fxZ+M3bM91eNPM6lGB9+mPH87YdCeKHke8XmXPrwjyDLtB9v0ohqT4dkSlPOhjSn7foyvQNhbbtkbCWdcnOYbCRVXcjkaIV6QGQ5g3b1yioPW1CZ5jrpPW5WkhKXdcI9XVCIQ9rLaptVAA/w3/r/38WKef+bK3nPuxEUv0jo/SyjBYs9/588NcVcM7jOqHEJhz6lyf/IA67bDAyx7x7hCrwXlK1TNRVEbaLz6HqZPPB7VRoU/4XfROctw/FkLgAq72UkfeQRKgMX+l69BJbsDASKQzvSTZdsNN+bHp36cR5U3MIhBHDnlSAxW2Wti2eua3GyP7aYKrBJ/vlTFbqDcbKJi11GCDYs9V8Qlkr56H5585Bn25MKRVvtXOm1rWvYPtzUeAIo7s3Sup9stEj1mvwP5zX/vIuJgtYFNlSYnE/o4CMgcmqhZFv7tP18ASgppTg2AVdNNYU2YTEFpmNBVVUzg3VUGp6isqt9JEwjTuYE6J5Aaavxng7/vz0vZDwd0Ft8raOBPJ46LJJAtNmyGqksg/sEfHQh88vlzrNgOOPvoBwO2UV8v11oPXZTtF+8ZW7LlZco5D3V0gyF7ejDL+jWAShOYefJMPLbmUf5lvWxj9cMPYPt990xierhKzRLQqA6vCmUU76YyjDhK1dQJRBYSCnyySKmVUw2CatKptB+BkBTWyJm9F9RZyor9xxJYdff3keHb26xswkthsak03+9wVyBtKSyZ/pB6YJSMoPYydqmGw6YczldTwTuLrKT/b63f3XSadzosuNms9W/bxpNrvo9r77gWnzr6Uxi3x/7oRxVvfPA/+PbfPYz77ryXP3aeZfz2GLc3/ube1ajD5gTusUhYCpHZoKJPH/qxOTaDZTMSUcez4zXC/KQNGF8KK8tjWR0HRl+BvJBccJLpWaR7b0QfEaqpRCBxqQFvZ8MvUDbWy6Qcgl2lUyeuu9kqaj0+wCCGWuuYIH2O/LfzF0aC7CMu72jgEW1YeXYOYfLUz6BsO4+V9z6lJntfSdlN/zmrD/YU4xrbh6o492a8PaQ4+aL2ve8rjQr+dc2PUEE5wbqu8wOM7bKx/8ut/baQVSoRSOc7SkGDPBGZgtqFL2rZTfdZAREbi8nHmd5eReT9MHZ6S/j4Wl+/xRjAZvB11NoOA3SixxkZ9aGMieMn8OPRLG3FHsRoszwW05HFv83KuPjyS3HU8ZP56s9ZDZrNYtXQwKTpk1ArsX0r5xNFkEGcROVVv//+g/+sSdBNVFFBP/rR5/5XZgc26NP1CMiM+7TTVzI6ZAF02nbK2qBEIFxpN3jLH2QRE0jYyiI5cbkQGBMkC6lGOQZRHVj1xavxh1+8iDf/+DrWr/8AfX1V7LDLTjh40p9h+sLZGNjJfeCke0iNtSTfD2K9VFZkaRPIZ2Yco0QgZff9LmxVxk6r9Q314alHnuKpQMuumAVKDCWVSAGBuOCdl4CagtmhIk0QmQnM5I/xZoVML7YTvAsT3H8I3hExyRo+vPOyIkvqAv4UlpOM0z9okVQXqk8IFBkBIpAi9y7ZRggQAoRAiggQgaQILokmBAgBQqDICBCBFLl3yTZCgBAgBFJEgAgkRXBJNCFACBACRUaACKTIvUu2EQKEACGQIgJEICmCS6IJAUKAECgyAkQgRe5dso0QIAQIgRQRIAJJEVwSTQgQAoRAkREgAily75JthAAhQAikiAARSIrgkmhCgBAgBIqMABFIkXuXbCMECAFCIEUEiEBSBJdEEwKEACFQZASIQIrcu2QbIUAIEAIpIkAEkiK4JJoQIAQIgSIjQARS5N4l2wgBQoAQSBEBIpAUwSXRhAAhQAgUGQEikCL3LtlGCBAChECKCBCBpAguiSYECAFCoMgIEIEUuXfJNkKAECAEUkSACCRFcEk0IUAIEAJFRoAIpMi9S7YRAoQAIZAiAkQgKYJLogmBNBGwLKsl3rbtNJsi2YRAKAK5JhAaIOS1hMAwAv7xIMLFJKEE25WRrVPHb5Pq2E/anghP+j4cgVwRCA2QaDelAdK7Q1hlXIShJBPwg/Xi2pSRp+uvYe2m2V7vepUZy3NBIGGzDZVBI+NgeR0gOrqb6XqSkmcEVPxfxg5VPyMCkUGVynSMQKIcVMXRVZe5UUvkoBvI6GBihiXTDrlobyIgGh+qBKPqa50gEN3VR296SD6szgWBqDp3GBGoyvCcldXTIYOkdVT1zYe7kBZZIJA0eHs66k6wROQk47uq44PIIwvPMt9GRwhE17FNme8nDyZT1dl16nTaZlPYkZz0EdDxxyitgr4u0j6sbR19VOoQeYh6Jb/f9xyBhA0oFWcPm92xv8XNyog88jsA8qaZji+asiGqbR2dVOqolDVlK8kxg0DmBNLJYBo1G9NxYJU6qrNAM11LUjqFQJxvRKWHvAmIil+ZtE9FZ5MpLF17TaTZTOLXq7K0CETF2TxgwwaIjCOa6pi4IK7jxLJ1dMmDBoipns9ejkwaKKhVJ8eHyJdF34chLFNHpowoNRf1fZaxJXsPy0+LxghENlB2YgUi0k3HkWXqiD73G9UAAAxvSURBVNpVcQOZ9lTkUdn0EBCRf1jLuoc5TFghGpM6vieqI/peZJcIYyIQEYJmvjdCIKI9AE/VpE6ja7IokOvoJaojalPVFlF7qvKofHoIxAU32b0y2TGV1AoReTD5Or4XV0dHnsjONGSK2qTvASMEIsv2nehkmUCuo5fMAJHFRcYRdXSUkUtlzCMQRiAyvpB1H8u2J1vOj2RUHR1ZMj2UllyZtnu5TKEJRIY8TM+wZGZ0Og5HA0QHtc7U0e0r3Xo6Vqq0pVI2LtugI0fWtjRly+rQi+UKSyCy5GGSQNJ04jRl96Ljp2mzbl/p1lO1RbUd1fJhYypKR5mVmYx9OjrKyKUy8QgUkkBUyMMUgXgwBzdDaYD03hDUDWa69VQQ1mnDRJ04HU2MER0dVXCjsuEIFI5AdFJIOs4nynPr6BHnpDo6ktN3BgHdvtKtp2Kljl/q6BU2PpieYafNvL+r2BEsq6NjkvaoroMAEUgKp0x0VzVEIMUYlrrBTLeeCmpRgV1FRrBs2ApCZYJFBJIE/c7WzZRAgoHVxNJVNBMxAa/MABGVSWprFsHFBFYkQ+/YaxqTjrC+6BSBBP1fRDCqfkTjQxUxM+ULRyA6sOg4n2wdnZSBzMBPSkg6OFEdOQRkfUPUz2n0cV4IJIwwk6xEkmAu16tUKtRfbQ0vTdJZpgKqye7UsUeljgmbVdoziQ3JUkcgSV8lqauuqVwNHZ1k65haici2J2cxlZJFIPMVSBZpLFnjvXI6zqdaJymJqLanigGVN4dAkr5KUtecBe2SdHRSqWOCRFTaSwunXpRLBJLSJrrp9AQNkO4Znkn7Kml9P1KeLI1EQ0uMjj6qdZKSiGp73eNN+da0IwRichXSLQMkbLWjMqhpgOR7IIUFbe9vKv0cHBu6MtIYYyq66PhrEhLRaa97PCq/mnaMQEw4eNK0UJYprKgAIxtcaIDkdxAFNTPRV2HBlLUj4y9JArFo5ayrg4zeScjTBObd42H50bSjBBLmMDKOZtpZdOTp1ElCIknby4/LFV8TU30VRSI6CMqMqyi5Ovbo1Ima0MmQVpL2dPCkOg4CHSeQOKeJ66QkA8LEjDGpw6rWVy1PDt45BEz2lQkSSTpWdOzRqRM1wSIC6Zwvi1rWIhCRUFPfm0pRmdKnk3KSDshO6t5rbafRV6pEkpQ0kgRz3cxCkjbTwLzX/FbH3lwTiI5BRa1DA6SoPatvF02whrGj8aHvR0lqEoEkQS/DujRAMgSbmuo6BGh8dKbLiEA6g7tyqzTbVIaMKvQIAqZPnfUIbEbMJAIxAmO6Qmh2lS6+JL07EPDGgX9/h8ijs31HBNJZ/NtapwGSo84gVXKHAI2P3HWJ3jHe/JlRDI1kBojJ0zXFQI2s6BUEZE+i0RjJziNoBZId1sKW4gYIDQohfFSg4AjIEAiNk2ydgAgkW7ypNUKAENBEgCZYmsClWI0IJEVwSTQhQAgQAkVGgAikyL1LthEChAAhkCICRCApgkuiCQFCgBAoMgJEIEXuXbKNECAECIEUESACSRFcEk0IEAKEQJERIAIpcu+SbYQAIUAIpIgAEUiK4JJoQoAQIASKjAARSJF7l2wjBAgBQiBFBIhAUgSXRBMChAAhUGQEiECK3LtkW2IE2O1nejxGYhhJQEERIAIpaMeSWYQAIUAIpI0AEUjaCJN8QoAQIAQKigARSEE7lswiBAgBQiBtBIhA0kaY5BMChAAhUFAEiEAK2rFkFiFACBACaSNABJI2wiSfECAECIGCIkAEUtCOJbMIAUKAEEgbASKQtBEm+YQAIUAIFBQBIpCCdiyZRQgQAoRA2ggQgaSNMMknBAgBQqCgCBCBFLRjySxCgBAgBNJGgAgkbYRJPiFACBACBUUgtwTCHmIX/NBD7QrqhWSWFgL+MUJjQwtCqpQQgdwQSBhhiGwzMWii2o2TrVPHb4sqOSZtT4Qjfd8dCKiMERNjw0Ml2K6MbJ06UWMki/a6wwPyp2XHCURlUMTBJ+NkUQMiTG4aBBJnaxrt5c/dSCMdBJKOEZWxITNGZOTpEojq5CoJyen0BdVpR6AjBJJ0QER1ooxjs7oy7acR0IlAaPjJIiDjo7KyWDnZsUEEooIqlSUCifAB0wSiSx7kor2JQC8SiO7qozc9JB9WZ04gMgNDZrak62wy7YtmbKp7EkQe+XD2btHClL/obrKLxojO+BTV0R3P3dKnRdUzNwQicrCwDlDNs4oGhr8NUysQU8GgqA5Ido1EQNWv4zD0ZMmOL5kxIiNLxQYij+4dBZkSiOrM3SSsMgMjSwKRGYQm7SdZ3YGASuA1bZHsGJHxXRU7VMqatpnkJUNAmUDiSEDWAYMqyzhkEjN1dDaxAtElTFkc08YtCea9XDcuIMr2rYdfVn2sorOMTrKkIFsu6E8iHGV07GUfNWW7MQLRVSjtjhYFcdH3MqmzsMGuI9eTIxocWQcX3b7t1Xqy/SfCJ+2xEeVvwXZ1grxMHZkyURiJMM4KO1EfFv37niQQv3PpBHpRHdH3IqcSDQ4iEBGCnf1etv9EWmYVBP36hrWpE+hFdUTfi7ARYZwVdiI9i/59KgQi44RZBMEwJxPNrmT0Mp0SEzlZUkISyafvzSIQF9xUUqNZBEEReTBkdIK96ZSYqId0dBTJpO/FCBglEJXBIROoxepHl5ANurLl/C2JZj9BrZIGAh0dk2BHdZMhIDNxCWsh6yAo255sOZ0xknRseG3q6Jisl6k2n1zYij2oG8x06+l0k0pbKmWjnDVOR0V4Q0Xp6KiDG9Uxg4BuMNOtp6O1SlsqZVXGiImxQQSi0/vm6hSOQFSDrWr5sCW9qDuSDhQdHUU60ffpIaATcMP8KqnfRFmoqp9qeZUxYspGHR3T84DekVwoAtEJtCbrpLUS0dGxd1w4f5bqBjPdeioI6LRhok5aY4NWICq9b75s4QlENMPRCc6qeyBet4l0kZ0xJpVn3o1Ioh8BnYCb1QrEr5usP+rYozpGZHWRHSNJ5ZFHyyFQeAKRg0FcSuboL5PCyumQUpwGpuWJraUSSRDQCbidIJAkNvrryp66jBtDSQO+LuamMOhVOUQgkj0vQyBembjZl85AIQKR7KScFNMNZrr1VMxWXRnIyJYhEJnj8zpjg1JYMj2UXpnMCCRshuXN2E2Zl8bgCEsXyQR0kyQi054pDElOcgSSEIFOiklF4zTGiA6BmI4HSTBXwY/KtiPQcQIxTSKqHawTnGXrmCIR2fZUbafy6SCQJJglqZuONeYvEvr1DPNtnZVIHnFLqz/yJJcIxLJC+8PUpUgTJEIEkqchI9YlSTBLUlesmV4JHZ1U6pggEZX29FCgWmEIZEogUctW3VWICafRCc6qdZKSiGp75OqdRSCpXyatHzbD15nVe3J09FGtk5REVNvrrIcUp/XcEIgqiSR1uKjB4f3d1ApE1I6M3UQg3TXgkgazNHw77wQSNbmU1Tsp5t3lYfnRNnMCiVuFJAneMoE4dAmWcgpLlO9NYrPs4MqPu/WGJiaCWZJJgykCynIFEjfRkvFzE5j3hneatbIjBCJDIjpmyjhaUK7OQNWpk2QlkqQ9HRypTjIETAWzuNSnqoY6Y6MTBKK7EjGFuSquvV6+YwRimkR0B4hOcNapI7MSibIhaXu97uRZ228ymJkgEd2x0SkCCYsNIhtMYp61v3Rzex0lEJlZeRy4IqeS6Rid4KxThwhEpjeKUSaNYKZKJCbGBhFIMfwxTSuUCSRNZURB1uSgyMoOE+0kJSwTOpCM/CHg94teHRtJSC5/Pdp9GuWWQLoPyvQ0JgJJD1uSXAwE0lj1FQOZdK0gAkkX38TS41IXvT7rTAwuCSgEAqZPnRUClIyMIALJCGhRM2EzKCIPEWr0fS8h4I0H0YNNaWKVnVcQgWSHdWxLRCA56QhSI7cIEIHkr2uIQHLSJ508ZZMTCEgNQkBpkhVVmFYg2TkSEUh2WBsZHEwIDZCcdBqpkSkCMpMsGhuZdgmIQLLFO7I1Ghw56QhSI7cI0J5g/rqGCCR/fUIaEQKEACHQFQgQgXRFN5GShAAhQAjkDwEikPz1CWlECBAChEBXIEAE0hXdREoSAoQAIZA/BIhA8tcnpBEhQAgQAl2BABFIV3QTKUkIEAKEQP4QIALJX5+QRoQAIUAIdAUCRCBd0U2kJCFACBAC+UOACCR/fUIa5QQBdnGNbjbnpDNIjVwiYLEnYzDNaKDksn9IqQ4iEPbwvg6qQ00TArlD4H8BC2VvUHaOouEAAAAASUVORK5CYII=</t>
+  </si>
+  <si>
+    <t>nx4p4</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAZAAAACuCAYAAAAYuFulAAAgAElEQVR4Xu19CZwdVZX3v97SnU5CII4oOir6oSgwOMoiWzAMiiCEJWQhSXcCIUkTshJCkE1BHBSUxQgEJmHfQUBFcZkRFQRxZXBB59PPcQEFJEBYku5+W32/c+tVd3V1Vd2lln6v+jx/EcK799xz//fc87/n3OVZtm3b8Hzcv1je/5jmv2feYJqdMZCddf+zbs8AEq7CCDAC7YGAxQQyygOVtUPPur1RhpebZwQYgfQQGH0CUe3bmHN8DR8yBVWk1MqNOTzVYOFSjAAjoI4AE4g6VhmXZALJGHBujhFgBDQRsOxGcw8ks00PTQ1HFHccqw1nRd42aut2O+EIIWFxur3h8owAI5BDBJhAWnVQE/b4CYtrVdRYL0aAEcgQgREpLGnbPk80Vh3TWO231D64ACPACIwZBJhADIeaCcQQOK7GCDACuUFAn0BCuh7mUJNztO6mcsKnkZCW3HRsZAjPpt52E4/cbgalgyNLZQQYgfgItBSB0J1GywrzhGk5+rTkRg9OUF+j++/IUyEQFTnxTYclMAKMwFhHwIBAgk9BhUYgYaSQXGgyOmOYlP6KckKLKdb3g2RYbXSw5lYZAUagJREwIhA6QlsHRPKHEij07wOowUYdBdRQEOtkiiSGvZISAIA/2nDKu3ItWCiihKL4XwFW8+humkgGRgbNBkkvt2eWDRQkaSMq69YJ09kvgvAMEmvi8BuwQRh69fYnADnzlaY1sWxGIN8IRBDIUKRhi1sXQ67GIQyHOOjTD2DaGTNQKb+ODnsAJbsKuwFYHm91yyW3eNww/WvYXga5PXKiBZRQRhe6MA5dGI9xKKGU6miEpX6on/Sn1vwnad4JoOjRJsgRuzhRPff7ICJwSYPkUQ/DSMRpTj3l5tXbJT6ST+1Et5EqzGNSeHhq1oHD9yTdmMSIO91+CEgiEHLmIy/sVQDsOeVoVNEhSKK/ow8vTnwJ4yY38J0bb8dklFFAA5YnAlnwiQWDBEIy6fpio1BG3SqKUgXbRtGm6KUOWA1YdgHFRhHlWhl3XXEPOlEWUUgSHzfCcf/pl+lGPhT/UAREBPBfP/oN1p51HmoUFdk1LO2eidVLTxzUKIhABE4HH4WqNQ6WbYn9nUaTAKh8oVDAuHEd2G677fCut78Nu++6Cw47ZAr2fN/bUW6SzkhHP5xARuyJNOM/6hO1P6h3gwi5jt4FM7G6d74gEY4+krCmYBlhhBFGFDKCidK0FcgnSH8VvXT7rSJTZ1RN9dZpI89lDS4SNtCPAt43dSYGrC6BTb1YR7VYgWX1oXfOsThj4WJ0YADFwRhlCEKKZhqCJjqw/uYbseH2e2FbBYyrD+CJ734fneiDJVJhtOJvoIIq5qyZjWqpinrBjXnUh2Qo8vHqMJRgC3KilDQbjwnowHiUMQH//bunsXDl2dhac3SnKOvUucfi9KXdg44+SCOKzHb/8Ez0FRycwj40KYqWDUqLwa5h7z13w7lrluJf372TiEi8kY5XhhtVOP9tiFjcyONnv3saJ686B69XHaosNvqxrGc61vTOQwcTiLoRGZSMcoyqTtAvo5XJx9QR6xKIOxSqGMqGzlRvmdyx8r0BgTgpq/dMnYP+4oTB9a5wgqhgUqGOb957K3aeXA5NOLkO7rKNd+Pq2x9A3Sqgq74Vv/7h/SI15CaqaqhhG/rRjz7xvxqq2uMyFPmoE4jVKKKz2onbvngf/vrii1h4yho891oVtQK5XaCjUXEc8fyTUEQ1kCipXB/GY7fDj8RAk0CKFtBRKsCi/B4RZK2GRgOwBYsVgEYZpXonyjUbk8o2Pn/B2ThiyvsDSWpkKswhCfrvhNLvn3kFC05dg+dfq6IyqHc/Vsw7Bqf3nhBJTNogc4URCGRJIHHgN3Xg1KbrxHWjLa++cdr36mCCQRy9TdrLYx2DTfQhAiHHSOmcQw89FD/4wQ/QaDSEM5017TBcfMbCYatc7/5CEIGMb2zDk4/cB1qruwRC6/26+EP/o3Sau8oO25wP3pT3D5wshUWpHzoUMGPtAmwrAwPFgiA527JgNyyUrAbG1ftEJFK0K8NSdW5bFPlU0Ik9Z38Udassdt8XLpiL1dMWi1SS+6Eo6xn7eTz569/igS9/H3/8yUsoVyaKCGxCuY57rluPf9l5x9CUkwhamntU9O8k+dlXapjTuwZ/fn6L0LtODFUooqMRTiD6m/TqezGJTBx9BRNp1lSIzDGqrKBVIxBTHePWk/UxSn4Y+QThkgQZ+3VJQ2ZcPNuxfmwCKdsVnLhgPl5/9RXc/9WvoWYX0FGo4pu3XYv3/fPkQMenSiCjASj5KTog8Bz60X36Ivz8L79CrVjHlIMOwKOPPY6GVRT7Nb3ds3DasYtE1OXd63F1psinYnVia2kialYZRdtGuTGArsZWcchApKuE87ccJ2+VgPokHD7lBGzYcJv4ewfq2H/Pd+HmL1yBUkCk432v1zkNV8SrqOOkFafhyT88i6pVwsEHHYDHHntMyCs1Kji15zisnX8SSqjA2X2iHZ8COtDZPOmmirpvLybyDo+qzIhyTCAtt9EuI5AokpTV1bEYFTLWiXp05enomreyiRDIyfPnYt6saZgxsxsvVwoin3/01H1w2QWnDTut5EYhUQRCKSx3A9kEbF0/4+rk1iO3uBXAyWdeiEef+AUahSp2230XbPrilZhy+EdRtSjqamDpvGOx9sSTlVJYRCRlu4YlPTOxbn43OsX2tvtxj9kWMIA6jlk7G1s7LVQLneIYQkdjQEQ6RD5Be0okhR5ULlgWNl1yK1Z8/jw8+rMnBGG8d7fdsPHTV+KQWYeiXihSzgGn9MzA6mMWodw8bk39HodxmIw3YLyI/1rz4z8hJ70sqWsICXc7KHrQjSh0yyfchUhxSfSPGtDtYxziUb28ywSibknxCKTYiQ67jsXds3D64mNx1XX3YMNtXxUr4U67D3dffw0++O4dRSrL+1ElEPceBZV3UjXO5jdtKoedIvISgZvSEae8mn+i6lE75NrP+exVuO87j4rN/V3euiNu2LgekycC+3x4BrZZXSgXbCybezRO750TuRnt7hUNEE6NKnp7ZuATi2egc/ju9yA029CHl7AF33/uZ1i48izh9IuNOi761Fk4bs9DRBTi/zgYEbWUMO/sJahanWhYEKlF9zACjUel0AlYdXTV+1C2B9BRp+9tsf/SUSvjvsto/8k/UuqGZFKSzriVxem65I5nDzoJJhCTIVGqE+b0dcnAhECC6tB/U3H6cclHCZwxVig2gZQbNfT2zMQZi6djWz9w6MyF2Pw6HcdtYMree+Lmy84SUYh3d0I1hUXlbrn3QVy8foNY+ZNj3PWdO+OO6y/DDiXaKxl+ENdxHu51RuCeB3+I8y/5IhqWs5Kfc+yR+NQZpwa6Kzd19YXr78d1t9yFBkrYcfvxuGPjerxjpwnCdX/wwzPQVxwn0lHLxWa0IYGEGFkdNQygiufrFXzoyBMwgA50oIYzli3CKcceI062eT/OBUFL7LVccfud2HjzneLrN24/HnduWo+37fAWVFHAXod9FP1FipzqOLV7OtYsOKkZgTh7MQOoYMbamaiUhstXnQtBJ92G6obvlVDk8094g7jnE8iMwluoauE4kThOQr0leckknKyKQ45zisikbpROKvr6kTOpY0I8cfWOY1cq5Ca3qNYsYUQg2wC8d+oc0MqaCOSUnuPFyprm+oY7v4PLrr1Z5P1L9gBuvuIzmLLXe4alpYYI5C5cffvXxR5A0Ca6exFv3YVfwte+92MR2ZTsOo7/+KG45KzFQqb/noR7CunXf3oRPYtX4tW6JfYb9tvzPbjhygswwRrapHeHxL0keOfXH8b5l14t0j/blS3ccPXl2HvXNzedLPABikA8BLK2d470GC+dVnMjkCXdx+OsJTMFoYZ9GjbwOoA9Dpkj0ljlRhUrT56L00482okPPNGLGzHdHaE3RUGkd19hvIhTls87dsQpLDrl9iJeEufdTD7ek24jnXg4gaQV+Qx/waCkw0Em3Q+so0ogYkibv+lm6lxNiCBpJ2wiz7SObj0ZScm+j2sUeSaf0GO8/gyA9+9hBELpoVdrwMdnL8EzL/XDtuvY671vx90bLxl2PFeVQNwU1itVYPaSdfjdn/8u7mHQJvTFZ6/CzCMOHDqO2nSsdOnv5QFgxsLT8L9/e0GM/dt23B733nAldppESZPhi1qqRmmrbz/+FE4759Oo2iWUrQauueQC/NuH3ifkU5k+4YinY1thYtMRH4NBAglISbl1XKIdlsLyWaR3H4bc7V8292HqjIWoWZQiHMD5Z6xA99FTRhAPxQvfevwprPHoffXnPoWP7L/7oN40VjICoRNuVbEDo3/PJs7kciKf41Ep6R/PpnbDIh+6x9OFCZIXDNI9RRZ3xRvXSUYRk67soPJB8k0csUkdHf1VyNVUhzi2r1q31cnHiEC8uX1aIdPGLEUgtEImV3DXNx7BuV+4FjWrKBzgFRedh2lT3i++J2dZFzeyAe89kKAIxAWZHPzvn92KOYuX48WtziXDSeU67rjuauyxM917d0jBjVhOP/8KPPjIz0Gr+YkdwK3XrMcHdnnjiAy/G6088T9/w4KV67Ct6uwdnH/manQfddDg/gaR0kgCORZre09w2m4SiHf17SeQcq2KUxY090BCrMeNhO76xg8d/GCJvaQv33gt9tplx8HUm0vApPeJq87E1opzi/9T61ahZ9qUYXp7CYSub64IiEAC1XFXDO6XGqkk1ckRFvkU0RC4UvqOjjx7Sd+7kFmwckHzDk1zDMi+KMKsFzF+oAu3XPdloNIF1Eia51MsAOUiPQUQ8aSOai+Cy+kQSJiz13VsquVVy3l7plJHpYxplKWry6DZ+l73VjkmnJeUk4x8kuinUQorjEAoNeM6zo93r8H/+9s/xDju+vY348FbLxeZbtfRkxN0CcRGCePs10fcAxETSzz+QU80At99/CksO+ciVGx61KSBd//zjrjvhi9icqeTyiKiueH+7+Hi9URelEKr44pPn4mjDtkr8OIcyfy/f9+G+b0r8Y/X+8TpqhUnzsLKk2cIB+beAB8ikBnY1kwFreg+DqcvmY2S71HFwWjCtjFgWeLCpUhh1Wvone+k+sJSWNTO5gowc8Eq/PG5l0Uf/8+bt8O3774W45r6uKT3h2e3oqd3FV54rU9cTFzV1Nu9uU44kzxdAtFJQcVzsUT4dDW0OiLyofNnpcYAMND8U6OeaH7qJaBRpPdyAPc3UyhVRA6lsxOYNMn5Z0ofmTOVfa+zyg5zlkHEpLIiN3XyKn0ylW1CIKr6qJZLyVTaWmwsAqmUxqFcrwydLnI8PioW8MDDv8LaT/27uAtBt7UvPnMZZh/5YeFwaZWoQyDOm7KW2EK+7Mav4tqb7hLpHZJ7zCH74NILThcE8uT//A3dy9ehv26hYNexZP4snNl02M4Ceui2tnvhbl7v6fjrs5vF+1vTjzwMF3+CjrgOfz7ETyBETKefME08CYJaFWiEOLhiF/abcpS4CV5q0DHeWeg9pQewB4btZbhnxOzX+rHm3M/g8SefQtXqEHdMPnPGChxxzOGATbGdo39ty1bMXbIaf33+JUGux007DOeetQpouGUadLYXKJaBQhkHHfgx8ZwKEdKyecfh5KULgQbRLTnUpv16Iw7X0Qov1kz1uE44C3On6/nVOj55xOGYUK2go0GjFaToMLcS0JFgZV/u7MRnHnmkpQhExdmrrBhlBKHrLHXK65TViRCiyCMIN13yNdE7i2kga0MWYcjqR32vYmsCZzusZMQxyNDjqU2N3FTSnCWfwC/+8Iw4PbXzGybgm/duxCRrKAqhCOSqOx4QTjAqheV2lNw0ub2l6y7CQz95Co0CbapXcfba1Tj8sAPQs2AZnt78Kugp4I/t935cdYlzAsz/lpTYJ6kCJy0/G7/8/V9ECurQfffAhkvPHbZX425YDyOQ4jiMr1XxyeM/jpMWzgH6XwdqIaeXrE6cetDHUKPjuHYdi3rmYt+lJzqJPhGq9QPbtgJ/ehq/+vkvce8D38QLr24Thwosq4CDPrQXFlz+WcCuiD6Jz0AN1y5bKfSmRykP3n9fdF96cVNmk8ioQyKtVgSsTqw4cCoqVgfeuOMbML7eh066Pd+g81m2GBv6FPwpK4nDHrwImUJqq1IoYlupAxd+51tAmUgw5iOaLiG6/6QUVqkM0D9T+qg4JVkZ2fdhqoeRiK68tMv7Hb3MacnIMUlSSsksEhUrwyvRxkKEWbZdb7oO32QKIhByYnVyZCXsc+BRqFu+lTWlHYRVFITz+s3Pf41Fa84Tq2naC1m7bBFmzT0WsOnF3TJuuPZGXH37V2BbRXQ1+vDYY//prLTDVvTiffgiGtuqmHnSMrECp0+pVMDuu74HTz31G3EnYpd3vBV3bfoS0EXUUR9yvi4IhTLOXPtJPPzTX6JqlbHH+96NW6+6zHmjnfroOuvB8iXBegcceAQGCpSOqmLdnOn40Vfuwg6VPnTWB5oOmKhwyBOLm+jFSSKdRrs+FDHRZrolkkvCbYv/F8+k2GXhzCk6o5QUHRUu2RWBW6FRE8dT6yiL47ikc8MqiXLie7qlTs/IWPawEz10mozapvLVQhkvvvCCiMr2PXUJxCNcIqJx+xu26TGCWRzV07xnUSoCHZ1OhEB/SsndE8liUvkdo4DL4KSVrgP39k22OpU5H5O2ZW1mhX2cdmS4xJGdx7p6KSzKRVcGgKqNhXtPRYnehUIDJ3fPcVbWIs0ipk/TP47D9SvX4SdP/ApFWNhhYhmfu+8OYHwZsEp44trrsfG2LzdfuK3gLW/Yrvm+VNhpIGfznbZV6WHDaqFDpLJoU55WxLTKp4hEOF6Po/Y6dVKsUiijvzBRrMrpfStLOGvn7oq4WeHzmSLlJlbzdH+b6hcwUCrgqm9/Y+gHPMSriM0Uklu/MA77HTyt+ZgiJeLomXoiGScVNdSO898o7TZ5Qhm9J/XguLmzHKKlFgfldeGAKQ6Jvf2tb8JNG/8Dkyd7iD+IAyxg3wOPQs3qABp1LFkwG8uWUhqtOVRBekdZehYpLbG3XXJ+sYuiBO8Py7TJLPQ6U50nPfxl29kpqzhj0/6pELJK+zpk3yaml6ma+gQyMIDVRxyFjmqnIBBy2nQSy33jyas9OV16cJFW4u57UJ32VhSbb0HVhCPvGiSQCx64r7k/IDtOSsv0El781ndx7kWXihU2fcp2HVd/4UIUD9hHPIse+ouIzdQSEQn9JkepVBpM4fhTOu7fSf7AwICIBPqKRbw2rguvT5yILZ1l1IoNLFvYLZ4q8Z4Y8r5aTMRBx4M7S87viYjn1YtFdJZLIrX0nnftjP322hNHHnYwduigE0hDp7tcTAdTh4UudFo1dJTo9FVdbP6P/ND7WhS1lLCtSiffSoKkOqwqOotEtvQ2VwWnLpyL3vkevaWnr1I6/ppmRJPplBr5PEdSzas6xKhIRFWGqWOP6qvKCSgZVjL9s9JbpudY+V6BQDwOIyCFVaxXsXT+bCymzWE3heWiJ1JZZVxw3r/jwYd/JpzYDp3A1++9AxMmd+GGDdfjmtu/Kp4M6QxLYQWteOnhwUIZP3r4x1h13kUiCqEPRR/LF8zGwiXdzoaycNQBFz8KXdh/ylEiHTSoKr2060kzRLnJukVRSAnVYgGVAv3s1ABOO2kOli+cOexiodfhE2lQ+mjdomNEGfr4r4+4h0rd51oGCzX74CckJ5KhqCbYXN1n4kVijfZVBqMfpw6lvxy9jw+5EDn8pv9oToq4/DIMa/GXlIiwCZJOCiisrI6MsLFR3Tfw18/KESfRxyjCTMJmZaSVRBvtKkOPQJper99yfg+EbkrT6aKg46kCdLECBn73zEs4Zv4y9DVK4in0udOn4ZOr5+HKTXdjw+2yTXTfq6/Nuya//esW9CxZgS39NmqFEiyrCKteQac1gKsuvhAf3X+35s1t53kLrwOhjfh/mTJdHK8VSSvJExjkfJ1Xcylh56SM6HFE560pG6V6H1afPA/LF84OjEDEjX26BzJ/Fs5aMh0dfuYQEkMcmsdz0g7THgdPFyksmc5iqJp61+jdXfrlR0rViQRgvbl/UsWqhSeM0HvImLMlkKg+5ZlAxPog4L5CXOcaRQIyp8gEMjQLZFi1q/NPQm8FAhnZjLsSDiYQ3/tUzefRz7rketz7rYechxZLFh686ybc99Wv4D9uu1/5FBY5ESKkl/qBmSevxv/+/QXhCD/wgb3w92efw3P/eF4oS/sI9Dsau75l+8BHF927FEGJnyBQaWdDvIU1dbZIyVHK6JTu47FmyfTBhx2Dfst82Gk1ugfSMxOfWDI98imTqEF1LxqGBBwjqpLORDp7N/UmrJb2HI81ix293Tsj7f/ztiZE1zoRSBoEIiOANJyiCeGZ1EnC8UVFLWlgk7TOrSIvFoEEX5AbOZkpkfSnF6s4+oQTsaXuHKo95qMHY6eddsKmW78s/q5zjPfUMz+Lh376GxEVvGWH8bjjtk145m+bsah3OfqtDpHr3+Odb8Kdm67A9nRaU+9NvhFjM/weyESxh7G8m54yGX4T3V8xaQLRNZqRFwkbOfxFQlMiMK2nNgomjjEpp68SzYgINeRkmFoPR5ZKos9J66TSFxO9VeSOhTIpEMhw2Gi1TFOVnNnnNtyGTfd8yznWiyr2339/PPLjXwiH7BLIeDqoG5Diof9Eq2l6LXfjLfeIH3aiM1E3rv8sDvjXXUQbN9/zHVy04cbBW+hH/tuB+NL5KwIfXdQZ3BE30e3GcAIJEdZaBEK/cljLIYHojGR2ZU2cUhIEEtWu6X6IKmpJ9JkJRBXt1iiXCYFQV8nBP/+6jUNnnoQtzesi7uYu/VJeFIG4bz99+9Enseq8z6EKOjVVx8ol87Gq56jBTWkSu/TsS/HQ40+IWxd0Y/yc5Sdi4ezDHRIxfO476CkT91VbcVpKRiCFLvE76rKnTJI2ieERCBNI0vhGyTNxpkGpLG8bMueqQhAqZUxxMumzSR1T/cLqtYIOSfcpK3mpE4jbEYogaPP6ylsfxPrrbhcX22hzlwbPSyD05pPv6TtR73dPv4K5i5bjlQolrmxxc/zaL5wrNsrdm+ZENJu3ATMWLMWfN78m9lbo1/+u+9Il+PD732n8S4fxCGSec/kwNQIJT8UEv4Xl/I6Ju/+RlaG1Tjvppq7cfpo6pSQ3vlXuSgzOzwTSWSZ9NqmTtC21gg5J9ykrefEIxF1ZK24OExG8XAMOn7EYz706IN6IIiMvoyp+Ke+/H7532FMi7sp+Sz8wa9Ea/PEZ53HGt+w4CV+7aQPeNJGO0LoRQEM87UEk8tPfPu28iWWXxZmpHbfvxP03XY13TKb3s7R+o0i0lwSB0G/Hu7+bkuwTfkwgepOltQkkKgqJcyHRj1EaTtNEpkkdvfGWl24FHeRatmaJTAnEXRHf9MDD+Mz6jRgoOj+hSnsg9JvfTzx0j4go3LvVzsMlwKqzP4+HfvRLcSy1CwO4ccPl2G/3tw1FFJ49EzfSue6e/8Lnr94kLjHSpvoH37szbrvms9iuELzHEjU8SgTiO2dKf6Un4N871YlAiEB6e47HWRGv8Qod4p5X9XTEv/nfFnsgkv6bwjOinqkgxXkcxymFRSGqEYUs1RVGUir1orpv0meTOopDoFysFXRQVrbFChoRiHsfgdJQtM+wuGe2OJEU9Iva3rP97iOL+xw6DduKXaCb6M6ZLfr9hxroUqJ7R0H4UquABfMXYtMNd4jf+qbP2uULsWjWYYMv5ga90eq2s+Kcy/GDH/1cvDFFKaRZ0w7DhetOEekbalf1HUCS5xzjnY4Bq0u8ZbW0ewbWLDlhMKIhWS7h0b+7REb3NggnujFOr/HSj1BF/vJ4go7NxeGDBx8lfhKYUn+9PdOxprfHOJ2Xuv0q9D/wGo1EsTwQiCr2qkSQ9H6IiSM2qaOKg2q5VtBBVddWK+chEPXQ3nsfgZwl/XF/1Cmqg+6JLP99Btf5+h06raD3/sg04YDpSQ4RraAmHhcsWPRm1cibHHT7mlJZtIlOBCTqWc4bVEROdIeD/v3Rh76pPBakt3sHxX1YnCIjd+/F1ZswmNC8X0HCtXBScJzKCjcLujo799WdcXL1ViVP3TaTL98cY3pOPkrpAPyCLiaqXMBMvg/pSZSd3DJtWZWETOVzvXwgYEQgqXQ9wAHQngmlgXR+8NQvJswvT/nIkYl3g8jpZ9/79ojn41Uakv3ahYoM3TKqxK8rN9nyHgIhwWEkkgIBJ9uP9pLGxNRe4zVa2uqnsDKcqO6Nce/Na930RZaOmSKOfQ89QjzPrvvxroxp8vpXgDoRk2rbFDHRa2CRKTVVYVyOEVBAgIlJAaQ2KhKPQOh3i+yhV5xasd/eH0ryvqybhq41C9hqOae24n7c1KArp9Uiprj9M6mfVMSUtzSWCZZ5q8PENDojGkogKoEGbUFsP3kq7Makkdo7T8E23yRPpnPuxN+8+etygc0OiA1t2hdpOD+HrbxzrgKATwt6pZf+EFGFvZDrVzwoQqIApkw/PxLQS90ILAqoOBGTbAA4Ymqav++RRBluSXzP+xdJoJju+OVljGITSDXgB/8E9AYOWHXY3/jGox1uCkj1DMrwE5jv79JVqDIBjnwtWOim2pmAcpbVh5de/q5DeCEf78+WmzZFEdM2S2+PSbWtgw6ZP+KFWdW6YeUKtMf0g9vEHhNFlkTUlCx0X1/zjgQRuDg04M1/ukfEieDjDFDcjqRcP63VeMpqa4lvdwec1hhljUssAiGS8Kew3JRR2ukiLWuLKNyK+hKmk3f4CD0xmVQ3A+XQnf5qgR6k9+7Z+E/jyf7uF+2Ut22rSSDR9Tdvvl+5jxTd7Tv106gVCrAaBdgF50Sd8zPABfELhrb4kbOaOF7+00cuRLnhIREqR/eAiKlhFXkAABEjSURBVHjoUFeOSUQZ1DYtmJYDbjU4dAlBBxdd2UHYxCOQIImJRx7qx4uNBj9xfY20GFaJ0m2hkV188S0lwY0mVZSqFIqoFDuBYgloEGE0f89d5Cmbx3zpn/RDYvTzxg26oFoTv74oPtYAYG3Blpd+ygSiAjiXGXUEdAghKWV1iEV/Ez0pLVlOOAJtcDhhNIZP3Gtp7jNxCms0RoDbZASGI8AEwhbBCDACjAAjYIQAE4gRbFyJEWAEGAFGgAmEbYARYAQYAUbACAEmECPYuBIjwAgwAowAEwjbACPACDACjIARAkwgRrBxJUaAEWAEGAEmELYBRoARYAQYASMEmECMYONKjAAjwAgwAkwgbAOMACPACDACRggwgRjBxpUYAUaAEWAEmEDYBhgBRoARYASMEGACMYKNKzECjAAjwAgwgbANMAKMACPACBghwARiBBtXYgQYAUaAEWACYRtgBBgBRoARMEKACcQINq7ECDACjAAjwATCNsAIMAKMACNghAATiBFsXIkRYAQYAUaACYRtgBFgBBgBRsAIASYQI9i4EiPACDACjAATCNsAI8AIMAKMgBECTCBGsHElRkAPAcuyRAXbtvUqcmlGoIURSIxAeIK08Cizapkj4M4Hf8M6BOKXoVM36w4H9VdF3zCcwvRXkanTd1O9ddrIc1ljAuEJoraa5AmS5+kT3reocVd1gkwg4fiqYiizPiYQGULR3ydOIDph+licIEGGn6YRpyk7nunlu/ZYIpA4i0ndBVaciM5fN47e+bZe9d4xgShgFcfQVEgyCWcT1I04eivAwkUiEJA5RpUVtIrtjOYgZNXHNOZHGjJHcyxGq+3ECIQmhHdQ8jZB/P1TjbR0nYBu+TDD8e5JJSVztIy0HdvNyrmOJjZZ9TGJdrw4JS1vNMdgtNtmAlFYRbpkaOKIs6oTNkFMiW+0DbPd2w8ad11b0C2fJWZJ9I/01e1j3Kg6Kb2zxLqV20qUQPwGIYtCdI0nSyC9K3i3XRN9TeqYTCy/jl7sTXXIEu+8tZWEo2rVcQvTy0TfJOqYZgPceiY65M1eTfvDBBKAXBB5mDp1U+M0qZek3qYGxfUcBJJwsjo24C0rW7gFLYhM6vgdt46+cRZlJnMxSjcTvdnOm3Zuq1qODzHVAYkSrzNwozFB/Lrr6DuaEyQJvXmCxENAlUCiVs869qZT1pRAZG3Ivg9C1KSOLoHI2pB9H88S8l078QhEZ3B1B06XRMJW5GFDKpOvq68OFn6dZLp4y8vKmuidb7NPv3eqC6y0CCRKrold+vsTJN/Ezkzq6Oiflt7pW1B7tJAKgfgHOCwK0TUenfIyp2risHXaTzICUY3iksK5PUy3tbXUIZAwZ69rb6rlVcuFLVKS0leHCHR10Zl/Jni0tvVlp10mBJKWwak4TNUMnUq0YmJoaddJS+/sTDCfLcnGXfa9iXM1WW3LIhUdPVT6FLVwU9ElDX1M9M6n1er3KjUCUYlCTAcuKrrQjTy8esrIxkTfOPrIJpQKeehMOH3z4RphCMhsxcTZy+wzaKz9NiTTK46D15VtYpsquOnKNdGbLd9BIFUCkZFInIELc8yqTtUf4ppMTt06uuWjCESHmHTK8sRIBgEV25aVkX2vSl6uHenKS7u8zD/IyCxsfmShdzJW0v5SEiGQODl6U+cWZCS6suKUl0UHfoJSKa+qjylJqujQ/ibdGj1QdWJR5VRlBPU4aKXuLSdbzJi0nUQd3dGTnThUsXnVeaer21gonymBBA1m3MEzMVrdEDeIDFQMM6gdmVHpTGxZWRMSk+nH36shoGrXMvtVlaOyWo9DIGq9Hl5KxT5lRBfWbhr7n25bKnqb4JHHOqkTiN+JRq0YTAZONgHDBs3UcHUmoSlRRRmaiUMxxSiPBp9Vn1QxD7LDOE/nyIhEdY4lMT/8ugS1rduOTH9deSr2IGtTRUZeyyRCICqr8SDHpzrJVB2qih5h0UQSA6wyQeIaI0+QJEYqfRk6th1WVkeGzkJJxQazsrMk+ujte1Z6p29B7dFC7ghEh0R0h8jE2E3q6OolK98KOsh0zNv3upgHldeVIYs+dKLnrBxx3D7q9NnUxlQI11R2u9fLjED86RwalLjG49ZPQpbKQJroa1JHRRedMq2gg46+eSiri3nSBCIjgDScom6f/T4hzcVfGlmMPNhp3D60LYF4ySMoLcUTZMg0TCZ2XMMa6/VNME/K6auQURrOOok+pzFvZbZoordM5lj5PlMCCVpx6ITVKkThNYakjdHE0EzqJG18raBD0n1qdXkmmCdBIFHtBslPco4k0eck9VG1ERO9VWXnvVzbEYgKQaiUMRlYE0MzqWOiG4foSaMWT57puEeRiMy5qhCEShnTnpv02aSOqX5h9VpBh6T7lJW8zAkkKgrRmSBJllUF28TQTOqo6qNarhV0UNU1L+VMMU+SQFTuSrh4y+aTyriY9NmkjoouOmVaQQcdfVupbFsSiIqxp2EUJjJN6iRtIK2gQ9J9anV5cTAPI5Eou9dtT7e8Ct4mMk3qqOiiU6YVdNDRt5XKtg2BmKSlTOoknQpqBeNsBR1ayeiz0CUO5roEYtJWGqmsJPRQWRwmPX4meietQ7vKMyaQLDtsOsCm9bLsG7eVTwTi2F4WBBKUSo7rvE36bFInaYtpBR2S7lNW8tqCQLICg9thBNoRAVMHaFqvHTFindNBgAkkHVxZKiPACDACuUeACST3Q8wdZAQYAUYgHQSYQNLBlaUyAowAI5B7BJhAcj/E3EFGgBFgBNJBgAkkHVxZKiPACDACuUeACST3Q8wdZAQYAUYgHQSYQNLBlaUyAowAI5B7BJhAcj/E3EFGgBFgBNJBgAkkHVxZKiPACDACuUeACST3Q8wdZAQYAUYgHQSYQNLBlaUyAowAI5B7BJhAcj/E3EFGgBFgBNJBgAkkHVxZKiPACDACuUeACST3Q8wdZAQYAUYgHQSYQNLBlaUyAowAI5B7BJhAcj/E3EFGgBFgBNJBgAkkHVxZak4QoB9divtLfTmBgrvBCIxAgAmEjYIRYAQYAUbACAEmECPYuBIjwAgwAowAEwjbACPACDACjIARAkwgRrBxJUaAEWAEGAEmELYBRoARYAQYASMEmECMYONKjAAjwAgwAkwgbAOMACPACDACRggwgRjBxpUYAUaAEWAEmEDYBhgBRoARYASMEGACMYKNKzECjAAjwAgwgbANMAKMACPACBghwARiBBtXYgQYAUaAEUiEQOjBOe+HH59jw2IEhiPgzhGeG2wZeULAiED8hOEHRGWShMlQqZv1AET1N0pfGU5h/UgKA1O9s8Y3j+0lYd/ttDAL6q+KHevOERWZOvZkqrdOG3kumwqBEGCygU5igmU1MKaOWHdymBBxFAamemeFa57bSQJ7JpBwC5H5F1XbYgJRRSq4HBOIBD8ZCaQRgSRBJHH0jmdSXJsQGEsEEmcxKLNTmTXFIZI4esv0Givfp0Ygsiik1QdP1bBNCMRbR6Ud3UmShsyxMiGS6qdsDFTGtNUjkKz6mAQZ+8c1DZlJ2U47yWECCRkt2eRwq2VBIDIy9nYhCb3byYBbVVfZODCBOCOnQpJJYKkzR1TGplXtLmu9UiWQKMfXyhGIzGC9gxSXQJI07KT0ztoI89ieyljIHJWKcx0t7JLonyqBqMwRGZaujKT0Hi3cW61dJhDfiKgYWFoEEjSh4rYVZnCqE67VDLZd9FGxI9kYtCqBqPRNNWo26WNQ+zIsZXNLdZ61i/1lpWfqBBJmSDoRiInBJFXH1V9HX9lqR2bsum1FldeVlZXh5b2dJJysjnP1lpXZV5B9mtTxz20dfcPmSBJ6BNlWlG4meufdflX7lwmBBJGIjmPTKRvlvOOkm5LSQWVlptOWrKzse1VD4XJ6CKgSSJQ96Dg2nbKmBCJrQ/a9rmOPQlynLVlZ2fd6Iz+2SidKIOSgVR2WajlZ6BlECjqyVeXryoySK1tlqbYV5aTcNlRljS2zT7+3Sax4dRxb0DjrLJhMbNJfR0ffrCIQFVxM9E7fgtqjhcwIRBbuunCFGbKqI1Qt5x0elToqZfxDnnYdFfkqZdrDVNtLSx0CCYtCdB2bannVclFzRGXhJiOloEVW0nVU+qpSpr2sLzttEycQ1ZW3rmOLs9rWSROEEZmuvqo4mJKOqj6q5bIzubHRkswpyb43ca4mq+2ouaEbJaj0SWbvSRKIqj6q5caG5er1MlMC8RqriWOTkYiuTJ3yOmXDJp5plBUnejPRW8+EuHQQAjKnZOLsTZyrzHZkMmX90I1S4hKICm665KvTR7b24QikQiAqq29TxxZFIkGDGzclZkoGYRjo6iNzAKakJHMcPFHiIaDilGRlZN+Haag6R2Q2oNu+bnn/HNHVJyx60tVDt3w8y8hX7dQIREYipgQSJdc/NLrOWmfTUea4dfSUmZRsQzxsIumSmEwP/l4dAVWnFFVOVYZKBKQ6N8IWTDLnrrvqly3MVJGWbeRHzY0gHVT6qarbWCiXGIGobKr5na5qOOofiLgrLNX6KgZgQjoqcoMM3wSvOEStqieXG4mAF3cdG4lyiDrOTWbjMlmy+ipjLmsjziJLZXGo0r4p8an0fyyUSYxAVB2eDFTVQY8yPpmMJCZHWD+8bZu2ozI5ZDjqfi/DTFfeWC+vGj3o2IjJGKnqYbpI0xlnnUWmyvwKKqODp6ruJrirym73cqkSiMkKQ2ewooxFZ9WX5CCqEIhOH726pTE5/FFhkliMZVk6jlt1XE3sxiRqNZm3KmOtQiAmfUx7jsTVSQWbdi2TOoHoGqPqYKlMutFeySedPlLps6khquJuKn+s1dMhENU5ojtGpgssVX10x5QJRBex1i/flgSi6kh1J1zUcJmQgUmdpE2mFXRIuk/tIG+0CUQ2R5KcG+546PY5iKjS0EtmLyZ6y2SOle8zIRCdFY3MgGQTwz9wMnmqA23iiE3qqOqjWq4VdFDVNU/lTJySzLZVbVkmx8VZVZ7quCTR56R1UtHdRG8VuWOhTFsRSJQzjBOuqwy0iSM2qaOii06ZVtBBR9+8lDVxSjLHr+Jco9o13Q9RHZMk+qzSR1V9VMuZ6K0qO+/lMiMQ1SjEZN/CrZMmiZg4YpM6SRtcK+iQdJ/aQZ6pU4pjwyoEoVLGFF+TPpvUMdUvrF4r6JB0n7KS1/YE4iecOBMwCnQTR2xSJ+mBbwUdku5TO8gzdUpx7Fe1zbRIRLV97/iZ1El6/FtBh6T7lJW8TAlEJQpROanhgqMbrcQJj00csUmdpAe+FXRIuk/tIC+OUzIZM932dMurYG4i06SOii46ZVpBBx19W6lsyxNIEpPJC7gpiSSph6kOJoZjordJO1xnOAJxnJLumJm0lUYUkoQeWc4Nd8RM9GZ7dxDIJYFERTqmBqo7qdPQwcRoTfQ2aYfrtBeBBNmn6dyI44hbwXm3gg7tOn+MCCTLzpo6QNN6WfaN22IEkkDA1AGa1ktCZ5aRDwRankDyATP3ghFgBBiB/CHABJK/MeUeMQKMACOQCQJMIJnAzI0wAowAI5A/BJhA8jem3CNGgBFgBDJBgAkkE5i5EUaAEWAE8ocAE0j+xpR7xAgwAoxAJggwgWQCMzfCCDACjED+EGACyd+Yco8YAUaAEcgEASaQTGDmRhgBRoARyB8CTCD5G1PuESPACDACmSDABJIJzNwII8AIMAL5Q4AJJH9jyj1iBBgBRiATBJhAMoGZG2EEGAFGIH8IMIHkb0y5R4wAI8AIZIIAE0gmMHMjjAAjwAjkDwEmkPyNKfcoIQTo9zLi/shSQqqwGEagJRGwANikGU+UlhwfVmoUEXB/cInnxigOAjfd0gj8fwXUKIzI+aYLAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>dmmnc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,12 +709,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,16 +1018,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2071,6 +2233,465 @@
       </c>
       <c r="E71" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>42074</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.33805555555555555</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>42105</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.2661574074074074</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>170</v>
+      </c>
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>42105</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0.37375000000000003</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>42105</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0.37415509259259255</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>42105</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.3744675925925926</v>
+      </c>
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>42105</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0.29381944444444447</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>42135</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0.26230324074074074</v>
+      </c>
+      <c r="C78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>42135</v>
+      </c>
+      <c r="B79" s="6">
+        <v>0.52725694444444449</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>42135</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0.4576736111111111</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>42166</v>
+      </c>
+      <c r="B81" s="6">
+        <v>0.27127314814814812</v>
+      </c>
+      <c r="C81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>42166</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.45393518518518516</v>
+      </c>
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>42166</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0.27787037037037038</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>42196</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.1915162037037037</v>
+      </c>
+      <c r="C84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" t="s">
+        <v>187</v>
+      </c>
+      <c r="E84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>42196</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.43804398148148144</v>
+      </c>
+      <c r="C85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>42227</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0.26753472222222224</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>42227</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0.38597222222222222</v>
+      </c>
+      <c r="C87" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" t="s">
+        <v>193</v>
+      </c>
+      <c r="E87" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>42258</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.27143518518518522</v>
+      </c>
+      <c r="C88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>42258</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0.16796296296296298</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>42288</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0.26533564814814814</v>
+      </c>
+      <c r="C90" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>42288</v>
+      </c>
+      <c r="B91" s="6">
+        <v>0.17281250000000001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" t="s">
+        <v>201</v>
+      </c>
+      <c r="E91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>42319</v>
+      </c>
+      <c r="B92" s="6">
+        <v>0.26245370370370369</v>
+      </c>
+      <c r="C92" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>42319</v>
+      </c>
+      <c r="B93" s="6">
+        <v>0.38601851851851854</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>42319</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.11673611111111111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>42319</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.36288194444444444</v>
+      </c>
+      <c r="C95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" t="s">
+        <v>209</v>
+      </c>
+      <c r="E95" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.33932870370370366</v>
+      </c>
+      <c r="C96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0.46943287037037035</v>
+      </c>
+      <c r="C97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" t="s">
+        <v>213</v>
+      </c>
+      <c r="E97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>42349</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0.12949074074074074</v>
+      </c>
+      <c r="C98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
